--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\Dynamic_cloud\Dynamics-CRM-Cloud\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80DCB8-A81C-47DC-8EC3-14C56FF7E3BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266414F1-5DE8-4108-A3E7-10989D460945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="2" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="Contact" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="623">
   <si>
     <t>Premier1a</t>
   </si>
@@ -1326,9 +1326,6 @@
     <t>TFS ID_8749:Cloud : Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>TFS ID_8923:Cloud: Verify AG and AG effective date on Account termination when AG populated for NONGPO account</t>
   </si>
   <si>
@@ -1638,18 +1635,9 @@
     <t>2000461295</t>
   </si>
   <si>
-    <t>832157</t>
-  </si>
-  <si>
     <t>TFS ID_9068:Cloud : Bulk Import Create Supplier Template</t>
   </si>
   <si>
-    <t>BulkImport</t>
-  </si>
-  <si>
-    <t>smoke</t>
-  </si>
-  <si>
     <t>FileType</t>
   </si>
   <si>
@@ -1749,15 +1737,6 @@
     <t>https://premierstage.crm.dynamics.com/main.aspx?appid=661f146b-8f54-ec11-8f8e-00224806d209</t>
   </si>
   <si>
-    <t>2000510677</t>
-  </si>
-  <si>
-    <t>2000510678</t>
-  </si>
-  <si>
-    <t>2000510679</t>
-  </si>
-  <si>
     <t>2000510682</t>
   </si>
   <si>
@@ -1797,64 +1776,139 @@
     <t>2000510697</t>
   </si>
   <si>
-    <t>7000567058</t>
-  </si>
-  <si>
-    <t>7000567059</t>
-  </si>
-  <si>
-    <t>7000567060</t>
-  </si>
-  <si>
-    <t>7000567061</t>
-  </si>
-  <si>
-    <t>7000567062</t>
-  </si>
-  <si>
-    <t>7000567063</t>
-  </si>
-  <si>
-    <t>7000567064</t>
-  </si>
-  <si>
-    <t>2000510739</t>
-  </si>
-  <si>
-    <t>2000510740</t>
-  </si>
-  <si>
-    <t>2000510741</t>
-  </si>
-  <si>
-    <t>2000510743</t>
-  </si>
-  <si>
-    <t>2000510744</t>
-  </si>
-  <si>
-    <t>2000510745</t>
-  </si>
-  <si>
-    <t>2000510752</t>
-  </si>
-  <si>
-    <t>2000510762</t>
+    <t>2000511074</t>
+  </si>
+  <si>
+    <t>2000511075</t>
+  </si>
+  <si>
+    <t>2000511076</t>
+  </si>
+  <si>
+    <t>2000511078</t>
+  </si>
+  <si>
+    <t>2000511079</t>
+  </si>
+  <si>
+    <t>2000511080</t>
+  </si>
+  <si>
+    <t>2000511082</t>
+  </si>
+  <si>
+    <t>2000511083</t>
+  </si>
+  <si>
+    <t>7000567442</t>
+  </si>
+  <si>
+    <t>7000567443</t>
+  </si>
+  <si>
+    <t>7000567444</t>
+  </si>
+  <si>
+    <t>7000567445</t>
+  </si>
+  <si>
+    <t>7000567446</t>
+  </si>
+  <si>
+    <t>7000567447</t>
+  </si>
+  <si>
+    <t>7000567450</t>
+  </si>
+  <si>
+    <t>North Oaks Health System</t>
+  </si>
+  <si>
+    <t>693374</t>
+  </si>
+  <si>
+    <t>North Oaks Cardiology Clinic</t>
+  </si>
+  <si>
+    <t>2000511323</t>
+  </si>
+  <si>
+    <t>2000511324</t>
+  </si>
+  <si>
+    <t>2000511325</t>
+  </si>
+  <si>
+    <t>2000511727</t>
+  </si>
+  <si>
+    <t>8816_TerminatedAccountStatus</t>
+  </si>
+  <si>
+    <t>8806_CheckDPExceptionReason</t>
+  </si>
+  <si>
+    <t>TFS ID_8816:Cloud: Verify user is NOT able to create accounts directly with Terminated status</t>
+  </si>
+  <si>
+    <t>TFS ID_8806:Cloud: Verify whether DP Exception Reason should not be required, while creating new account from sub account entity</t>
+  </si>
+  <si>
+    <t>TFS ID_8780:Cloud : Verify corresponding LOB is getting deactivated when end dated membership is deactivated</t>
+  </si>
+  <si>
+    <t>8770_Check LOB End Date</t>
+  </si>
+  <si>
+    <t>TFS ID_8819:Cloud : Verify a GPO member can not be child of NON GPO member</t>
+  </si>
+  <si>
+    <t>8819_VerifyGPOUnderNonGPO</t>
+  </si>
+  <si>
+    <t>TFS ID_8798:Cloud : Verify DP Relation Date is cleared if Is Top Parent Is Set to Yes</t>
+  </si>
+  <si>
+    <t>1000174081</t>
+  </si>
+  <si>
+    <t>2000000037</t>
+  </si>
+  <si>
+    <t>You cannot publish the GPO Member since Direct Parent is NonGPO Member</t>
+  </si>
+  <si>
+    <t>2000511792</t>
+  </si>
+  <si>
+    <t>2000511799</t>
+  </si>
+  <si>
+    <t>TFS ID_8789:Cloud -Verify AG calculated correctly after prospect become a member</t>
+  </si>
+  <si>
+    <t>8789_AG and AG effective date on Account creation as Prospects</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2022_02_02_09_51_17</t>
+  </si>
+  <si>
+    <t>2022_02_02_10_08_28</t>
+  </si>
+  <si>
+    <t>2022_02_02_10_31_23</t>
+  </si>
+  <si>
+    <t>2022_02_02_12_30_41</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2000510768</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2022_01_20_03_29_01</t>
-  </si>
-  <si>
-    <t>2022_01_20_03_36_13</t>
+    <t>2022_02_02_12_45_50</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2069,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2052,8 +2106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2091,15 +2151,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -2112,7 +2163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2241,17 +2292,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2573,24 +2625,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="C52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2619,10 +2671,10 @@
         <v>30</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>59</v>
@@ -2645,21 +2697,21 @@
         <v>40</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>602</v>
+        <v>265</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>603</v>
+        <v>266</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
-      <c r="K2" s="84" t="s">
-        <v>568</v>
+      <c r="K2" s="81" t="s">
+        <v>564</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2685,13 +2737,13 @@
         <v>266</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="84" t="s">
-        <v>568</v>
+      <c r="L3" s="81" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2717,7 +2769,7 @@
         <v>266</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -2746,7 +2798,7 @@
         <v>266</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -2811,7 +2863,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>35</v>
@@ -2829,7 +2881,7 @@
         <v>266</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -2867,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>35</v>
@@ -2885,7 +2937,7 @@
         <v>266</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -2914,7 +2966,7 @@
         <v>266</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -2925,7 +2977,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>35</v>
@@ -2943,7 +2995,7 @@
         <v>266</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -3027,7 +3079,7 @@
         <v>266</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -3038,7 +3090,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>35</v>
@@ -3056,7 +3108,7 @@
         <v>266</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -3067,7 +3119,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>35</v>
@@ -3094,7 +3146,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>35</v>
@@ -3148,7 +3200,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>35</v>
@@ -3193,7 +3245,7 @@
         <v>266</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -3204,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>35</v>
@@ -3223,10 +3275,10 @@
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K22" s="26"/>
     </row>
@@ -3253,7 +3305,7 @@
         <v>266</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -3282,7 +3334,7 @@
         <v>266</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -3311,7 +3363,7 @@
         <v>266</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -3340,7 +3392,7 @@
         <v>266</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -3369,7 +3421,7 @@
         <v>266</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -3398,7 +3450,7 @@
         <v>266</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -3427,7 +3479,7 @@
         <v>266</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -3483,7 +3535,7 @@
         <v>266</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
@@ -3512,7 +3564,7 @@
         <v>266</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -3633,7 +3685,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>35</v>
@@ -3660,7 +3712,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>35</v>
@@ -3687,7 +3739,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>35</v>
@@ -3714,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>35</v>
@@ -3741,7 +3793,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>35</v>
@@ -3768,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>35</v>
@@ -3795,7 +3847,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>35</v>
@@ -3822,7 +3874,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>35</v>
@@ -3849,7 +3901,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>35</v>
@@ -3876,7 +3928,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>35</v>
@@ -3903,7 +3955,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>35</v>
@@ -3930,7 +3982,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>35</v>
@@ -3957,7 +4009,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>35</v>
@@ -3984,7 +4036,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>35</v>
@@ -4011,7 +4063,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>35</v>
@@ -4038,7 +4090,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>35</v>
@@ -4065,7 +4117,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>35</v>
@@ -4092,7 +4144,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>35</v>
@@ -4119,7 +4171,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>35</v>
@@ -4146,7 +4198,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>35</v>
@@ -4169,186 +4221,182 @@
       <c r="K56" s="25"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>29</v>
+      <c r="B57" s="25" t="s">
+        <v>602</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H57" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="23"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>468</v>
+      <c r="B58" s="25" t="s">
+        <v>603</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H58" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
+      <c r="H58" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
+      <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>472</v>
+      <c r="B59" s="25" t="s">
+        <v>604</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H59" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="23"/>
+      <c r="H59" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>455</v>
+      <c r="B60" s="25" t="s">
+        <v>606</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="23"/>
+      <c r="H60" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>92</v>
+      <c r="B61" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H61" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="23"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>97</v>
+      <c r="B62" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="22" t="s">
+      <c r="D62" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23"/>
+      <c r="F62" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
-        <v>61</v>
+      <c r="A63" s="7">
+        <v>57</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>26</v>
@@ -4363,21 +4411,21 @@
         <v>266</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>104</v>
+        <v>578</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="23"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
-        <v>62</v>
+      <c r="A64" s="7">
+        <v>58</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>106</v>
+        <v>467</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>26</v>
@@ -4392,21 +4440,21 @@
         <v>266</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="23"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
-        <v>63</v>
+      <c r="A65" s="7">
+        <v>59</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>26</v>
@@ -4421,21 +4469,21 @@
         <v>266</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>114</v>
+        <v>580</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="23"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
-        <v>64</v>
+      <c r="A66" s="7">
+        <v>60</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>112</v>
+        <v>454</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>26</v>
@@ -4449,22 +4497,20 @@
       <c r="G66" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H66" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="H66" s="22"/>
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="23"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
-        <v>65</v>
+      <c r="A67" s="7">
+        <v>61</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>26</v>
@@ -4479,21 +4525,21 @@
         <v>266</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>119</v>
+        <v>581</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="23"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
-        <v>66</v>
+      <c r="A68" s="7">
+        <v>62</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>26</v>
@@ -4502,27 +4548,27 @@
         <v>40</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>600</v>
+        <v>265</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>604</v>
+        <v>266</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="23"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
-        <v>67</v>
+      <c r="A69" s="7">
+        <v>63</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>26</v>
@@ -4537,21 +4583,21 @@
         <v>266</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="23"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>68</v>
+      <c r="A70" s="7">
+        <v>64</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>26</v>
@@ -4565,20 +4611,22 @@
       <c r="G70" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H70" s="22"/>
+      <c r="H70" s="22" t="s">
+        <v>583</v>
+      </c>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="23"/>
     </row>
-    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
-        <v>69</v>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>65</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>26</v>
@@ -4593,21 +4641,21 @@
         <v>266</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>599</v>
+        <v>114</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="23"/>
     </row>
-    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>70</v>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>66</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>419</v>
+        <v>112</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>26</v>
@@ -4622,21 +4670,21 @@
         <v>266</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>598</v>
+        <v>114</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
-        <v>71</v>
+      <c r="A73" s="7">
+        <v>67</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>457</v>
+        <v>115</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>26</v>
@@ -4647,23 +4695,25 @@
       <c r="F73" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G73" s="25" t="s">
+      <c r="G73" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
+      <c r="H73" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="23"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
-        <v>72</v>
+      <c r="A74" s="7">
+        <v>68</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>464</v>
+        <v>122</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>26</v>
@@ -4674,23 +4724,25 @@
       <c r="F74" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="H74" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="23"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
-        <v>73</v>
+      <c r="A75" s="7">
+        <v>69</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>469</v>
+        <v>129</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>26</v>
@@ -4701,23 +4753,25 @@
       <c r="F75" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
+      <c r="H75" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
-        <v>74</v>
+      <c r="A76" s="7">
+        <v>70</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>474</v>
+        <v>257</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" s="22" t="s">
         <v>26</v>
@@ -4728,23 +4782,23 @@
       <c r="F76" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G76" s="25" t="s">
+      <c r="G76" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
-        <v>75</v>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="23"/>
+    </row>
+    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>71</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>477</v>
+        <v>186</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>26</v>
@@ -4755,23 +4809,25 @@
       <c r="F77" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
-        <v>76</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>480</v>
+      <c r="H77" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23"/>
+    </row>
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="82" t="s">
+        <v>419</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>26</v>
@@ -4782,23 +4838,25 @@
       <c r="F78" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G78" s="25" t="s">
+      <c r="G78" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
+      <c r="H78" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="23"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
-        <v>77</v>
+      <c r="A79" s="7">
+        <v>73</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>26</v>
@@ -4818,311 +4876,427 @@
       <c r="K79" s="25"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="30">
-        <v>78</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>221</v>
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E80" s="31" t="s">
+      <c r="D80" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F80" s="31" t="s">
+      <c r="F80" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G80" s="28" t="s">
+      <c r="G80" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H80" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="30">
-        <v>79</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>421</v>
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>468</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E81" s="31" t="s">
+      <c r="D81" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="G81" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H81" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
-        <v>80</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>422</v>
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E82" s="31" t="s">
+      <c r="D82" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="31" t="s">
+      <c r="F82" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G82" s="28" t="s">
+      <c r="G82" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H82" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="30">
-        <v>81</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>423</v>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>476</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="31" t="s">
+      <c r="D83" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H83" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
-        <v>82</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>424</v>
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>479</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E84" s="31" t="s">
+      <c r="D84" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H84" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
-        <v>83</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>420</v>
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>474</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E85" s="31" t="s">
+      <c r="D85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
-        <v>84</v>
+      <c r="A86" s="7">
+        <v>80</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>425</v>
+        <v>221</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="31" t="s">
         <v>220</v>
       </c>
       <c r="E86" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G86" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
+      <c r="H86" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
-        <v>85</v>
+      <c r="A87" s="7">
+        <v>81</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="31" t="s">
         <v>220</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H87" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="30">
-        <v>86</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>427</v>
+      <c r="H87" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>422</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="31" t="s">
         <v>220</v>
       </c>
       <c r="E88" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H88" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="78">
-        <v>87</v>
-      </c>
-      <c r="B89" s="78" t="s">
-        <v>533</v>
+      <c r="H88" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>423</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="79" t="s">
-        <v>534</v>
-      </c>
-      <c r="E89" s="78" t="s">
-        <v>535</v>
-      </c>
-      <c r="F89" s="78" t="s">
+      <c r="D89" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="29" t="s">
         <v>266</v>
       </c>
+      <c r="H89" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="81">
-        <v>88</v>
-      </c>
-      <c r="B90" s="82" t="s">
-        <v>540</v>
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>424</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D90" s="79" t="s">
-        <v>534</v>
-      </c>
-      <c r="E90" s="78" t="s">
-        <v>535</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="D90" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="29" t="s">
         <v>266</v>
       </c>
+      <c r="H90" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G91" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C90" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C94" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5160,10 +5334,10 @@
         <v>286</v>
       </c>
       <c r="E1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5171,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>322</v>
@@ -5179,19 +5353,19 @@
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>539</v>
+      <c r="E2" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>540</v>
+      <c r="B3" s="79" t="s">
+        <v>536</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>322</v>
@@ -5199,11 +5373,11 @@
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>539</v>
+      <c r="E3" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5218,96 +5392,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DY56"/>
+  <dimension ref="A1:DY62"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX62" sqref="AX62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="66" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="71" max="77" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="9.140625" style="2" collapsed="1"/>
-    <col min="83" max="83" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="105" width="9.140625" style="2" collapsed="1"/>
-    <col min="106" max="106" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="6" max="8" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="55" max="66" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="71" max="77" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="79" max="79" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="82" max="82" style="2" width="9.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="99" max="105" style="2" width="9.140625" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="107" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="60" customFormat="1" x14ac:dyDescent="0.25">
@@ -5725,7 +5899,7 @@
         <v>7</v>
       </c>
       <c r="AB2" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC2" s="16"/>
       <c r="AD2" s="35" t="s">
@@ -5736,7 +5910,7 @@
       </c>
       <c r="AF2" s="16"/>
       <c r="AG2" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH2" s="35" t="s">
         <v>240</v>
@@ -5763,9 +5937,11 @@
         <v>35</v>
       </c>
       <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
+      <c r="AW2" s="16" t="s">
+        <v>593</v>
+      </c>
       <c r="AX2" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="16" t="s">
@@ -5907,7 +6083,7 @@
         <v>7</v>
       </c>
       <c r="AB3" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC3" s="16"/>
       <c r="AD3" s="35" t="s">
@@ -5950,10 +6126,10 @@
       </c>
       <c r="AV3" s="16"/>
       <c r="AW3" s="16" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16" t="s">
@@ -6095,7 +6271,7 @@
         <v>7</v>
       </c>
       <c r="AB4" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC4" s="16"/>
       <c r="AD4" s="35" t="s">
@@ -6138,10 +6314,10 @@
       </c>
       <c r="AV4" s="16"/>
       <c r="AW4" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AX4" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16" t="s">
@@ -6281,7 +6457,7 @@
         <v>7</v>
       </c>
       <c r="AB5" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC5" s="16"/>
       <c r="AD5" s="35" t="s">
@@ -6292,7 +6468,7 @@
       </c>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH5" s="35" t="s">
         <v>240</v>
@@ -6321,7 +6497,7 @@
       <c r="AV5" s="16"/>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16" t="s">
@@ -6463,7 +6639,7 @@
         <v>7</v>
       </c>
       <c r="AB6" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC6" s="15"/>
       <c r="AD6" s="38" t="s">
@@ -6474,7 +6650,7 @@
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH6" s="38" t="s">
         <v>240</v>
@@ -6502,8 +6678,8 @@
       </c>
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
-      <c r="AX6" s="15" t="s">
-        <v>244</v>
+      <c r="AX6" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="AY6" s="15"/>
       <c r="AZ6" s="15" t="s">
@@ -6643,7 +6819,7 @@
         <v>7</v>
       </c>
       <c r="AB7" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC7" s="15"/>
       <c r="AD7" s="38" t="s">
@@ -6654,7 +6830,7 @@
       </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH7" s="38" t="s">
         <v>240</v>
@@ -6682,8 +6858,8 @@
       </c>
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
-      <c r="AX7" s="15" t="s">
-        <v>244</v>
+      <c r="AX7" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="15" t="s">
@@ -6771,7 +6947,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>299</v>
@@ -6784,7 +6960,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -6844,7 +7020,7 @@
         <v>47</v>
       </c>
       <c r="AK8" s="16" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AL8" s="35" t="s">
         <v>240</v>
@@ -6875,7 +7051,7 @@
       </c>
       <c r="AW8" s="16"/>
       <c r="AX8" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16" t="s">
@@ -7036,7 +7212,7 @@
         <v>47</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AL9" s="35" t="s">
         <v>240</v>
@@ -7071,7 +7247,7 @@
       </c>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16" t="s">
@@ -7159,7 +7335,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>321</v>
@@ -7172,7 +7348,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -7215,7 +7391,7 @@
         <v>7</v>
       </c>
       <c r="AB10" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC10" s="16" t="s">
         <v>11</v>
@@ -7256,10 +7432,10 @@
       </c>
       <c r="AV10" s="16"/>
       <c r="AW10" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AX10" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16" t="s">
@@ -7403,7 +7579,7 @@
         <v>7</v>
       </c>
       <c r="AB11" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC11" s="16" t="s">
         <v>11</v>
@@ -7448,10 +7624,10 @@
       </c>
       <c r="AV11" s="16"/>
       <c r="AW11" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AX11" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16" t="s">
@@ -7539,7 +7715,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>321</v>
@@ -7552,7 +7728,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -7595,7 +7771,7 @@
         <v>7</v>
       </c>
       <c r="AB12" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC12" s="16" t="s">
         <v>11</v>
@@ -7637,7 +7813,7 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="16"/>
       <c r="AX12" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16" t="s">
@@ -7781,7 +7957,7 @@
         <v>7</v>
       </c>
       <c r="AB13" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC13" s="16" t="s">
         <v>11</v>
@@ -7823,7 +7999,7 @@
       <c r="AV13" s="16"/>
       <c r="AW13" s="16"/>
       <c r="AX13" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16" t="s">
@@ -7967,7 +8143,7 @@
         <v>7</v>
       </c>
       <c r="AB14" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC14" s="16" t="s">
         <v>11</v>
@@ -8009,7 +8185,7 @@
       <c r="AV14" s="16"/>
       <c r="AW14" s="16"/>
       <c r="AX14" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16" t="s">
@@ -8153,7 +8329,7 @@
         <v>7</v>
       </c>
       <c r="AB15" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC15" s="16" t="s">
         <v>11</v>
@@ -8194,10 +8370,10 @@
       </c>
       <c r="AV15" s="16"/>
       <c r="AW15" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AX15" s="16" t="s">
-        <v>244</v>
+        <v>595</v>
       </c>
       <c r="AY15" s="16"/>
       <c r="AZ15" s="16" t="s">
@@ -8285,7 +8461,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>321</v>
@@ -8298,7 +8474,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -8341,7 +8517,7 @@
         <v>7</v>
       </c>
       <c r="AB16" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC16" s="16" t="s">
         <v>11</v>
@@ -8382,7 +8558,7 @@
       </c>
       <c r="AV16" s="16"/>
       <c r="AW16" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AX16" s="16" t="s">
         <v>244</v>
@@ -8473,7 +8649,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>321</v>
@@ -8482,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>215</v>
@@ -8494,7 +8670,7 @@
         <v>210</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>216</v>
@@ -8627,7 +8803,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>321</v>
@@ -8640,7 +8816,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -8689,7 +8865,7 @@
         <v>7</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC18" s="16" t="s">
         <v>11</v>
@@ -8953,7 +9129,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>321</v>
@@ -8966,7 +9142,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J20" s="45"/>
       <c r="K20" s="45"/>
@@ -9007,7 +9183,7 @@
         <v>7</v>
       </c>
       <c r="AB20" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC20" s="16"/>
       <c r="AD20" s="35" t="s">
@@ -9104,7 +9280,7 @@
       </c>
       <c r="CB20" s="45"/>
       <c r="CC20" s="35" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="CD20" s="45" t="s">
         <v>253</v>
@@ -9211,7 +9387,7 @@
         <v>7</v>
       </c>
       <c r="AB21" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC21" s="16" t="s">
         <v>51</v>
@@ -9270,7 +9446,7 @@
         <v>51</v>
       </c>
       <c r="AW21" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AX21" s="16" t="s">
         <v>244</v>
@@ -9416,10 +9592,10 @@
         <v>35</v>
       </c>
       <c r="DK21" s="14" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="DL21" s="14" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="DM21" s="45" t="s">
         <v>35</v>
@@ -9433,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>321</v>
@@ -9446,7 +9622,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
@@ -9487,7 +9663,7 @@
         <v>7</v>
       </c>
       <c r="AB22" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC22" s="16"/>
       <c r="AD22" s="35" t="s">
@@ -9530,7 +9706,7 @@
       </c>
       <c r="AV22" s="16"/>
       <c r="AW22" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AX22" s="16" t="s">
         <v>244</v>
@@ -9624,13 +9800,13 @@
         <v>178</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
@@ -9764,13 +9940,13 @@
         <v>177</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -9904,13 +10080,13 @@
         <v>169</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
@@ -10044,13 +10220,13 @@
         <v>179</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
@@ -10184,13 +10360,13 @@
         <v>180</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
@@ -10326,13 +10502,13 @@
         <v>181</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
@@ -10511,7 +10687,7 @@
         <v>7</v>
       </c>
       <c r="AB29" s="50" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AC29" s="45"/>
       <c r="AD29" s="35" t="s">
@@ -10622,7 +10798,7 @@
         <v>211</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>0</v>
@@ -10839,7 +11015,7 @@
         <v>7</v>
       </c>
       <c r="AB31" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC31" s="16"/>
       <c r="AD31" s="35" t="s">
@@ -11015,7 +11191,7 @@
         <v>7</v>
       </c>
       <c r="AB32" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC32" s="16"/>
       <c r="AD32" s="35" t="s">
@@ -11193,7 +11369,7 @@
         <v>7</v>
       </c>
       <c r="AB33" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC33" s="16"/>
       <c r="AD33" s="35" t="s">
@@ -11343,8 +11519,8 @@
       <c r="I34" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="J34" s="83" t="s">
-        <v>547</v>
+      <c r="J34" s="80" t="s">
+        <v>543</v>
       </c>
       <c r="K34" s="45"/>
       <c r="L34" s="45"/>
@@ -11522,7 +11698,7 @@
         <v>7</v>
       </c>
       <c r="AB35" s="37" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="AC35" s="16"/>
       <c r="AD35" s="35" t="s">
@@ -11694,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F36" s="45"/>
       <c r="G36" s="45"/>
@@ -11765,14 +11941,14 @@
         <v>235</v>
       </c>
       <c r="BP36" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="BQ36" s="16" t="s">
         <v>236</v>
       </c>
       <c r="BR36" s="45"/>
       <c r="BS36" s="35" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="BT36" s="45"/>
       <c r="BU36" s="45"/>
@@ -11831,7 +12007,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>299</v>
@@ -11844,7 +12020,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -12005,7 +12181,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>299</v>
@@ -12018,7 +12194,7 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -12179,7 +12355,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>299</v>
@@ -12192,7 +12368,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
@@ -12353,7 +12529,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>299</v>
@@ -12366,7 +12542,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
@@ -12527,7 +12703,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>299</v>
@@ -12540,7 +12716,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
@@ -12701,7 +12877,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>299</v>
@@ -12714,7 +12890,7 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
@@ -12875,7 +13051,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>299</v>
@@ -12888,7 +13064,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -13051,7 +13227,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>299</v>
@@ -13064,7 +13240,7 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
@@ -13227,7 +13403,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>299</v>
@@ -13240,7 +13416,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
@@ -13403,7 +13579,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>299</v>
@@ -13416,7 +13592,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
@@ -13583,7 +13759,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>299</v>
@@ -13596,7 +13772,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
@@ -13763,7 +13939,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>299</v>
@@ -13776,7 +13952,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
@@ -13943,7 +14119,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>299</v>
@@ -13951,14 +14127,12 @@
       <c r="D49" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>428</v>
-      </c>
+      <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -14125,7 +14299,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>299</v>
@@ -14138,7 +14312,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
@@ -14305,7 +14479,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>299</v>
@@ -14318,7 +14492,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -14485,7 +14659,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>299</v>
@@ -14498,7 +14672,7 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
@@ -14667,7 +14841,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>299</v>
@@ -14680,7 +14854,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -14849,7 +15023,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>299</v>
@@ -14862,7 +15036,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
@@ -15031,7 +15205,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>299</v>
@@ -15044,7 +15218,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
@@ -15205,7 +15379,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>299</v>
@@ -15218,7 +15392,7 @@
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
       <c r="I56" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J56" s="45"/>
       <c r="K56" s="45"/>
@@ -15380,6 +15554,517 @@
       <c r="DM56" s="45"/>
       <c r="DN56" s="45"/>
     </row>
+    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB57" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD57" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH57" s="38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="V58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X58" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB58" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE58" s="38"/>
+      <c r="AF58" s="15"/>
+      <c r="AG58" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH58" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI58" s="15"/>
+      <c r="AJ58" s="15"/>
+      <c r="AK58" s="15"/>
+      <c r="AP58" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="AZ58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB58" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO58" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP58" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ58" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="BR58" s="45"/>
+      <c r="BS58" s="45"/>
+      <c r="BT58" s="45"/>
+      <c r="BU58" s="45"/>
+      <c r="BV58" s="45"/>
+      <c r="BW58" s="45"/>
+      <c r="BX58" s="45"/>
+      <c r="BY58" s="45"/>
+    </row>
+    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O59" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="V59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X59" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB59" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD59" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG59" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH59" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI59" s="15"/>
+      <c r="AZ59" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA59" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB59" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BC59" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD59" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE59" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO59" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP59" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ59" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR59" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS59" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="CC59" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="CD59" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="L60" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O60" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="V60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W60" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X60" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB60" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD60" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG60" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH60" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ60" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA60" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB60" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO60" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP60" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ60" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="83" t="s">
+        <v>609</v>
+      </c>
+      <c r="F61" s="83" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O62" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W62" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y62" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB62" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH62" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI62" s="15"/>
+      <c r="AJ62" s="15"/>
+      <c r="AK62" s="15"/>
+      <c r="AL62" s="15"/>
+      <c r="AM62" s="15"/>
+      <c r="AN62" s="15"/>
+      <c r="AO62" s="45"/>
+      <c r="AP62" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ62" s="45"/>
+      <c r="AR62" s="45"/>
+      <c r="AS62" s="45"/>
+      <c r="AT62" s="45"/>
+      <c r="AU62" s="45"/>
+      <c r="AV62" s="45"/>
+      <c r="AW62" s="45"/>
+      <c r="AX62" s="45"/>
+      <c r="AY62" s="45"/>
+      <c r="AZ62" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA62" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB62" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="38"/>
+      <c r="BG62" s="38"/>
+      <c r="BH62" s="38"/>
+      <c r="BI62" s="38"/>
+      <c r="BJ62" s="38"/>
+      <c r="BK62" s="38"/>
+      <c r="BL62" s="38"/>
+      <c r="BM62" s="38"/>
+      <c r="BN62" s="38"/>
+      <c r="BO62" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP62" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ62" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR62" s="45"/>
+      <c r="BS62" s="45"/>
+      <c r="BT62" s="45"/>
+      <c r="BU62" s="45"/>
+      <c r="BV62" s="45"/>
+      <c r="BW62" s="45"/>
+      <c r="BX62" s="45"/>
+      <c r="BY62" s="45"/>
+      <c r="BZ62" s="45"/>
+      <c r="CA62" s="45"/>
+      <c r="CB62" s="45"/>
+      <c r="CC62" s="45"/>
+      <c r="CD62" s="45"/>
+      <c r="CE62" s="45"/>
+      <c r="CF62" s="45"/>
+      <c r="CG62" s="45"/>
+      <c r="CH62" s="45"/>
+      <c r="CI62" s="45"/>
+      <c r="CJ62" s="45"/>
+      <c r="CK62" s="45"/>
+      <c r="CL62" s="45"/>
+      <c r="CM62" s="45"/>
+      <c r="CN62" s="45"/>
+      <c r="CO62" s="45"/>
+      <c r="CP62" s="45"/>
+      <c r="CQ62" s="45"/>
+      <c r="CR62" s="45"/>
+      <c r="CS62" s="45"/>
+      <c r="CT62" s="45"/>
+      <c r="CU62" s="45"/>
+      <c r="CV62" s="45"/>
+      <c r="CW62" s="45"/>
+      <c r="CX62" s="45"/>
+      <c r="CY62" s="45"/>
+      <c r="CZ62" s="45"/>
+      <c r="DA62" s="45"/>
+      <c r="DB62" s="45"/>
+      <c r="DC62" s="45"/>
+      <c r="DD62" s="45"/>
+      <c r="DE62" s="45"/>
+      <c r="DF62" s="45"/>
+      <c r="DG62" s="45"/>
+      <c r="DH62" s="45"/>
+      <c r="DI62" s="45"/>
+      <c r="DJ62" s="45"/>
+      <c r="DK62" s="45"/>
+      <c r="DL62" s="45"/>
+      <c r="DM62" s="45"/>
+      <c r="DN62" s="45"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -15412,60 +16097,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="29" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="28" max="29" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="37" max="38" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
@@ -15479,7 +16164,7 @@
         <v>285</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>286</v>
@@ -15551,10 +16236,10 @@
         <v>76</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>77</v>
@@ -15728,7 +16413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>322</v>
@@ -15814,7 +16499,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>322</v>
@@ -15902,7 +16587,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>323</v>
@@ -16384,12 +17069,12 @@
         <v>114</v>
       </c>
       <c r="V10" s="73" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W10" s="72"/>
       <c r="X10" s="72"/>
       <c r="Y10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
@@ -16466,12 +17151,12 @@
         <v>114</v>
       </c>
       <c r="V11" s="73" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W11" s="73"/>
       <c r="X11" s="73"/>
       <c r="Y11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
@@ -16847,7 +17532,7 @@
         <v>96</v>
       </c>
       <c r="AE15" s="25" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
@@ -16957,7 +17642,7 @@
         <v>267</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P16" s="51" t="s">
         <v>267</v>
@@ -17043,7 +17728,7 @@
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>240</v>
@@ -17116,7 +17801,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>322</v>
@@ -17131,10 +17816,10 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="63"/>
@@ -17145,7 +17830,7 @@
       <c r="S18" s="62"/>
       <c r="T18" s="14"/>
       <c r="U18" s="48" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
@@ -17153,25 +17838,25 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG18" s="14"/>
       <c r="AH18" s="69" t="s">
         <v>236</v>
       </c>
       <c r="AI18" s="51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AJ18" s="69" t="s">
         <v>260</v>
@@ -17202,7 +17887,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>322</v>
@@ -17221,7 +17906,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>111</v>
@@ -17235,7 +17920,7 @@
       <c r="S19" s="62"/>
       <c r="T19" s="14"/>
       <c r="U19" s="48" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
@@ -17243,16 +17928,16 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB19" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
       <c r="AF19" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG19" s="69" t="s">
         <v>235</v>
@@ -17292,7 +17977,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>322</v>
@@ -17311,10 +17996,10 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="L20" s="35" t="s">
         <v>470</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>471</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="63"/>
@@ -17325,7 +18010,7 @@
       <c r="S20" s="62"/>
       <c r="T20" s="14"/>
       <c r="U20" s="48" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
@@ -17333,16 +18018,16 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
       <c r="AF20" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG20" s="69" t="s">
         <v>235</v>
@@ -17351,7 +18036,7 @@
         <v>236</v>
       </c>
       <c r="AI20" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AJ20" s="69" t="s">
         <v>260</v>
@@ -17382,7 +18067,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>323</v>
@@ -17403,7 +18088,7 @@
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="70" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L21" s="51" t="s">
         <v>84</v>
@@ -17472,7 +18157,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>322</v>
@@ -17495,7 +18180,7 @@
         <v>116</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>240</v>
@@ -17507,7 +18192,7 @@
         <v>267</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P22" s="51" t="s">
         <v>267</v>
@@ -17568,7 +18253,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>322</v>
@@ -17591,7 +18276,7 @@
         <v>116</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -17648,7 +18333,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>322</v>
@@ -17671,7 +18356,7 @@
         <v>116</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>240</v>
@@ -17683,7 +18368,7 @@
         <v>267</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P24" s="51" t="s">
         <v>267</v>
@@ -17782,26 +18467,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -17884,7 +18569,7 @@
         <v>224</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="16" t="s">
@@ -17935,10 +18620,10 @@
         <v>220</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H3" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="16" t="s">
@@ -17951,7 +18636,7 @@
         <v>231</v>
       </c>
       <c r="M3" s="75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N3" s="24" t="s">
         <v>25</v>
@@ -17963,7 +18648,7 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="9"/>
@@ -17997,10 +18682,10 @@
         <v>220</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H4" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="16" t="s">
@@ -18013,7 +18698,7 @@
         <v>231</v>
       </c>
       <c r="M4" s="75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N4" s="24" t="s">
         <v>25</v>
@@ -18053,16 +18738,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>220</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="16" t="s">
@@ -18113,10 +18798,10 @@
         <v>220</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="16" t="s">
@@ -18163,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -18209,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -18259,10 +18944,10 @@
         <v>220</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="16" t="s">
@@ -18317,13 +19002,13 @@
         <v>220</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>5</v>

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266414F1-5DE8-4108-A3E7-10989D460945}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E823294F-4680-426B-B715-4955C62A1294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="2" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Contact" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="649">
   <si>
     <t>Premier1a</t>
   </si>
@@ -1788,15 +1788,9 @@
     <t>2000511078</t>
   </si>
   <si>
-    <t>2000511079</t>
-  </si>
-  <si>
     <t>2000511080</t>
   </si>
   <si>
-    <t>2000511082</t>
-  </si>
-  <si>
     <t>2000511083</t>
   </si>
   <si>
@@ -1818,9 +1812,6 @@
     <t>7000567447</t>
   </si>
   <si>
-    <t>7000567450</t>
-  </si>
-  <si>
     <t>North Oaks Health System</t>
   </si>
   <si>
@@ -1839,9 +1830,6 @@
     <t>2000511325</t>
   </si>
   <si>
-    <t>2000511727</t>
-  </si>
-  <si>
     <t>8816_TerminatedAccountStatus</t>
   </si>
   <si>
@@ -1878,37 +1866,127 @@
     <t>You cannot publish the GPO Member since Direct Parent is NonGPO Member</t>
   </si>
   <si>
-    <t>2000511792</t>
-  </si>
-  <si>
-    <t>2000511799</t>
-  </si>
-  <si>
     <t>TFS ID_8789:Cloud -Verify AG calculated correctly after prospect become a member</t>
   </si>
   <si>
     <t>8789_AG and AG effective date on Account creation as Prospects</t>
   </si>
   <si>
+    <t>TFS ID_8790:Cloud - Verify FBO calculated correctly after prospect become a member</t>
+  </si>
+  <si>
+    <t>2000511811</t>
+  </si>
+  <si>
+    <t>2000511812</t>
+  </si>
+  <si>
+    <t>8790_VerifyFBOCreated</t>
+  </si>
+  <si>
+    <t>TFS ID_4505:Verify TP can be created without providing DP relation date - Manual</t>
+  </si>
+  <si>
+    <t>TFS ID_8781:Cloud : Verify CP, FSP, FBORD, AG dates are recalculated when reactivating an account</t>
+  </si>
+  <si>
+    <t>8781_Chk_Terminated_member</t>
+  </si>
+  <si>
+    <t>North Oaks NonAcute</t>
+  </si>
+  <si>
+    <t>TFS ID_9287:Cloud-Member Accounts with Entity code should not be able to Deactivate</t>
+  </si>
+  <si>
+    <t>9287_CreateMemberDeactivate</t>
+  </si>
+  <si>
+    <t>TFS ID_8803:Cloud : Verify whether child Account cannot be published if DP does not have entity code</t>
+  </si>
+  <si>
+    <t>8803_VerifyChildofDraftAccount</t>
+  </si>
+  <si>
+    <t>2000511850</t>
+  </si>
+  <si>
+    <t>TFS ID_8794:Cloud - Verify TP exception reason should not be mandatory when creating new member with DP is same as TP</t>
+  </si>
+  <si>
+    <t>8794_Member</t>
+  </si>
+  <si>
+    <t>TFS ID_8820:Cloud: Verify a non gpo account can be created under a GPO member</t>
+  </si>
+  <si>
+    <t>8820_VerifyNonGPOUnderGPO</t>
+  </si>
+  <si>
+    <t>TFS ID_8821:Cloud: Verify member can not be terminated if its child account is active</t>
+  </si>
+  <si>
+    <t>608827</t>
+  </si>
+  <si>
+    <t>2000511878</t>
+  </si>
+  <si>
+    <t>2000511879</t>
+  </si>
+  <si>
+    <t>2000511881</t>
+  </si>
+  <si>
+    <t>2000511882</t>
+  </si>
+  <si>
+    <t>2000511884</t>
+  </si>
+  <si>
+    <t>2000511886</t>
+  </si>
+  <si>
+    <t>2000511888</t>
+  </si>
+  <si>
+    <t>2000511889</t>
+  </si>
+  <si>
+    <t>TFS ID_8785:Cloud - Validate Active Member requires one active LOB</t>
+  </si>
+  <si>
+    <t>7000567873</t>
+  </si>
+  <si>
+    <t>8785_CreateMemberWithoutLOB</t>
+  </si>
+  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2022_02_02_09_51_17</t>
-  </si>
-  <si>
-    <t>2022_02_02_10_08_28</t>
-  </si>
-  <si>
-    <t>2022_02_02_10_31_23</t>
-  </si>
-  <si>
-    <t>2022_02_02_12_30_41</t>
+    <t>LOB is required for the below Premier Membership</t>
+  </si>
+  <si>
+    <t>TFS ID_9642:Cloud : Verify whether "Save &amp; New Button" is not displayed in the form</t>
+  </si>
+  <si>
+    <t>2000511907</t>
+  </si>
+  <si>
+    <t>2022_02_16_01_32_12</t>
+  </si>
+  <si>
+    <t>LOB is required for the below Premier Membership Provider</t>
+  </si>
+  <si>
+    <t>2000511908</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2022_02_02_12_45_50</t>
+    <t>2022_02_16_01_52_12</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2304,6 +2382,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2625,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView topLeftCell="C52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="C65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2783,7 @@
         <v>266</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -2737,7 +2817,7 @@
         <v>266</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2769,7 +2849,7 @@
         <v>266</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -2798,7 +2878,7 @@
         <v>266</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -4225,7 +4305,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>35</v>
@@ -4252,7 +4332,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>35</v>
@@ -4281,7 +4361,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>35</v>
@@ -4299,7 +4379,7 @@
         <v>266</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
@@ -4310,7 +4390,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>35</v>
@@ -4328,7 +4408,7 @@
         <v>266</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
@@ -4339,7 +4419,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>35</v>
@@ -4366,10 +4446,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>2</v>
@@ -4378,10 +4458,10 @@
         <v>40</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>621</v>
+        <v>265</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>622</v>
+        <v>266</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
@@ -4390,298 +4470,294 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>57</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="22" t="s">
+      <c r="D63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="G63" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H63" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23"/>
+      <c r="H63" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>58</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>467</v>
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="D64" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H64" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="23"/>
+      <c r="H64" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>59</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>471</v>
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="D65" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G65" s="22" t="s">
+      <c r="G65" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H65" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="23"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>60</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>454</v>
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="22" t="s">
+      <c r="D66" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="23"/>
+      <c r="H66" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>61</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="22" t="s">
+      <c r="D67" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G67" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H67" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="23"/>
+      <c r="H67" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>62</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>97</v>
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="22" t="s">
+      <c r="D68" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G68" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H68" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="23"/>
+      <c r="H68" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>63</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>625</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="22" t="s">
+      <c r="D69" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H69" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="23"/>
+      <c r="H69" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>64</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>106</v>
+        <v>68</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>627</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="22" t="s">
+      <c r="D70" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H70" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="23"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>65</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>109</v>
+        <v>69</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>637</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F71" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="23"/>
+      <c r="F71" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>66</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>112</v>
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="22" t="s">
+      <c r="D72" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G72" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H72" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="23"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>35</v>
@@ -4699,7 +4775,7 @@
         <v>266</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>119</v>
+        <v>578</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
@@ -4707,10 +4783,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>122</v>
+        <v>467</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>35</v>
@@ -4728,7 +4804,7 @@
         <v>266</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
@@ -4736,10 +4812,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>35</v>
@@ -4757,7 +4833,7 @@
         <v>266</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>131</v>
+        <v>580</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
@@ -4765,10 +4841,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>257</v>
+        <v>454</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>35</v>
@@ -4790,12 +4866,12 @@
       <c r="J76" s="22"/>
       <c r="K76" s="23"/>
     </row>
-    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>35</v>
@@ -4813,18 +4889,18 @@
         <v>266</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
     </row>
-    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
-        <v>72</v>
-      </c>
-      <c r="B78" s="82" t="s">
-        <v>419</v>
+        <v>76</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>35</v>
@@ -4842,7 +4918,7 @@
         <v>266</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
@@ -4850,10 +4926,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>456</v>
+        <v>101</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>35</v>
@@ -4867,20 +4943,22 @@
       <c r="F79" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="H79" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="23"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>463</v>
+        <v>106</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>35</v>
@@ -4894,20 +4972,22 @@
       <c r="F80" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="H80" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="23"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>468</v>
+        <v>109</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>35</v>
@@ -4921,20 +5001,22 @@
       <c r="F81" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
+      <c r="H81" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>473</v>
+        <v>112</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>35</v>
@@ -4948,20 +5030,22 @@
       <c r="F82" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
+      <c r="H82" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>476</v>
+        <v>115</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>35</v>
@@ -4975,20 +5059,22 @@
       <c r="F83" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="G83" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="H83" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="23"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>479</v>
+        <v>122</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>35</v>
@@ -5002,20 +5088,22 @@
       <c r="F84" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G84" s="25" t="s">
+      <c r="G84" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
+      <c r="H84" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="23"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>474</v>
+        <v>129</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>35</v>
@@ -5029,274 +5117,550 @@
       <c r="F85" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
+      <c r="H85" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="23"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>80</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E86" s="31" t="s">
+      <c r="D86" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G86" s="28" t="s">
+      <c r="G86" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H86" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="23"/>
+    </row>
+    <row r="87" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
-        <v>81</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>421</v>
+        <v>85</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E87" s="31" t="s">
+      <c r="D87" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G87" s="28" t="s">
+      <c r="G87" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H87" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H87" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23"/>
+    </row>
+    <row r="88" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
-        <v>82</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>422</v>
+        <v>86</v>
+      </c>
+      <c r="B88" s="82" t="s">
+        <v>419</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="E88" s="31" t="s">
+      <c r="D88" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G88" s="28" t="s">
+      <c r="G88" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H88" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
+      <c r="H88" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="23"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
-        <v>83</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>423</v>
+        <v>87</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>456</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E89" s="31" t="s">
+      <c r="D89" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H89" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
-        <v>84</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>424</v>
+        <v>88</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D90" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E90" s="31" t="s">
+      <c r="D90" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H90" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
-        <v>85</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>420</v>
+        <v>89</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>468</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D91" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="D91" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="F91" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
-        <v>86</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>425</v>
+        <v>90</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E92" s="31" t="s">
+      <c r="D92" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G92" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
-        <v>87</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>426</v>
+        <v>91</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>476</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E93" s="31" t="s">
+      <c r="D93" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F93" s="30" t="s">
+      <c r="F93" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H93" s="29" t="s">
-        <v>590</v>
-      </c>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
-        <v>88</v>
-      </c>
-      <c r="B94" s="31" t="s">
-        <v>427</v>
+        <v>92</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>479</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>94</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E96" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F96" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G96" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H94" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
+      <c r="H96" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>96</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H98" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H99" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>98</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H100" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>100</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G103" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>102</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C94" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C104" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5392,10 +5756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DY62"/>
+  <dimension ref="A1:DY72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX62" sqref="AX62"/>
+    <sheetView tabSelected="1" topLeftCell="J55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,7 +6263,7 @@
         <v>7</v>
       </c>
       <c r="AB2" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC2" s="16"/>
       <c r="AD2" s="35" t="s">
@@ -5938,10 +6302,10 @@
       </c>
       <c r="AV2" s="16"/>
       <c r="AW2" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY2" s="16"/>
       <c r="AZ2" s="16" t="s">
@@ -6026,7 +6390,7 @@
     </row>
     <row r="3" spans="1:118" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>37</v>
@@ -6083,7 +6447,7 @@
         <v>7</v>
       </c>
       <c r="AB3" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC3" s="16"/>
       <c r="AD3" s="35" t="s">
@@ -6126,10 +6490,10 @@
       </c>
       <c r="AV3" s="16"/>
       <c r="AW3" s="16" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16" t="s">
@@ -6271,7 +6635,7 @@
         <v>7</v>
       </c>
       <c r="AB4" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC4" s="16"/>
       <c r="AD4" s="35" t="s">
@@ -6317,7 +6681,7 @@
         <v>553</v>
       </c>
       <c r="AX4" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16" t="s">
@@ -6457,7 +6821,7 @@
         <v>7</v>
       </c>
       <c r="AB5" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC5" s="16"/>
       <c r="AD5" s="35" t="s">
@@ -6497,7 +6861,7 @@
       <c r="AV5" s="16"/>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16" t="s">
@@ -6639,7 +7003,7 @@
         <v>7</v>
       </c>
       <c r="AB6" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC6" s="15"/>
       <c r="AD6" s="38" t="s">
@@ -6679,7 +7043,7 @@
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
       <c r="AX6" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY6" s="15"/>
       <c r="AZ6" s="15" t="s">
@@ -6819,7 +7183,7 @@
         <v>7</v>
       </c>
       <c r="AB7" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC7" s="15"/>
       <c r="AD7" s="38" t="s">
@@ -6859,7 +7223,7 @@
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
       <c r="AX7" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY7" s="15"/>
       <c r="AZ7" s="15" t="s">
@@ -7051,7 +7415,7 @@
       </c>
       <c r="AW8" s="16"/>
       <c r="AX8" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16" t="s">
@@ -7247,7 +7611,7 @@
       </c>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16" t="s">
@@ -7391,7 +7755,7 @@
         <v>7</v>
       </c>
       <c r="AB10" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC10" s="16" t="s">
         <v>11</v>
@@ -7435,7 +7799,7 @@
         <v>553</v>
       </c>
       <c r="AX10" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16" t="s">
@@ -7579,7 +7943,7 @@
         <v>7</v>
       </c>
       <c r="AB11" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC11" s="16" t="s">
         <v>11</v>
@@ -7627,7 +7991,7 @@
         <v>553</v>
       </c>
       <c r="AX11" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16" t="s">
@@ -7771,7 +8135,7 @@
         <v>7</v>
       </c>
       <c r="AB12" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC12" s="16" t="s">
         <v>11</v>
@@ -7813,7 +8177,7 @@
       <c r="AV12" s="16"/>
       <c r="AW12" s="16"/>
       <c r="AX12" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16" t="s">
@@ -7957,7 +8321,7 @@
         <v>7</v>
       </c>
       <c r="AB13" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC13" s="16" t="s">
         <v>11</v>
@@ -7999,7 +8363,7 @@
       <c r="AV13" s="16"/>
       <c r="AW13" s="16"/>
       <c r="AX13" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16" t="s">
@@ -8143,7 +8507,7 @@
         <v>7</v>
       </c>
       <c r="AB14" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC14" s="16" t="s">
         <v>11</v>
@@ -8185,7 +8549,7 @@
       <c r="AV14" s="16"/>
       <c r="AW14" s="16"/>
       <c r="AX14" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16" t="s">
@@ -8329,7 +8693,7 @@
         <v>7</v>
       </c>
       <c r="AB15" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC15" s="16" t="s">
         <v>11</v>
@@ -8373,7 +8737,7 @@
         <v>553</v>
       </c>
       <c r="AX15" s="16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AY15" s="16"/>
       <c r="AZ15" s="16" t="s">
@@ -8517,7 +8881,7 @@
         <v>7</v>
       </c>
       <c r="AB16" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC16" s="16" t="s">
         <v>11</v>
@@ -8865,7 +9229,7 @@
         <v>7</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC18" s="16" t="s">
         <v>11</v>
@@ -9183,7 +9547,7 @@
         <v>7</v>
       </c>
       <c r="AB20" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC20" s="16"/>
       <c r="AD20" s="35" t="s">
@@ -9387,7 +9751,7 @@
         <v>7</v>
       </c>
       <c r="AB21" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC21" s="16" t="s">
         <v>51</v>
@@ -9663,7 +10027,7 @@
         <v>7</v>
       </c>
       <c r="AB22" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC22" s="16"/>
       <c r="AD22" s="35" t="s">
@@ -11015,7 +11379,7 @@
         <v>7</v>
       </c>
       <c r="AB31" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC31" s="16"/>
       <c r="AD31" s="35" t="s">
@@ -11191,7 +11555,7 @@
         <v>7</v>
       </c>
       <c r="AB32" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC32" s="16"/>
       <c r="AD32" s="35" t="s">
@@ -11369,7 +11733,7 @@
         <v>7</v>
       </c>
       <c r="AB33" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC33" s="16"/>
       <c r="AD33" s="35" t="s">
@@ -11698,7 +12062,7 @@
         <v>7</v>
       </c>
       <c r="AB35" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC35" s="16"/>
       <c r="AD35" s="35" t="s">
@@ -14114,7 +14478,7 @@
       <c r="DM48" s="45"/>
       <c r="DN48" s="45"/>
     </row>
-    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -14294,7 +14658,7 @@
       <c r="DM49" s="45"/>
       <c r="DN49" s="45"/>
     </row>
-    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -14474,7 +14838,7 @@
       <c r="DM50" s="45"/>
       <c r="DN50" s="45"/>
     </row>
-    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -14654,7 +15018,7 @@
       <c r="DM51" s="45"/>
       <c r="DN51" s="45"/>
     </row>
-    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -14836,7 +15200,7 @@
       <c r="DM52" s="45"/>
       <c r="DN52" s="45"/>
     </row>
-    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -15018,7 +15382,7 @@
       <c r="DM53" s="45"/>
       <c r="DN53" s="45"/>
     </row>
-    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -15200,7 +15564,7 @@
       <c r="DM54" s="45"/>
       <c r="DN54" s="45"/>
     </row>
-    <row r="55" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -15374,7 +15738,7 @@
       <c r="DM55" s="45"/>
       <c r="DN55" s="45"/>
     </row>
-    <row r="56" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -15554,12 +15918,12 @@
       <c r="DM56" s="45"/>
       <c r="DN56" s="45"/>
     </row>
-    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>299</v>
@@ -15568,10 +15932,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AB57" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AD57" s="38" t="s">
         <v>240</v>
@@ -15583,12 +15947,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>299</v>
@@ -15597,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L58" s="34" t="s">
         <v>154</v>
@@ -15633,7 +15997,7 @@
         <v>7</v>
       </c>
       <c r="AB58" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AC58" s="15"/>
       <c r="AD58" s="38" t="s">
@@ -15680,12 +16044,12 @@
       <c r="BX58" s="45"/>
       <c r="BY58" s="45"/>
     </row>
-    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>299</v>
@@ -15694,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L59" s="34" t="s">
         <v>154</v>
@@ -15730,7 +16094,7 @@
         <v>7</v>
       </c>
       <c r="AB59" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AD59" s="38" t="s">
         <v>240</v>
@@ -15782,12 +16146,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>299</v>
@@ -15796,10 +16160,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="L60" s="34" t="s">
         <v>154</v>
@@ -15871,12 +16235,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>299</v>
@@ -15885,18 +16249,18 @@
         <v>0</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F61" s="83" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>299</v>
@@ -15909,7 +16273,7 @@
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
@@ -16065,6 +16429,1461 @@
       <c r="DM62" s="45"/>
       <c r="DN62" s="45"/>
     </row>
+    <row r="63" spans="1:124" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M63" s="34"/>
+      <c r="N63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O63" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W63" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X63" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y63" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z63" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA63" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB63" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE63" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH63" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI63" s="16"/>
+      <c r="AJ63" s="16"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="16"/>
+      <c r="AM63" s="16"/>
+      <c r="AN63" s="16"/>
+      <c r="AO63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP63" s="16"/>
+      <c r="AQ63" s="16"/>
+      <c r="AR63" s="16"/>
+      <c r="AS63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV63" s="16"/>
+      <c r="AW63" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AX63" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY63" s="16"/>
+      <c r="AZ63" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA63" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB63" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC63" s="35"/>
+      <c r="BD63" s="35"/>
+      <c r="BE63" s="35"/>
+      <c r="BF63" s="35"/>
+      <c r="BG63" s="35"/>
+      <c r="BH63" s="35"/>
+      <c r="BI63" s="35"/>
+      <c r="BJ63" s="35"/>
+      <c r="BK63" s="35"/>
+      <c r="BL63" s="35"/>
+      <c r="BM63" s="35"/>
+      <c r="BN63" s="35"/>
+      <c r="BO63" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP63" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ63" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR63" s="16"/>
+      <c r="BS63" s="35"/>
+      <c r="BT63" s="35"/>
+      <c r="BU63" s="35"/>
+      <c r="BV63" s="35"/>
+      <c r="BW63" s="35"/>
+      <c r="BX63" s="35"/>
+      <c r="BY63" s="35"/>
+      <c r="BZ63" s="16"/>
+      <c r="CA63" s="16"/>
+      <c r="CB63" s="16"/>
+      <c r="CC63" s="16"/>
+      <c r="CD63" s="16"/>
+      <c r="CE63" s="16"/>
+      <c r="CF63" s="16"/>
+      <c r="CG63" s="16"/>
+      <c r="CH63" s="16"/>
+      <c r="CI63" s="16"/>
+      <c r="CJ63" s="16"/>
+      <c r="CK63" s="16"/>
+      <c r="CL63" s="16"/>
+      <c r="CM63" s="16"/>
+      <c r="CN63" s="16"/>
+      <c r="CO63" s="16"/>
+      <c r="CP63" s="16"/>
+      <c r="CQ63" s="16"/>
+      <c r="CR63" s="16"/>
+      <c r="CS63" s="16"/>
+      <c r="CT63" s="16"/>
+      <c r="CU63" s="16"/>
+      <c r="CV63" s="16"/>
+      <c r="CW63" s="16"/>
+      <c r="CX63" s="16"/>
+      <c r="CY63" s="16"/>
+      <c r="CZ63" s="16"/>
+      <c r="DA63" s="16"/>
+      <c r="DB63" s="16"/>
+      <c r="DC63" s="16"/>
+      <c r="DD63" s="16"/>
+      <c r="DE63" s="16"/>
+      <c r="DF63" s="16"/>
+      <c r="DG63" s="16"/>
+      <c r="DH63" s="16"/>
+      <c r="DI63" s="16"/>
+      <c r="DJ63" s="16"/>
+      <c r="DK63" s="16"/>
+      <c r="DL63" s="16"/>
+    </row>
+    <row r="64" spans="1:124" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M64" s="34"/>
+      <c r="N64" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W64" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X64" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y64" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z64" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB64" s="37"/>
+      <c r="AC64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH64" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK64" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL64" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM64" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN64" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO64" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP64" s="16"/>
+      <c r="AQ64" s="16"/>
+      <c r="AR64" s="16"/>
+      <c r="AS64" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT64" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU64" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW64" s="16"/>
+      <c r="AX64" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY64" s="16"/>
+      <c r="AZ64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB64" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC64" s="35"/>
+      <c r="BD64" s="35"/>
+      <c r="BE64" s="35"/>
+      <c r="BF64" s="35"/>
+      <c r="BG64" s="35"/>
+      <c r="BH64" s="35"/>
+      <c r="BI64" s="35"/>
+      <c r="BJ64" s="35"/>
+      <c r="BK64" s="35"/>
+      <c r="BL64" s="35"/>
+      <c r="BM64" s="35"/>
+      <c r="BN64" s="35"/>
+      <c r="BO64" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP64" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ64" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR64" s="16"/>
+      <c r="BS64" s="35"/>
+      <c r="BT64" s="35"/>
+      <c r="BU64" s="35"/>
+      <c r="BV64" s="35"/>
+      <c r="BW64" s="35"/>
+      <c r="BX64" s="35"/>
+      <c r="BY64" s="35"/>
+      <c r="BZ64" s="16"/>
+      <c r="CA64" s="16"/>
+      <c r="CB64" s="16"/>
+      <c r="CC64" s="16"/>
+      <c r="CD64" s="16"/>
+      <c r="CE64" s="16"/>
+      <c r="CF64" s="16"/>
+      <c r="CG64" s="16"/>
+      <c r="CH64" s="16"/>
+      <c r="CI64" s="16"/>
+      <c r="CJ64" s="16"/>
+      <c r="CK64" s="16"/>
+      <c r="CL64" s="16"/>
+      <c r="CM64" s="16"/>
+      <c r="CN64" s="16"/>
+      <c r="CO64" s="16"/>
+      <c r="CP64" s="16"/>
+      <c r="CQ64" s="16"/>
+      <c r="CR64" s="16"/>
+      <c r="CS64" s="16"/>
+      <c r="CT64" s="16"/>
+      <c r="CU64" s="16"/>
+      <c r="CV64" s="16"/>
+      <c r="CW64" s="16"/>
+      <c r="CX64" s="16"/>
+      <c r="CY64" s="16"/>
+      <c r="CZ64" s="16"/>
+      <c r="DA64" s="16"/>
+      <c r="DB64" s="16"/>
+      <c r="DC64" s="16"/>
+      <c r="DD64" s="16"/>
+      <c r="DE64" s="16"/>
+      <c r="DF64" s="16"/>
+      <c r="DG64" s="16"/>
+      <c r="DH64" s="16"/>
+      <c r="DI64" s="16"/>
+      <c r="DJ64" s="16"/>
+      <c r="DK64" s="16"/>
+      <c r="DL64" s="16"/>
+      <c r="DM64" s="16"/>
+      <c r="DN64" s="16"/>
+      <c r="DO64" s="4"/>
+      <c r="DP64" s="4"/>
+      <c r="DQ64" s="4"/>
+      <c r="DR64" s="4"/>
+      <c r="DS64" s="4"/>
+      <c r="DT64" s="4"/>
+    </row>
+    <row r="65" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M65" s="34"/>
+      <c r="N65" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O65" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W65" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X65" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y65" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z65" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA65" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB65" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE65" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF65" s="45"/>
+      <c r="AG65" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH65" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI65" s="45"/>
+      <c r="AJ65" s="45"/>
+      <c r="AK65" s="45"/>
+      <c r="AL65" s="45"/>
+      <c r="AM65" s="45"/>
+      <c r="AN65" s="45"/>
+      <c r="AO65" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP65" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="AQ65" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR65" s="45"/>
+      <c r="AS65" s="45"/>
+      <c r="AT65" s="45"/>
+      <c r="AU65" s="45"/>
+      <c r="AV65" s="45"/>
+      <c r="AW65" s="45"/>
+      <c r="AX65" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY65" s="45"/>
+      <c r="AZ65" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA65" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB65" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BC65" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD65" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE65" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF65" s="35"/>
+      <c r="BG65" s="35"/>
+      <c r="BH65" s="35"/>
+      <c r="BI65" s="35"/>
+      <c r="BJ65" s="35"/>
+      <c r="BK65" s="35"/>
+      <c r="BL65" s="35"/>
+      <c r="BM65" s="35"/>
+      <c r="BN65" s="35"/>
+      <c r="BO65" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP65" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="BQ65" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR65" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS65" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="BT65" s="35"/>
+      <c r="BU65" s="35"/>
+      <c r="BV65" s="35"/>
+      <c r="BW65" s="35"/>
+      <c r="BX65" s="35"/>
+      <c r="BY65" s="35"/>
+      <c r="BZ65" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA65" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="CB65" s="45"/>
+      <c r="CC65" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="CD65" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="CE65" s="45"/>
+      <c r="CF65" s="45"/>
+      <c r="CG65" s="45"/>
+      <c r="CH65" s="45"/>
+      <c r="CI65" s="45"/>
+      <c r="CJ65" s="45"/>
+      <c r="CK65" s="45"/>
+      <c r="CL65" s="45"/>
+      <c r="CM65" s="45"/>
+      <c r="CN65" s="45"/>
+      <c r="CO65" s="45"/>
+      <c r="CP65" s="45"/>
+      <c r="CQ65" s="45"/>
+      <c r="CR65" s="45"/>
+      <c r="CS65" s="45"/>
+      <c r="CT65" s="45"/>
+      <c r="CU65" s="45"/>
+      <c r="CV65" s="45"/>
+      <c r="CW65" s="45"/>
+      <c r="CX65" s="45"/>
+      <c r="CY65" s="45"/>
+      <c r="CZ65" s="45"/>
+      <c r="DA65" s="45"/>
+      <c r="DB65" s="45"/>
+      <c r="DC65" s="45"/>
+      <c r="DD65" s="45"/>
+      <c r="DE65" s="45"/>
+      <c r="DF65" s="45"/>
+      <c r="DG65" s="45"/>
+      <c r="DH65" s="45"/>
+      <c r="DI65" s="45"/>
+      <c r="DJ65" s="45"/>
+      <c r="DK65" s="45"/>
+      <c r="DL65" s="45"/>
+      <c r="DM65" s="45"/>
+      <c r="DN65" s="45"/>
+    </row>
+    <row r="66" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M66" s="34"/>
+      <c r="N66" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W66" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X66" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y66" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB66" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI66" s="16"/>
+      <c r="AJ66" s="16"/>
+      <c r="AK66" s="16"/>
+      <c r="AL66" s="16"/>
+      <c r="AM66" s="16"/>
+      <c r="AN66" s="16"/>
+      <c r="AO66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP66" s="16"/>
+      <c r="AQ66" s="16"/>
+      <c r="AR66" s="16"/>
+      <c r="AS66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV66" s="16"/>
+      <c r="AW66" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AX66" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY66" s="16"/>
+      <c r="AZ66" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA66" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC66" s="35"/>
+      <c r="BD66" s="35"/>
+      <c r="BE66" s="35"/>
+      <c r="BF66" s="35"/>
+      <c r="BG66" s="35"/>
+      <c r="BH66" s="35"/>
+      <c r="BI66" s="35"/>
+      <c r="BJ66" s="35"/>
+      <c r="BK66" s="35"/>
+      <c r="BL66" s="35"/>
+      <c r="BM66" s="35"/>
+      <c r="BN66" s="35"/>
+      <c r="BO66" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ66" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR66" s="16"/>
+      <c r="BS66" s="35"/>
+      <c r="BT66" s="35"/>
+      <c r="BU66" s="35"/>
+      <c r="BV66" s="35"/>
+      <c r="BW66" s="35"/>
+      <c r="BX66" s="35"/>
+      <c r="BY66" s="35"/>
+      <c r="BZ66" s="16"/>
+      <c r="CA66" s="16"/>
+      <c r="CB66" s="16"/>
+      <c r="CC66" s="16"/>
+      <c r="CD66" s="16"/>
+      <c r="CE66" s="16"/>
+      <c r="CF66" s="16"/>
+      <c r="CG66" s="16"/>
+      <c r="CH66" s="16"/>
+      <c r="CI66" s="16"/>
+      <c r="CJ66" s="16"/>
+      <c r="CK66" s="16"/>
+      <c r="CL66" s="16"/>
+      <c r="CM66" s="16"/>
+      <c r="CN66" s="16"/>
+      <c r="CO66" s="16"/>
+      <c r="CP66" s="16"/>
+      <c r="CQ66" s="16"/>
+      <c r="CR66" s="16"/>
+      <c r="CS66" s="16"/>
+      <c r="CT66" s="16"/>
+      <c r="CU66" s="16"/>
+      <c r="CV66" s="16"/>
+      <c r="CW66" s="16"/>
+      <c r="CX66" s="16"/>
+      <c r="CY66" s="16"/>
+    </row>
+    <row r="67" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M67" s="34"/>
+      <c r="N67" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O67" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W67" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X67" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z67" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA67" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB67" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE67" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF67" s="16"/>
+      <c r="AG67" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH67" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI67" s="16"/>
+      <c r="AJ67" s="16"/>
+      <c r="AK67" s="16"/>
+      <c r="AL67" s="16"/>
+      <c r="AM67" s="16"/>
+      <c r="AN67" s="16"/>
+      <c r="AO67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP67" s="16"/>
+      <c r="AQ67" s="16"/>
+      <c r="AR67" s="16"/>
+      <c r="AS67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV67" s="16"/>
+      <c r="AW67" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AX67" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY67" s="16"/>
+      <c r="AZ67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB67" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC67" s="35"/>
+      <c r="BD67" s="35"/>
+      <c r="BE67" s="35"/>
+      <c r="BF67" s="35"/>
+      <c r="BG67" s="35"/>
+      <c r="BH67" s="35"/>
+      <c r="BI67" s="35"/>
+      <c r="BJ67" s="35"/>
+      <c r="BK67" s="35"/>
+      <c r="BL67" s="35"/>
+      <c r="BM67" s="35"/>
+      <c r="BN67" s="35"/>
+      <c r="BO67" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP67" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ67" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR67" s="16"/>
+      <c r="BS67" s="35"/>
+      <c r="BT67" s="35"/>
+      <c r="BU67" s="35"/>
+      <c r="BV67" s="35"/>
+      <c r="BW67" s="35"/>
+      <c r="BX67" s="35"/>
+      <c r="BY67" s="35"/>
+      <c r="BZ67" s="16"/>
+      <c r="CA67" s="16"/>
+      <c r="CB67" s="16"/>
+      <c r="CC67" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="CD67" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="CE67" s="16"/>
+      <c r="CF67" s="16"/>
+      <c r="CG67" s="16"/>
+      <c r="CH67" s="16"/>
+      <c r="CI67" s="16"/>
+      <c r="CJ67" s="16"/>
+      <c r="CK67" s="16"/>
+      <c r="CL67" s="16"/>
+      <c r="CM67" s="16"/>
+      <c r="CN67" s="16"/>
+      <c r="CO67" s="16"/>
+      <c r="CP67" s="16"/>
+      <c r="CQ67" s="16"/>
+      <c r="CR67" s="16"/>
+      <c r="CS67" s="16"/>
+      <c r="CT67" s="16"/>
+      <c r="CU67" s="16"/>
+      <c r="CV67" s="16"/>
+      <c r="CW67" s="16"/>
+      <c r="CX67" s="16"/>
+      <c r="CY67" s="16"/>
+    </row>
+    <row r="68" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M68" s="34"/>
+      <c r="N68" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="P68" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W68" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X68" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y68" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z68" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA68" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB68" s="37"/>
+      <c r="AC68" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI68" s="16"/>
+      <c r="AJ68" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK68" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM68" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP68" s="16"/>
+      <c r="AQ68" s="16"/>
+      <c r="AR68" s="16"/>
+      <c r="AS68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV68" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW68" s="16"/>
+      <c r="AX68" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY68" s="16"/>
+      <c r="AZ68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC68" s="35"/>
+      <c r="BD68" s="35"/>
+      <c r="BE68" s="35"/>
+      <c r="BF68" s="35"/>
+      <c r="BG68" s="35"/>
+      <c r="BH68" s="35"/>
+      <c r="BI68" s="35"/>
+      <c r="BJ68" s="35"/>
+      <c r="BK68" s="35"/>
+      <c r="BL68" s="35"/>
+      <c r="BM68" s="35"/>
+      <c r="BN68" s="35"/>
+      <c r="BO68" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP68" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ68" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR68" s="16"/>
+      <c r="BS68" s="35"/>
+      <c r="BT68" s="35"/>
+      <c r="BU68" s="35"/>
+      <c r="BV68" s="35"/>
+      <c r="BW68" s="35"/>
+      <c r="BX68" s="35"/>
+      <c r="BY68" s="35"/>
+      <c r="BZ68" s="16"/>
+      <c r="CA68" s="16"/>
+      <c r="CB68" s="16"/>
+      <c r="CC68" s="16"/>
+      <c r="CD68" s="16"/>
+      <c r="CE68" s="16"/>
+      <c r="CF68" s="16"/>
+      <c r="CG68" s="16"/>
+      <c r="CH68" s="16"/>
+      <c r="CI68" s="16"/>
+      <c r="CJ68" s="16"/>
+      <c r="CK68" s="16"/>
+      <c r="CL68" s="16"/>
+      <c r="CM68" s="16"/>
+      <c r="CN68" s="16"/>
+      <c r="CO68" s="16"/>
+      <c r="CP68" s="16"/>
+      <c r="CQ68" s="16"/>
+      <c r="CR68" s="16"/>
+      <c r="CS68" s="16"/>
+      <c r="CT68" s="16"/>
+      <c r="CU68" s="16"/>
+      <c r="CV68" s="16"/>
+      <c r="CW68" s="16"/>
+      <c r="CX68" s="16"/>
+      <c r="CY68" s="16"/>
+      <c r="CZ68" s="16"/>
+      <c r="DA68" s="16"/>
+      <c r="DB68" s="16"/>
+      <c r="DC68" s="16"/>
+      <c r="DD68" s="16"/>
+      <c r="DE68" s="16"/>
+      <c r="DF68" s="16"/>
+      <c r="DG68" s="16"/>
+      <c r="DH68" s="16"/>
+      <c r="DI68" s="16"/>
+      <c r="DJ68" s="16"/>
+      <c r="DK68" s="16"/>
+      <c r="DL68" s="16"/>
+      <c r="DM68" s="16"/>
+      <c r="DN68" s="16"/>
+    </row>
+    <row r="69" spans="1:118" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>67</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="L69" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="M69" s="84"/>
+      <c r="N69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="P69" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X69" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y69" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z69" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB69" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC69" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF69" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG69" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK69" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM69" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO69" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS69" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT69" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU69" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV69" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB69" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BC69" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD69" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE69" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO69" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP69" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ69" s="85" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="83" t="s">
+        <v>628</v>
+      </c>
+      <c r="BO70" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="CC70" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="CD70" s="45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M71" s="34"/>
+      <c r="N71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O71" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="P71" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X71" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB71" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE71" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH71" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI71" s="16"/>
+      <c r="AJ71" s="16"/>
+      <c r="AK71" s="16"/>
+      <c r="AL71" s="16"/>
+      <c r="AM71" s="16"/>
+      <c r="AN71" s="16"/>
+      <c r="AO71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="16"/>
+      <c r="AS71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU71" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV71" s="16"/>
+      <c r="AW71" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AX71" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY71" s="16"/>
+      <c r="AZ71" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA71" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB71" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC71" s="35"/>
+      <c r="BD71" s="35"/>
+      <c r="BE71" s="35"/>
+      <c r="BF71" s="35"/>
+      <c r="BG71" s="35"/>
+      <c r="BH71" s="35"/>
+      <c r="BI71" s="35"/>
+      <c r="BJ71" s="35"/>
+      <c r="BK71" s="35"/>
+      <c r="BL71" s="35"/>
+      <c r="BM71" s="35"/>
+      <c r="BN71" s="35"/>
+      <c r="BO71" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="BP71" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ71" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR71" s="16"/>
+      <c r="BS71" s="35"/>
+      <c r="BT71" s="35"/>
+      <c r="BU71" s="35"/>
+      <c r="BV71" s="35"/>
+      <c r="BW71" s="35"/>
+      <c r="BX71" s="35"/>
+      <c r="BY71" s="35"/>
+      <c r="BZ71" s="16"/>
+      <c r="CA71" s="16"/>
+      <c r="CB71" s="16"/>
+      <c r="CC71" s="16"/>
+      <c r="CD71" s="16"/>
+      <c r="CE71" s="16"/>
+      <c r="CF71" s="16"/>
+      <c r="CG71" s="16"/>
+      <c r="CH71" s="16"/>
+      <c r="CI71" s="16"/>
+      <c r="CJ71" s="16"/>
+      <c r="CK71" s="16"/>
+      <c r="CL71" s="16"/>
+      <c r="CM71" s="16"/>
+      <c r="CN71" s="16"/>
+      <c r="CO71" s="16"/>
+      <c r="CP71" s="16"/>
+      <c r="CQ71" s="16"/>
+      <c r="CR71" s="16"/>
+      <c r="CS71" s="16"/>
+      <c r="CT71" s="16"/>
+      <c r="CU71" s="16"/>
+      <c r="CV71" s="16"/>
+      <c r="CW71" s="16"/>
+      <c r="CX71" s="16"/>
+      <c r="CY71" s="16"/>
+      <c r="CZ71" s="16"/>
+      <c r="DA71" s="16"/>
+      <c r="DB71" s="16"/>
+      <c r="DC71" s="16"/>
+      <c r="DD71" s="16"/>
+      <c r="DE71" s="16"/>
+      <c r="DF71" s="16"/>
+      <c r="DG71" s="16"/>
+      <c r="DH71" s="16"/>
+      <c r="DI71" s="16"/>
+      <c r="DJ71" s="16"/>
+      <c r="DK71" s="16"/>
+      <c r="DL71" s="16"/>
+      <c r="DM71" s="16"/>
+      <c r="DN71" s="16"/>
+    </row>
+    <row r="72" spans="1:118" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -16081,9 +17900,11 @@
     <hyperlink ref="C22" r:id="rId11" xr:uid="{A4C270D7-E880-46D0-87DA-E14CE53E534C}"/>
     <hyperlink ref="C23" r:id="rId12" xr:uid="{CE425BFD-B123-481D-BDFD-CFF64FCDF6EB}"/>
     <hyperlink ref="C24:C28" r:id="rId13" display="CRMTest06@corp.premierinc.com" xr:uid="{CBABE6F4-EF70-4915-BC24-AEC98C9D0AE2}"/>
+    <hyperlink ref="C71" r:id="rId14" xr:uid="{2241BBF0-2CE3-4F5C-A3AF-E58F7FA5B364}"/>
+    <hyperlink ref="C72" r:id="rId15" xr:uid="{109D2082-96EF-42F1-A1B2-D5A928B5933C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -16091,8 +17912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BE24"/>
   <sheetViews>
-    <sheetView topLeftCell="L8" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18461,8 +20282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C08E8CF-BE61-4DF0-9348-5B329EE945A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD963C69-5CA8-457F-9482-18E71E016B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
-    <sheet name="AccounNumber" sheetId="9" r:id="rId2"/>
-    <sheet name="BulkImport" sheetId="8" r:id="rId3"/>
-    <sheet name="Member" sheetId="2" r:id="rId4"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId5"/>
-    <sheet name="Contact" sheetId="7" r:id="rId6"/>
+    <sheet name="BulkImport" sheetId="8" r:id="rId2"/>
+    <sheet name="Member" sheetId="2" r:id="rId3"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId4"/>
+    <sheet name="Contact" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$170</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="922">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2803,13 +2802,10 @@
     <t>2022_04_19_11_23_02</t>
   </si>
   <si>
-    <t>Test Case 10661:Verify whether user able to add same "Federal Tax ID" on different "Supplier" and "Member" accounts.</t>
-  </si>
-  <si>
-    <t>AccounNumber</t>
-  </si>
-  <si>
-    <t>CRMTest01@corp.premierinc.com</t>
+    <t>TFS ID_ 8906:Cloud: Verify if the DEA expiration date is displayed</t>
+  </si>
+  <si>
+    <t>DEAExpiryDate</t>
   </si>
 </sst>
 </file>
@@ -3129,7 +3125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3342,16 +3338,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3677,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8332,17 +8318,17 @@
       <c r="K170" s="28"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="128">
+      <c r="A171" s="124">
         <v>170</v>
       </c>
       <c r="B171" s="78" t="s">
         <v>920</v>
       </c>
-      <c r="C171" s="128" t="s">
+      <c r="C171" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="D171" s="129" t="s">
-        <v>921</v>
+      <c r="D171" s="125" t="s">
+        <v>2</v>
       </c>
       <c r="E171" s="30" t="s">
         <v>40</v>
@@ -8368,598 +8354,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F9BCA-E8B9-46FE-9A12-FB19C8AF40E8}">
-  <dimension ref="A1:EJ2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>551</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="55" t="s">
-        <v>619</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="P1" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R1" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="S1" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>621</v>
-      </c>
-      <c r="U1" s="55" t="s">
-        <v>693</v>
-      </c>
-      <c r="V1" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="W1" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="X1" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y1" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z1" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA1" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB1" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC1" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD1" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF1" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="AG1" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH1" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ1" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="AK1" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="AL1" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM1" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO1" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="AP1" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="AQ1" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="AR1" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="AS1" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="AT1" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="AU1" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV1" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="AX1" s="57" t="s">
-        <v>625</v>
-      </c>
-      <c r="AY1" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="AZ1" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="BA1" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="BB1" s="57" t="s">
-        <v>627</v>
-      </c>
-      <c r="BC1" s="57" t="s">
-        <v>628</v>
-      </c>
-      <c r="BD1" s="57" t="s">
-        <v>631</v>
-      </c>
-      <c r="BE1" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF1" s="57" t="s">
-        <v>633</v>
-      </c>
-      <c r="BG1" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="BH1" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="BI1" s="59" t="s">
-        <v>635</v>
-      </c>
-      <c r="BJ1" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="BK1" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL1" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM1" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="BN1" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="BO1" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="BP1" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="BQ1" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="BR1" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="BS1" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="BT1" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="BU1" s="57" t="s">
-        <v>376</v>
-      </c>
-      <c r="BV1" s="57" t="s">
-        <v>392</v>
-      </c>
-      <c r="BW1" s="57" t="s">
-        <v>377</v>
-      </c>
-      <c r="BX1" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="BY1" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="BZ1" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="CA1" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="CB1" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="CC1" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="CD1" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="CE1" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="CF1" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="CG1" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="CH1" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="CI1" s="59" t="s">
-        <v>367</v>
-      </c>
-      <c r="CJ1" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="CK1" s="59" t="s">
-        <v>371</v>
-      </c>
-      <c r="CL1" s="59" t="s">
-        <v>372</v>
-      </c>
-      <c r="CM1" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="CN1" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="CO1" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="CP1" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="CQ1" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="CR1" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="CS1" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="CT1" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="CU1" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="CV1" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="CW1" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="CX1" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="CY1" s="59" t="s">
-        <v>637</v>
-      </c>
-      <c r="CZ1" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="DA1" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="DB1" s="59" t="s">
-        <v>639</v>
-      </c>
-      <c r="DC1" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="DD1" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="DE1" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="DF1" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="DG1" s="59" t="s">
-        <v>337</v>
-      </c>
-      <c r="DH1" s="59" t="s">
-        <v>338</v>
-      </c>
-      <c r="DI1" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="DJ1" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="DK1" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="DL1" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="DM1" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="DN1" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="DO1" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="DP1" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="DQ1" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="DR1" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="DS1" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="DT1" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="DU1" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="DV1" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="DW1" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="DX1" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="DY1" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="DZ1" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="EA1" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="EB1" s="59" t="s">
-        <v>841</v>
-      </c>
-      <c r="EC1" s="59" t="s">
-        <v>842</v>
-      </c>
-      <c r="ED1" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="EE1" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="EF1" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="EG1" s="88" t="s">
-        <v>641</v>
-      </c>
-      <c r="EH1" s="59" t="s">
-        <v>642</v>
-      </c>
-      <c r="EI1" s="59" t="s">
-        <v>643</v>
-      </c>
-      <c r="EJ1" s="59" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="2" spans="1:140" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>920</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>922</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="15"/>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="15"/>
-      <c r="BL2" s="15"/>
-      <c r="BM2" s="15"/>
-      <c r="BN2" s="15"/>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="34"/>
-      <c r="BZ2" s="34"/>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="15"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="15"/>
-      <c r="CF2" s="15"/>
-      <c r="CG2" s="34"/>
-      <c r="CH2" s="34"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="34"/>
-      <c r="CM2" s="34"/>
-      <c r="CN2" s="15"/>
-      <c r="CO2" s="15"/>
-      <c r="CP2" s="15"/>
-      <c r="CQ2" s="15"/>
-      <c r="CR2" s="15"/>
-      <c r="CS2" s="15"/>
-      <c r="CT2" s="15"/>
-      <c r="CU2" s="15"/>
-      <c r="CV2" s="15"/>
-      <c r="CW2" s="15"/>
-      <c r="CX2" s="15"/>
-      <c r="CY2" s="15"/>
-      <c r="CZ2" s="15"/>
-      <c r="DA2" s="15"/>
-      <c r="DB2" s="15"/>
-      <c r="DC2" s="15"/>
-      <c r="DD2" s="15"/>
-      <c r="DE2" s="15"/>
-      <c r="DF2" s="15"/>
-      <c r="DG2" s="15"/>
-      <c r="DH2" s="15"/>
-      <c r="DI2" s="15"/>
-      <c r="DJ2" s="15"/>
-      <c r="DK2" s="15"/>
-      <c r="DL2" s="15"/>
-      <c r="DM2" s="15"/>
-      <c r="DN2" s="15"/>
-      <c r="DO2" s="15"/>
-      <c r="DP2" s="15"/>
-      <c r="DQ2" s="15"/>
-      <c r="DR2" s="15"/>
-      <c r="DS2" s="15"/>
-      <c r="DT2" s="15"/>
-      <c r="DU2" s="15"/>
-      <c r="DV2" s="15"/>
-      <c r="DW2" s="15"/>
-      <c r="DX2" s="15"/>
-      <c r="DY2" s="15"/>
-      <c r="DZ2" s="15"/>
-      <c r="EA2" s="15"/>
-      <c r="EB2" s="15"/>
-      <c r="EC2" s="15"/>
-      <c r="ED2" s="15"/>
-      <c r="EE2" s="15"/>
-      <c r="EF2" s="92"/>
-      <c r="EG2" s="15"/>
-      <c r="EH2" s="15"/>
-      <c r="EI2" s="15"/>
-      <c r="EJ2" s="15"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{806C43F0-8FEE-484A-9D5D-043038E508CC}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{87F242FC-1643-4A63-81F7-B53D0A6722AB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E671484F-6321-49DA-BE73-52BC99C1ECF8}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -9037,12 +8431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EP127"/>
+  <dimension ref="A1:EP128"/>
   <sheetViews>
-    <sheetView topLeftCell="DY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:EJ2"/>
+    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31369,132 +30763,466 @@
       <c r="EI126" s="15"/>
       <c r="EJ126" s="90"/>
     </row>
-    <row r="127" spans="1:140" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="124">
-        <v>82</v>
-      </c>
-      <c r="B127" s="121" t="s">
+    <row r="127" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15">
+        <v>126</v>
+      </c>
+      <c r="B127" s="40" t="s">
         <v>902</v>
       </c>
-      <c r="C127" s="125" t="s">
+      <c r="C127" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="D127" s="122" t="s">
+      <c r="D127" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J127" s="124" t="s">
+      <c r="E127" s="13"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="40" t="s">
         <v>903</v>
       </c>
-      <c r="K127" s="126" t="s">
+      <c r="K127" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="AH127" s="127" t="s">
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="33"/>
+      <c r="O127" s="33"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="34"/>
+      <c r="R127" s="35"/>
+      <c r="S127" s="15"/>
+      <c r="T127" s="15"/>
+      <c r="U127" s="15"/>
+      <c r="V127" s="15"/>
+      <c r="W127" s="15"/>
+      <c r="X127" s="15"/>
+      <c r="Y127" s="15"/>
+      <c r="Z127" s="15"/>
+      <c r="AA127" s="15"/>
+      <c r="AB127" s="15"/>
+      <c r="AC127" s="15"/>
+      <c r="AD127" s="15"/>
+      <c r="AE127" s="15"/>
+      <c r="AF127" s="15"/>
+      <c r="AG127" s="15"/>
+      <c r="AH127" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="AQ127" s="124" t="s">
+      <c r="AI127" s="36"/>
+      <c r="AJ127" s="15"/>
+      <c r="AK127" s="34"/>
+      <c r="AL127" s="34"/>
+      <c r="AM127" s="34"/>
+      <c r="AN127" s="15"/>
+      <c r="AO127" s="15"/>
+      <c r="AP127" s="34"/>
+      <c r="AQ127" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AR127" s="127" t="s">
+      <c r="AR127" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="AS127" s="124" t="s">
+      <c r="AS127" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AT127" s="124" t="s">
+      <c r="AT127" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="DU127" s="124" t="s">
+      <c r="AU127" s="15"/>
+      <c r="AV127" s="15"/>
+      <c r="AW127" s="15"/>
+      <c r="AX127" s="15"/>
+      <c r="AY127" s="15"/>
+      <c r="AZ127" s="15"/>
+      <c r="BA127" s="15"/>
+      <c r="BB127" s="15"/>
+      <c r="BC127" s="15"/>
+      <c r="BD127" s="15"/>
+      <c r="BE127" s="15"/>
+      <c r="BF127" s="15"/>
+      <c r="BG127" s="15"/>
+      <c r="BH127" s="15"/>
+      <c r="BI127" s="15"/>
+      <c r="BJ127" s="15"/>
+      <c r="BK127" s="15"/>
+      <c r="BL127" s="15"/>
+      <c r="BM127" s="15"/>
+      <c r="BN127" s="15"/>
+      <c r="BO127" s="15"/>
+      <c r="BP127" s="34"/>
+      <c r="BQ127" s="34"/>
+      <c r="BR127" s="34"/>
+      <c r="BS127" s="34"/>
+      <c r="BT127" s="34"/>
+      <c r="BU127" s="34"/>
+      <c r="BV127" s="34"/>
+      <c r="BW127" s="34"/>
+      <c r="BX127" s="34"/>
+      <c r="BY127" s="34"/>
+      <c r="BZ127" s="34"/>
+      <c r="CA127" s="34"/>
+      <c r="CB127" s="34"/>
+      <c r="CC127" s="15"/>
+      <c r="CD127" s="34"/>
+      <c r="CE127" s="15"/>
+      <c r="CF127" s="15"/>
+      <c r="CG127" s="34"/>
+      <c r="CH127" s="34"/>
+      <c r="CI127" s="34"/>
+      <c r="CJ127" s="34"/>
+      <c r="CK127" s="34"/>
+      <c r="CL127" s="34"/>
+      <c r="CM127" s="34"/>
+      <c r="CN127" s="15"/>
+      <c r="CO127" s="15"/>
+      <c r="CP127" s="15"/>
+      <c r="CQ127" s="15"/>
+      <c r="CR127" s="15"/>
+      <c r="CS127" s="15"/>
+      <c r="CT127" s="15"/>
+      <c r="CU127" s="15"/>
+      <c r="CV127" s="15"/>
+      <c r="CW127" s="15"/>
+      <c r="CX127" s="15"/>
+      <c r="CY127" s="15"/>
+      <c r="CZ127" s="15"/>
+      <c r="DA127" s="15"/>
+      <c r="DB127" s="15"/>
+      <c r="DC127" s="15"/>
+      <c r="DD127" s="15"/>
+      <c r="DE127" s="15"/>
+      <c r="DF127" s="15"/>
+      <c r="DG127" s="15"/>
+      <c r="DH127" s="15"/>
+      <c r="DI127" s="15"/>
+      <c r="DJ127" s="15"/>
+      <c r="DK127" s="15"/>
+      <c r="DL127" s="15"/>
+      <c r="DM127" s="15"/>
+      <c r="DN127" s="15"/>
+      <c r="DO127" s="15"/>
+      <c r="DP127" s="15"/>
+      <c r="DQ127" s="15"/>
+      <c r="DR127" s="15"/>
+      <c r="DS127" s="15"/>
+      <c r="DT127" s="15"/>
+      <c r="DU127" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="DV127" s="124" t="s">
+      <c r="DV127" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="DW127" s="15"/>
+      <c r="DX127" s="15"/>
+      <c r="DY127" s="15"/>
+      <c r="DZ127" s="15"/>
+      <c r="EA127" s="36"/>
+      <c r="EB127" s="36"/>
+      <c r="EC127" s="36"/>
+      <c r="ED127" s="36"/>
+      <c r="EE127" s="15"/>
+      <c r="EF127" s="92"/>
+      <c r="EG127" s="15"/>
+      <c r="EH127" s="15"/>
+      <c r="EI127" s="15"/>
+      <c r="EJ127" s="90"/>
+    </row>
+    <row r="128" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15">
+        <v>127</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O128" s="33"/>
+      <c r="P128" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="R128" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="S128" s="15"/>
+      <c r="T128" s="15"/>
+      <c r="U128" s="15"/>
+      <c r="V128" s="15"/>
+      <c r="W128" s="15"/>
+      <c r="X128" s="15"/>
+      <c r="Y128" s="15"/>
+      <c r="Z128" s="15"/>
+      <c r="AA128" s="15"/>
+      <c r="AB128" s="15"/>
+      <c r="AC128" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD128" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE128" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF128" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG128" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH128" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI128" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="AJ128" s="15"/>
+      <c r="AK128" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL128" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM128" s="34"/>
+      <c r="AN128" s="15"/>
+      <c r="AO128" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP128" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ128" s="15"/>
+      <c r="AR128" s="15"/>
+      <c r="AS128" s="15"/>
+      <c r="AT128" s="15"/>
+      <c r="AU128" s="15"/>
+      <c r="AV128" s="15"/>
+      <c r="AW128" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX128" s="15"/>
+      <c r="AY128" s="15"/>
+      <c r="AZ128" s="15"/>
+      <c r="BA128" s="15"/>
+      <c r="BB128" s="15"/>
+      <c r="BC128" s="15"/>
+      <c r="BD128" s="15"/>
+      <c r="BE128" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF128" s="15"/>
+      <c r="BG128" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH128" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI128" s="15"/>
+      <c r="BJ128" s="15"/>
+      <c r="BK128" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BL128" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM128" s="15"/>
+      <c r="BN128" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO128" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP128" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ128" s="34"/>
+      <c r="BR128" s="34"/>
+      <c r="BS128" s="34"/>
+      <c r="BT128" s="34"/>
+      <c r="BU128" s="34"/>
+      <c r="BV128" s="34"/>
+      <c r="BW128" s="34"/>
+      <c r="BX128" s="34"/>
+      <c r="BY128" s="34"/>
+      <c r="BZ128" s="34"/>
+      <c r="CA128" s="34"/>
+      <c r="CB128" s="34"/>
+      <c r="CC128" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CD128" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="CE128" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF128" s="15"/>
+      <c r="CG128" s="34"/>
+      <c r="CH128" s="34"/>
+      <c r="CI128" s="34"/>
+      <c r="CJ128" s="34"/>
+      <c r="CK128" s="34"/>
+      <c r="CL128" s="34"/>
+      <c r="CM128" s="34"/>
+      <c r="CN128" s="15"/>
+      <c r="CO128" s="15"/>
+      <c r="CP128" s="15"/>
+      <c r="CQ128" s="15"/>
+      <c r="CR128" s="15"/>
+      <c r="CS128" s="15"/>
+      <c r="CT128" s="15"/>
+      <c r="CU128" s="15"/>
+      <c r="CV128" s="15"/>
+      <c r="CW128" s="15"/>
+      <c r="CX128" s="15"/>
+      <c r="CY128" s="15"/>
+      <c r="CZ128" s="15"/>
+      <c r="DA128" s="15"/>
+      <c r="DB128" s="15"/>
+      <c r="DC128" s="15"/>
+      <c r="DD128" s="15"/>
+      <c r="DE128" s="15"/>
+      <c r="DF128" s="15"/>
+      <c r="DG128" s="15"/>
+      <c r="DH128" s="15"/>
+      <c r="DI128" s="15"/>
+      <c r="DJ128" s="15"/>
+      <c r="DK128" s="15"/>
+      <c r="DL128" s="15"/>
+      <c r="DM128" s="15"/>
+      <c r="DN128" s="15"/>
+      <c r="DO128" s="15"/>
+      <c r="DP128" s="15"/>
+      <c r="DQ128" s="15"/>
+      <c r="DR128" s="15"/>
+      <c r="DS128" s="15"/>
+      <c r="DT128" s="15"/>
+      <c r="DU128" s="15"/>
+      <c r="DV128" s="15"/>
+      <c r="DW128" s="15"/>
+      <c r="DX128" s="15"/>
+      <c r="DY128" s="15"/>
+      <c r="DZ128" s="15"/>
+      <c r="EA128" s="36"/>
+      <c r="EB128" s="36"/>
+      <c r="EC128" s="36"/>
+      <c r="ED128" s="36"/>
+      <c r="EE128" s="15"/>
+      <c r="EF128" s="92"/>
+      <c r="EG128" s="15"/>
+      <c r="EH128" s="15"/>
+      <c r="EI128" s="15"/>
+      <c r="EJ128" s="90"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="DS21" r:id="rId1" xr:uid="{16A04B90-4C95-42FB-B108-D3A9617D5B2D}"/>
-    <hyperlink ref="C21" r:id="rId2" xr:uid="{E4E7E7F0-8234-4D73-8548-A93E90CCFDF8}"/>
-    <hyperlink ref="C10:C19" r:id="rId3" display="CRMTest02@corp.premierinc.com" xr:uid="{015EDE96-B284-4ECA-85FF-AC4FFDF54FF2}"/>
-    <hyperlink ref="C2:C7" r:id="rId4" display="CRMTest02@corp.premierinc.com" xr:uid="{1A299ACC-C25E-4FBE-9891-0B1405F693C4}"/>
-    <hyperlink ref="C31:C32" r:id="rId5" display="CRMTest02@corp.premierinc.com" xr:uid="{AC3467B5-4397-4316-AFE8-FA1C35882237}"/>
-    <hyperlink ref="C31" r:id="rId6" xr:uid="{6559B8A3-AF38-4569-8592-CCA25A38640A}"/>
-    <hyperlink ref="C33" r:id="rId7" xr:uid="{DFD657C9-5004-4921-B4D6-D15574E6F99F}"/>
-    <hyperlink ref="C35" r:id="rId8" xr:uid="{53350E81-EBA3-499E-A70D-42C7721EA2D7}"/>
-    <hyperlink ref="C30" r:id="rId9" xr:uid="{1115574C-A50A-446A-9D3F-2E5ABB430F80}"/>
-    <hyperlink ref="C36" r:id="rId10" xr:uid="{7477EF87-87E4-463A-ABA5-676768778452}"/>
-    <hyperlink ref="C22" r:id="rId11" xr:uid="{A4C270D7-E880-46D0-87DA-E14CE53E534C}"/>
-    <hyperlink ref="C23" r:id="rId12" xr:uid="{CE425BFD-B123-481D-BDFD-CFF64FCDF6EB}"/>
-    <hyperlink ref="C24:C28" r:id="rId13" display="CRMTest06@corp.premierinc.com" xr:uid="{CBABE6F4-EF70-4915-BC24-AEC98C9D0AE2}"/>
-    <hyperlink ref="C71" r:id="rId14" xr:uid="{2241BBF0-2CE3-4F5C-A3AF-E58F7FA5B364}"/>
-    <hyperlink ref="C72" r:id="rId15" xr:uid="{109D2082-96EF-42F1-A1B2-D5A928B5933C}"/>
-    <hyperlink ref="C73" r:id="rId16" xr:uid="{04EB0580-5AE7-4442-A481-A8DFB20FEC61}"/>
-    <hyperlink ref="C75" r:id="rId17" xr:uid="{ED1CBE00-B1FC-4DF2-BB16-63E545ED7A61}"/>
-    <hyperlink ref="C77" r:id="rId18" xr:uid="{FC8B78E5-251E-44E7-8811-2B440C862BA8}"/>
-    <hyperlink ref="E77" r:id="rId19" xr:uid="{AE46A1CB-2BC7-4B9C-9D5C-BF903FAB17EB}"/>
-    <hyperlink ref="C78" r:id="rId20" xr:uid="{4E6A7428-FC32-4507-AF84-8D670D3027DA}"/>
-    <hyperlink ref="DS78" r:id="rId21" xr:uid="{CF77A10C-97F0-4FCA-989D-63EE83FBF4FE}"/>
-    <hyperlink ref="C79" r:id="rId22" xr:uid="{068F7277-86A4-43D6-B71F-DC44D0F2F4EF}"/>
-    <hyperlink ref="C80" r:id="rId23" xr:uid="{5E068154-34F2-449C-92B2-7DFE736293E1}"/>
-    <hyperlink ref="C81" r:id="rId24" xr:uid="{8B78679C-0829-4440-B001-CFA5762E92CC}"/>
-    <hyperlink ref="C82" r:id="rId25" xr:uid="{55E461C0-9189-41C1-B25A-1EBB7D09C68A}"/>
-    <hyperlink ref="C83" r:id="rId26" xr:uid="{56E21647-4498-4F01-A9D3-5312A6405547}"/>
-    <hyperlink ref="C84" r:id="rId27" xr:uid="{DE8CDA08-1142-4E6A-95B1-5019E1A871C9}"/>
-    <hyperlink ref="C85" r:id="rId28" xr:uid="{3EDBE6F7-2439-4785-8BC7-3E41AFC174FC}"/>
-    <hyperlink ref="C86" r:id="rId29" xr:uid="{3CA94B6F-86C0-4A59-9A42-7861EF8E2418}"/>
-    <hyperlink ref="C87" r:id="rId30" xr:uid="{B7046670-48C6-416C-B0A1-31476D25C1C6}"/>
-    <hyperlink ref="C88" r:id="rId31" xr:uid="{F098AF32-2259-45F6-92DF-C9C0666AB26A}"/>
-    <hyperlink ref="C89" r:id="rId32" xr:uid="{8289C9B0-DF7A-49BC-9F71-BDCF9F66B0BF}"/>
-    <hyperlink ref="C90" r:id="rId33" xr:uid="{1634FEB3-CCEA-44E8-B370-4729312620FA}"/>
-    <hyperlink ref="C91" r:id="rId34" xr:uid="{925B9909-B845-4666-8079-E6255DA2AE4D}"/>
-    <hyperlink ref="E91" r:id="rId35" xr:uid="{D533CCD3-A866-492F-B4D2-329DC1E7E515}"/>
-    <hyperlink ref="C92" r:id="rId36" xr:uid="{53206E7A-3909-433A-86CD-1786645ED7B6}"/>
-    <hyperlink ref="C93" r:id="rId37" xr:uid="{46049220-A450-4B5A-8CAE-1ED232D7441B}"/>
+    <hyperlink ref="C127" r:id="rId1" xr:uid="{5BFBAC85-C853-44DF-AFD5-164217B42429}"/>
+    <hyperlink ref="C126" r:id="rId2" xr:uid="{90257C7C-76AA-45CA-9E82-0A51AE73B2B3}"/>
+    <hyperlink ref="C125" r:id="rId3" xr:uid="{83FA85A1-7CEA-407C-AEBF-384FA5C4D373}"/>
+    <hyperlink ref="C124" r:id="rId4" xr:uid="{9F820E3F-F02F-4B9F-8DC0-74C1E6FA5879}"/>
+    <hyperlink ref="C123" r:id="rId5" xr:uid="{54DE5561-2DBD-49DF-91B8-0D5A79F9FE1C}"/>
+    <hyperlink ref="C122" r:id="rId6" xr:uid="{05118E6D-59B0-4446-9593-53D30D12F9EB}"/>
+    <hyperlink ref="C121" r:id="rId7" xr:uid="{2CD057EE-0F99-4FDC-8042-879C522FFE79}"/>
+    <hyperlink ref="C120" r:id="rId8" xr:uid="{2069B3EA-7CE2-4713-9CF0-A55DC76DD36D}"/>
+    <hyperlink ref="C119" r:id="rId9" xr:uid="{B8FC8F4C-A671-4B28-B8B6-3810522B8794}"/>
+    <hyperlink ref="C118" r:id="rId10" xr:uid="{DB9EDAA9-B357-44FB-8380-E1F0726E7519}"/>
+    <hyperlink ref="C117" r:id="rId11" xr:uid="{E61C821E-C7E8-44C9-A5C2-A5DF43B9F42E}"/>
+    <hyperlink ref="C116" r:id="rId12" xr:uid="{A9ECE17C-0CD9-4823-A33F-7A015D89F457}"/>
+    <hyperlink ref="C115" r:id="rId13" xr:uid="{22C841AD-441B-4961-99F1-9341E5EF263C}"/>
+    <hyperlink ref="C114" r:id="rId14" xr:uid="{C4B20CF4-0F81-4384-88A6-2D1EBD7DEA37}"/>
+    <hyperlink ref="C113" r:id="rId15" xr:uid="{2E5DF7E2-80FF-4947-9596-C2C5AAE215A9}"/>
+    <hyperlink ref="C112" r:id="rId16" xr:uid="{81CE3174-02C6-4919-A7B9-3A457E7FD947}"/>
+    <hyperlink ref="C111" r:id="rId17" xr:uid="{C5548991-B5A5-4FE8-986D-3235740FF02C}"/>
+    <hyperlink ref="C110" r:id="rId18" xr:uid="{91F19719-294D-4FB2-8477-339F4E0E106F}"/>
+    <hyperlink ref="C109" r:id="rId19" xr:uid="{F55FF63A-F1F7-4501-B2F8-47DF8B41189F}"/>
+    <hyperlink ref="C108" r:id="rId20" xr:uid="{5B394657-F3B6-4F7C-B69C-5A894EC4D27B}"/>
+    <hyperlink ref="E107" r:id="rId21" xr:uid="{24F8A6A5-361D-4946-A3A4-09BEBB1C9522}"/>
+    <hyperlink ref="E106" r:id="rId22" xr:uid="{4B182712-F8E0-4C28-8653-B2F85C5336F0}"/>
+    <hyperlink ref="C106" r:id="rId23" xr:uid="{2798D4C5-934F-4CCF-8666-1E7569E1CA35}"/>
+    <hyperlink ref="E105" r:id="rId24" xr:uid="{010401DE-1378-4B98-B594-D2149DE5E59A}"/>
+    <hyperlink ref="C105" r:id="rId25" xr:uid="{AD191EAC-BAD1-4932-82E9-93DD8E2FAD2A}"/>
+    <hyperlink ref="C104" r:id="rId26" xr:uid="{54BDA6EE-C6B2-46AF-9845-8088C4717D8E}"/>
+    <hyperlink ref="DR103" r:id="rId27" xr:uid="{1C5F6522-C02D-4B33-ABC5-D49ACDE3E75C}"/>
+    <hyperlink ref="C103" r:id="rId28" xr:uid="{A1696FBB-A7A2-4E05-8917-A5A993067EA0}"/>
+    <hyperlink ref="C102" r:id="rId29" xr:uid="{51A5C95A-F0AE-4037-A6DF-19A46D7F03F2}"/>
+    <hyperlink ref="C101" r:id="rId30" xr:uid="{74C2B767-AF19-40F7-A511-36F6936E2AF7}"/>
+    <hyperlink ref="C100" r:id="rId31" xr:uid="{6A1A35E2-1E72-4528-8426-AFA99D6EA5E6}"/>
+    <hyperlink ref="C99" r:id="rId32" xr:uid="{5590655F-76DE-488F-BAAA-BA47080FD9D1}"/>
+    <hyperlink ref="C98" r:id="rId33" xr:uid="{A813A4C3-80DD-4463-94C8-90833675CAAE}"/>
+    <hyperlink ref="E97" r:id="rId34" xr:uid="{546FDF43-1721-4D56-8F9C-8DDAD48D9C77}"/>
+    <hyperlink ref="C97" r:id="rId35" xr:uid="{769FF706-F80A-411F-A2E4-597E4257AD20}"/>
+    <hyperlink ref="C96" r:id="rId36" xr:uid="{A7FBC7FB-3B4F-48E1-8608-DAAF1B32D5BC}"/>
+    <hyperlink ref="C95" r:id="rId37" xr:uid="{F3048C23-A4DF-4931-BBF4-2A5913CAA98A}"/>
     <hyperlink ref="C94" r:id="rId38" xr:uid="{EAB7D882-8F9A-4008-9C3D-0BDFDB4FD4EE}"/>
-    <hyperlink ref="C95" r:id="rId39" xr:uid="{F3048C23-A4DF-4931-BBF4-2A5913CAA98A}"/>
-    <hyperlink ref="C96" r:id="rId40" xr:uid="{A7FBC7FB-3B4F-48E1-8608-DAAF1B32D5BC}"/>
-    <hyperlink ref="C97" r:id="rId41" xr:uid="{769FF706-F80A-411F-A2E4-597E4257AD20}"/>
-    <hyperlink ref="E97" r:id="rId42" xr:uid="{546FDF43-1721-4D56-8F9C-8DDAD48D9C77}"/>
-    <hyperlink ref="C98" r:id="rId43" xr:uid="{A813A4C3-80DD-4463-94C8-90833675CAAE}"/>
-    <hyperlink ref="C99" r:id="rId44" xr:uid="{5590655F-76DE-488F-BAAA-BA47080FD9D1}"/>
-    <hyperlink ref="C100" r:id="rId45" xr:uid="{6A1A35E2-1E72-4528-8426-AFA99D6EA5E6}"/>
-    <hyperlink ref="C101" r:id="rId46" xr:uid="{74C2B767-AF19-40F7-A511-36F6936E2AF7}"/>
-    <hyperlink ref="C102" r:id="rId47" xr:uid="{51A5C95A-F0AE-4037-A6DF-19A46D7F03F2}"/>
-    <hyperlink ref="C103" r:id="rId48" xr:uid="{A1696FBB-A7A2-4E05-8917-A5A993067EA0}"/>
-    <hyperlink ref="DR103" r:id="rId49" xr:uid="{1C5F6522-C02D-4B33-ABC5-D49ACDE3E75C}"/>
-    <hyperlink ref="C104" r:id="rId50" xr:uid="{54BDA6EE-C6B2-46AF-9845-8088C4717D8E}"/>
-    <hyperlink ref="C105" r:id="rId51" xr:uid="{AD191EAC-BAD1-4932-82E9-93DD8E2FAD2A}"/>
-    <hyperlink ref="E105" r:id="rId52" xr:uid="{010401DE-1378-4B98-B594-D2149DE5E59A}"/>
-    <hyperlink ref="C106" r:id="rId53" xr:uid="{2798D4C5-934F-4CCF-8666-1E7569E1CA35}"/>
-    <hyperlink ref="E106" r:id="rId54" xr:uid="{4B182712-F8E0-4C28-8653-B2F85C5336F0}"/>
-    <hyperlink ref="E107" r:id="rId55" xr:uid="{24F8A6A5-361D-4946-A3A4-09BEBB1C9522}"/>
-    <hyperlink ref="C108" r:id="rId56" xr:uid="{5B394657-F3B6-4F7C-B69C-5A894EC4D27B}"/>
-    <hyperlink ref="C109" r:id="rId57" xr:uid="{F55FF63A-F1F7-4501-B2F8-47DF8B41189F}"/>
-    <hyperlink ref="C110" r:id="rId58" xr:uid="{91F19719-294D-4FB2-8477-339F4E0E106F}"/>
-    <hyperlink ref="C111" r:id="rId59" xr:uid="{C5548991-B5A5-4FE8-986D-3235740FF02C}"/>
-    <hyperlink ref="C112" r:id="rId60" xr:uid="{81CE3174-02C6-4919-A7B9-3A457E7FD947}"/>
-    <hyperlink ref="C113" r:id="rId61" xr:uid="{2E5DF7E2-80FF-4947-9596-C2C5AAE215A9}"/>
-    <hyperlink ref="C114" r:id="rId62" xr:uid="{C4B20CF4-0F81-4384-88A6-2D1EBD7DEA37}"/>
-    <hyperlink ref="C115" r:id="rId63" xr:uid="{22C841AD-441B-4961-99F1-9341E5EF263C}"/>
-    <hyperlink ref="C116" r:id="rId64" xr:uid="{A9ECE17C-0CD9-4823-A33F-7A015D89F457}"/>
-    <hyperlink ref="C117" r:id="rId65" xr:uid="{E61C821E-C7E8-44C9-A5C2-A5DF43B9F42E}"/>
-    <hyperlink ref="C118" r:id="rId66" xr:uid="{DB9EDAA9-B357-44FB-8380-E1F0726E7519}"/>
-    <hyperlink ref="C119" r:id="rId67" xr:uid="{B8FC8F4C-A671-4B28-B8B6-3810522B8794}"/>
-    <hyperlink ref="C120" r:id="rId68" xr:uid="{2069B3EA-7CE2-4713-9CF0-A55DC76DD36D}"/>
-    <hyperlink ref="C121" r:id="rId69" xr:uid="{2CD057EE-0F99-4FDC-8042-879C522FFE79}"/>
-    <hyperlink ref="C122" r:id="rId70" xr:uid="{05118E6D-59B0-4446-9593-53D30D12F9EB}"/>
-    <hyperlink ref="C123" r:id="rId71" xr:uid="{54DE5561-2DBD-49DF-91B8-0D5A79F9FE1C}"/>
-    <hyperlink ref="C124" r:id="rId72" xr:uid="{9F820E3F-F02F-4B9F-8DC0-74C1E6FA5879}"/>
-    <hyperlink ref="C125" r:id="rId73" xr:uid="{83FA85A1-7CEA-407C-AEBF-384FA5C4D373}"/>
-    <hyperlink ref="C126" r:id="rId74" xr:uid="{90257C7C-76AA-45CA-9E82-0A51AE73B2B3}"/>
-    <hyperlink ref="C127" r:id="rId75" xr:uid="{5BFBAC85-C853-44DF-AFD5-164217B42429}"/>
+    <hyperlink ref="C93" r:id="rId39" xr:uid="{46049220-A450-4B5A-8CAE-1ED232D7441B}"/>
+    <hyperlink ref="C92" r:id="rId40" xr:uid="{53206E7A-3909-433A-86CD-1786645ED7B6}"/>
+    <hyperlink ref="E91" r:id="rId41" xr:uid="{D533CCD3-A866-492F-B4D2-329DC1E7E515}"/>
+    <hyperlink ref="C91" r:id="rId42" xr:uid="{925B9909-B845-4666-8079-E6255DA2AE4D}"/>
+    <hyperlink ref="C90" r:id="rId43" xr:uid="{1634FEB3-CCEA-44E8-B370-4729312620FA}"/>
+    <hyperlink ref="C89" r:id="rId44" xr:uid="{8289C9B0-DF7A-49BC-9F71-BDCF9F66B0BF}"/>
+    <hyperlink ref="C88" r:id="rId45" xr:uid="{F098AF32-2259-45F6-92DF-C9C0666AB26A}"/>
+    <hyperlink ref="C87" r:id="rId46" xr:uid="{B7046670-48C6-416C-B0A1-31476D25C1C6}"/>
+    <hyperlink ref="C86" r:id="rId47" xr:uid="{3CA94B6F-86C0-4A59-9A42-7861EF8E2418}"/>
+    <hyperlink ref="C85" r:id="rId48" xr:uid="{3EDBE6F7-2439-4785-8BC7-3E41AFC174FC}"/>
+    <hyperlink ref="C84" r:id="rId49" xr:uid="{DE8CDA08-1142-4E6A-95B1-5019E1A871C9}"/>
+    <hyperlink ref="C83" r:id="rId50" xr:uid="{56E21647-4498-4F01-A9D3-5312A6405547}"/>
+    <hyperlink ref="C82" r:id="rId51" xr:uid="{55E461C0-9189-41C1-B25A-1EBB7D09C68A}"/>
+    <hyperlink ref="C81" r:id="rId52" xr:uid="{8B78679C-0829-4440-B001-CFA5762E92CC}"/>
+    <hyperlink ref="C80" r:id="rId53" xr:uid="{5E068154-34F2-449C-92B2-7DFE736293E1}"/>
+    <hyperlink ref="C79" r:id="rId54" xr:uid="{068F7277-86A4-43D6-B71F-DC44D0F2F4EF}"/>
+    <hyperlink ref="DS78" r:id="rId55" xr:uid="{CF77A10C-97F0-4FCA-989D-63EE83FBF4FE}"/>
+    <hyperlink ref="C78" r:id="rId56" xr:uid="{4E6A7428-FC32-4507-AF84-8D670D3027DA}"/>
+    <hyperlink ref="E77" r:id="rId57" xr:uid="{AE46A1CB-2BC7-4B9C-9D5C-BF903FAB17EB}"/>
+    <hyperlink ref="C77" r:id="rId58" xr:uid="{FC8B78E5-251E-44E7-8811-2B440C862BA8}"/>
+    <hyperlink ref="C75" r:id="rId59" xr:uid="{ED1CBE00-B1FC-4DF2-BB16-63E545ED7A61}"/>
+    <hyperlink ref="C73" r:id="rId60" xr:uid="{04EB0580-5AE7-4442-A481-A8DFB20FEC61}"/>
+    <hyperlink ref="C72" r:id="rId61" xr:uid="{109D2082-96EF-42F1-A1B2-D5A928B5933C}"/>
+    <hyperlink ref="C71" r:id="rId62" xr:uid="{2241BBF0-2CE3-4F5C-A3AF-E58F7FA5B364}"/>
+    <hyperlink ref="C24:C28" r:id="rId63" display="CRMTest06@corp.premierinc.com" xr:uid="{CBABE6F4-EF70-4915-BC24-AEC98C9D0AE2}"/>
+    <hyperlink ref="C23" r:id="rId64" xr:uid="{CE425BFD-B123-481D-BDFD-CFF64FCDF6EB}"/>
+    <hyperlink ref="C22" r:id="rId65" xr:uid="{A4C270D7-E880-46D0-87DA-E14CE53E534C}"/>
+    <hyperlink ref="C36" r:id="rId66" xr:uid="{7477EF87-87E4-463A-ABA5-676768778452}"/>
+    <hyperlink ref="C30" r:id="rId67" xr:uid="{1115574C-A50A-446A-9D3F-2E5ABB430F80}"/>
+    <hyperlink ref="C35" r:id="rId68" xr:uid="{53350E81-EBA3-499E-A70D-42C7721EA2D7}"/>
+    <hyperlink ref="C33" r:id="rId69" xr:uid="{DFD657C9-5004-4921-B4D6-D15574E6F99F}"/>
+    <hyperlink ref="C31" r:id="rId70" xr:uid="{6559B8A3-AF38-4569-8592-CCA25A38640A}"/>
+    <hyperlink ref="C31:C32" r:id="rId71" display="CRMTest02@corp.premierinc.com" xr:uid="{AC3467B5-4397-4316-AFE8-FA1C35882237}"/>
+    <hyperlink ref="C2:C7" r:id="rId72" display="CRMTest02@corp.premierinc.com" xr:uid="{1A299ACC-C25E-4FBE-9891-0B1405F693C4}"/>
+    <hyperlink ref="C10:C19" r:id="rId73" display="CRMTest02@corp.premierinc.com" xr:uid="{015EDE96-B284-4ECA-85FF-AC4FFDF54FF2}"/>
+    <hyperlink ref="C21" r:id="rId74" xr:uid="{E4E7E7F0-8234-4D73-8548-A93E90CCFDF8}"/>
+    <hyperlink ref="DS21" r:id="rId75" xr:uid="{16A04B90-4C95-42FB-B108-D3A9617D5B2D}"/>
+    <hyperlink ref="C128" r:id="rId76" xr:uid="{D5FAB0B7-042C-4705-9759-A05346C53411}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId76"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BU34"/>
   <sheetViews>
@@ -35262,7 +34990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AF10"/>
   <sheetViews>

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD963C69-5CA8-457F-9482-18E71E016B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB671648-B230-4DAA-8FCB-517BA2451431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="924">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2688,9 +2688,6 @@
     <t>TFS ID_10752:Cloud:Verify on end dating HIN, user should not allow to enter End date which is today's date /Future date</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
     <t>TFS ID_10753:Cloud:Verify on End dating active HIN ,should get removed from Member form</t>
   </si>
   <si>
@@ -2799,13 +2796,22 @@
     <t>2000512119</t>
   </si>
   <si>
-    <t>2022_04_19_11_23_02</t>
-  </si>
-  <si>
     <t>TFS ID_ 8906:Cloud: Verify if the DEA expiration date is displayed</t>
   </si>
   <si>
     <t>DEAExpiryDate</t>
+  </si>
+  <si>
+    <t>A94143361</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2000512128</t>
+  </si>
+  <si>
+    <t>2022_04_19_08_33_26</t>
   </si>
 </sst>
 </file>
@@ -3125,7 +3131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3314,20 +3320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3338,8 +3330,8 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3663,9 +3655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3682,7 +3672,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="107" t="s">
@@ -3720,7 +3710,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3733,20 +3723,20 @@
         <v>40</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>882</v>
+        <v>265</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>919</v>
+        <v>742</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="114" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3754,7 +3744,7 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -3786,7 +3776,7 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -3815,7 +3805,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -3834,7 +3824,7 @@
         <v>742</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -3844,7 +3834,7 @@
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3871,7 +3861,7 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -3898,7 +3888,7 @@
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="12" t="s">
         <v>452</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3917,7 +3907,7 @@
         <v>742</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -3927,7 +3917,7 @@
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3954,7 +3944,7 @@
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="12" t="s">
         <v>451</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -3973,7 +3963,7 @@
         <v>742</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -3983,7 +3973,7 @@
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -4002,7 +3992,7 @@
         <v>742</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -4012,7 +4002,7 @@
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="12" t="s">
         <v>450</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -4031,7 +4021,7 @@
         <v>742</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -4042,7 +4032,7 @@
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -4069,7 +4059,7 @@
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="12" t="s">
         <v>252</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -4096,7 +4086,7 @@
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -4115,7 +4105,7 @@
         <v>742</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -4125,7 +4115,7 @@
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="12" t="s">
         <v>449</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -4144,7 +4134,7 @@
         <v>742</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -4154,7 +4144,7 @@
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="12" t="s">
         <v>448</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -4181,7 +4171,7 @@
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="12" t="s">
         <v>447</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -4208,7 +4198,7 @@
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -4235,7 +4225,7 @@
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="12" t="s">
         <v>446</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -4262,7 +4252,7 @@
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="12" t="s">
         <v>241</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4281,7 +4271,7 @@
         <v>742</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -4291,7 +4281,7 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="12" t="s">
         <v>491</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -4311,7 +4301,7 @@
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="25"/>
@@ -4320,7 +4310,7 @@
       <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="12" t="s">
         <v>178</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -4347,7 +4337,7 @@
       <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -4374,7 +4364,7 @@
       <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -4401,7 +4391,7 @@
       <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -4428,7 +4418,7 @@
       <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="12" t="s">
         <v>180</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -4455,7 +4445,7 @@
       <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="12" t="s">
         <v>181</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -4482,7 +4472,7 @@
       <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -4509,7 +4499,7 @@
       <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -4536,7 +4526,7 @@
       <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="24" t="s">
         <v>347</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -4563,7 +4553,7 @@
       <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="24" t="s">
         <v>348</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4590,7 +4580,7 @@
       <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="24" t="s">
         <v>359</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -4617,7 +4607,7 @@
       <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="24" t="s">
         <v>362</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -4644,7 +4634,7 @@
       <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="24" t="s">
         <v>364</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -4671,7 +4661,7 @@
       <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="24" t="s">
         <v>381</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4698,7 +4688,7 @@
       <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="24" t="s">
         <v>445</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -4725,7 +4715,7 @@
       <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="24" t="s">
         <v>454</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4752,7 +4742,7 @@
       <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="24" t="s">
         <v>444</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -4779,7 +4769,7 @@
       <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="24" t="s">
         <v>443</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -4806,7 +4796,7 @@
       <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="24" t="s">
         <v>442</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -4833,7 +4823,7 @@
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="24" t="s">
         <v>441</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -4860,7 +4850,7 @@
       <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="24" t="s">
         <v>440</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -4887,7 +4877,7 @@
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="24" t="s">
         <v>439</v>
       </c>
       <c r="C44" s="17" t="s">
@@ -4914,7 +4904,7 @@
       <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="24" t="s">
         <v>438</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -4941,7 +4931,7 @@
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="24" t="s">
         <v>437</v>
       </c>
       <c r="C46" s="17" t="s">
@@ -4968,7 +4958,7 @@
       <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="24" t="s">
         <v>436</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -4995,7 +4985,7 @@
       <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="24" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -5022,7 +5012,7 @@
       <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="24" t="s">
         <v>434</v>
       </c>
       <c r="C49" s="17" t="s">
@@ -5049,7 +5039,7 @@
       <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="109" t="s">
+      <c r="B50" s="24" t="s">
         <v>433</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -5076,7 +5066,7 @@
       <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="24" t="s">
         <v>432</v>
       </c>
       <c r="C51" s="17" t="s">
@@ -5103,7 +5093,7 @@
       <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="109" t="s">
+      <c r="B52" s="24" t="s">
         <v>431</v>
       </c>
       <c r="C52" s="17" t="s">
@@ -5130,7 +5120,7 @@
       <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="24" t="s">
         <v>430</v>
       </c>
       <c r="C53" s="17" t="s">
@@ -5157,7 +5147,7 @@
       <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="109" t="s">
+      <c r="B54" s="24" t="s">
         <v>429</v>
       </c>
       <c r="C54" s="17" t="s">
@@ -5184,7 +5174,7 @@
       <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="109" t="s">
+      <c r="B55" s="24" t="s">
         <v>428</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -5211,7 +5201,7 @@
       <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="24" t="s">
         <v>427</v>
       </c>
       <c r="C56" s="17" t="s">
@@ -5238,7 +5228,7 @@
       <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="24" t="s">
         <v>563</v>
       </c>
       <c r="C57" s="17" t="s">
@@ -5265,7 +5255,7 @@
       <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="24" t="s">
         <v>564</v>
       </c>
       <c r="C58" s="17" t="s">
@@ -5292,7 +5282,7 @@
       <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="24" t="s">
         <v>565</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -5319,7 +5309,7 @@
       <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="24" t="s">
         <v>567</v>
       </c>
       <c r="C60" s="17" t="s">
@@ -5346,7 +5336,7 @@
       <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="44" t="s">
         <v>569</v>
       </c>
       <c r="C61" s="17" t="s">
@@ -5373,7 +5363,7 @@
       <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="44" t="s">
         <v>573</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -5400,7 +5390,7 @@
       <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="44" t="s">
         <v>575</v>
       </c>
       <c r="C63" s="17" t="s">
@@ -5427,7 +5417,7 @@
       <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="44" t="s">
         <v>577</v>
       </c>
       <c r="C64" s="17" t="s">
@@ -5454,7 +5444,7 @@
       <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="44" t="s">
         <v>578</v>
       </c>
       <c r="C65" s="17" t="s">
@@ -5481,7 +5471,7 @@
       <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="44" t="s">
         <v>581</v>
       </c>
       <c r="C66" s="17" t="s">
@@ -5508,7 +5498,7 @@
       <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="44" t="s">
         <v>583</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -5535,7 +5525,7 @@
       <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="44" t="s">
         <v>585</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -5562,7 +5552,7 @@
       <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="109" t="s">
+      <c r="B69" s="24" t="s">
         <v>587</v>
       </c>
       <c r="C69" s="17" t="s">
@@ -5589,7 +5579,7 @@
       <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="109" t="s">
+      <c r="B70" s="24" t="s">
         <v>589</v>
       </c>
       <c r="C70" s="17" t="s">
@@ -5616,7 +5606,7 @@
       <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="109" t="s">
+      <c r="B71" s="24" t="s">
         <v>591</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -5643,7 +5633,7 @@
       <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="44" t="s">
         <v>594</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -5670,7 +5660,7 @@
       <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="44" t="s">
         <v>596</v>
       </c>
       <c r="C73" s="17" t="s">
@@ -5697,7 +5687,7 @@
       <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="110" t="s">
+      <c r="B74" s="15" t="s">
         <v>598</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -5724,7 +5714,7 @@
       <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="109" t="s">
+      <c r="B75" s="24" t="s">
         <v>600</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -5751,7 +5741,7 @@
       <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="109" t="s">
+      <c r="B76" s="24" t="s">
         <v>602</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -5778,7 +5768,7 @@
       <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="109" t="s">
+      <c r="B77" s="24" t="s">
         <v>605</v>
       </c>
       <c r="C77" s="17" t="s">
@@ -5805,7 +5795,7 @@
       <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="111" t="s">
+      <c r="B78" s="14" t="s">
         <v>606</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -5832,7 +5822,7 @@
       <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="111" t="s">
+      <c r="B79" s="14" t="s">
         <v>607</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5859,7 +5849,7 @@
       <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="111" t="s">
+      <c r="B80" s="14" t="s">
         <v>608</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -5886,7 +5876,7 @@
       <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="111" t="s">
+      <c r="B81" s="14" t="s">
         <v>686</v>
       </c>
       <c r="C81" s="17" t="s">
@@ -5913,7 +5903,7 @@
       <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="112" t="s">
+      <c r="B82" s="40" t="s">
         <v>609</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -5940,7 +5930,7 @@
       <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="111" t="s">
+      <c r="B83" s="14" t="s">
         <v>729</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -5967,7 +5957,7 @@
       <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="112" t="s">
+      <c r="B84" s="40" t="s">
         <v>731</v>
       </c>
       <c r="C84" s="17" t="s">
@@ -5995,7 +5985,7 @@
       <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="112" t="s">
+      <c r="B85" s="40" t="s">
         <v>732</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -6023,7 +6013,7 @@
       <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="112" t="s">
+      <c r="B86" s="40" t="s">
         <v>735</v>
       </c>
       <c r="C86" s="17" t="s">
@@ -6303,7 +6293,7 @@
       <c r="A96" s="17">
         <v>95</v>
       </c>
-      <c r="B96" s="112" t="s">
+      <c r="B96" s="40" t="s">
         <v>782</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -7006,7 +6996,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>35</v>
@@ -7033,7 +7023,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>35</v>
@@ -7060,7 +7050,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>35</v>
@@ -7087,7 +7077,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>35</v>
@@ -7114,7 +7104,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>35</v>
@@ -7136,38 +7126,38 @@
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>126</v>
       </c>
-      <c r="B127" s="121" t="s">
-        <v>902</v>
+      <c r="B127" s="111" t="s">
+        <v>901</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="121" t="s">
+      <c r="D127" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E127" s="121" t="s">
+      <c r="E127" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F127" s="122" t="s">
+      <c r="F127" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="G127" s="121" t="s">
+      <c r="G127" s="111" t="s">
         <v>742</v>
       </c>
-      <c r="H127" s="121"/>
-      <c r="I127" s="121"/>
-      <c r="J127" s="121"/>
-      <c r="K127" s="121"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>127</v>
       </c>
-      <c r="B128" s="113" t="s">
+      <c r="B128" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C128" s="17" t="s">
@@ -7194,7 +7184,7 @@
       <c r="A129" s="17">
         <v>128</v>
       </c>
-      <c r="B129" s="113" t="s">
+      <c r="B129" s="21" t="s">
         <v>466</v>
       </c>
       <c r="C129" s="17" t="s">
@@ -7221,7 +7211,7 @@
       <c r="A130" s="17">
         <v>129</v>
       </c>
-      <c r="B130" s="113" t="s">
+      <c r="B130" s="21" t="s">
         <v>470</v>
       </c>
       <c r="C130" s="17" t="s">
@@ -7248,7 +7238,7 @@
       <c r="A131" s="17">
         <v>130</v>
       </c>
-      <c r="B131" s="113" t="s">
+      <c r="B131" s="21" t="s">
         <v>453</v>
       </c>
       <c r="C131" s="17" t="s">
@@ -7275,7 +7265,7 @@
       <c r="A132" s="17">
         <v>131</v>
       </c>
-      <c r="B132" s="113" t="s">
+      <c r="B132" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C132" s="17" t="s">
@@ -7302,7 +7292,7 @@
       <c r="A133" s="17">
         <v>132</v>
       </c>
-      <c r="B133" s="113" t="s">
+      <c r="B133" s="21" t="s">
         <v>97</v>
       </c>
       <c r="C133" s="17" t="s">
@@ -7329,7 +7319,7 @@
       <c r="A134" s="17">
         <v>133</v>
       </c>
-      <c r="B134" s="113" t="s">
+      <c r="B134" s="21" t="s">
         <v>101</v>
       </c>
       <c r="C134" s="17" t="s">
@@ -7356,7 +7346,7 @@
       <c r="A135" s="17">
         <v>134</v>
       </c>
-      <c r="B135" s="113" t="s">
+      <c r="B135" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -7383,7 +7373,7 @@
       <c r="A136" s="17">
         <v>135</v>
       </c>
-      <c r="B136" s="113" t="s">
+      <c r="B136" s="21" t="s">
         <v>109</v>
       </c>
       <c r="C136" s="17" t="s">
@@ -7410,7 +7400,7 @@
       <c r="A137" s="17">
         <v>136</v>
       </c>
-      <c r="B137" s="113" t="s">
+      <c r="B137" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C137" s="17" t="s">
@@ -7437,7 +7427,7 @@
       <c r="A138" s="17">
         <v>137</v>
       </c>
-      <c r="B138" s="113" t="s">
+      <c r="B138" s="21" t="s">
         <v>115</v>
       </c>
       <c r="C138" s="17" t="s">
@@ -7464,7 +7454,7 @@
       <c r="A139" s="17">
         <v>138</v>
       </c>
-      <c r="B139" s="113" t="s">
+      <c r="B139" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -7491,7 +7481,7 @@
       <c r="A140" s="17">
         <v>139</v>
       </c>
-      <c r="B140" s="113" t="s">
+      <c r="B140" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C140" s="17" t="s">
@@ -7518,7 +7508,7 @@
       <c r="A141" s="17">
         <v>140</v>
       </c>
-      <c r="B141" s="113" t="s">
+      <c r="B141" s="21" t="s">
         <v>257</v>
       </c>
       <c r="C141" s="17" t="s">
@@ -7545,7 +7535,7 @@
       <c r="A142" s="17">
         <v>141</v>
       </c>
-      <c r="B142" s="113" t="s">
+      <c r="B142" s="21" t="s">
         <v>186</v>
       </c>
       <c r="C142" s="17" t="s">
@@ -7572,7 +7562,7 @@
       <c r="A143" s="17">
         <v>142</v>
       </c>
-      <c r="B143" s="114" t="s">
+      <c r="B143" s="115" t="s">
         <v>418</v>
       </c>
       <c r="C143" s="17" t="s">
@@ -7599,7 +7589,7 @@
       <c r="A144" s="17">
         <v>143</v>
       </c>
-      <c r="B144" s="113" t="s">
+      <c r="B144" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C144" s="17" t="s">
@@ -7626,7 +7616,7 @@
       <c r="A145" s="17">
         <v>144</v>
       </c>
-      <c r="B145" s="113" t="s">
+      <c r="B145" s="21" t="s">
         <v>462</v>
       </c>
       <c r="C145" s="17" t="s">
@@ -7653,7 +7643,7 @@
       <c r="A146" s="17">
         <v>145</v>
       </c>
-      <c r="B146" s="113" t="s">
+      <c r="B146" s="21" t="s">
         <v>467</v>
       </c>
       <c r="C146" s="17" t="s">
@@ -7680,7 +7670,7 @@
       <c r="A147" s="17">
         <v>146</v>
       </c>
-      <c r="B147" s="113" t="s">
+      <c r="B147" s="21" t="s">
         <v>472</v>
       </c>
       <c r="C147" s="17" t="s">
@@ -7707,7 +7697,7 @@
       <c r="A148" s="17">
         <v>147</v>
       </c>
-      <c r="B148" s="113" t="s">
+      <c r="B148" s="21" t="s">
         <v>475</v>
       </c>
       <c r="C148" s="17" t="s">
@@ -7734,7 +7724,7 @@
       <c r="A149" s="17">
         <v>148</v>
       </c>
-      <c r="B149" s="113" t="s">
+      <c r="B149" s="21" t="s">
         <v>478</v>
       </c>
       <c r="C149" s="17" t="s">
@@ -7761,7 +7751,7 @@
       <c r="A150" s="17">
         <v>149</v>
       </c>
-      <c r="B150" s="113" t="s">
+      <c r="B150" s="21" t="s">
         <v>473</v>
       </c>
       <c r="C150" s="17" t="s">
@@ -7788,7 +7778,7 @@
       <c r="A151" s="17">
         <v>150</v>
       </c>
-      <c r="B151" s="113" t="s">
+      <c r="B151" s="21" t="s">
         <v>605</v>
       </c>
       <c r="C151" s="17" t="s">
@@ -7803,12 +7793,17 @@
       <c r="F151" s="24" t="s">
         <v>265</v>
       </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>151</v>
       </c>
-      <c r="B152" s="113" t="s">
+      <c r="B152" s="21" t="s">
         <v>610</v>
       </c>
       <c r="C152" s="17" t="s">
@@ -7835,7 +7830,7 @@
       <c r="A153" s="17">
         <v>152</v>
       </c>
-      <c r="B153" s="113" t="s">
+      <c r="B153" s="21" t="s">
         <v>611</v>
       </c>
       <c r="C153" s="17" t="s">
@@ -7862,7 +7857,7 @@
       <c r="A154" s="17">
         <v>153</v>
       </c>
-      <c r="B154" s="113" t="s">
+      <c r="B154" s="21" t="s">
         <v>612</v>
       </c>
       <c r="C154" s="17" t="s">
@@ -7889,7 +7884,7 @@
       <c r="A155" s="17">
         <v>154</v>
       </c>
-      <c r="B155" s="113" t="s">
+      <c r="B155" s="21" t="s">
         <v>613</v>
       </c>
       <c r="C155" s="17" t="s">
@@ -7916,7 +7911,7 @@
       <c r="A156" s="17">
         <v>155</v>
       </c>
-      <c r="B156" s="113" t="s">
+      <c r="B156" s="21" t="s">
         <v>614</v>
       </c>
       <c r="C156" s="17" t="s">
@@ -7943,7 +7938,7 @@
       <c r="A157" s="17">
         <v>156</v>
       </c>
-      <c r="B157" s="113" t="s">
+      <c r="B157" s="21" t="s">
         <v>615</v>
       </c>
       <c r="C157" s="17" t="s">
@@ -7970,7 +7965,7 @@
       <c r="A158" s="17">
         <v>157</v>
       </c>
-      <c r="B158" s="113" t="s">
+      <c r="B158" s="21" t="s">
         <v>616</v>
       </c>
       <c r="C158" s="17" t="s">
@@ -7997,7 +7992,7 @@
       <c r="A159" s="17">
         <v>158</v>
       </c>
-      <c r="B159" s="113" t="s">
+      <c r="B159" s="21" t="s">
         <v>617</v>
       </c>
       <c r="C159" s="17" t="s">
@@ -8024,7 +8019,7 @@
       <c r="A160" s="17">
         <v>159</v>
       </c>
-      <c r="B160" s="113" t="s">
+      <c r="B160" s="21" t="s">
         <v>618</v>
       </c>
       <c r="C160" s="17" t="s">
@@ -8078,7 +8073,7 @@
       <c r="A162" s="17">
         <v>161</v>
       </c>
-      <c r="B162" s="115" t="s">
+      <c r="B162" s="29" t="s">
         <v>221</v>
       </c>
       <c r="C162" s="17" t="s">
@@ -8105,7 +8100,7 @@
       <c r="A163" s="17">
         <v>162</v>
       </c>
-      <c r="B163" s="115" t="s">
+      <c r="B163" s="29" t="s">
         <v>420</v>
       </c>
       <c r="C163" s="17" t="s">
@@ -8132,7 +8127,7 @@
       <c r="A164" s="17">
         <v>163</v>
       </c>
-      <c r="B164" s="115" t="s">
+      <c r="B164" s="29" t="s">
         <v>421</v>
       </c>
       <c r="C164" s="17" t="s">
@@ -8159,7 +8154,7 @@
       <c r="A165" s="17">
         <v>164</v>
       </c>
-      <c r="B165" s="115" t="s">
+      <c r="B165" s="29" t="s">
         <v>422</v>
       </c>
       <c r="C165" s="17" t="s">
@@ -8186,7 +8181,7 @@
       <c r="A166" s="17">
         <v>165</v>
       </c>
-      <c r="B166" s="115" t="s">
+      <c r="B166" s="29" t="s">
         <v>423</v>
       </c>
       <c r="C166" s="17" t="s">
@@ -8213,7 +8208,7 @@
       <c r="A167" s="17">
         <v>166</v>
       </c>
-      <c r="B167" s="115" t="s">
+      <c r="B167" s="29" t="s">
         <v>419</v>
       </c>
       <c r="C167" s="17" t="s">
@@ -8240,7 +8235,7 @@
       <c r="A168" s="17">
         <v>167</v>
       </c>
-      <c r="B168" s="115" t="s">
+      <c r="B168" s="29" t="s">
         <v>424</v>
       </c>
       <c r="C168" s="17" t="s">
@@ -8267,7 +8262,7 @@
       <c r="A169" s="17">
         <v>168</v>
       </c>
-      <c r="B169" s="115" t="s">
+      <c r="B169" s="29" t="s">
         <v>425</v>
       </c>
       <c r="C169" s="17" t="s">
@@ -8294,7 +8289,7 @@
       <c r="A170" s="17">
         <v>169</v>
       </c>
-      <c r="B170" s="116" t="s">
+      <c r="B170" s="30" t="s">
         <v>426</v>
       </c>
       <c r="C170" s="17" t="s">
@@ -8318,24 +8313,33 @@
       <c r="K170" s="28"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="124">
+      <c r="A171" s="17">
         <v>170</v>
       </c>
-      <c r="B171" s="78" t="s">
-        <v>920</v>
-      </c>
-      <c r="C171" s="124" t="s">
+      <c r="B171" s="29" t="s">
+        <v>918</v>
+      </c>
+      <c r="C171" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D171" s="125" t="s">
+      <c r="D171" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E171" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>265</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -8435,8 +8439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EP128"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD128"/>
+    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13152,12 +13156,12 @@
         <v>35</v>
       </c>
       <c r="EA21" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
       <c r="ED21" s="13" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="EE21" s="44" t="s">
         <v>35</v>
@@ -19899,10 +19903,10 @@
       </c>
       <c r="M57" s="44"/>
       <c r="T57" s="44"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="118"/>
+      <c r="U57" s="108"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
+      <c r="X57" s="108"/>
       <c r="AI57" s="36" t="s">
         <v>559</v>
       </c>
@@ -20108,10 +20112,10 @@
         <v>205</v>
       </c>
       <c r="T59" s="44"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="118"/>
-      <c r="W59" s="118"/>
-      <c r="X59" s="118"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="108"/>
       <c r="AC59" s="14" t="s">
         <v>2</v>
       </c>
@@ -20239,10 +20243,10 @@
         <v>205</v>
       </c>
       <c r="T60" s="44"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="118"/>
-      <c r="X60" s="118"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="108"/>
       <c r="AC60" s="14" t="s">
         <v>2</v>
       </c>
@@ -20337,10 +20341,10 @@
         <v>620</v>
       </c>
       <c r="T61" s="44"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
       <c r="AM61" s="34"/>
       <c r="AX61" s="15"/>
       <c r="BB61" s="44"/>
@@ -25024,7 +25028,7 @@
       <c r="D91" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="119" t="s">
+      <c r="E91" s="109" t="s">
         <v>757</v>
       </c>
       <c r="F91" s="36"/>
@@ -25184,7 +25188,7 @@
       <c r="D92" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="119"/>
+      <c r="E92" s="109"/>
       <c r="F92" s="36"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
@@ -25336,7 +25340,7 @@
       <c r="D93" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="119"/>
+      <c r="E93" s="109"/>
       <c r="F93" s="36"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
@@ -25488,7 +25492,7 @@
       <c r="D94" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="119"/>
+      <c r="E94" s="109"/>
       <c r="F94" s="36"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
@@ -25640,7 +25644,7 @@
       <c r="D95" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="119"/>
+      <c r="E95" s="109"/>
       <c r="F95" s="36"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
@@ -25950,7 +25954,7 @@
       <c r="D97" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="119" t="s">
+      <c r="E97" s="109" t="s">
         <v>757</v>
       </c>
       <c r="F97" s="36"/>
@@ -26272,7 +26276,7 @@
       <c r="D99" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="119"/>
+      <c r="E99" s="109"/>
       <c r="F99" s="36"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -26424,7 +26428,7 @@
       <c r="D100" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="119"/>
+      <c r="E100" s="109"/>
       <c r="F100" s="36"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
@@ -26576,7 +26580,7 @@
       <c r="D101" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="119"/>
+      <c r="E101" s="109"/>
       <c r="F101" s="36"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -26728,7 +26732,7 @@
       <c r="D102" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="119"/>
+      <c r="E102" s="109"/>
       <c r="F102" s="36"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -27302,7 +27306,7 @@
       <c r="D105" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="119" t="s">
+      <c r="E105" s="109" t="s">
         <v>808</v>
       </c>
       <c r="F105" s="36"/>
@@ -27468,7 +27472,7 @@
       <c r="D106" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E106" s="119" t="s">
+      <c r="E106" s="109" t="s">
         <v>817</v>
       </c>
       <c r="F106" s="36"/>
@@ -28868,7 +28872,7 @@
         <v>852</v>
       </c>
       <c r="EB114" s="36"/>
-      <c r="EC114" s="120" t="s">
+      <c r="EC114" s="110" t="s">
         <v>851</v>
       </c>
       <c r="ED114" s="15"/>
@@ -29026,7 +29030,7 @@
         <v>856</v>
       </c>
       <c r="EB115" s="36"/>
-      <c r="EC115" s="120"/>
+      <c r="EC115" s="110"/>
       <c r="ED115" s="15"/>
       <c r="EE115" s="15"/>
       <c r="EF115" s="92"/>
@@ -29182,7 +29186,7 @@
         <v>860</v>
       </c>
       <c r="EB116" s="36"/>
-      <c r="EC116" s="120"/>
+      <c r="EC116" s="110"/>
       <c r="ED116" s="15"/>
       <c r="EE116" s="15"/>
       <c r="EF116" s="92"/>
@@ -29984,7 +29988,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C122" s="32" t="s">
         <v>320</v>
@@ -29994,13 +29998,13 @@
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
@@ -30124,9 +30128,9 @@
       <c r="DZ122" s="15"/>
       <c r="EA122" s="36"/>
       <c r="EB122" s="36"/>
-      <c r="EC122" s="120"/>
+      <c r="EC122" s="110"/>
       <c r="ED122" s="36" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="EE122" s="15"/>
       <c r="EF122" s="92"/>
@@ -30140,7 +30144,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C123" s="32" t="s">
         <v>320</v>
@@ -30150,13 +30154,13 @@
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
@@ -30280,9 +30284,9 @@
       <c r="DZ123" s="15"/>
       <c r="EA123" s="36"/>
       <c r="EB123" s="36"/>
-      <c r="EC123" s="120"/>
+      <c r="EC123" s="110"/>
       <c r="ED123" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="EE123" s="15"/>
       <c r="EF123" s="92"/>
@@ -30296,7 +30300,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>320</v>
@@ -30306,13 +30310,13 @@
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="36" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
@@ -30436,9 +30440,9 @@
       <c r="DZ124" s="15"/>
       <c r="EA124" s="36"/>
       <c r="EB124" s="36"/>
-      <c r="EC124" s="120"/>
+      <c r="EC124" s="110"/>
       <c r="ED124" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="EE124" s="15"/>
       <c r="EF124" s="92"/>
@@ -30452,7 +30456,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C125" s="32" t="s">
         <v>320</v>
@@ -30468,7 +30472,7 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="40" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K125" s="15" t="s">
         <v>877</v>
@@ -30596,7 +30600,7 @@
       <c r="EB125" s="36"/>
       <c r="EC125" s="36"/>
       <c r="ED125" s="36" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="EE125" s="15"/>
       <c r="EF125" s="92"/>
@@ -30610,7 +30614,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>320</v>
@@ -30626,10 +30630,10 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="40" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
@@ -30754,7 +30758,7 @@
       <c r="EB126" s="36"/>
       <c r="EC126" s="36"/>
       <c r="ED126" s="36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="EE126" s="15"/>
       <c r="EF126" s="92"/>
@@ -30768,7 +30772,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>320</v>
@@ -30782,10 +30786,10 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>903</v>
-      </c>
-      <c r="K127" s="15" t="s">
-        <v>904</v>
       </c>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
@@ -30810,7 +30814,7 @@
       <c r="AF127" s="15"/>
       <c r="AG127" s="15"/>
       <c r="AH127" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AI127" s="36"/>
       <c r="AJ127" s="15"/>
@@ -30824,13 +30828,13 @@
         <v>48</v>
       </c>
       <c r="AR127" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AS127" s="15" t="s">
         <v>35</v>
       </c>
       <c r="AT127" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AU127" s="15"/>
       <c r="AV127" s="15"/>
@@ -30936,7 +30940,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>298</v>
@@ -30950,7 +30954,7 @@
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="40" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
@@ -31126,7 +31130,9 @@
       <c r="DX128" s="15"/>
       <c r="DY128" s="15"/>
       <c r="DZ128" s="15"/>
-      <c r="EA128" s="36"/>
+      <c r="EA128" s="36" t="s">
+        <v>920</v>
+      </c>
       <c r="EB128" s="36"/>
       <c r="EC128" s="36"/>
       <c r="ED128" s="36"/>
@@ -35597,24 +35603,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -35848,25 +35836,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35884,4 +35872,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Cloud Apr18\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD963C69-5CA8-457F-9482-18E71E016B66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5092C41F-BAC4-4AB8-8226-C2378F69CDD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -20,11 +20,11 @@
     <sheet name="Contact" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="947">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2688,124 +2688,199 @@
     <t>TFS ID_10752:Cloud:Verify on end dating HIN, user should not allow to enter End date which is today's date /Future date</t>
   </si>
   <si>
+    <t>TFS ID_10753:Cloud:Verify on End dating active HIN ,should get removed from Member form</t>
+  </si>
+  <si>
+    <t>2000355894</t>
+  </si>
+  <si>
+    <t>Verify on End dating active HIN ,should get removed from Member form</t>
+  </si>
+  <si>
+    <t>5GN4MCA00</t>
+  </si>
+  <si>
+    <t>TFS ID_ 10758 :Cloud:Verify on  deactivating active HIN ,should get removed from Member form.</t>
+  </si>
+  <si>
+    <t>1000058401</t>
+  </si>
+  <si>
+    <t>Verify on  deactivating active HIN ,should get removed from Member form.</t>
+  </si>
+  <si>
+    <t>431156441</t>
+  </si>
+  <si>
+    <t>TFS ID_ 10759 :Cloud:Verify whether newly added active HIN ,should appear on Member form.</t>
+  </si>
+  <si>
+    <t>Verify whether newly added active HIN ,should appear on Member form.</t>
+  </si>
+  <si>
+    <t>1000181696</t>
+  </si>
+  <si>
+    <t>228446138</t>
+  </si>
+  <si>
+    <t>Verify whether HIN digit check- accepts only 9 digits</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Invalid HIN Number - HIN should be alpha numeric!</t>
+  </si>
+  <si>
+    <t>TFS ID_10762:Cloud:Verify whether HIN digit check- accepts only 9 digits</t>
+  </si>
+  <si>
+    <t>TFS ID_10763:Cloud:Verify whether HIN digit check- characters should be alpha numeric only</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify whether HIN digit check- characters should be alpha numeric only</t>
+  </si>
+  <si>
+    <t>12@567890</t>
+  </si>
+  <si>
+    <t>TFS ID_8805:Cloud - Verify for "Prospect" Account, on update FBO Manual Override field as "Member" login "Error Message" should be thrown.</t>
+  </si>
+  <si>
+    <t>FBOOverride</t>
+  </si>
+  <si>
+    <t>have permission to update the FBO Fields</t>
+  </si>
+  <si>
+    <t>03/03/2022</t>
+  </si>
+  <si>
+    <t>CNECT</t>
+  </si>
+  <si>
+    <t>2000512101</t>
+  </si>
+  <si>
+    <t>2000512104</t>
+  </si>
+  <si>
+    <t>2000512106</t>
+  </si>
+  <si>
+    <t>2000512107</t>
+  </si>
+  <si>
+    <t>2000512108</t>
+  </si>
+  <si>
+    <t>2000512111</t>
+  </si>
+  <si>
+    <t>2000512112</t>
+  </si>
+  <si>
+    <t>2000512115</t>
+  </si>
+  <si>
+    <t>157745899</t>
+  </si>
+  <si>
+    <t>jf1846243</t>
+  </si>
+  <si>
+    <t>2000512116</t>
+  </si>
+  <si>
+    <t>2000512119</t>
+  </si>
+  <si>
+    <t>TFS ID_ 8906:Cloud: Verify if the DEA expiration date is displayed</t>
+  </si>
+  <si>
+    <t>DEAExpiryDate</t>
+  </si>
+  <si>
+    <t>A94143361</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2022_04_19_06_30_06</t>
+  </si>
+  <si>
+    <t>2000512123</t>
+  </si>
+  <si>
+    <t>1000032600</t>
+  </si>
+  <si>
+    <t>TFS ID_10661:Cloud:Verify whether user able to add same "Federal Tax ID" on different "Supplier" and "Member" accounts.</t>
+  </si>
+  <si>
+    <t>fedTaxID</t>
+  </si>
+  <si>
+    <t>525100200</t>
+  </si>
+  <si>
+    <t>CVS Corporation</t>
+  </si>
+  <si>
+    <t>2000154973</t>
+  </si>
+  <si>
+    <t>K B Pizza, Inc</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>TFS ID_10753:Cloud:Verify on End dating active HIN ,should get removed from Member form</t>
-  </si>
-  <si>
-    <t>2000355894</t>
-  </si>
-  <si>
-    <t>Verify on End dating active HIN ,should get removed from Member form</t>
-  </si>
-  <si>
-    <t>5GN4MCA00</t>
-  </si>
-  <si>
-    <t>TFS ID_ 10758 :Cloud:Verify on  deactivating active HIN ,should get removed from Member form.</t>
-  </si>
-  <si>
-    <t>1000058401</t>
-  </si>
-  <si>
-    <t>Verify on  deactivating active HIN ,should get removed from Member form.</t>
-  </si>
-  <si>
-    <t>431156441</t>
-  </si>
-  <si>
-    <t>TFS ID_ 10759 :Cloud:Verify whether newly added active HIN ,should appear on Member form.</t>
-  </si>
-  <si>
-    <t>Verify whether newly added active HIN ,should appear on Member form.</t>
-  </si>
-  <si>
-    <t>1000181696</t>
-  </si>
-  <si>
-    <t>228446138</t>
-  </si>
-  <si>
-    <t>Verify whether HIN digit check- accepts only 9 digits</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Invalid HIN Number - HIN should be alpha numeric!</t>
-  </si>
-  <si>
-    <t>TFS ID_10762:Cloud:Verify whether HIN digit check- accepts only 9 digits</t>
-  </si>
-  <si>
-    <t>TFS ID_10763:Cloud:Verify whether HIN digit check- characters should be alpha numeric only</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify whether HIN digit check- characters should be alpha numeric only</t>
-  </si>
-  <si>
-    <t>12@567890</t>
-  </si>
-  <si>
-    <t>TFS ID_8805:Cloud - Verify for "Prospect" Account, on update FBO Manual Override field as "Member" login "Error Message" should be thrown.</t>
-  </si>
-  <si>
-    <t>FBOOverride</t>
-  </si>
-  <si>
-    <t>have permission to update the FBO Fields</t>
-  </si>
-  <si>
-    <t>03/03/2022</t>
-  </si>
-  <si>
-    <t>CNECT</t>
-  </si>
-  <si>
-    <t>2000512101</t>
-  </si>
-  <si>
-    <t>2000512104</t>
-  </si>
-  <si>
-    <t>2000512106</t>
-  </si>
-  <si>
-    <t>2000512107</t>
-  </si>
-  <si>
-    <t>2000512108</t>
-  </si>
-  <si>
-    <t>2000512111</t>
-  </si>
-  <si>
-    <t>2000512112</t>
-  </si>
-  <si>
-    <t>2000512115</t>
-  </si>
-  <si>
-    <t>157745899</t>
-  </si>
-  <si>
-    <t>jf1846243</t>
-  </si>
-  <si>
-    <t>2000512116</t>
-  </si>
-  <si>
-    <t>2000512119</t>
-  </si>
-  <si>
-    <t>2022_04_19_11_23_02</t>
-  </si>
-  <si>
-    <t>TFS ID_ 8906:Cloud: Verify if the DEA expiration date is displayed</t>
-  </si>
-  <si>
-    <t>DEAExpiryDate</t>
+    <t>TFS ID_10662:Cloud:Verify whether user able to add same "Federal Tax ID" on different "Supplier" ,if they have the same Top Parent.</t>
+  </si>
+  <si>
+    <t>2000145121</t>
+  </si>
+  <si>
+    <t>crmNumberInput1</t>
+  </si>
+  <si>
+    <t>2000146465</t>
+  </si>
+  <si>
+    <t>Ecolab Inc</t>
+  </si>
+  <si>
+    <t>Ecolab Pest</t>
+  </si>
+  <si>
+    <t>587630147</t>
+  </si>
+  <si>
+    <t>2022_04_20_07_16_43</t>
+  </si>
+  <si>
+    <t>2022_04_20_07_16_50</t>
+  </si>
+  <si>
+    <t>2022_04_20_07_41_03</t>
+  </si>
+  <si>
+    <t>2022_04_20_07_42_57</t>
+  </si>
+  <si>
+    <t>2022_04_20_07_43_30</t>
+  </si>
+  <si>
+    <t>2022_04_20_07_58_16</t>
+  </si>
+  <si>
+    <t>2022_04_20_08_09_38</t>
+  </si>
+  <si>
+    <t>2022_04_20_08_10_12</t>
   </si>
 </sst>
 </file>
@@ -3125,7 +3200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3314,20 +3389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3338,8 +3399,8 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3661,28 +3722,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P171"/>
+  <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="107" t="s">
@@ -3720,7 +3781,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3733,20 +3794,20 @@
         <v>40</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>882</v>
+        <v>265</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>919</v>
+        <v>742</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="114" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3754,7 +3815,7 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -3786,7 +3847,7 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -3815,7 +3876,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -3834,7 +3895,7 @@
         <v>742</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -3844,7 +3905,7 @@
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3871,7 +3932,7 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -3898,7 +3959,7 @@
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="12" t="s">
         <v>452</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3917,7 +3978,7 @@
         <v>742</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -3927,7 +3988,7 @@
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3954,7 +4015,7 @@
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="12" t="s">
         <v>451</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -3973,7 +4034,7 @@
         <v>742</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -3983,7 +4044,7 @@
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -4002,7 +4063,7 @@
         <v>742</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -4012,7 +4073,7 @@
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="12" t="s">
         <v>450</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -4031,7 +4092,7 @@
         <v>742</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -4042,7 +4103,7 @@
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -4069,7 +4130,7 @@
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="12" t="s">
         <v>252</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -4096,7 +4157,7 @@
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -4115,7 +4176,7 @@
         <v>742</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -4125,7 +4186,7 @@
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="12" t="s">
         <v>449</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -4144,7 +4205,7 @@
         <v>742</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -4154,7 +4215,7 @@
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="12" t="s">
         <v>448</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -4181,7 +4242,7 @@
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="12" t="s">
         <v>447</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -4208,7 +4269,7 @@
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -4235,7 +4296,7 @@
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="12" t="s">
         <v>446</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -4262,7 +4323,7 @@
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="12" t="s">
         <v>241</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4281,7 +4342,7 @@
         <v>742</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -4291,7 +4352,7 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="12" t="s">
         <v>491</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -4311,7 +4372,7 @@
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="25"/>
@@ -4320,7 +4381,7 @@
       <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="12" t="s">
         <v>178</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -4347,7 +4408,7 @@
       <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -4374,7 +4435,7 @@
       <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -4401,7 +4462,7 @@
       <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C26" s="17" t="s">
@@ -4428,7 +4489,7 @@
       <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="12" t="s">
         <v>180</v>
       </c>
       <c r="C27" s="17" t="s">
@@ -4455,7 +4516,7 @@
       <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="12" t="s">
         <v>181</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -4482,7 +4543,7 @@
       <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="17" t="s">
@@ -4509,7 +4570,7 @@
       <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -4536,7 +4597,7 @@
       <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="24" t="s">
         <v>347</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -4563,7 +4624,7 @@
       <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="24" t="s">
         <v>348</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -4590,7 +4651,7 @@
       <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="24" t="s">
         <v>359</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -4617,7 +4678,7 @@
       <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="24" t="s">
         <v>362</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -4644,7 +4705,7 @@
       <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="109" t="s">
+      <c r="B35" s="24" t="s">
         <v>364</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -4671,7 +4732,7 @@
       <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="24" t="s">
         <v>381</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -4698,7 +4759,7 @@
       <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="24" t="s">
         <v>445</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -4725,7 +4786,7 @@
       <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="24" t="s">
         <v>454</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -4752,7 +4813,7 @@
       <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="24" t="s">
         <v>444</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -4779,7 +4840,7 @@
       <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="24" t="s">
         <v>443</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -4806,7 +4867,7 @@
       <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="24" t="s">
         <v>442</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -4833,7 +4894,7 @@
       <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="24" t="s">
         <v>441</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -4860,7 +4921,7 @@
       <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="24" t="s">
         <v>440</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -4887,7 +4948,7 @@
       <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="24" t="s">
         <v>439</v>
       </c>
       <c r="C44" s="17" t="s">
@@ -4914,7 +4975,7 @@
       <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="24" t="s">
         <v>438</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -4941,7 +5002,7 @@
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="109" t="s">
+      <c r="B46" s="24" t="s">
         <v>437</v>
       </c>
       <c r="C46" s="17" t="s">
@@ -4968,7 +5029,7 @@
       <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="24" t="s">
         <v>436</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -4995,7 +5056,7 @@
       <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="24" t="s">
         <v>435</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -5022,7 +5083,7 @@
       <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="24" t="s">
         <v>434</v>
       </c>
       <c r="C49" s="17" t="s">
@@ -5049,7 +5110,7 @@
       <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="109" t="s">
+      <c r="B50" s="24" t="s">
         <v>433</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -5076,7 +5137,7 @@
       <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="24" t="s">
         <v>432</v>
       </c>
       <c r="C51" s="17" t="s">
@@ -5103,7 +5164,7 @@
       <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="109" t="s">
+      <c r="B52" s="24" t="s">
         <v>431</v>
       </c>
       <c r="C52" s="17" t="s">
@@ -5130,7 +5191,7 @@
       <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="109" t="s">
+      <c r="B53" s="24" t="s">
         <v>430</v>
       </c>
       <c r="C53" s="17" t="s">
@@ -5157,7 +5218,7 @@
       <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="109" t="s">
+      <c r="B54" s="24" t="s">
         <v>429</v>
       </c>
       <c r="C54" s="17" t="s">
@@ -5184,7 +5245,7 @@
       <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="109" t="s">
+      <c r="B55" s="24" t="s">
         <v>428</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -5211,7 +5272,7 @@
       <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="24" t="s">
         <v>427</v>
       </c>
       <c r="C56" s="17" t="s">
@@ -5238,7 +5299,7 @@
       <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="24" t="s">
         <v>563</v>
       </c>
       <c r="C57" s="17" t="s">
@@ -5265,7 +5326,7 @@
       <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="24" t="s">
         <v>564</v>
       </c>
       <c r="C58" s="17" t="s">
@@ -5292,7 +5353,7 @@
       <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="109" t="s">
+      <c r="B59" s="24" t="s">
         <v>565</v>
       </c>
       <c r="C59" s="17" t="s">
@@ -5319,7 +5380,7 @@
       <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="24" t="s">
         <v>567</v>
       </c>
       <c r="C60" s="17" t="s">
@@ -5346,7 +5407,7 @@
       <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="44" t="s">
         <v>569</v>
       </c>
       <c r="C61" s="17" t="s">
@@ -5373,7 +5434,7 @@
       <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="44" t="s">
         <v>573</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -5400,7 +5461,7 @@
       <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="44" t="s">
         <v>575</v>
       </c>
       <c r="C63" s="17" t="s">
@@ -5427,7 +5488,7 @@
       <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="44" t="s">
         <v>577</v>
       </c>
       <c r="C64" s="17" t="s">
@@ -5454,7 +5515,7 @@
       <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="44" t="s">
         <v>578</v>
       </c>
       <c r="C65" s="17" t="s">
@@ -5481,7 +5542,7 @@
       <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="44" t="s">
         <v>581</v>
       </c>
       <c r="C66" s="17" t="s">
@@ -5508,7 +5569,7 @@
       <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="44" t="s">
         <v>583</v>
       </c>
       <c r="C67" s="17" t="s">
@@ -5535,7 +5596,7 @@
       <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="44" t="s">
         <v>585</v>
       </c>
       <c r="C68" s="17" t="s">
@@ -5562,7 +5623,7 @@
       <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="109" t="s">
+      <c r="B69" s="24" t="s">
         <v>587</v>
       </c>
       <c r="C69" s="17" t="s">
@@ -5589,7 +5650,7 @@
       <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="109" t="s">
+      <c r="B70" s="24" t="s">
         <v>589</v>
       </c>
       <c r="C70" s="17" t="s">
@@ -5616,7 +5677,7 @@
       <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="109" t="s">
+      <c r="B71" s="24" t="s">
         <v>591</v>
       </c>
       <c r="C71" s="17" t="s">
@@ -5643,7 +5704,7 @@
       <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="44" t="s">
         <v>594</v>
       </c>
       <c r="C72" s="17" t="s">
@@ -5670,7 +5731,7 @@
       <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="44" t="s">
         <v>596</v>
       </c>
       <c r="C73" s="17" t="s">
@@ -5697,7 +5758,7 @@
       <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="110" t="s">
+      <c r="B74" s="15" t="s">
         <v>598</v>
       </c>
       <c r="C74" s="17" t="s">
@@ -5724,7 +5785,7 @@
       <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="109" t="s">
+      <c r="B75" s="24" t="s">
         <v>600</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -5751,7 +5812,7 @@
       <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="109" t="s">
+      <c r="B76" s="24" t="s">
         <v>602</v>
       </c>
       <c r="C76" s="17" t="s">
@@ -5778,7 +5839,7 @@
       <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="109" t="s">
+      <c r="B77" s="24" t="s">
         <v>605</v>
       </c>
       <c r="C77" s="17" t="s">
@@ -5805,7 +5866,7 @@
       <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="111" t="s">
+      <c r="B78" s="14" t="s">
         <v>606</v>
       </c>
       <c r="C78" s="17" t="s">
@@ -5832,7 +5893,7 @@
       <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="111" t="s">
+      <c r="B79" s="14" t="s">
         <v>607</v>
       </c>
       <c r="C79" s="17" t="s">
@@ -5859,7 +5920,7 @@
       <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="111" t="s">
+      <c r="B80" s="14" t="s">
         <v>608</v>
       </c>
       <c r="C80" s="17" t="s">
@@ -5886,7 +5947,7 @@
       <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="111" t="s">
+      <c r="B81" s="14" t="s">
         <v>686</v>
       </c>
       <c r="C81" s="17" t="s">
@@ -5913,7 +5974,7 @@
       <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="112" t="s">
+      <c r="B82" s="40" t="s">
         <v>609</v>
       </c>
       <c r="C82" s="17" t="s">
@@ -5940,7 +6001,7 @@
       <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="111" t="s">
+      <c r="B83" s="14" t="s">
         <v>729</v>
       </c>
       <c r="C83" s="17" t="s">
@@ -5967,7 +6028,7 @@
       <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="112" t="s">
+      <c r="B84" s="40" t="s">
         <v>731</v>
       </c>
       <c r="C84" s="17" t="s">
@@ -5995,7 +6056,7 @@
       <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="112" t="s">
+      <c r="B85" s="40" t="s">
         <v>732</v>
       </c>
       <c r="C85" s="17" t="s">
@@ -6023,7 +6084,7 @@
       <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="112" t="s">
+      <c r="B86" s="40" t="s">
         <v>735</v>
       </c>
       <c r="C86" s="17" t="s">
@@ -6303,7 +6364,7 @@
       <c r="A96" s="17">
         <v>95</v>
       </c>
-      <c r="B96" s="112" t="s">
+      <c r="B96" s="40" t="s">
         <v>782</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -7006,7 +7067,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>35</v>
@@ -7033,7 +7094,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>35</v>
@@ -7060,7 +7121,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>35</v>
@@ -7087,7 +7148,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>35</v>
@@ -7114,7 +7175,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>35</v>
@@ -7136,93 +7197,93 @@
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>126</v>
       </c>
-      <c r="B127" s="121" t="s">
-        <v>902</v>
+      <c r="B127" s="111" t="s">
+        <v>901</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="121" t="s">
+      <c r="D127" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E127" s="121" t="s">
+      <c r="E127" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="F127" s="122" t="s">
+      <c r="F127" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="G127" s="121" t="s">
+      <c r="G127" s="111" t="s">
         <v>742</v>
       </c>
-      <c r="H127" s="121"/>
-      <c r="I127" s="121"/>
-      <c r="J127" s="121"/>
-      <c r="K127" s="121"/>
+      <c r="H127" s="111"/>
+      <c r="I127" s="111"/>
+      <c r="J127" s="111"/>
+      <c r="K127" s="111"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>127</v>
       </c>
-      <c r="B128" s="113" t="s">
-        <v>29</v>
+      <c r="B128" s="40" t="s">
+        <v>918</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D128" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E128" s="21" t="s">
+      <c r="D128" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G128" s="21" t="s">
-        <v>742</v>
-      </c>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="22"/>
+        <v>921</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>128</v>
       </c>
-      <c r="B129" s="113" t="s">
-        <v>466</v>
+      <c r="B129" s="40" t="s">
+        <v>925</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G129" s="21" t="s">
-        <v>742</v>
-      </c>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="22"/>
+        <v>931</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>129</v>
       </c>
-      <c r="B130" s="113" t="s">
-        <v>470</v>
+      <c r="B130" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>35</v>
@@ -7248,8 +7309,8 @@
       <c r="A131" s="17">
         <v>130</v>
       </c>
-      <c r="B131" s="113" t="s">
-        <v>453</v>
+      <c r="B131" s="21" t="s">
+        <v>466</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>35</v>
@@ -7275,8 +7336,8 @@
       <c r="A132" s="17">
         <v>131</v>
       </c>
-      <c r="B132" s="113" t="s">
-        <v>92</v>
+      <c r="B132" s="21" t="s">
+        <v>470</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>35</v>
@@ -7302,8 +7363,8 @@
       <c r="A133" s="17">
         <v>132</v>
       </c>
-      <c r="B133" s="113" t="s">
-        <v>97</v>
+      <c r="B133" s="21" t="s">
+        <v>453</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>35</v>
@@ -7329,8 +7390,8 @@
       <c r="A134" s="17">
         <v>133</v>
       </c>
-      <c r="B134" s="113" t="s">
-        <v>101</v>
+      <c r="B134" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="C134" s="17" t="s">
         <v>35</v>
@@ -7356,8 +7417,8 @@
       <c r="A135" s="17">
         <v>134</v>
       </c>
-      <c r="B135" s="113" t="s">
-        <v>106</v>
+      <c r="B135" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C135" s="17" t="s">
         <v>35</v>
@@ -7383,8 +7444,8 @@
       <c r="A136" s="17">
         <v>135</v>
       </c>
-      <c r="B136" s="113" t="s">
-        <v>109</v>
+      <c r="B136" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C136" s="17" t="s">
         <v>35</v>
@@ -7410,8 +7471,8 @@
       <c r="A137" s="17">
         <v>136</v>
       </c>
-      <c r="B137" s="113" t="s">
-        <v>112</v>
+      <c r="B137" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>35</v>
@@ -7437,8 +7498,8 @@
       <c r="A138" s="17">
         <v>137</v>
       </c>
-      <c r="B138" s="113" t="s">
-        <v>115</v>
+      <c r="B138" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="C138" s="17" t="s">
         <v>35</v>
@@ -7464,8 +7525,8 @@
       <c r="A139" s="17">
         <v>138</v>
       </c>
-      <c r="B139" s="113" t="s">
-        <v>122</v>
+      <c r="B139" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="C139" s="17" t="s">
         <v>35</v>
@@ -7491,8 +7552,8 @@
       <c r="A140" s="17">
         <v>139</v>
       </c>
-      <c r="B140" s="113" t="s">
-        <v>129</v>
+      <c r="B140" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="C140" s="17" t="s">
         <v>35</v>
@@ -7518,8 +7579,8 @@
       <c r="A141" s="17">
         <v>140</v>
       </c>
-      <c r="B141" s="113" t="s">
-        <v>257</v>
+      <c r="B141" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C141" s="17" t="s">
         <v>35</v>
@@ -7541,12 +7602,12 @@
       <c r="J141" s="21"/>
       <c r="K141" s="22"/>
     </row>
-    <row r="142" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>141</v>
       </c>
-      <c r="B142" s="113" t="s">
-        <v>186</v>
+      <c r="B142" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="C142" s="17" t="s">
         <v>35</v>
@@ -7568,12 +7629,12 @@
       <c r="J142" s="21"/>
       <c r="K142" s="22"/>
     </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>142</v>
       </c>
-      <c r="B143" s="114" t="s">
-        <v>418</v>
+      <c r="B143" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>35</v>
@@ -7595,12 +7656,12 @@
       <c r="J143" s="21"/>
       <c r="K143" s="22"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>143</v>
       </c>
-      <c r="B144" s="113" t="s">
-        <v>455</v>
+      <c r="B144" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="C144" s="17" t="s">
         <v>35</v>
@@ -7614,20 +7675,20 @@
       <c r="F144" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G144" s="24" t="s">
+      <c r="G144" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="H144" s="24"/>
-      <c r="I144" s="24"/>
-      <c r="J144" s="24"/>
-      <c r="K144" s="24"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="21"/>
+      <c r="K144" s="22"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>144</v>
       </c>
-      <c r="B145" s="113" t="s">
-        <v>462</v>
+      <c r="B145" s="115" t="s">
+        <v>418</v>
       </c>
       <c r="C145" s="17" t="s">
         <v>35</v>
@@ -7641,20 +7702,20 @@
       <c r="F145" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G145" s="24" t="s">
+      <c r="G145" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="H145" s="24"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="24"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
+      <c r="K145" s="22"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>145</v>
       </c>
-      <c r="B146" s="113" t="s">
-        <v>467</v>
+      <c r="B146" s="21" t="s">
+        <v>455</v>
       </c>
       <c r="C146" s="17" t="s">
         <v>35</v>
@@ -7680,8 +7741,8 @@
       <c r="A147" s="17">
         <v>146</v>
       </c>
-      <c r="B147" s="113" t="s">
-        <v>472</v>
+      <c r="B147" s="21" t="s">
+        <v>462</v>
       </c>
       <c r="C147" s="17" t="s">
         <v>35</v>
@@ -7707,8 +7768,8 @@
       <c r="A148" s="17">
         <v>147</v>
       </c>
-      <c r="B148" s="113" t="s">
-        <v>475</v>
+      <c r="B148" s="21" t="s">
+        <v>467</v>
       </c>
       <c r="C148" s="17" t="s">
         <v>35</v>
@@ -7734,8 +7795,8 @@
       <c r="A149" s="17">
         <v>148</v>
       </c>
-      <c r="B149" s="113" t="s">
-        <v>478</v>
+      <c r="B149" s="21" t="s">
+        <v>472</v>
       </c>
       <c r="C149" s="17" t="s">
         <v>35</v>
@@ -7761,8 +7822,8 @@
       <c r="A150" s="17">
         <v>149</v>
       </c>
-      <c r="B150" s="113" t="s">
-        <v>473</v>
+      <c r="B150" s="21" t="s">
+        <v>475</v>
       </c>
       <c r="C150" s="17" t="s">
         <v>35</v>
@@ -7788,28 +7849,35 @@
       <c r="A151" s="17">
         <v>150</v>
       </c>
-      <c r="B151" s="113" t="s">
-        <v>605</v>
+      <c r="B151" s="21" t="s">
+        <v>478</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="17" t="s">
+      <c r="D151" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E151" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F151" s="24" t="s">
         <v>265</v>
       </c>
+      <c r="G151" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="H151" s="24"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="24"/>
+      <c r="K151" s="24"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>151</v>
       </c>
-      <c r="B152" s="113" t="s">
-        <v>610</v>
+      <c r="B152" s="21" t="s">
+        <v>473</v>
       </c>
       <c r="C152" s="17" t="s">
         <v>35</v>
@@ -7835,35 +7903,33 @@
       <c r="A153" s="17">
         <v>152</v>
       </c>
-      <c r="B153" s="113" t="s">
-        <v>611</v>
+      <c r="B153" s="21" t="s">
+        <v>605</v>
       </c>
       <c r="C153" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D153" s="21" t="s">
+      <c r="D153" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="E153" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F153" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G153" s="24" t="s">
-        <v>742</v>
-      </c>
-      <c r="H153" s="24"/>
-      <c r="I153" s="24"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="24"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>153</v>
       </c>
-      <c r="B154" s="113" t="s">
-        <v>612</v>
+      <c r="B154" s="21" t="s">
+        <v>610</v>
       </c>
       <c r="C154" s="17" t="s">
         <v>35</v>
@@ -7889,8 +7955,8 @@
       <c r="A155" s="17">
         <v>154</v>
       </c>
-      <c r="B155" s="113" t="s">
-        <v>613</v>
+      <c r="B155" s="21" t="s">
+        <v>611</v>
       </c>
       <c r="C155" s="17" t="s">
         <v>35</v>
@@ -7904,20 +7970,20 @@
       <c r="F155" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G155" s="21" t="s">
+      <c r="G155" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
-      <c r="J155" s="21"/>
-      <c r="K155" s="22"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>155</v>
       </c>
-      <c r="B156" s="113" t="s">
-        <v>614</v>
+      <c r="B156" s="21" t="s">
+        <v>612</v>
       </c>
       <c r="C156" s="17" t="s">
         <v>35</v>
@@ -7931,20 +7997,20 @@
       <c r="F156" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G156" s="21" t="s">
+      <c r="G156" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="22"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>156</v>
       </c>
-      <c r="B157" s="113" t="s">
-        <v>615</v>
+      <c r="B157" s="21" t="s">
+        <v>613</v>
       </c>
       <c r="C157" s="17" t="s">
         <v>35</v>
@@ -7970,8 +8036,8 @@
       <c r="A158" s="17">
         <v>157</v>
       </c>
-      <c r="B158" s="113" t="s">
-        <v>616</v>
+      <c r="B158" s="21" t="s">
+        <v>614</v>
       </c>
       <c r="C158" s="17" t="s">
         <v>35</v>
@@ -7997,8 +8063,8 @@
       <c r="A159" s="17">
         <v>158</v>
       </c>
-      <c r="B159" s="113" t="s">
-        <v>617</v>
+      <c r="B159" s="21" t="s">
+        <v>615</v>
       </c>
       <c r="C159" s="17" t="s">
         <v>35</v>
@@ -8024,8 +8090,8 @@
       <c r="A160" s="17">
         <v>159</v>
       </c>
-      <c r="B160" s="113" t="s">
-        <v>618</v>
+      <c r="B160" s="21" t="s">
+        <v>616</v>
       </c>
       <c r="C160" s="17" t="s">
         <v>35</v>
@@ -8051,8 +8117,8 @@
       <c r="A161" s="17">
         <v>160</v>
       </c>
-      <c r="B161" s="16" t="s">
-        <v>763</v>
+      <c r="B161" s="21" t="s">
+        <v>617</v>
       </c>
       <c r="C161" s="17" t="s">
         <v>35</v>
@@ -8078,94 +8144,94 @@
       <c r="A162" s="17">
         <v>161</v>
       </c>
-      <c r="B162" s="115" t="s">
-        <v>221</v>
+      <c r="B162" s="21" t="s">
+        <v>618</v>
       </c>
       <c r="C162" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D162" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E162" s="30" t="s">
+      <c r="D162" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F162" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G162" s="27" t="s">
+      <c r="G162" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="27"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="21"/>
+      <c r="K162" s="22"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>162</v>
       </c>
-      <c r="B163" s="115" t="s">
-        <v>420</v>
+      <c r="B163" s="21" t="s">
+        <v>763</v>
       </c>
       <c r="C163" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D163" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E163" s="30" t="s">
+      <c r="D163" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F163" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G163" s="27" t="s">
+      <c r="G163" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="21"/>
+      <c r="K163" s="22"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
         <v>163</v>
       </c>
-      <c r="B164" s="115" t="s">
-        <v>421</v>
+      <c r="B164" s="21" t="s">
+        <v>932</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D164" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E164" s="30" t="s">
+      <c r="D164" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F164" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G164" s="27" t="s">
+      <c r="G164" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="27"/>
-      <c r="K164" s="27"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="21"/>
+      <c r="K164" s="22"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>164</v>
       </c>
-      <c r="B165" s="115" t="s">
-        <v>422</v>
+      <c r="B165" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="C165" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D165" s="29" t="s">
+      <c r="D165" s="30" t="s">
         <v>220</v>
       </c>
       <c r="E165" s="30" t="s">
@@ -8174,25 +8240,25 @@
       <c r="F165" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G165" s="28" t="s">
+      <c r="G165" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
+      <c r="K165" s="27"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>165</v>
       </c>
-      <c r="B166" s="115" t="s">
-        <v>423</v>
+      <c r="B166" s="29" t="s">
+        <v>420</v>
       </c>
       <c r="C166" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D166" s="29" t="s">
+      <c r="D166" s="30" t="s">
         <v>220</v>
       </c>
       <c r="E166" s="30" t="s">
@@ -8201,25 +8267,25 @@
       <c r="F166" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G166" s="28" t="s">
+      <c r="G166" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="H166" s="28"/>
-      <c r="I166" s="28"/>
-      <c r="J166" s="28"/>
-      <c r="K166" s="28"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="27"/>
+      <c r="K166" s="27"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
         <v>166</v>
       </c>
-      <c r="B167" s="115" t="s">
-        <v>419</v>
+      <c r="B167" s="29" t="s">
+        <v>421</v>
       </c>
       <c r="C167" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="29" t="s">
+      <c r="D167" s="30" t="s">
         <v>220</v>
       </c>
       <c r="E167" s="30" t="s">
@@ -8228,20 +8294,20 @@
       <c r="F167" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G167" s="28" t="s">
+      <c r="G167" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="27"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>167</v>
       </c>
-      <c r="B168" s="115" t="s">
-        <v>424</v>
+      <c r="B168" s="29" t="s">
+        <v>422</v>
       </c>
       <c r="C168" s="17" t="s">
         <v>35</v>
@@ -8267,8 +8333,8 @@
       <c r="A169" s="17">
         <v>168</v>
       </c>
-      <c r="B169" s="115" t="s">
-        <v>425</v>
+      <c r="B169" s="29" t="s">
+        <v>423</v>
       </c>
       <c r="C169" s="17" t="s">
         <v>35</v>
@@ -8294,8 +8360,8 @@
       <c r="A170" s="17">
         <v>169</v>
       </c>
-      <c r="B170" s="116" t="s">
-        <v>426</v>
+      <c r="B170" s="29" t="s">
+        <v>419</v>
       </c>
       <c r="C170" s="17" t="s">
         <v>35</v>
@@ -8318,17 +8384,17 @@
       <c r="K170" s="28"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="124">
+      <c r="A171" s="17">
         <v>170</v>
       </c>
-      <c r="B171" s="78" t="s">
-        <v>920</v>
-      </c>
-      <c r="C171" s="124" t="s">
-        <v>34</v>
-      </c>
-      <c r="D171" s="125" t="s">
-        <v>2</v>
+      <c r="B171" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" s="29" t="s">
+        <v>220</v>
       </c>
       <c r="E171" s="30" t="s">
         <v>40</v>
@@ -8336,10 +8402,100 @@
       <c r="F171" s="24" t="s">
         <v>265</v>
       </c>
+      <c r="G171" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="28"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="17">
+        <v>171</v>
+      </c>
+      <c r="B172" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E172" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="17">
+        <v>172</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D173" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G173" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="H173" s="28"/>
+      <c r="I173" s="28"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="28"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="17">
+        <v>173</v>
+      </c>
+      <c r="B174" s="29" t="s">
+        <v>918</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>921</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C170" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C173" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8433,118 +8589,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EP128"/>
+  <dimension ref="A1:EQ129"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD128"/>
+    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
-    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
-    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="136" width="9.140625" style="2" collapsed="1"/>
-    <col min="137" max="137" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="138" max="139" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
+    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
+    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:141" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
@@ -8948,25 +9105,28 @@
         <v>139</v>
       </c>
       <c r="EE1" s="59" t="s">
+        <v>926</v>
+      </c>
+      <c r="EF1" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="EF1" s="59" t="s">
+      <c r="EG1" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="EG1" s="88" t="s">
+      <c r="EH1" s="88" t="s">
         <v>641</v>
       </c>
-      <c r="EH1" s="59" t="s">
+      <c r="EI1" s="59" t="s">
         <v>642</v>
       </c>
-      <c r="EI1" s="59" t="s">
+      <c r="EJ1" s="59" t="s">
         <v>643</v>
       </c>
-      <c r="EJ1" s="59" t="s">
+      <c r="EK1" s="59" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -9166,13 +9326,14 @@
       <c r="EC2" s="15"/>
       <c r="ED2" s="15"/>
       <c r="EE2" s="15"/>
-      <c r="EF2" s="92"/>
-      <c r="EG2" s="15"/>
+      <c r="EF2" s="15"/>
+      <c r="EG2" s="92"/>
       <c r="EH2" s="15"/>
       <c r="EI2" s="15"/>
       <c r="EJ2" s="15"/>
+      <c r="EK2" s="15"/>
     </row>
-    <row r="3" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -9376,13 +9537,14 @@
       <c r="EC3" s="15"/>
       <c r="ED3" s="15"/>
       <c r="EE3" s="15"/>
-      <c r="EF3" s="92"/>
-      <c r="EG3" s="15"/>
+      <c r="EF3" s="15"/>
+      <c r="EG3" s="92"/>
       <c r="EH3" s="15"/>
       <c r="EI3" s="15"/>
       <c r="EJ3" s="15"/>
+      <c r="EK3" s="15"/>
     </row>
-    <row r="4" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -9586,13 +9748,14 @@
       <c r="EC4" s="15"/>
       <c r="ED4" s="15"/>
       <c r="EE4" s="15"/>
-      <c r="EF4" s="92"/>
-      <c r="EG4" s="15"/>
+      <c r="EF4" s="15"/>
+      <c r="EG4" s="92"/>
       <c r="EH4" s="15"/>
       <c r="EI4" s="15"/>
       <c r="EJ4" s="15"/>
+      <c r="EK4" s="15"/>
     </row>
-    <row r="5" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -9788,13 +9951,14 @@
       <c r="EC5" s="15"/>
       <c r="ED5" s="15"/>
       <c r="EE5" s="15"/>
-      <c r="EF5" s="92"/>
-      <c r="EG5" s="35"/>
-      <c r="EH5" s="15"/>
+      <c r="EF5" s="15"/>
+      <c r="EG5" s="92"/>
+      <c r="EH5" s="35"/>
       <c r="EI5" s="15"/>
       <c r="EJ5" s="15"/>
+      <c r="EK5" s="15"/>
     </row>
-    <row r="6" spans="1:140" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:141" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -9992,13 +10156,14 @@
       <c r="EC6" s="14"/>
       <c r="ED6" s="14"/>
       <c r="EE6" s="14"/>
-      <c r="EF6" s="93"/>
-      <c r="EG6" s="14"/>
+      <c r="EF6" s="14"/>
+      <c r="EG6" s="93"/>
       <c r="EH6" s="14"/>
       <c r="EI6" s="14"/>
       <c r="EJ6" s="14"/>
+      <c r="EK6" s="14"/>
     </row>
-    <row r="7" spans="1:140" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:141" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -10194,13 +10359,14 @@
       <c r="EC7" s="14"/>
       <c r="ED7" s="14"/>
       <c r="EE7" s="14"/>
-      <c r="EF7" s="93"/>
-      <c r="EG7" s="14"/>
+      <c r="EF7" s="14"/>
+      <c r="EG7" s="93"/>
       <c r="EH7" s="14"/>
       <c r="EI7" s="14"/>
       <c r="EJ7" s="14"/>
+      <c r="EK7" s="14"/>
     </row>
-    <row r="8" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -10408,13 +10574,14 @@
       <c r="EC8" s="15"/>
       <c r="ED8" s="15"/>
       <c r="EE8" s="15"/>
-      <c r="EF8" s="92"/>
-      <c r="EG8" s="15"/>
+      <c r="EF8" s="15"/>
+      <c r="EG8" s="92"/>
       <c r="EH8" s="15"/>
       <c r="EI8" s="15"/>
       <c r="EJ8" s="15"/>
+      <c r="EK8" s="15"/>
     </row>
-    <row r="9" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -10626,13 +10793,14 @@
       <c r="EC9" s="15"/>
       <c r="ED9" s="15"/>
       <c r="EE9" s="15"/>
-      <c r="EF9" s="92"/>
-      <c r="EG9" s="15"/>
+      <c r="EF9" s="15"/>
+      <c r="EG9" s="92"/>
       <c r="EH9" s="15"/>
       <c r="EI9" s="15"/>
       <c r="EJ9" s="15"/>
+      <c r="EK9" s="15"/>
     </row>
-    <row r="10" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -10836,13 +11004,14 @@
       <c r="EC10" s="15"/>
       <c r="ED10" s="15"/>
       <c r="EE10" s="15"/>
-      <c r="EF10" s="92"/>
-      <c r="EG10" s="15"/>
+      <c r="EF10" s="15"/>
+      <c r="EG10" s="92"/>
       <c r="EH10" s="15"/>
       <c r="EI10" s="15"/>
       <c r="EJ10" s="15"/>
+      <c r="EK10" s="15"/>
     </row>
-    <row r="11" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -11050,13 +11219,14 @@
       <c r="EC11" s="15"/>
       <c r="ED11" s="15"/>
       <c r="EE11" s="15"/>
-      <c r="EF11" s="92"/>
-      <c r="EG11" s="15"/>
+      <c r="EF11" s="15"/>
+      <c r="EG11" s="92"/>
       <c r="EH11" s="15"/>
       <c r="EI11" s="15"/>
       <c r="EJ11" s="15"/>
+      <c r="EK11" s="15"/>
     </row>
-    <row r="12" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -11258,13 +11428,14 @@
       <c r="EC12" s="15"/>
       <c r="ED12" s="15"/>
       <c r="EE12" s="15"/>
-      <c r="EF12" s="92"/>
-      <c r="EG12" s="15"/>
+      <c r="EF12" s="15"/>
+      <c r="EG12" s="92"/>
       <c r="EH12" s="15"/>
       <c r="EI12" s="15"/>
       <c r="EJ12" s="15"/>
+      <c r="EK12" s="15"/>
     </row>
-    <row r="13" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -11466,13 +11637,14 @@
       <c r="EC13" s="15"/>
       <c r="ED13" s="15"/>
       <c r="EE13" s="15"/>
-      <c r="EF13" s="92"/>
-      <c r="EG13" s="15"/>
+      <c r="EF13" s="15"/>
+      <c r="EG13" s="92"/>
       <c r="EH13" s="15"/>
       <c r="EI13" s="15"/>
       <c r="EJ13" s="15"/>
+      <c r="EK13" s="15"/>
     </row>
-    <row r="14" spans="1:140" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:141" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -11674,13 +11846,14 @@
       <c r="EC14" s="15"/>
       <c r="ED14" s="15"/>
       <c r="EE14" s="15"/>
-      <c r="EF14" s="92"/>
-      <c r="EG14" s="15"/>
+      <c r="EF14" s="15"/>
+      <c r="EG14" s="92"/>
       <c r="EH14" s="15"/>
       <c r="EI14" s="15"/>
       <c r="EJ14" s="15"/>
+      <c r="EK14" s="15"/>
     </row>
-    <row r="15" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -11884,13 +12057,14 @@
       <c r="EC15" s="15"/>
       <c r="ED15" s="15"/>
       <c r="EE15" s="15"/>
-      <c r="EF15" s="92"/>
-      <c r="EG15" s="15"/>
+      <c r="EF15" s="15"/>
+      <c r="EG15" s="92"/>
       <c r="EH15" s="15"/>
       <c r="EI15" s="15"/>
       <c r="EJ15" s="15"/>
+      <c r="EK15" s="15"/>
     </row>
-    <row r="16" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -12094,13 +12268,14 @@
       <c r="EC16" s="15"/>
       <c r="ED16" s="15"/>
       <c r="EE16" s="15"/>
-      <c r="EF16" s="92"/>
-      <c r="EG16" s="15"/>
+      <c r="EF16" s="15"/>
+      <c r="EG16" s="92"/>
       <c r="EH16" s="15"/>
       <c r="EI16" s="15"/>
       <c r="EJ16" s="15"/>
+      <c r="EK16" s="15"/>
     </row>
-    <row r="17" spans="1:140" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:141" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -12270,13 +12445,14 @@
       <c r="EC17" s="43"/>
       <c r="ED17" s="43"/>
       <c r="EE17" s="43"/>
-      <c r="EF17" s="94"/>
-      <c r="EG17" s="43"/>
+      <c r="EF17" s="43"/>
+      <c r="EG17" s="94"/>
       <c r="EH17" s="43"/>
       <c r="EI17" s="43"/>
       <c r="EJ17" s="43"/>
+      <c r="EK17" s="43"/>
     </row>
-    <row r="18" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -12478,13 +12654,14 @@
       <c r="EC18" s="44"/>
       <c r="ED18" s="44"/>
       <c r="EE18" s="44"/>
-      <c r="EF18" s="95"/>
-      <c r="EG18" s="15"/>
-      <c r="EH18" s="44"/>
+      <c r="EF18" s="44"/>
+      <c r="EG18" s="95"/>
+      <c r="EH18" s="15"/>
       <c r="EI18" s="44"/>
       <c r="EJ18" s="44"/>
+      <c r="EK18" s="44"/>
     </row>
-    <row r="19" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -12640,13 +12817,14 @@
       <c r="EC19" s="44"/>
       <c r="ED19" s="44"/>
       <c r="EE19" s="44"/>
-      <c r="EF19" s="95"/>
-      <c r="EG19" s="44"/>
+      <c r="EF19" s="44"/>
+      <c r="EG19" s="95"/>
       <c r="EH19" s="44"/>
       <c r="EI19" s="44"/>
       <c r="EJ19" s="44"/>
+      <c r="EK19" s="44"/>
     </row>
-    <row r="20" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -12860,13 +13038,14 @@
       <c r="EC20" s="44"/>
       <c r="ED20" s="44"/>
       <c r="EE20" s="44"/>
-      <c r="EF20" s="95"/>
-      <c r="EG20" s="44"/>
+      <c r="EF20" s="44"/>
+      <c r="EG20" s="95"/>
       <c r="EH20" s="44"/>
       <c r="EI20" s="44"/>
       <c r="EJ20" s="44"/>
+      <c r="EK20" s="44"/>
     </row>
-    <row r="21" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -13152,25 +13331,26 @@
         <v>35</v>
       </c>
       <c r="EA21" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
       <c r="ED21" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="EE21" s="44" t="s">
+        <v>914</v>
+      </c>
+      <c r="EE21" s="13"/>
+      <c r="EF21" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="EF21" s="95" t="s">
+      <c r="EG21" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="EG21" s="15"/>
-      <c r="EH21" s="44"/>
+      <c r="EH21" s="15"/>
       <c r="EI21" s="44"/>
       <c r="EJ21" s="44"/>
+      <c r="EK21" s="44"/>
     </row>
-    <row r="22" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -13374,13 +13554,14 @@
       <c r="EC22" s="15"/>
       <c r="ED22" s="15"/>
       <c r="EE22" s="15"/>
-      <c r="EF22" s="92"/>
-      <c r="EG22" s="15"/>
+      <c r="EF22" s="15"/>
+      <c r="EG22" s="92"/>
       <c r="EH22" s="15"/>
       <c r="EI22" s="15"/>
       <c r="EJ22" s="15"/>
+      <c r="EK22" s="15"/>
     </row>
-    <row r="23" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -13536,13 +13717,14 @@
       <c r="EC23" s="44"/>
       <c r="ED23" s="44"/>
       <c r="EE23" s="44"/>
-      <c r="EF23" s="95"/>
-      <c r="EG23" s="44"/>
+      <c r="EF23" s="44"/>
+      <c r="EG23" s="95"/>
       <c r="EH23" s="44"/>
       <c r="EI23" s="44"/>
       <c r="EJ23" s="44"/>
+      <c r="EK23" s="44"/>
     </row>
-    <row r="24" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -13698,13 +13880,14 @@
       <c r="EC24" s="44"/>
       <c r="ED24" s="44"/>
       <c r="EE24" s="44"/>
-      <c r="EF24" s="95"/>
-      <c r="EG24" s="44"/>
+      <c r="EF24" s="44"/>
+      <c r="EG24" s="95"/>
       <c r="EH24" s="44"/>
       <c r="EI24" s="44"/>
       <c r="EJ24" s="44"/>
+      <c r="EK24" s="44"/>
     </row>
-    <row r="25" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -13860,13 +14043,14 @@
       <c r="EC25" s="44"/>
       <c r="ED25" s="44"/>
       <c r="EE25" s="44"/>
-      <c r="EF25" s="95"/>
-      <c r="EG25" s="44"/>
+      <c r="EF25" s="44"/>
+      <c r="EG25" s="95"/>
       <c r="EH25" s="44"/>
       <c r="EI25" s="44"/>
       <c r="EJ25" s="44"/>
+      <c r="EK25" s="44"/>
     </row>
-    <row r="26" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -14022,13 +14206,14 @@
       <c r="EC26" s="44"/>
       <c r="ED26" s="44"/>
       <c r="EE26" s="44"/>
-      <c r="EF26" s="95"/>
-      <c r="EG26" s="44"/>
+      <c r="EF26" s="44"/>
+      <c r="EG26" s="95"/>
       <c r="EH26" s="44"/>
       <c r="EI26" s="44"/>
       <c r="EJ26" s="44"/>
+      <c r="EK26" s="44"/>
     </row>
-    <row r="27" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -14186,13 +14371,14 @@
       <c r="EC27" s="44"/>
       <c r="ED27" s="44"/>
       <c r="EE27" s="44"/>
-      <c r="EF27" s="95"/>
-      <c r="EG27" s="44"/>
+      <c r="EF27" s="44"/>
+      <c r="EG27" s="95"/>
       <c r="EH27" s="44"/>
       <c r="EI27" s="44"/>
       <c r="EJ27" s="44"/>
+      <c r="EK27" s="44"/>
     </row>
-    <row r="28" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -14350,13 +14536,14 @@
       <c r="EC28" s="44"/>
       <c r="ED28" s="44"/>
       <c r="EE28" s="44"/>
-      <c r="EF28" s="95"/>
-      <c r="EG28" s="44"/>
+      <c r="EF28" s="44"/>
+      <c r="EG28" s="95"/>
       <c r="EH28" s="44"/>
       <c r="EI28" s="44"/>
       <c r="EJ28" s="44"/>
+      <c r="EK28" s="44"/>
     </row>
-    <row r="29" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -14526,13 +14713,14 @@
       <c r="EC29" s="44"/>
       <c r="ED29" s="44"/>
       <c r="EE29" s="44"/>
-      <c r="EF29" s="95"/>
-      <c r="EG29" s="44"/>
+      <c r="EF29" s="44"/>
+      <c r="EG29" s="95"/>
       <c r="EH29" s="44"/>
       <c r="EI29" s="44"/>
       <c r="EJ29" s="44"/>
+      <c r="EK29" s="44"/>
     </row>
-    <row r="30" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -14714,13 +14902,14 @@
       <c r="EC30" s="44"/>
       <c r="ED30" s="44"/>
       <c r="EE30" s="44"/>
-      <c r="EF30" s="95"/>
-      <c r="EG30" s="44"/>
+      <c r="EF30" s="44"/>
+      <c r="EG30" s="95"/>
       <c r="EH30" s="44"/>
       <c r="EI30" s="44"/>
       <c r="EJ30" s="44"/>
+      <c r="EK30" s="44"/>
     </row>
-    <row r="31" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -14912,13 +15101,14 @@
       <c r="EC31" s="44"/>
       <c r="ED31" s="44"/>
       <c r="EE31" s="44"/>
-      <c r="EF31" s="95"/>
-      <c r="EG31" s="15"/>
-      <c r="EH31" s="44"/>
+      <c r="EF31" s="44"/>
+      <c r="EG31" s="95"/>
+      <c r="EH31" s="15"/>
       <c r="EI31" s="44"/>
       <c r="EJ31" s="44"/>
+      <c r="EK31" s="44"/>
     </row>
-    <row r="32" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -15110,13 +15300,14 @@
       <c r="EC32" s="44"/>
       <c r="ED32" s="44"/>
       <c r="EE32" s="44"/>
-      <c r="EF32" s="95"/>
-      <c r="EG32" s="15"/>
-      <c r="EH32" s="44"/>
+      <c r="EF32" s="44"/>
+      <c r="EG32" s="95"/>
+      <c r="EH32" s="15"/>
       <c r="EI32" s="44"/>
       <c r="EJ32" s="44"/>
+      <c r="EK32" s="44"/>
     </row>
-    <row r="33" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -15310,19 +15501,20 @@
       <c r="EC33" s="15"/>
       <c r="ED33" s="15"/>
       <c r="EE33" s="15"/>
-      <c r="EF33" s="92"/>
-      <c r="EG33" s="15"/>
+      <c r="EF33" s="15"/>
+      <c r="EG33" s="92"/>
       <c r="EH33" s="15"/>
       <c r="EI33" s="15"/>
       <c r="EJ33" s="15"/>
-      <c r="EK33" s="4"/>
+      <c r="EK33" s="15"/>
       <c r="EL33" s="4"/>
       <c r="EM33" s="4"/>
       <c r="EN33" s="4"/>
       <c r="EO33" s="4"/>
       <c r="EP33" s="4"/>
+      <c r="EQ33" s="4"/>
     </row>
-    <row r="34" spans="1:146" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:147" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -15476,13 +15668,14 @@
       <c r="EC34" s="44"/>
       <c r="ED34" s="44"/>
       <c r="EE34" s="44"/>
-      <c r="EF34" s="95"/>
-      <c r="EG34" s="44"/>
+      <c r="EF34" s="44"/>
+      <c r="EG34" s="95"/>
       <c r="EH34" s="44"/>
       <c r="EI34" s="44"/>
       <c r="EJ34" s="44"/>
+      <c r="EK34" s="44"/>
     </row>
-    <row r="35" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -15707,20 +15900,21 @@
       <c r="EB35" s="15"/>
       <c r="EC35" s="15"/>
       <c r="ED35" s="15"/>
-      <c r="EE35" s="44"/>
-      <c r="EF35" s="95"/>
-      <c r="EG35" s="15"/>
-      <c r="EH35" s="44"/>
+      <c r="EE35" s="15"/>
+      <c r="EF35" s="44"/>
+      <c r="EG35" s="95"/>
+      <c r="EH35" s="15"/>
       <c r="EI35" s="44"/>
       <c r="EJ35" s="44"/>
-      <c r="EK35" s="4"/>
+      <c r="EK35" s="44"/>
       <c r="EL35" s="4"/>
       <c r="EM35" s="4"/>
       <c r="EN35" s="4"/>
       <c r="EO35" s="4"/>
       <c r="EP35" s="4"/>
+      <c r="EQ35" s="4"/>
     </row>
-    <row r="36" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -15882,13 +16076,14 @@
       <c r="EC36" s="44"/>
       <c r="ED36" s="44"/>
       <c r="EE36" s="44"/>
-      <c r="EF36" s="95"/>
-      <c r="EG36" s="44"/>
+      <c r="EF36" s="44"/>
+      <c r="EG36" s="95"/>
       <c r="EH36" s="44"/>
       <c r="EI36" s="44"/>
       <c r="EJ36" s="44"/>
+      <c r="EK36" s="44"/>
     </row>
-    <row r="37" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -16078,13 +16273,14 @@
       <c r="EC37" s="44"/>
       <c r="ED37" s="44"/>
       <c r="EE37" s="44"/>
-      <c r="EF37" s="95"/>
-      <c r="EG37" s="14"/>
-      <c r="EH37" s="44"/>
+      <c r="EF37" s="44"/>
+      <c r="EG37" s="95"/>
+      <c r="EH37" s="14"/>
       <c r="EI37" s="44"/>
       <c r="EJ37" s="44"/>
+      <c r="EK37" s="44"/>
     </row>
-    <row r="38" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -16274,13 +16470,14 @@
       <c r="EC38" s="44"/>
       <c r="ED38" s="44"/>
       <c r="EE38" s="44"/>
-      <c r="EF38" s="95"/>
-      <c r="EG38" s="14"/>
-      <c r="EH38" s="44"/>
+      <c r="EF38" s="44"/>
+      <c r="EG38" s="95"/>
+      <c r="EH38" s="14"/>
       <c r="EI38" s="44"/>
       <c r="EJ38" s="44"/>
+      <c r="EK38" s="44"/>
     </row>
-    <row r="39" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -16470,13 +16667,14 @@
       <c r="EC39" s="44"/>
       <c r="ED39" s="44"/>
       <c r="EE39" s="44"/>
-      <c r="EF39" s="95"/>
-      <c r="EG39" s="14"/>
-      <c r="EH39" s="44"/>
+      <c r="EF39" s="44"/>
+      <c r="EG39" s="95"/>
+      <c r="EH39" s="14"/>
       <c r="EI39" s="44"/>
       <c r="EJ39" s="44"/>
+      <c r="EK39" s="44"/>
     </row>
-    <row r="40" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -16666,13 +16864,14 @@
       <c r="EC40" s="44"/>
       <c r="ED40" s="44"/>
       <c r="EE40" s="44"/>
-      <c r="EF40" s="95"/>
-      <c r="EG40" s="14"/>
-      <c r="EH40" s="44"/>
+      <c r="EF40" s="44"/>
+      <c r="EG40" s="95"/>
+      <c r="EH40" s="14"/>
       <c r="EI40" s="44"/>
       <c r="EJ40" s="44"/>
+      <c r="EK40" s="44"/>
     </row>
-    <row r="41" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -16862,13 +17061,14 @@
       <c r="EC41" s="44"/>
       <c r="ED41" s="44"/>
       <c r="EE41" s="44"/>
-      <c r="EF41" s="95"/>
-      <c r="EG41" s="14"/>
-      <c r="EH41" s="44"/>
+      <c r="EF41" s="44"/>
+      <c r="EG41" s="95"/>
+      <c r="EH41" s="14"/>
       <c r="EI41" s="44"/>
       <c r="EJ41" s="44"/>
+      <c r="EK41" s="44"/>
     </row>
-    <row r="42" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -17058,13 +17258,14 @@
       <c r="EC42" s="44"/>
       <c r="ED42" s="44"/>
       <c r="EE42" s="44"/>
-      <c r="EF42" s="95"/>
-      <c r="EG42" s="14"/>
-      <c r="EH42" s="44"/>
+      <c r="EF42" s="44"/>
+      <c r="EG42" s="95"/>
+      <c r="EH42" s="14"/>
       <c r="EI42" s="44"/>
       <c r="EJ42" s="44"/>
+      <c r="EK42" s="44"/>
     </row>
-    <row r="43" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -17256,13 +17457,14 @@
       <c r="EC43" s="44"/>
       <c r="ED43" s="44"/>
       <c r="EE43" s="44"/>
-      <c r="EF43" s="95"/>
-      <c r="EG43" s="14"/>
-      <c r="EH43" s="44"/>
+      <c r="EF43" s="44"/>
+      <c r="EG43" s="95"/>
+      <c r="EH43" s="14"/>
       <c r="EI43" s="44"/>
       <c r="EJ43" s="44"/>
+      <c r="EK43" s="44"/>
     </row>
-    <row r="44" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -17454,13 +17656,14 @@
       <c r="EC44" s="44"/>
       <c r="ED44" s="44"/>
       <c r="EE44" s="44"/>
-      <c r="EF44" s="95"/>
-      <c r="EG44" s="14"/>
-      <c r="EH44" s="44"/>
+      <c r="EF44" s="44"/>
+      <c r="EG44" s="95"/>
+      <c r="EH44" s="14"/>
       <c r="EI44" s="44"/>
       <c r="EJ44" s="44"/>
+      <c r="EK44" s="44"/>
     </row>
-    <row r="45" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -17652,13 +17855,14 @@
       <c r="EC45" s="44"/>
       <c r="ED45" s="44"/>
       <c r="EE45" s="44"/>
-      <c r="EF45" s="95"/>
-      <c r="EG45" s="14"/>
-      <c r="EH45" s="44"/>
+      <c r="EF45" s="44"/>
+      <c r="EG45" s="95"/>
+      <c r="EH45" s="14"/>
       <c r="EI45" s="44"/>
       <c r="EJ45" s="44"/>
+      <c r="EK45" s="44"/>
     </row>
-    <row r="46" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -17854,13 +18058,14 @@
       <c r="EC46" s="44"/>
       <c r="ED46" s="44"/>
       <c r="EE46" s="44"/>
-      <c r="EF46" s="95"/>
-      <c r="EG46" s="14"/>
-      <c r="EH46" s="44"/>
+      <c r="EF46" s="44"/>
+      <c r="EG46" s="95"/>
+      <c r="EH46" s="14"/>
       <c r="EI46" s="44"/>
       <c r="EJ46" s="44"/>
+      <c r="EK46" s="44"/>
     </row>
-    <row r="47" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -18056,13 +18261,14 @@
       <c r="EC47" s="44"/>
       <c r="ED47" s="44"/>
       <c r="EE47" s="44"/>
-      <c r="EF47" s="95"/>
-      <c r="EG47" s="14"/>
-      <c r="EH47" s="44"/>
+      <c r="EF47" s="44"/>
+      <c r="EG47" s="95"/>
+      <c r="EH47" s="14"/>
       <c r="EI47" s="44"/>
       <c r="EJ47" s="44"/>
+      <c r="EK47" s="44"/>
     </row>
-    <row r="48" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -18258,13 +18464,14 @@
       <c r="EC48" s="44"/>
       <c r="ED48" s="44"/>
       <c r="EE48" s="44"/>
-      <c r="EF48" s="95"/>
-      <c r="EG48" s="14"/>
-      <c r="EH48" s="44"/>
+      <c r="EF48" s="44"/>
+      <c r="EG48" s="95"/>
+      <c r="EH48" s="14"/>
       <c r="EI48" s="44"/>
       <c r="EJ48" s="44"/>
+      <c r="EK48" s="44"/>
     </row>
-    <row r="49" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -18460,13 +18667,14 @@
       <c r="EC49" s="44"/>
       <c r="ED49" s="44"/>
       <c r="EE49" s="44"/>
-      <c r="EF49" s="95"/>
-      <c r="EG49" s="14"/>
-      <c r="EH49" s="44"/>
+      <c r="EF49" s="44"/>
+      <c r="EG49" s="95"/>
+      <c r="EH49" s="14"/>
       <c r="EI49" s="44"/>
       <c r="EJ49" s="44"/>
+      <c r="EK49" s="44"/>
     </row>
-    <row r="50" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -18662,13 +18870,14 @@
       <c r="EC50" s="44"/>
       <c r="ED50" s="44"/>
       <c r="EE50" s="44"/>
-      <c r="EF50" s="95"/>
-      <c r="EG50" s="14"/>
-      <c r="EH50" s="44"/>
+      <c r="EF50" s="44"/>
+      <c r="EG50" s="95"/>
+      <c r="EH50" s="14"/>
       <c r="EI50" s="44"/>
       <c r="EJ50" s="44"/>
+      <c r="EK50" s="44"/>
     </row>
-    <row r="51" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -18864,13 +19073,14 @@
       <c r="EC51" s="44"/>
       <c r="ED51" s="44"/>
       <c r="EE51" s="44"/>
-      <c r="EF51" s="95"/>
-      <c r="EG51" s="14"/>
-      <c r="EH51" s="44"/>
+      <c r="EF51" s="44"/>
+      <c r="EG51" s="95"/>
+      <c r="EH51" s="14"/>
       <c r="EI51" s="44"/>
       <c r="EJ51" s="44"/>
+      <c r="EK51" s="44"/>
     </row>
-    <row r="52" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -19068,13 +19278,14 @@
       <c r="EC52" s="44"/>
       <c r="ED52" s="44"/>
       <c r="EE52" s="44"/>
-      <c r="EF52" s="95"/>
-      <c r="EG52" s="14"/>
-      <c r="EH52" s="44"/>
+      <c r="EF52" s="44"/>
+      <c r="EG52" s="95"/>
+      <c r="EH52" s="14"/>
       <c r="EI52" s="44"/>
       <c r="EJ52" s="44"/>
+      <c r="EK52" s="44"/>
     </row>
-    <row r="53" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -19272,13 +19483,14 @@
       <c r="EC53" s="44"/>
       <c r="ED53" s="44"/>
       <c r="EE53" s="44"/>
-      <c r="EF53" s="95"/>
-      <c r="EG53" s="14"/>
-      <c r="EH53" s="44"/>
+      <c r="EF53" s="44"/>
+      <c r="EG53" s="95"/>
+      <c r="EH53" s="14"/>
       <c r="EI53" s="44"/>
       <c r="EJ53" s="44"/>
+      <c r="EK53" s="44"/>
     </row>
-    <row r="54" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -19476,13 +19688,14 @@
       <c r="EC54" s="44"/>
       <c r="ED54" s="44"/>
       <c r="EE54" s="44"/>
-      <c r="EF54" s="95"/>
-      <c r="EG54" s="14"/>
-      <c r="EH54" s="44"/>
+      <c r="EF54" s="44"/>
+      <c r="EG54" s="95"/>
+      <c r="EH54" s="14"/>
       <c r="EI54" s="44"/>
       <c r="EJ54" s="44"/>
+      <c r="EK54" s="44"/>
     </row>
-    <row r="55" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -19672,13 +19885,14 @@
       <c r="EC55" s="44"/>
       <c r="ED55" s="44"/>
       <c r="EE55" s="44"/>
-      <c r="EF55" s="95"/>
-      <c r="EG55" s="14"/>
-      <c r="EH55" s="44"/>
+      <c r="EF55" s="44"/>
+      <c r="EG55" s="95"/>
+      <c r="EH55" s="14"/>
       <c r="EI55" s="44"/>
       <c r="EJ55" s="44"/>
+      <c r="EK55" s="44"/>
     </row>
-    <row r="56" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -19874,13 +20088,14 @@
       <c r="EC56" s="44"/>
       <c r="ED56" s="44"/>
       <c r="EE56" s="44"/>
-      <c r="EF56" s="95"/>
-      <c r="EG56" s="14"/>
-      <c r="EH56" s="44"/>
+      <c r="EF56" s="44"/>
+      <c r="EG56" s="95"/>
+      <c r="EH56" s="14"/>
       <c r="EI56" s="44"/>
       <c r="EJ56" s="44"/>
+      <c r="EK56" s="44"/>
     </row>
-    <row r="57" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -19899,10 +20114,10 @@
       </c>
       <c r="M57" s="44"/>
       <c r="T57" s="44"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="118"/>
+      <c r="U57" s="108"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
+      <c r="X57" s="108"/>
       <c r="AI57" s="36" t="s">
         <v>559</v>
       </c>
@@ -19924,20 +20139,20 @@
       <c r="BI57" s="44"/>
       <c r="CY57" s="15"/>
       <c r="DB57" s="15"/>
-      <c r="EG57" s="89" t="s">
+      <c r="EH57" s="89" t="s">
         <v>645</v>
       </c>
-      <c r="EH57" s="89" t="s">
+      <c r="EI57" s="89" t="s">
         <v>646</v>
       </c>
-      <c r="EI57" s="42" t="s">
+      <c r="EJ57" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="EJ57" s="90" t="s">
+      <c r="EK57" s="90" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="58" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -20069,12 +20284,12 @@
       <c r="DB58" s="36" t="s">
         <v>640</v>
       </c>
-      <c r="EG58" s="89"/>
       <c r="EH58" s="89"/>
-      <c r="EI58" s="42"/>
-      <c r="EJ58" s="90"/>
+      <c r="EI58" s="89"/>
+      <c r="EJ58" s="42"/>
+      <c r="EK58" s="90"/>
     </row>
-    <row r="59" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -20108,10 +20323,10 @@
         <v>205</v>
       </c>
       <c r="T59" s="44"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="118"/>
-      <c r="W59" s="118"/>
-      <c r="X59" s="118"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="108"/>
       <c r="AC59" s="14" t="s">
         <v>2</v>
       </c>
@@ -20191,18 +20406,18 @@
       </c>
       <c r="CY59" s="15"/>
       <c r="DB59" s="15"/>
-      <c r="EG59" s="89" t="s">
+      <c r="EH59" s="89" t="s">
         <v>649</v>
       </c>
-      <c r="EH59" s="89" t="s">
+      <c r="EI59" s="89" t="s">
         <v>650</v>
       </c>
-      <c r="EI59" s="42" t="s">
+      <c r="EJ59" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="EJ59" s="90"/>
+      <c r="EK59" s="90"/>
     </row>
-    <row r="60" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -20239,10 +20454,10 @@
         <v>205</v>
       </c>
       <c r="T60" s="44"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="118"/>
-      <c r="X60" s="118"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="108"/>
       <c r="AC60" s="14" t="s">
         <v>2</v>
       </c>
@@ -20306,14 +20521,14 @@
       </c>
       <c r="CY60" s="15"/>
       <c r="DB60" s="15"/>
-      <c r="EG60" s="89" t="s">
+      <c r="EH60" s="89" t="s">
         <v>652</v>
       </c>
-      <c r="EH60" s="89"/>
-      <c r="EI60" s="42"/>
-      <c r="EJ60" s="90"/>
+      <c r="EI60" s="89"/>
+      <c r="EJ60" s="42"/>
+      <c r="EK60" s="90"/>
     </row>
-    <row r="61" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -20337,10 +20552,10 @@
         <v>620</v>
       </c>
       <c r="T61" s="44"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
       <c r="AM61" s="34"/>
       <c r="AX61" s="15"/>
       <c r="BB61" s="44"/>
@@ -20350,12 +20565,12 @@
       <c r="BI61" s="44"/>
       <c r="CY61" s="15"/>
       <c r="DB61" s="15"/>
-      <c r="EG61" s="44"/>
       <c r="EH61" s="44"/>
       <c r="EI61" s="44"/>
       <c r="EJ61" s="44"/>
+      <c r="EK61" s="44"/>
     </row>
-    <row r="62" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -20530,13 +20745,14 @@
       <c r="EC62" s="44"/>
       <c r="ED62" s="44"/>
       <c r="EE62" s="44"/>
-      <c r="EF62" s="95"/>
-      <c r="EG62" s="44"/>
+      <c r="EF62" s="44"/>
+      <c r="EG62" s="95"/>
       <c r="EH62" s="44"/>
       <c r="EI62" s="44"/>
       <c r="EJ62" s="44"/>
+      <c r="EK62" s="44"/>
     </row>
-    <row r="63" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -20714,12 +20930,13 @@
       <c r="EB63" s="15"/>
       <c r="EC63" s="15"/>
       <c r="ED63" s="15"/>
-      <c r="EG63" s="44"/>
+      <c r="EE63" s="85"/>
       <c r="EH63" s="44"/>
       <c r="EI63" s="44"/>
       <c r="EJ63" s="44"/>
+      <c r="EK63" s="44"/>
     </row>
-    <row r="64" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -20912,14 +21129,15 @@
       <c r="EC64" s="15"/>
       <c r="ED64" s="15"/>
       <c r="EE64" s="15"/>
-      <c r="EF64" s="92"/>
-      <c r="EG64" s="44"/>
+      <c r="EF64" s="15"/>
+      <c r="EG64" s="92"/>
       <c r="EH64" s="44"/>
       <c r="EI64" s="44"/>
       <c r="EJ64" s="44"/>
-      <c r="EK64" s="4"/>
+      <c r="EK64" s="44"/>
+      <c r="EL64" s="4"/>
     </row>
-    <row r="65" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -21114,13 +21332,14 @@
       <c r="EC65" s="44"/>
       <c r="ED65" s="44"/>
       <c r="EE65" s="44"/>
-      <c r="EF65" s="95"/>
-      <c r="EG65" s="44"/>
+      <c r="EF65" s="44"/>
+      <c r="EG65" s="95"/>
       <c r="EH65" s="44"/>
       <c r="EI65" s="44"/>
       <c r="EJ65" s="44"/>
+      <c r="EK65" s="44"/>
     </row>
-    <row r="66" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -21285,12 +21504,12 @@
       <c r="DM66" s="15"/>
       <c r="DN66" s="15"/>
       <c r="DO66" s="15"/>
-      <c r="EG66" s="44"/>
       <c r="EH66" s="44"/>
       <c r="EI66" s="44"/>
       <c r="EJ66" s="44"/>
+      <c r="EK66" s="44"/>
     </row>
-    <row r="67" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -21457,12 +21676,12 @@
       <c r="DM67" s="15"/>
       <c r="DN67" s="15"/>
       <c r="DO67" s="15"/>
-      <c r="EG67" s="44"/>
       <c r="EH67" s="44"/>
       <c r="EI67" s="44"/>
       <c r="EJ67" s="44"/>
+      <c r="EK67" s="44"/>
     </row>
-    <row r="68" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -21655,13 +21874,14 @@
       <c r="EC68" s="15"/>
       <c r="ED68" s="15"/>
       <c r="EE68" s="15"/>
-      <c r="EF68" s="92"/>
-      <c r="EG68" s="44"/>
+      <c r="EF68" s="15"/>
+      <c r="EG68" s="92"/>
       <c r="EH68" s="44"/>
       <c r="EI68" s="44"/>
       <c r="EJ68" s="44"/>
+      <c r="EK68" s="44"/>
     </row>
-    <row r="69" spans="1:140" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:141" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -21808,12 +22028,12 @@
       </c>
       <c r="CY69" s="2"/>
       <c r="DB69" s="2"/>
-      <c r="EG69" s="44"/>
       <c r="EH69" s="44"/>
       <c r="EI69" s="44"/>
       <c r="EJ69" s="44"/>
+      <c r="EK69" s="44"/>
     </row>
-    <row r="70" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -21842,12 +22062,12 @@
       <c r="CR70" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="EG70" s="44"/>
       <c r="EH70" s="44"/>
       <c r="EI70" s="44"/>
       <c r="EJ70" s="44"/>
+      <c r="EK70" s="44"/>
     </row>
-    <row r="71" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -22036,13 +22256,14 @@
       <c r="EC71" s="15"/>
       <c r="ED71" s="15"/>
       <c r="EE71" s="15"/>
-      <c r="EF71" s="92"/>
-      <c r="EG71" s="44"/>
+      <c r="EF71" s="15"/>
+      <c r="EG71" s="92"/>
       <c r="EH71" s="44"/>
       <c r="EI71" s="44"/>
       <c r="EJ71" s="44"/>
+      <c r="EK71" s="44"/>
     </row>
-    <row r="72" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -22056,12 +22277,12 @@
         <v>0</v>
       </c>
       <c r="E72" s="86"/>
-      <c r="EG72" s="44"/>
       <c r="EH72" s="44"/>
       <c r="EI72" s="44"/>
       <c r="EJ72" s="44"/>
+      <c r="EK72" s="44"/>
     </row>
-    <row r="73" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -22084,12 +22305,12 @@
       <c r="CE73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="EG73" s="44"/>
       <c r="EH73" s="44"/>
       <c r="EI73" s="44"/>
       <c r="EJ73" s="44"/>
+      <c r="EK73" s="44"/>
     </row>
-    <row r="74" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -22301,13 +22522,14 @@
       <c r="EC74" s="15"/>
       <c r="ED74" s="15"/>
       <c r="EE74" s="15"/>
-      <c r="EF74" s="92"/>
-      <c r="EG74" s="44"/>
+      <c r="EF74" s="15"/>
+      <c r="EG74" s="92"/>
       <c r="EH74" s="44"/>
       <c r="EI74" s="44"/>
       <c r="EJ74" s="44"/>
+      <c r="EK74" s="44"/>
     </row>
-    <row r="75" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -22496,13 +22718,14 @@
       <c r="EC75" s="15"/>
       <c r="ED75" s="15"/>
       <c r="EE75" s="15"/>
-      <c r="EF75" s="92"/>
-      <c r="EG75" s="44"/>
+      <c r="EF75" s="15"/>
+      <c r="EG75" s="92"/>
       <c r="EH75" s="44"/>
       <c r="EI75" s="44"/>
       <c r="EJ75" s="44"/>
+      <c r="EK75" s="44"/>
     </row>
-    <row r="76" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -22683,13 +22906,14 @@
       <c r="EC76" s="15"/>
       <c r="ED76" s="15"/>
       <c r="EE76" s="15"/>
-      <c r="EF76" s="92"/>
-      <c r="EG76" s="44"/>
+      <c r="EF76" s="15"/>
+      <c r="EG76" s="92"/>
       <c r="EH76" s="44"/>
       <c r="EI76" s="44"/>
       <c r="EJ76" s="44"/>
+      <c r="EK76" s="44"/>
     </row>
-    <row r="77" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -22876,12 +23100,13 @@
       <c r="EC77" s="15"/>
       <c r="ED77" s="15"/>
       <c r="EE77" s="15"/>
-      <c r="EG77" s="44"/>
+      <c r="EF77" s="15"/>
       <c r="EH77" s="44"/>
       <c r="EI77" s="44"/>
       <c r="EJ77" s="44"/>
+      <c r="EK77" s="44"/>
     </row>
-    <row r="78" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -23062,26 +23287,27 @@
       <c r="EB78" s="44"/>
       <c r="EC78" s="44"/>
       <c r="ED78" s="44"/>
-      <c r="EE78" s="90" t="s">
+      <c r="EE78" s="44"/>
+      <c r="EF78" s="90" t="s">
         <v>668</v>
       </c>
-      <c r="EF78" s="95" t="s">
+      <c r="EG78" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="EG78" s="89" t="s">
+      <c r="EH78" s="89" t="s">
         <v>822</v>
       </c>
-      <c r="EH78" s="89" t="s">
+      <c r="EI78" s="89" t="s">
         <v>646</v>
       </c>
-      <c r="EI78" s="42" t="s">
+      <c r="EJ78" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="EJ78" s="90" t="s">
+      <c r="EK78" s="90" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="79" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -23284,14 +23510,15 @@
       <c r="EB79" s="44"/>
       <c r="EC79" s="44"/>
       <c r="ED79" s="44"/>
-      <c r="EE79" s="90"/>
-      <c r="EF79" s="95"/>
-      <c r="EG79" s="89"/>
+      <c r="EE79" s="44"/>
+      <c r="EF79" s="90"/>
+      <c r="EG79" s="95"/>
       <c r="EH79" s="89"/>
-      <c r="EI79" s="42"/>
-      <c r="EJ79" s="90"/>
+      <c r="EI79" s="89"/>
+      <c r="EJ79" s="42"/>
+      <c r="EK79" s="90"/>
     </row>
-    <row r="80" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -23438,20 +23665,21 @@
       <c r="EB80" s="44"/>
       <c r="EC80" s="44"/>
       <c r="ED80" s="44"/>
-      <c r="EE80" s="90"/>
-      <c r="EF80" s="95"/>
-      <c r="EG80" s="89" t="s">
+      <c r="EE80" s="44"/>
+      <c r="EF80" s="90"/>
+      <c r="EG80" s="95"/>
+      <c r="EH80" s="89" t="s">
         <v>823</v>
       </c>
-      <c r="EH80" s="89" t="s">
+      <c r="EI80" s="89" t="s">
         <v>650</v>
       </c>
-      <c r="EI80" s="42" t="s">
+      <c r="EJ80" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="EJ80" s="90"/>
+      <c r="EK80" s="90"/>
     </row>
-    <row r="81" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -23600,16 +23828,17 @@
       <c r="EB81" s="44"/>
       <c r="EC81" s="44"/>
       <c r="ED81" s="44"/>
-      <c r="EE81" s="90"/>
-      <c r="EF81" s="95"/>
-      <c r="EG81" s="89" t="s">
+      <c r="EE81" s="44"/>
+      <c r="EF81" s="90"/>
+      <c r="EG81" s="95"/>
+      <c r="EH81" s="89" t="s">
         <v>652</v>
       </c>
-      <c r="EH81" s="89"/>
-      <c r="EI81" s="42"/>
-      <c r="EJ81" s="90"/>
+      <c r="EI81" s="89"/>
+      <c r="EJ81" s="42"/>
+      <c r="EK81" s="90"/>
     </row>
-    <row r="82" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -23761,13 +23990,14 @@
       <c r="EC82" s="44"/>
       <c r="ED82" s="44"/>
       <c r="EE82" s="44"/>
-      <c r="EF82" s="95"/>
-      <c r="EG82" s="44"/>
+      <c r="EF82" s="44"/>
+      <c r="EG82" s="95"/>
       <c r="EH82" s="44"/>
       <c r="EI82" s="44"/>
       <c r="EJ82" s="44"/>
+      <c r="EK82" s="44"/>
     </row>
-    <row r="83" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -23914,18 +24144,19 @@
       <c r="EB83" s="44"/>
       <c r="EC83" s="44"/>
       <c r="ED83" s="44"/>
-      <c r="EE83" s="90"/>
-      <c r="EF83" s="95"/>
-      <c r="EG83" s="89" t="s">
+      <c r="EE83" s="44"/>
+      <c r="EF83" s="90"/>
+      <c r="EG83" s="95"/>
+      <c r="EH83" s="89" t="s">
         <v>825</v>
       </c>
-      <c r="EH83" s="89"/>
-      <c r="EI83" s="42"/>
-      <c r="EJ83" s="90" t="s">
+      <c r="EI83" s="89"/>
+      <c r="EJ83" s="42"/>
+      <c r="EK83" s="90" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -24071,13 +24302,14 @@
       <c r="EC84" s="15"/>
       <c r="ED84" s="15"/>
       <c r="EE84" s="15"/>
-      <c r="EF84" s="92"/>
-      <c r="EG84" s="15"/>
+      <c r="EF84" s="15"/>
+      <c r="EG84" s="92"/>
       <c r="EH84" s="15"/>
       <c r="EI84" s="15"/>
       <c r="EJ84" s="15"/>
+      <c r="EK84" s="15"/>
     </row>
-    <row r="85" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -24223,13 +24455,14 @@
       <c r="EC85" s="15"/>
       <c r="ED85" s="15"/>
       <c r="EE85" s="15"/>
-      <c r="EF85" s="92"/>
-      <c r="EG85" s="15"/>
+      <c r="EF85" s="15"/>
+      <c r="EG85" s="92"/>
       <c r="EH85" s="15"/>
       <c r="EI85" s="15"/>
       <c r="EJ85" s="15"/>
+      <c r="EK85" s="15"/>
     </row>
-    <row r="86" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -24381,13 +24614,14 @@
         <v>837</v>
       </c>
       <c r="EE86" s="15"/>
-      <c r="EF86" s="92"/>
-      <c r="EG86" s="15"/>
+      <c r="EF86" s="15"/>
+      <c r="EG86" s="92"/>
       <c r="EH86" s="15"/>
       <c r="EI86" s="15"/>
       <c r="EJ86" s="15"/>
+      <c r="EK86" s="15"/>
     </row>
-    <row r="87" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -24533,13 +24767,14 @@
       <c r="EC87" s="15"/>
       <c r="ED87" s="15"/>
       <c r="EE87" s="15"/>
-      <c r="EF87" s="92"/>
-      <c r="EG87" s="15"/>
+      <c r="EF87" s="15"/>
+      <c r="EG87" s="92"/>
       <c r="EH87" s="15"/>
       <c r="EI87" s="15"/>
       <c r="EJ87" s="15"/>
+      <c r="EK87" s="15"/>
     </row>
-    <row r="88" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -24693,13 +24928,14 @@
       <c r="EC88" s="15"/>
       <c r="ED88" s="15"/>
       <c r="EE88" s="15"/>
-      <c r="EF88" s="92"/>
-      <c r="EG88" s="15"/>
+      <c r="EF88" s="15"/>
+      <c r="EG88" s="92"/>
       <c r="EH88" s="15"/>
       <c r="EI88" s="15"/>
       <c r="EJ88" s="15"/>
+      <c r="EK88" s="15"/>
     </row>
-    <row r="89" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -24853,13 +25089,14 @@
       <c r="EC89" s="15"/>
       <c r="ED89" s="15"/>
       <c r="EE89" s="15"/>
-      <c r="EF89" s="92"/>
-      <c r="EG89" s="15"/>
+      <c r="EF89" s="15"/>
+      <c r="EG89" s="92"/>
       <c r="EH89" s="15"/>
       <c r="EI89" s="15"/>
       <c r="EJ89" s="15"/>
+      <c r="EK89" s="15"/>
     </row>
-    <row r="90" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -25005,13 +25242,14 @@
       <c r="EC90" s="15"/>
       <c r="ED90" s="15"/>
       <c r="EE90" s="15"/>
-      <c r="EF90" s="92"/>
-      <c r="EG90" s="15"/>
+      <c r="EF90" s="15"/>
+      <c r="EG90" s="92"/>
       <c r="EH90" s="15"/>
       <c r="EI90" s="15"/>
       <c r="EJ90" s="15"/>
+      <c r="EK90" s="15"/>
     </row>
-    <row r="91" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -25024,7 +25262,7 @@
       <c r="D91" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="119" t="s">
+      <c r="E91" s="109" t="s">
         <v>757</v>
       </c>
       <c r="F91" s="36"/>
@@ -25165,13 +25403,14 @@
       <c r="EC91" s="15"/>
       <c r="ED91" s="15"/>
       <c r="EE91" s="15"/>
-      <c r="EF91" s="92"/>
-      <c r="EG91" s="15"/>
+      <c r="EF91" s="15"/>
+      <c r="EG91" s="92"/>
       <c r="EH91" s="15"/>
       <c r="EI91" s="15"/>
       <c r="EJ91" s="15"/>
+      <c r="EK91" s="15"/>
     </row>
-    <row r="92" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -25184,7 +25423,7 @@
       <c r="D92" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="119"/>
+      <c r="E92" s="109"/>
       <c r="F92" s="36"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
@@ -25317,13 +25556,14 @@
       <c r="EC92" s="15"/>
       <c r="ED92" s="15"/>
       <c r="EE92" s="15"/>
-      <c r="EF92" s="92"/>
-      <c r="EG92" s="15"/>
+      <c r="EF92" s="15"/>
+      <c r="EG92" s="92"/>
       <c r="EH92" s="15"/>
       <c r="EI92" s="15"/>
       <c r="EJ92" s="15"/>
+      <c r="EK92" s="15"/>
     </row>
-    <row r="93" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -25336,7 +25576,7 @@
       <c r="D93" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="119"/>
+      <c r="E93" s="109"/>
       <c r="F93" s="36"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
@@ -25469,13 +25709,14 @@
       <c r="EC93" s="15"/>
       <c r="ED93" s="15"/>
       <c r="EE93" s="15"/>
-      <c r="EF93" s="92"/>
-      <c r="EG93" s="15"/>
+      <c r="EF93" s="15"/>
+      <c r="EG93" s="92"/>
       <c r="EH93" s="15"/>
       <c r="EI93" s="15"/>
       <c r="EJ93" s="15"/>
+      <c r="EK93" s="15"/>
     </row>
-    <row r="94" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -25488,7 +25729,7 @@
       <c r="D94" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="119"/>
+      <c r="E94" s="109"/>
       <c r="F94" s="36"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
@@ -25621,13 +25862,14 @@
       <c r="EC94" s="15"/>
       <c r="ED94" s="15"/>
       <c r="EE94" s="15"/>
-      <c r="EF94" s="92"/>
-      <c r="EG94" s="15"/>
+      <c r="EF94" s="15"/>
+      <c r="EG94" s="92"/>
       <c r="EH94" s="15"/>
       <c r="EI94" s="15"/>
       <c r="EJ94" s="15"/>
+      <c r="EK94" s="15"/>
     </row>
-    <row r="95" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -25640,7 +25882,7 @@
       <c r="D95" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="119"/>
+      <c r="E95" s="109"/>
       <c r="F95" s="36"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
@@ -25773,13 +26015,14 @@
       <c r="EC95" s="15"/>
       <c r="ED95" s="15"/>
       <c r="EE95" s="15"/>
-      <c r="EF95" s="92"/>
-      <c r="EG95" s="15"/>
+      <c r="EF95" s="15"/>
+      <c r="EG95" s="92"/>
       <c r="EH95" s="15"/>
       <c r="EI95" s="15"/>
       <c r="EJ95" s="15"/>
+      <c r="EK95" s="15"/>
     </row>
-    <row r="96" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -25931,13 +26174,14 @@
       <c r="EC96" s="44"/>
       <c r="ED96" s="44"/>
       <c r="EE96" s="44"/>
-      <c r="EF96" s="95"/>
-      <c r="EG96" s="44"/>
+      <c r="EF96" s="44"/>
+      <c r="EG96" s="95"/>
       <c r="EH96" s="44"/>
       <c r="EI96" s="44"/>
       <c r="EJ96" s="44"/>
+      <c r="EK96" s="44"/>
     </row>
-    <row r="97" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -25950,7 +26194,7 @@
       <c r="D97" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="119" t="s">
+      <c r="E97" s="109" t="s">
         <v>757</v>
       </c>
       <c r="F97" s="36"/>
@@ -26093,13 +26337,14 @@
       <c r="EC97" s="15"/>
       <c r="ED97" s="15"/>
       <c r="EE97" s="15"/>
-      <c r="EF97" s="92"/>
-      <c r="EG97" s="15"/>
+      <c r="EF97" s="15"/>
+      <c r="EG97" s="92"/>
       <c r="EH97" s="15"/>
       <c r="EI97" s="15"/>
       <c r="EJ97" s="15"/>
+      <c r="EK97" s="15"/>
     </row>
-    <row r="98" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -26253,13 +26498,14 @@
         <v>739</v>
       </c>
       <c r="EE98" s="15"/>
-      <c r="EF98" s="92"/>
-      <c r="EG98" s="15"/>
+      <c r="EF98" s="15"/>
+      <c r="EG98" s="92"/>
       <c r="EH98" s="15"/>
       <c r="EI98" s="15"/>
       <c r="EJ98" s="15"/>
+      <c r="EK98" s="15"/>
     </row>
-    <row r="99" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -26272,7 +26518,7 @@
       <c r="D99" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="119"/>
+      <c r="E99" s="109"/>
       <c r="F99" s="36"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -26405,13 +26651,14 @@
       <c r="EC99" s="15"/>
       <c r="ED99" s="15"/>
       <c r="EE99" s="15"/>
-      <c r="EF99" s="92"/>
-      <c r="EG99" s="15"/>
+      <c r="EF99" s="15"/>
+      <c r="EG99" s="92"/>
       <c r="EH99" s="15"/>
       <c r="EI99" s="15"/>
       <c r="EJ99" s="15"/>
+      <c r="EK99" s="15"/>
     </row>
-    <row r="100" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -26424,7 +26671,7 @@
       <c r="D100" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="119"/>
+      <c r="E100" s="109"/>
       <c r="F100" s="36"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
@@ -26557,13 +26804,14 @@
       <c r="EC100" s="15"/>
       <c r="ED100" s="15"/>
       <c r="EE100" s="15"/>
-      <c r="EF100" s="92"/>
-      <c r="EG100" s="15"/>
+      <c r="EF100" s="15"/>
+      <c r="EG100" s="92"/>
       <c r="EH100" s="15"/>
       <c r="EI100" s="15"/>
       <c r="EJ100" s="15"/>
+      <c r="EK100" s="15"/>
     </row>
-    <row r="101" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -26576,7 +26824,7 @@
       <c r="D101" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="119"/>
+      <c r="E101" s="109"/>
       <c r="F101" s="36"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -26709,13 +26957,14 @@
       <c r="EC101" s="15"/>
       <c r="ED101" s="15"/>
       <c r="EE101" s="15"/>
-      <c r="EF101" s="92"/>
-      <c r="EG101" s="15"/>
+      <c r="EF101" s="15"/>
+      <c r="EG101" s="92"/>
       <c r="EH101" s="15"/>
       <c r="EI101" s="15"/>
       <c r="EJ101" s="15"/>
+      <c r="EK101" s="15"/>
     </row>
-    <row r="102" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -26728,7 +26977,7 @@
       <c r="D102" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="119"/>
+      <c r="E102" s="109"/>
       <c r="F102" s="36"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -26861,13 +27110,14 @@
       <c r="EC102" s="15"/>
       <c r="ED102" s="15"/>
       <c r="EE102" s="15"/>
-      <c r="EF102" s="92"/>
-      <c r="EG102" s="15"/>
+      <c r="EF102" s="15"/>
+      <c r="EG102" s="92"/>
       <c r="EH102" s="15"/>
       <c r="EI102" s="15"/>
       <c r="EJ102" s="15"/>
+      <c r="EK102" s="15"/>
     </row>
-    <row r="103" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -27118,22 +27368,23 @@
       <c r="ED103" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="EE103" s="95" t="s">
+      <c r="EE103" s="95"/>
+      <c r="EF103" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="EF103" s="15"/>
-      <c r="EG103" s="49" t="s">
+      <c r="EG103" s="15"/>
+      <c r="EH103" s="49" t="s">
         <v>803</v>
       </c>
-      <c r="EH103" s="49" t="s">
+      <c r="EI103" s="49" t="s">
         <v>646</v>
       </c>
-      <c r="EI103" s="44"/>
-      <c r="EJ103" s="90" t="s">
+      <c r="EJ103" s="44"/>
+      <c r="EK103" s="90" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="104" spans="1:140" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A104" s="44">
         <v>103</v>
       </c>
@@ -27288,8 +27539,9 @@
       <c r="EH104" s="44"/>
       <c r="EI104" s="44"/>
       <c r="EJ104" s="44"/>
+      <c r="EK104" s="44"/>
     </row>
-    <row r="105" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -27302,7 +27554,7 @@
       <c r="D105" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="119" t="s">
+      <c r="E105" s="109" t="s">
         <v>808</v>
       </c>
       <c r="F105" s="36"/>
@@ -27449,13 +27701,14 @@
       <c r="EC105" s="15"/>
       <c r="ED105" s="15"/>
       <c r="EE105" s="15"/>
-      <c r="EF105" s="92"/>
-      <c r="EG105" s="15"/>
+      <c r="EF105" s="15"/>
+      <c r="EG105" s="92"/>
       <c r="EH105" s="15"/>
       <c r="EI105" s="15"/>
       <c r="EJ105" s="15"/>
+      <c r="EK105" s="15"/>
     </row>
-    <row r="106" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -27468,7 +27721,7 @@
       <c r="D106" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E106" s="119" t="s">
+      <c r="E106" s="109" t="s">
         <v>817</v>
       </c>
       <c r="F106" s="36"/>
@@ -27617,13 +27870,14 @@
       <c r="EC106" s="15"/>
       <c r="ED106" s="15"/>
       <c r="EE106" s="15"/>
-      <c r="EF106" s="92"/>
-      <c r="EG106" s="15"/>
+      <c r="EF106" s="15"/>
+      <c r="EG106" s="92"/>
       <c r="EH106" s="15"/>
       <c r="EI106" s="15"/>
       <c r="EJ106" s="15"/>
+      <c r="EK106" s="15"/>
     </row>
-    <row r="107" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -27785,13 +28039,14 @@
       <c r="EC107" s="15"/>
       <c r="ED107" s="15"/>
       <c r="EE107" s="15"/>
-      <c r="EF107" s="92"/>
-      <c r="EG107" s="15"/>
+      <c r="EF107" s="15"/>
+      <c r="EG107" s="92"/>
       <c r="EH107" s="15"/>
       <c r="EI107" s="15"/>
       <c r="EJ107" s="15"/>
+      <c r="EK107" s="15"/>
     </row>
-    <row r="108" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -27937,13 +28192,14 @@
       <c r="EC108" s="15"/>
       <c r="ED108" s="15"/>
       <c r="EE108" s="15"/>
-      <c r="EF108" s="92"/>
-      <c r="EG108" s="15"/>
+      <c r="EF108" s="15"/>
+      <c r="EG108" s="92"/>
       <c r="EH108" s="15"/>
       <c r="EI108" s="15"/>
       <c r="EJ108" s="15"/>
+      <c r="EK108" s="15"/>
     </row>
-    <row r="109" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -28089,13 +28345,14 @@
       <c r="EC109" s="15"/>
       <c r="ED109" s="15"/>
       <c r="EE109" s="15"/>
-      <c r="EF109" s="92"/>
-      <c r="EG109" s="15"/>
+      <c r="EF109" s="15"/>
+      <c r="EG109" s="92"/>
       <c r="EH109" s="15"/>
       <c r="EI109" s="15"/>
       <c r="EJ109" s="15"/>
+      <c r="EK109" s="15"/>
     </row>
-    <row r="110" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -28241,15 +28498,16 @@
       <c r="EC110" s="15"/>
       <c r="ED110" s="15"/>
       <c r="EE110" s="15"/>
-      <c r="EF110" s="92"/>
-      <c r="EG110" s="15"/>
+      <c r="EF110" s="15"/>
+      <c r="EG110" s="92"/>
       <c r="EH110" s="15"/>
       <c r="EI110" s="15"/>
-      <c r="EJ110" s="90" t="s">
+      <c r="EJ110" s="15"/>
+      <c r="EK110" s="90" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="111" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -28401,13 +28659,14 @@
       <c r="EC111" s="36"/>
       <c r="ED111" s="15"/>
       <c r="EE111" s="15"/>
-      <c r="EF111" s="92"/>
-      <c r="EG111" s="15"/>
+      <c r="EF111" s="15"/>
+      <c r="EG111" s="92"/>
       <c r="EH111" s="15"/>
       <c r="EI111" s="15"/>
-      <c r="EJ111" s="90"/>
+      <c r="EJ111" s="15"/>
+      <c r="EK111" s="90"/>
     </row>
-    <row r="112" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -28559,13 +28818,14 @@
       <c r="EC112" s="36"/>
       <c r="ED112" s="15"/>
       <c r="EE112" s="15"/>
-      <c r="EF112" s="92"/>
-      <c r="EG112" s="15"/>
+      <c r="EF112" s="15"/>
+      <c r="EG112" s="92"/>
       <c r="EH112" s="15"/>
       <c r="EI112" s="15"/>
-      <c r="EJ112" s="90"/>
+      <c r="EJ112" s="15"/>
+      <c r="EK112" s="90"/>
     </row>
-    <row r="113" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -28715,13 +28975,14 @@
       <c r="EC113" s="36"/>
       <c r="ED113" s="15"/>
       <c r="EE113" s="15"/>
-      <c r="EF113" s="92"/>
-      <c r="EG113" s="15"/>
+      <c r="EF113" s="15"/>
+      <c r="EG113" s="92"/>
       <c r="EH113" s="15"/>
       <c r="EI113" s="15"/>
-      <c r="EJ113" s="90"/>
+      <c r="EJ113" s="15"/>
+      <c r="EK113" s="90"/>
     </row>
-    <row r="114" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -28868,18 +29129,19 @@
         <v>852</v>
       </c>
       <c r="EB114" s="36"/>
-      <c r="EC114" s="120" t="s">
+      <c r="EC114" s="110" t="s">
         <v>851</v>
       </c>
       <c r="ED114" s="15"/>
       <c r="EE114" s="15"/>
-      <c r="EF114" s="92"/>
-      <c r="EG114" s="15"/>
+      <c r="EF114" s="15"/>
+      <c r="EG114" s="92"/>
       <c r="EH114" s="15"/>
       <c r="EI114" s="15"/>
-      <c r="EJ114" s="90"/>
+      <c r="EJ114" s="15"/>
+      <c r="EK114" s="90"/>
     </row>
-    <row r="115" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -29026,16 +29288,17 @@
         <v>856</v>
       </c>
       <c r="EB115" s="36"/>
-      <c r="EC115" s="120"/>
+      <c r="EC115" s="110"/>
       <c r="ED115" s="15"/>
       <c r="EE115" s="15"/>
-      <c r="EF115" s="92"/>
-      <c r="EG115" s="15"/>
+      <c r="EF115" s="15"/>
+      <c r="EG115" s="92"/>
       <c r="EH115" s="15"/>
       <c r="EI115" s="15"/>
-      <c r="EJ115" s="90"/>
+      <c r="EJ115" s="15"/>
+      <c r="EK115" s="90"/>
     </row>
-    <row r="116" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -29182,16 +29445,17 @@
         <v>860</v>
       </c>
       <c r="EB116" s="36"/>
-      <c r="EC116" s="120"/>
+      <c r="EC116" s="110"/>
       <c r="ED116" s="15"/>
       <c r="EE116" s="15"/>
-      <c r="EF116" s="92"/>
-      <c r="EG116" s="15"/>
+      <c r="EF116" s="15"/>
+      <c r="EG116" s="92"/>
       <c r="EH116" s="15"/>
       <c r="EI116" s="15"/>
-      <c r="EJ116" s="90"/>
+      <c r="EJ116" s="15"/>
+      <c r="EK116" s="90"/>
     </row>
-    <row r="117" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -29343,13 +29607,14 @@
       <c r="EC117" s="36"/>
       <c r="ED117" s="15"/>
       <c r="EE117" s="15"/>
-      <c r="EF117" s="92"/>
-      <c r="EG117" s="15"/>
+      <c r="EF117" s="15"/>
+      <c r="EG117" s="92"/>
       <c r="EH117" s="15"/>
       <c r="EI117" s="15"/>
-      <c r="EJ117" s="90"/>
+      <c r="EJ117" s="15"/>
+      <c r="EK117" s="90"/>
     </row>
-    <row r="118" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -29501,13 +29766,14 @@
       <c r="EC118" s="36"/>
       <c r="ED118" s="15"/>
       <c r="EE118" s="15"/>
-      <c r="EF118" s="92"/>
-      <c r="EG118" s="15"/>
+      <c r="EF118" s="15"/>
+      <c r="EG118" s="92"/>
       <c r="EH118" s="15"/>
       <c r="EI118" s="15"/>
-      <c r="EJ118" s="90"/>
+      <c r="EJ118" s="15"/>
+      <c r="EK118" s="90"/>
     </row>
-    <row r="119" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>118</v>
       </c>
@@ -29658,14 +29924,15 @@
       <c r="ED119" s="36" t="s">
         <v>874</v>
       </c>
-      <c r="EE119" s="15"/>
-      <c r="EF119" s="92"/>
-      <c r="EG119" s="15"/>
+      <c r="EE119" s="36"/>
+      <c r="EF119" s="15"/>
+      <c r="EG119" s="92"/>
       <c r="EH119" s="15"/>
       <c r="EI119" s="15"/>
-      <c r="EJ119" s="90"/>
+      <c r="EJ119" s="15"/>
+      <c r="EK119" s="90"/>
     </row>
-    <row r="120" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -29816,14 +30083,15 @@
       <c r="ED120" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="EE120" s="15"/>
-      <c r="EF120" s="92"/>
-      <c r="EG120" s="15"/>
+      <c r="EE120" s="36"/>
+      <c r="EF120" s="15"/>
+      <c r="EG120" s="92"/>
       <c r="EH120" s="15"/>
       <c r="EI120" s="15"/>
-      <c r="EJ120" s="90"/>
+      <c r="EJ120" s="15"/>
+      <c r="EK120" s="90"/>
     </row>
-    <row r="121" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -29973,18 +30241,19 @@
       <c r="EC121" s="36"/>
       <c r="ED121" s="15"/>
       <c r="EE121" s="15"/>
-      <c r="EF121" s="92"/>
-      <c r="EG121" s="15"/>
+      <c r="EF121" s="15"/>
+      <c r="EG121" s="92"/>
       <c r="EH121" s="15"/>
       <c r="EI121" s="15"/>
-      <c r="EJ121" s="90"/>
+      <c r="EJ121" s="15"/>
+      <c r="EK121" s="90"/>
     </row>
-    <row r="122" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>121</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C122" s="32" t="s">
         <v>320</v>
@@ -29994,13 +30263,13 @@
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
@@ -30124,23 +30393,24 @@
       <c r="DZ122" s="15"/>
       <c r="EA122" s="36"/>
       <c r="EB122" s="36"/>
-      <c r="EC122" s="120"/>
+      <c r="EC122" s="110"/>
       <c r="ED122" s="36" t="s">
-        <v>886</v>
-      </c>
-      <c r="EE122" s="15"/>
-      <c r="EF122" s="92"/>
-      <c r="EG122" s="15"/>
+        <v>885</v>
+      </c>
+      <c r="EE122" s="36"/>
+      <c r="EF122" s="15"/>
+      <c r="EG122" s="92"/>
       <c r="EH122" s="15"/>
       <c r="EI122" s="15"/>
-      <c r="EJ122" s="90"/>
+      <c r="EJ122" s="15"/>
+      <c r="EK122" s="90"/>
     </row>
-    <row r="123" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <v>122</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C123" s="32" t="s">
         <v>320</v>
@@ -30150,13 +30420,13 @@
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
@@ -30280,23 +30550,24 @@
       <c r="DZ123" s="15"/>
       <c r="EA123" s="36"/>
       <c r="EB123" s="36"/>
-      <c r="EC123" s="120"/>
+      <c r="EC123" s="110"/>
       <c r="ED123" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="EE123" s="15"/>
-      <c r="EF123" s="92"/>
-      <c r="EG123" s="15"/>
+      <c r="EF123" s="15"/>
+      <c r="EG123" s="92"/>
       <c r="EH123" s="15"/>
       <c r="EI123" s="15"/>
-      <c r="EJ123" s="90"/>
+      <c r="EJ123" s="15"/>
+      <c r="EK123" s="90"/>
     </row>
-    <row r="124" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>123</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>320</v>
@@ -30306,13 +30577,13 @@
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="36" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
@@ -30436,23 +30707,24 @@
       <c r="DZ124" s="15"/>
       <c r="EA124" s="36"/>
       <c r="EB124" s="36"/>
-      <c r="EC124" s="120"/>
+      <c r="EC124" s="110"/>
       <c r="ED124" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="EE124" s="15"/>
-      <c r="EF124" s="92"/>
-      <c r="EG124" s="15"/>
+      <c r="EF124" s="15"/>
+      <c r="EG124" s="92"/>
       <c r="EH124" s="15"/>
       <c r="EI124" s="15"/>
-      <c r="EJ124" s="90"/>
+      <c r="EJ124" s="15"/>
+      <c r="EK124" s="90"/>
     </row>
-    <row r="125" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <v>124</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C125" s="32" t="s">
         <v>320</v>
@@ -30468,7 +30740,7 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="40" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K125" s="15" t="s">
         <v>877</v>
@@ -30596,21 +30868,22 @@
       <c r="EB125" s="36"/>
       <c r="EC125" s="36"/>
       <c r="ED125" s="36" t="s">
-        <v>896</v>
-      </c>
-      <c r="EE125" s="15"/>
-      <c r="EF125" s="92"/>
-      <c r="EG125" s="15"/>
+        <v>895</v>
+      </c>
+      <c r="EE125" s="36"/>
+      <c r="EF125" s="15"/>
+      <c r="EG125" s="92"/>
       <c r="EH125" s="15"/>
       <c r="EI125" s="15"/>
-      <c r="EJ125" s="90"/>
+      <c r="EJ125" s="15"/>
+      <c r="EK125" s="90"/>
     </row>
-    <row r="126" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <v>125</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>320</v>
@@ -30626,10 +30899,10 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="40" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
@@ -30754,21 +31027,22 @@
       <c r="EB126" s="36"/>
       <c r="EC126" s="36"/>
       <c r="ED126" s="36" t="s">
-        <v>901</v>
-      </c>
-      <c r="EE126" s="15"/>
-      <c r="EF126" s="92"/>
-      <c r="EG126" s="15"/>
+        <v>900</v>
+      </c>
+      <c r="EE126" s="36"/>
+      <c r="EF126" s="15"/>
+      <c r="EG126" s="92"/>
       <c r="EH126" s="15"/>
       <c r="EI126" s="15"/>
-      <c r="EJ126" s="90"/>
+      <c r="EJ126" s="15"/>
+      <c r="EK126" s="90"/>
     </row>
-    <row r="127" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <v>126</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>320</v>
@@ -30782,10 +31056,10 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>903</v>
-      </c>
-      <c r="K127" s="15" t="s">
-        <v>904</v>
       </c>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
@@ -30810,7 +31084,7 @@
       <c r="AF127" s="15"/>
       <c r="AG127" s="15"/>
       <c r="AH127" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AI127" s="36"/>
       <c r="AJ127" s="15"/>
@@ -30824,13 +31098,13 @@
         <v>48</v>
       </c>
       <c r="AR127" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AS127" s="15" t="s">
         <v>35</v>
       </c>
       <c r="AT127" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AU127" s="15"/>
       <c r="AV127" s="15"/>
@@ -30924,19 +31198,20 @@
       <c r="EB127" s="36"/>
       <c r="EC127" s="36"/>
       <c r="ED127" s="36"/>
-      <c r="EE127" s="15"/>
-      <c r="EF127" s="92"/>
-      <c r="EG127" s="15"/>
+      <c r="EE127" s="36"/>
+      <c r="EF127" s="15"/>
+      <c r="EG127" s="92"/>
       <c r="EH127" s="15"/>
       <c r="EI127" s="15"/>
-      <c r="EJ127" s="90"/>
+      <c r="EJ127" s="15"/>
+      <c r="EK127" s="90"/>
     </row>
-    <row r="128" spans="1:140" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <v>127</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>298</v>
@@ -30950,7 +31225,7 @@
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="40" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
@@ -31126,16 +31401,182 @@
       <c r="DX128" s="15"/>
       <c r="DY128" s="15"/>
       <c r="DZ128" s="15"/>
-      <c r="EA128" s="36"/>
+      <c r="EA128" s="36" t="s">
+        <v>920</v>
+      </c>
       <c r="EB128" s="36"/>
       <c r="EC128" s="36"/>
       <c r="ED128" s="36"/>
-      <c r="EE128" s="15"/>
-      <c r="EF128" s="92"/>
-      <c r="EG128" s="15"/>
+      <c r="EE128" s="36"/>
+      <c r="EF128" s="15"/>
+      <c r="EG128" s="92"/>
       <c r="EH128" s="15"/>
       <c r="EI128" s="15"/>
-      <c r="EJ128" s="90"/>
+      <c r="EJ128" s="15"/>
+      <c r="EK128" s="90"/>
+    </row>
+    <row r="129" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15">
+        <v>128</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>925</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F129" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="G129" s="36" t="s">
+        <v>929</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="33"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="34"/>
+      <c r="R129" s="35"/>
+      <c r="S129" s="15"/>
+      <c r="T129" s="15"/>
+      <c r="U129" s="15"/>
+      <c r="V129" s="15"/>
+      <c r="W129" s="15"/>
+      <c r="X129" s="15"/>
+      <c r="Y129" s="15"/>
+      <c r="Z129" s="15"/>
+      <c r="AA129" s="15"/>
+      <c r="AB129" s="15"/>
+      <c r="AC129" s="15"/>
+      <c r="AD129" s="15"/>
+      <c r="AE129" s="15"/>
+      <c r="AF129" s="15"/>
+      <c r="AG129" s="15"/>
+      <c r="AH129" s="15"/>
+      <c r="AI129" s="36"/>
+      <c r="AJ129" s="15"/>
+      <c r="AK129" s="34"/>
+      <c r="AL129" s="34"/>
+      <c r="AM129" s="34"/>
+      <c r="AN129" s="15"/>
+      <c r="AO129" s="15"/>
+      <c r="AP129" s="34"/>
+      <c r="AQ129" s="15"/>
+      <c r="AR129" s="15"/>
+      <c r="AS129" s="15"/>
+      <c r="AT129" s="15"/>
+      <c r="AU129" s="15"/>
+      <c r="AV129" s="15"/>
+      <c r="AW129" s="15"/>
+      <c r="AX129" s="15"/>
+      <c r="AY129" s="15"/>
+      <c r="AZ129" s="15"/>
+      <c r="BA129" s="15"/>
+      <c r="BB129" s="15"/>
+      <c r="BC129" s="15"/>
+      <c r="BD129" s="15"/>
+      <c r="BE129" s="15"/>
+      <c r="BF129" s="15"/>
+      <c r="BG129" s="15"/>
+      <c r="BH129" s="15"/>
+      <c r="BI129" s="15"/>
+      <c r="BJ129" s="15"/>
+      <c r="BK129" s="15"/>
+      <c r="BL129" s="15"/>
+      <c r="BM129" s="15"/>
+      <c r="BN129" s="15"/>
+      <c r="BO129" s="15"/>
+      <c r="BP129" s="34"/>
+      <c r="BQ129" s="34"/>
+      <c r="BR129" s="34"/>
+      <c r="BS129" s="34"/>
+      <c r="BT129" s="34"/>
+      <c r="BU129" s="34"/>
+      <c r="BV129" s="34"/>
+      <c r="BW129" s="34"/>
+      <c r="BX129" s="34"/>
+      <c r="BY129" s="34"/>
+      <c r="BZ129" s="34"/>
+      <c r="CA129" s="34"/>
+      <c r="CB129" s="34"/>
+      <c r="CC129" s="15"/>
+      <c r="CD129" s="34"/>
+      <c r="CE129" s="15"/>
+      <c r="CF129" s="15"/>
+      <c r="CG129" s="34"/>
+      <c r="CH129" s="34"/>
+      <c r="CI129" s="34"/>
+      <c r="CJ129" s="34"/>
+      <c r="CK129" s="34"/>
+      <c r="CL129" s="34"/>
+      <c r="CM129" s="34"/>
+      <c r="CN129" s="15"/>
+      <c r="CO129" s="15"/>
+      <c r="CP129" s="15"/>
+      <c r="CQ129" s="15"/>
+      <c r="CR129" s="15"/>
+      <c r="CS129" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="CT129" s="15"/>
+      <c r="CU129" s="15"/>
+      <c r="CV129" s="15"/>
+      <c r="CW129" s="15"/>
+      <c r="CX129" s="15"/>
+      <c r="CY129" s="15"/>
+      <c r="CZ129" s="15"/>
+      <c r="DA129" s="15"/>
+      <c r="DB129" s="15"/>
+      <c r="DC129" s="15"/>
+      <c r="DD129" s="15"/>
+      <c r="DE129" s="15"/>
+      <c r="DF129" s="15"/>
+      <c r="DG129" s="15"/>
+      <c r="DH129" s="15"/>
+      <c r="DI129" s="15"/>
+      <c r="DJ129" s="15"/>
+      <c r="DK129" s="15"/>
+      <c r="DL129" s="15"/>
+      <c r="DM129" s="15"/>
+      <c r="DN129" s="15"/>
+      <c r="DO129" s="15"/>
+      <c r="DP129" s="36"/>
+      <c r="DQ129" s="15"/>
+      <c r="DR129" s="15"/>
+      <c r="DS129" s="15"/>
+      <c r="DT129" s="15"/>
+      <c r="DU129" s="15"/>
+      <c r="DV129" s="15"/>
+      <c r="DW129" s="15"/>
+      <c r="DX129" s="15"/>
+      <c r="DY129" s="15"/>
+      <c r="DZ129" s="15"/>
+      <c r="EA129" s="15"/>
+      <c r="EB129" s="15"/>
+      <c r="EC129" s="15"/>
+      <c r="ED129" s="15"/>
+      <c r="EE129" s="36" t="s">
+        <v>927</v>
+      </c>
+      <c r="EF129" s="15"/>
+      <c r="EG129" s="92"/>
+      <c r="EH129" s="15"/>
+      <c r="EI129" s="15"/>
+      <c r="EJ129" s="15"/>
+      <c r="EK129" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31216,87 +31657,87 @@
     <hyperlink ref="C21" r:id="rId74" xr:uid="{E4E7E7F0-8234-4D73-8548-A93E90CCFDF8}"/>
     <hyperlink ref="DS21" r:id="rId75" xr:uid="{16A04B90-4C95-42FB-B108-D3A9617D5B2D}"/>
     <hyperlink ref="C128" r:id="rId76" xr:uid="{D5FAB0B7-042C-4705-9759-A05346C53411}"/>
+    <hyperlink ref="E129" r:id="rId77" xr:uid="{C7344BEE-CAF7-4A3C-9480-37D7D1C32698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:BU34"/>
+  <dimension ref="A1:BV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="34" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="54.42578125" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="45" width="29" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="54" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="27" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="54" max="55" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -31373,149 +31814,154 @@
         <v>70</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="AP1" s="98" t="s">
+      <c r="AQ1" s="98" t="s">
         <v>706</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BU1" s="1"/>
+      <c r="BV1" s="1" t="s">
+        <v>926</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -31583,7 +32029,7 @@
       <c r="AM2" s="61"/>
       <c r="AN2" s="61"/>
       <c r="AO2" s="61"/>
-      <c r="AP2" s="13"/>
+      <c r="AP2" s="61"/>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
       <c r="AS2" s="13"/>
@@ -31614,8 +32060,10 @@
       <c r="BR2" s="13"/>
       <c r="BS2" s="13"/>
       <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13"/>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -31683,13 +32131,13 @@
       <c r="AM3" s="61"/>
       <c r="AN3" s="61"/>
       <c r="AO3" s="61"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="61" t="s">
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="61"/>
       <c r="AS3" s="61"/>
-      <c r="AT3" s="13"/>
+      <c r="AT3" s="61"/>
       <c r="AU3" s="13"/>
       <c r="AV3" s="13"/>
       <c r="AW3" s="13"/>
@@ -31716,8 +32164,10 @@
       <c r="BR3" s="13"/>
       <c r="BS3" s="13"/>
       <c r="BT3" s="13"/>
+      <c r="BU3" s="13"/>
+      <c r="BV3" s="13"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -31784,16 +32234,16 @@
       <c r="AJ4" s="61"/>
       <c r="AK4" s="61"/>
       <c r="AL4" s="61"/>
-      <c r="AM4" s="61" t="s">
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="AN4" s="61"/>
       <c r="AO4" s="61"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="13"/>
       <c r="AR4" s="61"/>
       <c r="AS4" s="61"/>
-      <c r="AT4" s="13"/>
+      <c r="AT4" s="61"/>
       <c r="AU4" s="13"/>
       <c r="AV4" s="13"/>
       <c r="AW4" s="13"/>
@@ -31820,8 +32270,10 @@
       <c r="BR4" s="13"/>
       <c r="BS4" s="13"/>
       <c r="BT4" s="13"/>
+      <c r="BU4" s="13"/>
+      <c r="BV4" s="13"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -31889,7 +32341,7 @@
       <c r="AM5" s="61"/>
       <c r="AN5" s="61"/>
       <c r="AO5" s="61"/>
-      <c r="AP5" s="13"/>
+      <c r="AP5" s="61"/>
       <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="13"/>
@@ -31920,8 +32372,10 @@
       <c r="BR5" s="13"/>
       <c r="BS5" s="13"/>
       <c r="BT5" s="13"/>
+      <c r="BU5" s="13"/>
+      <c r="BV5" s="13"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -31993,14 +32447,14 @@
       <c r="AM6" s="61"/>
       <c r="AN6" s="61"/>
       <c r="AO6" s="61"/>
-      <c r="AP6" s="13"/>
+      <c r="AP6" s="61"/>
       <c r="AQ6" s="13"/>
       <c r="AR6" s="13"/>
       <c r="AS6" s="13"/>
-      <c r="AT6" s="13" t="s">
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AU6" s="13"/>
       <c r="AV6" s="13"/>
       <c r="AW6" s="13"/>
       <c r="AX6" s="13"/>
@@ -32026,8 +32480,10 @@
       <c r="BR6" s="13"/>
       <c r="BS6" s="13"/>
       <c r="BT6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BV6" s="13"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -32099,14 +32555,14 @@
       <c r="AM7" s="61"/>
       <c r="AN7" s="61"/>
       <c r="AO7" s="61"/>
-      <c r="AP7" s="13"/>
+      <c r="AP7" s="61"/>
       <c r="AQ7" s="13"/>
       <c r="AR7" s="13"/>
       <c r="AS7" s="13"/>
-      <c r="AT7" s="13" t="s">
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AU7" s="13"/>
       <c r="AV7" s="13"/>
       <c r="AW7" s="13"/>
       <c r="AX7" s="13"/>
@@ -32132,8 +32588,10 @@
       <c r="BR7" s="13"/>
       <c r="BS7" s="13"/>
       <c r="BT7" s="13"/>
+      <c r="BU7" s="13"/>
+      <c r="BV7" s="13"/>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -32193,10 +32651,10 @@
       <c r="AI8" s="47"/>
       <c r="AJ8" s="47"/>
       <c r="AK8" s="47"/>
-      <c r="AL8" s="13" t="s">
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
       <c r="AP8" s="13"/>
@@ -32230,8 +32688,10 @@
       <c r="BR8" s="13"/>
       <c r="BS8" s="13"/>
       <c r="BT8" s="13"/>
+      <c r="BU8" s="13"/>
+      <c r="BV8" s="13"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -32298,12 +32758,12 @@
       <c r="AF9" s="47"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
-      <c r="AI9" s="61" t="s">
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AJ9" s="61"/>
       <c r="AK9" s="61"/>
-      <c r="AL9" s="13"/>
+      <c r="AL9" s="61"/>
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
@@ -32311,10 +32771,10 @@
       <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
-      <c r="AT9" s="13" t="s">
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AU9" s="13"/>
       <c r="AV9" s="13"/>
       <c r="AW9" s="13"/>
       <c r="AX9" s="13"/>
@@ -32340,8 +32800,10 @@
       <c r="BR9" s="13"/>
       <c r="BS9" s="13"/>
       <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -32396,15 +32858,15 @@
       <c r="AF10" s="71"/>
       <c r="AG10" s="71"/>
       <c r="AH10" s="71"/>
-      <c r="AI10" s="72" t="s">
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="AJ10" s="71"/>
       <c r="AK10" s="71"/>
-      <c r="AL10" t="s">
+      <c r="AL10" s="71"/>
+      <c r="AM10" t="s">
         <v>480</v>
       </c>
-      <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
       <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
@@ -32438,8 +32900,10 @@
       <c r="BR10" s="13"/>
       <c r="BS10" s="13"/>
       <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -32490,15 +32954,15 @@
       <c r="AF11" s="71"/>
       <c r="AG11" s="71"/>
       <c r="AH11" s="71"/>
-      <c r="AI11" s="72" t="s">
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="AJ11" s="72"/>
       <c r="AK11" s="72"/>
-      <c r="AL11" t="s">
+      <c r="AL11" s="72"/>
+      <c r="AM11" t="s">
         <v>480</v>
       </c>
-      <c r="AM11" s="13"/>
       <c r="AN11" s="13"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
@@ -32532,8 +32996,10 @@
       <c r="BR11" s="13"/>
       <c r="BS11" s="13"/>
       <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -32592,17 +33058,17 @@
       <c r="AF12" s="47"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
-      <c r="AI12" s="47" t="s">
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47" t="s">
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AL12" s="13" t="s">
+      <c r="AM12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AM12" s="13"/>
       <c r="AN12" s="13"/>
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
@@ -32636,8 +33102,10 @@
       <c r="BR12" s="13"/>
       <c r="BS12" s="13"/>
       <c r="BT12" s="13"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -32698,19 +33166,19 @@
       <c r="AF13" s="47"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
-      <c r="AI13" s="47" t="s">
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="AJ13" s="47" t="s">
+      <c r="AK13" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AK13" s="47" t="s">
+      <c r="AL13" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="AL13" s="13" t="s">
+      <c r="AM13" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AM13" s="13"/>
       <c r="AN13" s="13"/>
       <c r="AO13" s="13"/>
       <c r="AP13" s="13"/>
@@ -32744,8 +33212,10 @@
       <c r="BR13" s="13"/>
       <c r="BS13" s="13"/>
       <c r="BT13" s="13"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="13"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -32804,17 +33274,17 @@
       <c r="AF14" s="47"/>
       <c r="AG14" s="47"/>
       <c r="AH14" s="47"/>
-      <c r="AI14" s="47" t="s">
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47" t="s">
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AL14" s="13" t="s">
+      <c r="AM14" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="AM14" s="13"/>
       <c r="AN14" s="13"/>
       <c r="AO14" s="13"/>
       <c r="AP14" s="13"/>
@@ -32848,8 +33318,10 @@
       <c r="BR14" s="13"/>
       <c r="BS14" s="13"/>
       <c r="BT14" s="13"/>
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="13"/>
     </row>
-    <row r="15" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -32921,13 +33393,13 @@
       <c r="AG15" s="24"/>
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
-      <c r="AJ15" s="64" t="s">
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AK15" s="64" t="s">
+      <c r="AL15" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="24"/>
       <c r="AO15" s="24"/>
@@ -32935,58 +33407,56 @@
       <c r="AQ15" s="24"/>
       <c r="AR15" s="24"/>
       <c r="AS15" s="24"/>
-      <c r="AT15" s="24" t="s">
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="AU15" s="24" t="s">
+      <c r="AV15" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="AV15" s="24"/>
       <c r="AW15" s="24"/>
       <c r="AX15" s="24"/>
       <c r="AY15" s="24"/>
       <c r="AZ15" s="24"/>
-      <c r="BA15" s="24" t="s">
+      <c r="BA15" s="24"/>
+      <c r="BB15" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="BB15" s="24" t="s">
+      <c r="BC15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="BC15" s="65" t="s">
+      <c r="BD15" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="BD15" s="24" t="s">
+      <c r="BE15" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="BE15" s="24" t="s">
+      <c r="BF15" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="BF15" s="24" t="s">
+      <c r="BG15" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="BG15" s="24" t="s">
+      <c r="BH15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BH15" s="24" t="s">
+      <c r="BI15" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="BI15" s="24" t="s">
+      <c r="BJ15" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="BJ15" s="24" t="s">
+      <c r="BK15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BK15" s="64" t="s">
+      <c r="BL15" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="BL15" s="64" t="s">
+      <c r="BM15" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="BM15" s="66" t="s">
+      <c r="BN15" s="66" t="s">
         <v>163</v>
-      </c>
-      <c r="BN15" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="BO15" s="24" t="s">
         <v>35</v>
@@ -32995,19 +33465,23 @@
         <v>35</v>
       </c>
       <c r="BQ15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR15" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="BR15" s="67" t="s">
+      <c r="BS15" s="67" t="s">
         <v>203</v>
-      </c>
-      <c r="BS15" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="BT15" s="24" t="s">
         <v>35</v>
       </c>
+      <c r="BU15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV15" s="24"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -33089,22 +33563,22 @@
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
       <c r="AU16" s="13"/>
-      <c r="AV16" s="34" t="s">
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="AW16" s="68" t="s">
+      <c r="AX16" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="AX16" s="68" t="s">
+      <c r="AY16" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="AY16" s="34" t="s">
+      <c r="AZ16" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="AZ16" s="68" t="s">
+      <c r="BA16" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="BA16" s="13"/>
       <c r="BB16" s="13"/>
       <c r="BC16" s="13"/>
       <c r="BD16" s="13"/>
@@ -33124,8 +33598,10 @@
       <c r="BR16" s="13"/>
       <c r="BS16" s="13"/>
       <c r="BT16" s="13"/>
+      <c r="BU16" s="13"/>
+      <c r="BV16" s="13"/>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -33192,12 +33668,12 @@
       <c r="AF17" s="47"/>
       <c r="AG17" s="47"/>
       <c r="AH17" s="47"/>
-      <c r="AI17" s="61" t="s">
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AJ17" s="61"/>
       <c r="AK17" s="61"/>
-      <c r="AL17" s="13"/>
+      <c r="AL17" s="61"/>
       <c r="AM17" s="13"/>
       <c r="AN17" s="13"/>
       <c r="AO17" s="13"/>
@@ -33205,10 +33681,10 @@
       <c r="AQ17" s="13"/>
       <c r="AR17" s="13"/>
       <c r="AS17" s="13"/>
-      <c r="AT17" s="13" t="s">
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AU17" s="13"/>
       <c r="AV17" s="13"/>
       <c r="AW17" s="13"/>
       <c r="AX17" s="13"/>
@@ -33234,8 +33710,10 @@
       <c r="BR17" s="13"/>
       <c r="BS17" s="13"/>
       <c r="BT17" s="13"/>
+      <c r="BU17" s="13"/>
+      <c r="BV17" s="13"/>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -33284,7 +33762,7 @@
       <c r="AF18" s="47"/>
       <c r="AG18" s="47"/>
       <c r="AH18" s="47"/>
-      <c r="AI18" s="13"/>
+      <c r="AI18" s="47"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="13"/>
       <c r="AL18" s="13"/>
@@ -33292,31 +33770,31 @@
       <c r="AN18" s="13"/>
       <c r="AO18" s="13"/>
       <c r="AP18" s="13"/>
-      <c r="AQ18" s="13" t="s">
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="AR18" s="13" t="s">
+      <c r="AS18" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="AS18" s="13" t="s">
+      <c r="AT18" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="AT18" s="13"/>
       <c r="AU18" s="13"/>
-      <c r="AV18" s="34" t="s">
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="68" t="s">
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="AY18" s="50" t="s">
+      <c r="AZ18" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="AZ18" s="68" t="s">
+      <c r="BA18" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="BA18" s="13"/>
       <c r="BB18" s="13"/>
       <c r="BC18" s="13"/>
       <c r="BD18" s="13"/>
@@ -33336,8 +33814,10 @@
       <c r="BR18" s="13"/>
       <c r="BS18" s="13"/>
       <c r="BT18" s="13"/>
+      <c r="BU18" s="13"/>
+      <c r="BV18" s="13"/>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -33390,7 +33870,7 @@
       <c r="AF19" s="47"/>
       <c r="AG19" s="47"/>
       <c r="AH19" s="47"/>
-      <c r="AI19" s="13"/>
+      <c r="AI19" s="47"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="13"/>
       <c r="AL19" s="13"/>
@@ -33398,31 +33878,31 @@
       <c r="AN19" s="13"/>
       <c r="AO19" s="13"/>
       <c r="AP19" s="13"/>
-      <c r="AQ19" s="13" t="s">
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="AR19" s="13" t="s">
+      <c r="AS19" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
       <c r="AU19" s="13"/>
-      <c r="AV19" s="34" t="s">
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="AW19" s="68" t="s">
+      <c r="AX19" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="AX19" s="68" t="s">
+      <c r="AY19" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="AY19" s="34" t="s">
+      <c r="AZ19" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AZ19" s="68" t="s">
+      <c r="BA19" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="BA19" s="13"/>
       <c r="BB19" s="13"/>
       <c r="BC19" s="13"/>
       <c r="BD19" s="13"/>
@@ -33442,8 +33922,10 @@
       <c r="BR19" s="13"/>
       <c r="BS19" s="13"/>
       <c r="BT19" s="13"/>
+      <c r="BU19" s="13"/>
+      <c r="BV19" s="13"/>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -33496,7 +33978,7 @@
       <c r="AF20" s="47"/>
       <c r="AG20" s="47"/>
       <c r="AH20" s="47"/>
-      <c r="AI20" s="13"/>
+      <c r="AI20" s="47"/>
       <c r="AJ20" s="13"/>
       <c r="AK20" s="13"/>
       <c r="AL20" s="13"/>
@@ -33504,31 +33986,31 @@
       <c r="AN20" s="13"/>
       <c r="AO20" s="13"/>
       <c r="AP20" s="13"/>
-      <c r="AQ20" s="13" t="s">
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="AR20" s="13" t="s">
+      <c r="AS20" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
       <c r="AU20" s="13"/>
-      <c r="AV20" s="34" t="s">
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="AW20" s="68" t="s">
+      <c r="AX20" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="AX20" s="68" t="s">
+      <c r="AY20" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="AY20" s="34" t="s">
+      <c r="AZ20" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="AZ20" s="68" t="s">
+      <c r="BA20" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="BA20" s="13"/>
       <c r="BB20" s="13"/>
       <c r="BC20" s="13"/>
       <c r="BD20" s="13"/>
@@ -33548,8 +34030,10 @@
       <c r="BR20" s="13"/>
       <c r="BS20" s="13"/>
       <c r="BT20" s="13"/>
+      <c r="BU20" s="13"/>
+      <c r="BV20" s="13"/>
     </row>
-    <row r="21" spans="1:72" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:74" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -33621,14 +34105,14 @@
       <c r="AM21" s="61"/>
       <c r="AN21" s="61"/>
       <c r="AO21" s="61"/>
-      <c r="AP21" s="13"/>
+      <c r="AP21" s="61"/>
       <c r="AQ21" s="13"/>
       <c r="AR21" s="13"/>
       <c r="AS21" s="13"/>
-      <c r="AT21" s="13" t="s">
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AU21" s="13"/>
       <c r="AV21" s="13"/>
       <c r="AW21" s="13"/>
       <c r="AX21" s="13"/>
@@ -33654,8 +34138,10 @@
       <c r="BR21" s="13"/>
       <c r="BS21" s="13"/>
       <c r="BT21" s="13"/>
+      <c r="BU21" s="13"/>
+      <c r="BV21" s="13"/>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -33735,18 +34221,18 @@
       <c r="AS22" s="13"/>
       <c r="AT22" s="13"/>
       <c r="AU22" s="13"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="68" t="s">
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="34"/>
+      <c r="AX22" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="AX22" s="68" t="s">
+      <c r="AY22" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="AY22" s="34" t="s">
+      <c r="AZ22" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="13"/>
+      <c r="BA22" s="68"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="13"/>
       <c r="BD22" s="13"/>
@@ -33766,8 +34252,10 @@
       <c r="BR22" s="13"/>
       <c r="BS22" s="13"/>
       <c r="BT22" s="13"/>
+      <c r="BU22" s="13"/>
+      <c r="BV22" s="13"/>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -33822,20 +34310,20 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
-      <c r="AI23" s="61"/>
+      <c r="AI23" s="47"/>
       <c r="AJ23" s="61"/>
       <c r="AK23" s="61"/>
       <c r="AL23" s="61"/>
       <c r="AM23" s="61"/>
       <c r="AN23" s="61"/>
       <c r="AO23" s="61"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="61" t="s">
+      <c r="AP23" s="61"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AR23" s="61"/>
       <c r="AS23" s="61"/>
-      <c r="AT23" s="13"/>
+      <c r="AT23" s="61"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="13"/>
       <c r="AW23" s="13"/>
@@ -33862,8 +34350,10 @@
       <c r="BR23" s="13"/>
       <c r="BS23" s="13"/>
       <c r="BT23" s="13"/>
+      <c r="BU23" s="13"/>
+      <c r="BV23" s="13"/>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -33943,18 +34433,18 @@
       <c r="AS24" s="13"/>
       <c r="AT24" s="13"/>
       <c r="AU24" s="13"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="68" t="s">
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="AX24" s="68" t="s">
+      <c r="AY24" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="AY24" s="34" t="s">
+      <c r="AZ24" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="13"/>
+      <c r="BA24" s="68"/>
       <c r="BB24" s="13"/>
       <c r="BC24" s="13"/>
       <c r="BD24" s="13"/>
@@ -33974,8 +34464,10 @@
       <c r="BR24" s="13"/>
       <c r="BS24" s="13"/>
       <c r="BT24" s="13"/>
+      <c r="BU24" s="13"/>
+      <c r="BV24" s="13"/>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" s="87">
         <v>24</v>
       </c>
@@ -34034,7 +34526,7 @@
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="61"/>
-      <c r="Z25" s="47"/>
+      <c r="Z25" s="61"/>
       <c r="AA25" s="47"/>
       <c r="AB25" s="47"/>
       <c r="AC25" s="47"/>
@@ -34043,21 +34535,21 @@
       <c r="AF25" s="47"/>
       <c r="AG25" s="47"/>
       <c r="AH25" s="47"/>
-      <c r="AI25" s="61"/>
+      <c r="AI25" s="47"/>
       <c r="AJ25" s="61"/>
       <c r="AK25" s="61"/>
       <c r="AL25" s="61"/>
       <c r="AM25" s="61"/>
-      <c r="AN25" s="13"/>
+      <c r="AN25" s="61"/>
       <c r="AO25" s="13"/>
       <c r="AP25" s="13"/>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="13"/>
       <c r="AS25" s="13"/>
-      <c r="AT25" s="13" t="s">
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AU25" s="13"/>
       <c r="AV25" s="13"/>
       <c r="AW25" s="13"/>
       <c r="AX25" s="13"/>
@@ -34083,8 +34575,10 @@
       <c r="BR25" s="13"/>
       <c r="BS25" s="13"/>
       <c r="BT25" s="13"/>
+      <c r="BU25" s="13"/>
+      <c r="BV25" s="13"/>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -34139,14 +34633,14 @@
       <c r="AF26" s="47"/>
       <c r="AG26" s="47"/>
       <c r="AH26" s="47"/>
-      <c r="AI26" s="13"/>
+      <c r="AI26" s="47"/>
       <c r="AJ26" s="13"/>
       <c r="AK26" s="13"/>
       <c r="AL26" s="13"/>
-      <c r="AM26" s="13" t="s">
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="AN26" s="13"/>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
@@ -34154,12 +34648,12 @@
       <c r="AS26" s="13"/>
       <c r="AT26" s="13"/>
       <c r="AU26" s="13"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="68"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="34"/>
       <c r="AX26" s="68"/>
-      <c r="AY26" s="34"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="13"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="68"/>
       <c r="BB26" s="13"/>
       <c r="BC26" s="13"/>
       <c r="BD26" s="13"/>
@@ -34177,10 +34671,12 @@
       <c r="BP26" s="13"/>
       <c r="BQ26" s="13"/>
       <c r="BR26" s="13"/>
-      <c r="BS26" s="102"/>
-      <c r="BT26" s="13"/>
+      <c r="BS26" s="13"/>
+      <c r="BT26" s="102"/>
+      <c r="BU26" s="13"/>
+      <c r="BV26" s="13"/>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -34242,12 +34738,12 @@
       <c r="AS27" s="13"/>
       <c r="AT27" s="13"/>
       <c r="AU27" s="13"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="68"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="34"/>
       <c r="AX27" s="68"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="13"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="68"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="13"/>
       <c r="BD27" s="13"/>
@@ -34265,10 +34761,12 @@
       <c r="BP27" s="13"/>
       <c r="BQ27" s="13"/>
       <c r="BR27" s="13"/>
-      <c r="BS27" s="102"/>
-      <c r="BT27" s="13"/>
+      <c r="BS27" s="13"/>
+      <c r="BT27" s="102"/>
+      <c r="BU27" s="13"/>
+      <c r="BV27" s="13"/>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -34340,14 +34838,14 @@
       <c r="AM28" s="61"/>
       <c r="AN28" s="61"/>
       <c r="AO28" s="61"/>
-      <c r="AP28" s="13"/>
+      <c r="AP28" s="61"/>
       <c r="AQ28" s="13"/>
       <c r="AR28" s="13"/>
       <c r="AS28" s="13"/>
-      <c r="AT28" s="13" t="s">
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="AU28" s="13"/>
       <c r="AV28" s="13"/>
       <c r="AW28" s="13"/>
       <c r="AX28" s="13"/>
@@ -34371,10 +34869,12 @@
       <c r="BP28" s="13"/>
       <c r="BQ28" s="13"/>
       <c r="BR28" s="13"/>
-      <c r="BS28" s="102"/>
-      <c r="BT28" s="13"/>
+      <c r="BS28" s="13"/>
+      <c r="BT28" s="102"/>
+      <c r="BU28" s="13"/>
+      <c r="BV28" s="13"/>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -34433,18 +34933,18 @@
       <c r="AJ29" s="61"/>
       <c r="AK29" s="61"/>
       <c r="AL29" s="61"/>
-      <c r="AM29" s="61" t="s">
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="AN29" s="61" t="s">
+      <c r="AO29" s="61" t="s">
         <v>707</v>
       </c>
-      <c r="AO29" s="61"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="61"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="13"/>
       <c r="AR29" s="61"/>
       <c r="AS29" s="61"/>
-      <c r="AT29" s="13"/>
+      <c r="AT29" s="61"/>
       <c r="AU29" s="13"/>
       <c r="AV29" s="13"/>
       <c r="AW29" s="13"/>
@@ -34469,10 +34969,12 @@
       <c r="BP29" s="13"/>
       <c r="BQ29" s="13"/>
       <c r="BR29" s="13"/>
-      <c r="BS29" s="102"/>
-      <c r="BT29" s="13"/>
+      <c r="BS29" s="13"/>
+      <c r="BT29" s="102"/>
+      <c r="BU29" s="13"/>
+      <c r="BV29" s="13"/>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -34515,7 +35017,7 @@
         <v>723</v>
       </c>
       <c r="Z30" s="61"/>
-      <c r="AA30" s="50"/>
+      <c r="AA30" s="61"/>
       <c r="AB30" s="50"/>
       <c r="AC30" s="50"/>
       <c r="AD30" s="50"/>
@@ -34523,18 +35025,18 @@
       <c r="AF30" s="50"/>
       <c r="AG30" s="50"/>
       <c r="AH30" s="50"/>
-      <c r="AI30" s="61"/>
+      <c r="AI30" s="50"/>
       <c r="AJ30" s="61"/>
       <c r="AK30" s="61"/>
       <c r="AL30" s="61"/>
       <c r="AM30" s="61"/>
       <c r="AN30" s="61"/>
       <c r="AO30" s="61"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="61"/>
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="13"/>
       <c r="AR30" s="61"/>
       <c r="AS30" s="61"/>
-      <c r="AT30" s="13"/>
+      <c r="AT30" s="61"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="13"/>
       <c r="AW30" s="13"/>
@@ -34559,10 +35061,12 @@
       <c r="BP30" s="13"/>
       <c r="BQ30" s="13"/>
       <c r="BR30" s="13"/>
-      <c r="BS30" s="102"/>
-      <c r="BT30" s="13"/>
+      <c r="BS30" s="13"/>
+      <c r="BT30" s="102"/>
+      <c r="BU30" s="13"/>
+      <c r="BV30" s="13"/>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -34604,35 +35108,35 @@
       <c r="Y31" s="61" t="s">
         <v>723</v>
       </c>
-      <c r="Z31" s="61" t="s">
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61" t="s">
         <v>700</v>
       </c>
-      <c r="AA31" s="50" t="s">
+      <c r="AB31" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="50" t="s">
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="AD31" s="50"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
       <c r="AG31" s="50"/>
-      <c r="AH31" s="50" t="s">
+      <c r="AH31" s="50"/>
+      <c r="AI31" s="50" t="s">
         <v>702</v>
       </c>
-      <c r="AI31" s="61"/>
       <c r="AJ31" s="61"/>
       <c r="AK31" s="61"/>
       <c r="AL31" s="61"/>
       <c r="AM31" s="61"/>
       <c r="AN31" s="61"/>
       <c r="AO31" s="61"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="13"/>
       <c r="AR31" s="61"/>
       <c r="AS31" s="61"/>
-      <c r="AT31" s="13"/>
+      <c r="AT31" s="61"/>
       <c r="AU31" s="13"/>
       <c r="AV31" s="13"/>
       <c r="AW31" s="13"/>
@@ -34657,10 +35161,12 @@
       <c r="BP31" s="13"/>
       <c r="BQ31" s="13"/>
       <c r="BR31" s="13"/>
-      <c r="BS31" s="102"/>
-      <c r="BT31" s="13"/>
+      <c r="BS31" s="13"/>
+      <c r="BT31" s="102"/>
+      <c r="BU31" s="13"/>
+      <c r="BV31" s="13"/>
     </row>
-    <row r="32" spans="1:72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -34702,37 +35208,37 @@
       <c r="Y32" s="50" t="s">
         <v>726</v>
       </c>
-      <c r="Z32" s="61" t="s">
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="61" t="s">
         <v>700</v>
       </c>
-      <c r="AA32" s="50" t="s">
+      <c r="AB32" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="AB32" s="50"/>
-      <c r="AC32" s="50" t="s">
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="AD32" s="50"/>
       <c r="AE32" s="50"/>
       <c r="AF32" s="50"/>
       <c r="AG32" s="50"/>
-      <c r="AH32" s="50" t="s">
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50" t="s">
         <v>703</v>
       </c>
-      <c r="AI32" s="61"/>
       <c r="AJ32" s="61"/>
       <c r="AK32" s="61"/>
       <c r="AL32" s="61"/>
       <c r="AM32" s="61"/>
       <c r="AN32" s="61"/>
-      <c r="AO32" s="99" t="s">
+      <c r="AO32" s="61"/>
+      <c r="AP32" s="99" t="s">
         <v>708</v>
       </c>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="61"/>
+      <c r="AQ32" s="13"/>
       <c r="AR32" s="61"/>
       <c r="AS32" s="61"/>
-      <c r="AT32" s="13"/>
+      <c r="AT32" s="61"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="13"/>
       <c r="AW32" s="13"/>
@@ -34757,10 +35263,12 @@
       <c r="BP32" s="13"/>
       <c r="BQ32" s="13"/>
       <c r="BR32" s="13"/>
-      <c r="BS32" s="102"/>
-      <c r="BT32" s="13"/>
+      <c r="BS32" s="13"/>
+      <c r="BT32" s="102"/>
+      <c r="BU32" s="13"/>
+      <c r="BV32" s="13"/>
     </row>
-    <row r="33" spans="1:72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101">
         <v>31</v>
       </c>
@@ -34802,8 +35310,8 @@
       <c r="Y33" s="96" t="s">
         <v>728</v>
       </c>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="97"/>
       <c r="AB33" s="96"/>
       <c r="AC33" s="96"/>
       <c r="AD33" s="96"/>
@@ -34811,18 +35319,18 @@
       <c r="AF33" s="96"/>
       <c r="AG33" s="96"/>
       <c r="AH33" s="96"/>
-      <c r="AI33" s="97"/>
+      <c r="AI33" s="96"/>
       <c r="AJ33" s="97"/>
       <c r="AK33" s="97"/>
       <c r="AL33" s="97"/>
       <c r="AM33" s="97"/>
       <c r="AN33" s="97"/>
-      <c r="AO33" s="100"/>
-      <c r="AP33" s="101"/>
-      <c r="AQ33" s="97"/>
+      <c r="AO33" s="97"/>
+      <c r="AP33" s="100"/>
+      <c r="AQ33" s="101"/>
       <c r="AR33" s="97"/>
       <c r="AS33" s="97"/>
-      <c r="AT33" s="101"/>
+      <c r="AT33" s="97"/>
       <c r="AU33" s="101"/>
       <c r="AV33" s="101"/>
       <c r="AW33" s="101"/>
@@ -34847,10 +35355,12 @@
       <c r="BP33" s="101"/>
       <c r="BQ33" s="101"/>
       <c r="BR33" s="101"/>
-      <c r="BS33" s="105"/>
-      <c r="BT33" s="101"/>
+      <c r="BS33" s="101"/>
+      <c r="BT33" s="105"/>
+      <c r="BU33" s="101"/>
+      <c r="BV33" s="101"/>
     </row>
-    <row r="34" spans="1:72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -34890,45 +35400,45 @@
       <c r="W34" s="61"/>
       <c r="X34" s="61"/>
       <c r="Y34" s="50"/>
-      <c r="Z34" s="61" t="s">
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="61" t="s">
         <v>700</v>
       </c>
-      <c r="AA34" s="50" t="s">
+      <c r="AB34" s="50" t="s">
         <v>768</v>
       </c>
-      <c r="AB34" s="50" t="s">
+      <c r="AC34" s="50" t="s">
         <v>772</v>
       </c>
-      <c r="AC34" s="50" t="s">
+      <c r="AD34" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="AD34" s="50" t="s">
+      <c r="AE34" s="50" t="s">
         <v>770</v>
       </c>
-      <c r="AE34" s="50" t="s">
+      <c r="AF34" s="50" t="s">
         <v>776</v>
       </c>
-      <c r="AF34" s="50" t="s">
+      <c r="AG34" s="50" t="s">
         <v>777</v>
       </c>
-      <c r="AG34" s="50" t="s">
+      <c r="AH34" s="50" t="s">
         <v>778</v>
       </c>
-      <c r="AH34" s="50" t="s">
+      <c r="AI34" s="50" t="s">
         <v>771</v>
       </c>
-      <c r="AI34" s="61"/>
       <c r="AJ34" s="61"/>
       <c r="AK34" s="61"/>
       <c r="AL34" s="61"/>
       <c r="AM34" s="61"/>
       <c r="AN34" s="61"/>
-      <c r="AO34" s="99"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="61"/>
+      <c r="AO34" s="61"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="13"/>
       <c r="AR34" s="61"/>
       <c r="AS34" s="61"/>
-      <c r="AT34" s="13"/>
+      <c r="AT34" s="61"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
       <c r="AW34" s="13"/>
@@ -34955,10 +35465,110 @@
       <c r="BR34" s="13"/>
       <c r="BS34" s="13"/>
       <c r="BT34" s="13"/>
+      <c r="BU34" s="13"/>
+      <c r="BV34" s="13"/>
+    </row>
+    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>932</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="47" t="s">
+        <v>933</v>
+      </c>
+      <c r="Z35" s="47" t="s">
+        <v>935</v>
+      </c>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13"/>
+      <c r="BE35" s="13"/>
+      <c r="BF35" s="13"/>
+      <c r="BG35" s="13"/>
+      <c r="BH35" s="13"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="13"/>
+      <c r="BK35" s="13"/>
+      <c r="BL35" s="13"/>
+      <c r="BM35" s="13"/>
+      <c r="BN35" s="13"/>
+      <c r="BO35" s="13"/>
+      <c r="BP35" s="13"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="13"/>
+      <c r="BS35" s="13"/>
+      <c r="BT35" s="13"/>
+      <c r="BU35" s="13"/>
+      <c r="BV35" s="47" t="s">
+        <v>938</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BM15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
+    <hyperlink ref="BN15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
     <hyperlink ref="K16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{FF16DD97-346A-4225-BC3D-2B29DC0692AC}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{ACF13532-E1B9-4113-A37E-4DB2B94E9569}"/>
@@ -35000,26 +35610,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -35597,21 +36207,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35849,19 +36459,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics-CRM-Cloud Apr18\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A47D9-2DA5-421E-9107-CB5F5AC35612}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4057BA-C65D-4F2D-BC3F-7D993DEE3DD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="972">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2881,6 +2881,81 @@
   </si>
   <si>
     <t>2022_04_21_06_51_09</t>
+  </si>
+  <si>
+    <t>TFS ID_8905:Cloud: Verify DEA expiration date is displayed in the search result screen</t>
+  </si>
+  <si>
+    <t>TFS ID_8910_Cloud: Validate Check Digit on Account Number</t>
+  </si>
+  <si>
+    <t>TFS ID_8903_Cloud: Verify a new field "Calculated Name" in Account Number Entity</t>
+  </si>
+  <si>
+    <t>TFS ID_8909_Cloud: Verify if HIN accepts Characters, Numbers, Alphanumeric values but it should be 9 char in length</t>
+  </si>
+  <si>
+    <t>TFS ID_8907_Cloud: Verify if DEA and HIN numbers are displayed in the member form</t>
+  </si>
+  <si>
+    <t>TFS ID_8908_Cloud: Verify DEA and HIN number field are available in the Accounts view</t>
+  </si>
+  <si>
+    <t>TFS ID_8978_Cloud: Verify all type of Account Rep types</t>
+  </si>
+  <si>
+    <t>TFS ID_8997_Automation_Cloud: Verify user should not be allowed to change the account status to Active manually when Premier End date is present</t>
+  </si>
+  <si>
+    <t>AI3630</t>
+  </si>
+  <si>
+    <t>CheckDigitonAccountNumber</t>
+  </si>
+  <si>
+    <t>2000004929</t>
+  </si>
+  <si>
+    <t>CheckCalculatedName</t>
+  </si>
+  <si>
+    <t>CheckHIN</t>
+  </si>
+  <si>
+    <t>VerifyDEAinMemberForm</t>
+  </si>
+  <si>
+    <t>1000172270</t>
+  </si>
+  <si>
+    <t>FD1950092</t>
+  </si>
+  <si>
+    <t>AB2276990</t>
+  </si>
+  <si>
+    <t>6HK7P3603</t>
+  </si>
+  <si>
+    <t>AB26769989876</t>
+  </si>
+  <si>
+    <t>AB3456</t>
+  </si>
+  <si>
+    <t>816440160</t>
+  </si>
+  <si>
+    <t>vf7672442</t>
+  </si>
+  <si>
+    <t>837295004</t>
+  </si>
+  <si>
+    <t>MP2448555</t>
+  </si>
+  <si>
+    <t>8089Q8N00</t>
   </si>
 </sst>
 </file>
@@ -3200,7 +3275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3401,6 +3476,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3722,10 +3799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P175"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8522,9 +8599,193 @@
       <c r="J175" s="13"/>
       <c r="K175" s="13"/>
     </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="117">
+        <v>174</v>
+      </c>
+      <c r="B176" s="116" t="s">
+        <v>947</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G176" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="17">
+        <v>175</v>
+      </c>
+      <c r="B177" s="116" t="s">
+        <v>948</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G177" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="17">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G178" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="117">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G179" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="17">
+        <v>178</v>
+      </c>
+      <c r="B180" s="116" t="s">
+        <v>951</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G180" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="17">
+        <v>179</v>
+      </c>
+      <c r="B181" s="116" t="s">
+        <v>952</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D181" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G181" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="117">
+        <v>180</v>
+      </c>
+      <c r="B182" s="116" t="s">
+        <v>953</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G182" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="17">
+        <v>181</v>
+      </c>
+      <c r="B183" s="116" t="s">
+        <v>954</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G183" t="s">
+        <v>742</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C175" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C183" xr:uid="{C9334235-52FB-4F10-8331-5687DC05318C}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8618,10 +8879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EQ130"/>
+  <dimension ref="A1:EQ138"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31444,7 +31705,7 @@
       <c r="EJ128" s="15"/>
       <c r="EK128" s="90"/>
     </row>
-    <row r="129" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -31607,7 +31868,7 @@
       <c r="EJ129" s="15"/>
       <c r="EK129" s="15"/>
     </row>
-    <row r="130" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -31768,6 +32029,854 @@
       <c r="EJ130" s="15"/>
       <c r="EK130" s="15"/>
     </row>
+    <row r="131" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="116" t="s">
+        <v>947</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI131" s="81" t="s">
+        <v>955</v>
+      </c>
+      <c r="EA131" s="81" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="132" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A132" s="15">
+        <v>131</v>
+      </c>
+      <c r="B132" s="116" t="s">
+        <v>948</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="N132" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O132" s="33"/>
+      <c r="P132" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="R132" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="S132" s="15"/>
+      <c r="T132" s="15"/>
+      <c r="U132" s="15"/>
+      <c r="V132" s="15"/>
+      <c r="W132" s="15"/>
+      <c r="X132" s="15"/>
+      <c r="Y132" s="15"/>
+      <c r="Z132" s="15"/>
+      <c r="AA132" s="15"/>
+      <c r="AB132" s="15"/>
+      <c r="AC132" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD132" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE132" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF132" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG132" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH132" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI132" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AJ132" s="15"/>
+      <c r="AK132" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL132" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM132" s="34"/>
+      <c r="AN132" s="15"/>
+      <c r="AO132" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP132" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ132" s="15"/>
+      <c r="AR132" s="15"/>
+      <c r="AS132" s="15"/>
+      <c r="AT132" s="15"/>
+      <c r="AU132" s="15"/>
+      <c r="AV132" s="15"/>
+      <c r="AW132" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX132" s="15"/>
+      <c r="AY132" s="15"/>
+      <c r="AZ132" s="15"/>
+      <c r="BA132" s="15"/>
+      <c r="BB132" s="15"/>
+      <c r="BC132" s="15"/>
+      <c r="BD132" s="15"/>
+      <c r="BE132" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF132" s="15"/>
+      <c r="BG132" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH132" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI132" s="15"/>
+      <c r="BJ132" s="15"/>
+      <c r="BK132" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BL132" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM132" s="15"/>
+      <c r="BN132" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO132" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP132" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ132" s="34"/>
+      <c r="BR132" s="34"/>
+      <c r="BS132" s="34"/>
+      <c r="BT132" s="34"/>
+      <c r="BU132" s="34"/>
+      <c r="BV132" s="34"/>
+      <c r="BW132" s="34"/>
+      <c r="BX132" s="34"/>
+      <c r="BY132" s="34"/>
+      <c r="BZ132" s="34"/>
+      <c r="CA132" s="34"/>
+      <c r="CB132" s="34"/>
+      <c r="CC132" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CD132" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="CE132" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF132" s="15"/>
+      <c r="CG132" s="34"/>
+      <c r="CH132" s="34"/>
+      <c r="CI132" s="34"/>
+      <c r="CJ132" s="34"/>
+      <c r="CK132" s="34"/>
+      <c r="CL132" s="34"/>
+      <c r="CM132" s="34"/>
+      <c r="CN132" s="15"/>
+      <c r="CO132" s="15"/>
+      <c r="CP132" s="15"/>
+      <c r="CQ132" s="15"/>
+      <c r="CR132" s="15"/>
+      <c r="CS132" s="15"/>
+      <c r="CT132" s="15"/>
+      <c r="CU132" s="15"/>
+      <c r="CV132" s="15"/>
+      <c r="CW132" s="15"/>
+      <c r="CX132" s="15"/>
+      <c r="CY132" s="15"/>
+      <c r="CZ132" s="15"/>
+      <c r="DA132" s="15"/>
+      <c r="DB132" s="15"/>
+      <c r="DC132" s="15"/>
+      <c r="DD132" s="15"/>
+      <c r="DE132" s="15"/>
+      <c r="DF132" s="15"/>
+      <c r="DG132" s="15"/>
+      <c r="DH132" s="15"/>
+      <c r="DI132" s="15"/>
+      <c r="DJ132" s="15"/>
+      <c r="DK132" s="15"/>
+      <c r="DL132" s="15"/>
+      <c r="DM132" s="15"/>
+      <c r="DN132" s="15"/>
+      <c r="DO132" s="15"/>
+      <c r="DP132" s="15"/>
+      <c r="DQ132" s="15"/>
+      <c r="DR132" s="15"/>
+      <c r="DS132" s="15"/>
+      <c r="DT132" s="15"/>
+      <c r="DU132" s="15"/>
+      <c r="DV132" s="15"/>
+      <c r="DW132" s="15"/>
+      <c r="DX132" s="15"/>
+      <c r="EA132" s="81" t="s">
+        <v>963</v>
+      </c>
+      <c r="ED132" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="EK132" s="81" t="s">
+        <v>965</v>
+      </c>
+      <c r="EL132" s="81" t="s">
+        <v>965</v>
+      </c>
+      <c r="EM132" s="81" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="133" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A133" s="15">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="N133" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O133" s="33"/>
+      <c r="P133" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="R133" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="S133" s="15"/>
+      <c r="T133" s="15"/>
+      <c r="U133" s="15"/>
+      <c r="V133" s="15"/>
+      <c r="W133" s="15"/>
+      <c r="X133" s="15"/>
+      <c r="Y133" s="15"/>
+      <c r="Z133" s="15"/>
+      <c r="AA133" s="15"/>
+      <c r="AB133" s="15"/>
+      <c r="AC133" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD133" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE133" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF133" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG133" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI133" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AJ133" s="15"/>
+      <c r="AK133" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL133" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM133" s="34"/>
+      <c r="AN133" s="15"/>
+      <c r="AO133" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP133" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ133" s="15"/>
+      <c r="AR133" s="15"/>
+      <c r="AS133" s="15"/>
+      <c r="AT133" s="15"/>
+      <c r="AU133" s="15"/>
+      <c r="AV133" s="15"/>
+      <c r="AW133" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX133" s="15"/>
+      <c r="AY133" s="15"/>
+      <c r="AZ133" s="15"/>
+      <c r="BA133" s="15"/>
+      <c r="BB133" s="15"/>
+      <c r="BC133" s="15"/>
+      <c r="BD133" s="15"/>
+      <c r="BE133" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF133" s="15"/>
+      <c r="BG133" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH133" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI133" s="15"/>
+      <c r="BJ133" s="15"/>
+      <c r="BK133" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BL133" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM133" s="15"/>
+      <c r="BN133" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO133" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP133" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ133" s="34"/>
+      <c r="BR133" s="34"/>
+      <c r="BS133" s="34"/>
+      <c r="BT133" s="34"/>
+      <c r="BU133" s="34"/>
+      <c r="BV133" s="34"/>
+      <c r="BW133" s="34"/>
+      <c r="BX133" s="34"/>
+      <c r="BY133" s="34"/>
+      <c r="BZ133" s="34"/>
+      <c r="CA133" s="34"/>
+      <c r="CB133" s="34"/>
+      <c r="CC133" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CD133" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="CE133" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF133" s="15"/>
+      <c r="CG133" s="34"/>
+      <c r="CH133" s="34"/>
+      <c r="CI133" s="34"/>
+      <c r="CJ133" s="34"/>
+      <c r="CK133" s="34"/>
+      <c r="CL133" s="34"/>
+      <c r="CM133" s="34"/>
+      <c r="CN133" s="15"/>
+      <c r="CO133" s="15"/>
+      <c r="CP133" s="15"/>
+      <c r="CQ133" s="15"/>
+      <c r="CR133" s="15"/>
+      <c r="CS133" s="15"/>
+      <c r="CT133" s="15"/>
+      <c r="CU133" s="15"/>
+      <c r="CV133" s="15"/>
+      <c r="CW133" s="15"/>
+      <c r="CX133" s="15"/>
+      <c r="CY133" s="15"/>
+      <c r="CZ133" s="15"/>
+      <c r="DA133" s="15"/>
+      <c r="DB133" s="15"/>
+      <c r="DC133" s="15"/>
+      <c r="DD133" s="15"/>
+      <c r="DE133" s="15"/>
+      <c r="DF133" s="15"/>
+      <c r="DG133" s="15"/>
+      <c r="DH133" s="15"/>
+      <c r="DI133" s="15"/>
+      <c r="DJ133" s="15"/>
+      <c r="DK133" s="15"/>
+      <c r="DL133" s="15"/>
+      <c r="DM133" s="15"/>
+      <c r="DN133" s="15"/>
+      <c r="DO133" s="15"/>
+      <c r="DP133" s="15"/>
+      <c r="DQ133" s="15"/>
+      <c r="DR133" s="15"/>
+      <c r="DS133" s="15"/>
+      <c r="DT133" s="15"/>
+      <c r="DU133" s="15"/>
+      <c r="DV133" s="15"/>
+      <c r="DW133" s="15"/>
+      <c r="DX133" s="15"/>
+      <c r="EL133" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="134" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="N134" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O134" s="33"/>
+      <c r="P134" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="R134" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="S134" s="15"/>
+      <c r="T134" s="15"/>
+      <c r="U134" s="15"/>
+      <c r="V134" s="15"/>
+      <c r="W134" s="15"/>
+      <c r="X134" s="15"/>
+      <c r="Y134" s="15"/>
+      <c r="Z134" s="15"/>
+      <c r="AA134" s="15"/>
+      <c r="AB134" s="15"/>
+      <c r="AC134" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD134" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE134" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF134" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG134" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI134" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AJ134" s="15"/>
+      <c r="AK134" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL134" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM134" s="34"/>
+      <c r="AN134" s="15"/>
+      <c r="AO134" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP134" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ134" s="15"/>
+      <c r="AR134" s="15"/>
+      <c r="AS134" s="15"/>
+      <c r="AT134" s="15"/>
+      <c r="AU134" s="15"/>
+      <c r="AV134" s="15"/>
+      <c r="AW134" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX134" s="15"/>
+      <c r="AY134" s="15"/>
+      <c r="AZ134" s="15"/>
+      <c r="BA134" s="15"/>
+      <c r="BB134" s="15"/>
+      <c r="BC134" s="15"/>
+      <c r="BD134" s="15"/>
+      <c r="BE134" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF134" s="15"/>
+      <c r="BG134" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH134" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI134" s="15"/>
+      <c r="BJ134" s="15"/>
+      <c r="BK134" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BL134" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM134" s="15"/>
+      <c r="BN134" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO134" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP134" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ134" s="34"/>
+      <c r="BR134" s="34"/>
+      <c r="BS134" s="34"/>
+      <c r="BT134" s="34"/>
+      <c r="BU134" s="34"/>
+      <c r="BV134" s="34"/>
+      <c r="BW134" s="34"/>
+      <c r="BX134" s="34"/>
+      <c r="BY134" s="34"/>
+      <c r="BZ134" s="34"/>
+      <c r="CA134" s="34"/>
+      <c r="CB134" s="34"/>
+      <c r="CC134" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CD134" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="CE134" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF134" s="15"/>
+      <c r="CG134" s="34"/>
+      <c r="CH134" s="34"/>
+      <c r="CI134" s="34"/>
+      <c r="CJ134" s="34"/>
+      <c r="CK134" s="34"/>
+      <c r="CL134" s="34"/>
+      <c r="CM134" s="34"/>
+      <c r="CN134" s="15"/>
+      <c r="CO134" s="15"/>
+      <c r="CP134" s="15"/>
+      <c r="CQ134" s="15"/>
+      <c r="CR134" s="15"/>
+      <c r="CS134" s="15"/>
+      <c r="CT134" s="15"/>
+      <c r="CU134" s="15"/>
+      <c r="CV134" s="15"/>
+      <c r="CW134" s="15"/>
+      <c r="CX134" s="15"/>
+      <c r="CY134" s="15"/>
+      <c r="CZ134" s="15"/>
+      <c r="DA134" s="15"/>
+      <c r="DB134" s="15"/>
+      <c r="DC134" s="15"/>
+      <c r="DD134" s="15"/>
+      <c r="DE134" s="15"/>
+      <c r="DF134" s="15"/>
+      <c r="DG134" s="15"/>
+      <c r="DH134" s="15"/>
+      <c r="DI134" s="15"/>
+      <c r="DJ134" s="15"/>
+      <c r="DK134" s="15"/>
+      <c r="DL134" s="15"/>
+      <c r="DM134" s="15"/>
+      <c r="DN134" s="15"/>
+      <c r="DO134" s="15"/>
+      <c r="DP134" s="15"/>
+      <c r="DQ134" s="15"/>
+      <c r="DR134" s="15"/>
+      <c r="DS134" s="15"/>
+      <c r="DT134" s="15"/>
+      <c r="DU134" s="15"/>
+      <c r="DV134" s="15"/>
+      <c r="DW134" s="15"/>
+      <c r="DX134" s="15"/>
+      <c r="ED134" t="s">
+        <v>967</v>
+      </c>
+      <c r="EL134" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="135" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A135" s="15">
+        <v>134</v>
+      </c>
+      <c r="B135" s="116" t="s">
+        <v>951</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="N135" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O135" s="33"/>
+      <c r="P135" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="R135" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+      <c r="U135" s="15"/>
+      <c r="V135" s="15"/>
+      <c r="W135" s="15"/>
+      <c r="X135" s="15"/>
+      <c r="Y135" s="15"/>
+      <c r="Z135" s="15"/>
+      <c r="AA135" s="15"/>
+      <c r="AB135" s="15"/>
+      <c r="AC135" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD135" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE135" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF135" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG135" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH135" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI135" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AJ135" s="15"/>
+      <c r="AK135" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL135" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM135" s="34"/>
+      <c r="AN135" s="15"/>
+      <c r="AO135" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP135" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ135" s="15"/>
+      <c r="AR135" s="15"/>
+      <c r="AS135" s="15"/>
+      <c r="AT135" s="15"/>
+      <c r="AU135" s="15"/>
+      <c r="AV135" s="15"/>
+      <c r="AW135" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX135" s="15"/>
+      <c r="AY135" s="15"/>
+      <c r="AZ135" s="15"/>
+      <c r="BA135" s="15"/>
+      <c r="BB135" s="15"/>
+      <c r="BC135" s="15"/>
+      <c r="BD135" s="15"/>
+      <c r="BE135" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF135" s="15"/>
+      <c r="BG135" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH135" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI135" s="15"/>
+      <c r="BJ135" s="15"/>
+      <c r="BK135" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BL135" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM135" s="15"/>
+      <c r="BN135" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO135" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP135" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ135" s="34"/>
+      <c r="BR135" s="34"/>
+      <c r="BS135" s="34"/>
+      <c r="BT135" s="34"/>
+      <c r="BU135" s="34"/>
+      <c r="BV135" s="34"/>
+      <c r="BW135" s="34"/>
+      <c r="BX135" s="34"/>
+      <c r="BY135" s="34"/>
+      <c r="BZ135" s="34"/>
+      <c r="CA135" s="34"/>
+      <c r="CB135" s="34"/>
+      <c r="CC135" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CD135" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="CE135" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="CF135" s="15"/>
+      <c r="CG135" s="34"/>
+      <c r="CH135" s="34"/>
+      <c r="CI135" s="34"/>
+      <c r="CJ135" s="34"/>
+      <c r="CK135" s="34"/>
+      <c r="CL135" s="34"/>
+      <c r="CM135" s="34"/>
+      <c r="CN135" s="15"/>
+      <c r="CO135" s="15"/>
+      <c r="CP135" s="15"/>
+      <c r="CQ135" s="15"/>
+      <c r="CR135" s="15"/>
+      <c r="CS135" s="15"/>
+      <c r="CT135" s="15"/>
+      <c r="CU135" s="15"/>
+      <c r="CV135" s="15"/>
+      <c r="CW135" s="15"/>
+      <c r="CX135" s="15"/>
+      <c r="CY135" s="15"/>
+      <c r="CZ135" s="15"/>
+      <c r="DA135" s="15"/>
+      <c r="DB135" s="15"/>
+      <c r="DC135" s="15"/>
+      <c r="DD135" s="15"/>
+      <c r="DE135" s="15"/>
+      <c r="DF135" s="15"/>
+      <c r="DG135" s="15"/>
+      <c r="DH135" s="15"/>
+      <c r="DI135" s="15"/>
+      <c r="DJ135" s="15"/>
+      <c r="DK135" s="15"/>
+      <c r="DL135" s="15"/>
+      <c r="DM135" s="15"/>
+      <c r="DN135" s="15"/>
+      <c r="DO135" s="15"/>
+      <c r="DP135" s="15"/>
+      <c r="DQ135" s="15"/>
+      <c r="DR135" s="15"/>
+      <c r="DS135" s="15"/>
+      <c r="DT135" s="15"/>
+      <c r="DU135" s="15"/>
+      <c r="DV135" s="15"/>
+      <c r="DW135" s="15"/>
+      <c r="DX135" s="15"/>
+      <c r="EA135" t="s">
+        <v>968</v>
+      </c>
+      <c r="ED135" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="136" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A136" s="15">
+        <v>135</v>
+      </c>
+      <c r="B136" s="116" t="s">
+        <v>952</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA136" s="81" t="s">
+        <v>970</v>
+      </c>
+      <c r="ED136" s="81" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="137" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="116" t="s">
+        <v>953</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI137" s="36" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="138" spans="1:143" x14ac:dyDescent="0.25">
+      <c r="A138" s="15">
+        <v>137</v>
+      </c>
+      <c r="B138" s="116" t="s">
+        <v>954</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="81" t="s">
+        <v>961</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -31848,9 +32957,17 @@
     <hyperlink ref="DS21" r:id="rId75" xr:uid="{16A04B90-4C95-42FB-B108-D3A9617D5B2D}"/>
     <hyperlink ref="C128" r:id="rId76" xr:uid="{D5FAB0B7-042C-4705-9759-A05346C53411}"/>
     <hyperlink ref="E129" r:id="rId77" xr:uid="{C7344BEE-CAF7-4A3C-9480-37D7D1C32698}"/>
+    <hyperlink ref="C131" r:id="rId78" xr:uid="{A9A4A3DD-D4F8-4698-A8C7-A99B7402260C}"/>
+    <hyperlink ref="C132" r:id="rId79" xr:uid="{52562B6B-518D-4429-96DE-0623B77C68F7}"/>
+    <hyperlink ref="C133" r:id="rId80" xr:uid="{829EADEC-AD0B-4909-8DEB-DC7FC479F4E2}"/>
+    <hyperlink ref="C134" r:id="rId81" xr:uid="{967D73DA-2441-4C15-814F-1257FA9B4B56}"/>
+    <hyperlink ref="C135" r:id="rId82" xr:uid="{A8767F48-A8F6-4365-9D1B-F2D4D1235C56}"/>
+    <hyperlink ref="C136" r:id="rId83" xr:uid="{8D946F3A-D1F9-4D66-ABC7-AF602F3A9C3E}"/>
+    <hyperlink ref="C137" r:id="rId84" xr:uid="{0432B6A4-F0FA-48FB-B674-2829283EAB86}"/>
+    <hyperlink ref="C138" r:id="rId85" xr:uid="{DDF07B09-3B7C-4DAE-9733-5728B1D719AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 
@@ -36397,24 +37514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -36648,25 +37747,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36684,4 +37783,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4057BA-C65D-4F2D-BC3F-7D993DEE3DD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F11938-2F0B-4950-A993-AB30DE78E298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="994">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2835,127 +2835,193 @@
     <t>K B Pizza, Inc</t>
   </si>
   <si>
+    <t>TFS ID_10662:Cloud:Verify whether user able to add same "Federal Tax ID" on different "Supplier" ,if they have the same Top Parent.</t>
+  </si>
+  <si>
+    <t>2000145121</t>
+  </si>
+  <si>
+    <t>crmNumberInput1</t>
+  </si>
+  <si>
+    <t>2000146465</t>
+  </si>
+  <si>
+    <t>Ecolab Inc</t>
+  </si>
+  <si>
+    <t>Ecolab Pest</t>
+  </si>
+  <si>
+    <t>587630147</t>
+  </si>
+  <si>
+    <t>2000512141</t>
+  </si>
+  <si>
+    <t>TFS ID_10664:Cloud:Verify whether user able to add same "Federal Tax ID" on different "Member"  accounts</t>
+  </si>
+  <si>
+    <t>2000035546</t>
+  </si>
+  <si>
+    <t>2000098640</t>
+  </si>
+  <si>
+    <t>Diagnostic Laboratories &amp; Radiology</t>
+  </si>
+  <si>
+    <t>IOR Partners, LLC</t>
+  </si>
+  <si>
+    <t>471025981</t>
+  </si>
+  <si>
+    <t>TFS ID_8905:Cloud: Verify DEA expiration date is displayed in the search result screen</t>
+  </si>
+  <si>
+    <t>TFS ID_8910_Cloud: Validate Check Digit on Account Number</t>
+  </si>
+  <si>
+    <t>TFS ID_8903_Cloud: Verify a new field "Calculated Name" in Account Number Entity</t>
+  </si>
+  <si>
+    <t>TFS ID_8909_Cloud: Verify if HIN accepts Characters, Numbers, Alphanumeric values but it should be 9 char in length</t>
+  </si>
+  <si>
+    <t>TFS ID_8907_Cloud: Verify if DEA and HIN numbers are displayed in the member form</t>
+  </si>
+  <si>
+    <t>TFS ID_8908_Cloud: Verify DEA and HIN number field are available in the Accounts view</t>
+  </si>
+  <si>
+    <t>TFS ID_8978_Cloud: Verify all type of Account Rep types</t>
+  </si>
+  <si>
+    <t>TFS ID_8997_Automation_Cloud: Verify user should not be allowed to change the account status to Active manually when Premier End date is present</t>
+  </si>
+  <si>
+    <t>AI3630</t>
+  </si>
+  <si>
+    <t>CheckDigitonAccountNumber</t>
+  </si>
+  <si>
+    <t>2000004929</t>
+  </si>
+  <si>
+    <t>CheckCalculatedName</t>
+  </si>
+  <si>
+    <t>CheckHIN</t>
+  </si>
+  <si>
+    <t>VerifyDEAinMemberForm</t>
+  </si>
+  <si>
+    <t>1000172270</t>
+  </si>
+  <si>
+    <t>FD1950092</t>
+  </si>
+  <si>
+    <t>AB2276990</t>
+  </si>
+  <si>
+    <t>6HK7P3603</t>
+  </si>
+  <si>
+    <t>AB26769989876</t>
+  </si>
+  <si>
+    <t>AB3456</t>
+  </si>
+  <si>
+    <t>816440160</t>
+  </si>
+  <si>
+    <t>vf7672442</t>
+  </si>
+  <si>
+    <t>837295004</t>
+  </si>
+  <si>
+    <t>MP2448555</t>
+  </si>
+  <si>
+    <t>8089Q8N00</t>
+  </si>
+  <si>
+    <t>2022_04_28_03_07_30</t>
+  </si>
+  <si>
+    <t>2022_04_28_03_09_53</t>
+  </si>
+  <si>
+    <t>832157</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>TFS ID_10662:Cloud:Verify whether user able to add same "Federal Tax ID" on different "Supplier" ,if they have the same Top Parent.</t>
-  </si>
-  <si>
-    <t>2000145121</t>
-  </si>
-  <si>
-    <t>crmNumberInput1</t>
-  </si>
-  <si>
-    <t>2000146465</t>
-  </si>
-  <si>
-    <t>Ecolab Inc</t>
-  </si>
-  <si>
-    <t>Ecolab Pest</t>
-  </si>
-  <si>
-    <t>587630147</t>
-  </si>
-  <si>
-    <t>2000512141</t>
-  </si>
-  <si>
-    <t>TFS ID_10664:Cloud:Verify whether user able to add same "Federal Tax ID" on different "Member"  accounts</t>
-  </si>
-  <si>
-    <t>2000035546</t>
-  </si>
-  <si>
-    <t>2000098640</t>
-  </si>
-  <si>
-    <t>Diagnostic Laboratories &amp; Radiology</t>
-  </si>
-  <si>
-    <t>IOR Partners, LLC</t>
-  </si>
-  <si>
-    <t>471025981</t>
-  </si>
-  <si>
-    <t>2022_04_21_06_51_09</t>
-  </si>
-  <si>
-    <t>TFS ID_8905:Cloud: Verify DEA expiration date is displayed in the search result screen</t>
-  </si>
-  <si>
-    <t>TFS ID_8910_Cloud: Validate Check Digit on Account Number</t>
-  </si>
-  <si>
-    <t>TFS ID_8903_Cloud: Verify a new field "Calculated Name" in Account Number Entity</t>
-  </si>
-  <si>
-    <t>TFS ID_8909_Cloud: Verify if HIN accepts Characters, Numbers, Alphanumeric values but it should be 9 char in length</t>
-  </si>
-  <si>
-    <t>TFS ID_8907_Cloud: Verify if DEA and HIN numbers are displayed in the member form</t>
-  </si>
-  <si>
-    <t>TFS ID_8908_Cloud: Verify DEA and HIN number field are available in the Accounts view</t>
-  </si>
-  <si>
-    <t>TFS ID_8978_Cloud: Verify all type of Account Rep types</t>
-  </si>
-  <si>
-    <t>TFS ID_8997_Automation_Cloud: Verify user should not be allowed to change the account status to Active manually when Premier End date is present</t>
-  </si>
-  <si>
-    <t>AI3630</t>
-  </si>
-  <si>
-    <t>CheckDigitonAccountNumber</t>
-  </si>
-  <si>
-    <t>2000004929</t>
-  </si>
-  <si>
-    <t>CheckCalculatedName</t>
-  </si>
-  <si>
-    <t>CheckHIN</t>
-  </si>
-  <si>
-    <t>VerifyDEAinMemberForm</t>
-  </si>
-  <si>
-    <t>1000172270</t>
-  </si>
-  <si>
-    <t>FD1950092</t>
-  </si>
-  <si>
-    <t>AB2276990</t>
-  </si>
-  <si>
-    <t>6HK7P3603</t>
-  </si>
-  <si>
-    <t>AB26769989876</t>
-  </si>
-  <si>
-    <t>AB3456</t>
-  </si>
-  <si>
-    <t>816440160</t>
-  </si>
-  <si>
-    <t>vf7672442</t>
-  </si>
-  <si>
-    <t>837295004</t>
-  </si>
-  <si>
-    <t>MP2448555</t>
-  </si>
-  <si>
-    <t>8089Q8N00</t>
+    <t>7000568054</t>
+  </si>
+  <si>
+    <t>2022_04_29_09_29_04</t>
+  </si>
+  <si>
+    <t>2022_05_02_12_00_31</t>
+  </si>
+  <si>
+    <t>7000568057</t>
+  </si>
+  <si>
+    <t>2022_05_02_12_08_31</t>
+  </si>
+  <si>
+    <t>2022_05_02_02_55_21</t>
+  </si>
+  <si>
+    <t>2022_05_02_04_04_55</t>
+  </si>
+  <si>
+    <t>2022_05_02_04_07_59</t>
+  </si>
+  <si>
+    <t>2022_05_02_05_10_59</t>
+  </si>
+  <si>
+    <t>7000568079</t>
+  </si>
+  <si>
+    <t>2022_05_02_09_20_35</t>
+  </si>
+  <si>
+    <t>7000568080</t>
+  </si>
+  <si>
+    <t>2022_05_02_09_28_59</t>
+  </si>
+  <si>
+    <t>2022_05_04_11_02_26</t>
+  </si>
+  <si>
+    <t>2022_05_04_11_02_55</t>
+  </si>
+  <si>
+    <t>2022_05_04_11_23_41</t>
+  </si>
+  <si>
+    <t>2022_05_04_11_26_16</t>
+  </si>
+  <si>
+    <t>2022_05_04_11_32_01</t>
+  </si>
+  <si>
+    <t>2000512257</t>
+  </si>
+  <si>
+    <t>2022_05_04_11_40_52</t>
   </si>
 </sst>
 </file>
@@ -2965,7 +3031,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3115,8 +3181,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3163,6 +3236,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3275,7 +3354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3478,6 +3557,8 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3801,22 +3882,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3871,10 +3952,10 @@
         <v>40</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>265</v>
+        <v>921</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>742</v>
+        <v>970</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>917</v>
@@ -7318,13 +7399,13 @@
         <v>40</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>742</v>
+        <v>993</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>939</v>
+        <v>992</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
@@ -7362,7 +7443,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>35</v>
@@ -7374,10 +7455,10 @@
         <v>40</v>
       </c>
       <c r="F130" s="24" t="s">
-        <v>931</v>
+        <v>265</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>946</v>
+        <v>742</v>
       </c>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
@@ -8305,7 +8386,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C165" s="17" t="s">
         <v>35</v>
@@ -8344,12 +8425,14 @@
         <v>40</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="H166" s="27"/>
+        <v>976</v>
+      </c>
+      <c r="H166" s="27" t="s">
+        <v>325</v>
+      </c>
       <c r="I166" s="27"/>
       <c r="J166" s="27"/>
       <c r="K166" s="27"/>
@@ -8371,12 +8454,14 @@
         <v>40</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="H167" s="27"/>
+        <v>978</v>
+      </c>
+      <c r="H167" s="27" t="s">
+        <v>977</v>
+      </c>
       <c r="I167" s="27"/>
       <c r="J167" s="27"/>
       <c r="K167" s="27"/>
@@ -8398,12 +8483,14 @@
         <v>40</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="H168" s="27"/>
+        <v>975</v>
+      </c>
+      <c r="H168" s="27" t="s">
+        <v>974</v>
+      </c>
       <c r="I168" s="27"/>
       <c r="J168" s="27"/>
       <c r="K168" s="27"/>
@@ -8416,7 +8503,7 @@
         <v>422</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="29" t="s">
         <v>220</v>
@@ -8425,12 +8512,14 @@
         <v>40</v>
       </c>
       <c r="F169" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G169" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="H169" s="28"/>
+        <v>991</v>
+      </c>
+      <c r="H169" s="28" t="s">
+        <v>325</v>
+      </c>
       <c r="I169" s="28"/>
       <c r="J169" s="28"/>
       <c r="K169" s="28"/>
@@ -8451,13 +8540,15 @@
       <c r="E170" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F170" s="24" t="s">
-        <v>265</v>
+      <c r="F170" s="119" t="s">
+        <v>921</v>
       </c>
       <c r="G170" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="H170" s="28"/>
+        <v>982</v>
+      </c>
+      <c r="H170" s="28" t="s">
+        <v>325</v>
+      </c>
       <c r="I170" s="28"/>
       <c r="J170" s="28"/>
       <c r="K170" s="28"/>
@@ -8479,10 +8570,10 @@
         <v>40</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G171" s="28" t="s">
-        <v>742</v>
+        <v>980</v>
       </c>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
@@ -8506,10 +8597,10 @@
         <v>40</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G172" s="28" t="s">
-        <v>742</v>
+        <v>981</v>
       </c>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
@@ -8533,12 +8624,14 @@
         <v>40</v>
       </c>
       <c r="F173" s="24" t="s">
-        <v>265</v>
+        <v>973</v>
       </c>
       <c r="G173" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="H173" s="28"/>
+        <v>986</v>
+      </c>
+      <c r="H173" s="28" t="s">
+        <v>985</v>
+      </c>
       <c r="I173" s="28"/>
       <c r="J173" s="28"/>
       <c r="K173" s="28"/>
@@ -8547,7 +8640,7 @@
       <c r="A174" s="17">
         <v>172</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="118" t="s">
         <v>426</v>
       </c>
       <c r="C174" s="17" t="s">
@@ -8559,13 +8652,15 @@
       <c r="E174" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="24" t="s">
-        <v>265</v>
+      <c r="F174" s="119" t="s">
+        <v>921</v>
       </c>
       <c r="G174" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="H174" s="28"/>
+        <v>979</v>
+      </c>
+      <c r="H174" s="28" t="s">
+        <v>325</v>
+      </c>
       <c r="I174" s="28"/>
       <c r="J174" s="28"/>
       <c r="K174" s="28"/>
@@ -8578,7 +8673,7 @@
         <v>918</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="29" t="s">
         <v>2</v>
@@ -8587,7 +8682,7 @@
         <v>40</v>
       </c>
       <c r="F175" s="24" t="s">
-        <v>921</v>
+        <v>265</v>
       </c>
       <c r="G175" s="13" t="s">
         <v>922</v>
@@ -8604,7 +8699,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="116" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>35</v>
@@ -8627,7 +8722,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="116" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C177" s="17" t="s">
         <v>35</v>
@@ -8650,7 +8745,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C178" s="17" t="s">
         <v>35</v>
@@ -8673,7 +8768,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C179" s="17" t="s">
         <v>35</v>
@@ -8696,7 +8791,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="116" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C180" s="17" t="s">
         <v>35</v>
@@ -8719,7 +8814,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="116" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C181" s="17" t="s">
         <v>35</v>
@@ -8742,7 +8837,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="116" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C182" s="17" t="s">
         <v>35</v>
@@ -8765,7 +8860,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="116" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C183" s="17" t="s">
         <v>35</v>
@@ -8881,114 +8976,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EQ138"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
-    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
-    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="136" max="137" width="9.140625" style="2" collapsed="1"/>
-    <col min="138" max="138" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="139" max="140" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
+    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
+    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -9430,7 +9525,9 @@
         <v>0</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="36" t="s">
+        <v>570</v>
+      </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -9482,7 +9579,7 @@
         <v>7</v>
       </c>
       <c r="AI2" s="36" t="s">
-        <v>559</v>
+        <v>972</v>
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="34" t="s">
@@ -31873,7 +31970,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>298</v>
@@ -31883,15 +31980,15 @@
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="36" t="s">
+        <v>940</v>
+      </c>
+      <c r="G130" s="36" t="s">
         <v>941</v>
-      </c>
-      <c r="G130" s="36" t="s">
-        <v>942</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="15" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
@@ -31980,7 +32077,7 @@
       <c r="CQ130" s="15"/>
       <c r="CR130" s="15"/>
       <c r="CS130" s="15" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="CT130" s="15"/>
       <c r="CU130" s="15"/>
@@ -32020,7 +32117,7 @@
       <c r="EC130" s="15"/>
       <c r="ED130" s="15"/>
       <c r="EE130" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="EF130" s="15"/>
       <c r="EG130" s="92"/>
@@ -32034,7 +32131,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="116" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>298</v>
@@ -32043,10 +32140,10 @@
         <v>0</v>
       </c>
       <c r="AI131" s="81" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="EA131" s="81" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="132" spans="1:143" x14ac:dyDescent="0.25">
@@ -32054,7 +32151,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="116" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>298</v>
@@ -32063,7 +32160,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="N132" s="33" t="s">
         <v>154</v>
@@ -32107,7 +32204,7 @@
         <v>7</v>
       </c>
       <c r="AI132" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AJ132" s="15"/>
       <c r="AK132" s="34" t="s">
@@ -32235,19 +32332,19 @@
       <c r="DW132" s="15"/>
       <c r="DX132" s="15"/>
       <c r="EA132" s="81" t="s">
+        <v>961</v>
+      </c>
+      <c r="ED132" s="36" t="s">
+        <v>962</v>
+      </c>
+      <c r="EK132" s="81" t="s">
         <v>963</v>
       </c>
-      <c r="ED132" s="36" t="s">
-        <v>964</v>
-      </c>
-      <c r="EK132" s="81" t="s">
-        <v>965</v>
-      </c>
       <c r="EL132" s="81" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="EM132" s="81" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="133" spans="1:143" x14ac:dyDescent="0.25">
@@ -32255,7 +32352,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>298</v>
@@ -32264,7 +32361,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="N133" s="33" t="s">
         <v>154</v>
@@ -32308,7 +32405,7 @@
         <v>7</v>
       </c>
       <c r="AI133" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AJ133" s="15"/>
       <c r="AK133" s="34" t="s">
@@ -32436,7 +32533,7 @@
       <c r="DW133" s="15"/>
       <c r="DX133" s="15"/>
       <c r="EL133" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="134" spans="1:143" x14ac:dyDescent="0.25">
@@ -32444,7 +32541,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>298</v>
@@ -32453,7 +32550,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="N134" s="33" t="s">
         <v>154</v>
@@ -32497,7 +32594,7 @@
         <v>7</v>
       </c>
       <c r="AI134" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AJ134" s="15"/>
       <c r="AK134" s="34" t="s">
@@ -32625,10 +32722,10 @@
       <c r="DW134" s="15"/>
       <c r="DX134" s="15"/>
       <c r="ED134" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="EL134" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="135" spans="1:143" x14ac:dyDescent="0.25">
@@ -32636,7 +32733,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="116" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>298</v>
@@ -32645,7 +32742,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="N135" s="33" t="s">
         <v>154</v>
@@ -32689,7 +32786,7 @@
         <v>7</v>
       </c>
       <c r="AI135" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AJ135" s="15"/>
       <c r="AK135" s="34" t="s">
@@ -32817,10 +32914,10 @@
       <c r="DW135" s="15"/>
       <c r="DX135" s="15"/>
       <c r="EA135" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="ED135" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:143" x14ac:dyDescent="0.25">
@@ -32828,7 +32925,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="116" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C136" s="32" t="s">
         <v>298</v>
@@ -32837,10 +32934,10 @@
         <v>0</v>
       </c>
       <c r="EA136" s="81" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="ED136" s="81" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="137" spans="1:143" x14ac:dyDescent="0.25">
@@ -32848,7 +32945,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="116" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>298</v>
@@ -32857,7 +32954,7 @@
         <v>0</v>
       </c>
       <c r="AI137" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="138" spans="1:143" x14ac:dyDescent="0.25">
@@ -32865,7 +32962,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="116" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>298</v>
@@ -32874,7 +32971,7 @@
         <v>0</v>
       </c>
       <c r="F138" s="81" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -32979,69 +33076,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="35" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="54.42578125" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="29" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="27" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="54" max="55" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
@@ -33121,7 +33218,7 @@
         <v>70</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>697</v>
@@ -36780,7 +36877,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>321</v>
@@ -36799,7 +36896,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -36815,10 +36912,10 @@
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="47" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="Z35" s="47" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
@@ -36848,7 +36945,7 @@
       <c r="AZ35" s="13"/>
       <c r="BA35" s="13"/>
       <c r="BB35" s="13" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="BC35" s="13"/>
       <c r="BD35" s="13"/>
@@ -36870,7 +36967,7 @@
       <c r="BT35" s="13"/>
       <c r="BU35" s="13"/>
       <c r="BV35" s="47" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -36911,32 +37008,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -37514,6 +37611,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -37747,7 +37853,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -37756,16 +37862,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37785,7 +37890,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37793,12 +37898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF3584E-5743-4A50-BE37-CDA9B5197EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C63AFA-76CD-4F37-B709-F3FE265CF10E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="2" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="1096">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2886,15 +2886,6 @@
     <t>8089Q8N00</t>
   </si>
   <si>
-    <t>2022_05_04_12_51_00</t>
-  </si>
-  <si>
-    <t>2000512259</t>
-  </si>
-  <si>
-    <t>2022_05_04_01_00_28</t>
-  </si>
-  <si>
     <t>2022_05_04_01_43_56</t>
   </si>
   <si>
@@ -2952,12 +2943,6 @@
     <t>2022_05_05_03_04_06</t>
   </si>
   <si>
-    <t>2000512288</t>
-  </si>
-  <si>
-    <t>2022_05_05_03_12_57</t>
-  </si>
-  <si>
     <t>2022_05_05_04_32_32</t>
   </si>
   <si>
@@ -3195,9 +3180,6 @@
     <t>2022_05_06_11_51_28</t>
   </si>
   <si>
-    <t>2022_05_06_11_53_51</t>
-  </si>
-  <si>
     <t>2022_05_06_12_00_30</t>
   </si>
   <si>
@@ -3216,36 +3198,6 @@
     <t>2022_05_06_12_38_41</t>
   </si>
   <si>
-    <t>2022_05_06_12_42_02</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_47_55</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_50_52</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_52_51</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_55_30</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_03_15</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_09_12</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_14_07</t>
-  </si>
-  <si>
-    <t>2000512325</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_24_47</t>
-  </si>
-  <si>
     <t>2000512326</t>
   </si>
   <si>
@@ -3255,12 +3207,6 @@
     <t>2022_05_06_01_35_53</t>
   </si>
   <si>
-    <t>2022_05_06_01_38_40</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_41_10</t>
-  </si>
-  <si>
     <t>2000512327</t>
   </si>
   <si>
@@ -3304,6 +3250,84 @@
   </si>
   <si>
     <t>2022_05_06_06_03_59</t>
+  </si>
+  <si>
+    <t>2000512344</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>2022_05_06_07_41_12</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2022_05_06_09_22_25</t>
+  </si>
+  <si>
+    <t>2000512347</t>
+  </si>
+  <si>
+    <t>2022_05_06_09_28_51</t>
+  </si>
+  <si>
+    <t>2022_05_09_09_19_32</t>
+  </si>
+  <si>
+    <t>2022_05_09_09_43_33</t>
+  </si>
+  <si>
+    <t>2022_05_09_09_54_35</t>
+  </si>
+  <si>
+    <t>2022_05_09_10_05_07</t>
+  </si>
+  <si>
+    <t>2022_05_09_10_11_47</t>
+  </si>
+  <si>
+    <t>2022_05_09_10_19_35</t>
+  </si>
+  <si>
+    <t>2022_05_09_10_25_34</t>
+  </si>
+  <si>
+    <t>2022_05_09_11_07_17</t>
+  </si>
+  <si>
+    <t>2022_05_09_12_06_50</t>
+  </si>
+  <si>
+    <t>2000512362</t>
+  </si>
+  <si>
+    <t>2022_05_09_02_33_44</t>
+  </si>
+  <si>
+    <t>2022_05_09_03_49_51</t>
+  </si>
+  <si>
+    <t>2000512380</t>
+  </si>
+  <si>
+    <t>2022_05_09_06_33_22</t>
+  </si>
+  <si>
+    <t>Yankee Alliance, LLC</t>
+  </si>
+  <si>
+    <t>2000512381</t>
+  </si>
+  <si>
+    <t>2022_05_09_06_48_09</t>
+  </si>
+  <si>
+    <t>2000512382</t>
+  </si>
+  <si>
+    <t>2022_05_09_07_08_12</t>
   </si>
 </sst>
 </file>
@@ -4155,20 +4179,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4226,10 +4252,10 @@
         <v>265</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -4260,10 +4286,10 @@
         <v>265</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -4292,7 +4318,7 @@
         <v>265</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>324</v>
@@ -4321,10 +4347,10 @@
         <v>265</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -4350,7 +4376,7 @@
         <v>265</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4377,7 +4403,7 @@
         <v>265</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -4404,10 +4430,10 @@
         <v>265</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -4433,7 +4459,7 @@
         <v>265</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -4460,10 +4486,10 @@
         <v>265</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -4489,10 +4515,10 @@
         <v>265</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -4518,10 +4544,10 @@
         <v>265</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -4548,7 +4574,7 @@
         <v>265</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -4575,7 +4601,7 @@
         <v>265</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -4602,10 +4628,10 @@
         <v>265</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -4631,10 +4657,10 @@
         <v>265</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -4660,7 +4686,7 @@
         <v>265</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -4687,7 +4713,7 @@
         <v>265</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -4714,7 +4740,7 @@
         <v>265</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -4741,7 +4767,7 @@
         <v>265</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -4768,10 +4794,10 @@
         <v>265</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -4797,11 +4823,11 @@
         <v>265</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="25"/>
@@ -4826,7 +4852,7 @@
         <v>265</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -4853,7 +4879,7 @@
         <v>265</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -4880,7 +4906,7 @@
         <v>265</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -4907,7 +4933,7 @@
         <v>265</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -4934,7 +4960,7 @@
         <v>265</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -4961,7 +4987,7 @@
         <v>265</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -4988,7 +5014,7 @@
         <v>265</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -5015,7 +5041,7 @@
         <v>265</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -5042,10 +5068,10 @@
         <v>265</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -5071,10 +5097,10 @@
         <v>265</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
@@ -5100,7 +5126,7 @@
         <v>265</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5127,7 +5153,7 @@
         <v>265</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>324</v>
@@ -5156,7 +5182,7 @@
         <v>265</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5183,7 +5209,7 @@
         <v>265</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5210,7 +5236,7 @@
         <v>265</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5237,7 +5263,7 @@
         <v>265</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5264,7 +5290,7 @@
         <v>265</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5291,7 +5317,7 @@
         <v>265</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -5318,7 +5344,7 @@
         <v>265</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
@@ -5345,7 +5371,7 @@
         <v>265</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
@@ -5372,7 +5398,7 @@
         <v>265</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
@@ -5396,10 +5422,10 @@
         <v>40</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>1051</v>
+        <v>1077</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -5426,7 +5452,7 @@
         <v>265</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -5453,7 +5479,7 @@
         <v>265</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -5480,7 +5506,7 @@
         <v>265</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
@@ -5507,7 +5533,7 @@
         <v>265</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -5534,7 +5560,7 @@
         <v>265</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
@@ -5561,7 +5587,7 @@
         <v>265</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -5585,10 +5611,10 @@
         <v>40</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
@@ -5612,10 +5638,10 @@
         <v>40</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -5639,10 +5665,10 @@
         <v>40</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>1060</v>
+        <v>1084</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
@@ -5666,10 +5692,10 @@
         <v>40</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
@@ -5693,10 +5719,10 @@
         <v>40</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>1062</v>
+        <v>1081</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -5720,10 +5746,10 @@
         <v>40</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
@@ -5747,10 +5773,10 @@
         <v>40</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1064</v>
+        <v>1083</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -5774,10 +5800,10 @@
         <v>40</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
@@ -5801,13 +5827,13 @@
         <v>40</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
@@ -5833,10 +5859,10 @@
         <v>265</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
@@ -5862,7 +5888,7 @@
         <v>265</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
@@ -5886,10 +5912,10 @@
         <v>40</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>1071</v>
+        <v>1088</v>
       </c>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
@@ -5904,7 +5930,7 @@
         <v>573</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>2</v>
@@ -5913,12 +5939,14 @@
         <v>40</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>265</v>
+        <v>1073</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H63" s="24"/>
+        <v>1095</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>1094</v>
+      </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
@@ -5943,10 +5971,10 @@
         <v>265</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
@@ -5972,7 +6000,7 @@
         <v>265</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
@@ -5999,7 +6027,7 @@
         <v>265</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
@@ -6026,7 +6054,7 @@
         <v>265</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
@@ -6053,10 +6081,10 @@
         <v>265</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
@@ -6082,7 +6110,7 @@
         <v>265</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
@@ -6109,7 +6137,7 @@
         <v>265</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
@@ -6325,7 +6353,7 @@
         <v>265</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
@@ -7417,7 +7445,7 @@
         <v>265</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
@@ -7444,7 +7472,7 @@
         <v>265</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
@@ -7471,7 +7499,7 @@
         <v>265</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
@@ -7498,7 +7526,7 @@
         <v>265</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
@@ -7525,7 +7553,7 @@
         <v>265</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
@@ -7552,7 +7580,7 @@
         <v>265</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
@@ -7579,7 +7607,7 @@
         <v>265</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
@@ -7606,7 +7634,7 @@
         <v>265</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
@@ -7633,7 +7661,7 @@
         <v>265</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
@@ -7660,7 +7688,7 @@
         <v>265</v>
       </c>
       <c r="G127" s="111" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H127" s="111"/>
       <c r="I127" s="111"/>
@@ -7684,13 +7712,13 @@
         <v>40</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>971</v>
+        <v>1072</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>970</v>
+        <v>1070</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
@@ -7716,7 +7744,7 @@
         <v>265</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
@@ -7743,7 +7771,7 @@
         <v>265</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
@@ -8713,10 +8741,10 @@
         <v>265</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="I166" s="27"/>
       <c r="J166" s="27"/>
@@ -8742,10 +8770,10 @@
         <v>265</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="I167" s="27"/>
       <c r="J167" s="27"/>
@@ -8771,10 +8799,10 @@
         <v>265</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="H168" s="27" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="I168" s="27"/>
       <c r="J168" s="27"/>
@@ -8800,10 +8828,10 @@
         <v>265</v>
       </c>
       <c r="G169" s="28" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="H169" s="28" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="I169" s="28"/>
       <c r="J169" s="28"/>
@@ -8829,10 +8857,10 @@
         <v>265</v>
       </c>
       <c r="G170" s="28" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="H170" s="28" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="I170" s="28"/>
       <c r="J170" s="28"/>
@@ -8858,7 +8886,7 @@
         <v>265</v>
       </c>
       <c r="G171" s="28" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
@@ -8885,7 +8913,7 @@
         <v>265</v>
       </c>
       <c r="G172" s="28" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
@@ -8912,10 +8940,10 @@
         <v>265</v>
       </c>
       <c r="G173" s="28" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="H173" s="28" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="I173" s="28"/>
       <c r="J173" s="28"/>
@@ -8941,10 +8969,10 @@
         <v>265</v>
       </c>
       <c r="G174" s="28" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="H174" s="28" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="I174" s="28"/>
       <c r="J174" s="28"/>
@@ -8996,10 +9024,10 @@
         <v>40</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>265</v>
+        <v>1071</v>
       </c>
       <c r="G176" t="s">
-        <v>948</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -9019,13 +9047,13 @@
         <v>40</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>265</v>
+        <v>1073</v>
       </c>
       <c r="G177" t="s">
-        <v>950</v>
+        <v>1076</v>
       </c>
       <c r="H177" t="s">
-        <v>949</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -9048,10 +9076,10 @@
         <v>265</v>
       </c>
       <c r="G178" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="H178" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -9074,10 +9102,10 @@
         <v>265</v>
       </c>
       <c r="G179" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="H179" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -9100,10 +9128,10 @@
         <v>265</v>
       </c>
       <c r="G180" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="H180" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -9126,7 +9154,7 @@
         <v>265</v>
       </c>
       <c r="G181" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -9149,7 +9177,7 @@
         <v>265</v>
       </c>
       <c r="G182" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -9172,7 +9200,7 @@
         <v>265</v>
       </c>
       <c r="G183" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -9273,114 +9301,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EQ138"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CG1" sqref="CG1"/>
+    <sheetView tabSelected="1" topLeftCell="AP43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW63" sqref="AW63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
-    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
-    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="136" max="137" width="9.140625" style="2" collapsed="1"/>
-    <col min="138" max="138" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="139" max="140" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
+    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
+    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -9823,7 +9851,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -9876,7 +9904,7 @@
         <v>7</v>
       </c>
       <c r="AI2" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="34" t="s">
@@ -10032,7 +10060,7 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -10085,7 +10113,7 @@
         <v>7</v>
       </c>
       <c r="AI3" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="34" t="s">
@@ -10245,7 +10273,7 @@
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -10298,7 +10326,7 @@
         <v>7</v>
       </c>
       <c r="AI4" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="34" t="s">
@@ -10458,7 +10486,7 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -10509,7 +10537,7 @@
         <v>7</v>
       </c>
       <c r="AI5" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="34" t="s">
@@ -10663,7 +10691,7 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -10716,7 +10744,7 @@
         <v>7</v>
       </c>
       <c r="AI6" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="37" t="s">
@@ -10870,7 +10898,7 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -10921,7 +10949,7 @@
         <v>7</v>
       </c>
       <c r="AI7" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="37" t="s">
@@ -14025,12 +14053,12 @@
         <v>35</v>
       </c>
       <c r="EA21" s="13" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
       <c r="ED21" s="13" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="EE21" s="13"/>
       <c r="EF21" s="44" t="s">
@@ -15669,7 +15697,7 @@
         <v>7</v>
       </c>
       <c r="AI31" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ31" s="15"/>
       <c r="AK31" s="34" t="s">
@@ -15868,7 +15896,7 @@
         <v>7</v>
       </c>
       <c r="AI32" s="36" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="34" t="s">
@@ -16623,7 +16651,7 @@
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="49" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
@@ -20860,6 +20888,9 @@
         <v>0</v>
       </c>
       <c r="E58" s="84"/>
+      <c r="F58" s="36" t="s">
+        <v>962</v>
+      </c>
       <c r="J58" s="2" t="s">
         <v>560</v>
       </c>
@@ -20905,7 +20936,7 @@
         <v>7</v>
       </c>
       <c r="AI58" s="36" t="s">
-        <v>557</v>
+        <v>961</v>
       </c>
       <c r="AJ58" s="14"/>
       <c r="AK58" s="37" t="s">
@@ -21460,6 +21491,9 @@
         <v>0</v>
       </c>
       <c r="E63" s="84"/>
+      <c r="F63" s="36" t="s">
+        <v>962</v>
+      </c>
       <c r="J63" s="2" t="s">
         <v>574</v>
       </c>
@@ -21500,7 +21534,7 @@
         <v>7</v>
       </c>
       <c r="AI63" s="36" t="s">
-        <v>557</v>
+        <v>961</v>
       </c>
       <c r="AJ63" s="15"/>
       <c r="AK63" s="34" t="s">
@@ -21524,6 +21558,9 @@
       <c r="AV63" s="15"/>
       <c r="AW63" s="15" t="s">
         <v>35</v>
+      </c>
+      <c r="AX63" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="AY63" s="15"/>
       <c r="AZ63" s="15"/>
@@ -31246,7 +31283,7 @@
       <c r="EB123" s="36"/>
       <c r="EC123" s="110"/>
       <c r="ED123" s="15" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="EE123" s="15"/>
       <c r="EF123" s="15"/>
@@ -31403,7 +31440,7 @@
       <c r="EB124" s="36"/>
       <c r="EC124" s="110"/>
       <c r="ED124" s="15" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="EE124" s="15"/>
       <c r="EF124" s="15"/>
@@ -32656,7 +32693,7 @@
     </row>
     <row r="133" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>929</v>
@@ -33029,7 +33066,7 @@
       <c r="DW134" s="15"/>
       <c r="DX134" s="15"/>
       <c r="ED134" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="EL134" s="2" t="s">
         <v>945</v>
@@ -33221,10 +33258,10 @@
       <c r="DW135" s="15"/>
       <c r="DX135" s="15"/>
       <c r="EA135" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="ED135" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="136" spans="1:143" x14ac:dyDescent="0.25">
@@ -33383,69 +33420,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="35" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="54.42578125" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="29" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="27" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="54" max="55" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
@@ -37321,26 +37358,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics_CRM_Cloud_After_Wave1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A52B618-7D2A-4E87-B3C3-AC57E9D8646F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8D1EA7-E2E2-4F3A-B40B-69231E02FB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="3" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4654" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="990">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2259,9 +2259,6 @@
     <t>Limited Member should have access to "Activities" Entity.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>3/4/2022</t>
   </si>
   <si>
@@ -2754,12 +2751,6 @@
     <t>A94143361</t>
   </si>
   <si>
-    <t>2022_04_19_06_30_06</t>
-  </si>
-  <si>
-    <t>2000512123</t>
-  </si>
-  <si>
     <t>1000032600</t>
   </si>
   <si>
@@ -2883,439 +2874,142 @@
     <t>8089Q8N00</t>
   </si>
   <si>
-    <t>2022_05_04_01_43_56</t>
-  </si>
-  <si>
-    <t>2022_05_04_01_59_42</t>
-  </si>
-  <si>
-    <t>2000512278</t>
-  </si>
-  <si>
     <t>237322713</t>
   </si>
   <si>
-    <t>2022_05_04_07_11_27</t>
-  </si>
-  <si>
-    <t>2000512279</t>
-  </si>
-  <si>
     <t>677515323</t>
   </si>
   <si>
-    <t>2022_05_04_07_35_05</t>
-  </si>
-  <si>
-    <t>2000512280</t>
-  </si>
-  <si>
     <t>981442489</t>
   </si>
   <si>
     <t>sf7337137</t>
   </si>
   <si>
-    <t>2022_05_04_07_45_22</t>
-  </si>
-  <si>
-    <t>2022_05_04_07_50_31</t>
-  </si>
-  <si>
     <t>656173</t>
   </si>
   <si>
     <t>1000181722</t>
   </si>
   <si>
-    <t>2000512286</t>
-  </si>
-  <si>
-    <t>2022_05_05_01_54_36</t>
-  </si>
-  <si>
-    <t>2022_05_05_02_03_31</t>
-  </si>
-  <si>
-    <t>2022_05_05_03_04_06</t>
-  </si>
-  <si>
-    <t>2022_05_05_04_32_32</t>
-  </si>
-  <si>
-    <t>2022_05_05_05_14_12</t>
-  </si>
-  <si>
-    <t>2022_05_05_06_03_09</t>
-  </si>
-  <si>
-    <t>2022_05_05_06_06_55</t>
-  </si>
-  <si>
-    <t>2022_05_05_06_40_56</t>
-  </si>
-  <si>
-    <t>2022_05_05_06_44_44</t>
-  </si>
-  <si>
-    <t>2022_05_05_06_48_30</t>
-  </si>
-  <si>
-    <t>2022_05_05_06_51_31</t>
-  </si>
-  <si>
-    <t>2022_05_05_06_54_05</t>
-  </si>
-  <si>
     <t>693455824</t>
   </si>
   <si>
-    <t>2022_05_05_06_58_37</t>
-  </si>
-  <si>
     <t>705644155</t>
   </si>
   <si>
-    <t>2022_05_05_07_03_09</t>
-  </si>
-  <si>
-    <t>7000568082</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_16_26</t>
-  </si>
-  <si>
-    <t>7000568083</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_24_23</t>
-  </si>
-  <si>
-    <t>7000568084</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_32_06</t>
-  </si>
-  <si>
-    <t>7000568085</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_35_49</t>
-  </si>
-  <si>
-    <t>7000568086</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_38_51</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_41_55</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_44_59</t>
-  </si>
-  <si>
-    <t>7000568087</t>
-  </si>
-  <si>
-    <t>2022_05_05_07_53_10</t>
-  </si>
-  <si>
-    <t>7000568088</t>
-  </si>
-  <si>
-    <t>2022_05_05_08_00_43</t>
-  </si>
-  <si>
-    <t>2000512289</t>
-  </si>
-  <si>
-    <t>2022_05_05_08_21_20</t>
-  </si>
-  <si>
-    <t>2000512290</t>
-  </si>
-  <si>
-    <t>2022_05_05_08_29_42</t>
-  </si>
-  <si>
-    <t>2022_05_05_08_32_09</t>
-  </si>
-  <si>
-    <t>2000512291</t>
-  </si>
-  <si>
-    <t>2022_05_05_08_40_13</t>
-  </si>
-  <si>
-    <t>2022_05_05_08_46_52</t>
-  </si>
-  <si>
-    <t>2022_05_05_08_53_09</t>
-  </si>
-  <si>
-    <t>2000512294</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_02_33</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_11_07</t>
-  </si>
-  <si>
-    <t>2000512296</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_17_40</t>
-  </si>
-  <si>
-    <t>2000512297</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_24_24</t>
-  </si>
-  <si>
-    <t>2000512298</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_30_02</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_34_44</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_39_57</t>
-  </si>
-  <si>
-    <t>2000512301</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_45_47</t>
-  </si>
-  <si>
-    <t>2000512302</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_49_56</t>
-  </si>
-  <si>
-    <t>2022_05_05_09_54_12</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_01_34</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_03_11</t>
-  </si>
-  <si>
-    <t>2000512305</t>
-  </si>
-  <si>
     <t>964684143</t>
   </si>
   <si>
     <t>xf2226341</t>
   </si>
   <si>
-    <t>2022_05_05_10_24_40</t>
-  </si>
-  <si>
-    <t>2000512306</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_31_02</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_32_49</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_34_37</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_36_24</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_38_11</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_40_01</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_44_55</t>
-  </si>
-  <si>
-    <t>2022_05_05_10_46_42</t>
-  </si>
-  <si>
-    <t>2000512307</t>
-  </si>
-  <si>
-    <t>2022_05_06_10_43_24</t>
-  </si>
-  <si>
-    <t>2022_05_06_10_54_50</t>
-  </si>
-  <si>
-    <t>2022_05_06_11_11_45</t>
-  </si>
-  <si>
-    <t>2022_05_06_11_18_22</t>
-  </si>
-  <si>
-    <t>2022_05_06_11_24_58</t>
-  </si>
-  <si>
-    <t>2022_05_06_11_31_34</t>
-  </si>
-  <si>
-    <t>2022_05_06_11_38_12</t>
-  </si>
-  <si>
-    <t>2022_05_06_11_44_49</t>
-  </si>
-  <si>
-    <t>2022_05_06_11_51_28</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_00_30</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_08_17</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_16_12</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_24_06</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_31_23</t>
-  </si>
-  <si>
-    <t>2022_05_06_12_38_41</t>
-  </si>
-  <si>
-    <t>2000512326</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_32_49</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_35_53</t>
-  </si>
-  <si>
-    <t>2000512327</t>
-  </si>
-  <si>
-    <t>2022_05_06_01_50_32</t>
-  </si>
-  <si>
-    <t>2022_05_06_02_03_14</t>
-  </si>
-  <si>
-    <t>2022_05_06_02_05_43</t>
-  </si>
-  <si>
-    <t>2022_05_06_02_09_10</t>
-  </si>
-  <si>
-    <t>2000512331</t>
-  </si>
-  <si>
-    <t>2022_05_06_02_24_19</t>
-  </si>
-  <si>
-    <t>2022_05_06_02_26_50</t>
-  </si>
-  <si>
-    <t>2022_05_06_02_29_58</t>
-  </si>
-  <si>
-    <t>2022_05_06_04_40_33</t>
-  </si>
-  <si>
-    <t>2022_05_06_04_58_04</t>
-  </si>
-  <si>
-    <t>2022_05_06_05_10_21</t>
-  </si>
-  <si>
     <t>1000073701</t>
   </si>
   <si>
-    <t>2022_05_06_06_00_51</t>
-  </si>
-  <si>
-    <t>2022_05_06_06_03_59</t>
-  </si>
-  <si>
-    <t>2000512344</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2022_05_06_07_41_12</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2022_05_06_09_22_25</t>
-  </si>
-  <si>
-    <t>2000512347</t>
-  </si>
-  <si>
-    <t>2022_05_06_09_28_51</t>
-  </si>
-  <si>
-    <t>2022_05_09_09_19_32</t>
-  </si>
-  <si>
-    <t>2022_05_09_09_43_33</t>
-  </si>
-  <si>
-    <t>2022_05_09_09_54_35</t>
-  </si>
-  <si>
-    <t>2022_05_09_10_05_07</t>
-  </si>
-  <si>
-    <t>2022_05_09_10_11_47</t>
-  </si>
-  <si>
-    <t>2022_05_09_10_19_35</t>
-  </si>
-  <si>
-    <t>2022_05_09_10_25_34</t>
-  </si>
-  <si>
-    <t>2022_05_09_11_07_17</t>
-  </si>
-  <si>
-    <t>2022_05_09_12_06_50</t>
-  </si>
-  <si>
-    <t>2000512362</t>
-  </si>
-  <si>
-    <t>2022_05_09_02_33_44</t>
-  </si>
-  <si>
-    <t>2022_05_09_03_49_51</t>
-  </si>
-  <si>
     <t>Yankee Alliance, LLC</t>
   </si>
   <si>
-    <t>2000512382</t>
-  </si>
-  <si>
-    <t>2022_05_09_07_08_12</t>
-  </si>
-  <si>
     <t>Create TP with Supplier Login and Publish as a Supervisor</t>
+  </si>
+  <si>
+    <t>2022_05_11_04_12_29</t>
+  </si>
+  <si>
+    <t>2022_05_11_04_22_39</t>
+  </si>
+  <si>
+    <t>2000512428</t>
+  </si>
+  <si>
+    <t>2022_05_11_04_38_55</t>
+  </si>
+  <si>
+    <t>2022_05_11_05_44_44</t>
+  </si>
+  <si>
+    <t>2022_05_11_05_49_32</t>
+  </si>
+  <si>
+    <t>Certifying Agency: Required fields must be filled in.</t>
+  </si>
+  <si>
+    <t>Test Certifying Agency&amp;^%^%*&amp;%*&amp;%%*132134654654646465465464564646546464564564</t>
+  </si>
+  <si>
+    <t>Test Certifying Agency&amp;^%^%*&amp;%*&amp;%%*132134654654646465465464564646546464564564ghjgvhkjhbk  sdfsdfsdf2</t>
+  </si>
+  <si>
+    <t>2000141852</t>
+  </si>
+  <si>
+    <t>2022_05_12_09_19_55</t>
+  </si>
+  <si>
+    <t>2022_05_12_09_45_15</t>
+  </si>
+  <si>
+    <t>2022_05_12_09_58_58</t>
+  </si>
+  <si>
+    <t>2022_05_12_10_04_35</t>
+  </si>
+  <si>
+    <t>2022_05_12_10_12_16</t>
+  </si>
+  <si>
+    <t>2022_05_12_10_15_17</t>
+  </si>
+  <si>
+    <t>2022_05_12_10_57_07</t>
+  </si>
+  <si>
+    <t>2022_05_12_11_10_13</t>
+  </si>
+  <si>
+    <t>2022_05_12_02_47_37</t>
+  </si>
+  <si>
+    <t>2022_05_12_02_54_17</t>
+  </si>
+  <si>
+    <t>2022_05_12_03_38_13</t>
+  </si>
+  <si>
+    <t>2022_05_12_03_48_12</t>
+  </si>
+  <si>
+    <t>2022_05_12_03_53_27</t>
+  </si>
+  <si>
+    <t>2022_05_12_04_22_16</t>
+  </si>
+  <si>
+    <t>2022_05_12_04_28_16</t>
+  </si>
+  <si>
+    <t>2022_05_12_05_00_10</t>
+  </si>
+  <si>
+    <t>2022_05_12_05_07_03</t>
+  </si>
+  <si>
+    <t>2022_05_12_05_11_16</t>
+  </si>
+  <si>
+    <t>2022_05_12_06_17_29</t>
+  </si>
+  <si>
+    <t>2022_05_12_07_32_07</t>
+  </si>
+  <si>
+    <t>2022_05_12_07_36_48</t>
   </si>
 </sst>
 </file>
@@ -4167,22 +3861,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4239,12 +3933,8 @@
       <c r="F2" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>996</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>995</v>
-      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="48" t="s">
@@ -4273,12 +3963,8 @@
       <c r="F3" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>997</v>
-      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="25"/>
@@ -4305,12 +3991,8 @@
       <c r="F4" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>999</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>323</v>
-      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
@@ -4334,12 +4016,8 @@
       <c r="F5" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>1000</v>
-      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -4363,9 +4041,7 @@
       <c r="F6" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>1002</v>
-      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -4390,9 +4066,7 @@
       <c r="F7" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>1003</v>
-      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -4417,12 +4091,8 @@
       <c r="F8" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>1004</v>
-      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -4446,9 +4116,7 @@
       <c r="F9" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>1006</v>
-      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -4473,12 +4141,8 @@
       <c r="F10" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>1007</v>
-      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -4502,12 +4166,8 @@
       <c r="F11" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>1009</v>
-      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -4531,12 +4191,8 @@
       <c r="F12" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>1011</v>
-      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -4561,9 +4217,7 @@
       <c r="F13" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>1013</v>
-      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -4588,9 +4242,7 @@
       <c r="F14" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>1014</v>
-      </c>
+      <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -4615,12 +4267,8 @@
       <c r="F15" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>1015</v>
-      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -4644,12 +4292,8 @@
       <c r="F16" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>1017</v>
-      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -4673,9 +4317,7 @@
       <c r="F17" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>1019</v>
-      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -4700,9 +4342,7 @@
       <c r="F18" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>1020</v>
-      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -4727,9 +4367,7 @@
       <c r="F19" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>1021</v>
-      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -4754,9 +4392,7 @@
       <c r="F20" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>1063</v>
-      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -4781,12 +4417,8 @@
       <c r="F21" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>1022</v>
-      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
@@ -4810,13 +4442,9 @@
       <c r="F22" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>1027</v>
-      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
-        <v>1026</v>
-      </c>
+      <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="25"/>
     </row>
@@ -4839,9 +4467,7 @@
       <c r="F23" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>1028</v>
-      </c>
+      <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -4866,9 +4492,7 @@
       <c r="F24" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>1029</v>
-      </c>
+      <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -4893,9 +4517,7 @@
       <c r="F25" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>1030</v>
-      </c>
+      <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -4920,9 +4542,7 @@
       <c r="F26" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>1031</v>
-      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -4947,9 +4567,7 @@
       <c r="F27" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>1032</v>
-      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
@@ -4974,9 +4592,7 @@
       <c r="F28" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>1064</v>
-      </c>
+      <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
@@ -5001,9 +4617,7 @@
       <c r="F29" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>1033</v>
-      </c>
+      <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -5028,9 +4642,7 @@
       <c r="F30" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>1034</v>
-      </c>
+      <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -5055,12 +4667,8 @@
       <c r="F31" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>963</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>962</v>
-      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
@@ -5084,12 +4692,8 @@
       <c r="F32" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>1035</v>
-      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -5113,9 +4717,7 @@
       <c r="F33" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>1065</v>
-      </c>
+      <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -5140,12 +4742,8 @@
       <c r="F34" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>323</v>
-      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -5169,9 +4767,7 @@
       <c r="F35" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>1067</v>
-      </c>
+      <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -5196,9 +4792,7 @@
       <c r="F36" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>1068</v>
-      </c>
+      <c r="G36" s="24"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
@@ -5223,9 +4817,7 @@
       <c r="F37" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>1038</v>
-      </c>
+      <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -5250,9 +4842,7 @@
       <c r="F38" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="24" t="s">
-        <v>1039</v>
-      </c>
+      <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -5277,9 +4867,7 @@
       <c r="F39" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>1040</v>
-      </c>
+      <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -5304,9 +4892,7 @@
       <c r="F40" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>1041</v>
-      </c>
+      <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -5331,9 +4917,7 @@
       <c r="F41" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G41" s="24" t="s">
-        <v>1042</v>
-      </c>
+      <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -5358,9 +4942,7 @@
       <c r="F42" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>1043</v>
-      </c>
+      <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -5385,9 +4967,7 @@
       <c r="F43" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>1044</v>
-      </c>
+      <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -5410,11 +4990,9 @@
         <v>40</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>1076</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -5439,9 +5017,7 @@
       <c r="F45" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G45" s="24" t="s">
-        <v>1045</v>
-      </c>
+      <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -5466,9 +5042,7 @@
       <c r="F46" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G46" s="24" t="s">
-        <v>1046</v>
-      </c>
+      <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -5493,9 +5067,7 @@
       <c r="F47" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G47" s="24" t="s">
-        <v>1047</v>
-      </c>
+      <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
@@ -5520,9 +5092,7 @@
       <c r="F48" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G48" s="24" t="s">
-        <v>1048</v>
-      </c>
+      <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -5547,9 +5117,7 @@
       <c r="F49" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G49" s="24" t="s">
-        <v>1049</v>
-      </c>
+      <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -5574,9 +5142,7 @@
       <c r="F50" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G50" s="24" t="s">
-        <v>1050</v>
-      </c>
+      <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -5599,11 +5165,9 @@
         <v>40</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>1077</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G51" s="24"/>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -5626,11 +5190,9 @@
         <v>40</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>1078</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -5653,11 +5215,9 @@
         <v>40</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>1083</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -5680,11 +5240,9 @@
         <v>40</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>1079</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
@@ -5707,11 +5265,9 @@
         <v>40</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>1080</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
@@ -5734,11 +5290,9 @@
         <v>40</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>1081</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G56" s="24"/>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -5761,11 +5315,9 @@
         <v>40</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>1082</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -5788,11 +5340,9 @@
         <v>40</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>1084</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G58" s="24"/>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
@@ -5815,14 +5365,10 @@
         <v>40</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H59" s="24" t="s">
-        <v>1085</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
@@ -5846,12 +5392,8 @@
       <c r="F60" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G60" s="24" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>1051</v>
-      </c>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
@@ -5875,9 +5417,7 @@
       <c r="F61" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G61" s="24" t="s">
-        <v>1053</v>
-      </c>
+      <c r="G61" s="24"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -5900,11 +5440,9 @@
         <v>40</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>1087</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G62" s="24"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
@@ -5918,7 +5456,7 @@
         <v>572</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>2</v>
@@ -5927,14 +5465,10 @@
         <v>40</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>1089</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
@@ -5958,12 +5492,8 @@
       <c r="F64" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G64" s="24" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H64" s="24" t="s">
-        <v>1054</v>
-      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
@@ -5987,9 +5517,7 @@
       <c r="F65" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G65" s="24" t="s">
-        <v>1056</v>
-      </c>
+      <c r="G65" s="24"/>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
@@ -6014,9 +5542,7 @@
       <c r="F66" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G66" s="24" t="s">
-        <v>1057</v>
-      </c>
+      <c r="G66" s="24"/>
       <c r="H66" s="24"/>
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
@@ -6041,9 +5567,7 @@
       <c r="F67" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G67" s="24" t="s">
-        <v>1058</v>
-      </c>
+      <c r="G67" s="24"/>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
@@ -6068,12 +5592,8 @@
       <c r="F68" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G68" s="24" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>1059</v>
-      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
@@ -6097,9 +5617,7 @@
       <c r="F69" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G69" s="24" t="s">
-        <v>1061</v>
-      </c>
+      <c r="G69" s="24"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
@@ -6124,9 +5642,7 @@
       <c r="F70" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G70" s="24" t="s">
-        <v>1062</v>
-      </c>
+      <c r="G70" s="24"/>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
@@ -6151,9 +5667,7 @@
       <c r="F71" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G71" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G71" s="24"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
@@ -6178,9 +5692,7 @@
       <c r="F72" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G72" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G72" s="24"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -6205,9 +5717,7 @@
       <c r="F73" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G73" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G73" s="24"/>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
@@ -6232,9 +5742,7 @@
       <c r="F74" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G74" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G74" s="24"/>
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="24"/>
@@ -6259,9 +5767,7 @@
       <c r="F75" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G75" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G75" s="24"/>
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="24"/>
@@ -6286,9 +5792,7 @@
       <c r="F76" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G76" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G76" s="24"/>
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
@@ -6311,10 +5815,10 @@
         <v>40</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>739</v>
+        <v>959</v>
       </c>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
@@ -6340,9 +5844,7 @@
       <c r="F78" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G78" s="24" t="s">
-        <v>964</v>
-      </c>
+      <c r="G78" s="24"/>
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
       <c r="J78" s="24"/>
@@ -6367,9 +5869,7 @@
       <c r="F79" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G79" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
       <c r="J79" s="24"/>
@@ -6394,9 +5894,7 @@
       <c r="F80" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G80" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
@@ -6421,9 +5919,7 @@
       <c r="F81" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G81" s="24" t="s">
-        <v>739</v>
-      </c>
+      <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
@@ -6448,9 +5944,7 @@
       <c r="F82" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -6475,9 +5969,7 @@
       <c r="F83" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G83" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -6502,9 +5994,7 @@
       <c r="F84" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G84" s="17"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
@@ -6530,9 +6020,7 @@
       <c r="F85" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G85" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
@@ -6558,9 +6046,7 @@
       <c r="F86" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G86" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
@@ -6586,9 +6072,7 @@
       <c r="F87" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
@@ -6600,7 +6084,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>35</v>
@@ -6614,9 +6098,7 @@
       <c r="F88" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -6628,7 +6110,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>35</v>
@@ -6642,9 +6124,7 @@
       <c r="F89" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
@@ -6656,7 +6136,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>35</v>
@@ -6670,9 +6150,7 @@
       <c r="F90" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G90" s="17"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
@@ -6684,7 +6162,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>35</v>
@@ -6698,9 +6176,7 @@
       <c r="F91" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G91" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G91" s="17"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
@@ -6712,7 +6188,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>35</v>
@@ -6726,9 +6202,7 @@
       <c r="F92" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -6740,7 +6214,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>35</v>
@@ -6754,9 +6228,7 @@
       <c r="F93" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G93" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -6768,7 +6240,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>35</v>
@@ -6782,9 +6254,7 @@
       <c r="F94" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -6796,7 +6266,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>35</v>
@@ -6810,9 +6280,7 @@
       <c r="F95" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G95" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G95" s="17"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -6824,7 +6292,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>35</v>
@@ -6838,9 +6306,7 @@
       <c r="F96" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G96" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
@@ -6851,7 +6317,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>35</v>
@@ -6865,9 +6331,7 @@
       <c r="F97" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G97" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
@@ -6878,7 +6342,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>35</v>
@@ -6892,9 +6356,7 @@
       <c r="F98" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G98" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
@@ -6905,7 +6367,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>35</v>
@@ -6919,9 +6381,7 @@
       <c r="F99" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G99" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
@@ -6932,7 +6392,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>35</v>
@@ -6946,9 +6406,7 @@
       <c r="F100" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G100" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
@@ -6959,7 +6417,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>35</v>
@@ -6973,9 +6431,7 @@
       <c r="F101" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G101" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
@@ -6986,7 +6442,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>35</v>
@@ -7000,9 +6456,7 @@
       <c r="F102" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G102" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
@@ -7013,7 +6467,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>35</v>
@@ -7027,9 +6481,7 @@
       <c r="F103" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G103" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -7040,7 +6492,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>35</v>
@@ -7054,9 +6506,7 @@
       <c r="F104" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G104" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
@@ -7067,7 +6517,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>35</v>
@@ -7081,9 +6531,7 @@
       <c r="F105" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G105" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
@@ -7094,7 +6542,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>35</v>
@@ -7108,9 +6556,7 @@
       <c r="F106" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G106" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -7121,7 +6567,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>35</v>
@@ -7135,9 +6581,7 @@
       <c r="F107" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G107" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
@@ -7148,7 +6592,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C108" s="17" t="s">
         <v>35</v>
@@ -7162,9 +6606,7 @@
       <c r="F108" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G108" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
@@ -7175,7 +6617,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>35</v>
@@ -7189,9 +6631,7 @@
       <c r="F109" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G109" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
@@ -7202,7 +6642,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C110" s="17" t="s">
         <v>35</v>
@@ -7216,9 +6656,7 @@
       <c r="F110" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G110" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
@@ -7229,7 +6667,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C111" s="17" t="s">
         <v>35</v>
@@ -7243,9 +6681,7 @@
       <c r="F111" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G111" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -7256,7 +6692,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C112" s="17" t="s">
         <v>35</v>
@@ -7270,9 +6706,7 @@
       <c r="F112" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G112" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -7283,7 +6717,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>35</v>
@@ -7297,9 +6731,7 @@
       <c r="F113" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G113" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
@@ -7310,7 +6742,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C114" s="17" t="s">
         <v>35</v>
@@ -7324,9 +6756,7 @@
       <c r="F114" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G114" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
@@ -7337,7 +6767,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>35</v>
@@ -7351,9 +6781,7 @@
       <c r="F115" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G115" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G115" s="17"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
@@ -7364,7 +6792,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>35</v>
@@ -7378,9 +6806,7 @@
       <c r="F116" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G116" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
@@ -7391,7 +6817,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>35</v>
@@ -7405,9 +6831,7 @@
       <c r="F117" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G117" s="17" t="s">
-        <v>739</v>
-      </c>
+      <c r="G117" s="17"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -7418,7 +6842,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>35</v>
@@ -7432,9 +6856,7 @@
       <c r="F118" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G118" s="17" t="s">
-        <v>970</v>
-      </c>
+      <c r="G118" s="17"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
@@ -7445,7 +6867,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>35</v>
@@ -7459,9 +6881,7 @@
       <c r="F119" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G119" s="17" t="s">
-        <v>971</v>
-      </c>
+      <c r="G119" s="17"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -7472,7 +6892,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>35</v>
@@ -7486,9 +6906,7 @@
       <c r="F120" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G120" s="17" t="s">
-        <v>972</v>
-      </c>
+      <c r="G120" s="17"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
@@ -7499,7 +6917,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>35</v>
@@ -7513,9 +6931,7 @@
       <c r="F121" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G121" s="17" t="s">
-        <v>973</v>
-      </c>
+      <c r="G121" s="17"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -7526,7 +6942,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>35</v>
@@ -7540,9 +6956,7 @@
       <c r="F122" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G122" s="17" t="s">
-        <v>974</v>
-      </c>
+      <c r="G122" s="17"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
@@ -7553,7 +6967,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>35</v>
@@ -7567,9 +6981,7 @@
       <c r="F123" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G123" s="17" t="s">
-        <v>976</v>
-      </c>
+      <c r="G123" s="17"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
@@ -7580,7 +6992,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C124" s="17" t="s">
         <v>35</v>
@@ -7594,9 +7006,7 @@
       <c r="F124" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G124" s="17" t="s">
-        <v>978</v>
-      </c>
+      <c r="G124" s="17"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
@@ -7607,7 +7017,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>35</v>
@@ -7621,9 +7031,7 @@
       <c r="F125" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G125" s="17" t="s">
-        <v>968</v>
-      </c>
+      <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
@@ -7634,7 +7042,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>35</v>
@@ -7648,9 +7056,7 @@
       <c r="F126" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G126" s="17" t="s">
-        <v>969</v>
-      </c>
+      <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
@@ -7661,7 +7067,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="111" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>35</v>
@@ -7675,9 +7081,7 @@
       <c r="F127" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G127" s="111" t="s">
-        <v>965</v>
-      </c>
+      <c r="G127" s="111"/>
       <c r="H127" s="111"/>
       <c r="I127" s="111"/>
       <c r="J127" s="111"/>
@@ -7688,7 +7092,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>35</v>
@@ -7700,14 +7104,10 @@
         <v>40</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H128" s="17" t="s">
-        <v>1069</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
@@ -7717,7 +7117,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>35</v>
@@ -7731,9 +7131,7 @@
       <c r="F129" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G129" s="17" t="s">
-        <v>967</v>
-      </c>
+      <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
@@ -7744,7 +7142,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>35</v>
@@ -7758,9 +7156,7 @@
       <c r="F130" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G130" s="17" t="s">
-        <v>966</v>
-      </c>
+      <c r="G130" s="17"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
@@ -7785,9 +7181,7 @@
       <c r="F131" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G131" s="21" t="s">
-        <v>739</v>
-      </c>
+      <c r="G131" s="21"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="21"/>
@@ -7812,9 +7206,7 @@
       <c r="F132" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G132" s="21" t="s">
-        <v>739</v>
-      </c>
+      <c r="G132" s="21"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
@@ -7839,9 +7231,7 @@
       <c r="F133" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G133" s="21" t="s">
-        <v>739</v>
-      </c>
+      <c r="G133" s="21"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
@@ -7864,11 +7254,9 @@
         <v>40</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G134" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G134" s="21"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
@@ -7893,9 +7281,7 @@
       <c r="F135" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G135" s="21" t="s">
-        <v>739</v>
-      </c>
+      <c r="G135" s="21"/>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
@@ -7920,9 +7306,7 @@
       <c r="F136" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G136" s="21" t="s">
-        <v>739</v>
-      </c>
+      <c r="G136" s="21"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
@@ -7945,11 +7329,9 @@
         <v>40</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G137" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G137" s="21"/>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
@@ -7972,11 +7354,9 @@
         <v>40</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G138" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G138" s="21"/>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
@@ -7999,11 +7379,9 @@
         <v>40</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G139" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G139" s="21"/>
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
@@ -8026,11 +7404,9 @@
         <v>40</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G140" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G140" s="21"/>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
@@ -8053,11 +7429,9 @@
         <v>40</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G141" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G141" s="21"/>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
@@ -8080,11 +7454,9 @@
         <v>40</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G142" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G142" s="21"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
@@ -8107,11 +7479,9 @@
         <v>40</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G143" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G143" s="21"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
@@ -8134,11 +7504,9 @@
         <v>40</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G144" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G144" s="21"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
@@ -8161,11 +7529,9 @@
         <v>40</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G145" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G145" s="21"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
@@ -8188,11 +7554,9 @@
         <v>40</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G146" s="21" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G146" s="21"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
@@ -8215,11 +7579,9 @@
         <v>40</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G147" s="24" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G147" s="24"/>
       <c r="H147" s="24"/>
       <c r="I147" s="24"/>
       <c r="J147" s="24"/>
@@ -8242,11 +7604,9 @@
         <v>40</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G148" s="24" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G148" s="24"/>
       <c r="H148" s="24"/>
       <c r="I148" s="24"/>
       <c r="J148" s="24"/>
@@ -8269,11 +7629,9 @@
         <v>40</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G149" s="24"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
       <c r="J149" s="24"/>
@@ -8296,11 +7654,9 @@
         <v>40</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G150" s="24" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G150" s="24"/>
       <c r="H150" s="24"/>
       <c r="I150" s="24"/>
       <c r="J150" s="24"/>
@@ -8323,11 +7679,9 @@
         <v>40</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G151" s="24" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G151" s="24"/>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
       <c r="J151" s="24"/>
@@ -8350,11 +7704,9 @@
         <v>40</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G152" s="24" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G152" s="24"/>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
       <c r="J152" s="24"/>
@@ -8377,11 +7729,9 @@
         <v>40</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G153" s="24" t="s">
-        <v>739</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="G153" s="24"/>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
       <c r="J153" s="24"/>
@@ -8429,10 +7779,10 @@
         <v>40</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G155" s="24" t="s">
-        <v>739</v>
+        <v>963</v>
       </c>
       <c r="H155" s="24"/>
       <c r="I155" s="24"/>
@@ -8456,10 +7806,10 @@
         <v>40</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G156" s="24" t="s">
-        <v>739</v>
+        <v>960</v>
       </c>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
@@ -8483,12 +7833,14 @@
         <v>40</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G157" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="H157" s="24"/>
+        <v>962</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>961</v>
+      </c>
       <c r="I157" s="24"/>
       <c r="J157" s="24"/>
       <c r="K157" s="24"/>
@@ -8510,10 +7862,10 @@
         <v>40</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>264</v>
+        <v>956</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>739</v>
+        <v>964</v>
       </c>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
@@ -8537,10 +7889,10 @@
         <v>40</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>739</v>
+        <v>969</v>
       </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
@@ -8564,10 +7916,10 @@
         <v>40</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>739</v>
+        <v>972</v>
       </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
@@ -8591,10 +7943,10 @@
         <v>40</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>739</v>
+        <v>975</v>
       </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
@@ -8609,7 +7961,7 @@
         <v>614</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>26</v>
@@ -8618,10 +7970,10 @@
         <v>40</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>739</v>
+        <v>989</v>
       </c>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -8645,10 +7997,10 @@
         <v>40</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>739</v>
+        <v>974</v>
       </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
@@ -8660,7 +8012,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C164" s="17" t="s">
         <v>35</v>
@@ -8672,10 +8024,10 @@
         <v>40</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>264</v>
+        <v>955</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>739</v>
+        <v>971</v>
       </c>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
@@ -8687,7 +8039,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C165" s="17" t="s">
         <v>35</v>
@@ -8699,10 +8051,10 @@
         <v>40</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>264</v>
+        <v>956</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>739</v>
+        <v>970</v>
       </c>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
@@ -8728,12 +8080,8 @@
       <c r="F166" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G166" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="H166" s="27" t="s">
-        <v>979</v>
-      </c>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
       <c r="I166" s="27"/>
       <c r="J166" s="27"/>
       <c r="K166" s="27"/>
@@ -8757,12 +8105,8 @@
       <c r="F167" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G167" s="27" t="s">
-        <v>982</v>
-      </c>
-      <c r="H167" s="27" t="s">
-        <v>981</v>
-      </c>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
       <c r="I167" s="27"/>
       <c r="J167" s="27"/>
       <c r="K167" s="27"/>
@@ -8786,12 +8130,8 @@
       <c r="F168" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G168" s="27" t="s">
-        <v>984</v>
-      </c>
-      <c r="H168" s="27" t="s">
-        <v>983</v>
-      </c>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
       <c r="I168" s="27"/>
       <c r="J168" s="27"/>
       <c r="K168" s="27"/>
@@ -8815,12 +8155,8 @@
       <c r="F169" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G169" s="28" t="s">
-        <v>986</v>
-      </c>
-      <c r="H169" s="28" t="s">
-        <v>985</v>
-      </c>
+      <c r="G169" s="28"/>
+      <c r="H169" s="28"/>
       <c r="I169" s="28"/>
       <c r="J169" s="28"/>
       <c r="K169" s="28"/>
@@ -8844,12 +8180,8 @@
       <c r="F170" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G170" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="H170" s="28" t="s">
-        <v>987</v>
-      </c>
+      <c r="G170" s="28"/>
+      <c r="H170" s="28"/>
       <c r="I170" s="28"/>
       <c r="J170" s="28"/>
       <c r="K170" s="28"/>
@@ -8873,9 +8205,7 @@
       <c r="F171" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G171" s="28" t="s">
-        <v>989</v>
-      </c>
+      <c r="G171" s="28"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
       <c r="J171" s="28"/>
@@ -8900,9 +8230,7 @@
       <c r="F172" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G172" s="28" t="s">
-        <v>990</v>
-      </c>
+      <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
       <c r="J172" s="28"/>
@@ -8927,12 +8255,8 @@
       <c r="F173" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G173" s="28" t="s">
-        <v>992</v>
-      </c>
-      <c r="H173" s="28" t="s">
-        <v>991</v>
-      </c>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
       <c r="I173" s="28"/>
       <c r="J173" s="28"/>
       <c r="K173" s="28"/>
@@ -8956,12 +8280,8 @@
       <c r="F174" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G174" s="28" t="s">
-        <v>994</v>
-      </c>
-      <c r="H174" s="28" t="s">
-        <v>993</v>
-      </c>
+      <c r="G174" s="28"/>
+      <c r="H174" s="28"/>
       <c r="I174" s="28"/>
       <c r="J174" s="28"/>
       <c r="K174" s="28"/>
@@ -8971,7 +8291,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C175" s="17" t="s">
         <v>35</v>
@@ -8985,12 +8305,8 @@
       <c r="F175" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G175" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="H175" s="13" t="s">
-        <v>905</v>
-      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
       <c r="I175" s="13"/>
       <c r="J175" s="13"/>
       <c r="K175" s="13"/>
@@ -9000,7 +8316,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="115" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>35</v>
@@ -9012,18 +8328,15 @@
         <v>40</v>
       </c>
       <c r="F176" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G176" t="s">
-        <v>1073</v>
+        <v>955</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
         <v>175</v>
       </c>
       <c r="B177" s="115" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C177" s="17" t="s">
         <v>35</v>
@@ -9035,21 +8348,15 @@
         <v>40</v>
       </c>
       <c r="F177" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G177" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H177" t="s">
-        <v>1074</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C178" s="17" t="s">
         <v>35</v>
@@ -9063,19 +8370,13 @@
       <c r="F178" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G178" t="s">
-        <v>954</v>
-      </c>
-      <c r="H178" t="s">
-        <v>952</v>
-      </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="116">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C179" s="17" t="s">
         <v>35</v>
@@ -9089,19 +8390,13 @@
       <c r="F179" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G179" t="s">
-        <v>951</v>
-      </c>
-      <c r="H179" t="s">
-        <v>949</v>
-      </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
         <v>178</v>
       </c>
       <c r="B180" s="115" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C180" s="17" t="s">
         <v>35</v>
@@ -9115,19 +8410,13 @@
       <c r="F180" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G180" t="s">
-        <v>958</v>
-      </c>
-      <c r="H180" t="s">
-        <v>955</v>
-      </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
         <v>179</v>
       </c>
       <c r="B181" s="115" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C181" s="17" t="s">
         <v>35</v>
@@ -9141,16 +8430,13 @@
       <c r="F181" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G181" t="s">
-        <v>959</v>
-      </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="116">
         <v>180</v>
       </c>
       <c r="B182" s="115" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C182" s="17" t="s">
         <v>35</v>
@@ -9164,16 +8450,13 @@
       <c r="F182" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G182" t="s">
-        <v>948</v>
-      </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
         <v>181</v>
       </c>
       <c r="B183" s="115" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C183" s="17" t="s">
         <v>35</v>
@@ -9186,9 +8469,6 @@
       </c>
       <c r="F183" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="G183" t="s">
-        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -9295,108 +8575,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
-    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
-    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="136" max="137" width="9.140625" style="2" collapsed="1"/>
-    <col min="138" max="138" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="139" max="140" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
+    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
+    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -9794,16 +9074,16 @@
         <v>166</v>
       </c>
       <c r="EB1" s="59" t="s">
+        <v>837</v>
+      </c>
+      <c r="EC1" s="59" t="s">
         <v>838</v>
-      </c>
-      <c r="EC1" s="59" t="s">
-        <v>839</v>
       </c>
       <c r="ED1" s="59" t="s">
         <v>138</v>
       </c>
       <c r="EE1" s="59" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="EF1" s="59" t="s">
         <v>324</v>
@@ -9839,7 +9119,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -9892,7 +9172,7 @@
         <v>7</v>
       </c>
       <c r="AI2" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="34" t="s">
@@ -10048,7 +9328,7 @@
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -10101,7 +9381,7 @@
         <v>7</v>
       </c>
       <c r="AI3" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="34" t="s">
@@ -10261,7 +9541,7 @@
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -10314,7 +9594,7 @@
         <v>7</v>
       </c>
       <c r="AI4" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="34" t="s">
@@ -10474,7 +9754,7 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -10525,7 +9805,7 @@
         <v>7</v>
       </c>
       <c r="AI5" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="34" t="s">
@@ -10679,7 +9959,7 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -10732,7 +10012,7 @@
         <v>7</v>
       </c>
       <c r="AI6" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="37" t="s">
@@ -10886,7 +10166,7 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -10937,7 +10217,7 @@
         <v>7</v>
       </c>
       <c r="AI7" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="37" t="s">
@@ -14041,12 +13321,12 @@
         <v>35</v>
       </c>
       <c r="EA21" s="13" t="s">
-        <v>1024</v>
+        <v>953</v>
       </c>
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
       <c r="ED21" s="13" t="s">
-        <v>1023</v>
+        <v>952</v>
       </c>
       <c r="EE21" s="13"/>
       <c r="EF21" s="44" t="s">
@@ -15685,7 +14965,7 @@
         <v>7</v>
       </c>
       <c r="AI31" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ31" s="15"/>
       <c r="AK31" s="34" t="s">
@@ -15884,7 +15164,7 @@
         <v>7</v>
       </c>
       <c r="AI32" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="34" t="s">
@@ -16639,7 +15919,7 @@
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="49" t="s">
-        <v>1066</v>
+        <v>954</v>
       </c>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
@@ -20877,7 +20157,7 @@
       </c>
       <c r="E58" s="84"/>
       <c r="F58" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>559</v>
@@ -20924,7 +20204,7 @@
         <v>7</v>
       </c>
       <c r="AI58" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ58" s="14"/>
       <c r="AK58" s="37" t="s">
@@ -21480,7 +20760,7 @@
       </c>
       <c r="E63" s="84"/>
       <c r="F63" s="36" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>573</v>
@@ -21522,7 +20802,7 @@
         <v>7</v>
       </c>
       <c r="AI63" s="36" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="AJ63" s="15"/>
       <c r="AK63" s="34" t="s">
@@ -21548,7 +20828,7 @@
         <v>35</v>
       </c>
       <c r="AX63" s="2" t="s">
-        <v>1088</v>
+        <v>957</v>
       </c>
       <c r="AY63" s="15"/>
       <c r="AZ63" s="15"/>
@@ -24014,7 +23294,7 @@
         <v>34</v>
       </c>
       <c r="EH78" s="89" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="EI78" s="89" t="s">
         <v>643</v>
@@ -24065,7 +23345,7 @@
       <c r="R79" s="44"/>
       <c r="S79" s="15"/>
       <c r="T79" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
@@ -24258,7 +23538,7 @@
       <c r="H80" s="44"/>
       <c r="I80" s="44"/>
       <c r="J80" s="44" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K80" s="44"/>
       <c r="L80" s="44"/>
@@ -24388,7 +23668,7 @@
       <c r="EF80" s="90"/>
       <c r="EG80" s="95"/>
       <c r="EH80" s="89" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="EI80" s="89" t="s">
         <v>647</v>
@@ -24419,7 +23699,7 @@
       <c r="H81" s="44"/>
       <c r="I81" s="44"/>
       <c r="J81" s="44" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K81" s="44"/>
       <c r="L81" s="44"/>
@@ -24737,7 +24017,7 @@
       <c r="H83" s="44"/>
       <c r="I83" s="44"/>
       <c r="J83" s="44" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K83" s="44"/>
       <c r="L83" s="44"/>
@@ -24867,7 +24147,7 @@
       <c r="EF83" s="90"/>
       <c r="EG83" s="95"/>
       <c r="EH83" s="89" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="EI83" s="89"/>
       <c r="EJ83" s="42"/>
@@ -25330,7 +24610,7 @@
       <c r="EB86" s="15"/>
       <c r="EC86" s="15"/>
       <c r="ED86" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="EE86" s="15"/>
       <c r="EF86" s="15"/>
@@ -25498,7 +24778,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C88" s="32" t="s">
         <v>543</v>
@@ -25512,10 +24792,10 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
@@ -25590,7 +24870,7 @@
         <v>234</v>
       </c>
       <c r="CD88" s="34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="CE88" s="15" t="s">
         <v>235</v>
@@ -25659,7 +24939,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C89" s="32" t="s">
         <v>543</v>
@@ -25673,10 +24953,10 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
@@ -25751,7 +25031,7 @@
         <v>234</v>
       </c>
       <c r="CD89" s="34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="CE89" s="15" t="s">
         <v>235</v>
@@ -25820,7 +25100,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C90" s="32" t="s">
         <v>543</v>
@@ -25834,7 +25114,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
@@ -25973,7 +25253,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>543</v>
@@ -25982,14 +25262,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="109" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
@@ -26002,7 +25282,7 @@
       <c r="S91" s="15"/>
       <c r="T91" s="15"/>
       <c r="U91" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V91" s="15" t="s">
         <v>219</v>
@@ -26105,7 +25385,7 @@
       <c r="DN91" s="15"/>
       <c r="DO91" s="15"/>
       <c r="DP91" s="36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="DQ91" s="15"/>
       <c r="DR91" s="15"/>
@@ -26134,7 +25414,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C92" s="32" t="s">
         <v>543</v>
@@ -26148,7 +25428,7 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
@@ -26287,7 +25567,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C93" s="32" t="s">
         <v>543</v>
@@ -26301,7 +25581,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
@@ -26440,7 +25720,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>526</v>
@@ -26454,7 +25734,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
@@ -26593,7 +25873,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C95" s="32" t="s">
         <v>526</v>
@@ -26607,7 +25887,7 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
@@ -26746,7 +26026,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>526</v>
@@ -26760,7 +26040,7 @@
       <c r="H96" s="44"/>
       <c r="I96" s="44"/>
       <c r="J96" s="44" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K96" s="44" t="s">
         <v>686</v>
@@ -26905,7 +26185,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C97" s="32" t="s">
         <v>526</v>
@@ -26914,14 +26194,14 @@
         <v>0</v>
       </c>
       <c r="E97" s="109" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
@@ -26934,7 +26214,7 @@
       <c r="S97" s="15"/>
       <c r="T97" s="15"/>
       <c r="U97" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="V97" s="15" t="s">
         <v>219</v>
@@ -27039,7 +26319,7 @@
       <c r="DN97" s="15"/>
       <c r="DO97" s="15"/>
       <c r="DP97" s="36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="DQ97" s="15"/>
       <c r="DR97" s="15"/>
@@ -27068,7 +26348,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C98" s="32" t="s">
         <v>526</v>
@@ -27078,13 +26358,13 @@
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="K98" s="15"/>
       <c r="L98" s="15" t="s">
@@ -27229,7 +26509,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C99" s="32" t="s">
         <v>526</v>
@@ -27243,7 +26523,7 @@
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
@@ -27382,7 +26662,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>526</v>
@@ -27396,7 +26676,7 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
@@ -27535,7 +26815,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C101" s="32" t="s">
         <v>526</v>
@@ -27549,7 +26829,7 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
@@ -27688,7 +26968,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C102" s="32" t="s">
         <v>526</v>
@@ -27702,7 +26982,7 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="40" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
@@ -27841,7 +27121,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C103" s="32" t="s">
         <v>526</v>
@@ -27859,7 +27139,7 @@
       <c r="H103" s="44"/>
       <c r="I103" s="44"/>
       <c r="J103" s="40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K103" s="44"/>
       <c r="L103" s="44"/>
@@ -28093,14 +27373,14 @@
       </c>
       <c r="EG103" s="15"/>
       <c r="EH103" s="49" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="EI103" s="49" t="s">
         <v>643</v>
       </c>
       <c r="EJ103" s="44"/>
       <c r="EK103" s="90" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="104" spans="1:141" x14ac:dyDescent="0.25">
@@ -28108,7 +27388,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>526</v>
@@ -28124,7 +27404,7 @@
       <c r="H104" s="44"/>
       <c r="I104" s="44"/>
       <c r="J104" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K104" s="44" t="s">
         <v>686</v>
@@ -28265,7 +27545,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C105" s="32" t="s">
         <v>526</v>
@@ -28274,17 +27554,17 @@
         <v>0</v>
       </c>
       <c r="E105" s="109" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
       <c r="J105" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K105" s="15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
@@ -28296,13 +27576,13 @@
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
       <c r="U105" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="V105" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="V105" s="15" t="s">
-        <v>804</v>
-      </c>
       <c r="W105" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X105" s="15"/>
       <c r="Y105" s="15"/>
@@ -28403,7 +27683,7 @@
       <c r="DN105" s="15"/>
       <c r="DO105" s="15"/>
       <c r="DP105" s="36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="DQ105" s="15"/>
       <c r="DR105" s="15"/>
@@ -28432,7 +27712,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C106" s="32" t="s">
         <v>526</v>
@@ -28441,17 +27721,17 @@
         <v>0</v>
       </c>
       <c r="E106" s="109" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F106" s="36"/>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
@@ -28463,16 +27743,16 @@
       <c r="S106" s="15"/>
       <c r="T106" s="15"/>
       <c r="U106" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="V106" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="V106" s="15" t="s">
-        <v>804</v>
-      </c>
       <c r="W106" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X106" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Y106" s="15"/>
       <c r="Z106" s="15"/>
@@ -28572,7 +27852,7 @@
       <c r="DN106" s="15"/>
       <c r="DO106" s="15"/>
       <c r="DP106" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="DQ106" s="15"/>
       <c r="DR106" s="15"/>
@@ -28601,7 +27881,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C107" s="32" t="s">
         <v>296</v>
@@ -28617,10 +27897,10 @@
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K107" s="15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
@@ -28632,16 +27912,16 @@
       <c r="S107" s="15"/>
       <c r="T107" s="15"/>
       <c r="U107" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="V107" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="V107" s="15" t="s">
-        <v>804</v>
-      </c>
       <c r="W107" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X107" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Y107" s="15"/>
       <c r="Z107" s="15"/>
@@ -28741,7 +28021,7 @@
       <c r="DN107" s="15"/>
       <c r="DO107" s="15"/>
       <c r="DP107" s="36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="DQ107" s="15"/>
       <c r="DR107" s="15"/>
@@ -28770,7 +28050,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C108" s="32" t="s">
         <v>526</v>
@@ -28784,7 +28064,7 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
@@ -28923,7 +28203,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C109" s="32" t="s">
         <v>526</v>
@@ -28937,7 +28217,7 @@
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="40" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
@@ -29076,7 +28356,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C110" s="32" t="s">
         <v>526</v>
@@ -29090,7 +28370,7 @@
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
@@ -29223,7 +28503,7 @@
       <c r="EI110" s="15"/>
       <c r="EJ110" s="15"/>
       <c r="EK110" s="90" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29231,7 +28511,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C111" s="32" t="s">
         <v>318</v>
@@ -29241,16 +28521,16 @@
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="40" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K111" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
@@ -29372,7 +28652,7 @@
       <c r="DY111" s="15"/>
       <c r="DZ111" s="15"/>
       <c r="EA111" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="EB111" s="36"/>
       <c r="EC111" s="36"/>
@@ -29390,7 +28670,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C112" s="32" t="s">
         <v>318</v>
@@ -29400,16 +28680,16 @@
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="40" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K112" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
@@ -29531,7 +28811,7 @@
       <c r="DY112" s="15"/>
       <c r="DZ112" s="15"/>
       <c r="EA112" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="EB112" s="36"/>
       <c r="EC112" s="36"/>
@@ -29549,7 +28829,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C113" s="32" t="s">
         <v>318</v>
@@ -29559,16 +28839,16 @@
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="K113" s="15" t="s">
         <v>836</v>
-      </c>
-      <c r="K113" s="15" t="s">
-        <v>837</v>
       </c>
       <c r="L113" s="15"/>
       <c r="M113" s="15"/>
@@ -29706,7 +28986,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C114" s="32" t="s">
         <v>318</v>
@@ -29716,13 +28996,13 @@
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="36" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
@@ -29845,11 +29125,11 @@
       <c r="DY114" s="15"/>
       <c r="DZ114" s="15"/>
       <c r="EA114" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="EB114" s="36"/>
       <c r="EC114" s="110" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="ED114" s="15"/>
       <c r="EE114" s="15"/>
@@ -29865,7 +29145,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>318</v>
@@ -29875,13 +29155,13 @@
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
@@ -30004,7 +29284,7 @@
       <c r="DY115" s="15"/>
       <c r="DZ115" s="15"/>
       <c r="EA115" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="EB115" s="36"/>
       <c r="EC115" s="110"/>
@@ -30022,7 +29302,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C116" s="32" t="s">
         <v>318</v>
@@ -30032,13 +29312,13 @@
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
@@ -30161,7 +29441,7 @@
       <c r="DY116" s="15"/>
       <c r="DZ116" s="15"/>
       <c r="EA116" s="36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="EB116" s="36"/>
       <c r="EC116" s="110"/>
@@ -30179,7 +29459,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C117" s="32" t="s">
         <v>296</v>
@@ -30189,16 +29469,16 @@
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="40" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L117" s="15"/>
       <c r="M117" s="15"/>
@@ -30320,7 +29600,7 @@
       <c r="DY117" s="15"/>
       <c r="DZ117" s="15"/>
       <c r="EA117" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="EB117" s="36"/>
       <c r="EC117" s="36"/>
@@ -30338,7 +29618,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>296</v>
@@ -30348,16 +29628,16 @@
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="40" t="s">
+        <v>860</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>861</v>
-      </c>
-      <c r="K118" s="15" t="s">
-        <v>862</v>
       </c>
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
@@ -30479,7 +29759,7 @@
       <c r="DY118" s="15"/>
       <c r="DZ118" s="15"/>
       <c r="EA118" s="36" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="EB118" s="36"/>
       <c r="EC118" s="36"/>
@@ -30497,7 +29777,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C119" s="32" t="s">
         <v>318</v>
@@ -30507,16 +29787,16 @@
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K119" s="15" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L119" s="15"/>
       <c r="M119" s="15"/>
@@ -30641,7 +29921,7 @@
       <c r="EB119" s="36"/>
       <c r="EC119" s="36"/>
       <c r="ED119" s="36" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="EE119" s="36"/>
       <c r="EF119" s="15"/>
@@ -30656,7 +29936,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C120" s="32" t="s">
         <v>318</v>
@@ -30672,10 +29952,10 @@
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="K120" s="15" t="s">
         <v>873</v>
-      </c>
-      <c r="K120" s="15" t="s">
-        <v>874</v>
       </c>
       <c r="L120" s="15"/>
       <c r="M120" s="15"/>
@@ -30800,7 +30080,7 @@
       <c r="EB120" s="36"/>
       <c r="EC120" s="36"/>
       <c r="ED120" s="36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="EE120" s="36"/>
       <c r="EF120" s="15"/>
@@ -30815,7 +30095,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C121" s="32" t="s">
         <v>318</v>
@@ -30825,16 +30105,16 @@
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K121" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L121" s="15"/>
       <c r="M121" s="15"/>
@@ -30972,7 +30252,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C122" s="32" t="s">
         <v>318</v>
@@ -30982,13 +30262,13 @@
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
@@ -31114,7 +30394,7 @@
       <c r="EB122" s="36"/>
       <c r="EC122" s="110"/>
       <c r="ED122" s="36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="EE122" s="36"/>
       <c r="EF122" s="15"/>
@@ -31129,7 +30409,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C123" s="32" t="s">
         <v>318</v>
@@ -31139,13 +30419,13 @@
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
@@ -31271,7 +30551,7 @@
       <c r="EB123" s="36"/>
       <c r="EC123" s="110"/>
       <c r="ED123" s="15" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="EE123" s="15"/>
       <c r="EF123" s="15"/>
@@ -31286,7 +30566,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>318</v>
@@ -31296,13 +30576,13 @@
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
@@ -31428,7 +30708,7 @@
       <c r="EB124" s="36"/>
       <c r="EC124" s="110"/>
       <c r="ED124" s="15" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="EE124" s="15"/>
       <c r="EF124" s="15"/>
@@ -31443,7 +30723,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C125" s="32" t="s">
         <v>318</v>
@@ -31459,10 +30739,10 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K125" s="15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L125" s="15"/>
       <c r="M125" s="15"/>
@@ -31587,7 +30867,7 @@
       <c r="EB125" s="36"/>
       <c r="EC125" s="36"/>
       <c r="ED125" s="36" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="EE125" s="36"/>
       <c r="EF125" s="15"/>
@@ -31602,7 +30882,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>318</v>
@@ -31618,10 +30898,10 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="40" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K126" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
@@ -31746,7 +31026,7 @@
       <c r="EB126" s="36"/>
       <c r="EC126" s="36"/>
       <c r="ED126" s="36" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="EE126" s="36"/>
       <c r="EF126" s="15"/>
@@ -31761,7 +31041,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>318</v>
@@ -31775,10 +31055,10 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>897</v>
-      </c>
-      <c r="K127" s="15" t="s">
-        <v>898</v>
       </c>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
@@ -31803,7 +31083,7 @@
       <c r="AF127" s="15"/>
       <c r="AG127" s="15"/>
       <c r="AH127" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AI127" s="36"/>
       <c r="AJ127" s="15"/>
@@ -31817,13 +31097,13 @@
         <v>48</v>
       </c>
       <c r="AR127" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AS127" s="15" t="s">
         <v>35</v>
       </c>
       <c r="AT127" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AU127" s="15"/>
       <c r="AV127" s="15"/>
@@ -31930,7 +31210,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>296</v>
@@ -31944,7 +31224,7 @@
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="40" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
@@ -32121,7 +31401,7 @@
       <c r="DY128" s="15"/>
       <c r="DZ128" s="15"/>
       <c r="EA128" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="EB128" s="36"/>
       <c r="EC128" s="36"/>
@@ -32139,7 +31419,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>296</v>
@@ -32151,15 +31431,15 @@
         <v>319</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
@@ -32248,7 +31528,7 @@
       <c r="CQ129" s="15"/>
       <c r="CR129" s="15"/>
       <c r="CS129" s="15" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="CT129" s="15"/>
       <c r="CU129" s="15"/>
@@ -32288,7 +31568,7 @@
       <c r="EC129" s="15"/>
       <c r="ED129" s="15"/>
       <c r="EE129" s="36" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="EF129" s="15"/>
       <c r="EG129" s="92"/>
@@ -32302,7 +31582,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>296</v>
@@ -32312,15 +31592,15 @@
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="36" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G130" s="36" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="15" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
@@ -32409,7 +31689,7 @@
       <c r="CQ130" s="15"/>
       <c r="CR130" s="15"/>
       <c r="CS130" s="15" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="CT130" s="15"/>
       <c r="CU130" s="15"/>
@@ -32449,7 +31729,7 @@
       <c r="EC130" s="15"/>
       <c r="ED130" s="15"/>
       <c r="EE130" s="36" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="EF130" s="15"/>
       <c r="EG130" s="92"/>
@@ -32463,7 +31743,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="115" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>296</v>
@@ -32472,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="AI131" s="81" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="EA131" s="81" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="132" spans="1:143" x14ac:dyDescent="0.25">
@@ -32483,7 +31763,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="115" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>296</v>
@@ -32492,7 +31772,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="N132" s="33" t="s">
         <v>153</v>
@@ -32664,27 +31944,27 @@
       <c r="DW132" s="15"/>
       <c r="DX132" s="15"/>
       <c r="EA132" s="81" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="ED132" s="36" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="EK132" s="81" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="EL132" s="81" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="EM132" s="81" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="133" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>296</v>
@@ -32693,7 +31973,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="N133" s="33" t="s">
         <v>153</v>
@@ -32865,7 +32145,7 @@
       <c r="DW133" s="15"/>
       <c r="DX133" s="15"/>
       <c r="EL133" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="134" spans="1:143" x14ac:dyDescent="0.25">
@@ -32873,7 +32153,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>296</v>
@@ -32882,7 +32162,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="N134" s="33" t="s">
         <v>153</v>
@@ -33054,10 +32334,10 @@
       <c r="DW134" s="15"/>
       <c r="DX134" s="15"/>
       <c r="ED134" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="EL134" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="135" spans="1:143" x14ac:dyDescent="0.25">
@@ -33065,7 +32345,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="115" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>296</v>
@@ -33074,7 +32354,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="N135" s="33" t="s">
         <v>153</v>
@@ -33246,10 +32526,10 @@
       <c r="DW135" s="15"/>
       <c r="DX135" s="15"/>
       <c r="EA135" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="ED135" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="136" spans="1:143" x14ac:dyDescent="0.25">
@@ -33257,7 +32537,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="115" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C136" s="32" t="s">
         <v>296</v>
@@ -33266,10 +32546,10 @@
         <v>0</v>
       </c>
       <c r="EA136" s="81" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="ED136" s="81" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="137" spans="1:143" x14ac:dyDescent="0.25">
@@ -33277,7 +32557,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="115" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>296</v>
@@ -33294,7 +32574,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="115" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>296</v>
@@ -33303,7 +32583,7 @@
         <v>0</v>
       </c>
       <c r="F138" s="81" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -33402,77 +32682,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:BV35"/>
+  <dimension ref="A1:BV36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="35" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="54.42578125" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="29" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="27" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="54" max="55" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
@@ -33552,7 +32832,7 @@
         <v>70</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>694</v>
@@ -33561,22 +32841,22 @@
         <v>695</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>696</v>
@@ -33696,7 +32976,7 @@
         <v>201</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
@@ -34039,7 +33319,7 @@
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13" t="s">
-        <v>1091</v>
+        <v>958</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>84</v>
@@ -37105,7 +36385,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>319</v>
@@ -37124,7 +36404,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L34" s="50"/>
       <c r="M34" s="13"/>
@@ -37142,31 +36422,31 @@
       <c r="Y34" s="50"/>
       <c r="Z34" s="50"/>
       <c r="AA34" s="61" t="s">
-        <v>697</v>
+        <v>966</v>
       </c>
       <c r="AB34" s="50" t="s">
+        <v>764</v>
+      </c>
+      <c r="AC34" s="50" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD34" s="50" t="s">
         <v>765</v>
       </c>
-      <c r="AC34" s="50" t="s">
-        <v>769</v>
-      </c>
-      <c r="AD34" s="50" t="s">
+      <c r="AE34" s="50" t="s">
         <v>766</v>
       </c>
-      <c r="AE34" s="50" t="s">
+      <c r="AF34" s="50" t="s">
+        <v>772</v>
+      </c>
+      <c r="AG34" s="50" t="s">
+        <v>773</v>
+      </c>
+      <c r="AH34" s="50" t="s">
+        <v>774</v>
+      </c>
+      <c r="AI34" s="50" t="s">
         <v>767</v>
-      </c>
-      <c r="AF34" s="50" t="s">
-        <v>773</v>
-      </c>
-      <c r="AG34" s="50" t="s">
-        <v>774</v>
-      </c>
-      <c r="AH34" s="50" t="s">
-        <v>775</v>
-      </c>
-      <c r="AI34" s="50" t="s">
-        <v>768</v>
       </c>
       <c r="AJ34" s="61"/>
       <c r="AK34" s="61"/>
@@ -37208,17 +36488,17 @@
       <c r="BU34" s="13"/>
       <c r="BV34" s="13"/>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+    <row r="35" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>913</v>
+      <c r="B35" s="16" t="s">
+        <v>615</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="13" t="s">
         <v>0</v>
       </c>
@@ -37231,48 +36511,50 @@
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="L35" s="13"/>
+      <c r="K35" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="L35" s="50"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
       <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="47" t="s">
-        <v>914</v>
-      </c>
-      <c r="Z35" s="47" t="s">
-        <v>916</v>
-      </c>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="50" t="s">
+        <v>968</v>
+      </c>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="99" t="s">
+        <v>967</v>
+      </c>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="61"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="61"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="61"/>
+      <c r="AP35" s="99"/>
+      <c r="AQ35" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
       <c r="AW35" s="13"/>
@@ -37280,9 +36562,7 @@
       <c r="AY35" s="13"/>
       <c r="AZ35" s="13"/>
       <c r="BA35" s="13"/>
-      <c r="BB35" s="13" t="s">
-        <v>918</v>
-      </c>
+      <c r="BB35" s="13"/>
       <c r="BC35" s="13"/>
       <c r="BD35" s="13"/>
       <c r="BE35" s="13"/>
@@ -37302,8 +36582,104 @@
       <c r="BS35" s="13"/>
       <c r="BT35" s="13"/>
       <c r="BU35" s="13"/>
-      <c r="BV35" s="47" t="s">
-        <v>919</v>
+      <c r="BV35" s="13"/>
+    </row>
+    <row r="36" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>35</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z36" s="47" t="s">
+        <v>913</v>
+      </c>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="13"/>
+      <c r="BB36" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="13"/>
+      <c r="BE36" s="13"/>
+      <c r="BF36" s="13"/>
+      <c r="BG36" s="13"/>
+      <c r="BH36" s="13"/>
+      <c r="BI36" s="13"/>
+      <c r="BJ36" s="13"/>
+      <c r="BK36" s="13"/>
+      <c r="BL36" s="13"/>
+      <c r="BM36" s="13"/>
+      <c r="BN36" s="13"/>
+      <c r="BO36" s="13"/>
+      <c r="BP36" s="13"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="13"/>
+      <c r="BS36" s="13"/>
+      <c r="BT36" s="13"/>
+      <c r="BU36" s="13"/>
+      <c r="BV36" s="47" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -37352,26 +36728,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -37949,15 +37325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -38191,7 +37558,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -38200,15 +37567,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38228,7 +37596,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -38236,4 +37604,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics_CRM_Cloud_After_Wave1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8D1EA7-E2E2-4F3A-B40B-69231E02FB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C8D35-B1EB-41C5-8E20-F1763A065AFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="995">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2961,55 +2961,70 @@
     <t>2022_05_12_10_04_35</t>
   </si>
   <si>
-    <t>2022_05_12_10_12_16</t>
-  </si>
-  <si>
     <t>2022_05_12_10_15_17</t>
   </si>
   <si>
     <t>2022_05_12_10_57_07</t>
   </si>
   <si>
-    <t>2022_05_12_11_10_13</t>
-  </si>
-  <si>
-    <t>2022_05_12_02_47_37</t>
-  </si>
-  <si>
-    <t>2022_05_12_02_54_17</t>
-  </si>
-  <si>
-    <t>2022_05_12_03_38_13</t>
-  </si>
-  <si>
-    <t>2022_05_12_03_48_12</t>
-  </si>
-  <si>
-    <t>2022_05_12_03_53_27</t>
-  </si>
-  <si>
-    <t>2022_05_12_04_22_16</t>
-  </si>
-  <si>
-    <t>2022_05_12_04_28_16</t>
-  </si>
-  <si>
-    <t>2022_05_12_05_00_10</t>
-  </si>
-  <si>
-    <t>2022_05_12_05_07_03</t>
-  </si>
-  <si>
-    <t>2022_05_12_05_11_16</t>
-  </si>
-  <si>
-    <t>2022_05_12_06_17_29</t>
-  </si>
-  <si>
-    <t>2022_05_12_07_32_07</t>
-  </si>
-  <si>
     <t>2022_05_12_07_36_48</t>
+  </si>
+  <si>
+    <t>7000568142</t>
+  </si>
+  <si>
+    <t>2022_05_19_01_58_56</t>
+  </si>
+  <si>
+    <t>7000568143</t>
+  </si>
+  <si>
+    <t>2022_05_19_02_21_26</t>
+  </si>
+  <si>
+    <t>7000568144</t>
+  </si>
+  <si>
+    <t>2022_05_19_02_29_25</t>
+  </si>
+  <si>
+    <t>7000568145</t>
+  </si>
+  <si>
+    <t>2022_05_19_04_01_26</t>
+  </si>
+  <si>
+    <t>7000568146</t>
+  </si>
+  <si>
+    <t>2022_05_19_04_12_51</t>
+  </si>
+  <si>
+    <t>7000568147</t>
+  </si>
+  <si>
+    <t>2022_05_19_04_23_01</t>
+  </si>
+  <si>
+    <t>7000568148</t>
+  </si>
+  <si>
+    <t>2022_05_19_05_06_15</t>
+  </si>
+  <si>
+    <t>7000568149</t>
+  </si>
+  <si>
+    <t>2022_05_19_05_25_50</t>
+  </si>
+  <si>
+    <t>2022_05_19_05_46_18</t>
+  </si>
+  <si>
+    <t>7000568151</t>
+  </si>
+  <si>
+    <t>2022_05_19_05_59_30</t>
   </si>
 </sst>
 </file>
@@ -3861,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7946,7 +7961,7 @@
         <v>955</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
@@ -7961,7 +7976,7 @@
         <v>614</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>26</v>
@@ -7973,7 +7988,7 @@
         <v>955</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -8000,7 +8015,7 @@
         <v>955</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
@@ -8178,10 +8193,14 @@
         <v>40</v>
       </c>
       <c r="F170" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
+        <v>955</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>977</v>
+      </c>
+      <c r="H170" s="28" t="s">
+        <v>976</v>
+      </c>
       <c r="I170" s="28"/>
       <c r="J170" s="28"/>
       <c r="K170" s="28"/>
@@ -8269,7 +8288,7 @@
         <v>424</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="29" t="s">
         <v>219</v>
@@ -8278,10 +8297,14 @@
         <v>40</v>
       </c>
       <c r="F174" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="G174" s="28"/>
-      <c r="H174" s="28"/>
+        <v>955</v>
+      </c>
+      <c r="G174" s="28" t="s">
+        <v>994</v>
+      </c>
+      <c r="H174" s="28" t="s">
+        <v>993</v>
+      </c>
       <c r="I174" s="28"/>
       <c r="J174" s="28"/>
       <c r="K174" s="28"/>
@@ -37325,6 +37348,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -37558,7 +37590,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -37567,16 +37599,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37596,7 +37627,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37604,12 +37635,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D8E2C9-4CC0-4A90-B853-EE0BABCE3307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E757496-1734-48AF-AC73-87CA0CABC93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -17,15 +17,16 @@
     <sheet name="BulkImport" sheetId="8" r:id="rId2"/>
     <sheet name="Member" sheetId="2" r:id="rId3"/>
     <sheet name="LOBFSC" sheetId="9" r:id="rId4"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId5"/>
-    <sheet name="Contact" sheetId="7" r:id="rId6"/>
+    <sheet name="ConvertingAccounts" sheetId="10" r:id="rId5"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId6"/>
+    <sheet name="Contact" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5624" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="1113">
   <si>
     <t>Premier1a</t>
   </si>
@@ -3103,12 +3104,6 @@
     <t>Rx - Government</t>
   </si>
   <si>
-    <t>2000512614</t>
-  </si>
-  <si>
-    <t>2022_05_26_09_47_28</t>
-  </si>
-  <si>
     <t>TFS ID_6963:Verify Food Services LOB is NOT added automatically when LOB is not General GPO and Non-GPO Premier Membership is converted to GPO Premier Membership.</t>
   </si>
   <si>
@@ -3118,12 +3113,6 @@
     <t>Innovatix/Essensa</t>
   </si>
   <si>
-    <t>2000512618</t>
-  </si>
-  <si>
-    <t>2022_05_27_02_25_05</t>
-  </si>
-  <si>
     <t>TFS ID_6964:Verify Food Services LOB is added automatically when Location Type account is converted to Member</t>
   </si>
   <si>
@@ -3139,9 +3128,6 @@
     <t>TFS ID_6965:Verify Food Services LOB is added automatically when LOB Update is made after Location Type Account is converted to Member</t>
   </si>
   <si>
-    <t>2000512638</t>
-  </si>
-  <si>
     <t>2022_05_30_08_27_34</t>
   </si>
   <si>
@@ -3286,19 +3272,115 @@
     <t>2022_06_03_11_12_23</t>
   </si>
   <si>
-    <t>2000512701</t>
-  </si>
-  <si>
     <t>2000512702</t>
   </si>
   <si>
     <t>2022_06_03_11_40_17</t>
   </si>
   <si>
-    <t>2000512703</t>
-  </si>
-  <si>
     <t>2000512704</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4522:Verify a published main account can be converted to a ship to account</t>
+  </si>
+  <si>
+    <t>ConvertingAccounts</t>
+  </si>
+  <si>
+    <t>4522_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>TFS ID_4526:Automation: Verify if a main account can be converted to mailto account</t>
+  </si>
+  <si>
+    <t>4526_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>TFS ID_4523:Verify if a main account with draft status can be converted to a shipto account</t>
+  </si>
+  <si>
+    <t>2000512714</t>
+  </si>
+  <si>
+    <t>2022_06_03_04_48_11</t>
+  </si>
+  <si>
+    <t>2000512717</t>
+  </si>
+  <si>
+    <t>2022_06_03_05_37_13</t>
+  </si>
+  <si>
+    <t>2000512718</t>
+  </si>
+  <si>
+    <t>2022_06_03_05_51_40</t>
+  </si>
+  <si>
+    <t>TFS ID_4525:Verify if a shipto account can be converted to main account</t>
+  </si>
+  <si>
+    <t>4523_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>4525_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>TFS ID_4530:Verify if LOB and AG validation happens when a shipto account is converted into main account</t>
+  </si>
+  <si>
+    <t>4530_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>2000512719</t>
+  </si>
+  <si>
+    <t>2022_06_03_07_16_37</t>
+  </si>
+  <si>
+    <t>TFS ID_4534:Verify Food Service LOB rule or mapping works for main account converted from Shipto account</t>
+  </si>
+  <si>
+    <t>4534_VerifyFoodServiceLOB added automatically</t>
+  </si>
+  <si>
+    <t>2000512720</t>
+  </si>
+  <si>
+    <t>2022_06_06_10_00_12</t>
+  </si>
+  <si>
+    <t>TFS ID_4535:Verify if a main account which has child accounts can not be converted to a shipto account</t>
+  </si>
+  <si>
+    <t>2000000704</t>
+  </si>
+  <si>
+    <t>2022_06_06_01_02_41</t>
+  </si>
+  <si>
+    <t>TFS ID_4533:Verify if CAMS rule works fine for a main account converted from shipto account</t>
+  </si>
+  <si>
+    <t>4533_SubAccShipToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>2022_06_06_03_10_56</t>
+  </si>
+  <si>
+    <t>2000512727</t>
+  </si>
+  <si>
+    <t>TFS ID_4531:Verify cascade works fine when a shipto account gets converted to a main account</t>
+  </si>
+  <si>
+    <t>4531_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>2022_06_06_08_42_47</t>
+  </si>
+  <si>
+    <t>2000512733</t>
   </si>
 </sst>
 </file>
@@ -3515,7 +3597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3619,12 +3701,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3756,7 +3871,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3801,7 +3915,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3822,6 +3935,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4143,31 +4271,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="101" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -4197,6 +4325,7 @@
       <c r="K1" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
@@ -4228,7 +4357,7 @@
       <c r="K2" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="106" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4260,7 +4389,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="116" t="s">
         <v>545</v>
       </c>
     </row>
@@ -4292,6 +4421,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
+      <c r="L4" s="117"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -4319,6 +4449,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
+      <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -4346,6 +4477,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -4373,6 +4505,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
+      <c r="L7" s="117"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -4402,6 +4535,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
+      <c r="L8" s="117"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -4429,6 +4563,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
+      <c r="L9" s="117"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -4456,6 +4591,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
+      <c r="L10" s="117"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -4483,6 +4619,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
+      <c r="L11" s="117"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
@@ -4510,6 +4647,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
+      <c r="L12" s="117"/>
       <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4538,6 +4676,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
+      <c r="L13" s="117"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
@@ -4565,6 +4704,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
+      <c r="L14" s="117"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
@@ -4592,6 +4732,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
+      <c r="L15" s="117"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -4619,8 +4760,9 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
+      <c r="L16" s="117"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -4646,8 +4788,9 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
+      <c r="L17" s="117"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -4673,8 +4816,9 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
+      <c r="L18" s="117"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -4700,8 +4844,9 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
+      <c r="L19" s="117"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -4727,8 +4872,9 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
+      <c r="L20" s="117"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -4756,8 +4902,9 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
+      <c r="L21" s="117"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -4781,8 +4928,9 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="25"/>
+      <c r="L22" s="117"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -4806,8 +4954,9 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
+      <c r="L23" s="117"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -4831,8 +4980,9 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
+      <c r="L24" s="117"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -4856,8 +5006,9 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
+      <c r="L25" s="117"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -4881,8 +5032,9 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
+      <c r="L26" s="117"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -4906,8 +5058,9 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
+      <c r="L27" s="117"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -4931,8 +5084,9 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
+      <c r="L28" s="117"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -4956,8 +5110,9 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
+      <c r="L29" s="117"/>
     </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -4981,8 +5136,9 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
+      <c r="L30" s="118"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -5006,8 +5162,9 @@
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
+      <c r="L31" s="117"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -5031,8 +5188,9 @@
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
+      <c r="L32" s="117"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -5056,8 +5214,9 @@
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
+      <c r="L33" s="117"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -5081,8 +5240,9 @@
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
+      <c r="L34" s="117"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -5106,8 +5266,9 @@
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
+      <c r="L35" s="117"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -5131,8 +5292,9 @@
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
+      <c r="L36" s="117"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -5156,8 +5318,9 @@
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
+      <c r="L37" s="117"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -5181,8 +5344,9 @@
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
+      <c r="L38" s="117"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -5206,8 +5370,9 @@
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
+      <c r="L39" s="117"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -5231,8 +5396,9 @@
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
+      <c r="L40" s="117"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -5256,8 +5422,9 @@
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
+      <c r="L41" s="117"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -5281,8 +5448,9 @@
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
+      <c r="L42" s="117"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -5306,8 +5474,9 @@
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
+      <c r="L43" s="117"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -5331,8 +5500,9 @@
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
+      <c r="L44" s="117"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -5356,8 +5526,9 @@
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
+      <c r="L45" s="117"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -5381,8 +5552,9 @@
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
+      <c r="L46" s="117"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -5406,8 +5578,9 @@
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
+      <c r="L47" s="117"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -5431,8 +5604,9 @@
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
+      <c r="L48" s="117"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -5456,8 +5630,9 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
+      <c r="L49" s="117"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -5481,8 +5656,9 @@
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
+      <c r="L50" s="117"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -5506,8 +5682,9 @@
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
+      <c r="L51" s="117"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -5531,8 +5708,9 @@
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
+      <c r="L52" s="117"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -5556,8 +5734,9 @@
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
+      <c r="L53" s="117"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -5581,8 +5760,9 @@
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
+      <c r="L54" s="117"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -5606,8 +5786,9 @@
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
+      <c r="L55" s="117"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -5631,8 +5812,9 @@
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
+      <c r="L56" s="117"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -5656,8 +5838,9 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
+      <c r="L57" s="117"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -5681,8 +5864,9 @@
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
+      <c r="L58" s="117"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -5706,8 +5890,9 @@
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
+      <c r="L59" s="117"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -5731,8 +5916,9 @@
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
+      <c r="L60" s="117"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -5756,8 +5942,9 @@
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
+      <c r="L61" s="117"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -5781,8 +5968,9 @@
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
+      <c r="L62" s="117"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -5806,8 +5994,9 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
+      <c r="L63" s="117"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -5831,8 +6020,9 @@
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
+      <c r="L64" s="117"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -5856,8 +6046,9 @@
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
+      <c r="L65" s="117"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -5881,8 +6072,9 @@
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
+      <c r="L66" s="117"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>66</v>
       </c>
@@ -5906,8 +6098,9 @@
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
+      <c r="L67" s="117"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -5931,8 +6124,9 @@
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
+      <c r="L68" s="117"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -5956,8 +6150,9 @@
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
+      <c r="L69" s="117"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -5981,8 +6176,9 @@
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
+      <c r="L70" s="117"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -6006,8 +6202,9 @@
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
+      <c r="L71" s="117"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -6031,8 +6228,9 @@
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
+      <c r="L72" s="117"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -6056,8 +6254,9 @@
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
       <c r="K73" s="24"/>
+      <c r="L73" s="117"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -6081,8 +6280,9 @@
       <c r="I74" s="24"/>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
+      <c r="L74" s="117"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>74</v>
       </c>
@@ -6106,8 +6306,9 @@
       <c r="I75" s="24"/>
       <c r="J75" s="24"/>
       <c r="K75" s="24"/>
+      <c r="L75" s="117"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -6131,8 +6332,9 @@
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
+      <c r="L76" s="117"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -6158,8 +6360,9 @@
       <c r="I77" s="24"/>
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
+      <c r="L77" s="117"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -6183,8 +6386,9 @@
       <c r="I78" s="24"/>
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
+      <c r="L78" s="117"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -6208,8 +6412,9 @@
       <c r="I79" s="24"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
+      <c r="L79" s="117"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -6233,6 +6438,7 @@
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
+      <c r="L80" s="117"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
@@ -6258,6 +6464,7 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
+      <c r="L81" s="117"/>
     </row>
     <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
@@ -6283,6 +6490,7 @@
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
+      <c r="L82" s="118"/>
     </row>
     <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
@@ -6308,6 +6516,7 @@
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
+      <c r="L83" s="118"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
@@ -6333,7 +6542,7 @@
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="48"/>
-      <c r="L84" s="102"/>
+      <c r="L84" s="119"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
@@ -6359,7 +6568,7 @@
       <c r="I85" s="17"/>
       <c r="J85" s="17"/>
       <c r="K85" s="48"/>
-      <c r="L85" s="102"/>
+      <c r="L85" s="119"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
@@ -6385,7 +6594,7 @@
       <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="48"/>
-      <c r="L86" s="102"/>
+      <c r="L86" s="119"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
@@ -6411,7 +6620,7 @@
       <c r="I87" s="17"/>
       <c r="J87" s="17"/>
       <c r="K87" s="48"/>
-      <c r="L87" s="102"/>
+      <c r="L87" s="119"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
@@ -6437,7 +6646,7 @@
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="48"/>
-      <c r="L88" s="102"/>
+      <c r="L88" s="119"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
@@ -6463,7 +6672,7 @@
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="48"/>
-      <c r="L89" s="102"/>
+      <c r="L89" s="119"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
@@ -6489,7 +6698,7 @@
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="48"/>
-      <c r="L90" s="102"/>
+      <c r="L90" s="119"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
@@ -6515,7 +6724,7 @@
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="48"/>
-      <c r="L91" s="102"/>
+      <c r="L91" s="119"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
@@ -6541,7 +6750,7 @@
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
       <c r="K92" s="48"/>
-      <c r="L92" s="102"/>
+      <c r="L92" s="119"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
@@ -6567,7 +6776,7 @@
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
       <c r="K93" s="48"/>
-      <c r="L93" s="102"/>
+      <c r="L93" s="119"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
@@ -6593,7 +6802,7 @@
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
       <c r="K94" s="48"/>
-      <c r="L94" s="102"/>
+      <c r="L94" s="119"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
@@ -6619,7 +6828,7 @@
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="48"/>
-      <c r="L95" s="102"/>
+      <c r="L95" s="119"/>
     </row>
     <row r="96" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
@@ -6645,8 +6854,9 @@
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
+      <c r="L96" s="118"/>
     </row>
-    <row r="97" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -6670,8 +6880,9 @@
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
+      <c r="L97" s="118"/>
     </row>
-    <row r="98" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>97</v>
       </c>
@@ -6695,8 +6906,9 @@
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
+      <c r="L98" s="118"/>
     </row>
-    <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>98</v>
       </c>
@@ -6720,8 +6932,9 @@
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
+      <c r="L99" s="118"/>
     </row>
-    <row r="100" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -6745,8 +6958,9 @@
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
+      <c r="L100" s="118"/>
     </row>
-    <row r="101" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -6770,8 +6984,9 @@
       <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
+      <c r="L101" s="118"/>
     </row>
-    <row r="102" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>101</v>
       </c>
@@ -6795,8 +7010,9 @@
       <c r="I102" s="17"/>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
+      <c r="L102" s="118"/>
     </row>
-    <row r="103" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>102</v>
       </c>
@@ -6820,8 +7036,9 @@
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
+      <c r="L103" s="118"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>103</v>
       </c>
@@ -6845,8 +7062,9 @@
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
+      <c r="L104" s="118"/>
     </row>
-    <row r="105" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>104</v>
       </c>
@@ -6870,8 +7088,9 @@
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
+      <c r="L105" s="118"/>
     </row>
-    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>105</v>
       </c>
@@ -6895,8 +7114,9 @@
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
+      <c r="L106" s="118"/>
     </row>
-    <row r="107" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>106</v>
       </c>
@@ -6920,8 +7140,9 @@
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
+      <c r="L107" s="118"/>
     </row>
-    <row r="108" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>107</v>
       </c>
@@ -6945,8 +7166,9 @@
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
+      <c r="L108" s="118"/>
     </row>
-    <row r="109" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>108</v>
       </c>
@@ -6970,8 +7192,9 @@
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
+      <c r="L109" s="118"/>
     </row>
-    <row r="110" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>109</v>
       </c>
@@ -6995,8 +7218,9 @@
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
+      <c r="L110" s="118"/>
     </row>
-    <row r="111" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>110</v>
       </c>
@@ -7020,8 +7244,9 @@
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
+      <c r="L111" s="118"/>
     </row>
-    <row r="112" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>111</v>
       </c>
@@ -7045,8 +7270,9 @@
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
+      <c r="L112" s="118"/>
     </row>
-    <row r="113" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>112</v>
       </c>
@@ -7070,8 +7296,9 @@
       <c r="I113" s="17"/>
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
+      <c r="L113" s="118"/>
     </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>113</v>
       </c>
@@ -7095,8 +7322,9 @@
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
+      <c r="L114" s="118"/>
     </row>
-    <row r="115" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>114</v>
       </c>
@@ -7120,8 +7348,9 @@
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
+      <c r="L115" s="118"/>
     </row>
-    <row r="116" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>115</v>
       </c>
@@ -7145,8 +7374,9 @@
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
+      <c r="L116" s="118"/>
     </row>
-    <row r="117" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>116</v>
       </c>
@@ -7170,8 +7400,9 @@
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
+      <c r="L117" s="118"/>
     </row>
-    <row r="118" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>117</v>
       </c>
@@ -7195,8 +7426,9 @@
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
+      <c r="L118" s="118"/>
     </row>
-    <row r="119" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>118</v>
       </c>
@@ -7220,8 +7452,9 @@
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
+      <c r="L119" s="118"/>
     </row>
-    <row r="120" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>119</v>
       </c>
@@ -7245,8 +7478,9 @@
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
+      <c r="L120" s="118"/>
     </row>
-    <row r="121" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>120</v>
       </c>
@@ -7270,8 +7504,9 @@
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
+      <c r="L121" s="118"/>
     </row>
-    <row r="122" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>121</v>
       </c>
@@ -7295,8 +7530,9 @@
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
+      <c r="L122" s="118"/>
     </row>
-    <row r="123" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>122</v>
       </c>
@@ -7320,8 +7556,9 @@
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
+      <c r="L123" s="118"/>
     </row>
-    <row r="124" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>123</v>
       </c>
@@ -7345,8 +7582,9 @@
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
+      <c r="L124" s="118"/>
     </row>
-    <row r="125" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
         <v>124</v>
       </c>
@@ -7370,8 +7608,9 @@
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
+      <c r="L125" s="118"/>
     </row>
-    <row r="126" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
         <v>125</v>
       </c>
@@ -7395,33 +7634,35 @@
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
+      <c r="L126" s="118"/>
     </row>
-    <row r="127" spans="1:11" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>126</v>
       </c>
-      <c r="B127" s="106" t="s">
+      <c r="B127" s="104" t="s">
         <v>885</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="106" t="s">
+      <c r="D127" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E127" s="106" t="s">
+      <c r="E127" s="104" t="s">
         <v>40</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G127" s="106"/>
-      <c r="H127" s="106"/>
-      <c r="I127" s="106"/>
-      <c r="J127" s="106"/>
-      <c r="K127" s="106"/>
+      <c r="G127" s="104"/>
+      <c r="H127" s="104"/>
+      <c r="I127" s="104"/>
+      <c r="J127" s="104"/>
+      <c r="K127" s="104"/>
+      <c r="L127" s="120"/>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>127</v>
       </c>
@@ -7445,8 +7686,9 @@
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
+      <c r="L128" s="118"/>
     </row>
-    <row r="129" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>128</v>
       </c>
@@ -7470,8 +7712,9 @@
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
+      <c r="L129" s="118"/>
     </row>
-    <row r="130" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>129</v>
       </c>
@@ -7495,8 +7738,9 @@
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
+      <c r="L130" s="118"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
         <v>130</v>
       </c>
@@ -7520,12 +7764,13 @@
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
       <c r="K131" s="13"/>
+      <c r="L131" s="117"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>131</v>
       </c>
-      <c r="B132" s="110" t="s">
+      <c r="B132" s="108" t="s">
         <v>913</v>
       </c>
       <c r="C132" s="17" t="s">
@@ -7540,12 +7785,18 @@
       <c r="F132" s="17" t="s">
         <v>937</v>
       </c>
+      <c r="G132" s="121"/>
+      <c r="H132" s="121"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="121"/>
+      <c r="K132" s="121"/>
+      <c r="L132" s="117"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
         <v>132</v>
       </c>
-      <c r="B133" s="110" t="s">
+      <c r="B133" s="108" t="s">
         <v>914</v>
       </c>
       <c r="C133" s="17" t="s">
@@ -7560,12 +7811,18 @@
       <c r="F133" s="17" t="s">
         <v>938</v>
       </c>
+      <c r="G133" s="121"/>
+      <c r="H133" s="121"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="121"/>
+      <c r="K133" s="121"/>
+      <c r="L133" s="117"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="122" t="s">
         <v>915</v>
       </c>
       <c r="C134" s="17" t="s">
@@ -7580,12 +7837,18 @@
       <c r="F134" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="G134" s="121"/>
+      <c r="H134" s="121"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="121"/>
+      <c r="K134" s="121"/>
+      <c r="L134" s="117"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="122" t="s">
         <v>916</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -7600,12 +7863,18 @@
       <c r="F135" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="G135" s="121"/>
+      <c r="H135" s="121"/>
+      <c r="I135" s="121"/>
+      <c r="J135" s="121"/>
+      <c r="K135" s="121"/>
+      <c r="L135" s="117"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>135</v>
       </c>
-      <c r="B136" s="110" t="s">
+      <c r="B136" s="108" t="s">
         <v>917</v>
       </c>
       <c r="C136" s="17" t="s">
@@ -7620,12 +7889,18 @@
       <c r="F136" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="G136" s="121"/>
+      <c r="H136" s="121"/>
+      <c r="I136" s="121"/>
+      <c r="J136" s="121"/>
+      <c r="K136" s="121"/>
+      <c r="L136" s="117"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>136</v>
       </c>
-      <c r="B137" s="110" t="s">
+      <c r="B137" s="108" t="s">
         <v>918</v>
       </c>
       <c r="C137" s="17" t="s">
@@ -7640,12 +7915,18 @@
       <c r="F137" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="G137" s="121"/>
+      <c r="H137" s="121"/>
+      <c r="I137" s="121"/>
+      <c r="J137" s="121"/>
+      <c r="K137" s="121"/>
+      <c r="L137" s="117"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>137</v>
       </c>
-      <c r="B138" s="110" t="s">
+      <c r="B138" s="108" t="s">
         <v>919</v>
       </c>
       <c r="C138" s="17" t="s">
@@ -7660,12 +7941,18 @@
       <c r="F138" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="G138" s="121"/>
+      <c r="H138" s="121"/>
+      <c r="I138" s="121"/>
+      <c r="J138" s="121"/>
+      <c r="K138" s="121"/>
+      <c r="L138" s="117"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>138</v>
       </c>
-      <c r="B139" s="110" t="s">
+      <c r="B139" s="108" t="s">
         <v>920</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -7680,8 +7967,14 @@
       <c r="F139" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="G139" s="121"/>
+      <c r="H139" s="121"/>
+      <c r="I139" s="121"/>
+      <c r="J139" s="121"/>
+      <c r="K139" s="121"/>
+      <c r="L139" s="117"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>139</v>
       </c>
@@ -7705,8 +7998,9 @@
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
       <c r="K140" s="22"/>
+      <c r="L140" s="117"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>140</v>
       </c>
@@ -7730,8 +8024,9 @@
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
       <c r="K141" s="22"/>
+      <c r="L141" s="117"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>141</v>
       </c>
@@ -7755,8 +8050,9 @@
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="22"/>
+      <c r="L142" s="117"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>142</v>
       </c>
@@ -7780,8 +8076,9 @@
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
       <c r="K143" s="22"/>
+      <c r="L143" s="117"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>143</v>
       </c>
@@ -7805,8 +8102,9 @@
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
       <c r="K144" s="22"/>
+      <c r="L144" s="117"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>144</v>
       </c>
@@ -7830,8 +8128,9 @@
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
       <c r="K145" s="22"/>
+      <c r="L145" s="117"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>145</v>
       </c>
@@ -7855,8 +8154,9 @@
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
       <c r="K146" s="22"/>
+      <c r="L146" s="117"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>146</v>
       </c>
@@ -7880,8 +8180,9 @@
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
       <c r="K147" s="22"/>
+      <c r="L147" s="117"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>147</v>
       </c>
@@ -7905,8 +8206,9 @@
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
       <c r="K148" s="22"/>
+      <c r="L148" s="117"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>148</v>
       </c>
@@ -7930,8 +8232,9 @@
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
       <c r="K149" s="22"/>
+      <c r="L149" s="117"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>149</v>
       </c>
@@ -7955,8 +8258,9 @@
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
       <c r="K150" s="22"/>
+      <c r="L150" s="117"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>150</v>
       </c>
@@ -7980,8 +8284,9 @@
       <c r="I151" s="21"/>
       <c r="J151" s="21"/>
       <c r="K151" s="22"/>
+      <c r="L151" s="117"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>151</v>
       </c>
@@ -8005,8 +8310,9 @@
       <c r="I152" s="21"/>
       <c r="J152" s="21"/>
       <c r="K152" s="22"/>
+      <c r="L152" s="117"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>152</v>
       </c>
@@ -8030,8 +8336,9 @@
       <c r="I153" s="21"/>
       <c r="J153" s="21"/>
       <c r="K153" s="22"/>
+      <c r="L153" s="117"/>
     </row>
-    <row r="154" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>153</v>
       </c>
@@ -8055,12 +8362,13 @@
       <c r="I154" s="21"/>
       <c r="J154" s="21"/>
       <c r="K154" s="22"/>
+      <c r="L154" s="118"/>
     </row>
-    <row r="155" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>154</v>
       </c>
-      <c r="B155" s="109" t="s">
+      <c r="B155" s="107" t="s">
         <v>414</v>
       </c>
       <c r="C155" s="17" t="s">
@@ -8080,8 +8388,9 @@
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
       <c r="K155" s="22"/>
+      <c r="L155" s="118"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>155</v>
       </c>
@@ -8105,8 +8414,9 @@
       <c r="I156" s="24"/>
       <c r="J156" s="24"/>
       <c r="K156" s="24"/>
+      <c r="L156" s="117"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>156</v>
       </c>
@@ -8130,8 +8440,9 @@
       <c r="I157" s="24"/>
       <c r="J157" s="24"/>
       <c r="K157" s="24"/>
+      <c r="L157" s="117"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
         <v>157</v>
       </c>
@@ -8155,8 +8466,9 @@
       <c r="I158" s="24"/>
       <c r="J158" s="24"/>
       <c r="K158" s="24"/>
+      <c r="L158" s="117"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>158</v>
       </c>
@@ -8180,8 +8492,9 @@
       <c r="I159" s="24"/>
       <c r="J159" s="24"/>
       <c r="K159" s="24"/>
+      <c r="L159" s="117"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>159</v>
       </c>
@@ -8205,8 +8518,9 @@
       <c r="I160" s="24"/>
       <c r="J160" s="24"/>
       <c r="K160" s="24"/>
+      <c r="L160" s="117"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
         <v>160</v>
       </c>
@@ -8230,8 +8544,9 @@
       <c r="I161" s="24"/>
       <c r="J161" s="24"/>
       <c r="K161" s="24"/>
+      <c r="L161" s="117"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
         <v>161</v>
       </c>
@@ -8255,8 +8570,9 @@
       <c r="I162" s="24"/>
       <c r="J162" s="24"/>
       <c r="K162" s="24"/>
+      <c r="L162" s="117"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>162</v>
       </c>
@@ -8280,8 +8596,9 @@
       <c r="I163" s="13"/>
       <c r="J163" s="13"/>
       <c r="K163" s="13"/>
+      <c r="L163" s="117"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
         <v>163</v>
       </c>
@@ -8307,8 +8624,9 @@
       <c r="I164" s="24"/>
       <c r="J164" s="24"/>
       <c r="K164" s="24"/>
+      <c r="L164" s="117"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>164</v>
       </c>
@@ -8334,8 +8652,9 @@
       <c r="I165" s="24"/>
       <c r="J165" s="24"/>
       <c r="K165" s="24"/>
+      <c r="L165" s="117"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>165</v>
       </c>
@@ -8363,8 +8682,9 @@
       <c r="I166" s="24"/>
       <c r="J166" s="24"/>
       <c r="K166" s="24"/>
+      <c r="L166" s="117"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
         <v>166</v>
       </c>
@@ -8390,8 +8710,9 @@
       <c r="I167" s="21"/>
       <c r="J167" s="21"/>
       <c r="K167" s="22"/>
+      <c r="L167" s="117"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>167</v>
       </c>
@@ -8417,8 +8738,9 @@
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
       <c r="K168" s="22"/>
+      <c r="L168" s="117"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
         <v>168</v>
       </c>
@@ -8444,8 +8766,9 @@
       <c r="I169" s="21"/>
       <c r="J169" s="21"/>
       <c r="K169" s="22"/>
+      <c r="L169" s="117"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
         <v>169</v>
       </c>
@@ -8471,8 +8794,9 @@
       <c r="I170" s="21"/>
       <c r="J170" s="21"/>
       <c r="K170" s="22"/>
+      <c r="L170" s="117"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="17">
         <v>170</v>
       </c>
@@ -8498,8 +8822,9 @@
       <c r="I171" s="21"/>
       <c r="J171" s="21"/>
       <c r="K171" s="22"/>
+      <c r="L171" s="117"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
         <v>171</v>
       </c>
@@ -8525,8 +8850,9 @@
       <c r="I172" s="21"/>
       <c r="J172" s="21"/>
       <c r="K172" s="22"/>
+      <c r="L172" s="117"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
         <v>172</v>
       </c>
@@ -8552,8 +8878,9 @@
       <c r="I173" s="21"/>
       <c r="J173" s="21"/>
       <c r="K173" s="22"/>
+      <c r="L173" s="117"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
         <v>173</v>
       </c>
@@ -8579,8 +8906,9 @@
       <c r="I174" s="21"/>
       <c r="J174" s="21"/>
       <c r="K174" s="22"/>
+      <c r="L174" s="117"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
         <v>174</v>
       </c>
@@ -8604,8 +8932,9 @@
       <c r="I175" s="21"/>
       <c r="J175" s="21"/>
       <c r="K175" s="22"/>
+      <c r="L175" s="117"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
         <v>175</v>
       </c>
@@ -8633,8 +8962,9 @@
       <c r="I176" s="21"/>
       <c r="J176" s="21"/>
       <c r="K176" s="22"/>
+      <c r="L176" s="117"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
         <v>176</v>
       </c>
@@ -8658,8 +8988,9 @@
       <c r="I177" s="27"/>
       <c r="J177" s="27"/>
       <c r="K177" s="27"/>
+      <c r="L177" s="117"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
         <v>177</v>
       </c>
@@ -8683,8 +9014,9 @@
       <c r="I178" s="27"/>
       <c r="J178" s="27"/>
       <c r="K178" s="27"/>
+      <c r="L178" s="117"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
         <v>178</v>
       </c>
@@ -8708,8 +9040,9 @@
       <c r="I179" s="27"/>
       <c r="J179" s="27"/>
       <c r="K179" s="27"/>
+      <c r="L179" s="117"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
         <v>179</v>
       </c>
@@ -8733,8 +9066,9 @@
       <c r="I180" s="28"/>
       <c r="J180" s="28"/>
       <c r="K180" s="28"/>
+      <c r="L180" s="117"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
         <v>180</v>
       </c>
@@ -8762,8 +9096,9 @@
       <c r="I181" s="28"/>
       <c r="J181" s="28"/>
       <c r="K181" s="28"/>
+      <c r="L181" s="117"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="17">
         <v>181</v>
       </c>
@@ -8787,8 +9122,9 @@
       <c r="I182" s="28"/>
       <c r="J182" s="28"/>
       <c r="K182" s="28"/>
+      <c r="L182" s="117"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
         <v>182</v>
       </c>
@@ -8812,8 +9148,9 @@
       <c r="I183" s="28"/>
       <c r="J183" s="28"/>
       <c r="K183" s="28"/>
+      <c r="L183" s="117"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
         <v>183</v>
       </c>
@@ -8837,12 +9174,13 @@
       <c r="I184" s="28"/>
       <c r="J184" s="28"/>
       <c r="K184" s="28"/>
+      <c r="L184" s="117"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="17">
         <v>184</v>
       </c>
-      <c r="B185" s="112" t="s">
+      <c r="B185" s="110" t="s">
         <v>422</v>
       </c>
       <c r="C185" s="17" t="s">
@@ -8866,15 +9204,16 @@
       <c r="I185" s="28"/>
       <c r="J185" s="28"/>
       <c r="K185" s="28"/>
+      <c r="L185" s="117"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="17">
         <v>185</v>
       </c>
-      <c r="B186" s="110" t="s">
+      <c r="B186" s="108" t="s">
         <v>1008</v>
       </c>
-      <c r="C186" s="111" t="s">
+      <c r="C186" s="109" t="s">
         <v>35</v>
       </c>
       <c r="D186" s="29" t="s">
@@ -8886,21 +9225,26 @@
       <c r="F186" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="121" t="s">
         <v>1009</v>
       </c>
+      <c r="H186" s="121"/>
+      <c r="I186" s="121"/>
+      <c r="J186" s="121"/>
+      <c r="K186" s="121"/>
+      <c r="L186" s="117"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="17">
         <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
         <v>1013</v>
       </c>
-      <c r="C187" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D187" s="110" t="s">
+      <c r="C187" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D187" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E187" s="30" t="s">
@@ -8909,24 +9253,28 @@
       <c r="F187" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="121" t="s">
         <v>1017</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H187" s="121" t="s">
         <v>1016</v>
       </c>
+      <c r="I187" s="121"/>
+      <c r="J187" s="121"/>
+      <c r="K187" s="121"/>
+      <c r="L187" s="117"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="17">
         <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
         <v>1018</v>
       </c>
-      <c r="C188" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D188" s="110" t="s">
+      <c r="C188" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E188" s="30" t="s">
@@ -8935,24 +9283,28 @@
       <c r="F188" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="G188" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1079</v>
-      </c>
+      <c r="G188" s="121" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H188" s="121" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I188" s="121"/>
+      <c r="J188" s="121"/>
+      <c r="K188" s="121"/>
+      <c r="L188" s="117"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="17">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C189" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D189" s="110" t="s">
+      <c r="B189" s="121" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C189" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E189" s="30" t="s">
@@ -8961,24 +9313,28 @@
       <c r="F189" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G189" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1082</v>
-      </c>
+      <c r="G189" s="121" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H189" s="121" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I189" s="121"/>
+      <c r="J189" s="121"/>
+      <c r="K189" s="121"/>
+      <c r="L189" s="117"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="17">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C190" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D190" s="110" t="s">
+      <c r="B190" s="121" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C190" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E190" s="30" t="s">
@@ -8987,24 +9343,28 @@
       <c r="F190" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G190" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1085</v>
-      </c>
+      <c r="G190" s="121" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H190" s="121" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I190" s="121"/>
+      <c r="J190" s="121"/>
+      <c r="K190" s="121"/>
+      <c r="L190" s="117"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="17">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C191" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D191" s="110" t="s">
+      <c r="B191" s="121" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C191" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D191" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E191" s="30" t="s">
@@ -9013,24 +9373,28 @@
       <c r="F191" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G191" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1034</v>
-      </c>
+      <c r="G191" s="121" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H191" s="121" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I191" s="121"/>
+      <c r="J191" s="121"/>
+      <c r="K191" s="121"/>
+      <c r="L191" s="117"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="17">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C192" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D192" s="110" t="s">
+      <c r="B192" s="121" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C192" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D192" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E192" s="30" t="s">
@@ -9039,24 +9403,28 @@
       <c r="F192" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G192" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1036</v>
-      </c>
+      <c r="G192" s="121" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H192" s="121" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I192" s="121"/>
+      <c r="J192" s="121"/>
+      <c r="K192" s="121"/>
+      <c r="L192" s="117"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="17">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C193" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D193" s="110" t="s">
+      <c r="B193" s="121" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C193" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D193" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E193" s="30" t="s">
@@ -9065,24 +9433,28 @@
       <c r="F193" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G193" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H193" t="s">
-        <v>1038</v>
-      </c>
+      <c r="G193" s="121" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H193" s="121" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I193" s="121"/>
+      <c r="J193" s="121"/>
+      <c r="K193" s="121"/>
+      <c r="L193" s="117"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="17">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C194" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D194" s="110" t="s">
+      <c r="B194" s="121" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C194" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D194" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E194" s="30" t="s">
@@ -9091,24 +9463,28 @@
       <c r="F194" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="G194" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H194" t="s">
-        <v>1042</v>
-      </c>
+      <c r="G194" s="121" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H194" s="121" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I194" s="121"/>
+      <c r="J194" s="121"/>
+      <c r="K194" s="121"/>
+      <c r="L194" s="117"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="17">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C195" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D195" s="110" t="s">
+      <c r="B195" s="121" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C195" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E195" s="30" t="s">
@@ -9117,24 +9493,28 @@
       <c r="F195" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G195" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H195" t="s">
-        <v>1044</v>
-      </c>
+      <c r="G195" s="121" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H195" s="121" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I195" s="121"/>
+      <c r="J195" s="121"/>
+      <c r="K195" s="121"/>
+      <c r="L195" s="117"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="17">
         <v>195</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C196" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D196" s="110" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C196" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D196" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E196" s="30" t="s">
@@ -9143,24 +9523,28 @@
       <c r="F196" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="G196" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1049</v>
-      </c>
+      <c r="G196" s="121" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H196" s="121" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I196" s="121"/>
+      <c r="J196" s="121"/>
+      <c r="K196" s="121"/>
+      <c r="L196" s="117"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="17">
         <v>196</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C197" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D197" s="110" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C197" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D197" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E197" s="30" t="s">
@@ -9169,21 +9553,26 @@
       <c r="F197" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="G197" t="s">
-        <v>1051</v>
-      </c>
+      <c r="G197" s="121" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H197" s="121"/>
+      <c r="I197" s="121"/>
+      <c r="J197" s="121"/>
+      <c r="K197" s="121"/>
+      <c r="L197" s="117"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="17">
         <v>197</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C198" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D198" s="110" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C198" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E198" s="30" t="s">
@@ -9192,247 +9581,546 @@
       <c r="F198" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="G198" t="s">
-        <v>1052</v>
-      </c>
+      <c r="G198" s="121" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H198" s="121"/>
+      <c r="I198" s="121"/>
+      <c r="J198" s="121"/>
+      <c r="K198" s="121"/>
+      <c r="L198" s="117"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="111">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="109">
         <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C199" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D199" s="110" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C199" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D199" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E199" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F199" s="111" t="s">
+      <c r="F199" s="109" t="s">
         <v>937</v>
       </c>
-      <c r="G199" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1055</v>
-      </c>
+      <c r="G199" s="121" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H199" s="121" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I199" s="121"/>
+      <c r="J199" s="121"/>
+      <c r="K199" s="121"/>
+      <c r="L199" s="117"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="111">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="109">
         <v>199</v>
       </c>
-      <c r="B200" s="83" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C200" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D200" s="110" t="s">
+      <c r="B200" s="82" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C200" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D200" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E200" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F200" s="111" t="s">
+      <c r="F200" s="109" t="s">
         <v>938</v>
       </c>
-      <c r="G200" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1057</v>
-      </c>
+      <c r="G200" s="121" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H200" s="121" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I200" s="121"/>
+      <c r="J200" s="121"/>
+      <c r="K200" s="121"/>
+      <c r="L200" s="117"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="111">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="109">
         <v>200</v>
       </c>
-      <c r="B201" s="83" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C201" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D201" s="110" t="s">
+      <c r="B201" s="82" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C201" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D201" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E201" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F201" s="111" t="s">
+      <c r="F201" s="109" t="s">
         <v>262</v>
       </c>
+      <c r="G201" s="121"/>
+      <c r="H201" s="121"/>
+      <c r="I201" s="121"/>
+      <c r="J201" s="121"/>
+      <c r="K201" s="121"/>
+      <c r="L201" s="117"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="111">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="109">
         <v>201</v>
       </c>
-      <c r="B202" s="83" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C202" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D202" s="110" t="s">
+      <c r="B202" s="82" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C202" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E202" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F202" s="111" t="s">
+      <c r="F202" s="109" t="s">
         <v>938</v>
       </c>
-      <c r="G202" t="s">
-        <v>1063</v>
-      </c>
+      <c r="G202" s="121" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H202" s="121"/>
+      <c r="I202" s="121"/>
+      <c r="J202" s="121"/>
+      <c r="K202" s="121"/>
+      <c r="L202" s="117"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="111">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="109">
         <v>202</v>
       </c>
-      <c r="B203" s="83" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C203" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D203" s="110" t="s">
+      <c r="B203" s="82" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C203" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D203" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E203" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F203" s="111" t="s">
+      <c r="F203" s="109" t="s">
         <v>937</v>
       </c>
-      <c r="G203" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H203" t="s">
-        <v>1064</v>
-      </c>
+      <c r="G203" s="121" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H203" s="121" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I203" s="121"/>
+      <c r="J203" s="121"/>
+      <c r="K203" s="121"/>
+      <c r="L203" s="117"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="111">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="109">
         <v>203</v>
       </c>
-      <c r="B204" s="83" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C204" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D204" s="110" t="s">
+      <c r="B204" s="82" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C204" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E204" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F204" s="111" t="s">
+      <c r="F204" s="109" t="s">
         <v>937</v>
       </c>
-      <c r="G204" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H204" t="s">
-        <v>1067</v>
-      </c>
+      <c r="G204" s="121" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H204" s="121" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I204" s="121"/>
+      <c r="J204" s="121"/>
+      <c r="K204" s="121"/>
+      <c r="L204" s="117"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="111">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="109">
         <v>204</v>
       </c>
-      <c r="B205" s="83" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C205" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D205" s="110" t="s">
+      <c r="B205" s="82" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C205" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E205" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F205" s="111" t="s">
+      <c r="F205" s="109" t="s">
         <v>937</v>
       </c>
-      <c r="G205" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H205" t="s">
-        <v>1072</v>
-      </c>
+      <c r="G205" s="121" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H205" s="121" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I205" s="121"/>
+      <c r="J205" s="121"/>
+      <c r="K205" s="121"/>
+      <c r="L205" s="117"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="111">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="109">
         <v>205</v>
       </c>
-      <c r="B206" s="83" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C206" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D206" s="110" t="s">
+      <c r="B206" s="82" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C206" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E206" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F206" s="111" t="s">
+      <c r="F206" s="109" t="s">
         <v>937</v>
       </c>
-      <c r="G206" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H206" t="s">
-        <v>1074</v>
-      </c>
+      <c r="G206" s="121" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H206" s="121" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I206" s="121"/>
+      <c r="J206" s="121"/>
+      <c r="K206" s="121"/>
+      <c r="L206" s="117"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="111">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="109">
         <v>206</v>
       </c>
-      <c r="B207" s="83" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C207" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D207" s="110" t="s">
+      <c r="B207" s="82" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C207" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E207" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F207" s="111" t="s">
+      <c r="F207" s="109" t="s">
         <v>937</v>
       </c>
+      <c r="G207" s="121"/>
+      <c r="H207" s="121"/>
+      <c r="I207" s="121"/>
+      <c r="J207" s="121"/>
+      <c r="K207" s="121"/>
+      <c r="L207" s="117"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="111">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="109">
         <v>207</v>
       </c>
-      <c r="B208" s="83" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C208" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D208" s="110" t="s">
+      <c r="B208" s="82" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C208" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D208" s="108" t="s">
         <v>1014</v>
       </c>
       <c r="E208" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F208" s="111" t="s">
+      <c r="F208" s="109" t="s">
         <v>937</v>
+      </c>
+      <c r="G208" s="121"/>
+      <c r="H208" s="121"/>
+      <c r="I208" s="121"/>
+      <c r="J208" s="121"/>
+      <c r="K208" s="121"/>
+      <c r="L208" s="117"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="109">
+        <v>208</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C209" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D209" s="108" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E209" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F209" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G209" s="121" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H209" s="121" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I209" s="121"/>
+      <c r="J209" s="121"/>
+      <c r="K209" s="121"/>
+      <c r="L209" s="117"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="109">
+        <v>209</v>
+      </c>
+      <c r="B210" s="82" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C210" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D210" s="108" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E210" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F210" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G210" s="121" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H210" s="121" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I210" s="121"/>
+      <c r="J210" s="121"/>
+      <c r="K210" s="121"/>
+      <c r="L210" s="117"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="109">
+        <v>210</v>
+      </c>
+      <c r="B211" s="82" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C211" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D211" s="108" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E211" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F211" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G211" s="121" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H211" s="121" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I211" s="121"/>
+      <c r="J211" s="121"/>
+      <c r="K211" s="121"/>
+      <c r="L211" s="117"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="109">
+        <v>211</v>
+      </c>
+      <c r="B212" s="82" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C212" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D212" s="108" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E212" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F212" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G212" s="121"/>
+      <c r="H212" s="121"/>
+      <c r="I212" s="121"/>
+      <c r="J212" s="121"/>
+      <c r="K212" s="121"/>
+      <c r="L212" s="117"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="123">
+        <v>212</v>
+      </c>
+      <c r="B213" s="124" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C213" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E213" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F213" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G213" s="126" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H213" s="126" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I213" s="126"/>
+      <c r="J213" s="126"/>
+      <c r="K213" s="126"/>
+      <c r="L213" s="127"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="109">
+        <v>213</v>
+      </c>
+      <c r="B214" s="82" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C214" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D214" s="125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E214" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F214" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="109">
+        <v>214</v>
+      </c>
+      <c r="B215" s="82" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C215" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D215" s="125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E215" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F215" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="109">
+        <v>215</v>
+      </c>
+      <c r="B216" s="82" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C216" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D216" s="125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E216" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F216" s="123" t="s">
+        <v>938</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="109">
+        <v>216</v>
+      </c>
+      <c r="B217" s="82" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C217" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" s="125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E217" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F217" s="123" t="s">
+        <v>938</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -9533,114 +10221,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EQ138"/>
   <sheetViews>
-    <sheetView topLeftCell="N60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
-    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
-    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
-    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
-    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
-    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
-    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
-    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
+    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
+    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
+    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="136" max="137" width="9.140625" style="2" collapsed="1"/>
+    <col min="138" max="138" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="139" max="140" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="141" max="141" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -10055,7 +10743,7 @@
       <c r="EG1" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="EH1" s="84" t="s">
+      <c r="EH1" s="83" t="s">
         <v>631</v>
       </c>
       <c r="EI1" s="59" t="s">
@@ -10271,7 +10959,7 @@
       <c r="ED2" s="15"/>
       <c r="EE2" s="15"/>
       <c r="EF2" s="15"/>
-      <c r="EG2" s="88"/>
+      <c r="EG2" s="87"/>
       <c r="EH2" s="15"/>
       <c r="EI2" s="15"/>
       <c r="EJ2" s="15"/>
@@ -10484,7 +11172,7 @@
       <c r="ED3" s="15"/>
       <c r="EE3" s="15"/>
       <c r="EF3" s="15"/>
-      <c r="EG3" s="88"/>
+      <c r="EG3" s="87"/>
       <c r="EH3" s="15"/>
       <c r="EI3" s="15"/>
       <c r="EJ3" s="15"/>
@@ -10697,7 +11385,7 @@
       <c r="ED4" s="15"/>
       <c r="EE4" s="15"/>
       <c r="EF4" s="15"/>
-      <c r="EG4" s="88"/>
+      <c r="EG4" s="87"/>
       <c r="EH4" s="15"/>
       <c r="EI4" s="15"/>
       <c r="EJ4" s="15"/>
@@ -10902,7 +11590,7 @@
       <c r="ED5" s="15"/>
       <c r="EE5" s="15"/>
       <c r="EF5" s="15"/>
-      <c r="EG5" s="88"/>
+      <c r="EG5" s="87"/>
       <c r="EH5" s="35"/>
       <c r="EI5" s="15"/>
       <c r="EJ5" s="15"/>
@@ -11109,7 +11797,7 @@
       <c r="ED6" s="14"/>
       <c r="EE6" s="14"/>
       <c r="EF6" s="14"/>
-      <c r="EG6" s="89"/>
+      <c r="EG6" s="88"/>
       <c r="EH6" s="14"/>
       <c r="EI6" s="14"/>
       <c r="EJ6" s="14"/>
@@ -11314,7 +12002,7 @@
       <c r="ED7" s="14"/>
       <c r="EE7" s="14"/>
       <c r="EF7" s="14"/>
-      <c r="EG7" s="89"/>
+      <c r="EG7" s="88"/>
       <c r="EH7" s="14"/>
       <c r="EI7" s="14"/>
       <c r="EJ7" s="14"/>
@@ -11529,7 +12217,7 @@
       <c r="ED8" s="15"/>
       <c r="EE8" s="15"/>
       <c r="EF8" s="15"/>
-      <c r="EG8" s="88"/>
+      <c r="EG8" s="87"/>
       <c r="EH8" s="15"/>
       <c r="EI8" s="15"/>
       <c r="EJ8" s="15"/>
@@ -11748,7 +12436,7 @@
       <c r="ED9" s="15"/>
       <c r="EE9" s="15"/>
       <c r="EF9" s="15"/>
-      <c r="EG9" s="88"/>
+      <c r="EG9" s="87"/>
       <c r="EH9" s="15"/>
       <c r="EI9" s="15"/>
       <c r="EJ9" s="15"/>
@@ -11961,7 +12649,7 @@
       <c r="ED10" s="15"/>
       <c r="EE10" s="15"/>
       <c r="EF10" s="15"/>
-      <c r="EG10" s="88"/>
+      <c r="EG10" s="87"/>
       <c r="EH10" s="15"/>
       <c r="EI10" s="15"/>
       <c r="EJ10" s="15"/>
@@ -12178,7 +12866,7 @@
       <c r="ED11" s="15"/>
       <c r="EE11" s="15"/>
       <c r="EF11" s="15"/>
-      <c r="EG11" s="88"/>
+      <c r="EG11" s="87"/>
       <c r="EH11" s="15"/>
       <c r="EI11" s="15"/>
       <c r="EJ11" s="15"/>
@@ -12389,7 +13077,7 @@
       <c r="ED12" s="15"/>
       <c r="EE12" s="15"/>
       <c r="EF12" s="15"/>
-      <c r="EG12" s="88"/>
+      <c r="EG12" s="87"/>
       <c r="EH12" s="15"/>
       <c r="EI12" s="15"/>
       <c r="EJ12" s="15"/>
@@ -12600,7 +13288,7 @@
       <c r="ED13" s="15"/>
       <c r="EE13" s="15"/>
       <c r="EF13" s="15"/>
-      <c r="EG13" s="88"/>
+      <c r="EG13" s="87"/>
       <c r="EH13" s="15"/>
       <c r="EI13" s="15"/>
       <c r="EJ13" s="15"/>
@@ -12811,7 +13499,7 @@
       <c r="ED14" s="15"/>
       <c r="EE14" s="15"/>
       <c r="EF14" s="15"/>
-      <c r="EG14" s="88"/>
+      <c r="EG14" s="87"/>
       <c r="EH14" s="15"/>
       <c r="EI14" s="15"/>
       <c r="EJ14" s="15"/>
@@ -13024,7 +13712,7 @@
       <c r="ED15" s="15"/>
       <c r="EE15" s="15"/>
       <c r="EF15" s="15"/>
-      <c r="EG15" s="88"/>
+      <c r="EG15" s="87"/>
       <c r="EH15" s="15"/>
       <c r="EI15" s="15"/>
       <c r="EJ15" s="15"/>
@@ -13237,7 +13925,7 @@
       <c r="ED16" s="15"/>
       <c r="EE16" s="15"/>
       <c r="EF16" s="15"/>
-      <c r="EG16" s="88"/>
+      <c r="EG16" s="87"/>
       <c r="EH16" s="15"/>
       <c r="EI16" s="15"/>
       <c r="EJ16" s="15"/>
@@ -13414,7 +14102,7 @@
       <c r="ED17" s="43"/>
       <c r="EE17" s="43"/>
       <c r="EF17" s="43"/>
-      <c r="EG17" s="90"/>
+      <c r="EG17" s="89"/>
       <c r="EH17" s="43"/>
       <c r="EI17" s="43"/>
       <c r="EJ17" s="43"/>
@@ -13623,7 +14311,7 @@
       <c r="ED18" s="44"/>
       <c r="EE18" s="44"/>
       <c r="EF18" s="44"/>
-      <c r="EG18" s="91"/>
+      <c r="EG18" s="90"/>
       <c r="EH18" s="15"/>
       <c r="EI18" s="44"/>
       <c r="EJ18" s="44"/>
@@ -13786,7 +14474,7 @@
       <c r="ED19" s="44"/>
       <c r="EE19" s="44"/>
       <c r="EF19" s="44"/>
-      <c r="EG19" s="91"/>
+      <c r="EG19" s="90"/>
       <c r="EH19" s="44"/>
       <c r="EI19" s="44"/>
       <c r="EJ19" s="44"/>
@@ -14007,7 +14695,7 @@
       <c r="ED20" s="44"/>
       <c r="EE20" s="44"/>
       <c r="EF20" s="44"/>
-      <c r="EG20" s="91"/>
+      <c r="EG20" s="90"/>
       <c r="EH20" s="44"/>
       <c r="EI20" s="44"/>
       <c r="EJ20" s="44"/>
@@ -14312,7 +15000,7 @@
       <c r="EF21" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="EG21" s="91" t="s">
+      <c r="EG21" s="90" t="s">
         <v>35</v>
       </c>
       <c r="EH21" s="15"/>
@@ -14527,7 +15215,7 @@
       <c r="ED22" s="15"/>
       <c r="EE22" s="15"/>
       <c r="EF22" s="15"/>
-      <c r="EG22" s="88"/>
+      <c r="EG22" s="87"/>
       <c r="EH22" s="15"/>
       <c r="EI22" s="15"/>
       <c r="EJ22" s="15"/>
@@ -14690,7 +15378,7 @@
       <c r="ED23" s="44"/>
       <c r="EE23" s="44"/>
       <c r="EF23" s="44"/>
-      <c r="EG23" s="91"/>
+      <c r="EG23" s="90"/>
       <c r="EH23" s="44"/>
       <c r="EI23" s="44"/>
       <c r="EJ23" s="44"/>
@@ -14853,7 +15541,7 @@
       <c r="ED24" s="44"/>
       <c r="EE24" s="44"/>
       <c r="EF24" s="44"/>
-      <c r="EG24" s="91"/>
+      <c r="EG24" s="90"/>
       <c r="EH24" s="44"/>
       <c r="EI24" s="44"/>
       <c r="EJ24" s="44"/>
@@ -15016,7 +15704,7 @@
       <c r="ED25" s="44"/>
       <c r="EE25" s="44"/>
       <c r="EF25" s="44"/>
-      <c r="EG25" s="91"/>
+      <c r="EG25" s="90"/>
       <c r="EH25" s="44"/>
       <c r="EI25" s="44"/>
       <c r="EJ25" s="44"/>
@@ -15179,7 +15867,7 @@
       <c r="ED26" s="44"/>
       <c r="EE26" s="44"/>
       <c r="EF26" s="44"/>
-      <c r="EG26" s="91"/>
+      <c r="EG26" s="90"/>
       <c r="EH26" s="44"/>
       <c r="EI26" s="44"/>
       <c r="EJ26" s="44"/>
@@ -15344,7 +16032,7 @@
       <c r="ED27" s="44"/>
       <c r="EE27" s="44"/>
       <c r="EF27" s="44"/>
-      <c r="EG27" s="91"/>
+      <c r="EG27" s="90"/>
       <c r="EH27" s="44"/>
       <c r="EI27" s="44"/>
       <c r="EJ27" s="44"/>
@@ -15509,7 +16197,7 @@
       <c r="ED28" s="44"/>
       <c r="EE28" s="44"/>
       <c r="EF28" s="44"/>
-      <c r="EG28" s="91"/>
+      <c r="EG28" s="90"/>
       <c r="EH28" s="44"/>
       <c r="EI28" s="44"/>
       <c r="EJ28" s="44"/>
@@ -15688,7 +16376,7 @@
       <c r="ED29" s="44"/>
       <c r="EE29" s="44"/>
       <c r="EF29" s="44"/>
-      <c r="EG29" s="91"/>
+      <c r="EG29" s="90"/>
       <c r="EH29" s="44"/>
       <c r="EI29" s="44"/>
       <c r="EJ29" s="44"/>
@@ -15877,7 +16565,7 @@
       <c r="ED30" s="44"/>
       <c r="EE30" s="44"/>
       <c r="EF30" s="44"/>
-      <c r="EG30" s="91"/>
+      <c r="EG30" s="90"/>
       <c r="EH30" s="44"/>
       <c r="EI30" s="44"/>
       <c r="EJ30" s="44"/>
@@ -16076,7 +16764,7 @@
       <c r="ED31" s="44"/>
       <c r="EE31" s="44"/>
       <c r="EF31" s="44"/>
-      <c r="EG31" s="91"/>
+      <c r="EG31" s="90"/>
       <c r="EH31" s="15"/>
       <c r="EI31" s="44"/>
       <c r="EJ31" s="44"/>
@@ -16275,7 +16963,7 @@
       <c r="ED32" s="44"/>
       <c r="EE32" s="44"/>
       <c r="EF32" s="44"/>
-      <c r="EG32" s="91"/>
+      <c r="EG32" s="90"/>
       <c r="EH32" s="15"/>
       <c r="EI32" s="44"/>
       <c r="EJ32" s="44"/>
@@ -16476,7 +17164,7 @@
       <c r="ED33" s="15"/>
       <c r="EE33" s="15"/>
       <c r="EF33" s="15"/>
-      <c r="EG33" s="88"/>
+      <c r="EG33" s="87"/>
       <c r="EH33" s="15"/>
       <c r="EI33" s="15"/>
       <c r="EJ33" s="15"/>
@@ -16643,7 +17331,7 @@
       <c r="ED34" s="44"/>
       <c r="EE34" s="44"/>
       <c r="EF34" s="44"/>
-      <c r="EG34" s="91"/>
+      <c r="EG34" s="90"/>
       <c r="EH34" s="44"/>
       <c r="EI34" s="44"/>
       <c r="EJ34" s="44"/>
@@ -16876,7 +17564,7 @@
       <c r="ED35" s="15"/>
       <c r="EE35" s="15"/>
       <c r="EF35" s="44"/>
-      <c r="EG35" s="91"/>
+      <c r="EG35" s="90"/>
       <c r="EH35" s="15"/>
       <c r="EI35" s="44"/>
       <c r="EJ35" s="44"/>
@@ -17051,7 +17739,7 @@
       <c r="ED36" s="44"/>
       <c r="EE36" s="44"/>
       <c r="EF36" s="44"/>
-      <c r="EG36" s="91"/>
+      <c r="EG36" s="90"/>
       <c r="EH36" s="44"/>
       <c r="EI36" s="44"/>
       <c r="EJ36" s="44"/>
@@ -17248,7 +17936,7 @@
       <c r="ED37" s="44"/>
       <c r="EE37" s="44"/>
       <c r="EF37" s="44"/>
-      <c r="EG37" s="91"/>
+      <c r="EG37" s="90"/>
       <c r="EH37" s="14"/>
       <c r="EI37" s="44"/>
       <c r="EJ37" s="44"/>
@@ -17445,7 +18133,7 @@
       <c r="ED38" s="44"/>
       <c r="EE38" s="44"/>
       <c r="EF38" s="44"/>
-      <c r="EG38" s="91"/>
+      <c r="EG38" s="90"/>
       <c r="EH38" s="14"/>
       <c r="EI38" s="44"/>
       <c r="EJ38" s="44"/>
@@ -17642,7 +18330,7 @@
       <c r="ED39" s="44"/>
       <c r="EE39" s="44"/>
       <c r="EF39" s="44"/>
-      <c r="EG39" s="91"/>
+      <c r="EG39" s="90"/>
       <c r="EH39" s="14"/>
       <c r="EI39" s="44"/>
       <c r="EJ39" s="44"/>
@@ -17839,7 +18527,7 @@
       <c r="ED40" s="44"/>
       <c r="EE40" s="44"/>
       <c r="EF40" s="44"/>
-      <c r="EG40" s="91"/>
+      <c r="EG40" s="90"/>
       <c r="EH40" s="14"/>
       <c r="EI40" s="44"/>
       <c r="EJ40" s="44"/>
@@ -18036,7 +18724,7 @@
       <c r="ED41" s="44"/>
       <c r="EE41" s="44"/>
       <c r="EF41" s="44"/>
-      <c r="EG41" s="91"/>
+      <c r="EG41" s="90"/>
       <c r="EH41" s="14"/>
       <c r="EI41" s="44"/>
       <c r="EJ41" s="44"/>
@@ -18233,7 +18921,7 @@
       <c r="ED42" s="44"/>
       <c r="EE42" s="44"/>
       <c r="EF42" s="44"/>
-      <c r="EG42" s="91"/>
+      <c r="EG42" s="90"/>
       <c r="EH42" s="14"/>
       <c r="EI42" s="44"/>
       <c r="EJ42" s="44"/>
@@ -18432,7 +19120,7 @@
       <c r="ED43" s="44"/>
       <c r="EE43" s="44"/>
       <c r="EF43" s="44"/>
-      <c r="EG43" s="91"/>
+      <c r="EG43" s="90"/>
       <c r="EH43" s="14"/>
       <c r="EI43" s="44"/>
       <c r="EJ43" s="44"/>
@@ -18631,7 +19319,7 @@
       <c r="ED44" s="44"/>
       <c r="EE44" s="44"/>
       <c r="EF44" s="44"/>
-      <c r="EG44" s="91"/>
+      <c r="EG44" s="90"/>
       <c r="EH44" s="14"/>
       <c r="EI44" s="44"/>
       <c r="EJ44" s="44"/>
@@ -18830,7 +19518,7 @@
       <c r="ED45" s="44"/>
       <c r="EE45" s="44"/>
       <c r="EF45" s="44"/>
-      <c r="EG45" s="91"/>
+      <c r="EG45" s="90"/>
       <c r="EH45" s="14"/>
       <c r="EI45" s="44"/>
       <c r="EJ45" s="44"/>
@@ -19033,7 +19721,7 @@
       <c r="ED46" s="44"/>
       <c r="EE46" s="44"/>
       <c r="EF46" s="44"/>
-      <c r="EG46" s="91"/>
+      <c r="EG46" s="90"/>
       <c r="EH46" s="14"/>
       <c r="EI46" s="44"/>
       <c r="EJ46" s="44"/>
@@ -19236,7 +19924,7 @@
       <c r="ED47" s="44"/>
       <c r="EE47" s="44"/>
       <c r="EF47" s="44"/>
-      <c r="EG47" s="91"/>
+      <c r="EG47" s="90"/>
       <c r="EH47" s="14"/>
       <c r="EI47" s="44"/>
       <c r="EJ47" s="44"/>
@@ -19439,7 +20127,7 @@
       <c r="ED48" s="44"/>
       <c r="EE48" s="44"/>
       <c r="EF48" s="44"/>
-      <c r="EG48" s="91"/>
+      <c r="EG48" s="90"/>
       <c r="EH48" s="14"/>
       <c r="EI48" s="44"/>
       <c r="EJ48" s="44"/>
@@ -19642,7 +20330,7 @@
       <c r="ED49" s="44"/>
       <c r="EE49" s="44"/>
       <c r="EF49" s="44"/>
-      <c r="EG49" s="91"/>
+      <c r="EG49" s="90"/>
       <c r="EH49" s="14"/>
       <c r="EI49" s="44"/>
       <c r="EJ49" s="44"/>
@@ -19845,7 +20533,7 @@
       <c r="ED50" s="44"/>
       <c r="EE50" s="44"/>
       <c r="EF50" s="44"/>
-      <c r="EG50" s="91"/>
+      <c r="EG50" s="90"/>
       <c r="EH50" s="14"/>
       <c r="EI50" s="44"/>
       <c r="EJ50" s="44"/>
@@ -20048,7 +20736,7 @@
       <c r="ED51" s="44"/>
       <c r="EE51" s="44"/>
       <c r="EF51" s="44"/>
-      <c r="EG51" s="91"/>
+      <c r="EG51" s="90"/>
       <c r="EH51" s="14"/>
       <c r="EI51" s="44"/>
       <c r="EJ51" s="44"/>
@@ -20253,7 +20941,7 @@
       <c r="ED52" s="44"/>
       <c r="EE52" s="44"/>
       <c r="EF52" s="44"/>
-      <c r="EG52" s="91"/>
+      <c r="EG52" s="90"/>
       <c r="EH52" s="14"/>
       <c r="EI52" s="44"/>
       <c r="EJ52" s="44"/>
@@ -20458,7 +21146,7 @@
       <c r="ED53" s="44"/>
       <c r="EE53" s="44"/>
       <c r="EF53" s="44"/>
-      <c r="EG53" s="91"/>
+      <c r="EG53" s="90"/>
       <c r="EH53" s="14"/>
       <c r="EI53" s="44"/>
       <c r="EJ53" s="44"/>
@@ -20663,7 +21351,7 @@
       <c r="ED54" s="44"/>
       <c r="EE54" s="44"/>
       <c r="EF54" s="44"/>
-      <c r="EG54" s="91"/>
+      <c r="EG54" s="90"/>
       <c r="EH54" s="14"/>
       <c r="EI54" s="44"/>
       <c r="EJ54" s="44"/>
@@ -20860,7 +21548,7 @@
       <c r="ED55" s="44"/>
       <c r="EE55" s="44"/>
       <c r="EF55" s="44"/>
-      <c r="EG55" s="91"/>
+      <c r="EG55" s="90"/>
       <c r="EH55" s="14"/>
       <c r="EI55" s="44"/>
       <c r="EJ55" s="44"/>
@@ -21063,7 +21751,7 @@
       <c r="ED56" s="44"/>
       <c r="EE56" s="44"/>
       <c r="EF56" s="44"/>
-      <c r="EG56" s="91"/>
+      <c r="EG56" s="90"/>
       <c r="EH56" s="14"/>
       <c r="EI56" s="44"/>
       <c r="EJ56" s="44"/>
@@ -21109,16 +21797,16 @@
       <c r="BI57" s="44"/>
       <c r="CY57" s="15"/>
       <c r="DB57" s="15"/>
-      <c r="EH57" s="85" t="s">
+      <c r="EH57" s="84" t="s">
         <v>635</v>
       </c>
-      <c r="EI57" s="85" t="s">
+      <c r="EI57" s="84" t="s">
         <v>636</v>
       </c>
       <c r="EJ57" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="EK57" s="86" t="s">
+      <c r="EK57" s="85" t="s">
         <v>638</v>
       </c>
     </row>
@@ -21257,10 +21945,10 @@
       <c r="DB58" s="36" t="s">
         <v>630</v>
       </c>
-      <c r="EH58" s="85"/>
-      <c r="EI58" s="85"/>
+      <c r="EH58" s="84"/>
+      <c r="EI58" s="84"/>
       <c r="EJ58" s="42"/>
-      <c r="EK58" s="86"/>
+      <c r="EK58" s="85"/>
     </row>
     <row r="59" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
@@ -21375,16 +22063,16 @@
       </c>
       <c r="CY59" s="15"/>
       <c r="DB59" s="15"/>
-      <c r="EH59" s="85" t="s">
+      <c r="EH59" s="84" t="s">
         <v>639</v>
       </c>
-      <c r="EI59" s="85" t="s">
+      <c r="EI59" s="84" t="s">
         <v>640</v>
       </c>
       <c r="EJ59" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="EK59" s="86"/>
+      <c r="EK59" s="85"/>
     </row>
     <row r="60" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
@@ -21486,12 +22174,12 @@
       </c>
       <c r="CY60" s="15"/>
       <c r="DB60" s="15"/>
-      <c r="EH60" s="85" t="s">
+      <c r="EH60" s="84" t="s">
         <v>642</v>
       </c>
-      <c r="EI60" s="85"/>
+      <c r="EI60" s="84"/>
       <c r="EJ60" s="42"/>
-      <c r="EK60" s="86"/>
+      <c r="EK60" s="85"/>
     </row>
     <row r="61" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
@@ -21507,10 +22195,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="7"/>
-      <c r="F61" s="80" t="s">
+      <c r="F61" s="79" t="s">
         <v>560</v>
       </c>
-      <c r="G61" s="80" t="s">
+      <c r="G61" s="79" t="s">
         <v>561</v>
       </c>
       <c r="M61" s="44" t="s">
@@ -21707,7 +22395,7 @@
       <c r="ED62" s="44"/>
       <c r="EE62" s="44"/>
       <c r="EF62" s="44"/>
-      <c r="EG62" s="91"/>
+      <c r="EG62" s="90"/>
       <c r="EH62" s="44"/>
       <c r="EI62" s="44"/>
       <c r="EJ62" s="44"/>
@@ -22097,7 +22785,7 @@
       <c r="ED64" s="15"/>
       <c r="EE64" s="15"/>
       <c r="EF64" s="15"/>
-      <c r="EG64" s="88"/>
+      <c r="EG64" s="87"/>
       <c r="EH64" s="44"/>
       <c r="EI64" s="44"/>
       <c r="EJ64" s="44"/>
@@ -22300,7 +22988,7 @@
       <c r="ED65" s="44"/>
       <c r="EE65" s="44"/>
       <c r="EF65" s="44"/>
-      <c r="EG65" s="91"/>
+      <c r="EG65" s="90"/>
       <c r="EH65" s="44"/>
       <c r="EI65" s="44"/>
       <c r="EJ65" s="44"/>
@@ -22490,10 +23178,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="80" t="s">
+      <c r="F67" s="79" t="s">
         <v>968</v>
       </c>
-      <c r="G67" s="80" t="s">
+      <c r="G67" s="79" t="s">
         <v>969</v>
       </c>
       <c r="J67" s="2" t="s">
@@ -22864,7 +23552,7 @@
       <c r="ED68" s="15"/>
       <c r="EE68" s="15"/>
       <c r="EF68" s="15"/>
-      <c r="EG68" s="88"/>
+      <c r="EG68" s="87"/>
       <c r="EH68" s="44"/>
       <c r="EI68" s="44"/>
       <c r="EJ68" s="44"/>
@@ -22891,10 +23579,10 @@
         <v>578</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="81" t="s">
+      <c r="N69" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="O69" s="81"/>
+      <c r="O69" s="80"/>
       <c r="P69" s="14" t="s">
         <v>1</v>
       </c>
@@ -23015,7 +23703,7 @@
       <c r="CD69" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="CE69" s="82" t="s">
+      <c r="CE69" s="81" t="s">
         <v>413</v>
       </c>
       <c r="CY69" s="2"/>
@@ -23039,7 +23727,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="AI70" s="80" t="s">
+      <c r="AI70" s="79" t="s">
         <v>580</v>
       </c>
       <c r="CC70" s="2" t="s">
@@ -23249,7 +23937,7 @@
       <c r="ED71" s="15"/>
       <c r="EE71" s="15"/>
       <c r="EF71" s="15"/>
-      <c r="EG71" s="88"/>
+      <c r="EG71" s="87"/>
       <c r="EH71" s="44"/>
       <c r="EI71" s="44"/>
       <c r="EJ71" s="44"/>
@@ -23515,7 +24203,7 @@
       <c r="ED74" s="15"/>
       <c r="EE74" s="15"/>
       <c r="EF74" s="15"/>
-      <c r="EG74" s="88"/>
+      <c r="EG74" s="87"/>
       <c r="EH74" s="44"/>
       <c r="EI74" s="44"/>
       <c r="EJ74" s="44"/>
@@ -23711,7 +24399,7 @@
       <c r="ED75" s="15"/>
       <c r="EE75" s="15"/>
       <c r="EF75" s="15"/>
-      <c r="EG75" s="88"/>
+      <c r="EG75" s="87"/>
       <c r="EH75" s="44"/>
       <c r="EI75" s="44"/>
       <c r="EJ75" s="44"/>
@@ -23899,7 +24587,7 @@
       <c r="ED76" s="15"/>
       <c r="EE76" s="15"/>
       <c r="EF76" s="15"/>
-      <c r="EG76" s="88"/>
+      <c r="EG76" s="87"/>
       <c r="EH76" s="44"/>
       <c r="EI76" s="44"/>
       <c r="EJ76" s="44"/>
@@ -24263,7 +24951,7 @@
       <c r="DR78" s="36" t="s">
         <v>656</v>
       </c>
-      <c r="DS78" s="87" t="s">
+      <c r="DS78" s="86" t="s">
         <v>657</v>
       </c>
       <c r="DT78" s="44" t="s">
@@ -24280,22 +24968,22 @@
       <c r="EC78" s="44"/>
       <c r="ED78" s="44"/>
       <c r="EE78" s="44"/>
-      <c r="EF78" s="86" t="s">
+      <c r="EF78" s="85" t="s">
         <v>658</v>
       </c>
-      <c r="EG78" s="91" t="s">
+      <c r="EG78" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="EH78" s="85" t="s">
+      <c r="EH78" s="84" t="s">
         <v>811</v>
       </c>
-      <c r="EI78" s="85" t="s">
+      <c r="EI78" s="84" t="s">
         <v>636</v>
       </c>
       <c r="EJ78" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="EK78" s="86" t="s">
+      <c r="EK78" s="85" t="s">
         <v>638</v>
       </c>
     </row>
@@ -24490,7 +25178,7 @@
       <c r="DP79" s="47"/>
       <c r="DQ79" s="36"/>
       <c r="DR79" s="36"/>
-      <c r="DS79" s="87"/>
+      <c r="DS79" s="86"/>
       <c r="DT79" s="44"/>
       <c r="DU79" s="44"/>
       <c r="DV79" s="44"/>
@@ -24503,12 +25191,12 @@
       <c r="EC79" s="44"/>
       <c r="ED79" s="44"/>
       <c r="EE79" s="44"/>
-      <c r="EF79" s="86"/>
-      <c r="EG79" s="91"/>
-      <c r="EH79" s="85"/>
-      <c r="EI79" s="85"/>
+      <c r="EF79" s="85"/>
+      <c r="EG79" s="90"/>
+      <c r="EH79" s="84"/>
+      <c r="EI79" s="84"/>
       <c r="EJ79" s="42"/>
-      <c r="EK79" s="86"/>
+      <c r="EK79" s="85"/>
     </row>
     <row r="80" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
@@ -24645,7 +25333,7 @@
       <c r="DP80" s="47"/>
       <c r="DQ80" s="36"/>
       <c r="DR80" s="36"/>
-      <c r="DS80" s="87"/>
+      <c r="DS80" s="86"/>
       <c r="DT80" s="44"/>
       <c r="DU80" s="44"/>
       <c r="DV80" s="44"/>
@@ -24658,18 +25346,18 @@
       <c r="EC80" s="44"/>
       <c r="ED80" s="44"/>
       <c r="EE80" s="44"/>
-      <c r="EF80" s="86"/>
-      <c r="EG80" s="91"/>
-      <c r="EH80" s="85" t="s">
+      <c r="EF80" s="85"/>
+      <c r="EG80" s="90"/>
+      <c r="EH80" s="84" t="s">
         <v>812</v>
       </c>
-      <c r="EI80" s="85" t="s">
+      <c r="EI80" s="84" t="s">
         <v>640</v>
       </c>
       <c r="EJ80" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="EK80" s="86"/>
+      <c r="EK80" s="85"/>
     </row>
     <row r="81" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
@@ -24808,7 +25496,7 @@
       <c r="DP81" s="47"/>
       <c r="DQ81" s="36"/>
       <c r="DR81" s="36"/>
-      <c r="DS81" s="87"/>
+      <c r="DS81" s="86"/>
       <c r="DT81" s="44"/>
       <c r="DU81" s="44"/>
       <c r="DV81" s="44"/>
@@ -24821,14 +25509,14 @@
       <c r="EC81" s="44"/>
       <c r="ED81" s="44"/>
       <c r="EE81" s="44"/>
-      <c r="EF81" s="86"/>
-      <c r="EG81" s="91"/>
-      <c r="EH81" s="85" t="s">
+      <c r="EF81" s="85"/>
+      <c r="EG81" s="90"/>
+      <c r="EH81" s="84" t="s">
         <v>642</v>
       </c>
-      <c r="EI81" s="85"/>
+      <c r="EI81" s="84"/>
       <c r="EJ81" s="42"/>
-      <c r="EK81" s="86"/>
+      <c r="EK81" s="85"/>
     </row>
     <row r="82" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
@@ -24983,7 +25671,7 @@
       <c r="ED82" s="44"/>
       <c r="EE82" s="44"/>
       <c r="EF82" s="44"/>
-      <c r="EG82" s="91"/>
+      <c r="EG82" s="90"/>
       <c r="EH82" s="44"/>
       <c r="EI82" s="44"/>
       <c r="EJ82" s="44"/>
@@ -25124,7 +25812,7 @@
       <c r="DP83" s="47"/>
       <c r="DQ83" s="36"/>
       <c r="DR83" s="36"/>
-      <c r="DS83" s="87"/>
+      <c r="DS83" s="86"/>
       <c r="DT83" s="44"/>
       <c r="DU83" s="44"/>
       <c r="DV83" s="44"/>
@@ -25137,14 +25825,14 @@
       <c r="EC83" s="44"/>
       <c r="ED83" s="44"/>
       <c r="EE83" s="44"/>
-      <c r="EF83" s="86"/>
-      <c r="EG83" s="91"/>
-      <c r="EH83" s="85" t="s">
+      <c r="EF83" s="85"/>
+      <c r="EG83" s="90"/>
+      <c r="EH83" s="84" t="s">
         <v>814</v>
       </c>
-      <c r="EI83" s="85"/>
+      <c r="EI83" s="84"/>
       <c r="EJ83" s="42"/>
-      <c r="EK83" s="86" t="s">
+      <c r="EK83" s="85" t="s">
         <v>638</v>
       </c>
     </row>
@@ -25295,7 +25983,7 @@
       <c r="ED84" s="15"/>
       <c r="EE84" s="15"/>
       <c r="EF84" s="15"/>
-      <c r="EG84" s="88"/>
+      <c r="EG84" s="87"/>
       <c r="EH84" s="15"/>
       <c r="EI84" s="15"/>
       <c r="EJ84" s="15"/>
@@ -25448,7 +26136,7 @@
       <c r="ED85" s="15"/>
       <c r="EE85" s="15"/>
       <c r="EF85" s="15"/>
-      <c r="EG85" s="88"/>
+      <c r="EG85" s="87"/>
       <c r="EH85" s="15"/>
       <c r="EI85" s="15"/>
       <c r="EJ85" s="15"/>
@@ -25607,7 +26295,7 @@
       </c>
       <c r="EE86" s="15"/>
       <c r="EF86" s="15"/>
-      <c r="EG86" s="88"/>
+      <c r="EG86" s="87"/>
       <c r="EH86" s="15"/>
       <c r="EI86" s="15"/>
       <c r="EJ86" s="15"/>
@@ -25760,7 +26448,7 @@
       <c r="ED87" s="15"/>
       <c r="EE87" s="15"/>
       <c r="EF87" s="15"/>
-      <c r="EG87" s="88"/>
+      <c r="EG87" s="87"/>
       <c r="EH87" s="15"/>
       <c r="EI87" s="15"/>
       <c r="EJ87" s="15"/>
@@ -25921,7 +26609,7 @@
       <c r="ED88" s="15"/>
       <c r="EE88" s="15"/>
       <c r="EF88" s="15"/>
-      <c r="EG88" s="88"/>
+      <c r="EG88" s="87"/>
       <c r="EH88" s="15"/>
       <c r="EI88" s="15"/>
       <c r="EJ88" s="15"/>
@@ -26082,7 +26770,7 @@
       <c r="ED89" s="15"/>
       <c r="EE89" s="15"/>
       <c r="EF89" s="15"/>
-      <c r="EG89" s="88"/>
+      <c r="EG89" s="87"/>
       <c r="EH89" s="15"/>
       <c r="EI89" s="15"/>
       <c r="EJ89" s="15"/>
@@ -26235,7 +26923,7 @@
       <c r="ED90" s="15"/>
       <c r="EE90" s="15"/>
       <c r="EF90" s="15"/>
-      <c r="EG90" s="88"/>
+      <c r="EG90" s="87"/>
       <c r="EH90" s="15"/>
       <c r="EI90" s="15"/>
       <c r="EJ90" s="15"/>
@@ -26254,7 +26942,7 @@
       <c r="D91" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E91" s="104" t="s">
+      <c r="E91" s="102" t="s">
         <v>746</v>
       </c>
       <c r="F91" s="36"/>
@@ -26396,7 +27084,7 @@
       <c r="ED91" s="15"/>
       <c r="EE91" s="15"/>
       <c r="EF91" s="15"/>
-      <c r="EG91" s="88"/>
+      <c r="EG91" s="87"/>
       <c r="EH91" s="15"/>
       <c r="EI91" s="15"/>
       <c r="EJ91" s="15"/>
@@ -26415,7 +27103,7 @@
       <c r="D92" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="104"/>
+      <c r="E92" s="102"/>
       <c r="F92" s="36"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
@@ -26549,7 +27237,7 @@
       <c r="ED92" s="15"/>
       <c r="EE92" s="15"/>
       <c r="EF92" s="15"/>
-      <c r="EG92" s="88"/>
+      <c r="EG92" s="87"/>
       <c r="EH92" s="15"/>
       <c r="EI92" s="15"/>
       <c r="EJ92" s="15"/>
@@ -26568,7 +27256,7 @@
       <c r="D93" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E93" s="104"/>
+      <c r="E93" s="102"/>
       <c r="F93" s="36"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
@@ -26702,7 +27390,7 @@
       <c r="ED93" s="15"/>
       <c r="EE93" s="15"/>
       <c r="EF93" s="15"/>
-      <c r="EG93" s="88"/>
+      <c r="EG93" s="87"/>
       <c r="EH93" s="15"/>
       <c r="EI93" s="15"/>
       <c r="EJ93" s="15"/>
@@ -26721,7 +27409,7 @@
       <c r="D94" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="104"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="36"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
@@ -26855,7 +27543,7 @@
       <c r="ED94" s="15"/>
       <c r="EE94" s="15"/>
       <c r="EF94" s="15"/>
-      <c r="EG94" s="88"/>
+      <c r="EG94" s="87"/>
       <c r="EH94" s="15"/>
       <c r="EI94" s="15"/>
       <c r="EJ94" s="15"/>
@@ -26874,7 +27562,7 @@
       <c r="D95" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="104"/>
+      <c r="E95" s="102"/>
       <c r="F95" s="36"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
@@ -27008,7 +27696,7 @@
       <c r="ED95" s="15"/>
       <c r="EE95" s="15"/>
       <c r="EF95" s="15"/>
-      <c r="EG95" s="88"/>
+      <c r="EG95" s="87"/>
       <c r="EH95" s="15"/>
       <c r="EI95" s="15"/>
       <c r="EJ95" s="15"/>
@@ -27167,7 +27855,7 @@
       <c r="ED96" s="44"/>
       <c r="EE96" s="44"/>
       <c r="EF96" s="44"/>
-      <c r="EG96" s="91"/>
+      <c r="EG96" s="90"/>
       <c r="EH96" s="44"/>
       <c r="EI96" s="44"/>
       <c r="EJ96" s="44"/>
@@ -27186,7 +27874,7 @@
       <c r="D97" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="104" t="s">
+      <c r="E97" s="102" t="s">
         <v>746</v>
       </c>
       <c r="F97" s="36"/>
@@ -27330,7 +28018,7 @@
       <c r="ED97" s="15"/>
       <c r="EE97" s="15"/>
       <c r="EF97" s="15"/>
-      <c r="EG97" s="88"/>
+      <c r="EG97" s="87"/>
       <c r="EH97" s="15"/>
       <c r="EI97" s="15"/>
       <c r="EJ97" s="15"/>
@@ -27491,7 +28179,7 @@
       </c>
       <c r="EE98" s="15"/>
       <c r="EF98" s="15"/>
-      <c r="EG98" s="88"/>
+      <c r="EG98" s="87"/>
       <c r="EH98" s="15"/>
       <c r="EI98" s="15"/>
       <c r="EJ98" s="15"/>
@@ -27510,7 +28198,7 @@
       <c r="D99" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="104"/>
+      <c r="E99" s="102"/>
       <c r="F99" s="36"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
@@ -27644,7 +28332,7 @@
       <c r="ED99" s="15"/>
       <c r="EE99" s="15"/>
       <c r="EF99" s="15"/>
-      <c r="EG99" s="88"/>
+      <c r="EG99" s="87"/>
       <c r="EH99" s="15"/>
       <c r="EI99" s="15"/>
       <c r="EJ99" s="15"/>
@@ -27663,7 +28351,7 @@
       <c r="D100" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E100" s="104"/>
+      <c r="E100" s="102"/>
       <c r="F100" s="36"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
@@ -27797,7 +28485,7 @@
       <c r="ED100" s="15"/>
       <c r="EE100" s="15"/>
       <c r="EF100" s="15"/>
-      <c r="EG100" s="88"/>
+      <c r="EG100" s="87"/>
       <c r="EH100" s="15"/>
       <c r="EI100" s="15"/>
       <c r="EJ100" s="15"/>
@@ -27816,7 +28504,7 @@
       <c r="D101" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="104"/>
+      <c r="E101" s="102"/>
       <c r="F101" s="36"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
@@ -27950,7 +28638,7 @@
       <c r="ED101" s="15"/>
       <c r="EE101" s="15"/>
       <c r="EF101" s="15"/>
-      <c r="EG101" s="88"/>
+      <c r="EG101" s="87"/>
       <c r="EH101" s="15"/>
       <c r="EI101" s="15"/>
       <c r="EJ101" s="15"/>
@@ -27969,7 +28657,7 @@
       <c r="D102" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="104"/>
+      <c r="E102" s="102"/>
       <c r="F102" s="36"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
@@ -28103,7 +28791,7 @@
       <c r="ED102" s="15"/>
       <c r="EE102" s="15"/>
       <c r="EF102" s="15"/>
-      <c r="EG102" s="88"/>
+      <c r="EG102" s="87"/>
       <c r="EH102" s="15"/>
       <c r="EI102" s="15"/>
       <c r="EJ102" s="15"/>
@@ -28360,8 +29048,8 @@
       <c r="ED103" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="EE103" s="91"/>
-      <c r="EF103" s="91" t="s">
+      <c r="EE103" s="90"/>
+      <c r="EF103" s="90" t="s">
         <v>35</v>
       </c>
       <c r="EG103" s="15"/>
@@ -28372,7 +29060,7 @@
         <v>636</v>
       </c>
       <c r="EJ103" s="44"/>
-      <c r="EK103" s="86" t="s">
+      <c r="EK103" s="85" t="s">
         <v>791</v>
       </c>
     </row>
@@ -28546,7 +29234,7 @@
       <c r="D105" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E105" s="104" t="s">
+      <c r="E105" s="102" t="s">
         <v>797</v>
       </c>
       <c r="F105" s="36"/>
@@ -28694,7 +29382,7 @@
       <c r="ED105" s="15"/>
       <c r="EE105" s="15"/>
       <c r="EF105" s="15"/>
-      <c r="EG105" s="88"/>
+      <c r="EG105" s="87"/>
       <c r="EH105" s="15"/>
       <c r="EI105" s="15"/>
       <c r="EJ105" s="15"/>
@@ -28713,7 +29401,7 @@
       <c r="D106" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E106" s="104" t="s">
+      <c r="E106" s="102" t="s">
         <v>806</v>
       </c>
       <c r="F106" s="36"/>
@@ -28863,7 +29551,7 @@
       <c r="ED106" s="15"/>
       <c r="EE106" s="15"/>
       <c r="EF106" s="15"/>
-      <c r="EG106" s="88"/>
+      <c r="EG106" s="87"/>
       <c r="EH106" s="15"/>
       <c r="EI106" s="15"/>
       <c r="EJ106" s="15"/>
@@ -29032,7 +29720,7 @@
       <c r="ED107" s="15"/>
       <c r="EE107" s="15"/>
       <c r="EF107" s="15"/>
-      <c r="EG107" s="88"/>
+      <c r="EG107" s="87"/>
       <c r="EH107" s="15"/>
       <c r="EI107" s="15"/>
       <c r="EJ107" s="15"/>
@@ -29185,7 +29873,7 @@
       <c r="ED108" s="15"/>
       <c r="EE108" s="15"/>
       <c r="EF108" s="15"/>
-      <c r="EG108" s="88"/>
+      <c r="EG108" s="87"/>
       <c r="EH108" s="15"/>
       <c r="EI108" s="15"/>
       <c r="EJ108" s="15"/>
@@ -29338,7 +30026,7 @@
       <c r="ED109" s="15"/>
       <c r="EE109" s="15"/>
       <c r="EF109" s="15"/>
-      <c r="EG109" s="88"/>
+      <c r="EG109" s="87"/>
       <c r="EH109" s="15"/>
       <c r="EI109" s="15"/>
       <c r="EJ109" s="15"/>
@@ -29491,11 +30179,11 @@
       <c r="ED110" s="15"/>
       <c r="EE110" s="15"/>
       <c r="EF110" s="15"/>
-      <c r="EG110" s="88"/>
+      <c r="EG110" s="87"/>
       <c r="EH110" s="15"/>
       <c r="EI110" s="15"/>
       <c r="EJ110" s="15"/>
-      <c r="EK110" s="86" t="s">
+      <c r="EK110" s="85" t="s">
         <v>791</v>
       </c>
     </row>
@@ -29652,11 +30340,11 @@
       <c r="ED111" s="15"/>
       <c r="EE111" s="15"/>
       <c r="EF111" s="15"/>
-      <c r="EG111" s="88"/>
+      <c r="EG111" s="87"/>
       <c r="EH111" s="15"/>
       <c r="EI111" s="15"/>
       <c r="EJ111" s="15"/>
-      <c r="EK111" s="86"/>
+      <c r="EK111" s="85"/>
     </row>
     <row r="112" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
@@ -29811,11 +30499,11 @@
       <c r="ED112" s="15"/>
       <c r="EE112" s="15"/>
       <c r="EF112" s="15"/>
-      <c r="EG112" s="88"/>
+      <c r="EG112" s="87"/>
       <c r="EH112" s="15"/>
       <c r="EI112" s="15"/>
       <c r="EJ112" s="15"/>
-      <c r="EK112" s="86"/>
+      <c r="EK112" s="85"/>
     </row>
     <row r="113" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
@@ -29968,11 +30656,11 @@
       <c r="ED113" s="15"/>
       <c r="EE113" s="15"/>
       <c r="EF113" s="15"/>
-      <c r="EG113" s="88"/>
+      <c r="EG113" s="87"/>
       <c r="EH113" s="15"/>
       <c r="EI113" s="15"/>
       <c r="EJ113" s="15"/>
-      <c r="EK113" s="86"/>
+      <c r="EK113" s="85"/>
     </row>
     <row r="114" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
@@ -30121,17 +30809,17 @@
         <v>840</v>
       </c>
       <c r="EB114" s="36"/>
-      <c r="EC114" s="105" t="s">
+      <c r="EC114" s="103" t="s">
         <v>839</v>
       </c>
       <c r="ED114" s="15"/>
       <c r="EE114" s="15"/>
       <c r="EF114" s="15"/>
-      <c r="EG114" s="88"/>
+      <c r="EG114" s="87"/>
       <c r="EH114" s="15"/>
       <c r="EI114" s="15"/>
       <c r="EJ114" s="15"/>
-      <c r="EK114" s="86"/>
+      <c r="EK114" s="85"/>
     </row>
     <row r="115" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
@@ -30280,15 +30968,15 @@
         <v>972</v>
       </c>
       <c r="EB115" s="36"/>
-      <c r="EC115" s="105"/>
+      <c r="EC115" s="103"/>
       <c r="ED115" s="15"/>
       <c r="EE115" s="15"/>
       <c r="EF115" s="15"/>
-      <c r="EG115" s="88"/>
+      <c r="EG115" s="87"/>
       <c r="EH115" s="15"/>
       <c r="EI115" s="15"/>
       <c r="EJ115" s="15"/>
-      <c r="EK115" s="86"/>
+      <c r="EK115" s="85"/>
     </row>
     <row r="116" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
@@ -30437,15 +31125,15 @@
         <v>973</v>
       </c>
       <c r="EB116" s="36"/>
-      <c r="EC116" s="105"/>
+      <c r="EC116" s="103"/>
       <c r="ED116" s="15"/>
       <c r="EE116" s="15"/>
       <c r="EF116" s="15"/>
-      <c r="EG116" s="88"/>
+      <c r="EG116" s="87"/>
       <c r="EH116" s="15"/>
       <c r="EI116" s="15"/>
       <c r="EJ116" s="15"/>
-      <c r="EK116" s="86"/>
+      <c r="EK116" s="85"/>
     </row>
     <row r="117" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
@@ -30600,11 +31288,11 @@
       <c r="ED117" s="15"/>
       <c r="EE117" s="15"/>
       <c r="EF117" s="15"/>
-      <c r="EG117" s="88"/>
+      <c r="EG117" s="87"/>
       <c r="EH117" s="15"/>
       <c r="EI117" s="15"/>
       <c r="EJ117" s="15"/>
-      <c r="EK117" s="86"/>
+      <c r="EK117" s="85"/>
     </row>
     <row r="118" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
@@ -30759,11 +31447,11 @@
       <c r="ED118" s="15"/>
       <c r="EE118" s="15"/>
       <c r="EF118" s="15"/>
-      <c r="EG118" s="88"/>
+      <c r="EG118" s="87"/>
       <c r="EH118" s="15"/>
       <c r="EI118" s="15"/>
       <c r="EJ118" s="15"/>
-      <c r="EK118" s="86"/>
+      <c r="EK118" s="85"/>
     </row>
     <row r="119" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
@@ -30918,11 +31606,11 @@
       </c>
       <c r="EE119" s="36"/>
       <c r="EF119" s="15"/>
-      <c r="EG119" s="88"/>
+      <c r="EG119" s="87"/>
       <c r="EH119" s="15"/>
       <c r="EI119" s="15"/>
       <c r="EJ119" s="15"/>
-      <c r="EK119" s="86"/>
+      <c r="EK119" s="85"/>
     </row>
     <row r="120" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
@@ -31077,11 +31765,11 @@
       </c>
       <c r="EE120" s="36"/>
       <c r="EF120" s="15"/>
-      <c r="EG120" s="88"/>
+      <c r="EG120" s="87"/>
       <c r="EH120" s="15"/>
       <c r="EI120" s="15"/>
       <c r="EJ120" s="15"/>
-      <c r="EK120" s="86"/>
+      <c r="EK120" s="85"/>
     </row>
     <row r="121" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
@@ -31234,11 +31922,11 @@
       <c r="ED121" s="15"/>
       <c r="EE121" s="15"/>
       <c r="EF121" s="15"/>
-      <c r="EG121" s="88"/>
+      <c r="EG121" s="87"/>
       <c r="EH121" s="15"/>
       <c r="EI121" s="15"/>
       <c r="EJ121" s="15"/>
-      <c r="EK121" s="86"/>
+      <c r="EK121" s="85"/>
     </row>
     <row r="122" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
@@ -31385,17 +32073,17 @@
       <c r="DZ122" s="15"/>
       <c r="EA122" s="36"/>
       <c r="EB122" s="36"/>
-      <c r="EC122" s="105"/>
+      <c r="EC122" s="103"/>
       <c r="ED122" s="36" t="s">
         <v>871</v>
       </c>
       <c r="EE122" s="36"/>
       <c r="EF122" s="15"/>
-      <c r="EG122" s="88"/>
+      <c r="EG122" s="87"/>
       <c r="EH122" s="15"/>
       <c r="EI122" s="15"/>
       <c r="EJ122" s="15"/>
-      <c r="EK122" s="86"/>
+      <c r="EK122" s="85"/>
     </row>
     <row r="123" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
@@ -31542,17 +32230,17 @@
       <c r="DZ123" s="15"/>
       <c r="EA123" s="36"/>
       <c r="EB123" s="36"/>
-      <c r="EC123" s="105"/>
+      <c r="EC123" s="103"/>
       <c r="ED123" s="15" t="s">
         <v>974</v>
       </c>
       <c r="EE123" s="15"/>
       <c r="EF123" s="15"/>
-      <c r="EG123" s="88"/>
+      <c r="EG123" s="87"/>
       <c r="EH123" s="15"/>
       <c r="EI123" s="15"/>
       <c r="EJ123" s="15"/>
-      <c r="EK123" s="86"/>
+      <c r="EK123" s="85"/>
     </row>
     <row r="124" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
@@ -31699,17 +32387,17 @@
       <c r="DZ124" s="15"/>
       <c r="EA124" s="36"/>
       <c r="EB124" s="36"/>
-      <c r="EC124" s="105"/>
+      <c r="EC124" s="103"/>
       <c r="ED124" s="15" t="s">
         <v>975</v>
       </c>
       <c r="EE124" s="15"/>
       <c r="EF124" s="15"/>
-      <c r="EG124" s="88"/>
+      <c r="EG124" s="87"/>
       <c r="EH124" s="15"/>
       <c r="EI124" s="15"/>
       <c r="EJ124" s="15"/>
-      <c r="EK124" s="86"/>
+      <c r="EK124" s="85"/>
     </row>
     <row r="125" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
@@ -31864,11 +32552,11 @@
       </c>
       <c r="EE125" s="36"/>
       <c r="EF125" s="15"/>
-      <c r="EG125" s="88"/>
+      <c r="EG125" s="87"/>
       <c r="EH125" s="15"/>
       <c r="EI125" s="15"/>
       <c r="EJ125" s="15"/>
-      <c r="EK125" s="86"/>
+      <c r="EK125" s="85"/>
     </row>
     <row r="126" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
@@ -32023,11 +32711,11 @@
       </c>
       <c r="EE126" s="36"/>
       <c r="EF126" s="15"/>
-      <c r="EG126" s="88"/>
+      <c r="EG126" s="87"/>
       <c r="EH126" s="15"/>
       <c r="EI126" s="15"/>
       <c r="EJ126" s="15"/>
-      <c r="EK126" s="86"/>
+      <c r="EK126" s="85"/>
     </row>
     <row r="127" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
@@ -32206,11 +32894,11 @@
       <c r="ED127" s="36"/>
       <c r="EE127" s="36"/>
       <c r="EF127" s="15"/>
-      <c r="EG127" s="88"/>
+      <c r="EG127" s="87"/>
       <c r="EH127" s="15"/>
       <c r="EI127" s="15"/>
       <c r="EJ127" s="15"/>
-      <c r="EK127" s="86"/>
+      <c r="EK127" s="85"/>
     </row>
     <row r="128" spans="1:141" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
@@ -32415,11 +33103,11 @@
       <c r="ED128" s="36"/>
       <c r="EE128" s="36"/>
       <c r="EF128" s="15"/>
-      <c r="EG128" s="88"/>
+      <c r="EG128" s="87"/>
       <c r="EH128" s="15"/>
       <c r="EI128" s="15"/>
       <c r="EJ128" s="15"/>
-      <c r="EK128" s="86"/>
+      <c r="EK128" s="85"/>
     </row>
     <row r="129" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
@@ -32578,7 +33266,7 @@
         <v>896</v>
       </c>
       <c r="EF129" s="15"/>
-      <c r="EG129" s="88"/>
+      <c r="EG129" s="87"/>
       <c r="EH129" s="15"/>
       <c r="EI129" s="15"/>
       <c r="EJ129" s="15"/>
@@ -32739,7 +33427,7 @@
         <v>912</v>
       </c>
       <c r="EF130" s="15"/>
-      <c r="EG130" s="88"/>
+      <c r="EG130" s="87"/>
       <c r="EH130" s="15"/>
       <c r="EI130" s="15"/>
       <c r="EJ130" s="15"/>
@@ -32749,7 +33437,7 @@
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="110" t="s">
+      <c r="B131" s="108" t="s">
         <v>913</v>
       </c>
       <c r="C131" s="32" t="s">
@@ -32758,10 +33446,10 @@
       <c r="D131" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AI131" s="80" t="s">
+      <c r="AI131" s="79" t="s">
         <v>921</v>
       </c>
-      <c r="EA131" s="80" t="s">
+      <c r="EA131" s="79" t="s">
         <v>927</v>
       </c>
     </row>
@@ -32769,7 +33457,7 @@
       <c r="A132" s="15">
         <v>131</v>
       </c>
-      <c r="B132" s="110" t="s">
+      <c r="B132" s="108" t="s">
         <v>914</v>
       </c>
       <c r="C132" s="32" t="s">
@@ -32950,19 +33638,19 @@
       <c r="DV132" s="15"/>
       <c r="DW132" s="15"/>
       <c r="DX132" s="15"/>
-      <c r="EA132" s="80" t="s">
+      <c r="EA132" s="79" t="s">
         <v>928</v>
       </c>
       <c r="ED132" s="36" t="s">
         <v>977</v>
       </c>
-      <c r="EK132" s="80" t="s">
+      <c r="EK132" s="79" t="s">
         <v>929</v>
       </c>
-      <c r="EL132" s="80" t="s">
+      <c r="EL132" s="79" t="s">
         <v>929</v>
       </c>
-      <c r="EM132" s="80" t="s">
+      <c r="EM132" s="79" t="s">
         <v>929</v>
       </c>
     </row>
@@ -33351,7 +34039,7 @@
       <c r="A135" s="15">
         <v>134</v>
       </c>
-      <c r="B135" s="110" t="s">
+      <c r="B135" s="108" t="s">
         <v>917</v>
       </c>
       <c r="C135" s="32" t="s">
@@ -33543,7 +34231,7 @@
       <c r="A136" s="15">
         <v>135</v>
       </c>
-      <c r="B136" s="110" t="s">
+      <c r="B136" s="108" t="s">
         <v>918</v>
       </c>
       <c r="C136" s="32" t="s">
@@ -33552,10 +34240,10 @@
       <c r="D136" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="EA136" s="80" t="s">
+      <c r="EA136" s="79" t="s">
         <v>931</v>
       </c>
-      <c r="ED136" s="80" t="s">
+      <c r="ED136" s="79" t="s">
         <v>932</v>
       </c>
     </row>
@@ -33563,7 +34251,7 @@
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="110" t="s">
+      <c r="B137" s="108" t="s">
         <v>919</v>
       </c>
       <c r="C137" s="32" t="s">
@@ -33580,7 +34268,7 @@
       <c r="A138" s="15">
         <v>137</v>
       </c>
-      <c r="B138" s="110" t="s">
+      <c r="B138" s="108" t="s">
         <v>920</v>
       </c>
       <c r="C138" s="32" t="s">
@@ -33589,7 +34277,7 @@
       <c r="D138" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F138" s="80" t="s">
+      <c r="F138" s="79" t="s">
         <v>926</v>
       </c>
     </row>
@@ -33696,13 +34384,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8C006-EF24-4A27-B0DA-8A03B54F96DC}">
   <dimension ref="A1:EK23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView topLeftCell="EQ1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:FF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="84.140625" collapsed="true"/>
+    <col min="2" max="2" width="84.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -34117,7 +34805,7 @@
       <c r="EG1" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="EH1" s="84" t="s">
+      <c r="EH1" s="83" t="s">
         <v>631</v>
       </c>
       <c r="EI1" s="59" t="s">
@@ -34277,7 +34965,7 @@
       <c r="CD2" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="CE2" s="114" t="s">
+      <c r="CE2" s="112" t="s">
         <v>413</v>
       </c>
       <c r="CF2" s="15"/>
@@ -34333,7 +35021,7 @@
       <c r="ED2" s="15"/>
       <c r="EE2" s="15"/>
       <c r="EF2" s="15"/>
-      <c r="EG2" s="88"/>
+      <c r="EG2" s="87"/>
       <c r="EH2" s="15"/>
       <c r="EI2" s="15"/>
       <c r="EJ2" s="15"/>
@@ -34462,7 +35150,7 @@
       <c r="BN3" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="BO3" s="114" t="s">
+      <c r="BO3" s="112" t="s">
         <v>1019</v>
       </c>
       <c r="BP3" s="34" t="s">
@@ -34486,7 +35174,7 @@
       <c r="CD3" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="CE3" s="114" t="s">
+      <c r="CE3" s="112" t="s">
         <v>413</v>
       </c>
       <c r="CF3" s="15"/>
@@ -34542,7 +35230,7 @@
       <c r="ED3" s="15"/>
       <c r="EE3" s="15"/>
       <c r="EF3" s="15"/>
-      <c r="EG3" s="88"/>
+      <c r="EG3" s="87"/>
       <c r="EH3" s="15"/>
       <c r="EI3" s="15"/>
       <c r="EJ3" s="15"/>
@@ -34553,7 +35241,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>316</v>
@@ -34567,7 +35255,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -34667,9 +35355,9 @@
       </c>
       <c r="BM4" s="15"/>
       <c r="BN4" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BO4" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BO4" s="112" t="s">
         <v>204</v>
       </c>
       <c r="BP4" s="34" t="s">
@@ -34693,7 +35381,7 @@
       <c r="CD4" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="CE4" s="114" t="s">
+      <c r="CE4" s="112" t="s">
         <v>413</v>
       </c>
       <c r="CF4" s="15"/>
@@ -34728,7 +35416,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>316</v>
@@ -34742,7 +35430,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -34937,7 +35625,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>316</v>
@@ -34951,7 +35639,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -34967,7 +35655,7 @@
         <v>239</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>54</v>
@@ -35146,7 +35834,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>316</v>
@@ -35160,7 +35848,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -35355,7 +36043,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>316</v>
@@ -35369,7 +36057,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -35479,7 +36167,7 @@
       <c r="BN8" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="BO8" s="114" t="s">
+      <c r="BO8" s="112" t="s">
         <v>1019</v>
       </c>
       <c r="BP8" s="34" t="s">
@@ -35564,7 +36252,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>316</v>
@@ -35578,7 +36266,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -35688,7 +36376,7 @@
       <c r="BN9" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="BO9" s="114" t="s">
+      <c r="BO9" s="112" t="s">
         <v>1019</v>
       </c>
       <c r="BP9" s="34" t="s">
@@ -35720,7 +36408,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>316</v>
@@ -35734,7 +36422,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -35750,7 +36438,7 @@
         <v>239</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="S10" s="15" t="s">
         <v>55</v>
@@ -35844,7 +36532,7 @@
       <c r="BN10" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="BO10" s="114" t="s">
+      <c r="BO10" s="112" t="s">
         <v>1019</v>
       </c>
       <c r="BP10" s="34" t="s">
@@ -35872,11 +36560,11 @@
       </c>
     </row>
     <row r="11" spans="1:141" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="A11" s="82">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>316</v>
@@ -35889,7 +36577,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -35997,9 +36685,9 @@
       </c>
       <c r="BM11" s="15"/>
       <c r="BN11" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BO11" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BO11" s="112" t="s">
         <v>204</v>
       </c>
       <c r="BP11" s="34" t="s">
@@ -36023,7 +36711,7 @@
       <c r="CD11" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="CE11" s="114" t="s">
+      <c r="CE11" s="112" t="s">
         <v>413</v>
       </c>
       <c r="CF11" s="15"/>
@@ -36054,11 +36742,11 @@
       <c r="DE11" s="15"/>
     </row>
     <row r="12" spans="1:141" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="A12" s="82">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>316</v>
@@ -36071,7 +36759,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -36179,9 +36867,9 @@
       </c>
       <c r="BM12" s="15"/>
       <c r="BN12" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BO12" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BO12" s="112" t="s">
         <v>204</v>
       </c>
       <c r="BP12" s="34" t="s">
@@ -36205,7 +36893,7 @@
       <c r="CD12" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="CE12" s="114" t="s">
+      <c r="CE12" s="112" t="s">
         <v>413</v>
       </c>
       <c r="CF12" s="15"/>
@@ -36236,11 +36924,11 @@
       <c r="DE12" s="15"/>
     </row>
     <row r="13" spans="1:141" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="A13" s="82">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>316</v>
@@ -36253,7 +36941,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -36361,9 +37049,9 @@
       </c>
       <c r="BM13" s="15"/>
       <c r="BN13" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BO13" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BO13" s="112" t="s">
         <v>204</v>
       </c>
       <c r="BP13" s="34" t="s">
@@ -36387,7 +37075,7 @@
       <c r="CD13" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="CE13" s="114" t="s">
+      <c r="CE13" s="112" t="s">
         <v>413</v>
       </c>
       <c r="CF13" s="15"/>
@@ -36422,7 +37110,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>316</v>
@@ -36564,7 +37252,7 @@
       <c r="CD14" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="CE14" s="114" t="s">
+      <c r="CE14" s="112" t="s">
         <v>413</v>
       </c>
       <c r="CF14" s="15"/>
@@ -36620,18 +37308,18 @@
       <c r="ED14" s="15"/>
       <c r="EE14" s="15"/>
       <c r="EF14" s="15"/>
-      <c r="EG14" s="88"/>
+      <c r="EG14" s="87"/>
       <c r="EH14" s="15"/>
       <c r="EI14" s="15"/>
       <c r="EJ14" s="15"/>
       <c r="EK14" s="15"/>
     </row>
     <row r="15" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="82">
         <v>14</v>
       </c>
-      <c r="B15" s="83" t="s">
-        <v>1054</v>
+      <c r="B15" s="82" t="s">
+        <v>1049</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>316</v>
@@ -36645,7 +37333,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -36814,11 +37502,11 @@
       <c r="DI15" s="15"/>
     </row>
     <row r="16" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="A16" s="82">
         <v>15</v>
       </c>
-      <c r="B16" s="83" t="s">
-        <v>1059</v>
+      <c r="B16" s="82" t="s">
+        <v>1054</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>316</v>
@@ -36832,7 +37520,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -37001,11 +37689,11 @@
       <c r="DI16" s="15"/>
     </row>
     <row r="17" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="82">
         <v>16</v>
       </c>
-      <c r="B17" s="83" t="s">
-        <v>1060</v>
+      <c r="B17" s="82" t="s">
+        <v>1055</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>316</v>
@@ -37019,7 +37707,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -37188,11 +37876,11 @@
       <c r="DI17" s="15"/>
     </row>
     <row r="18" spans="1:141" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
+      <c r="A18" s="82">
         <v>17</v>
       </c>
-      <c r="B18" s="83" t="s">
-        <v>1061</v>
+      <c r="B18" s="82" t="s">
+        <v>1056</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>316</v>
@@ -37201,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -37232,7 +37920,7 @@
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AD18" s="15" t="s">
         <v>6</v>
@@ -37309,9 +37997,9 @@
       </c>
       <c r="BM18" s="15"/>
       <c r="BN18" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BO18" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BO18" s="112" t="s">
         <v>204</v>
       </c>
       <c r="BP18" s="34" t="s">
@@ -37369,11 +38057,11 @@
       <c r="DH18" s="15"/>
     </row>
     <row r="19" spans="1:141" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="82">
         <v>17</v>
       </c>
-      <c r="B19" s="83" t="s">
-        <v>1077</v>
+      <c r="B19" s="82" t="s">
+        <v>1072</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>316</v>
@@ -37382,7 +38070,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -37413,7 +38101,7 @@
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>6</v>
@@ -37490,9 +38178,9 @@
       </c>
       <c r="BM19" s="15"/>
       <c r="BN19" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BO19" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BO19" s="112" t="s">
         <v>204</v>
       </c>
       <c r="BP19" s="34" t="s">
@@ -37546,15 +38234,15 @@
       <c r="DD19" s="15"/>
       <c r="DE19" s="15"/>
       <c r="DF19" s="15"/>
-      <c r="DG19" s="116"/>
-      <c r="DH19" s="116"/>
+      <c r="DG19" s="114"/>
+      <c r="DH19" s="114"/>
     </row>
     <row r="20" spans="1:141" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+      <c r="A20" s="82">
         <v>17</v>
       </c>
-      <c r="B20" s="83" t="s">
-        <v>1078</v>
+      <c r="B20" s="82" t="s">
+        <v>1073</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>316</v>
@@ -37563,7 +38251,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -37594,7 +38282,7 @@
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AD20" s="15" t="s">
         <v>6</v>
@@ -37671,9 +38359,9 @@
       </c>
       <c r="BM20" s="15"/>
       <c r="BN20" s="15" t="s">
-        <v>1024</v>
-      </c>
-      <c r="BO20" s="114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BO20" s="112" t="s">
         <v>204</v>
       </c>
       <c r="BP20" s="34" t="s">
@@ -37727,15 +38415,15 @@
       <c r="DD20" s="15"/>
       <c r="DE20" s="15"/>
       <c r="DF20" s="15"/>
-      <c r="DG20" s="116"/>
-      <c r="DH20" s="116"/>
+      <c r="DG20" s="114"/>
+      <c r="DH20" s="114"/>
     </row>
     <row r="21" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+      <c r="A21" s="82">
         <v>18</v>
       </c>
-      <c r="B21" s="83" t="s">
-        <v>1066</v>
+      <c r="B21" s="82" t="s">
+        <v>1061</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>316</v>
@@ -37744,7 +38432,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -37775,7 +38463,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AD21" s="15" t="s">
         <v>6</v>
@@ -37913,8 +38601,8 @@
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="83" t="s">
-        <v>1070</v>
+      <c r="B22" s="82" t="s">
+        <v>1065</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>294</v>
@@ -37922,11 +38610,11 @@
       <c r="D22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="80" t="s">
+      <c r="F22" s="79" t="s">
         <v>926</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="N22" s="33" t="s">
         <v>153</v>
@@ -37952,7 +38640,7 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="AD22" s="15" t="s">
         <v>6</v>
@@ -38031,7 +38719,7 @@
       <c r="BN22" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="BO22" s="114" t="s">
+      <c r="BO22" s="112" t="s">
         <v>1019</v>
       </c>
       <c r="BP22" s="34" t="s">
@@ -38094,11 +38782,11 @@
       <c r="DM22"/>
     </row>
     <row r="23" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="A23" s="115">
+      <c r="A23" s="113">
         <v>20</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>1071</v>
+      <c r="B23" s="82" t="s">
+        <v>1066</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>316</v>
@@ -38296,7 +38984,7 @@
       <c r="ED23" s="15"/>
       <c r="EE23" s="15"/>
       <c r="EF23" s="15"/>
-      <c r="EG23" s="88"/>
+      <c r="EG23" s="87"/>
       <c r="EH23" s="15"/>
       <c r="EI23" s="15"/>
       <c r="EJ23" s="15"/>
@@ -38333,6 +39021,1999 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8AE2E5-47E0-4BAE-8731-05D8E0293EC0}">
+  <dimension ref="A1:FD10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD1" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF1" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH1" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK1" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL1" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM1" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP1" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ1" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR1" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS1" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT1" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU1" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX1" s="57" t="s">
+        <v>615</v>
+      </c>
+      <c r="AY1" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ1" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA1" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB1" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="BC1" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="BD1" s="57" t="s">
+        <v>621</v>
+      </c>
+      <c r="BE1" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF1" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="BG1" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH1" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI1" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="BJ1" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL1" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM1" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="BN1" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO1" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="BP1" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="BQ1" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="BR1" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="BS1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT1" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="BU1" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="BV1" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="BW1" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="BX1" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="BY1" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="BZ1" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="CA1" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB1" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="CC1" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD1" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="CE1" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="CF1" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="CG1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="CH1" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="CI1" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="CJ1" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="CK1" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="CL1" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="CM1" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="CN1" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="CO1" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="CP1" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="CQ1" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR1" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="CS1" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT1" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU1" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="CV1" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="CW1" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX1" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="CY1" s="59" t="s">
+        <v>627</v>
+      </c>
+      <c r="CZ1" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="DA1" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="DB1" s="59" t="s">
+        <v>629</v>
+      </c>
+      <c r="DC1" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="DD1" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="DE1" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="DF1" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="DG1" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="DH1" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="DI1" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="DJ1" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="DK1" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="DL1" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="DM1" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="DN1" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="DO1" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP1" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="DQ1" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="DR1" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="DS1" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="DT1" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU1" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV1" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW1" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX1" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="DY1" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="DZ1" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA1" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="EB1" s="59" t="s">
+        <v>829</v>
+      </c>
+      <c r="EC1" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="ED1" s="59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="15"/>
+      <c r="DR2" s="15"/>
+      <c r="DS2" s="15"/>
+      <c r="DT2" s="15"/>
+      <c r="DU2" s="15"/>
+      <c r="DV2" s="15"/>
+      <c r="DW2" s="15"/>
+      <c r="DX2" s="15"/>
+      <c r="DY2" s="15"/>
+      <c r="DZ2" s="15"/>
+      <c r="EA2" s="15"/>
+      <c r="EB2" s="15"/>
+      <c r="EC2" s="15"/>
+      <c r="ED2" s="15"/>
+      <c r="EE2" s="15"/>
+      <c r="EF2" s="15"/>
+      <c r="EG2" s="87"/>
+      <c r="EH2" s="15"/>
+      <c r="EI2" s="15"/>
+      <c r="EJ2" s="15"/>
+      <c r="EK2" s="15"/>
+      <c r="EL2" s="4"/>
+      <c r="EM2" s="4"/>
+      <c r="EN2" s="4"/>
+      <c r="EO2" s="4"/>
+      <c r="EP2" s="4"/>
+      <c r="EQ2" s="4"/>
+      <c r="ER2" s="4"/>
+      <c r="ES2" s="4"/>
+      <c r="ET2" s="4"/>
+      <c r="EU2" s="4"/>
+      <c r="EV2" s="4"/>
+      <c r="EW2" s="4"/>
+      <c r="EX2" s="4"/>
+      <c r="EY2" s="4"/>
+      <c r="EZ2" s="4"/>
+      <c r="FA2" s="4"/>
+      <c r="FB2" s="4"/>
+      <c r="FC2" s="4"/>
+      <c r="FD2" s="4"/>
+    </row>
+    <row r="3" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="34"/>
+      <c r="CC3" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="34"/>
+      <c r="CH3" s="34"/>
+      <c r="CI3" s="34"/>
+      <c r="CJ3" s="34"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="34"/>
+      <c r="CM3" s="34"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="15"/>
+      <c r="CZ3" s="15"/>
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="15"/>
+      <c r="DE3" s="15"/>
+      <c r="DF3" s="15"/>
+      <c r="DG3" s="15"/>
+      <c r="DH3" s="15"/>
+      <c r="DI3" s="15"/>
+      <c r="DJ3" s="15"/>
+      <c r="DK3" s="15"/>
+      <c r="DL3" s="15"/>
+      <c r="DM3" s="15"/>
+      <c r="DN3" s="15"/>
+      <c r="DO3" s="15"/>
+      <c r="DP3" s="15"/>
+      <c r="DQ3" s="15"/>
+      <c r="DR3" s="15"/>
+      <c r="DS3" s="15"/>
+      <c r="DT3" s="15"/>
+      <c r="DU3" s="15"/>
+      <c r="DV3" s="15"/>
+      <c r="DW3" s="15"/>
+    </row>
+    <row r="4" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="33"/>
+      <c r="P4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL4" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="34"/>
+      <c r="CK4" s="34"/>
+      <c r="CL4" s="34"/>
+      <c r="CM4" s="34"/>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="15"/>
+      <c r="CQ4" s="15"/>
+      <c r="CR4" s="15"/>
+      <c r="CS4" s="15"/>
+      <c r="CT4" s="15"/>
+      <c r="CU4" s="15"/>
+      <c r="CV4" s="15"/>
+      <c r="CW4" s="15"/>
+      <c r="CX4" s="15"/>
+      <c r="CY4" s="15"/>
+      <c r="CZ4" s="15"/>
+      <c r="DA4" s="15"/>
+      <c r="DB4" s="15"/>
+      <c r="DC4" s="15"/>
+      <c r="DD4" s="15"/>
+      <c r="DE4" s="15"/>
+      <c r="DF4" s="15"/>
+      <c r="DG4" s="15"/>
+      <c r="DH4" s="15"/>
+      <c r="DI4" s="15"/>
+      <c r="DJ4" s="15"/>
+      <c r="DK4" s="15"/>
+      <c r="DL4" s="15"/>
+      <c r="DM4" s="15"/>
+      <c r="DN4" s="15"/>
+      <c r="DO4" s="15"/>
+      <c r="DP4" s="15"/>
+    </row>
+    <row r="5" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL5" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE5" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
+      <c r="CJ5" s="34"/>
+      <c r="CK5" s="34"/>
+      <c r="CL5" s="34"/>
+      <c r="CM5" s="34"/>
+      <c r="CN5" s="15"/>
+      <c r="CO5" s="15"/>
+      <c r="CP5" s="15"/>
+      <c r="CQ5" s="15"/>
+      <c r="CR5" s="15"/>
+      <c r="CS5" s="15"/>
+      <c r="CT5" s="15"/>
+      <c r="CU5" s="15"/>
+      <c r="CV5" s="15"/>
+      <c r="CW5" s="15"/>
+      <c r="CX5" s="15"/>
+      <c r="CY5" s="15"/>
+      <c r="CZ5" s="15"/>
+      <c r="DA5" s="15"/>
+      <c r="DB5" s="15"/>
+      <c r="DC5" s="15"/>
+      <c r="DD5" s="15"/>
+      <c r="DE5" s="15"/>
+      <c r="DF5" s="15"/>
+      <c r="DG5" s="15"/>
+      <c r="DH5" s="15"/>
+      <c r="DI5" s="15"/>
+      <c r="DJ5" s="15"/>
+      <c r="DK5" s="15"/>
+      <c r="DL5" s="15"/>
+      <c r="DM5" s="15"/>
+      <c r="DN5" s="15"/>
+      <c r="DO5" s="15"/>
+      <c r="DP5" s="15"/>
+    </row>
+    <row r="6" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL6" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="34"/>
+      <c r="CH6" s="34"/>
+      <c r="CI6" s="34"/>
+      <c r="CJ6" s="34"/>
+      <c r="CK6" s="34"/>
+      <c r="CL6" s="34"/>
+      <c r="CM6" s="34"/>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15"/>
+      <c r="CP6" s="15"/>
+      <c r="CQ6" s="15"/>
+      <c r="CR6" s="15"/>
+      <c r="CS6" s="15"/>
+      <c r="CT6" s="15"/>
+      <c r="CU6" s="15"/>
+      <c r="CV6" s="15"/>
+      <c r="CW6" s="15"/>
+      <c r="CX6" s="15"/>
+      <c r="CY6" s="15"/>
+      <c r="CZ6" s="15"/>
+      <c r="DA6" s="15"/>
+      <c r="DB6" s="15"/>
+      <c r="DC6" s="15"/>
+      <c r="DD6" s="15"/>
+      <c r="DE6" s="15"/>
+      <c r="DF6" s="15"/>
+      <c r="DG6" s="15"/>
+      <c r="DH6" s="15"/>
+      <c r="DI6" s="15"/>
+      <c r="DJ6" s="15"/>
+      <c r="DK6" s="15"/>
+      <c r="DL6" s="15"/>
+      <c r="DM6" s="15"/>
+      <c r="DN6" s="15"/>
+      <c r="DO6" s="15"/>
+      <c r="DP6" s="15"/>
+    </row>
+    <row r="7" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="BL7" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34"/>
+      <c r="BS7" s="34"/>
+      <c r="BT7" s="34"/>
+      <c r="BU7" s="34"/>
+      <c r="BV7" s="34"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="34"/>
+      <c r="BZ7" s="34"/>
+      <c r="CA7" s="34"/>
+      <c r="CB7" s="34"/>
+      <c r="CC7" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE7" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="34"/>
+      <c r="CH7" s="34"/>
+      <c r="CI7" s="34"/>
+      <c r="CJ7" s="34"/>
+      <c r="CK7" s="34"/>
+      <c r="CL7" s="34"/>
+      <c r="CM7" s="34"/>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="15"/>
+      <c r="CQ7" s="15"/>
+      <c r="CR7" s="15"/>
+      <c r="CS7" s="15"/>
+      <c r="CT7" s="15"/>
+      <c r="CU7" s="15"/>
+      <c r="CV7" s="15"/>
+      <c r="CW7" s="15"/>
+      <c r="CX7" s="15"/>
+      <c r="CY7" s="15"/>
+      <c r="CZ7" s="15"/>
+      <c r="DA7" s="15"/>
+      <c r="DB7" s="15"/>
+      <c r="DC7" s="15"/>
+      <c r="DD7" s="15"/>
+      <c r="DE7" s="15"/>
+      <c r="DF7" s="15"/>
+      <c r="DG7" s="15"/>
+      <c r="DH7" s="15"/>
+      <c r="DI7" s="15"/>
+      <c r="DJ7" s="15"/>
+      <c r="DK7" s="15"/>
+      <c r="DL7" s="15"/>
+      <c r="DM7" s="15"/>
+      <c r="DN7" s="15"/>
+      <c r="DO7" s="15"/>
+      <c r="DP7" s="15"/>
+      <c r="DQ7" s="15"/>
+      <c r="DR7" s="15"/>
+      <c r="DS7" s="15"/>
+      <c r="DT7" s="15"/>
+      <c r="DU7" s="15"/>
+      <c r="DV7" s="15"/>
+      <c r="DW7" s="15"/>
+      <c r="DX7" s="15"/>
+      <c r="DY7" s="15"/>
+      <c r="DZ7" s="15"/>
+      <c r="EA7" s="15"/>
+      <c r="EB7" s="15"/>
+      <c r="EC7" s="15"/>
+      <c r="ED7" s="15"/>
+      <c r="EE7" s="15"/>
+    </row>
+    <row r="8" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="BL9" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34"/>
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="34"/>
+      <c r="CH9" s="34"/>
+      <c r="CI9" s="34"/>
+      <c r="CJ9" s="34"/>
+      <c r="CK9" s="34"/>
+      <c r="CL9" s="34"/>
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="15"/>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15"/>
+      <c r="CS9" s="15"/>
+      <c r="CT9" s="15"/>
+      <c r="CU9" s="15"/>
+      <c r="CV9" s="15"/>
+      <c r="CW9" s="15"/>
+      <c r="CX9" s="15"/>
+      <c r="CY9" s="15"/>
+      <c r="CZ9" s="15"/>
+      <c r="DA9" s="15"/>
+      <c r="DB9" s="15"/>
+      <c r="DC9" s="15"/>
+      <c r="DD9" s="15"/>
+      <c r="DE9" s="15"/>
+      <c r="DF9" s="15"/>
+      <c r="DG9" s="15"/>
+      <c r="DH9" s="15"/>
+      <c r="DI9" s="15"/>
+      <c r="DJ9" s="15"/>
+      <c r="DK9" s="15"/>
+      <c r="DL9" s="15"/>
+      <c r="DM9" s="15"/>
+      <c r="DN9" s="15"/>
+      <c r="DO9" s="15"/>
+      <c r="DP9" s="15"/>
+      <c r="DQ9" s="15"/>
+    </row>
+    <row r="10" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>935</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL10" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ10" s="34"/>
+      <c r="BR10" s="34"/>
+      <c r="BS10" s="34"/>
+      <c r="BT10" s="34"/>
+      <c r="BU10" s="34"/>
+      <c r="BV10" s="34"/>
+      <c r="BW10" s="34"/>
+      <c r="BX10" s="34"/>
+      <c r="BY10" s="34"/>
+      <c r="BZ10" s="34"/>
+      <c r="CA10" s="34"/>
+      <c r="CB10" s="34"/>
+      <c r="CC10" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE10" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF10" s="15"/>
+      <c r="CG10" s="34"/>
+      <c r="CH10" s="34"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="34"/>
+      <c r="CK10" s="34"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="34"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="15"/>
+      <c r="CQ10" s="15"/>
+      <c r="CR10" s="15"/>
+      <c r="CS10" s="15"/>
+      <c r="CT10" s="15"/>
+      <c r="CU10" s="15"/>
+      <c r="CV10" s="15"/>
+      <c r="CW10" s="15"/>
+      <c r="CX10" s="15"/>
+      <c r="CY10" s="15"/>
+      <c r="CZ10" s="15"/>
+      <c r="DA10" s="15"/>
+      <c r="DB10" s="15"/>
+      <c r="DC10" s="15"/>
+      <c r="DD10" s="15"/>
+      <c r="DE10" s="15"/>
+      <c r="DF10" s="15"/>
+      <c r="DG10" s="15"/>
+      <c r="DH10" s="15"/>
+      <c r="DI10" s="15"/>
+      <c r="DJ10" s="15"/>
+      <c r="DK10" s="15"/>
+      <c r="DL10" s="15"/>
+      <c r="DM10" s="15"/>
+      <c r="DN10" s="15"/>
+      <c r="DO10" s="15"/>
+      <c r="DP10" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7B91FD6-6F68-4471-8898-5C914670C339}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E336161C-A726-4317-8FD5-BDCB35226C36}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{433C7A6A-3FD6-43BB-89C8-00D613811B32}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A3C029B8-ABF1-478D-B4FE-C9F2A465909A}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{7BA5297E-B55D-48FA-8FE0-CA51A4027D01}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{22BDAC20-419F-4CA7-B835-1843352E9DB0}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{05EAFFBB-0203-4CBA-B67F-37602B95B0C0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BV37"/>
   <sheetViews>
@@ -38340,69 +41021,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="27" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="54.42578125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="45" max="46" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="54" max="55" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="73" max="74" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="35" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="54.42578125" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="29" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="55" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="74" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
@@ -38532,7 +41213,7 @@
       <c r="AP1" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="AQ1" s="94" t="s">
+      <c r="AQ1" s="93" t="s">
         <v>696</v>
       </c>
       <c r="AR1" s="1" t="s">
@@ -41138,7 +43819,7 @@
       <c r="BV24" s="13"/>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
+      <c r="A25" s="82">
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
@@ -41342,7 +44023,7 @@
       <c r="BQ26" s="13"/>
       <c r="BR26" s="13"/>
       <c r="BS26" s="13"/>
-      <c r="BT26" s="98"/>
+      <c r="BT26" s="97"/>
       <c r="BU26" s="13"/>
       <c r="BV26" s="13"/>
     </row>
@@ -41432,7 +44113,7 @@
       <c r="BQ27" s="13"/>
       <c r="BR27" s="13"/>
       <c r="BS27" s="13"/>
-      <c r="BT27" s="98"/>
+      <c r="BT27" s="97"/>
       <c r="BU27" s="13"/>
       <c r="BV27" s="13"/>
     </row>
@@ -41540,7 +44221,7 @@
       <c r="BQ28" s="13"/>
       <c r="BR28" s="13"/>
       <c r="BS28" s="13"/>
-      <c r="BT28" s="98"/>
+      <c r="BT28" s="97"/>
       <c r="BU28" s="13"/>
       <c r="BV28" s="13"/>
     </row>
@@ -41640,7 +44321,7 @@
       <c r="BQ29" s="13"/>
       <c r="BR29" s="13"/>
       <c r="BS29" s="13"/>
-      <c r="BT29" s="98"/>
+      <c r="BT29" s="97"/>
       <c r="BU29" s="13"/>
       <c r="BV29" s="13"/>
     </row>
@@ -41732,7 +44413,7 @@
       <c r="BQ30" s="13"/>
       <c r="BR30" s="13"/>
       <c r="BS30" s="13"/>
-      <c r="BT30" s="98"/>
+      <c r="BT30" s="97"/>
       <c r="BU30" s="13"/>
       <c r="BV30" s="13"/>
     </row>
@@ -41832,7 +44513,7 @@
       <c r="BQ31" s="13"/>
       <c r="BR31" s="13"/>
       <c r="BS31" s="13"/>
-      <c r="BT31" s="98"/>
+      <c r="BT31" s="97"/>
       <c r="BU31" s="13"/>
       <c r="BV31" s="13"/>
     </row>
@@ -41902,7 +44583,7 @@
       <c r="AM32" s="60"/>
       <c r="AN32" s="60"/>
       <c r="AO32" s="60"/>
-      <c r="AP32" s="95" t="s">
+      <c r="AP32" s="94" t="s">
         <v>698</v>
       </c>
       <c r="AQ32" s="13"/>
@@ -41934,101 +44615,101 @@
       <c r="BQ32" s="13"/>
       <c r="BR32" s="13"/>
       <c r="BS32" s="13"/>
-      <c r="BT32" s="98"/>
+      <c r="BT32" s="97"/>
       <c r="BU32" s="13"/>
       <c r="BV32" s="13"/>
     </row>
     <row r="33" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97">
+      <c r="A33" s="96">
         <v>31</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="98" t="s">
         <v>607</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="99" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="97" t="s">
+      <c r="D33" s="99"/>
+      <c r="E33" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="97" t="s">
+      <c r="F33" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97" t="s">
+      <c r="G33" s="96"/>
+      <c r="H33" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="99" t="s">
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="98" t="s">
         <v>717</v>
       </c>
-      <c r="L33" s="92"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="92" t="s">
+      <c r="L33" s="91"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="91" t="s">
         <v>718</v>
       </c>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="93"/>
-      <c r="AK33" s="93"/>
-      <c r="AL33" s="93"/>
-      <c r="AM33" s="93"/>
-      <c r="AN33" s="93"/>
-      <c r="AO33" s="93"/>
-      <c r="AP33" s="96"/>
-      <c r="AQ33" s="97"/>
-      <c r="AR33" s="93"/>
-      <c r="AS33" s="93"/>
-      <c r="AT33" s="93"/>
-      <c r="AU33" s="97"/>
-      <c r="AV33" s="97"/>
-      <c r="AW33" s="97"/>
-      <c r="AX33" s="97"/>
-      <c r="AY33" s="97"/>
-      <c r="AZ33" s="97"/>
-      <c r="BA33" s="97"/>
-      <c r="BB33" s="97"/>
-      <c r="BC33" s="97"/>
-      <c r="BD33" s="97"/>
-      <c r="BE33" s="97"/>
-      <c r="BF33" s="97"/>
-      <c r="BG33" s="97"/>
-      <c r="BH33" s="97"/>
-      <c r="BI33" s="97"/>
-      <c r="BJ33" s="97"/>
-      <c r="BK33" s="97"/>
-      <c r="BL33" s="97"/>
-      <c r="BM33" s="97"/>
-      <c r="BN33" s="97"/>
-      <c r="BO33" s="97"/>
-      <c r="BP33" s="97"/>
-      <c r="BQ33" s="97"/>
-      <c r="BR33" s="97"/>
-      <c r="BS33" s="97"/>
-      <c r="BT33" s="101"/>
-      <c r="BU33" s="97"/>
-      <c r="BV33" s="97"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
+      <c r="AL33" s="92"/>
+      <c r="AM33" s="92"/>
+      <c r="AN33" s="92"/>
+      <c r="AO33" s="92"/>
+      <c r="AP33" s="95"/>
+      <c r="AQ33" s="96"/>
+      <c r="AR33" s="92"/>
+      <c r="AS33" s="92"/>
+      <c r="AT33" s="92"/>
+      <c r="AU33" s="96"/>
+      <c r="AV33" s="96"/>
+      <c r="AW33" s="96"/>
+      <c r="AX33" s="96"/>
+      <c r="AY33" s="96"/>
+      <c r="AZ33" s="96"/>
+      <c r="BA33" s="96"/>
+      <c r="BB33" s="96"/>
+      <c r="BC33" s="96"/>
+      <c r="BD33" s="96"/>
+      <c r="BE33" s="96"/>
+      <c r="BF33" s="96"/>
+      <c r="BG33" s="96"/>
+      <c r="BH33" s="96"/>
+      <c r="BI33" s="96"/>
+      <c r="BJ33" s="96"/>
+      <c r="BK33" s="96"/>
+      <c r="BL33" s="96"/>
+      <c r="BM33" s="96"/>
+      <c r="BN33" s="96"/>
+      <c r="BO33" s="96"/>
+      <c r="BP33" s="96"/>
+      <c r="BQ33" s="96"/>
+      <c r="BR33" s="96"/>
+      <c r="BS33" s="96"/>
+      <c r="BT33" s="100"/>
+      <c r="BU33" s="96"/>
+      <c r="BV33" s="96"/>
     </row>
     <row r="34" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -42104,7 +44785,7 @@
       <c r="AM34" s="60"/>
       <c r="AN34" s="60"/>
       <c r="AO34" s="60"/>
-      <c r="AP34" s="95"/>
+      <c r="AP34" s="94"/>
       <c r="AQ34" s="13"/>
       <c r="AR34" s="60"/>
       <c r="AS34" s="60"/>
@@ -42181,7 +44862,7 @@
         <v>950</v>
       </c>
       <c r="Z35" s="50"/>
-      <c r="AA35" s="95" t="s">
+      <c r="AA35" s="94" t="s">
         <v>949</v>
       </c>
       <c r="AB35" s="50"/>
@@ -42198,7 +44879,7 @@
       <c r="AM35" s="60"/>
       <c r="AN35" s="60"/>
       <c r="AO35" s="60"/>
-      <c r="AP35" s="95"/>
+      <c r="AP35" s="94"/>
       <c r="AQ35" s="13" t="s">
         <v>947</v>
       </c>
@@ -42333,7 +45014,7 @@
       </c>
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="82">
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -42530,7 +45211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
@@ -42540,26 +45221,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -43120,10 +45801,10 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="113">
+      <c r="A11" s="111">
         <v>10</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="108" t="s">
         <v>1008</v>
       </c>
       <c r="C11" s="48" t="s">
@@ -43152,12 +45833,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43395,20 +46076,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -43434,9 +46113,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E757496-1734-48AF-AC73-87CA0CABC93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FBF840-02D8-4E0E-BD6A-292841C238FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
-    <sheet name="BulkImport" sheetId="8" r:id="rId2"/>
-    <sheet name="Member" sheetId="2" r:id="rId3"/>
-    <sheet name="LOBFSC" sheetId="9" r:id="rId4"/>
-    <sheet name="ConvertingAccounts" sheetId="10" r:id="rId5"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId6"/>
-    <sheet name="Contact" sheetId="7" r:id="rId7"/>
+    <sheet name="Pipeline" sheetId="11" r:id="rId2"/>
+    <sheet name="BulkImport" sheetId="8" r:id="rId3"/>
+    <sheet name="Member" sheetId="2" r:id="rId4"/>
+    <sheet name="LOBFSC" sheetId="9" r:id="rId5"/>
+    <sheet name="ConvertingAccounts" sheetId="10" r:id="rId6"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId7"/>
+    <sheet name="Contact" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$185</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="1119">
   <si>
     <t>Premier1a</t>
   </si>
@@ -3365,22 +3366,40 @@
     <t>4533_SubAccShipToAccProspectFirst</t>
   </si>
   <si>
-    <t>2022_06_06_03_10_56</t>
-  </si>
-  <si>
-    <t>2000512727</t>
-  </si>
-  <si>
     <t>TFS ID_4531:Verify cascade works fine when a shipto account gets converted to a main account</t>
   </si>
   <si>
     <t>4531_VerifyAccounttoLocationType</t>
   </si>
   <si>
-    <t>2022_06_06_08_42_47</t>
-  </si>
-  <si>
-    <t>2000512733</t>
+    <t>2000512735</t>
+  </si>
+  <si>
+    <t>2022_06_07_01_09_18</t>
+  </si>
+  <si>
+    <t>4/4/2021</t>
+  </si>
+  <si>
+    <t>5/4/2021</t>
+  </si>
+  <si>
+    <t>2000512736</t>
+  </si>
+  <si>
+    <t>2022_06_07_01_42_29</t>
+  </si>
+  <si>
+    <t>TFS ID_4532:Verify if FBO cascade works fine when ship-to account is converted back to main account</t>
+  </si>
+  <si>
+    <t>4532_VerifyFBOCascade</t>
+  </si>
+  <si>
+    <t>2000512737</t>
+  </si>
+  <si>
+    <t>2022_06_07_03_24_07</t>
   </si>
 </sst>
 </file>
@@ -4271,11 +4290,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P217"/>
+  <dimension ref="A1:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10079,7 +10096,7 @@
         <v>1105</v>
       </c>
       <c r="C216" s="123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D216" s="125" t="s">
         <v>1080</v>
@@ -10091,10 +10108,10 @@
         <v>938</v>
       </c>
       <c r="G216" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="H216" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10102,10 +10119,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="82" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C217" s="123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D217" s="125" t="s">
         <v>1080</v>
@@ -10114,13 +10131,39 @@
         <v>40</v>
       </c>
       <c r="F217" s="123" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G217" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="H217" t="s">
-        <v>1112</v>
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="109">
+        <v>217</v>
+      </c>
+      <c r="B218" s="82" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C218" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D218" s="125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E218" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F218" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -10140,6 +10183,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE9E61-0D15-477A-8CFB-C15463A4D1C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E671484F-6321-49DA-BE73-52BC99C1ECF8}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -10217,7 +10273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EQ138"/>
   <sheetViews>
@@ -34380,7 +34436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8C006-EF24-4A27-B0DA-8A03B54F96DC}">
   <dimension ref="A1:EK23"/>
   <sheetViews>
@@ -39020,12 +39076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8AE2E5-47E0-4BAE-8731-05D8E0293EC0}">
-  <dimension ref="A1:FD10"/>
+  <dimension ref="A1:FD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40820,7 +40876,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>294</v>
@@ -40832,7 +40888,7 @@
         <v>935</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="N10" s="33" t="s">
         <v>153</v>
@@ -40882,7 +40938,7 @@
       </c>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="34" t="s">
-        <v>239</v>
+        <v>1111</v>
       </c>
       <c r="AL10" s="34" t="s">
         <v>239</v>
@@ -40893,7 +40949,7 @@
         <v>278</v>
       </c>
       <c r="AP10" s="34" t="s">
-        <v>239</v>
+        <v>1112</v>
       </c>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="15"/>
@@ -40998,6 +41054,186 @@
       <c r="DO10" s="15"/>
       <c r="DP10" s="15"/>
     </row>
+    <row r="11" spans="1:160" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="34" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AL11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP11" s="34" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL11" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="34"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE11" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF11" s="15"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="34"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="34"/>
+      <c r="CK11" s="34"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="34"/>
+      <c r="CN11" s="15"/>
+      <c r="CO11" s="15"/>
+      <c r="CP11" s="15"/>
+      <c r="CQ11" s="15"/>
+      <c r="CR11" s="15"/>
+      <c r="CS11" s="15"/>
+      <c r="CT11" s="15"/>
+      <c r="CU11" s="15"/>
+      <c r="CV11" s="15"/>
+      <c r="CW11" s="15"/>
+      <c r="CX11" s="15"/>
+      <c r="CY11" s="15"/>
+      <c r="CZ11" s="15"/>
+      <c r="DA11" s="15"/>
+      <c r="DB11" s="15"/>
+      <c r="DC11" s="15"/>
+      <c r="DD11" s="15"/>
+      <c r="DE11" s="15"/>
+      <c r="DF11" s="15"/>
+      <c r="DG11" s="15"/>
+      <c r="DH11" s="15"/>
+      <c r="DI11" s="15"/>
+      <c r="DJ11" s="15"/>
+      <c r="DK11" s="15"/>
+      <c r="DL11" s="15"/>
+      <c r="DM11" s="15"/>
+      <c r="DN11" s="15"/>
+      <c r="DO11" s="15"/>
+      <c r="DP11" s="15"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A7B91FD6-6F68-4471-8898-5C914670C339}"/>
@@ -41013,7 +41249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BV37"/>
   <sheetViews>
@@ -45211,7 +45447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
@@ -45833,12 +46069,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46076,18 +46312,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -46113,11 +46351,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -3,31 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FBF840-02D8-4E0E-BD6A-292841C238FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28457CC5-F028-4119-AD16-6A3C7F4A76B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
-    <sheet name="Pipeline" sheetId="11" r:id="rId2"/>
-    <sheet name="BulkImport" sheetId="8" r:id="rId3"/>
-    <sheet name="Member" sheetId="2" r:id="rId4"/>
-    <sheet name="LOBFSC" sheetId="9" r:id="rId5"/>
-    <sheet name="ConvertingAccounts" sheetId="10" r:id="rId6"/>
-    <sheet name="Supplier" sheetId="3" r:id="rId7"/>
-    <sheet name="Contact" sheetId="7" r:id="rId8"/>
+    <sheet name="CAMSFlag" sheetId="12" r:id="rId2"/>
+    <sheet name="BusinessKey" sheetId="13" r:id="rId3"/>
+    <sheet name="Pipeline" sheetId="11" r:id="rId4"/>
+    <sheet name="BulkImport" sheetId="8" r:id="rId5"/>
+    <sheet name="Member" sheetId="2" r:id="rId6"/>
+    <sheet name="LOBFSC" sheetId="9" r:id="rId7"/>
+    <sheet name="ConvertingAccounts" sheetId="10" r:id="rId8"/>
+    <sheet name="Supplier" sheetId="3" r:id="rId9"/>
+    <sheet name="Contact" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$K$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6112" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="1167">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2988,48 +2990,6 @@
     <t>574430299</t>
   </si>
   <si>
-    <t>2000512583</t>
-  </si>
-  <si>
-    <t>2022_05_24_08_05_49</t>
-  </si>
-  <si>
-    <t>2000512584</t>
-  </si>
-  <si>
-    <t>2022_05_24_08_16_59</t>
-  </si>
-  <si>
-    <t>2000512585</t>
-  </si>
-  <si>
-    <t>2022_05_24_08_29_39</t>
-  </si>
-  <si>
-    <t>2022_05_24_08_33_14</t>
-  </si>
-  <si>
-    <t>2022_05_24_08_36_46</t>
-  </si>
-  <si>
-    <t>2022_05_24_08_40_28</t>
-  </si>
-  <si>
-    <t>2000512586</t>
-  </si>
-  <si>
-    <t>2022_05_24_08_53_08</t>
-  </si>
-  <si>
-    <t>2022_05_24_09_04_27</t>
-  </si>
-  <si>
-    <t>2022_05_24_09_08_00</t>
-  </si>
-  <si>
-    <t>2022_05_24_09_11_36</t>
-  </si>
-  <si>
     <t>2022_05_24_09_15_09</t>
   </si>
   <si>
@@ -3396,10 +3356,196 @@
     <t>4532_VerifyFBOCascade</t>
   </si>
   <si>
-    <t>2000512737</t>
-  </si>
-  <si>
-    <t>2022_06_07_03_24_07</t>
+    <t>2000512743</t>
+  </si>
+  <si>
+    <t>2022_06_07_09_08_26</t>
+  </si>
+  <si>
+    <t>CAMSFlag</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4537:Verify CAMS flag can be changed from Yes to No or No to Yes when record status is draft</t>
+  </si>
+  <si>
+    <t>2000512748</t>
+  </si>
+  <si>
+    <t>2022_06_08_03_11_24</t>
+  </si>
+  <si>
+    <t>TFS ID_4539:Verify CAMS rule works when changing the DP of a member who has incorrect CAMS</t>
+  </si>
+  <si>
+    <t>4537_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>4539_VerifyAccounttoLocationType</t>
+  </si>
+  <si>
+    <t>2000512754</t>
+  </si>
+  <si>
+    <t>2022_06_17_01_22_48</t>
+  </si>
+  <si>
+    <t>TFS ID_10931:Automation: Cloud : Verify whether BK Active is defaulted to No.</t>
+  </si>
+  <si>
+    <t>10931_BKValue</t>
+  </si>
+  <si>
+    <t>TFS ID_10935:Cloud : Verify whether "No Error Message" is thrown for Direct Parent and its Child Account's, whose BK Active is No</t>
+  </si>
+  <si>
+    <t>10935_BKValue</t>
+  </si>
+  <si>
+    <t>TFS ID_10937:Automation: Cloud : Verify whether "No Error Message" is thrown for Direct Parent whose BK Active is Yes and set its Child Account's with BK Active as No.</t>
+  </si>
+  <si>
+    <t>10937_BKValue</t>
+  </si>
+  <si>
+    <t>TFS ID_10938:Automation Cloud : Verify whether "No Error Message" is thrown for Direct Parent whose BK Active is Yes and set its Child Account with BK Active as Yes.</t>
+  </si>
+  <si>
+    <t>10938_BKValue</t>
+  </si>
+  <si>
+    <t>BusinessKey</t>
+  </si>
+  <si>
+    <t>TFS ID_10940:Cloud : Verify whether "BK active" is Yes, Business Key should auto generate.</t>
+  </si>
+  <si>
+    <t>10940_BKValue</t>
+  </si>
+  <si>
+    <t>AA0320</t>
+  </si>
+  <si>
+    <t>2000512760</t>
+  </si>
+  <si>
+    <t>2022_06_17_04_10_36</t>
+  </si>
+  <si>
+    <t>2022_06_17_06_58_31</t>
+  </si>
+  <si>
+    <t>2000512771</t>
+  </si>
+  <si>
+    <t>2022_06_17_07_50_07</t>
+  </si>
+  <si>
+    <t>2022_06_17_08_43_07</t>
+  </si>
+  <si>
+    <t>TFS ID_10942:Automation Cloud : Verify whether "No Error Message" is thrown when Direct Parent whose BK Active is set from No to Yes and which does not contain any Child Accounts.</t>
+  </si>
+  <si>
+    <t>10942_BKValue</t>
+  </si>
+  <si>
+    <t>2022_06_17_09_40_17</t>
+  </si>
+  <si>
+    <t>2000512777</t>
+  </si>
+  <si>
+    <t>2022_06_17_09_53_19</t>
+  </si>
+  <si>
+    <t>2000512785</t>
+  </si>
+  <si>
+    <t>2022_06_20_08_50_16</t>
+  </si>
+  <si>
+    <t>2000512786</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_01_32</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_17_37</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_21_09</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_24_39</t>
+  </si>
+  <si>
+    <t>2000512788</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_37_25</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_48_50</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_52_22</t>
+  </si>
+  <si>
+    <t>2022_06_20_09_55_54</t>
+  </si>
+  <si>
+    <t>2000512791</t>
+  </si>
+  <si>
+    <t>2022_06_20_11_19_39</t>
+  </si>
+  <si>
+    <t>TFS ID_10936:Cloud : Verify whether " Error Message" is thrown for Direct Parent whose BK Active is No and set it's Child Account with BK Active as Yes.</t>
+  </si>
+  <si>
+    <t>10936_BKValue</t>
+  </si>
+  <si>
+    <t>AH7017</t>
+  </si>
+  <si>
+    <t>6/6/2022</t>
+  </si>
+  <si>
+    <t>2000512800</t>
+  </si>
+  <si>
+    <t>2022_06_20_01_40_20</t>
+  </si>
+  <si>
+    <t>TFS ID_10941:Cloud : Verify whether " Error Message" is thrown for Direct Parent whose BK Active "Yes" is set to "No" , which as Child Account with BK Active as Yes.</t>
+  </si>
+  <si>
+    <t>10941_BKValue</t>
+  </si>
+  <si>
+    <t>2022_06_20_04_06_40</t>
+  </si>
+  <si>
+    <t>TFS ID_10943:Cloud : Verify whether " No Error Message" is thrown on first set Child Account's BK Active from Yes to No and second set DP's BK Active from Yes to No.</t>
+  </si>
+  <si>
+    <t>10943_BKValue</t>
+  </si>
+  <si>
+    <t>2022_06_20_05_05_04</t>
+  </si>
+  <si>
+    <t>TFS ID_10946:Cloud : Verify by creating new Non GPO account and set it's BK Active is Yes.</t>
+  </si>
+  <si>
+    <t>10946_BKValue</t>
+  </si>
+  <si>
+    <t>2000512812</t>
+  </si>
+  <si>
+    <t>2022_06_20_05_48_44</t>
   </si>
 </sst>
 </file>
@@ -3560,7 +3706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3613,6 +3759,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3758,7 +3910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3969,6 +4121,30 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4290,22 +4466,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P218"/>
+  <dimension ref="A1:P230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4364,10 +4542,10 @@
         <v>937</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>982</v>
+        <v>1138</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>981</v>
+        <v>1137</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -4398,10 +4576,10 @@
         <v>937</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>984</v>
+        <v>1140</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>983</v>
+        <v>1139</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -4427,13 +4605,13 @@
         <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>986</v>
+        <v>1150</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>985</v>
+        <v>1149</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -4460,7 +4638,7 @@
         <v>938</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>987</v>
+        <v>1141</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -4488,7 +4666,7 @@
         <v>938</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>988</v>
+        <v>1142</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4516,7 +4694,7 @@
         <v>938</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>989</v>
+        <v>1143</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -4544,10 +4722,10 @@
         <v>937</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>991</v>
+        <v>1145</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>990</v>
+        <v>1144</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -4574,7 +4752,7 @@
         <v>937</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>992</v>
+        <v>1146</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -4602,7 +4780,7 @@
         <v>938</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>993</v>
+        <v>1147</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -4630,7 +4808,7 @@
         <v>938</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>994</v>
+        <v>1148</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4658,7 +4836,7 @@
         <v>938</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -4687,7 +4865,7 @@
         <v>938</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -4715,7 +4893,7 @@
         <v>938</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -4743,7 +4921,7 @@
         <v>938</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -4771,7 +4949,7 @@
         <v>938</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -4799,7 +4977,7 @@
         <v>938</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -4827,7 +5005,7 @@
         <v>938</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -4855,7 +5033,7 @@
         <v>937</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -4883,7 +5061,7 @@
         <v>937</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -4911,10 +5089,10 @@
         <v>937</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -8956,7 +9134,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>35</v>
@@ -8971,10 +9149,10 @@
         <v>938</v>
       </c>
       <c r="G176" s="21" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="H176" s="21" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="I176" s="21"/>
       <c r="J176" s="21"/>
@@ -9228,9 +9406,9 @@
         <v>185</v>
       </c>
       <c r="B186" s="108" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C186" s="109" t="s">
+        <v>994</v>
+      </c>
+      <c r="C186" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D186" s="29" t="s">
@@ -9243,7 +9421,7 @@
         <v>937</v>
       </c>
       <c r="G186" s="121" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
       <c r="H186" s="121"/>
       <c r="I186" s="121"/>
@@ -9256,13 +9434,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C187" s="109" t="s">
+        <v>999</v>
+      </c>
+      <c r="C187" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D187" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E187" s="30" t="s">
         <v>40</v>
@@ -9271,10 +9449,10 @@
         <v>937</v>
       </c>
       <c r="G187" s="121" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="H187" s="121" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="I187" s="121"/>
       <c r="J187" s="121"/>
@@ -9286,13 +9464,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C188" s="109" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C188" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D188" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E188" s="30" t="s">
         <v>40</v>
@@ -9301,10 +9479,10 @@
         <v>938</v>
       </c>
       <c r="G188" s="121" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="H188" s="121" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="I188" s="121"/>
       <c r="J188" s="121"/>
@@ -9316,13 +9494,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="121" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C189" s="109" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C189" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D189" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E189" s="30" t="s">
         <v>40</v>
@@ -9331,10 +9509,10 @@
         <v>937</v>
       </c>
       <c r="G189" s="121" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="H189" s="121" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="I189" s="121"/>
       <c r="J189" s="121"/>
@@ -9346,13 +9524,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="121" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C190" s="109" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C190" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D190" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E190" s="30" t="s">
         <v>40</v>
@@ -9361,10 +9539,10 @@
         <v>937</v>
       </c>
       <c r="G190" s="121" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="H190" s="121" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="I190" s="121"/>
       <c r="J190" s="121"/>
@@ -9376,13 +9554,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="121" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C191" s="109" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C191" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D191" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E191" s="30" t="s">
         <v>40</v>
@@ -9391,10 +9569,10 @@
         <v>937</v>
       </c>
       <c r="G191" s="121" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="H191" s="121" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="I191" s="121"/>
       <c r="J191" s="121"/>
@@ -9406,13 +9584,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="121" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C192" s="109" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D192" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E192" s="30" t="s">
         <v>40</v>
@@ -9421,10 +9599,10 @@
         <v>937</v>
       </c>
       <c r="G192" s="121" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="H192" s="121" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="I192" s="121"/>
       <c r="J192" s="121"/>
@@ -9436,13 +9614,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="121" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C193" s="109" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C193" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D193" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E193" s="30" t="s">
         <v>40</v>
@@ -9451,10 +9629,10 @@
         <v>937</v>
       </c>
       <c r="G193" s="121" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="H193" s="121" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="I193" s="121"/>
       <c r="J193" s="121"/>
@@ -9466,13 +9644,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="121" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C194" s="109" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C194" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D194" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E194" s="30" t="s">
         <v>40</v>
@@ -9481,10 +9659,10 @@
         <v>938</v>
       </c>
       <c r="G194" s="121" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="H194" s="121" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="I194" s="121"/>
       <c r="J194" s="121"/>
@@ -9496,13 +9674,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="121" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C195" s="109" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C195" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D195" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E195" s="30" t="s">
         <v>40</v>
@@ -9511,10 +9689,10 @@
         <v>937</v>
       </c>
       <c r="G195" s="121" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="H195" s="121" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="I195" s="121"/>
       <c r="J195" s="121"/>
@@ -9526,13 +9704,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C196" s="109" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C196" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D196" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E196" s="30" t="s">
         <v>40</v>
@@ -9541,10 +9719,10 @@
         <v>938</v>
       </c>
       <c r="G196" s="121" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="H196" s="121" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="I196" s="121"/>
       <c r="J196" s="121"/>
@@ -9556,13 +9734,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C197" s="109" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C197" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D197" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E197" s="30" t="s">
         <v>40</v>
@@ -9571,7 +9749,7 @@
         <v>938</v>
       </c>
       <c r="G197" s="121" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="H197" s="121"/>
       <c r="I197" s="121"/>
@@ -9584,13 +9762,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C198" s="109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C198" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D198" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E198" s="30" t="s">
         <v>40</v>
@@ -9599,7 +9777,7 @@
         <v>938</v>
       </c>
       <c r="G198" s="121" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="H198" s="121"/>
       <c r="I198" s="121"/>
@@ -9612,13 +9790,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C199" s="109" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C199" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D199" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E199" s="30" t="s">
         <v>40</v>
@@ -9627,10 +9805,10 @@
         <v>937</v>
       </c>
       <c r="G199" s="121" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="H199" s="121" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="I199" s="121"/>
       <c r="J199" s="121"/>
@@ -9642,13 +9820,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="82" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C200" s="109" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C200" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D200" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E200" s="30" t="s">
         <v>40</v>
@@ -9657,10 +9835,10 @@
         <v>938</v>
       </c>
       <c r="G200" s="121" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="H200" s="121" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="I200" s="121"/>
       <c r="J200" s="121"/>
@@ -9672,13 +9850,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="82" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C201" s="109" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C201" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D201" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E201" s="30" t="s">
         <v>40</v>
@@ -9698,13 +9876,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="82" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C202" s="109" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D202" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E202" s="30" t="s">
         <v>40</v>
@@ -9713,7 +9891,7 @@
         <v>938</v>
       </c>
       <c r="G202" s="121" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="H202" s="121"/>
       <c r="I202" s="121"/>
@@ -9726,13 +9904,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="82" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C203" s="109" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D203" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E203" s="30" t="s">
         <v>40</v>
@@ -9741,10 +9919,10 @@
         <v>937</v>
       </c>
       <c r="G203" s="121" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="H203" s="121" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="I203" s="121"/>
       <c r="J203" s="121"/>
@@ -9756,13 +9934,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="82" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C204" s="109" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D204" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E204" s="30" t="s">
         <v>40</v>
@@ -9771,10 +9949,10 @@
         <v>937</v>
       </c>
       <c r="G204" s="121" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="H204" s="121" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="I204" s="121"/>
       <c r="J204" s="121"/>
@@ -9786,13 +9964,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="82" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C205" s="109" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D205" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E205" s="30" t="s">
         <v>40</v>
@@ -9801,10 +9979,10 @@
         <v>937</v>
       </c>
       <c r="G205" s="121" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="H205" s="121" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="I205" s="121"/>
       <c r="J205" s="121"/>
@@ -9816,13 +9994,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="82" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C206" s="109" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C206" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D206" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E206" s="30" t="s">
         <v>40</v>
@@ -9831,10 +10009,10 @@
         <v>937</v>
       </c>
       <c r="G206" s="121" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="H206" s="121" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="I206" s="121"/>
       <c r="J206" s="121"/>
@@ -9846,13 +10024,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="82" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C207" s="109" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C207" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D207" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E207" s="30" t="s">
         <v>40</v>
@@ -9872,13 +10050,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="82" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C208" s="109" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C208" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D208" s="108" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E208" s="30" t="s">
         <v>40</v>
@@ -9898,13 +10076,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C209" s="109" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C209" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D209" s="108" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E209" s="30" t="s">
         <v>40</v>
@@ -9913,10 +10091,10 @@
         <v>937</v>
       </c>
       <c r="G209" s="121" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="H209" s="121" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="I209" s="121"/>
       <c r="J209" s="121"/>
@@ -9928,13 +10106,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="82" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C210" s="109" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C210" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D210" s="108" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E210" s="30" t="s">
         <v>40</v>
@@ -9943,10 +10121,10 @@
         <v>937</v>
       </c>
       <c r="G210" s="121" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="H210" s="121" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="I210" s="121"/>
       <c r="J210" s="121"/>
@@ -9958,13 +10136,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="82" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C211" s="109" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C211" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D211" s="108" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E211" s="30" t="s">
         <v>40</v>
@@ -9973,10 +10151,10 @@
         <v>937</v>
       </c>
       <c r="G211" s="121" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="H211" s="121" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="I211" s="121"/>
       <c r="J211" s="121"/>
@@ -9988,13 +10166,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="82" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C212" s="109" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C212" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D212" s="108" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E212" s="30" t="s">
         <v>40</v>
@@ -10014,13 +10192,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="124" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C213" s="123" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C213" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D213" s="125" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E213" s="30" t="s">
         <v>40</v>
@@ -10029,10 +10207,10 @@
         <v>937</v>
       </c>
       <c r="G213" s="126" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="H213" s="126" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="I213" s="126"/>
       <c r="J213" s="126"/>
@@ -10044,13 +10222,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="82" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C214" s="123" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C214" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D214" s="125" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E214" s="30" t="s">
         <v>40</v>
@@ -10059,10 +10237,10 @@
         <v>937</v>
       </c>
       <c r="G214" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="H214" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10070,13 +10248,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="82" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C215" s="123" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C215" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D215" s="125" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E215" s="30" t="s">
         <v>40</v>
@@ -10085,7 +10263,7 @@
         <v>937</v>
       </c>
       <c r="G215" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10093,13 +10271,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="82" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C216" s="123" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D216" s="125" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E216" s="30" t="s">
         <v>40</v>
@@ -10108,10 +10286,10 @@
         <v>938</v>
       </c>
       <c r="G216" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="H216" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10119,13 +10297,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="82" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C217" s="123" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C217" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D217" s="125" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E217" s="30" t="s">
         <v>40</v>
@@ -10134,10 +10312,10 @@
         <v>937</v>
       </c>
       <c r="G217" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="H217" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10145,30 +10323,342 @@
         <v>217</v>
       </c>
       <c r="B218" s="82" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C218" s="109" t="s">
-        <v>34</v>
+        <v>1101</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="D218" s="125" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="E218" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F218" s="123" t="s">
+        <v>938</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="109">
+        <v>218</v>
+      </c>
+      <c r="B219" s="82" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D219" s="125" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E219" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F219" s="123" t="s">
         <v>937</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G219" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="109">
+        <v>219</v>
+      </c>
+      <c r="B220" s="128" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D220" s="125" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F220" s="123" t="s">
+        <v>938</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="109">
+        <v>220</v>
+      </c>
+      <c r="B221" s="129" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D221" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E221" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F221" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="109">
+        <v>221</v>
+      </c>
+      <c r="B222" s="129" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D222" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E222" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F222" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H222" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="109">
+        <v>222</v>
+      </c>
+      <c r="B223" s="129" t="s">
         <v>1118</v>
       </c>
-      <c r="H218" t="s">
-        <v>1117</v>
+      <c r="C223" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D223" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E223" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F223" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H223" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="109">
+        <v>223</v>
+      </c>
+      <c r="B224" s="129" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D224" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E224" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F224" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H224" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="109">
+        <v>224</v>
+      </c>
+      <c r="B225" s="137" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D225" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E225" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F225" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="109">
+        <v>225</v>
+      </c>
+      <c r="B226" s="82" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E226" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F226" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="109">
+        <v>226</v>
+      </c>
+      <c r="B227" s="130" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C227" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D227" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E227" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F227" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="109">
+        <v>227</v>
+      </c>
+      <c r="B228" s="130" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C228" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D228" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E228" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F228" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H228" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="109">
+        <v>228</v>
+      </c>
+      <c r="B229" s="130" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C229" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D229" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E229" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F229" s="123" t="s">
+        <v>937</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H229" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="109">
+        <v>229</v>
+      </c>
+      <c r="B230" s="130" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C230" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D230" s="125" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E230" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F230" s="123" t="s">
+        <v>938</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C185" xr:uid="{A9D3AA1F-6CCF-4170-8F27-A9C8ECFD1674}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C226" xr:uid="{A9D3AA1F-6CCF-4170-8F27-A9C8ECFD1674}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10182,7 +10672,3826 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
+  <dimension ref="A1:AF11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>484</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>484</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="R8" s="35"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="111">
+        <v>10</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>994</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{E516A3F0-4A35-405F-A276-07D78E1B53B1}"/>
+    <hyperlink ref="C2" r:id="rId2" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DF58F28A-C0AB-416F-8C71-40A2BAEF333C}"/>
+    <hyperlink ref="C3" r:id="rId3" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DA7CC61C-6AAE-421F-8787-FF3FFEEEC2AC}"/>
+    <hyperlink ref="C4" r:id="rId4" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{329023C2-3A6B-43D7-AEEB-D3EC037D355C}"/>
+    <hyperlink ref="C5" r:id="rId5" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DCE97C82-55B3-42F0-852B-18BAA6201127}"/>
+    <hyperlink ref="C6" r:id="rId6" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{2BACC580-6FC9-4B29-B946-40E5CB295937}"/>
+    <hyperlink ref="C7" r:id="rId7" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{081E6968-DA19-414F-8046-6015F87ADB15}"/>
+    <hyperlink ref="C8" r:id="rId8" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DB6266BE-B085-4A20-B316-DD7D632F457B}"/>
+    <hyperlink ref="C9" r:id="rId9" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{752CF1E0-75D6-49E1-923B-BABE42CF60F9}"/>
+    <hyperlink ref="C11" r:id="rId10" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{80498F71-6095-4ADA-A47A-BFFA3EB2D667}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7512CD-A03D-4B77-842E-29F63378459D}">
+  <dimension ref="A1:EK3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="N1" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="V1" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="W1" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z1" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA1" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB1" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC1" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD1" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF1" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH1" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK1" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL1" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM1" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN1" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP1" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ1" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR1" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS1" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT1" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU1" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX1" s="57" t="s">
+        <v>615</v>
+      </c>
+      <c r="AY1" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ1" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA1" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB1" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="BC1" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="BD1" s="57" t="s">
+        <v>621</v>
+      </c>
+      <c r="BE1" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF1" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="BG1" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH1" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI1" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="BJ1" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL1" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM1" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="BN1" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO1" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="BP1" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="BQ1" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="BR1" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="BS1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT1" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="BU1" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="BV1" s="57" t="s">
+        <v>388</v>
+      </c>
+      <c r="BW1" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="BX1" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="BY1" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="BZ1" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="CA1" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB1" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="CC1" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD1" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="CE1" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="CF1" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="CG1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="CH1" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="CI1" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="CJ1" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="CK1" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="CL1" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="CM1" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="CN1" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="CO1" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="CP1" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="CQ1" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR1" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="CS1" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT1" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU1" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="CV1" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="CW1" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX1" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="CY1" s="59" t="s">
+        <v>627</v>
+      </c>
+      <c r="CZ1" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="DA1" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="DB1" s="59" t="s">
+        <v>629</v>
+      </c>
+      <c r="DC1" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="DD1" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="DE1" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="DF1" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="DG1" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="DH1" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="DI1" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="DJ1" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="DK1" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="DL1" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="DM1" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="DN1" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="DO1" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP1" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="DQ1" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="DR1" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="DS1" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="DT1" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU1" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV1" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW1" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX1" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="DY1" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="DZ1" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA1" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="EB1" s="59" t="s">
+        <v>829</v>
+      </c>
+      <c r="EC1" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="ED1" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="EE1" s="59" t="s">
+        <v>895</v>
+      </c>
+      <c r="EF1" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="EG1" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="EH1" s="83" t="s">
+        <v>631</v>
+      </c>
+      <c r="EI1" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="EJ1" s="59" t="s">
+        <v>633</v>
+      </c>
+      <c r="EK1" s="59" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>935</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP2" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+    </row>
+    <row r="3" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>935</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP3" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="34"/>
+      <c r="CC3" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="34"/>
+      <c r="CH3" s="34"/>
+      <c r="CI3" s="34"/>
+      <c r="CJ3" s="34"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="34"/>
+      <c r="CM3" s="34"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="15"/>
+      <c r="CZ3" s="15"/>
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="15"/>
+      <c r="DE3" s="15"/>
+      <c r="DF3" s="15"/>
+      <c r="DG3" s="15"/>
+      <c r="DH3" s="15"/>
+      <c r="DI3" s="15"/>
+      <c r="DJ3" s="15"/>
+      <c r="DK3" s="15"/>
+      <c r="DL3" s="15"/>
+      <c r="DM3" s="15"/>
+      <c r="DN3" s="15"/>
+      <c r="DO3" s="15"/>
+      <c r="DP3" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BAE32A-8E47-4769-B1A3-ABC5D9FFC732}">
+  <dimension ref="A1:EK11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" style="130" width="60.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="131" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="131" t="s">
+        <v>609</v>
+      </c>
+      <c r="N1" s="133" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="133" t="s">
+        <v>400</v>
+      </c>
+      <c r="P1" s="131" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="131" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="T1" s="131" t="s">
+        <v>611</v>
+      </c>
+      <c r="U1" s="131" t="s">
+        <v>683</v>
+      </c>
+      <c r="V1" s="131" t="s">
+        <v>682</v>
+      </c>
+      <c r="W1" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="131" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" s="131" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z1" s="131" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA1" s="131" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB1" s="131" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC1" s="131" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD1" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="131" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF1" s="131" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH1" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="134" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK1" s="134" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL1" s="134" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM1" s="134" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN1" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP1" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ1" s="134" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR1" s="134" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS1" s="134" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT1" s="134" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU1" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="134" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX1" s="134" t="s">
+        <v>615</v>
+      </c>
+      <c r="AY1" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ1" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="BA1" s="134" t="s">
+        <v>312</v>
+      </c>
+      <c r="BB1" s="134" t="s">
+        <v>617</v>
+      </c>
+      <c r="BC1" s="134" t="s">
+        <v>618</v>
+      </c>
+      <c r="BD1" s="134" t="s">
+        <v>621</v>
+      </c>
+      <c r="BE1" s="134" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF1" s="134" t="s">
+        <v>623</v>
+      </c>
+      <c r="BG1" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH1" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI1" s="135" t="s">
+        <v>625</v>
+      </c>
+      <c r="BJ1" s="135" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK1" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL1" s="135" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM1" s="135" t="s">
+        <v>313</v>
+      </c>
+      <c r="BN1" s="134" t="s">
+        <v>304</v>
+      </c>
+      <c r="BO1" s="134" t="s">
+        <v>305</v>
+      </c>
+      <c r="BP1" s="134" t="s">
+        <v>306</v>
+      </c>
+      <c r="BQ1" s="134" t="s">
+        <v>345</v>
+      </c>
+      <c r="BR1" s="134" t="s">
+        <v>346</v>
+      </c>
+      <c r="BS1" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT1" s="134" t="s">
+        <v>371</v>
+      </c>
+      <c r="BU1" s="134" t="s">
+        <v>372</v>
+      </c>
+      <c r="BV1" s="134" t="s">
+        <v>388</v>
+      </c>
+      <c r="BW1" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="BX1" s="134" t="s">
+        <v>374</v>
+      </c>
+      <c r="BY1" s="134" t="s">
+        <v>387</v>
+      </c>
+      <c r="BZ1" s="134" t="s">
+        <v>375</v>
+      </c>
+      <c r="CA1" s="134" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB1" s="134" t="s">
+        <v>389</v>
+      </c>
+      <c r="CC1" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD1" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="CE1" s="135" t="s">
+        <v>259</v>
+      </c>
+      <c r="CF1" s="135" t="s">
+        <v>349</v>
+      </c>
+      <c r="CG1" s="135" t="s">
+        <v>348</v>
+      </c>
+      <c r="CH1" s="135" t="s">
+        <v>362</v>
+      </c>
+      <c r="CI1" s="135" t="s">
+        <v>363</v>
+      </c>
+      <c r="CJ1" s="135" t="s">
+        <v>366</v>
+      </c>
+      <c r="CK1" s="135" t="s">
+        <v>367</v>
+      </c>
+      <c r="CL1" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="CM1" s="135" t="s">
+        <v>369</v>
+      </c>
+      <c r="CN1" s="135" t="s">
+        <v>314</v>
+      </c>
+      <c r="CO1" s="135" t="s">
+        <v>315</v>
+      </c>
+      <c r="CP1" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="CQ1" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR1" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="CS1" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT1" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="CU1" s="135" t="s">
+        <v>325</v>
+      </c>
+      <c r="CV1" s="135" t="s">
+        <v>326</v>
+      </c>
+      <c r="CW1" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="CX1" s="135" t="s">
+        <v>327</v>
+      </c>
+      <c r="CY1" s="135" t="s">
+        <v>627</v>
+      </c>
+      <c r="CZ1" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="DA1" s="135" t="s">
+        <v>329</v>
+      </c>
+      <c r="DB1" s="135" t="s">
+        <v>629</v>
+      </c>
+      <c r="DC1" s="135" t="s">
+        <v>330</v>
+      </c>
+      <c r="DD1" s="135" t="s">
+        <v>331</v>
+      </c>
+      <c r="DE1" s="135" t="s">
+        <v>332</v>
+      </c>
+      <c r="DF1" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="DG1" s="135" t="s">
+        <v>333</v>
+      </c>
+      <c r="DH1" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="DI1" s="135" t="s">
+        <v>335</v>
+      </c>
+      <c r="DJ1" s="135" t="s">
+        <v>336</v>
+      </c>
+      <c r="DK1" s="135" t="s">
+        <v>337</v>
+      </c>
+      <c r="DL1" s="135" t="s">
+        <v>338</v>
+      </c>
+      <c r="DM1" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="DN1" s="135" t="s">
+        <v>339</v>
+      </c>
+      <c r="DO1" s="135" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP1" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="DQ1" s="135" t="s">
+        <v>340</v>
+      </c>
+      <c r="DR1" s="135" t="s">
+        <v>341</v>
+      </c>
+      <c r="DS1" s="135" t="s">
+        <v>342</v>
+      </c>
+      <c r="DT1" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU1" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV1" s="135" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW1" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX1" s="135" t="s">
+        <v>323</v>
+      </c>
+      <c r="DY1" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="DZ1" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA1" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="EB1" s="135" t="s">
+        <v>829</v>
+      </c>
+      <c r="EC1" s="135" t="s">
+        <v>830</v>
+      </c>
+      <c r="ED1" s="135" t="s">
+        <v>138</v>
+      </c>
+      <c r="EE1" s="135" t="s">
+        <v>895</v>
+      </c>
+      <c r="EF1" s="135" t="s">
+        <v>322</v>
+      </c>
+      <c r="EG1" s="135" t="s">
+        <v>193</v>
+      </c>
+      <c r="EH1" s="136" t="s">
+        <v>631</v>
+      </c>
+      <c r="EI1" s="135" t="s">
+        <v>632</v>
+      </c>
+      <c r="EJ1" s="135" t="s">
+        <v>633</v>
+      </c>
+      <c r="EK1" s="135" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="137" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="47" t="s">
+        <v>935</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="33"/>
+      <c r="P2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP2" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF2" s="15"/>
+      <c r="BG2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI2" s="15"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="15"/>
+      <c r="DC2" s="15"/>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="15"/>
+      <c r="DH2" s="15"/>
+      <c r="DI2" s="15"/>
+      <c r="DJ2" s="15"/>
+      <c r="DK2" s="15"/>
+      <c r="DL2" s="15"/>
+      <c r="DM2" s="15"/>
+      <c r="DN2" s="15"/>
+      <c r="DO2" s="15"/>
+      <c r="DP2" s="15"/>
+      <c r="DQ2" s="13"/>
+      <c r="DR2" s="13"/>
+      <c r="DS2" s="13"/>
+      <c r="DT2" s="13"/>
+      <c r="DU2" s="13"/>
+      <c r="DV2" s="13"/>
+      <c r="DW2" s="13"/>
+      <c r="DX2" s="13"/>
+      <c r="DY2" s="13"/>
+      <c r="DZ2" s="13"/>
+      <c r="EA2" s="13"/>
+      <c r="EB2" s="13"/>
+      <c r="EC2" s="13"/>
+      <c r="ED2" s="13"/>
+      <c r="EE2" s="13"/>
+      <c r="EF2" s="13"/>
+      <c r="EG2" s="13"/>
+      <c r="EH2" s="13"/>
+      <c r="EI2" s="13"/>
+      <c r="EJ2" s="13"/>
+      <c r="EK2" s="13"/>
+    </row>
+    <row r="3" spans="1:141" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP3" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="34"/>
+      <c r="CC3" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF3" s="13"/>
+      <c r="CG3" s="13"/>
+      <c r="CH3" s="13"/>
+      <c r="CI3" s="13"/>
+      <c r="CJ3" s="13"/>
+      <c r="CK3" s="13"/>
+      <c r="CL3" s="13"/>
+      <c r="CM3" s="13"/>
+      <c r="CN3" s="13"/>
+      <c r="CO3" s="13"/>
+      <c r="CP3" s="13"/>
+      <c r="CQ3" s="13"/>
+      <c r="CR3" s="13"/>
+      <c r="CS3" s="13"/>
+      <c r="CT3" s="13"/>
+      <c r="CU3" s="13"/>
+      <c r="CV3" s="13"/>
+      <c r="CW3" s="13"/>
+      <c r="CX3" s="13"/>
+      <c r="CY3" s="13"/>
+      <c r="CZ3" s="13"/>
+      <c r="DA3" s="13"/>
+      <c r="DB3" s="13"/>
+      <c r="DC3" s="13"/>
+      <c r="DD3" s="13"/>
+      <c r="DE3" s="13"/>
+      <c r="DF3" s="13"/>
+      <c r="DG3" s="13"/>
+      <c r="DH3" s="13"/>
+      <c r="DI3" s="13"/>
+      <c r="DJ3" s="13"/>
+      <c r="DK3" s="13"/>
+      <c r="DL3" s="13"/>
+      <c r="DM3" s="13"/>
+      <c r="DN3" s="13"/>
+      <c r="DO3" s="13"/>
+      <c r="DP3" s="13"/>
+      <c r="DQ3" s="13"/>
+      <c r="DR3" s="13"/>
+      <c r="DS3" s="13"/>
+      <c r="DT3" s="13"/>
+      <c r="DU3" s="13"/>
+      <c r="DV3" s="13"/>
+      <c r="DW3" s="13"/>
+      <c r="DX3" s="13"/>
+      <c r="DY3" s="13"/>
+      <c r="DZ3" s="13"/>
+      <c r="EA3" s="13"/>
+      <c r="EB3" s="13"/>
+      <c r="EC3" s="13"/>
+      <c r="ED3" s="13"/>
+      <c r="EE3" s="13"/>
+      <c r="EF3" s="13"/>
+      <c r="EG3" s="13"/>
+      <c r="EH3" s="13"/>
+      <c r="EI3" s="13"/>
+      <c r="EJ3" s="13"/>
+      <c r="EK3" s="13"/>
+    </row>
+    <row r="4" spans="1:141" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="33"/>
+      <c r="P4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP4" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL4" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF4" s="13"/>
+      <c r="CG4" s="13"/>
+      <c r="CH4" s="13"/>
+      <c r="CI4" s="13"/>
+      <c r="CJ4" s="13"/>
+      <c r="CK4" s="13"/>
+      <c r="CL4" s="13"/>
+      <c r="CM4" s="13"/>
+      <c r="CN4" s="13"/>
+      <c r="CO4" s="13"/>
+      <c r="CP4" s="13"/>
+      <c r="CQ4" s="13"/>
+      <c r="CR4" s="13"/>
+      <c r="CS4" s="13"/>
+      <c r="CT4" s="13"/>
+      <c r="CU4" s="13"/>
+      <c r="CV4" s="13"/>
+      <c r="CW4" s="13"/>
+      <c r="CX4" s="13"/>
+      <c r="CY4" s="13"/>
+      <c r="CZ4" s="13"/>
+      <c r="DA4" s="13"/>
+      <c r="DB4" s="13"/>
+      <c r="DC4" s="13"/>
+      <c r="DD4" s="13"/>
+      <c r="DE4" s="13"/>
+      <c r="DF4" s="13"/>
+      <c r="DG4" s="13"/>
+      <c r="DH4" s="13"/>
+      <c r="DI4" s="13"/>
+      <c r="DJ4" s="13"/>
+      <c r="DK4" s="13"/>
+      <c r="DL4" s="13"/>
+      <c r="DM4" s="13"/>
+      <c r="DN4" s="13"/>
+      <c r="DO4" s="13"/>
+      <c r="DP4" s="13"/>
+      <c r="DQ4" s="13"/>
+      <c r="DR4" s="13"/>
+      <c r="DS4" s="13"/>
+      <c r="DT4" s="13"/>
+      <c r="DU4" s="13"/>
+      <c r="DV4" s="13"/>
+      <c r="DW4" s="13"/>
+      <c r="DX4" s="13"/>
+      <c r="DY4" s="13"/>
+      <c r="DZ4" s="13"/>
+      <c r="EA4" s="13"/>
+      <c r="EB4" s="13"/>
+      <c r="EC4" s="13"/>
+      <c r="ED4" s="13"/>
+      <c r="EE4" s="13"/>
+      <c r="EF4" s="13"/>
+      <c r="EG4" s="13"/>
+      <c r="EH4" s="13"/>
+      <c r="EI4" s="13"/>
+      <c r="EJ4" s="13"/>
+      <c r="EK4" s="13"/>
+    </row>
+    <row r="5" spans="1:141" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP5" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL5" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE5" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF5" s="13"/>
+      <c r="CG5" s="13"/>
+      <c r="CH5" s="13"/>
+      <c r="CI5" s="13"/>
+      <c r="CJ5" s="13"/>
+      <c r="CK5" s="13"/>
+      <c r="CL5" s="13"/>
+      <c r="CM5" s="13"/>
+      <c r="CN5" s="13"/>
+      <c r="CO5" s="13"/>
+      <c r="CP5" s="13"/>
+      <c r="CQ5" s="13"/>
+      <c r="CR5" s="13"/>
+      <c r="CS5" s="13"/>
+      <c r="CT5" s="13"/>
+      <c r="CU5" s="13"/>
+      <c r="CV5" s="13"/>
+      <c r="CW5" s="13"/>
+      <c r="CX5" s="13"/>
+      <c r="CY5" s="13"/>
+      <c r="CZ5" s="13"/>
+      <c r="DA5" s="13"/>
+      <c r="DB5" s="13"/>
+      <c r="DC5" s="13"/>
+      <c r="DD5" s="13"/>
+      <c r="DE5" s="13"/>
+      <c r="DF5" s="13"/>
+      <c r="DG5" s="13"/>
+      <c r="DH5" s="13"/>
+      <c r="DI5" s="13"/>
+      <c r="DJ5" s="13"/>
+      <c r="DK5" s="13"/>
+      <c r="DL5" s="13"/>
+      <c r="DM5" s="13"/>
+      <c r="DN5" s="13"/>
+      <c r="DO5" s="13"/>
+      <c r="DP5" s="13"/>
+      <c r="DQ5" s="13"/>
+      <c r="DR5" s="13"/>
+      <c r="DS5" s="13"/>
+      <c r="DT5" s="13"/>
+      <c r="DU5" s="13"/>
+      <c r="DV5" s="13"/>
+      <c r="DW5" s="13"/>
+      <c r="DX5" s="13"/>
+      <c r="DY5" s="13"/>
+      <c r="DZ5" s="13"/>
+      <c r="EA5" s="13"/>
+      <c r="EB5" s="13"/>
+      <c r="EC5" s="13"/>
+      <c r="ED5" s="13"/>
+      <c r="EE5" s="13"/>
+      <c r="EF5" s="13"/>
+      <c r="EG5" s="13"/>
+      <c r="EH5" s="13"/>
+      <c r="EI5" s="13"/>
+      <c r="EJ5" s="13"/>
+      <c r="EK5" s="13"/>
+    </row>
+    <row r="6" spans="1:141" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP6" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL6" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="13"/>
+      <c r="CI6" s="13"/>
+      <c r="CJ6" s="13"/>
+      <c r="CK6" s="13"/>
+      <c r="CL6" s="13"/>
+      <c r="CM6" s="13"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13"/>
+      <c r="CS6" s="13"/>
+      <c r="CT6" s="13"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13"/>
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="13"/>
+      <c r="DA6" s="13"/>
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13"/>
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13"/>
+      <c r="DG6" s="13"/>
+      <c r="DH6" s="13"/>
+      <c r="DI6" s="13"/>
+      <c r="DJ6" s="13"/>
+      <c r="DK6" s="13"/>
+      <c r="DL6" s="13"/>
+      <c r="DM6" s="13"/>
+      <c r="DN6" s="13"/>
+      <c r="DO6" s="13"/>
+      <c r="DP6" s="13"/>
+      <c r="DQ6" s="13"/>
+      <c r="DR6" s="13"/>
+      <c r="DS6" s="13"/>
+      <c r="DT6" s="13"/>
+      <c r="DU6" s="13"/>
+      <c r="DV6" s="13"/>
+      <c r="DW6" s="13"/>
+      <c r="DX6" s="13"/>
+      <c r="DY6" s="13"/>
+      <c r="DZ6" s="13"/>
+      <c r="EA6" s="13"/>
+      <c r="EB6" s="13"/>
+      <c r="EC6" s="13"/>
+      <c r="ED6" s="13"/>
+      <c r="EE6" s="13"/>
+      <c r="EF6" s="13"/>
+      <c r="EG6" s="13"/>
+      <c r="EH6" s="13"/>
+      <c r="EI6" s="13"/>
+      <c r="EJ6" s="13"/>
+      <c r="EK6" s="13"/>
+    </row>
+    <row r="7" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="33"/>
+      <c r="P7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="36" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP7" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL7" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34"/>
+      <c r="BS7" s="34"/>
+      <c r="BT7" s="34"/>
+      <c r="BU7" s="34"/>
+      <c r="BV7" s="34"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="34"/>
+      <c r="BZ7" s="34"/>
+      <c r="CA7" s="34"/>
+      <c r="CB7" s="34"/>
+      <c r="CC7" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD7" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE7" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF7" s="13"/>
+      <c r="CG7" s="13"/>
+      <c r="CH7" s="13"/>
+      <c r="CI7" s="13"/>
+      <c r="CJ7" s="13"/>
+      <c r="CK7" s="13"/>
+      <c r="CL7" s="13"/>
+      <c r="CM7" s="13"/>
+      <c r="CN7" s="13"/>
+      <c r="CO7" s="13"/>
+      <c r="CP7" s="13"/>
+      <c r="CQ7" s="13"/>
+      <c r="CR7" s="13"/>
+      <c r="CS7" s="13"/>
+      <c r="CT7" s="13"/>
+      <c r="CU7" s="13"/>
+      <c r="CV7" s="13"/>
+      <c r="CW7" s="13"/>
+      <c r="CX7" s="13"/>
+      <c r="CY7" s="13"/>
+      <c r="CZ7" s="13"/>
+      <c r="DA7" s="13"/>
+      <c r="DB7" s="13"/>
+      <c r="DC7" s="13"/>
+      <c r="DD7" s="13"/>
+      <c r="DE7" s="13"/>
+      <c r="DF7" s="13"/>
+      <c r="DG7" s="13"/>
+      <c r="DH7" s="13"/>
+      <c r="DI7" s="13"/>
+      <c r="DJ7" s="13"/>
+      <c r="DK7" s="13"/>
+      <c r="DL7" s="13"/>
+      <c r="DM7" s="13"/>
+      <c r="DN7" s="13"/>
+      <c r="DO7" s="13"/>
+      <c r="DP7" s="13"/>
+      <c r="DQ7" s="13"/>
+      <c r="DR7" s="13"/>
+      <c r="DS7" s="13"/>
+      <c r="DT7" s="13"/>
+      <c r="DU7" s="13"/>
+      <c r="DV7" s="13"/>
+      <c r="DW7" s="13"/>
+      <c r="DX7" s="13"/>
+      <c r="DY7" s="13"/>
+      <c r="DZ7" s="13"/>
+      <c r="EA7" s="13"/>
+      <c r="EB7" s="13"/>
+      <c r="EC7" s="13"/>
+      <c r="ED7" s="13"/>
+      <c r="EE7" s="13"/>
+      <c r="EF7" s="13"/>
+      <c r="EG7" s="13"/>
+      <c r="EH7" s="13"/>
+      <c r="EI7" s="13"/>
+      <c r="EJ7" s="13"/>
+      <c r="EK7" s="13"/>
+    </row>
+    <row r="8" spans="1:141" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="82">
+        <v>7</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="P8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="36" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AL8" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP8" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL8" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP8" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BQ8" s="34"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="34"/>
+      <c r="BT8" s="34"/>
+      <c r="BU8" s="34"/>
+      <c r="BV8" s="34"/>
+      <c r="BW8" s="34"/>
+      <c r="BX8" s="34"/>
+      <c r="BY8" s="34"/>
+      <c r="BZ8" s="34"/>
+      <c r="CA8" s="34"/>
+      <c r="CB8" s="34"/>
+      <c r="CC8" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD8" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="CE8" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF8" s="13"/>
+      <c r="CG8" s="13"/>
+      <c r="CH8" s="13"/>
+      <c r="CI8" s="13"/>
+      <c r="CJ8" s="13"/>
+      <c r="CK8" s="13"/>
+      <c r="CL8" s="13"/>
+      <c r="CM8" s="13"/>
+      <c r="CN8" s="13"/>
+      <c r="CO8" s="13"/>
+      <c r="CP8" s="13"/>
+      <c r="CQ8" s="13"/>
+      <c r="CR8" s="13"/>
+      <c r="CS8" s="13"/>
+      <c r="CT8" s="13"/>
+      <c r="CU8" s="13"/>
+      <c r="CV8" s="13"/>
+      <c r="CW8" s="13"/>
+      <c r="CX8" s="13"/>
+      <c r="CY8" s="13"/>
+      <c r="CZ8" s="13"/>
+      <c r="DA8" s="13"/>
+      <c r="DB8" s="13"/>
+      <c r="DC8" s="13"/>
+      <c r="DD8" s="13"/>
+      <c r="DE8" s="13"/>
+      <c r="DF8" s="13"/>
+      <c r="DG8" s="13"/>
+      <c r="DH8" s="13"/>
+      <c r="DI8" s="13"/>
+      <c r="DJ8" s="13"/>
+      <c r="DK8" s="13"/>
+      <c r="DL8" s="13"/>
+      <c r="DM8" s="13"/>
+      <c r="DN8" s="13"/>
+      <c r="DO8" s="13"/>
+      <c r="DP8" s="13"/>
+      <c r="DQ8" s="13"/>
+      <c r="DR8" s="13"/>
+      <c r="DS8" s="13"/>
+      <c r="DT8" s="13"/>
+      <c r="DU8" s="13"/>
+      <c r="DV8" s="13"/>
+      <c r="DW8" s="13"/>
+      <c r="DX8" s="13"/>
+      <c r="DY8" s="13"/>
+      <c r="DZ8" s="13"/>
+      <c r="EA8" s="13"/>
+      <c r="EB8" s="13"/>
+      <c r="EC8" s="13"/>
+      <c r="ED8" s="13"/>
+      <c r="EE8" s="13"/>
+      <c r="EF8" s="13"/>
+      <c r="EG8" s="13"/>
+      <c r="EH8" s="13"/>
+      <c r="EI8" s="13"/>
+      <c r="EJ8" s="13"/>
+      <c r="EK8" s="13"/>
+    </row>
+    <row r="9" spans="1:141" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="82">
+        <v>8</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AL9" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP9" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL9" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP9" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34"/>
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD9" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="CE9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13"/>
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="13"/>
+      <c r="CM9" s="13"/>
+    </row>
+    <row r="10" spans="1:141" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="82">
+        <v>9</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="33"/>
+      <c r="P10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP10" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL10" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ10" s="34"/>
+      <c r="BR10" s="34"/>
+      <c r="BS10" s="34"/>
+      <c r="BT10" s="34"/>
+      <c r="BU10" s="34"/>
+      <c r="BV10" s="34"/>
+      <c r="BW10" s="34"/>
+      <c r="BX10" s="34"/>
+      <c r="BY10" s="34"/>
+      <c r="BZ10" s="34"/>
+      <c r="CA10" s="34"/>
+      <c r="CB10" s="34"/>
+      <c r="CC10" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD10" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE10" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="13"/>
+      <c r="CK10" s="13"/>
+      <c r="CL10" s="13"/>
+      <c r="CM10" s="13"/>
+      <c r="CN10" s="13"/>
+      <c r="CO10" s="13"/>
+      <c r="CP10" s="13"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="13"/>
+      <c r="CT10" s="13"/>
+      <c r="CU10" s="13"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="13"/>
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13"/>
+      <c r="DB10" s="13"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="13"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="13"/>
+      <c r="DG10" s="13"/>
+      <c r="DH10" s="13"/>
+      <c r="DI10" s="13"/>
+      <c r="DJ10" s="13"/>
+      <c r="DK10" s="13"/>
+    </row>
+    <row r="11" spans="1:141" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="82">
+        <v>10</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11" s="33"/>
+      <c r="P11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AL11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP11" s="34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL11" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="34"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD11" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE11" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="13"/>
+      <c r="CI11" s="13"/>
+      <c r="CJ11" s="13"/>
+      <c r="CK11" s="13"/>
+      <c r="CL11" s="13"/>
+      <c r="CM11" s="13"/>
+      <c r="CN11" s="13"/>
+      <c r="CO11" s="13"/>
+      <c r="CP11" s="13"/>
+      <c r="CQ11" s="13"/>
+      <c r="CR11" s="13"/>
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="13"/>
+      <c r="CU11" s="13"/>
+      <c r="CV11" s="13"/>
+      <c r="CW11" s="13"/>
+      <c r="CX11" s="13"/>
+      <c r="CY11" s="13"/>
+      <c r="CZ11" s="13"/>
+      <c r="DA11" s="13"/>
+      <c r="DB11" s="13"/>
+      <c r="DC11" s="13"/>
+      <c r="DD11" s="13"/>
+      <c r="DE11" s="13"/>
+      <c r="DF11" s="13"/>
+      <c r="DG11" s="13"/>
+      <c r="DH11" s="13"/>
+      <c r="DI11" s="13"/>
+      <c r="DJ11" s="13"/>
+      <c r="DK11" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A93F5E2A-A97C-49D1-B276-FC9355250A84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE9E61-0D15-477A-8CFB-C15463A4D1C5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10195,11 +14504,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E671484F-6321-49DA-BE73-52BC99C1ECF8}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10273,118 +14584,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:EQ138"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="CB45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CE55" sqref="CE55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
-    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
-    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="136" max="137" width="9.140625" style="2" collapsed="1"/>
-    <col min="138" max="138" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="139" max="140" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
+    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
+    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -15045,12 +19356,12 @@
         <v>35</v>
       </c>
       <c r="EA21" s="13" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
       <c r="ED21" s="13" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="EE21" s="13"/>
       <c r="EF21" s="44" t="s">
@@ -34436,17 +38747,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8C006-EF24-4A27-B0DA-8A03B54F96DC}">
   <dimension ref="A1:EK23"/>
   <sheetViews>
-    <sheetView topLeftCell="EQ1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:FF5"/>
+    <sheetView topLeftCell="DV1" workbookViewId="0">
+      <selection sqref="A1:EK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="84.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -34879,7 +39190,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>316</v>
@@ -34895,7 +39206,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -35088,7 +39399,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
@@ -35104,7 +39415,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -35207,7 +39518,7 @@
         <v>204</v>
       </c>
       <c r="BO3" s="112" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="BP3" s="34" t="s">
         <v>239</v>
@@ -35297,7 +39608,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>316</v>
@@ -35311,7 +39622,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -35411,7 +39722,7 @@
       </c>
       <c r="BM4" s="15"/>
       <c r="BN4" s="15" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="BO4" s="112" t="s">
         <v>204</v>
@@ -35472,7 +39783,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>316</v>
@@ -35486,7 +39797,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -35681,7 +39992,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>316</v>
@@ -35695,7 +40006,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -35711,7 +40022,7 @@
         <v>239</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>54</v>
@@ -35890,7 +40201,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>316</v>
@@ -35904,7 +40215,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -36099,7 +40410,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>316</v>
@@ -36113,7 +40424,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -36224,7 +40535,7 @@
         <v>204</v>
       </c>
       <c r="BO8" s="112" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="BP8" s="34" t="s">
         <v>239</v>
@@ -36308,7 +40619,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>316</v>
@@ -36322,7 +40633,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -36433,7 +40744,7 @@
         <v>204</v>
       </c>
       <c r="BO9" s="112" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="BP9" s="34" t="s">
         <v>239</v>
@@ -36464,7 +40775,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>316</v>
@@ -36478,7 +40789,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -36494,7 +40805,7 @@
         <v>239</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="S10" s="15" t="s">
         <v>55</v>
@@ -36589,7 +40900,7 @@
         <v>204</v>
       </c>
       <c r="BO10" s="112" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="BP10" s="34" t="s">
         <v>239</v>
@@ -36620,7 +40931,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>316</v>
@@ -36633,7 +40944,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -36741,7 +41052,7 @@
       </c>
       <c r="BM11" s="15"/>
       <c r="BN11" s="15" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="BO11" s="112" t="s">
         <v>204</v>
@@ -36802,7 +41113,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>316</v>
@@ -36815,7 +41126,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -36923,7 +41234,7 @@
       </c>
       <c r="BM12" s="15"/>
       <c r="BN12" s="15" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="BO12" s="112" t="s">
         <v>204</v>
@@ -36984,7 +41295,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>316</v>
@@ -36997,7 +41308,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -37105,7 +41416,7 @@
       </c>
       <c r="BM13" s="15"/>
       <c r="BN13" s="15" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="BO13" s="112" t="s">
         <v>204</v>
@@ -37166,7 +41477,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>316</v>
@@ -37182,7 +41493,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -37375,7 +41686,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>316</v>
@@ -37389,7 +41700,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -37562,7 +41873,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>316</v>
@@ -37576,7 +41887,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -37749,7 +42060,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>316</v>
@@ -37763,7 +42074,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -37936,7 +42247,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>316</v>
@@ -37945,7 +42256,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -37976,7 +42287,7 @@
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="AD18" s="15" t="s">
         <v>6</v>
@@ -38053,7 +42364,7 @@
       </c>
       <c r="BM18" s="15"/>
       <c r="BN18" s="15" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="BO18" s="112" t="s">
         <v>204</v>
@@ -38117,7 +42428,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>316</v>
@@ -38126,7 +42437,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -38157,7 +42468,7 @@
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>6</v>
@@ -38234,7 +42545,7 @@
       </c>
       <c r="BM19" s="15"/>
       <c r="BN19" s="15" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="BO19" s="112" t="s">
         <v>204</v>
@@ -38298,7 +42609,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>316</v>
@@ -38307,7 +42618,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -38338,7 +42649,7 @@
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="AD20" s="15" t="s">
         <v>6</v>
@@ -38415,7 +42726,7 @@
       </c>
       <c r="BM20" s="15"/>
       <c r="BN20" s="15" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="BO20" s="112" t="s">
         <v>204</v>
@@ -38479,7 +42790,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>316</v>
@@ -38488,7 +42799,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -38519,7 +42830,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="AD21" s="15" t="s">
         <v>6</v>
@@ -38658,7 +42969,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>294</v>
@@ -38670,7 +42981,7 @@
         <v>926</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="N22" s="33" t="s">
         <v>153</v>
@@ -38696,7 +43007,7 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="AD22" s="15" t="s">
         <v>6</v>
@@ -38776,7 +43087,7 @@
         <v>204</v>
       </c>
       <c r="BO22" s="112" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="BP22" s="34" t="s">
         <v>239</v>
@@ -38842,7 +43153,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>316</v>
@@ -38858,7 +43169,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -39076,12 +43387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8AE2E5-47E0-4BAE-8731-05D8E0293EC0}">
   <dimension ref="A1:FD11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="DM1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:EB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39495,7 +43806,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>316</v>
@@ -39509,7 +43820,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -39721,7 +44032,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
@@ -39735,7 +44046,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -39914,7 +44225,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>316</v>
@@ -39928,7 +44239,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -40100,7 +44411,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>316</v>
@@ -40109,7 +44420,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>153</v>
@@ -40280,7 +44591,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>316</v>
@@ -40289,7 +44600,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>153</v>
@@ -40460,7 +44771,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>316</v>
@@ -40474,7 +44785,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="15" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -40669,7 +44980,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>316</v>
@@ -40678,7 +44989,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="9" spans="1:160" x14ac:dyDescent="0.25">
@@ -40686,7 +44997,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>294</v>
@@ -40695,7 +45006,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -40876,7 +45187,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>294</v>
@@ -40888,7 +45199,7 @@
         <v>935</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="N10" s="33" t="s">
         <v>153</v>
@@ -40938,7 +45249,7 @@
       </c>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="34" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="AL10" s="34" t="s">
         <v>239</v>
@@ -40949,7 +45260,7 @@
         <v>278</v>
       </c>
       <c r="AP10" s="34" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="15"/>
@@ -41059,7 +45370,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>294</v>
@@ -41068,7 +45379,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="N11" s="33" t="s">
         <v>153</v>
@@ -41118,7 +45429,7 @@
       </c>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="34" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="AL11" s="34" t="s">
         <v>239</v>
@@ -41129,7 +45440,7 @@
         <v>278</v>
       </c>
       <c r="AP11" s="34" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="15"/>
@@ -41249,7 +45560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BV37"/>
   <sheetViews>
@@ -41257,69 +45568,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="35" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="54.42578125" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="29" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="27" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="54" max="55" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
@@ -45254,7 +49565,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>317</v>
@@ -45447,637 +49758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
-  <dimension ref="A1:AF11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>484</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="73" t="s">
-        <v>485</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>484</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q5" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L9" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>9</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>483</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L10" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="111">
-        <v>10</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{E516A3F0-4A35-405F-A276-07D78E1B53B1}"/>
-    <hyperlink ref="C2" r:id="rId2" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DF58F28A-C0AB-416F-8C71-40A2BAEF333C}"/>
-    <hyperlink ref="C3" r:id="rId3" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DA7CC61C-6AAE-421F-8787-FF3FFEEEC2AC}"/>
-    <hyperlink ref="C4" r:id="rId4" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{329023C2-3A6B-43D7-AEEB-D3EC037D355C}"/>
-    <hyperlink ref="C5" r:id="rId5" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DCE97C82-55B3-42F0-852B-18BAA6201127}"/>
-    <hyperlink ref="C6" r:id="rId6" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{2BACC580-6FC9-4B29-B946-40E5CB295937}"/>
-    <hyperlink ref="C7" r:id="rId7" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{081E6968-DA19-414F-8046-6015F87ADB15}"/>
-    <hyperlink ref="C8" r:id="rId8" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DB6266BE-B085-4A20-B316-DD7D632F457B}"/>
-    <hyperlink ref="C9" r:id="rId9" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{752CF1E0-75D6-49E1-923B-BABE42CF60F9}"/>
-    <hyperlink ref="C11" r:id="rId10" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{80498F71-6095-4ADA-A47A-BFFA3EB2D667}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -46311,6 +49992,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -46321,16 +50011,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46350,6 +50030,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
   <ds:schemaRefs>

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7364A7-AB9C-4B72-A449-4C1B03E45F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE5553-F400-4B23-8D39-9882795F91BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7118" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7390" uniqueCount="1211">
   <si>
     <t>Premier1a</t>
   </si>
@@ -2991,18 +2991,6 @@
     <t>574430299</t>
   </si>
   <si>
-    <t>2022_05_24_09_15_09</t>
-  </si>
-  <si>
-    <t>2022_05_24_09_18_42</t>
-  </si>
-  <si>
-    <t>2022_05_24_09_22_15</t>
-  </si>
-  <si>
-    <t>2022_05_24_09_25_48</t>
-  </si>
-  <si>
     <t>2022_05_24_09_29_21</t>
   </si>
   <si>
@@ -3333,12 +3321,6 @@
     <t>4531_VerifyAccounttoLocationType</t>
   </si>
   <si>
-    <t>2000512735</t>
-  </si>
-  <si>
-    <t>2022_06_07_01_09_18</t>
-  </si>
-  <si>
     <t>4/4/2021</t>
   </si>
   <si>
@@ -3369,27 +3351,9 @@
     <t>TFS ID_ 4537:Verify CAMS flag can be changed from Yes to No or No to Yes when record status is draft</t>
   </si>
   <si>
-    <t>2000512748</t>
-  </si>
-  <si>
-    <t>2022_06_08_03_11_24</t>
-  </si>
-  <si>
     <t>TFS ID_4539:Verify CAMS rule works when changing the DP of a member who has incorrect CAMS</t>
   </si>
   <si>
-    <t>4537_VerifyAccounttoLocationType</t>
-  </si>
-  <si>
-    <t>4539_VerifyAccounttoLocationType</t>
-  </si>
-  <si>
-    <t>2000512754</t>
-  </si>
-  <si>
-    <t>2022_06_17_01_22_48</t>
-  </si>
-  <si>
     <t>TFS ID_10931:Automation: Cloud : Verify whether BK Active is defaulted to No.</t>
   </si>
   <si>
@@ -3426,60 +3390,12 @@
     <t>AA0320</t>
   </si>
   <si>
-    <t>2000512760</t>
-  </si>
-  <si>
-    <t>2022_06_17_04_10_36</t>
-  </si>
-  <si>
     <t>TFS ID_10942:Automation Cloud : Verify whether "No Error Message" is thrown when Direct Parent whose BK Active is set from No to Yes and which does not contain any Child Accounts.</t>
   </si>
   <si>
     <t>10942_BKValue</t>
   </si>
   <si>
-    <t>2000512785</t>
-  </si>
-  <si>
-    <t>2022_06_20_08_50_16</t>
-  </si>
-  <si>
-    <t>2000512786</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_01_32</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_17_37</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_21_09</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_24_39</t>
-  </si>
-  <si>
-    <t>2000512788</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_37_25</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_48_50</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_52_22</t>
-  </si>
-  <si>
-    <t>2022_06_20_09_55_54</t>
-  </si>
-  <si>
-    <t>2000512791</t>
-  </si>
-  <si>
-    <t>2022_06_20_11_19_39</t>
-  </si>
-  <si>
     <t>TFS ID_10936:Cloud : Verify whether " Error Message" is thrown for Direct Parent whose BK Active is No and set it's Child Account with BK Active as Yes.</t>
   </si>
   <si>
@@ -3519,18 +3435,6 @@
     <t>2022_06_20_05_48_44</t>
   </si>
   <si>
-    <t>2022_06_21_02_24_18</t>
-  </si>
-  <si>
-    <t>2022_06_21_02_46_17</t>
-  </si>
-  <si>
-    <t>2022_06_21_03_08_16</t>
-  </si>
-  <si>
-    <t>2000512820</t>
-  </si>
-  <si>
     <t>2022_06_21_03_21_15</t>
   </si>
   <si>
@@ -3577,6 +3481,204 @@
   </si>
   <si>
     <t>6915_ChangCOT</t>
+  </si>
+  <si>
+    <t>2000512843</t>
+  </si>
+  <si>
+    <t>2022_06_23_12_41_04</t>
+  </si>
+  <si>
+    <t>TFS ID_4538:Verify CAMS flag for a child can be Yes or No when the DP has CAMS as Yes</t>
+  </si>
+  <si>
+    <t>4537_CAMS</t>
+  </si>
+  <si>
+    <t>4539_CAMS</t>
+  </si>
+  <si>
+    <t>4538_CAMS</t>
+  </si>
+  <si>
+    <t>4407_CAMS</t>
+  </si>
+  <si>
+    <t>TFS ID_4407:Automation Direct Parent and the child member account should have matching CAMS flag values -When Prospect to Member conversion</t>
+  </si>
+  <si>
+    <t>4533_CMAS</t>
+  </si>
+  <si>
+    <t>623335</t>
+  </si>
+  <si>
+    <t>2000512871</t>
+  </si>
+  <si>
+    <t>2022_06_23_09_15_58</t>
+  </si>
+  <si>
+    <t>2000512872</t>
+  </si>
+  <si>
+    <t>2022_06_23_09_27_19</t>
+  </si>
+  <si>
+    <t>2000512873</t>
+  </si>
+  <si>
+    <t>2022_06_23_09_40_34</t>
+  </si>
+  <si>
+    <t>2000512874</t>
+  </si>
+  <si>
+    <t>2022_06_23_09_54_25</t>
+  </si>
+  <si>
+    <t>2022_06_23_09_57_59</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_01_34</t>
+  </si>
+  <si>
+    <t>2000512875</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_14_28</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_25_54</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_29_27</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_33_01</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_36_35</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_40_08</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_43_41</t>
+  </si>
+  <si>
+    <t>2022_06_23_10_47_14</t>
+  </si>
+  <si>
+    <t>2000512877</t>
+  </si>
+  <si>
+    <t>2022_06_24_07_39_38</t>
+  </si>
+  <si>
+    <t>2000512879</t>
+  </si>
+  <si>
+    <t>2022_06_24_07_56_19</t>
+  </si>
+  <si>
+    <t>2000512882</t>
+  </si>
+  <si>
+    <t>2022_06_24_08_26_04</t>
+  </si>
+  <si>
+    <t>2000512883</t>
+  </si>
+  <si>
+    <t>2022_06_24_08_38_40</t>
+  </si>
+  <si>
+    <t>2000512885</t>
+  </si>
+  <si>
+    <t>2022_06_24_08_59_37</t>
+  </si>
+  <si>
+    <t>2022_06_24_09_21_34</t>
+  </si>
+  <si>
+    <t>2022_06_24_09_43_28</t>
+  </si>
+  <si>
+    <t>2022_06_24_10_05_28</t>
+  </si>
+  <si>
+    <t>2000512892</t>
+  </si>
+  <si>
+    <t>2022_06_24_10_43_15</t>
+  </si>
+  <si>
+    <t>2000512894</t>
+  </si>
+  <si>
+    <t>TFS ID_7214:Verify on updating "Premier Start Date" in an existing "Premier Memberships", Validate in Member form re calculation of Premier Start Date is getting triggered.</t>
+  </si>
+  <si>
+    <t>7214_Validate "Premier Start Date" Logic based on Multiple GPO</t>
+  </si>
+  <si>
+    <t>6/4/2021</t>
+  </si>
+  <si>
+    <t>5/3/2021</t>
+  </si>
+  <si>
+    <t>5/2/2021</t>
+  </si>
+  <si>
+    <t>5/1/2021</t>
+  </si>
+  <si>
+    <t>7/4/2021</t>
+  </si>
+  <si>
+    <t>Elements Canada - Food</t>
+  </si>
+  <si>
+    <t>Commercial 2</t>
+  </si>
+  <si>
+    <t>Elements Canada</t>
+  </si>
+  <si>
+    <t>2022_06_24_02_46_53</t>
+  </si>
+  <si>
+    <t>TFS ID_7238:Verify whether "Premier Start Date" field should be Read Only in Member Forms.</t>
+  </si>
+  <si>
+    <t>7238_Validate PremierStart Date</t>
+  </si>
+  <si>
+    <t>TFS ID_7239:Verify whether "Premier Start Date" field should be Read Only in Member Entry Forms.</t>
+  </si>
+  <si>
+    <t>7239_Validate PremierStart Date</t>
+  </si>
+  <si>
+    <t>2022_06_24_05_47_33</t>
+  </si>
+  <si>
+    <t>2022_06_24_06_22_33</t>
+  </si>
+  <si>
+    <t>2022_06_24_06_59_30</t>
+  </si>
+  <si>
+    <t>2022_06_24_08_14_05</t>
+  </si>
+  <si>
+    <t>2022_06_24_08_41_56</t>
+  </si>
+  <si>
+    <t>2022_06_24_08_59_00</t>
   </si>
 </sst>
 </file>
@@ -3941,7 +4043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4176,6 +4278,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4497,24 +4604,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P233"/>
+  <dimension ref="A1:P239"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4570,13 +4677,13 @@
         <v>40</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>937</v>
+        <v>262</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>1131</v>
+        <v>1156</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>1130</v>
+        <v>1155</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -4604,13 +4711,13 @@
         <v>40</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>937</v>
+        <v>262</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -4636,13 +4743,13 @@
         <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>1143</v>
+        <v>1160</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>1142</v>
+        <v>1159</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -4666,12 +4773,14 @@
         <v>40</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H5" s="17"/>
+        <v>1162</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>1161</v>
+      </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -4694,10 +4803,10 @@
         <v>40</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1135</v>
+        <v>1163</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -4722,10 +4831,10 @@
         <v>40</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>1136</v>
+        <v>1164</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -4750,13 +4859,13 @@
         <v>40</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>937</v>
+        <v>262</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1138</v>
+        <v>1166</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>1137</v>
+        <v>1165</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -4780,10 +4889,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>937</v>
+        <v>262</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1139</v>
+        <v>1167</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -4808,10 +4917,10 @@
         <v>40</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>1140</v>
+        <v>1168</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -4836,10 +4945,10 @@
         <v>40</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>1141</v>
+        <v>1169</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4864,10 +4973,10 @@
         <v>40</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>981</v>
+        <v>1170</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -4893,10 +5002,10 @@
         <v>40</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>982</v>
+        <v>1171</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -4921,10 +5030,10 @@
         <v>40</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>983</v>
+        <v>1172</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -4949,10 +5058,10 @@
         <v>40</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>984</v>
+        <v>1173</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -4977,10 +5086,10 @@
         <v>40</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5005,10 +5114,10 @@
         <v>63</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -5033,10 +5142,10 @@
         <v>40</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5061,10 +5170,10 @@
         <v>63</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>937</v>
+        <v>262</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -5089,10 +5198,10 @@
         <v>40</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>937</v>
+        <v>262</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -5117,13 +5226,13 @@
         <v>40</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>937</v>
+        <v>262</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -9165,7 +9274,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C176" s="17" t="s">
         <v>35</v>
@@ -9180,10 +9289,10 @@
         <v>938</v>
       </c>
       <c r="G176" s="21" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="H176" s="21" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="I176" s="21"/>
       <c r="J176" s="21"/>
@@ -9437,7 +9546,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="108" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C186" s="17" t="s">
         <v>35</v>
@@ -9452,7 +9561,7 @@
         <v>937</v>
       </c>
       <c r="G186" s="121" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="H186" s="121"/>
       <c r="I186" s="121"/>
@@ -9465,13 +9574,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C187" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D187" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E187" s="30" t="s">
         <v>40</v>
@@ -9480,10 +9589,10 @@
         <v>937</v>
       </c>
       <c r="G187" s="121" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="H187" s="121" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I187" s="121"/>
       <c r="J187" s="121"/>
@@ -9495,13 +9604,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C188" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D188" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E188" s="30" t="s">
         <v>40</v>
@@ -9510,10 +9619,10 @@
         <v>938</v>
       </c>
       <c r="G188" s="121" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="H188" s="121" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I188" s="121"/>
       <c r="J188" s="121"/>
@@ -9525,13 +9634,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="121" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C189" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D189" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E189" s="30" t="s">
         <v>40</v>
@@ -9540,10 +9649,10 @@
         <v>937</v>
       </c>
       <c r="G189" s="121" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="H189" s="121" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="I189" s="121"/>
       <c r="J189" s="121"/>
@@ -9555,13 +9664,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="121" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C190" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D190" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E190" s="30" t="s">
         <v>40</v>
@@ -9570,10 +9679,10 @@
         <v>937</v>
       </c>
       <c r="G190" s="121" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H190" s="121" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="I190" s="121"/>
       <c r="J190" s="121"/>
@@ -9585,13 +9694,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="121" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C191" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D191" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E191" s="30" t="s">
         <v>40</v>
@@ -9600,10 +9709,10 @@
         <v>937</v>
       </c>
       <c r="G191" s="121" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="H191" s="121" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="I191" s="121"/>
       <c r="J191" s="121"/>
@@ -9615,13 +9724,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="121" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C192" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D192" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E192" s="30" t="s">
         <v>40</v>
@@ -9630,10 +9739,10 @@
         <v>937</v>
       </c>
       <c r="G192" s="121" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="H192" s="121" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="I192" s="121"/>
       <c r="J192" s="121"/>
@@ -9645,13 +9754,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="121" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C193" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D193" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E193" s="30" t="s">
         <v>40</v>
@@ -9660,10 +9769,10 @@
         <v>937</v>
       </c>
       <c r="G193" s="121" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H193" s="121" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="I193" s="121"/>
       <c r="J193" s="121"/>
@@ -9675,13 +9784,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="121" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C194" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D194" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E194" s="30" t="s">
         <v>40</v>
@@ -9690,10 +9799,10 @@
         <v>938</v>
       </c>
       <c r="G194" s="121" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="H194" s="121" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="I194" s="121"/>
       <c r="J194" s="121"/>
@@ -9705,13 +9814,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="121" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C195" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D195" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E195" s="30" t="s">
         <v>40</v>
@@ -9720,10 +9829,10 @@
         <v>937</v>
       </c>
       <c r="G195" s="121" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H195" s="121" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="I195" s="121"/>
       <c r="J195" s="121"/>
@@ -9735,13 +9844,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C196" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D196" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E196" s="30" t="s">
         <v>40</v>
@@ -9750,10 +9859,10 @@
         <v>938</v>
       </c>
       <c r="G196" s="121" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="H196" s="121" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="I196" s="121"/>
       <c r="J196" s="121"/>
@@ -9765,13 +9874,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C197" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D197" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E197" s="30" t="s">
         <v>40</v>
@@ -9780,7 +9889,7 @@
         <v>938</v>
       </c>
       <c r="G197" s="121" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="H197" s="121"/>
       <c r="I197" s="121"/>
@@ -9793,13 +9902,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C198" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D198" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E198" s="30" t="s">
         <v>40</v>
@@ -9808,7 +9917,7 @@
         <v>938</v>
       </c>
       <c r="G198" s="121" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="H198" s="121"/>
       <c r="I198" s="121"/>
@@ -9821,13 +9930,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C199" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D199" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E199" s="30" t="s">
         <v>40</v>
@@ -9836,10 +9945,10 @@
         <v>937</v>
       </c>
       <c r="G199" s="121" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="H199" s="121" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="I199" s="121"/>
       <c r="J199" s="121"/>
@@ -9851,13 +9960,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="82" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C200" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D200" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E200" s="30" t="s">
         <v>40</v>
@@ -9866,10 +9975,10 @@
         <v>938</v>
       </c>
       <c r="G200" s="121" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="H200" s="121" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I200" s="121"/>
       <c r="J200" s="121"/>
@@ -9881,13 +9990,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="82" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C201" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D201" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E201" s="30" t="s">
         <v>40</v>
@@ -9907,13 +10016,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="82" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D202" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E202" s="30" t="s">
         <v>40</v>
@@ -9922,7 +10031,7 @@
         <v>938</v>
       </c>
       <c r="G202" s="121" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="H202" s="121"/>
       <c r="I202" s="121"/>
@@ -9935,13 +10044,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="82" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D203" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E203" s="30" t="s">
         <v>40</v>
@@ -9950,10 +10059,10 @@
         <v>937</v>
       </c>
       <c r="G203" s="121" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="H203" s="121" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I203" s="121"/>
       <c r="J203" s="121"/>
@@ -9965,13 +10074,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="82" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C204" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D204" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E204" s="30" t="s">
         <v>40</v>
@@ -9980,10 +10089,10 @@
         <v>937</v>
       </c>
       <c r="G204" s="121" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="H204" s="121" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I204" s="121"/>
       <c r="J204" s="121"/>
@@ -9995,13 +10104,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="82" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D205" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E205" s="30" t="s">
         <v>40</v>
@@ -10010,10 +10119,10 @@
         <v>937</v>
       </c>
       <c r="G205" s="121" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="H205" s="121" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I205" s="121"/>
       <c r="J205" s="121"/>
@@ -10025,13 +10134,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="82" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C206" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D206" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E206" s="30" t="s">
         <v>40</v>
@@ -10040,10 +10149,10 @@
         <v>937</v>
       </c>
       <c r="G206" s="121" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="H206" s="121" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="I206" s="121"/>
       <c r="J206" s="121"/>
@@ -10055,13 +10164,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="82" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C207" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D207" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E207" s="30" t="s">
         <v>40</v>
@@ -10081,13 +10190,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="82" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C208" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D208" s="108" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E208" s="30" t="s">
         <v>40</v>
@@ -10107,13 +10216,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C209" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D209" s="108" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E209" s="30" t="s">
         <v>40</v>
@@ -10122,10 +10231,10 @@
         <v>937</v>
       </c>
       <c r="G209" s="121" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="H209" s="121" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I209" s="121"/>
       <c r="J209" s="121"/>
@@ -10137,13 +10246,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="82" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C210" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D210" s="108" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E210" s="30" t="s">
         <v>40</v>
@@ -10152,10 +10261,10 @@
         <v>937</v>
       </c>
       <c r="G210" s="121" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="H210" s="121" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I210" s="121"/>
       <c r="J210" s="121"/>
@@ -10167,13 +10276,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="82" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C211" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D211" s="108" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E211" s="30" t="s">
         <v>40</v>
@@ -10182,10 +10291,10 @@
         <v>937</v>
       </c>
       <c r="G211" s="121" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H211" s="121" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I211" s="121"/>
       <c r="J211" s="121"/>
@@ -10197,13 +10306,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="82" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C212" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D212" s="108" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E212" s="30" t="s">
         <v>40</v>
@@ -10223,13 +10332,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="124" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C213" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D213" s="125" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E213" s="30" t="s">
         <v>40</v>
@@ -10238,10 +10347,10 @@
         <v>937</v>
       </c>
       <c r="G213" s="126" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="H213" s="126" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="I213" s="126"/>
       <c r="J213" s="126"/>
@@ -10253,13 +10362,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="82" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C214" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D214" s="125" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E214" s="30" t="s">
         <v>40</v>
@@ -10268,10 +10377,10 @@
         <v>937</v>
       </c>
       <c r="G214" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="H214" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10279,13 +10388,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="82" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C215" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D215" s="125" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E215" s="30" t="s">
         <v>40</v>
@@ -10294,7 +10403,7 @@
         <v>937</v>
       </c>
       <c r="G215" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10302,13 +10411,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="82" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C216" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D216" s="125" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E216" s="30" t="s">
         <v>40</v>
@@ -10317,10 +10426,10 @@
         <v>938</v>
       </c>
       <c r="G216" t="s">
-        <v>1096</v>
+        <v>1188</v>
       </c>
       <c r="H216" t="s">
-        <v>1095</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10328,13 +10437,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="82" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C217" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D217" s="125" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E217" s="30" t="s">
         <v>40</v>
@@ -10343,10 +10452,10 @@
         <v>937</v>
       </c>
       <c r="G217" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="H217" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10354,13 +10463,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="82" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C218" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D218" s="125" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E218" s="30" t="s">
         <v>40</v>
@@ -10369,10 +10478,10 @@
         <v>938</v>
       </c>
       <c r="G218" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="H218" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10380,13 +10489,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="82" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="C219" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D219" s="125" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E219" s="30" t="s">
         <v>40</v>
@@ -10395,10 +10504,10 @@
         <v>937</v>
       </c>
       <c r="G219" t="s">
-        <v>1108</v>
+        <v>1175</v>
       </c>
       <c r="H219" t="s">
-        <v>1107</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10406,103 +10515,97 @@
         <v>219</v>
       </c>
       <c r="B220" s="128" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="C220" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D220" s="125" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E220" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F220" s="123" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G220" t="s">
-        <v>1113</v>
+        <v>1177</v>
       </c>
       <c r="H220" t="s">
-        <v>1112</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="109">
         <v>220</v>
       </c>
-      <c r="B221" s="129" t="s">
-        <v>1114</v>
+      <c r="B221" s="138" t="s">
+        <v>1147</v>
       </c>
       <c r="C221" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D221" s="125" t="s">
-        <v>1122</v>
+        <v>1099</v>
       </c>
       <c r="E221" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F221" s="123" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G221" t="s">
-        <v>1127</v>
+        <v>1179</v>
       </c>
       <c r="H221" t="s">
-        <v>1126</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="109">
         <v>221</v>
       </c>
-      <c r="B222" s="129" t="s">
-        <v>1116</v>
+      <c r="B222" s="138" t="s">
+        <v>1152</v>
       </c>
       <c r="C222" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D222" s="125" t="s">
-        <v>1122</v>
+        <v>1099</v>
       </c>
       <c r="E222" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F222" s="123" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G222" t="s">
-        <v>1157</v>
+        <v>1181</v>
       </c>
       <c r="H222" t="s">
-        <v>321</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="109">
         <v>222</v>
       </c>
-      <c r="B223" s="129" t="s">
-        <v>1118</v>
+      <c r="B223" s="138" t="s">
+        <v>1087</v>
       </c>
       <c r="C223" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D223" s="125" t="s">
-        <v>1122</v>
+        <v>1099</v>
       </c>
       <c r="E223" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F223" s="123" t="s">
         <v>937</v>
-      </c>
-      <c r="G223" t="s">
-        <v>1158</v>
-      </c>
-      <c r="H223" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -10510,13 +10613,13 @@
         <v>223</v>
       </c>
       <c r="B224" s="129" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="C224" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D224" s="125" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E224" s="30" t="s">
         <v>40</v>
@@ -10525,24 +10628,24 @@
         <v>937</v>
       </c>
       <c r="G224" t="s">
-        <v>1159</v>
+        <v>1183</v>
       </c>
       <c r="H224" t="s">
-        <v>321</v>
+        <v>1182</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="109">
         <v>224</v>
       </c>
-      <c r="B225" s="137" t="s">
-        <v>1128</v>
+      <c r="B225" s="129" t="s">
+        <v>1104</v>
       </c>
       <c r="C225" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D225" s="125" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E225" s="30" t="s">
         <v>40</v>
@@ -10551,50 +10654,50 @@
         <v>937</v>
       </c>
       <c r="G225" t="s">
-        <v>1161</v>
+        <v>1184</v>
       </c>
       <c r="H225" t="s">
-        <v>1160</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="109">
         <v>225</v>
       </c>
-      <c r="B226" s="82" t="s">
-        <v>1123</v>
+      <c r="B226" s="129" t="s">
+        <v>1106</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D226" s="125" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E226" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F226" s="123" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G226" t="s">
-        <v>1163</v>
+        <v>1185</v>
       </c>
       <c r="H226" t="s">
-        <v>1162</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="109">
         <v>226</v>
       </c>
-      <c r="B227" s="130" t="s">
-        <v>1144</v>
+      <c r="B227" s="129" t="s">
+        <v>1108</v>
       </c>
       <c r="C227" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D227" s="125" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E227" s="30" t="s">
         <v>40</v>
@@ -10603,150 +10706,318 @@
         <v>937</v>
       </c>
       <c r="G227" t="s">
-        <v>1165</v>
+        <v>1186</v>
       </c>
       <c r="H227" t="s">
-        <v>1164</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="109">
         <v>227</v>
       </c>
-      <c r="B228" s="130" t="s">
-        <v>1148</v>
+      <c r="B228" s="137" t="s">
+        <v>1114</v>
       </c>
       <c r="C228" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D228" s="125" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E228" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F228" s="123" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G228" t="s">
-        <v>1166</v>
+        <v>1129</v>
       </c>
       <c r="H228" t="s">
-        <v>321</v>
+        <v>1187</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="109">
         <v>228</v>
       </c>
-      <c r="B229" s="130" t="s">
-        <v>1150</v>
+      <c r="B229" s="82" t="s">
+        <v>1111</v>
       </c>
       <c r="C229" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D229" s="125" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E229" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F229" s="123" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G229" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
       <c r="H229" t="s">
-        <v>321</v>
+        <v>1130</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="109">
         <v>229</v>
       </c>
       <c r="B230" s="130" t="s">
-        <v>1153</v>
+        <v>1116</v>
       </c>
       <c r="C230" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D230" s="125" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="E230" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F230" s="123" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G230" t="s">
-        <v>1156</v>
+        <v>1133</v>
       </c>
       <c r="H230" t="s">
-        <v>1155</v>
+        <v>1132</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="109">
         <v>230</v>
       </c>
-      <c r="B231" s="15" t="s">
-        <v>1167</v>
+      <c r="B231" s="130" t="s">
+        <v>1120</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D231" s="108" t="s">
-        <v>400</v>
+        <v>35</v>
+      </c>
+      <c r="D231" s="125" t="s">
+        <v>1110</v>
       </c>
       <c r="E231" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F231" s="109" t="s">
-        <v>937</v>
+      <c r="F231" s="123" t="s">
+        <v>938</v>
       </c>
       <c r="G231" t="s">
-        <v>1172</v>
+        <v>1134</v>
       </c>
       <c r="H231" t="s">
-        <v>1171</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="109">
         <v>231</v>
       </c>
-      <c r="B232" s="15" t="s">
-        <v>1168</v>
+      <c r="B232" s="130" t="s">
+        <v>1122</v>
       </c>
       <c r="C232" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D232" s="108" t="s">
-        <v>400</v>
+        <v>35</v>
+      </c>
+      <c r="D232" s="125" t="s">
+        <v>1110</v>
       </c>
       <c r="E232" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F232" s="109" t="s">
+      <c r="F232" s="123" t="s">
         <v>937</v>
       </c>
       <c r="G232" t="s">
-        <v>1174</v>
+        <v>1124</v>
       </c>
       <c r="H232" t="s">
-        <v>1173</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="109">
         <v>232</v>
       </c>
+      <c r="B233" s="130" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D233" s="125" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E233" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F233" s="123" t="s">
+        <v>938</v>
+      </c>
+      <c r="G233" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="109">
+        <v>233</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234" s="108" t="s">
+        <v>400</v>
+      </c>
+      <c r="E234" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F234" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="109">
+        <v>234</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D235" s="108" t="s">
+        <v>400</v>
+      </c>
+      <c r="E235" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F235" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="109">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236" s="108" t="s">
+        <v>400</v>
+      </c>
+      <c r="E236" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F236" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="109">
+        <v>236</v>
+      </c>
+      <c r="B237" s="40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C237" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F237" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="109">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C238" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D238" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E238" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F238" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="109">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C239" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="F239" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="G239" t="s">
+        <v>1206</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C232" xr:uid="{A9D3AA1F-6CCF-4170-8F27-A9C8ECFD1674}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C236" xr:uid="{A9D3AA1F-6CCF-4170-8F27-A9C8ECFD1674}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10768,69 +11039,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="35" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="54.42578125" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="46" width="29" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="55" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="27" max="35" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="45" max="46" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="54" max="55" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
@@ -14765,7 +15036,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>317</v>
@@ -14968,26 +15239,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -15552,7 +15823,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>316</v>
@@ -15583,8 +15854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F73734-260A-4D42-AACD-CFE4B15F4BFE}">
   <dimension ref="A1:EH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="EI1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:EL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16010,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1167</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>316</v>
@@ -16023,7 +16294,7 @@
         <v>935</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>1169</v>
+        <v>1137</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -16172,7 +16443,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1168</v>
+        <v>1136</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
@@ -16185,7 +16456,7 @@
         <v>935</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>1170</v>
+        <v>1138</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -16334,7 +16605,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1175</v>
+        <v>1143</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>316</v>
@@ -16347,7 +16618,7 @@
         <v>935</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1176</v>
+        <v>1144</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -16504,13 +16775,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7512CD-A03D-4B77-842E-29F63378459D}">
-  <dimension ref="A1:EK3"/>
+  <dimension ref="A1:EK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="30.5703125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
@@ -16942,7 +17216,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>294</v>
@@ -16954,7 +17228,7 @@
         <v>935</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>1110</v>
+        <v>1148</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>153</v>
@@ -17004,7 +17278,7 @@
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL2" s="34" t="s">
         <v>239</v>
@@ -17015,7 +17289,7 @@
         <v>278</v>
       </c>
       <c r="AP2" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
@@ -17125,7 +17399,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>294</v>
@@ -17137,7 +17411,7 @@
         <v>935</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>1111</v>
+        <v>1149</v>
       </c>
       <c r="N3" s="33" t="s">
         <v>153</v>
@@ -17187,7 +17461,7 @@
       </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL3" s="34" t="s">
         <v>239</v>
@@ -17198,7 +17472,7 @@
         <v>278</v>
       </c>
       <c r="AP3" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
@@ -17303,6 +17577,435 @@
       <c r="DO3" s="15"/>
       <c r="DP3" s="15"/>
     </row>
+    <row r="4" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="33"/>
+      <c r="P4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AL4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP4" s="34" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL4" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD4" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AL5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP5" s="34" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL5" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD5" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE5" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="139" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="36" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AL6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP6" s="34" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL6" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17319,7 +18022,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.28515625" style="130" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="130" width="60.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -17752,7 +18455,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>294</v>
@@ -17768,7 +18471,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="15" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -17819,7 +18522,7 @@
       </c>
       <c r="AJ2" s="15"/>
       <c r="AK2" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL2" s="34" t="s">
         <v>239</v>
@@ -17830,7 +18533,7 @@
         <v>278</v>
       </c>
       <c r="AP2" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
@@ -17961,7 +18664,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
@@ -17975,7 +18678,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="15" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -18026,7 +18729,7 @@
       </c>
       <c r="AJ3" s="15"/>
       <c r="AK3" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL3" s="34" t="s">
         <v>239</v>
@@ -18037,7 +18740,7 @@
         <v>278</v>
       </c>
       <c r="AP3" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
@@ -18168,7 +18871,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>294</v>
@@ -18182,7 +18885,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="15" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -18233,7 +18936,7 @@
       </c>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL4" s="34" t="s">
         <v>239</v>
@@ -18244,7 +18947,7 @@
         <v>278</v>
       </c>
       <c r="AP4" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ4" s="15"/>
       <c r="AR4" s="15"/>
@@ -18375,7 +19078,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>294</v>
@@ -18389,7 +19092,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -18440,7 +19143,7 @@
       </c>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL5" s="34" t="s">
         <v>239</v>
@@ -18451,7 +19154,7 @@
         <v>278</v>
       </c>
       <c r="AP5" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ5" s="15"/>
       <c r="AR5" s="15"/>
@@ -18582,7 +19285,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>294</v>
@@ -18596,7 +19299,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="15" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -18647,7 +19350,7 @@
       </c>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL6" s="34" t="s">
         <v>239</v>
@@ -18658,7 +19361,7 @@
         <v>278</v>
       </c>
       <c r="AP6" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ6" s="15"/>
       <c r="AR6" s="15"/>
@@ -18789,7 +19492,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>294</v>
@@ -18803,7 +19506,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="15" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -18850,11 +19553,11 @@
         <v>7</v>
       </c>
       <c r="AI7" s="36" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL7" s="34" t="s">
         <v>239</v>
@@ -18865,7 +19568,7 @@
         <v>279</v>
       </c>
       <c r="AP7" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ7" s="15"/>
       <c r="AR7" s="15"/>
@@ -18996,7 +19699,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="130" t="s">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>294</v>
@@ -19005,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>1145</v>
+        <v>1117</v>
       </c>
       <c r="N8" s="33" t="s">
         <v>153</v>
@@ -19015,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="R8" s="35" t="s">
         <v>204</v>
@@ -19049,11 +19752,11 @@
         <v>7</v>
       </c>
       <c r="AI8" s="36" t="s">
-        <v>1146</v>
+        <v>1118</v>
       </c>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="AL8" s="34" t="s">
         <v>239</v>
@@ -19064,7 +19767,7 @@
         <v>279</v>
       </c>
       <c r="AP8" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="AQ8" s="15"/>
       <c r="AR8" s="15"/>
@@ -19108,7 +19811,7 @@
         <v>15</v>
       </c>
       <c r="BP8" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="BQ8" s="34"/>
       <c r="BR8" s="34"/>
@@ -19126,7 +19829,7 @@
         <v>234</v>
       </c>
       <c r="CD8" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="CE8" s="15" t="s">
         <v>235</v>
@@ -19195,7 +19898,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>1148</v>
+        <v>1120</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>294</v>
@@ -19204,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>1149</v>
+        <v>1121</v>
       </c>
       <c r="N9" s="33" t="s">
         <v>153</v>
@@ -19214,7 +19917,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="R9" s="35" t="s">
         <v>204</v>
@@ -19252,7 +19955,7 @@
       </c>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="AL9" s="34" t="s">
         <v>239</v>
@@ -19263,7 +19966,7 @@
         <v>278</v>
       </c>
       <c r="AP9" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="AQ9" s="15"/>
       <c r="AR9" s="15"/>
@@ -19307,7 +20010,7 @@
         <v>15</v>
       </c>
       <c r="BP9" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="BQ9" s="34"/>
       <c r="BR9" s="34"/>
@@ -19325,7 +20028,7 @@
         <v>234</v>
       </c>
       <c r="CD9" s="34" t="s">
-        <v>1147</v>
+        <v>1119</v>
       </c>
       <c r="CE9" s="15" t="s">
         <v>235</v>
@@ -19344,7 +20047,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>1150</v>
+        <v>1122</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>294</v>
@@ -19353,7 +20056,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>1151</v>
+        <v>1123</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -19404,7 +20107,7 @@
       </c>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL10" s="34" t="s">
         <v>239</v>
@@ -19415,7 +20118,7 @@
         <v>278</v>
       </c>
       <c r="AP10" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="15"/>
@@ -19520,7 +20223,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>1153</v>
+        <v>1125</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>294</v>
@@ -19529,7 +20232,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>1154</v>
+        <v>1126</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -19580,7 +20283,7 @@
       </c>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL11" s="34" t="s">
         <v>239</v>
@@ -19591,7 +20294,7 @@
         <v>278</v>
       </c>
       <c r="AP11" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="15"/>
@@ -19795,116 +20498,116 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:EQ138"/>
+  <dimension ref="A1:EQ141"/>
   <sheetViews>
-    <sheetView topLeftCell="CB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CF1" sqref="CF1"/>
+    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
-    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
-    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
-    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="136" max="137" width="9.140625" style="2" collapsed="1"/>
-    <col min="138" max="138" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="139" max="140" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
+    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
+    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
+    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
+    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
+    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
+    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -24565,12 +25268,12 @@
         <v>35</v>
       </c>
       <c r="EA21" s="13" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="EB21" s="13"/>
       <c r="EC21" s="13"/>
       <c r="ED21" s="13" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="EE21" s="13"/>
       <c r="EF21" s="44" t="s">
@@ -42685,7 +43388,7 @@
       <c r="EJ128" s="15"/>
       <c r="EK128" s="85"/>
     </row>
-    <row r="129" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -42848,7 +43551,7 @@
       <c r="EJ129" s="15"/>
       <c r="EK129" s="15"/>
     </row>
-    <row r="130" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:145" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -43009,7 +43712,7 @@
       <c r="EJ130" s="15"/>
       <c r="EK130" s="15"/>
     </row>
-    <row r="131" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -43029,7 +43732,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="132" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -43230,7 +43933,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="133" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>978</v>
       </c>
@@ -43419,7 +44122,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="134" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -43611,7 +44314,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="135" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -43803,7 +44506,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="136" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -43823,7 +44526,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="137" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -43840,7 +44543,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="138" spans="1:143" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -43856,6 +44559,648 @@
       <c r="F138" s="79" t="s">
         <v>926</v>
       </c>
+    </row>
+    <row r="139" spans="1:145" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K139" s="42"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O139" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="P139" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R139" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S139" s="15"/>
+      <c r="T139" s="15"/>
+      <c r="U139" s="15"/>
+      <c r="V139" s="15"/>
+      <c r="W139" s="15"/>
+      <c r="X139" s="15"/>
+      <c r="Y139" s="15"/>
+      <c r="Z139" s="15"/>
+      <c r="AA139" s="15"/>
+      <c r="AB139" s="15"/>
+      <c r="AC139" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD139" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE139" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF139" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG139" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH139" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI139" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ139" s="15"/>
+      <c r="AK139" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AL139" s="34"/>
+      <c r="AM139" s="34"/>
+      <c r="AN139" s="15"/>
+      <c r="AO139" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP139" s="34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AQ139" s="15"/>
+      <c r="AR139" s="15"/>
+      <c r="AS139" s="15"/>
+      <c r="AT139" s="15"/>
+      <c r="AU139" s="15"/>
+      <c r="AV139" s="15"/>
+      <c r="AW139" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX139" s="15"/>
+      <c r="AY139" s="15"/>
+      <c r="AZ139" s="15"/>
+      <c r="BA139" s="15"/>
+      <c r="BB139" s="15"/>
+      <c r="BC139" s="15"/>
+      <c r="BD139" s="15"/>
+      <c r="BE139" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF139" s="15"/>
+      <c r="BG139" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH139" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI139" s="15"/>
+      <c r="BJ139" s="15"/>
+      <c r="BK139" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL139" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM139" s="15"/>
+      <c r="BN139" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO139" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP139" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BQ139" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR139" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS139" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BT139" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="BU139" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="BV139" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BW139" s="34"/>
+      <c r="BX139" s="34"/>
+      <c r="BY139" s="34"/>
+      <c r="BZ139" s="34"/>
+      <c r="CA139" s="34"/>
+      <c r="CB139" s="34"/>
+      <c r="CC139" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD139" s="34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="CE139" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF139" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG139" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="CH139" s="53" t="s">
+        <v>1199</v>
+      </c>
+      <c r="CI139" s="34" t="s">
+        <v>1193</v>
+      </c>
+      <c r="CJ139"/>
+      <c r="CK139"/>
+      <c r="CL139"/>
+      <c r="CM139"/>
+      <c r="CN139"/>
+      <c r="CO139"/>
+      <c r="CP139"/>
+      <c r="CQ139"/>
+      <c r="CR139"/>
+      <c r="CS139"/>
+      <c r="CT139"/>
+      <c r="CU139"/>
+      <c r="CV139"/>
+      <c r="CW139"/>
+      <c r="CX139"/>
+      <c r="CY139"/>
+      <c r="CZ139"/>
+      <c r="DA139"/>
+      <c r="DB139"/>
+      <c r="DC139"/>
+      <c r="DD139"/>
+      <c r="DE139"/>
+      <c r="DF139"/>
+      <c r="DG139"/>
+      <c r="DH139"/>
+      <c r="DI139"/>
+      <c r="DJ139"/>
+      <c r="DK139"/>
+      <c r="DL139"/>
+      <c r="DM139"/>
+      <c r="DN139"/>
+      <c r="DO139"/>
+      <c r="DP139"/>
+      <c r="DQ139"/>
+      <c r="DR139"/>
+      <c r="DS139"/>
+      <c r="DT139"/>
+      <c r="DU139"/>
+      <c r="DV139"/>
+      <c r="DW139"/>
+      <c r="DX139"/>
+      <c r="DY139"/>
+      <c r="DZ139"/>
+      <c r="EA139"/>
+      <c r="EB139"/>
+      <c r="EC139"/>
+      <c r="ED139"/>
+      <c r="EE139"/>
+      <c r="EF139"/>
+      <c r="EG139"/>
+      <c r="EH139"/>
+      <c r="EI139"/>
+      <c r="EJ139"/>
+      <c r="EK139"/>
+      <c r="EL139"/>
+      <c r="EM139"/>
+      <c r="EN139"/>
+      <c r="EO139"/>
+    </row>
+    <row r="140" spans="1:145" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N140" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O140" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="P140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R140" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S140" s="15"/>
+      <c r="T140" s="15"/>
+      <c r="U140" s="15"/>
+      <c r="V140" s="15"/>
+      <c r="W140" s="15"/>
+      <c r="X140" s="15"/>
+      <c r="Y140" s="15"/>
+      <c r="Z140" s="15"/>
+      <c r="AA140" s="15"/>
+      <c r="AB140" s="15"/>
+      <c r="AC140" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD140" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE140" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF140" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG140" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH140" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI140" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ140" s="15"/>
+      <c r="AK140" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AL140" s="34"/>
+      <c r="AM140" s="34"/>
+      <c r="AN140" s="15"/>
+      <c r="AO140" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP140" s="34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AQ140" s="15"/>
+      <c r="AR140" s="15"/>
+      <c r="AS140" s="15"/>
+      <c r="AT140" s="15"/>
+      <c r="AU140" s="15"/>
+      <c r="AV140" s="15"/>
+      <c r="AW140" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX140" s="15"/>
+      <c r="AY140" s="15"/>
+      <c r="AZ140" s="15"/>
+      <c r="BA140" s="15"/>
+      <c r="BB140" s="15"/>
+      <c r="BC140" s="15"/>
+      <c r="BD140" s="15"/>
+      <c r="BE140" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF140" s="15"/>
+      <c r="BG140" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH140" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI140" s="15"/>
+      <c r="BJ140" s="15"/>
+      <c r="BK140" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL140" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM140" s="15"/>
+      <c r="BN140" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO140" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP140" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BQ140" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR140" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS140" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BT140" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="BU140" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="BV140" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BW140" s="34"/>
+      <c r="BX140" s="34"/>
+      <c r="BY140" s="34"/>
+      <c r="BZ140" s="34"/>
+      <c r="CA140" s="34"/>
+      <c r="CB140" s="34"/>
+      <c r="CC140" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD140" s="34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="CE140" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF140" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG140" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="CH140" s="53" t="s">
+        <v>1199</v>
+      </c>
+      <c r="CI140" s="34" t="s">
+        <v>1193</v>
+      </c>
+      <c r="CJ140"/>
+      <c r="CK140"/>
+      <c r="CL140"/>
+      <c r="CM140"/>
+      <c r="CN140"/>
+      <c r="CO140"/>
+      <c r="CP140"/>
+      <c r="CQ140"/>
+      <c r="CR140"/>
+      <c r="CS140"/>
+      <c r="CT140"/>
+      <c r="CU140"/>
+      <c r="CV140"/>
+      <c r="CW140"/>
+      <c r="CX140"/>
+      <c r="CY140"/>
+      <c r="CZ140"/>
+      <c r="DA140"/>
+      <c r="DB140"/>
+      <c r="DC140"/>
+      <c r="DD140"/>
+      <c r="DE140"/>
+      <c r="DF140"/>
+      <c r="DG140"/>
+      <c r="DH140"/>
+      <c r="DI140"/>
+      <c r="DJ140"/>
+      <c r="DK140"/>
+      <c r="DL140"/>
+      <c r="DM140"/>
+      <c r="DN140"/>
+      <c r="DO140"/>
+      <c r="DP140"/>
+      <c r="DQ140"/>
+      <c r="DR140"/>
+      <c r="DS140"/>
+      <c r="DT140"/>
+      <c r="DU140"/>
+      <c r="DV140"/>
+      <c r="DW140"/>
+      <c r="DX140"/>
+      <c r="DY140"/>
+      <c r="DZ140"/>
+      <c r="EA140"/>
+      <c r="EB140"/>
+      <c r="EC140"/>
+      <c r="ED140"/>
+      <c r="EE140"/>
+      <c r="EF140"/>
+      <c r="EG140"/>
+      <c r="EH140"/>
+      <c r="EI140"/>
+      <c r="EJ140"/>
+      <c r="EK140"/>
+      <c r="EL140"/>
+      <c r="EM140"/>
+      <c r="EN140"/>
+      <c r="EO140"/>
+    </row>
+    <row r="141" spans="1:145" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="N141" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O141" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="P141" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R141" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="S141" s="15"/>
+      <c r="T141" s="15"/>
+      <c r="U141" s="15"/>
+      <c r="V141" s="15"/>
+      <c r="W141" s="15"/>
+      <c r="X141" s="15"/>
+      <c r="Y141" s="15"/>
+      <c r="Z141" s="15"/>
+      <c r="AA141" s="15"/>
+      <c r="AB141" s="15"/>
+      <c r="AC141" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD141" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE141" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF141" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG141" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH141" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI141" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="AJ141" s="15"/>
+      <c r="AK141" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="AL141" s="34"/>
+      <c r="AM141" s="34"/>
+      <c r="AN141" s="15"/>
+      <c r="AO141" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP141" s="34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AQ141" s="15"/>
+      <c r="AR141" s="15"/>
+      <c r="AS141" s="15"/>
+      <c r="AT141" s="15"/>
+      <c r="AU141" s="15"/>
+      <c r="AV141" s="15"/>
+      <c r="AW141" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX141" s="15"/>
+      <c r="AY141" s="15"/>
+      <c r="AZ141" s="15"/>
+      <c r="BA141" s="15"/>
+      <c r="BB141" s="15"/>
+      <c r="BC141" s="15"/>
+      <c r="BD141" s="15"/>
+      <c r="BE141" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF141" s="15"/>
+      <c r="BG141" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH141" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI141" s="15"/>
+      <c r="BJ141" s="15"/>
+      <c r="BK141" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL141" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM141" s="15"/>
+      <c r="BN141" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO141" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP141" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BQ141" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR141" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="BS141" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BT141" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="BU141" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="BV141" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BW141" s="34"/>
+      <c r="BX141" s="34"/>
+      <c r="BY141" s="34"/>
+      <c r="BZ141" s="34"/>
+      <c r="CA141" s="34"/>
+      <c r="CB141" s="34"/>
+      <c r="CC141" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CD141" s="34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="CE141" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="CF141" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG141" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="CH141" s="53" t="s">
+        <v>1199</v>
+      </c>
+      <c r="CI141" s="34" t="s">
+        <v>1193</v>
+      </c>
+      <c r="CJ141"/>
+      <c r="CK141"/>
+      <c r="CL141"/>
+      <c r="CM141"/>
+      <c r="CN141"/>
+      <c r="CO141"/>
+      <c r="CP141"/>
+      <c r="CQ141"/>
+      <c r="CR141"/>
+      <c r="CS141"/>
+      <c r="CT141"/>
+      <c r="CU141"/>
+      <c r="CV141"/>
+      <c r="CW141"/>
+      <c r="CX141"/>
+      <c r="CY141"/>
+      <c r="CZ141"/>
+      <c r="DA141"/>
+      <c r="DB141"/>
+      <c r="DC141"/>
+      <c r="DD141"/>
+      <c r="DE141"/>
+      <c r="DF141"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -43950,9 +45295,12 @@
     <hyperlink ref="C27" r:id="rId88" xr:uid="{217128AA-03A3-4F1B-8F80-A4FFCEC825EF}"/>
     <hyperlink ref="C28" r:id="rId89" xr:uid="{EC17A159-4F9E-46A6-93B9-3EF1DC2BB1FF}"/>
     <hyperlink ref="C29" r:id="rId90" xr:uid="{D3838068-BA75-4BF3-8EEF-773233102280}"/>
+    <hyperlink ref="C139" r:id="rId91" xr:uid="{A194F1F5-EE84-4E43-B484-B8872A44BE5C}"/>
+    <hyperlink ref="C140" r:id="rId92" xr:uid="{62B53D48-B326-460D-8B1B-1C5E236A63A2}"/>
+    <hyperlink ref="C141" r:id="rId93" xr:uid="{22965330-10A6-4D19-8D55-FF001BC51F41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
 
@@ -43966,7 +45314,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="84.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -44399,7 +45747,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>316</v>
@@ -44415,7 +45763,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -44608,7 +45956,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
@@ -44624,7 +45972,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -44727,7 +46075,7 @@
         <v>204</v>
       </c>
       <c r="BO3" s="112" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="BP3" s="34" t="s">
         <v>239</v>
@@ -44817,7 +46165,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>316</v>
@@ -44831,7 +46179,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -44931,7 +46279,7 @@
       </c>
       <c r="BM4" s="15"/>
       <c r="BN4" s="15" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="BO4" s="112" t="s">
         <v>204</v>
@@ -44992,7 +46340,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>316</v>
@@ -45006,7 +46354,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -45201,7 +46549,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>316</v>
@@ -45215,7 +46563,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -45231,7 +46579,7 @@
         <v>239</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>54</v>
@@ -45410,7 +46758,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>316</v>
@@ -45424,7 +46772,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -45619,7 +46967,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>316</v>
@@ -45633,7 +46981,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -45744,7 +47092,7 @@
         <v>204</v>
       </c>
       <c r="BO8" s="112" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="BP8" s="34" t="s">
         <v>239</v>
@@ -45828,7 +47176,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>316</v>
@@ -45842,7 +47190,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -45953,7 +47301,7 @@
         <v>204</v>
       </c>
       <c r="BO9" s="112" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="BP9" s="34" t="s">
         <v>239</v>
@@ -45984,7 +47332,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>316</v>
@@ -45998,7 +47346,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -46014,7 +47362,7 @@
         <v>239</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="S10" s="15" t="s">
         <v>55</v>
@@ -46109,7 +47457,7 @@
         <v>204</v>
       </c>
       <c r="BO10" s="112" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="BP10" s="34" t="s">
         <v>239</v>
@@ -46140,7 +47488,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>316</v>
@@ -46153,7 +47501,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -46261,7 +47609,7 @@
       </c>
       <c r="BM11" s="15"/>
       <c r="BN11" s="15" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="BO11" s="112" t="s">
         <v>204</v>
@@ -46322,7 +47670,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>316</v>
@@ -46335,7 +47683,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -46443,7 +47791,7 @@
       </c>
       <c r="BM12" s="15"/>
       <c r="BN12" s="15" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="BO12" s="112" t="s">
         <v>204</v>
@@ -46504,7 +47852,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>316</v>
@@ -46517,7 +47865,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -46625,7 +47973,7 @@
       </c>
       <c r="BM13" s="15"/>
       <c r="BN13" s="15" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="BO13" s="112" t="s">
         <v>204</v>
@@ -46686,7 +48034,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>316</v>
@@ -46702,7 +48050,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -46895,7 +48243,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>316</v>
@@ -46909,7 +48257,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -47082,7 +48430,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>316</v>
@@ -47096,7 +48444,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -47269,7 +48617,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>316</v>
@@ -47283,7 +48631,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -47456,7 +48804,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>316</v>
@@ -47465,7 +48813,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -47496,7 +48844,7 @@
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AD18" s="15" t="s">
         <v>6</v>
@@ -47573,7 +48921,7 @@
       </c>
       <c r="BM18" s="15"/>
       <c r="BN18" s="15" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="BO18" s="112" t="s">
         <v>204</v>
@@ -47637,7 +48985,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>316</v>
@@ -47646,7 +48994,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -47677,7 +49025,7 @@
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AD19" s="15" t="s">
         <v>6</v>
@@ -47754,7 +49102,7 @@
       </c>
       <c r="BM19" s="15"/>
       <c r="BN19" s="15" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="BO19" s="112" t="s">
         <v>204</v>
@@ -47818,7 +49166,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>316</v>
@@ -47827,7 +49175,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -47858,7 +49206,7 @@
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AD20" s="15" t="s">
         <v>6</v>
@@ -47935,7 +49283,7 @@
       </c>
       <c r="BM20" s="15"/>
       <c r="BN20" s="15" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="BO20" s="112" t="s">
         <v>204</v>
@@ -47999,7 +49347,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>316</v>
@@ -48008,7 +49356,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -48039,7 +49387,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AD21" s="15" t="s">
         <v>6</v>
@@ -48178,7 +49526,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>294</v>
@@ -48190,7 +49538,7 @@
         <v>926</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="N22" s="33" t="s">
         <v>153</v>
@@ -48216,7 +49564,7 @@
       <c r="AA22" s="15"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="15" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="AD22" s="15" t="s">
         <v>6</v>
@@ -48296,7 +49644,7 @@
         <v>204</v>
       </c>
       <c r="BO22" s="112" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="BP22" s="34" t="s">
         <v>239</v>
@@ -48362,7 +49710,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>316</v>
@@ -48378,7 +49726,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -49015,7 +50363,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>316</v>
@@ -49029,7 +50377,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -49241,7 +50589,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
@@ -49255,7 +50603,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -49434,7 +50782,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>316</v>
@@ -49448,7 +50796,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -49620,7 +50968,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>316</v>
@@ -49629,7 +50977,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>153</v>
@@ -49800,7 +51148,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>316</v>
@@ -49809,7 +51157,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>153</v>
@@ -49980,7 +51328,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>316</v>
@@ -49994,7 +51342,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="15" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -50189,7 +51537,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>316</v>
@@ -50198,7 +51546,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="9" spans="1:160" x14ac:dyDescent="0.25">
@@ -50206,7 +51554,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>294</v>
@@ -50215,7 +51563,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -50396,7 +51744,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>294</v>
@@ -50408,7 +51756,7 @@
         <v>935</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="N10" s="33" t="s">
         <v>153</v>
@@ -50458,7 +51806,7 @@
       </c>
       <c r="AJ10" s="15"/>
       <c r="AK10" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL10" s="34" t="s">
         <v>239</v>
@@ -50469,7 +51817,7 @@
         <v>278</v>
       </c>
       <c r="AP10" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ10" s="15"/>
       <c r="AR10" s="15"/>
@@ -50579,7 +51927,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>294</v>
@@ -50588,7 +51936,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="N11" s="33" t="s">
         <v>153</v>
@@ -50638,7 +51986,7 @@
       </c>
       <c r="AJ11" s="15"/>
       <c r="AK11" s="34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AL11" s="34" t="s">
         <v>239</v>
@@ -50649,7 +51997,7 @@
         <v>278</v>
       </c>
       <c r="AP11" s="34" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AQ11" s="15"/>
       <c r="AR11" s="15"/>

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1F8E68-628A-400D-ACC7-EAAE45FF2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C212E-37B5-42D0-B2B1-260B0940A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <sheet name="Contact" sheetId="7" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$L$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$L$315</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10484" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10534" uniqueCount="1519">
   <si>
     <t>Premier1a</t>
   </si>
@@ -4109,9 +4109,6 @@
     <t>Dpsearch</t>
   </si>
   <si>
-    <t>2022_08_26_06_53_19</t>
-  </si>
-  <si>
     <t>TFS ID_8811:Cloud - Verify newly added fields in Subaccounts view</t>
   </si>
   <si>
@@ -4139,18 +4136,12 @@
     <t>2000141868</t>
   </si>
   <si>
-    <t>2022_08_30_03_46_28</t>
-  </si>
-  <si>
     <t>TFS ID_9633:Cloud : Verify whether user should not get any script error on add any Supplier Diversity</t>
   </si>
   <si>
     <t>9633:Cloud -Add Diversity information to a supplier</t>
   </si>
   <si>
-    <t>2022_08_30_06_12_41</t>
-  </si>
-  <si>
     <t>TFS ID_9634:Cloud : Verify whether "Account for interactive experience" form layout should not get displayed additionally</t>
   </si>
   <si>
@@ -4277,9 +4268,6 @@
     <t>2000000117</t>
   </si>
   <si>
-    <t>2022_09_06_03_56_59</t>
-  </si>
-  <si>
     <t>2022_09_06_04_01_23</t>
   </si>
   <si>
@@ -4439,27 +4427,12 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>2000513401</t>
-  </si>
-  <si>
-    <t>2022_09_29_01_15_59</t>
-  </si>
-  <si>
-    <t>2000513402</t>
-  </si>
-  <si>
     <t>2022_09_29_01_30_08</t>
   </si>
   <si>
-    <t>2000513403</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2022_09_29_01_41_22</t>
-  </si>
-  <si>
     <t>2000513404</t>
   </si>
   <si>
@@ -4469,13 +4442,178 @@
     <t>2022_09_29_02_05_18</t>
   </si>
   <si>
-    <t>2000513406</t>
-  </si>
-  <si>
     <t>2022_09_29_02_40_53</t>
   </si>
   <si>
     <t>2000513407</t>
+  </si>
+  <si>
+    <t>2000513415</t>
+  </si>
+  <si>
+    <t>https://premierdev1.crm.dynamics.com/main.aspx?appid=0c73db26-7543-ed11-bba3-000d3a53dec8&amp;pagetype=dashboard&amp;type=system&amp;_canOverride=true</t>
+  </si>
+  <si>
+    <t>2000552581</t>
+  </si>
+  <si>
+    <t>2022_10_06_01_53_17</t>
+  </si>
+  <si>
+    <t>2000552585</t>
+  </si>
+  <si>
+    <t>2022_10_06_02_26_21</t>
+  </si>
+  <si>
+    <t>2000552586</t>
+  </si>
+  <si>
+    <t>2022_10_06_02_33_29</t>
+  </si>
+  <si>
+    <t>2000552587</t>
+  </si>
+  <si>
+    <t>2022_10_06_02_39_28</t>
+  </si>
+  <si>
+    <t>2022_10_06_02_42_52</t>
+  </si>
+  <si>
+    <t>2000552589</t>
+  </si>
+  <si>
+    <t>2022_10_06_02_48_49</t>
+  </si>
+  <si>
+    <t>2000552591</t>
+  </si>
+  <si>
+    <t>2022_10_06_02_54_57</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_00_16</t>
+  </si>
+  <si>
+    <t>2000552592</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_06_16</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_13_07</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_19_58</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_26_19</t>
+  </si>
+  <si>
+    <t>2000141844</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_36_58</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_43_17</t>
+  </si>
+  <si>
+    <t>2022_10_06_03_56_47</t>
+  </si>
+  <si>
+    <t>2000552599</t>
+  </si>
+  <si>
+    <t>2022_10_06_04_05_21</t>
+  </si>
+  <si>
+    <t>2000552604</t>
+  </si>
+  <si>
+    <t>2022_10_06_04_31_31</t>
+  </si>
+  <si>
+    <t>2022_10_06_04_35_19</t>
+  </si>
+  <si>
+    <t>2022_10_06_04_39_18</t>
+  </si>
+  <si>
+    <t>2022_10_06_04_43_17</t>
+  </si>
+  <si>
+    <t>2022_10_06_04_50_48</t>
+  </si>
+  <si>
+    <t>2022_10_06_04_55_08</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_00_16</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_07_46</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_14_19</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_17_48</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_19_59</t>
+  </si>
+  <si>
+    <t>2000552610</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_26_14</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_29_43</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_33_08</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_37_20</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_40_58</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_42_27</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_44_30</t>
+  </si>
+  <si>
+    <t>2022_10_06_05_49_40</t>
+  </si>
+  <si>
+    <t>2022_10_06_06_07_22</t>
+  </si>
+  <si>
+    <t>2022_10_06_06_11_09</t>
+  </si>
+  <si>
+    <t>2022_10_06_06_19_20</t>
+  </si>
+  <si>
+    <t>2022_10_06_06_24_00</t>
+  </si>
+  <si>
+    <t>7000578029</t>
+  </si>
+  <si>
+    <t>2022_10_06_06_47_13</t>
+  </si>
+  <si>
+    <t>7000578030</t>
+  </si>
+  <si>
+    <t>2022_10_06_07_00_19</t>
   </si>
 </sst>
 </file>
@@ -5452,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5523,18 +5661,18 @@
         <v>39</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="48" t="s">
-        <v>544</v>
+        <v>1464</v>
       </c>
       <c r="L2" s="106" t="s">
         <v>530</v>
@@ -5557,13 +5695,13 @@
         <v>39</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>1463</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>1462</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -5580,7 +5718,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>2</v>
@@ -5589,13 +5727,13 @@
         <v>39</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -5619,13 +5757,13 @@
         <v>39</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -5649,10 +5787,10 @@
         <v>39</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -5680,7 +5818,7 @@
         <v>261</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -5708,10 +5846,10 @@
         <v>261</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -5738,7 +5876,7 @@
         <v>261</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -5766,10 +5904,10 @@
         <v>261</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -5796,10 +5934,10 @@
         <v>261</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -7340,9 +7478,11 @@
         <v>39</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G70" s="24"/>
+        <v>1455</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>1499</v>
+      </c>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
@@ -8952,10 +9092,14 @@
         <v>39</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H132" s="21" t="s">
+        <v>1467</v>
+      </c>
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
       <c r="K132" s="22"/>
@@ -8978,10 +9122,14 @@
         <v>39</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H133" s="21" t="s">
+        <v>1469</v>
+      </c>
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
       <c r="K133" s="22"/>
@@ -9004,10 +9152,14 @@
         <v>39</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H134" s="21" t="s">
+        <v>1471</v>
+      </c>
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
       <c r="K134" s="22"/>
@@ -9030,9 +9182,11 @@
         <v>39</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G135" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>1473</v>
+      </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
@@ -9056,10 +9210,14 @@
         <v>39</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G136" s="21" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>1474</v>
+      </c>
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
       <c r="K136" s="22"/>
@@ -9082,10 +9240,14 @@
         <v>39</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H137" s="21" t="s">
+        <v>1476</v>
+      </c>
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
       <c r="K137" s="22"/>
@@ -9108,10 +9270,14 @@
         <v>39</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G138" s="21" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H138" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
       <c r="K138" s="22"/>
@@ -9134,10 +9300,14 @@
         <v>39</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H139" s="21" t="s">
+        <v>1479</v>
+      </c>
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
       <c r="K139" s="22"/>
@@ -9160,10 +9330,14 @@
         <v>39</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H140" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
       <c r="K140" s="22"/>
@@ -9186,10 +9360,14 @@
         <v>39</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G141" s="21" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H141" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
       <c r="K141" s="22"/>
@@ -9212,10 +9390,14 @@
         <v>39</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="22"/>
@@ -9238,10 +9420,14 @@
         <v>39</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G143" s="21" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H143" s="21" t="s">
+        <v>1484</v>
+      </c>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
       <c r="K143" s="22"/>
@@ -9264,10 +9450,14 @@
         <v>39</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
       <c r="K144" s="22"/>
@@ -9290,9 +9480,11 @@
         <v>39</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G145" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>1487</v>
+      </c>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
@@ -9316,10 +9508,14 @@
         <v>39</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>1488</v>
+      </c>
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
       <c r="K146" s="22"/>
@@ -9342,10 +9538,14 @@
         <v>39</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H147" s="21" t="s">
+        <v>1490</v>
+      </c>
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
       <c r="K147" s="22"/>
@@ -9368,9 +9568,11 @@
         <v>39</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G148" s="24"/>
+        <v>1457</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>1492</v>
+      </c>
       <c r="H148" s="24"/>
       <c r="I148" s="24"/>
       <c r="J148" s="24"/>
@@ -9394,9 +9596,11 @@
         <v>39</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G149" s="24"/>
+        <v>1457</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>1493</v>
+      </c>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
       <c r="J149" s="24"/>
@@ -9420,9 +9624,11 @@
         <v>39</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G150" s="24"/>
+        <v>1457</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>1494</v>
+      </c>
       <c r="H150" s="24"/>
       <c r="I150" s="24"/>
       <c r="J150" s="24"/>
@@ -9446,9 +9652,11 @@
         <v>39</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G151" s="24"/>
+        <v>1455</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>1495</v>
+      </c>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
       <c r="J151" s="24"/>
@@ -9472,9 +9680,11 @@
         <v>39</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G152" s="24"/>
+        <v>1457</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>1496</v>
+      </c>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
       <c r="J152" s="24"/>
@@ -9498,9 +9708,11 @@
         <v>39</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G153" s="24"/>
+        <v>1455</v>
+      </c>
+      <c r="G153" s="24" t="s">
+        <v>1497</v>
+      </c>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
       <c r="J153" s="24"/>
@@ -9524,9 +9736,11 @@
         <v>39</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G154" s="24"/>
+        <v>1457</v>
+      </c>
+      <c r="G154" s="24" t="s">
+        <v>1498</v>
+      </c>
       <c r="H154" s="24"/>
       <c r="I154" s="24"/>
       <c r="J154" s="24"/>
@@ -9576,9 +9790,11 @@
         <v>39</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G156" s="24"/>
+        <v>1457</v>
+      </c>
+      <c r="G156" s="24" t="s">
+        <v>1500</v>
+      </c>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
       <c r="J156" s="24"/>
@@ -9602,9 +9818,11 @@
         <v>39</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G157" s="24"/>
+        <v>1455</v>
+      </c>
+      <c r="G157" s="24" t="s">
+        <v>1501</v>
+      </c>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
       <c r="J157" s="24"/>
@@ -9628,10 +9846,14 @@
         <v>39</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G158" s="24"/>
-      <c r="H158" s="24"/>
+        <v>1455</v>
+      </c>
+      <c r="G158" s="24" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H158" s="24" t="s">
+        <v>1502</v>
+      </c>
       <c r="I158" s="24"/>
       <c r="J158" s="24"/>
       <c r="K158" s="24"/>
@@ -9654,9 +9876,11 @@
         <v>39</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G159" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>1504</v>
+      </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
       <c r="J159" s="21"/>
@@ -9680,9 +9904,11 @@
         <v>39</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G160" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>1505</v>
+      </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
       <c r="J160" s="21"/>
@@ -9706,10 +9932,10 @@
         <v>39</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>261</v>
+        <v>1455</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>1360</v>
+        <v>1506</v>
       </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
@@ -9734,9 +9960,11 @@
         <v>39</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G162" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>1507</v>
+      </c>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
       <c r="J162" s="21"/>
@@ -9760,9 +9988,11 @@
         <v>39</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G163" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>1508</v>
+      </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
@@ -9786,9 +10016,11 @@
         <v>39</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G164" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>1509</v>
+      </c>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
@@ -9812,9 +10044,11 @@
         <v>39</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G165" s="21"/>
+        <v>1457</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>1510</v>
+      </c>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
       <c r="J165" s="21"/>
@@ -9838,9 +10072,11 @@
         <v>39</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G166" s="21"/>
+        <v>1455</v>
+      </c>
+      <c r="G166" s="21" t="s">
+        <v>1511</v>
+      </c>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
       <c r="J166" s="21"/>
@@ -9890,10 +10126,10 @@
         <v>39</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>261</v>
+        <v>1457</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>1350</v>
+        <v>1512</v>
       </c>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
@@ -9909,7 +10145,7 @@
         <v>219</v>
       </c>
       <c r="C169" s="150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D169" s="30" t="s">
         <v>218</v>
@@ -9918,10 +10154,14 @@
         <v>39</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
+        <v>1457</v>
+      </c>
+      <c r="G169" s="27" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H169" s="27" t="s">
+        <v>1517</v>
+      </c>
       <c r="I169" s="27"/>
       <c r="J169" s="27"/>
       <c r="K169" s="27"/>
@@ -12863,7 +13103,7 @@
         <v>285</v>
       </c>
       <c r="B290" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C290" s="150" t="s">
         <v>34</v>
@@ -12878,7 +13118,7 @@
         <v>261</v>
       </c>
       <c r="G290" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -12886,7 +13126,7 @@
         <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C291" s="150" t="s">
         <v>34</v>
@@ -12901,7 +13141,7 @@
         <v>261</v>
       </c>
       <c r="G291" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -12909,7 +13149,7 @@
         <v>285</v>
       </c>
       <c r="B292" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C292" s="150" t="s">
         <v>34</v>
@@ -12924,7 +13164,7 @@
         <v>261</v>
       </c>
       <c r="G292" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -12932,7 +13172,7 @@
         <v>286</v>
       </c>
       <c r="B293" s="150" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C293" s="150" t="s">
         <v>34</v>
@@ -12947,7 +13187,7 @@
         <v>261</v>
       </c>
       <c r="G293" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -12955,7 +13195,7 @@
         <v>287</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C294" s="150" t="s">
         <v>34</v>
@@ -12970,7 +13210,7 @@
         <v>261</v>
       </c>
       <c r="G294" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H294" t="s">
         <v>320</v>
@@ -12981,10 +13221,10 @@
         <v>288</v>
       </c>
       <c r="B295" s="162" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C295" s="150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D295" s="21" t="s">
         <v>26</v>
@@ -12993,10 +13233,10 @@
         <v>39</v>
       </c>
       <c r="F295" s="17" t="s">
-        <v>261</v>
+        <v>1457</v>
       </c>
       <c r="G295" t="s">
-        <v>1363</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -13004,7 +13244,7 @@
         <v>289</v>
       </c>
       <c r="B296" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C296" s="150" t="s">
         <v>34</v>
@@ -13024,7 +13264,7 @@
         <v>289</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C297" s="150" t="s">
         <v>34</v>
@@ -13039,7 +13279,7 @@
         <v>261</v>
       </c>
       <c r="G297" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -13047,7 +13287,7 @@
         <v>290</v>
       </c>
       <c r="B298" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C298" s="150" t="s">
         <v>34</v>
@@ -13062,7 +13302,7 @@
         <v>261</v>
       </c>
       <c r="G298" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -13070,7 +13310,7 @@
         <v>291</v>
       </c>
       <c r="B299" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C299" s="150" t="s">
         <v>34</v>
@@ -13085,7 +13325,7 @@
         <v>261</v>
       </c>
       <c r="G299" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -13093,7 +13333,7 @@
         <v>292</v>
       </c>
       <c r="B300" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C300" s="150" t="s">
         <v>34</v>
@@ -13108,7 +13348,7 @@
         <v>261</v>
       </c>
       <c r="G300" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -13116,7 +13356,7 @@
         <v>293</v>
       </c>
       <c r="B301" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C301" s="150" t="s">
         <v>34</v>
@@ -13136,7 +13376,7 @@
         <v>294</v>
       </c>
       <c r="B302" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C302" s="150" t="s">
         <v>34</v>
@@ -13151,7 +13391,7 @@
         <v>261</v>
       </c>
       <c r="G302" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -13159,7 +13399,7 @@
         <v>295</v>
       </c>
       <c r="B303" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C303" s="150" t="s">
         <v>34</v>
@@ -13171,10 +13411,10 @@
         <v>39</v>
       </c>
       <c r="F303" s="17" t="s">
-        <v>261</v>
+        <v>1457</v>
       </c>
       <c r="G303" t="s">
-        <v>1406</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -13182,13 +13422,13 @@
         <v>296</v>
       </c>
       <c r="B304" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C304" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D304" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E304" s="17" t="s">
         <v>39</v>
@@ -13197,10 +13437,10 @@
         <v>261</v>
       </c>
       <c r="G304" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="H304" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -13208,13 +13448,13 @@
         <v>297</v>
       </c>
       <c r="B305" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C305" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D305" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E305" s="17" t="s">
         <v>39</v>
@@ -13223,7 +13463,7 @@
         <v>261</v>
       </c>
       <c r="G305" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -13231,13 +13471,13 @@
         <v>298</v>
       </c>
       <c r="B306" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C306" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D306" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E306" s="17" t="s">
         <v>39</v>
@@ -13246,7 +13486,7 @@
         <v>261</v>
       </c>
       <c r="G306" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -13254,13 +13494,13 @@
         <v>299</v>
       </c>
       <c r="B307" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C307" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D307" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E307" s="17" t="s">
         <v>39</v>
@@ -13269,7 +13509,7 @@
         <v>261</v>
       </c>
       <c r="G307" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -13277,13 +13517,13 @@
         <v>300</v>
       </c>
       <c r="B308" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C308" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D308" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E308" s="17" t="s">
         <v>39</v>
@@ -13292,10 +13532,10 @@
         <v>261</v>
       </c>
       <c r="G308" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="H308" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -13303,13 +13543,13 @@
         <v>301</v>
       </c>
       <c r="B309" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C309" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D309" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E309" s="17" t="s">
         <v>39</v>
@@ -13318,10 +13558,10 @@
         <v>261</v>
       </c>
       <c r="G309" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="H309" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -13329,13 +13569,13 @@
         <v>302</v>
       </c>
       <c r="B310" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C310" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D310" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E310" s="17" t="s">
         <v>39</v>
@@ -13344,10 +13584,10 @@
         <v>261</v>
       </c>
       <c r="G310" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="H310" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -13355,13 +13595,13 @@
         <v>303</v>
       </c>
       <c r="B311" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C311" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D311" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E311" s="17" t="s">
         <v>39</v>
@@ -13370,10 +13610,10 @@
         <v>261</v>
       </c>
       <c r="G311" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="H311" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -13381,13 +13621,13 @@
         <v>304</v>
       </c>
       <c r="B312" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C312" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D312" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E312" s="17" t="s">
         <v>39</v>
@@ -13396,10 +13636,10 @@
         <v>261</v>
       </c>
       <c r="G312" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="H312" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -13407,13 +13647,13 @@
         <v>305</v>
       </c>
       <c r="B313" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C313" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D313" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E313" s="17" t="s">
         <v>39</v>
@@ -13422,10 +13662,10 @@
         <v>261</v>
       </c>
       <c r="G313" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="H313" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -13433,13 +13673,13 @@
         <v>306</v>
       </c>
       <c r="B314" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C314" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D314" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E314" s="17" t="s">
         <v>39</v>
@@ -13448,10 +13688,10 @@
         <v>261</v>
       </c>
       <c r="G314" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="H314" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -13459,13 +13699,13 @@
         <v>307</v>
       </c>
       <c r="B315" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C315" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D315" s="150" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E315" s="17" t="s">
         <v>39</v>
@@ -13474,14 +13714,13 @@
         <v>261</v>
       </c>
       <c r="G315" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="H315" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L303" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}"/>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{C4DE44B4-9E86-4104-81E3-C93D60F64BE3}"/>
     <hyperlink ref="L2" r:id="rId2" xr:uid="{A4124D5F-F457-4A70-A072-5DFAF5EA33F8}"/>
@@ -28382,7 +28621,7 @@
         <v>64</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>19</v>
@@ -28406,22 +28645,22 @@
         <v>74</v>
       </c>
       <c r="EY1" s="59" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="EZ1" s="59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="FA1" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="FB1" s="59" t="s">
         <v>1367</v>
       </c>
-      <c r="FA1" s="59" t="s">
-        <v>1371</v>
-      </c>
-      <c r="FB1" s="59" t="s">
-        <v>1370</v>
-      </c>
       <c r="FC1" s="59" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="FD1" s="59" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -28429,13 +28668,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -28443,7 +28682,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -28644,19 +28883,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="AI3" s="70" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="AK3" s="34" t="s">
         <v>238</v>
@@ -28670,22 +28909,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="EY4" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="EZ4" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="5" spans="1:181" x14ac:dyDescent="0.25">
@@ -28693,22 +28932,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="EY5" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="EZ5" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="6" spans="1:181" x14ac:dyDescent="0.25">
@@ -28716,20 +28955,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -28776,7 +29015,7 @@
         <v>7</v>
       </c>
       <c r="AI6" s="36" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="34" t="s">
@@ -28949,16 +29188,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -29107,7 +29346,7 @@
       <c r="CO7" s="15"/>
       <c r="CP7" s="15"/>
       <c r="CQ7" s="34" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="CR7" s="44" t="s">
         <v>249</v>
@@ -29203,13 +29442,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -29217,7 +29456,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -29413,10 +29652,10 @@
       <c r="EJ8" s="15"/>
       <c r="EK8" s="15"/>
       <c r="EY8" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="EZ8" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="9" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29424,13 +29663,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -29438,7 +29677,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -29634,10 +29873,10 @@
       <c r="EJ9" s="15"/>
       <c r="EK9" s="15"/>
       <c r="EY9" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="EZ9" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29645,13 +29884,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -29659,7 +29898,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -29855,22 +30094,22 @@
       <c r="EJ10" s="15"/>
       <c r="EK10" s="15"/>
       <c r="EY10" s="4" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="EZ10" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="FA10" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="FB10" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="FC10" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="FD10" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29878,13 +30117,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -29892,7 +30131,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -30088,22 +30327,22 @@
       <c r="EJ11" s="15"/>
       <c r="EK11" s="15"/>
       <c r="EY11" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="EZ11" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="FA11" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="FB11" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="FC11" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="FD11" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="12" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30111,13 +30350,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -30125,7 +30364,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -30321,22 +30560,22 @@
       <c r="EJ12" s="15"/>
       <c r="EK12" s="15"/>
       <c r="EY12" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="EZ12" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="FA12" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="FB12" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="FC12" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="FD12" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="13" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30344,13 +30583,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -30358,7 +30597,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -30554,20 +30793,20 @@
       <c r="EJ13" s="15"/>
       <c r="EK13" s="15"/>
       <c r="EY13" s="4" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="EZ13" s="4" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="FA13" s="4" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="FB13" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="FC13"/>
       <c r="FD13" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -32739,7 +32978,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>293</v>
@@ -32767,8 +33006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BY39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33083,7 +33322,7 @@
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>25</v>
@@ -33173,7 +33412,7 @@
       <c r="BV2" s="13"/>
       <c r="BW2" s="13"/>
     </row>
-    <row r="3" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -33185,7 +33424,7 @@
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>25</v>
@@ -33278,7 +33517,7 @@
       <c r="BV3" s="13"/>
       <c r="BW3" s="13"/>
     </row>
-    <row r="4" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -33290,7 +33529,7 @@
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>25</v>
@@ -33385,7 +33624,7 @@
       <c r="BV4" s="13"/>
       <c r="BW4" s="13"/>
     </row>
-    <row r="5" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -33399,7 +33638,7 @@
         <v>316</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>25</v>
@@ -33490,7 +33729,7 @@
       <c r="BV5" s="13"/>
       <c r="BW5" s="13"/>
     </row>
-    <row r="6" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -33502,7 +33741,7 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>25</v>
@@ -33599,7 +33838,7 @@
       <c r="BV6" s="13"/>
       <c r="BW6" s="13"/>
     </row>
-    <row r="7" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -33611,7 +33850,7 @@
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>25</v>
@@ -33708,7 +33947,7 @@
       <c r="BV7" s="13"/>
       <c r="BW7" s="13"/>
     </row>
-    <row r="8" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -33720,7 +33959,7 @@
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>25</v>
@@ -33809,7 +34048,7 @@
       <c r="BV8" s="13"/>
       <c r="BW8" s="13"/>
     </row>
-    <row r="9" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -33821,7 +34060,7 @@
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>25</v>
@@ -33922,7 +34161,7 @@
       <c r="BV9" s="13"/>
       <c r="BW9" s="13"/>
     </row>
-    <row r="10" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -33934,7 +34173,7 @@
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>25</v>
@@ -34023,7 +34262,7 @@
       <c r="BV10" s="13"/>
       <c r="BW10" s="13"/>
     </row>
-    <row r="11" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -34035,7 +34274,7 @@
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>25</v>
@@ -34120,7 +34359,7 @@
       <c r="BV11" s="13"/>
       <c r="BW11" s="13"/>
     </row>
-    <row r="12" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -34132,7 +34371,7 @@
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>25</v>
@@ -34227,7 +34466,7 @@
       <c r="BV12" s="13"/>
       <c r="BW12" s="13"/>
     </row>
-    <row r="13" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -34241,7 +34480,7 @@
         <v>316</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>25</v>
@@ -34338,7 +34577,7 @@
       <c r="BV13" s="13"/>
       <c r="BW13" s="13"/>
     </row>
-    <row r="14" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -34350,7 +34589,7 @@
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>25</v>
@@ -34445,7 +34684,7 @@
       <c r="BV14" s="13"/>
       <c r="BW14" s="13"/>
     </row>
-    <row r="15" spans="1:77" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -34456,8 +34695,8 @@
         <v>316</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="24" t="s">
-        <v>0</v>
+      <c r="E15" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>25</v>
@@ -34606,7 +34845,7 @@
       </c>
       <c r="BW15" s="24"/>
     </row>
-    <row r="16" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -34618,7 +34857,7 @@
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>25</v>
@@ -34727,7 +34966,7 @@
       <c r="BV16" s="13"/>
       <c r="BW16" s="13"/>
     </row>
-    <row r="17" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -34739,7 +34978,7 @@
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>25</v>
@@ -34840,7 +35079,7 @@
       <c r="BV17" s="13"/>
       <c r="BW17" s="13"/>
     </row>
-    <row r="18" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -34852,7 +35091,7 @@
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -34945,7 +35184,7 @@
       <c r="BV18" s="13"/>
       <c r="BW18" s="13"/>
     </row>
-    <row r="19" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -34957,7 +35196,7 @@
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>25</v>
@@ -35054,7 +35293,7 @@
       <c r="BV19" s="13"/>
       <c r="BW19" s="13"/>
     </row>
-    <row r="20" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -35066,7 +35305,7 @@
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>25</v>
@@ -35163,7 +35402,7 @@
       <c r="BV20" s="13"/>
       <c r="BW20" s="13"/>
     </row>
-    <row r="21" spans="1:75" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -35175,7 +35414,7 @@
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>25</v>
@@ -35272,7 +35511,7 @@
       <c r="BV21" s="13"/>
       <c r="BW21" s="13"/>
     </row>
-    <row r="22" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -35284,7 +35523,7 @@
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>25</v>
@@ -35387,7 +35626,7 @@
       <c r="BV22" s="13"/>
       <c r="BW22" s="13"/>
     </row>
-    <row r="23" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -35399,7 +35638,7 @@
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>25</v>
@@ -35486,7 +35725,7 @@
       <c r="BV23" s="13"/>
       <c r="BW23" s="13"/>
     </row>
-    <row r="24" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -35498,7 +35737,7 @@
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>25</v>
@@ -35601,7 +35840,7 @@
       <c r="BV24" s="13"/>
       <c r="BW24" s="13"/>
     </row>
-    <row r="25" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" s="82">
         <v>24</v>
       </c>
@@ -35612,7 +35851,7 @@
         <v>316</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>25</v>
@@ -35713,7 +35952,7 @@
       <c r="BV25" s="13"/>
       <c r="BW25" s="13"/>
     </row>
-    <row r="26" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -35725,7 +35964,7 @@
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>25</v>
@@ -35812,7 +36051,7 @@
       <c r="BV26" s="13"/>
       <c r="BW26" s="13"/>
     </row>
-    <row r="27" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -35824,7 +36063,7 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>25</v>
@@ -35903,7 +36142,7 @@
       <c r="BV27" s="13"/>
       <c r="BW27" s="13"/>
     </row>
-    <row r="28" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -35915,7 +36154,7 @@
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>25</v>
@@ -36012,7 +36251,7 @@
       <c r="BV28" s="13"/>
       <c r="BW28" s="13"/>
     </row>
-    <row r="29" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -36024,7 +36263,7 @@
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>25</v>
@@ -36113,7 +36352,7 @@
       <c r="BV29" s="13"/>
       <c r="BW29" s="13"/>
     </row>
-    <row r="30" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -36125,7 +36364,7 @@
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>25</v>
@@ -36206,7 +36445,7 @@
       <c r="BV30" s="13"/>
       <c r="BW30" s="13"/>
     </row>
-    <row r="31" spans="1:75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -36218,7 +36457,7 @@
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>25</v>
@@ -36247,7 +36486,7 @@
       <c r="X31" s="60"/>
       <c r="Y31" s="60"/>
       <c r="Z31" s="60" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="AA31" s="60"/>
       <c r="AB31" s="60" t="s">
@@ -36307,7 +36546,7 @@
       <c r="BV31" s="13"/>
       <c r="BW31" s="13"/>
     </row>
-    <row r="32" spans="1:75" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -36319,7 +36558,7 @@
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>25</v>
@@ -36410,7 +36649,7 @@
       <c r="BV32" s="13"/>
       <c r="BW32" s="13"/>
     </row>
-    <row r="33" spans="1:77" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="96">
         <v>31</v>
       </c>
@@ -36421,8 +36660,8 @@
         <v>316</v>
       </c>
       <c r="D33" s="99"/>
-      <c r="E33" s="96" t="s">
-        <v>0</v>
+      <c r="E33" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="F33" s="96" t="s">
         <v>25</v>
@@ -36503,7 +36742,7 @@
       <c r="BV33" s="96"/>
       <c r="BW33" s="96"/>
     </row>
-    <row r="34" spans="1:77" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -36515,7 +36754,7 @@
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>25</v>
@@ -36612,7 +36851,7 @@
       <c r="BV34" s="13"/>
       <c r="BW34" s="13"/>
     </row>
-    <row r="35" spans="1:77" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -36624,7 +36863,7 @@
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>25</v>
@@ -36709,7 +36948,7 @@
       <c r="BV35" s="13"/>
       <c r="BW35" s="13"/>
     </row>
-    <row r="36" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -36721,7 +36960,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>25</v>
@@ -36808,7 +37047,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" s="82">
         <v>36</v>
       </c>
@@ -36820,7 +37059,7 @@
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>25</v>
@@ -36837,19 +37076,19 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="38" spans="1:77" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" s="82">
         <v>37</v>
       </c>
       <c r="B38" s="162" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>316</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>25</v>
@@ -36862,7 +37101,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="16" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="M38" s="50"/>
       <c r="N38" s="13"/>
@@ -36882,7 +37121,7 @@
       <c r="X38" s="60"/>
       <c r="Y38" s="60"/>
       <c r="Z38" s="60" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="AA38" s="60"/>
       <c r="AB38" s="60" t="s">
@@ -36947,14 +37186,14 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>316</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="13" t="s">
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>25</v>
@@ -36969,10 +37208,10 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="16" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="P39" s="50" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="S39" s="13" t="s">
         <v>6</v>
@@ -36984,7 +37223,7 @@
         <v>44</v>
       </c>
       <c r="BL39" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="BX39" s="34" t="s">
         <v>238</v>
@@ -37034,8 +37273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
   <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37141,15 +37380,15 @@
       <c r="B2" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>315</v>
+      <c r="C2" s="32" t="s">
+        <v>293</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
-      <c r="H2" s="23" t="s">
-        <v>0</v>
+      <c r="H2" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="23" t="s">
@@ -37206,8 +37445,8 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
-      <c r="H3" s="23" t="s">
-        <v>0</v>
+      <c r="H3" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="23" t="s">
@@ -37272,8 +37511,8 @@
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
-      <c r="H4" s="23" t="s">
-        <v>0</v>
+      <c r="H4" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="23" t="s">
@@ -37336,8 +37575,8 @@
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
-      <c r="H5" s="23" t="s">
-        <v>0</v>
+      <c r="H5" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>481</v>
@@ -37396,8 +37635,8 @@
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
-      <c r="H6" s="23" t="s">
-        <v>0</v>
+      <c r="H6" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
@@ -37454,8 +37693,8 @@
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="23" t="s">
-        <v>0</v>
+      <c r="H7" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>481</v>
@@ -37504,8 +37743,8 @@
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
-      <c r="H8" s="23" t="s">
-        <v>0</v>
+      <c r="H8" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>481</v>
@@ -37554,8 +37793,8 @@
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
-      <c r="H9" s="23" t="s">
-        <v>0</v>
+      <c r="H9" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23" t="s">
@@ -37616,8 +37855,8 @@
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="23" t="s">
-        <v>0</v>
+      <c r="H10" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23" t="s">
@@ -37682,8 +37921,8 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
-      <c r="H11" s="23" t="s">
-        <v>0</v>
+      <c r="H11" s="13" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -37708,8 +37947,8 @@
       <c r="G12" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>0</v>
+      <c r="H12" s="13" t="s">
+        <v>1441</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>481</v>
@@ -37724,20 +37963,20 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{E516A3F0-4A35-405F-A276-07D78E1B53B1}"/>
-    <hyperlink ref="C2" r:id="rId2" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DF58F28A-C0AB-416F-8C71-40A2BAEF333C}"/>
-    <hyperlink ref="C3" r:id="rId3" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DA7CC61C-6AAE-421F-8787-FF3FFEEEC2AC}"/>
-    <hyperlink ref="C4" r:id="rId4" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{329023C2-3A6B-43D7-AEEB-D3EC037D355C}"/>
-    <hyperlink ref="C5" r:id="rId5" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DCE97C82-55B3-42F0-852B-18BAA6201127}"/>
-    <hyperlink ref="C6" r:id="rId6" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{2BACC580-6FC9-4B29-B946-40E5CB295937}"/>
-    <hyperlink ref="C7" r:id="rId7" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{081E6968-DA19-414F-8046-6015F87ADB15}"/>
-    <hyperlink ref="C8" r:id="rId8" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DB6266BE-B085-4A20-B316-DD7D632F457B}"/>
-    <hyperlink ref="C9" r:id="rId9" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{752CF1E0-75D6-49E1-923B-BABE42CF60F9}"/>
-    <hyperlink ref="C11" r:id="rId10" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{80498F71-6095-4ADA-A47A-BFFA3EB2D667}"/>
-    <hyperlink ref="D12" r:id="rId11" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{2699F44E-6F32-47AA-A6B0-95ABB089C7F1}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{34DA70B0-76F3-4D40-8D19-18C69D98D9C6}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{FBA259BC-2277-4813-85C4-E44904FE86D1}"/>
-    <hyperlink ref="G12" r:id="rId14" xr:uid="{57FCA32A-B722-4BED-956F-DCF5BF0AF473}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{BE65505C-0B58-48B7-9600-29A56A11F036}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DA7CC61C-6AAE-421F-8787-FF3FFEEEC2AC}"/>
+    <hyperlink ref="C4" r:id="rId3" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{329023C2-3A6B-43D7-AEEB-D3EC037D355C}"/>
+    <hyperlink ref="C5" r:id="rId4" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DCE97C82-55B3-42F0-852B-18BAA6201127}"/>
+    <hyperlink ref="C6" r:id="rId5" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{2BACC580-6FC9-4B29-B946-40E5CB295937}"/>
+    <hyperlink ref="C7" r:id="rId6" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{081E6968-DA19-414F-8046-6015F87ADB15}"/>
+    <hyperlink ref="C8" r:id="rId7" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{DB6266BE-B085-4A20-B316-DD7D632F457B}"/>
+    <hyperlink ref="C9" r:id="rId8" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{752CF1E0-75D6-49E1-923B-BABE42CF60F9}"/>
+    <hyperlink ref="C11" r:id="rId9" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{80498F71-6095-4ADA-A47A-BFFA3EB2D667}"/>
+    <hyperlink ref="D12" r:id="rId10" display="mailto:CRMTest02@corp.premierinc.com" xr:uid="{2699F44E-6F32-47AA-A6B0-95ABB089C7F1}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{34DA70B0-76F3-4D40-8D19-18C69D98D9C6}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{FBA259BC-2277-4813-85C4-E44904FE86D1}"/>
+    <hyperlink ref="G12" r:id="rId13" xr:uid="{57FCA32A-B722-4BED-956F-DCF5BF0AF473}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{BE65505C-0B58-48B7-9600-29A56A11F036}"/>
+    <hyperlink ref="C2" r:id="rId15" xr:uid="{C0150249-B667-42F5-8CE9-5877243C51D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
@@ -37830,7 +38069,7 @@
         <v>315</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E2" s="70" t="s">
         <v>1291</v>
@@ -37865,7 +38104,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E3" s="70" t="s">
         <v>1291</v>
@@ -37924,16 +38163,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>315</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F4" s="159" t="s">
         <v>1319</v>
@@ -37959,13 +38198,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>315</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>1291</v>
@@ -38069,7 +38308,7 @@
         <v>315</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E2" s="70" t="s">
         <v>1291</v>
@@ -38086,7 +38325,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E3" s="70" t="s">
         <v>1291</v>
@@ -38103,7 +38342,7 @@
         <v>315</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>1291</v>
@@ -41089,8 +41328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:FH140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BS2" sqref="BS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41639,7 +41878,7 @@
         <v>64</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>19</v>
@@ -41663,16 +41902,16 @@
         <v>74</v>
       </c>
       <c r="EY1" s="59" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="EZ1" s="59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="FA1" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="FB1" s="59" t="s">
         <v>1367</v>
-      </c>
-      <c r="FA1" s="59" t="s">
-        <v>1371</v>
-      </c>
-      <c r="FB1" s="59" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="2" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -41683,10 +41922,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="36" t="s">
@@ -41908,7 +42147,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="36" t="s">
@@ -42134,7 +42373,7 @@
         <v>315</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="36" t="s">
@@ -42347,7 +42586,7 @@
         <v>315</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="36" t="s">
@@ -42552,7 +42791,7 @@
         <v>315</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="36" t="s">
@@ -42759,7 +42998,7 @@
         <v>315</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="36" t="s">
@@ -42964,7 +43203,7 @@
         <v>293</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -43179,7 +43418,7 @@
         <v>293</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -43398,7 +43637,7 @@
         <v>315</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="36" t="s">
@@ -43611,7 +43850,7 @@
         <v>315</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="36" t="s">
@@ -43828,7 +44067,7 @@
         <v>315</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="36" t="s">
@@ -44039,7 +44278,7 @@
         <v>315</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="36" t="s">
@@ -44250,7 +44489,7 @@
         <v>315</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="36" t="s">
@@ -44461,7 +44700,7 @@
         <v>315</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="36" t="s">
@@ -44674,7 +44913,7 @@
         <v>315</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="36" t="s">
@@ -44887,7 +45126,7 @@
         <v>315</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -45096,7 +45335,7 @@
         <v>315</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="44"/>
@@ -45317,7 +45556,7 @@
         <v>315</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="36" t="s">
@@ -45624,7 +45863,7 @@
         <v>315</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="36" t="s">
@@ -45837,7 +46076,7 @@
         <v>537</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="49" t="s">
@@ -46000,7 +46239,7 @@
         <v>537</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="49" t="s">
@@ -46163,7 +46402,7 @@
         <v>537</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="49" t="s">
@@ -46326,7 +46565,7 @@
         <v>537</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="49" t="s">
@@ -46489,7 +46728,7 @@
         <v>537</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="49" t="s">
@@ -46654,7 +46893,7 @@
         <v>537</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="49" t="s">
@@ -46819,7 +47058,7 @@
         <v>537</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="36" t="s">
@@ -46998,7 +47237,7 @@
         <v>522</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="50"/>
@@ -47187,7 +47426,7 @@
         <v>315</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="15"/>
@@ -47394,7 +47633,7 @@
         <v>293</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="49" t="s">
@@ -47555,7 +47794,7 @@
         <v>293</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -47752,7 +47991,7 @@
         <v>293</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -47949,7 +48188,7 @@
         <v>293</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -48146,7 +48385,7 @@
         <v>293</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -48343,7 +48582,7 @@
         <v>293</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -48540,7 +48779,7 @@
         <v>293</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -48737,7 +48976,7 @@
         <v>293</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -48936,7 +49175,7 @@
         <v>293</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -49135,7 +49374,7 @@
         <v>293</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -49334,7 +49573,7 @@
         <v>293</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -49537,7 +49776,7 @@
         <v>293</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -49740,7 +49979,7 @@
         <v>293</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -49943,7 +50182,7 @@
         <v>293</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -50146,7 +50385,7 @@
         <v>293</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -50349,7 +50588,7 @@
         <v>293</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -50552,7 +50791,7 @@
         <v>293</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -50757,7 +50996,7 @@
         <v>293</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -50962,7 +51201,7 @@
         <v>293</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -51167,7 +51406,7 @@
         <v>293</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -51364,7 +51603,7 @@
         <v>293</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="44"/>
@@ -51567,7 +51806,7 @@
         <v>293</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="36" t="s">
@@ -51707,7 +51946,7 @@
         <v>293</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E52" s="7"/>
       <c r="J52" s="2" t="s">
@@ -51831,7 +52070,7 @@
         <v>293</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E53" s="7"/>
       <c r="J53" s="2" t="s">
@@ -51938,7 +52177,7 @@
         <v>293</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="79" t="s">
@@ -51976,7 +52215,7 @@
         <v>293</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -52158,7 +52397,7 @@
         <v>293</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="36" t="s">
@@ -52348,7 +52587,7 @@
         <v>293</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -52549,7 +52788,7 @@
         <v>293</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E58" s="4"/>
       <c r="J58" s="2" t="s">
@@ -52751,7 +52990,7 @@
         <v>293</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E59" s="4"/>
       <c r="J59" s="15" t="s">
@@ -52921,7 +53160,7 @@
         <v>293</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="79" t="s">
@@ -53115,7 +53354,7 @@
         <v>293</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
@@ -53315,7 +53554,7 @@
         <v>293</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="36" t="s">
@@ -53470,7 +53709,7 @@
         <v>293</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E63" s="7"/>
       <c r="AI63" s="79" t="s">
@@ -53504,7 +53743,7 @@
         <v>315</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="15"/>
@@ -53700,7 +53939,7 @@
         <v>315</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E65"/>
       <c r="EH65" s="44"/>
@@ -53719,7 +53958,7 @@
         <v>315</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E66"/>
       <c r="K66" s="2" t="s">
@@ -53747,7 +53986,7 @@
         <v>293</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -53966,7 +54205,7 @@
         <v>315</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="15"/>
@@ -54162,7 +54401,7 @@
         <v>293</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E69" s="4"/>
       <c r="J69" s="15" t="s">
@@ -54350,7 +54589,7 @@
         <v>315</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E70" s="32" t="s">
         <v>316</v>
@@ -54543,7 +54782,7 @@
         <v>537</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="50" t="s">
@@ -54744,7 +54983,7 @@
         <v>537</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="50" t="s">
@@ -54955,7 +55194,7 @@
         <v>537</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="50" t="s">
@@ -55116,7 +55355,7 @@
         <v>537</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="50" t="s">
@@ -55275,7 +55514,7 @@
         <v>537</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="50"/>
@@ -55434,7 +55673,7 @@
         <v>537</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="50" t="s">
@@ -55593,7 +55832,7 @@
         <v>537</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="15"/>
@@ -55746,7 +55985,7 @@
         <v>537</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="15"/>
@@ -55899,7 +56138,7 @@
         <v>537</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="36" t="s">
@@ -56058,7 +56297,7 @@
         <v>537</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="36"/>
@@ -56211,7 +56450,7 @@
         <v>537</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="36"/>
@@ -56372,7 +56611,7 @@
         <v>537</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="36"/>
@@ -56533,7 +56772,7 @@
         <v>537</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="36"/>
@@ -56686,7 +56925,7 @@
         <v>537</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E84" s="102" t="s">
         <v>745</v>
@@ -56847,7 +57086,7 @@
         <v>537</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E85" s="102"/>
       <c r="F85" s="36"/>
@@ -57000,7 +57239,7 @@
         <v>537</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E86" s="102"/>
       <c r="F86" s="36"/>
@@ -57153,7 +57392,7 @@
         <v>522</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E87" s="102"/>
       <c r="F87" s="36"/>
@@ -57306,7 +57545,7 @@
         <v>522</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E88" s="102"/>
       <c r="F88" s="36"/>
@@ -57459,7 +57698,7 @@
         <v>522</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="50"/>
@@ -57618,7 +57857,7 @@
         <v>522</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E90" s="102" t="s">
         <v>745</v>
@@ -57781,7 +58020,7 @@
         <v>522</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="36" t="s">
@@ -57942,7 +58181,7 @@
         <v>522</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E92" s="102"/>
       <c r="F92" s="36"/>
@@ -58095,7 +58334,7 @@
         <v>522</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E93" s="102"/>
       <c r="F93" s="36"/>
@@ -58248,7 +58487,7 @@
         <v>522</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E94" s="102"/>
       <c r="F94" s="36"/>
@@ -58401,7 +58640,7 @@
         <v>522</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E95" s="102"/>
       <c r="F95" s="36"/>
@@ -58554,7 +58793,7 @@
         <v>522</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="50" t="s">
@@ -58821,7 +59060,7 @@
         <v>522</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E97" s="44"/>
       <c r="F97" s="50" t="s">
@@ -58978,7 +59217,7 @@
         <v>522</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E98" s="102" t="s">
         <v>796</v>
@@ -59145,7 +59384,7 @@
         <v>522</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E99" s="102" t="s">
         <v>805</v>
@@ -59314,7 +59553,7 @@
         <v>293</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E100" s="32" t="s">
         <v>522</v>
@@ -59483,7 +59722,7 @@
         <v>522</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="36"/>
@@ -59636,7 +59875,7 @@
         <v>522</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="36"/>
@@ -59789,7 +60028,7 @@
         <v>522</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="36"/>
@@ -59944,7 +60183,7 @@
         <v>315</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="36" t="s">
@@ -60103,7 +60342,7 @@
         <v>315</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="36" t="s">
@@ -60262,7 +60501,7 @@
         <v>315</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="36" t="s">
@@ -60419,7 +60658,7 @@
         <v>315</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="36" t="s">
@@ -60578,7 +60817,7 @@
         <v>315</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="36" t="s">
@@ -60735,7 +60974,7 @@
         <v>315</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="36" t="s">
@@ -60892,7 +61131,7 @@
         <v>293</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="36" t="s">
@@ -61051,7 +61290,7 @@
         <v>293</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="36" t="s">
@@ -61210,7 +61449,7 @@
         <v>315</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="36" t="s">
@@ -61369,7 +61608,7 @@
         <v>315</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="36" t="s">
@@ -61528,7 +61767,7 @@
         <v>315</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="36" t="s">
@@ -61685,7 +61924,7 @@
         <v>315</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="36" t="s">
@@ -61842,7 +62081,7 @@
         <v>315</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="36" t="s">
@@ -61999,7 +62238,7 @@
         <v>315</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="36" t="s">
@@ -62156,7 +62395,7 @@
         <v>315</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="36" t="s">
@@ -62315,7 +62554,7 @@
         <v>315</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="36" t="s">
@@ -62474,7 +62713,7 @@
         <v>315</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="36"/>
@@ -62657,7 +62896,7 @@
         <v>293</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="36"/>
@@ -62866,7 +63105,7 @@
         <v>293</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E122" s="32" t="s">
         <v>316</v>
@@ -63029,7 +63268,7 @@
         <v>293</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E123" s="32"/>
       <c r="F123" s="36" t="s">
@@ -63190,7 +63429,7 @@
         <v>293</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="AI124" s="79" t="s">
         <v>920</v>
@@ -63210,7 +63449,7 @@
         <v>293</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>921</v>
@@ -63411,7 +63650,7 @@
         <v>293</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>922</v>
@@ -63600,7 +63839,7 @@
         <v>293</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>923</v>
@@ -63792,7 +64031,7 @@
         <v>293</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>924</v>
@@ -63984,7 +64223,7 @@
         <v>293</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="EA129" s="79" t="s">
         <v>930</v>
@@ -64004,7 +64243,7 @@
         <v>293</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="AI130" s="36" t="s">
         <v>548</v>
@@ -64021,7 +64260,7 @@
         <v>315</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="36" t="s">
@@ -64228,7 +64467,7 @@
         <v>315</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="36" t="s">
@@ -64429,13 +64668,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E133" s="15"/>
       <c r="F133" s="36" t="s">
@@ -64453,13 +64692,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="150" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E134" s="32" t="s">
         <v>316</v>
@@ -64471,7 +64710,7 @@
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
       <c r="J134" s="15" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K134" s="15"/>
       <c r="L134" s="15"/>
@@ -64709,13 +64948,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F135" s="36" t="s">
         <v>934</v>
@@ -64724,7 +64963,7 @@
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="15" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K135" s="15"/>
       <c r="L135" s="15"/>
@@ -64928,13 +65167,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C136" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="137" spans="1:164" x14ac:dyDescent="0.25">
@@ -64942,28 +65181,28 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F137" s="79" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="EY137" s="2" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="EZ137" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="FA137" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="FA137" s="2" t="s">
-        <v>1372</v>
-      </c>
       <c r="FB137" s="2" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="138" spans="1:164" x14ac:dyDescent="0.25">
@@ -64971,16 +65210,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F138" s="79" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="139" spans="1:164" x14ac:dyDescent="0.25">
@@ -64988,22 +65227,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="J139" s="79" t="s">
+        <v>1379</v>
+      </c>
+      <c r="EA139" t="s">
+        <v>1381</v>
+      </c>
+      <c r="ED139" t="s">
         <v>1382</v>
-      </c>
-      <c r="EA139" t="s">
-        <v>1384</v>
-      </c>
-      <c r="ED139" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="140" spans="1:164" x14ac:dyDescent="0.25">
@@ -65011,13 +65250,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F140" s="79" t="s">
         <v>1242</v>
@@ -65091,41 +65330,40 @@
     <hyperlink ref="C20" r:id="rId63" xr:uid="{88DDF8CF-8656-43EC-8392-604FE39635FB}"/>
     <hyperlink ref="C28" r:id="rId64" xr:uid="{DB18DE21-C3FB-40D0-820B-7F4C01DE84C3}"/>
     <hyperlink ref="C29" r:id="rId65" xr:uid="{3F64DDC4-F553-41F8-8AA4-9089AB98F155}"/>
-    <hyperlink ref="C2:C7" r:id="rId66" display="CRMTest02@corp.premierinc.com" xr:uid="{EFB3EAB7-9048-4382-93C1-EB4FB27A3F75}"/>
-    <hyperlink ref="C10:C17" r:id="rId67" display="CRMTest02@corp.premierinc.com" xr:uid="{5E951E68-F759-4A8B-8D5E-74E1DB8FBEB8}"/>
-    <hyperlink ref="C19" r:id="rId68" xr:uid="{3EBA7228-DE62-438A-8E68-E18EF0323C34}"/>
-    <hyperlink ref="DS19" r:id="rId69" xr:uid="{558F1011-DCFF-438E-96B8-7AA96C164068}"/>
-    <hyperlink ref="C121" r:id="rId70" xr:uid="{746EBFB2-151E-40D3-AE55-79B9BC5DED1F}"/>
-    <hyperlink ref="E122" r:id="rId71" xr:uid="{D6AB8FA4-13F3-4E22-9A66-98C0A0525051}"/>
-    <hyperlink ref="C124" r:id="rId72" xr:uid="{6BF8CAF4-B892-4CE6-8DEC-C7F39D884BD8}"/>
-    <hyperlink ref="C125" r:id="rId73" xr:uid="{EC651A7F-4A6B-4DE6-82F3-7DF9CD169926}"/>
-    <hyperlink ref="C126" r:id="rId74" xr:uid="{FB833FFD-8613-4E39-A26D-7E4ACB703464}"/>
-    <hyperlink ref="C127" r:id="rId75" xr:uid="{C5FB9522-A7BF-4171-8F5F-C89826D19296}"/>
-    <hyperlink ref="C128" r:id="rId76" xr:uid="{5DDE73DC-D5AB-45C0-8623-5068DC3782F5}"/>
-    <hyperlink ref="C129" r:id="rId77" xr:uid="{2C3B9E27-09F0-4E99-8879-178C6E517CFE}"/>
-    <hyperlink ref="C130" r:id="rId78" xr:uid="{E15EF213-4A2E-454C-AEC4-2BB9C4F7BD9E}"/>
-    <hyperlink ref="C21" r:id="rId79" xr:uid="{41BDBFA1-19C7-40CF-BE8E-AE28E7384D20}"/>
-    <hyperlink ref="C22" r:id="rId80" xr:uid="{AE8E882E-CD4E-4A8D-8543-E09F9F2CFBDF}"/>
-    <hyperlink ref="C23" r:id="rId81" xr:uid="{DB4B16BD-1CF1-47E3-80FA-4DED7FA29FBA}"/>
-    <hyperlink ref="C24" r:id="rId82" xr:uid="{B6FB9A83-C9BF-4397-87DB-8D77092B7F0F}"/>
-    <hyperlink ref="C25" r:id="rId83" xr:uid="{217128AA-03A3-4F1B-8F80-A4FFCEC825EF}"/>
-    <hyperlink ref="C26" r:id="rId84" xr:uid="{EC17A159-4F9E-46A6-93B9-3EF1DC2BB1FF}"/>
-    <hyperlink ref="C27" r:id="rId85" xr:uid="{D3838068-BA75-4BF3-8EEF-773233102280}"/>
-    <hyperlink ref="C7" r:id="rId86" xr:uid="{D04B27E3-F568-469C-B42E-2B61B4066585}"/>
-    <hyperlink ref="C131" r:id="rId87" xr:uid="{D4070502-49B8-441A-8214-2FC3E287FBDD}"/>
-    <hyperlink ref="C132" r:id="rId88" xr:uid="{A3C66069-98F9-4AB9-B5E9-619DA48CEA31}"/>
-    <hyperlink ref="C133" r:id="rId89" xr:uid="{AFF8A0CC-3893-4D3A-B945-885B6B22C47D}"/>
-    <hyperlink ref="C134" r:id="rId90" xr:uid="{DAF41585-BB7E-4F9B-9CBA-D3E3A5488860}"/>
-    <hyperlink ref="E134" r:id="rId91" xr:uid="{98E39949-68E6-4633-ADAF-E1A7E8280175}"/>
-    <hyperlink ref="C135" r:id="rId92" xr:uid="{7DC3D85D-85A2-4CA4-81C2-BB917732217C}"/>
-    <hyperlink ref="C136" r:id="rId93" xr:uid="{88F93F0C-52AB-470A-A899-2220E09CB6E2}"/>
-    <hyperlink ref="C137" r:id="rId94" xr:uid="{CDD3BDD9-1FE5-4359-A564-7D6B58F2F971}"/>
-    <hyperlink ref="C138" r:id="rId95" xr:uid="{63FAF3ED-2222-451F-AED6-EFA70E060AA3}"/>
-    <hyperlink ref="C139" r:id="rId96" xr:uid="{30ACC8D6-4A74-45DB-8B12-BD8406DED0B2}"/>
-    <hyperlink ref="C140" r:id="rId97" xr:uid="{DF0BA91E-1971-4011-955A-DA31E77816C7}"/>
+    <hyperlink ref="C10:C17" r:id="rId66" display="CRMTest02@corp.premierinc.com" xr:uid="{5E951E68-F759-4A8B-8D5E-74E1DB8FBEB8}"/>
+    <hyperlink ref="C19" r:id="rId67" xr:uid="{3EBA7228-DE62-438A-8E68-E18EF0323C34}"/>
+    <hyperlink ref="DS19" r:id="rId68" xr:uid="{558F1011-DCFF-438E-96B8-7AA96C164068}"/>
+    <hyperlink ref="C121" r:id="rId69" xr:uid="{746EBFB2-151E-40D3-AE55-79B9BC5DED1F}"/>
+    <hyperlink ref="E122" r:id="rId70" xr:uid="{D6AB8FA4-13F3-4E22-9A66-98C0A0525051}"/>
+    <hyperlink ref="C124" r:id="rId71" xr:uid="{6BF8CAF4-B892-4CE6-8DEC-C7F39D884BD8}"/>
+    <hyperlink ref="C125" r:id="rId72" xr:uid="{EC651A7F-4A6B-4DE6-82F3-7DF9CD169926}"/>
+    <hyperlink ref="C126" r:id="rId73" xr:uid="{FB833FFD-8613-4E39-A26D-7E4ACB703464}"/>
+    <hyperlink ref="C127" r:id="rId74" xr:uid="{C5FB9522-A7BF-4171-8F5F-C89826D19296}"/>
+    <hyperlink ref="C128" r:id="rId75" xr:uid="{5DDE73DC-D5AB-45C0-8623-5068DC3782F5}"/>
+    <hyperlink ref="C129" r:id="rId76" xr:uid="{2C3B9E27-09F0-4E99-8879-178C6E517CFE}"/>
+    <hyperlink ref="C130" r:id="rId77" xr:uid="{E15EF213-4A2E-454C-AEC4-2BB9C4F7BD9E}"/>
+    <hyperlink ref="C21" r:id="rId78" xr:uid="{41BDBFA1-19C7-40CF-BE8E-AE28E7384D20}"/>
+    <hyperlink ref="C22" r:id="rId79" xr:uid="{AE8E882E-CD4E-4A8D-8543-E09F9F2CFBDF}"/>
+    <hyperlink ref="C23" r:id="rId80" xr:uid="{DB4B16BD-1CF1-47E3-80FA-4DED7FA29FBA}"/>
+    <hyperlink ref="C24" r:id="rId81" xr:uid="{B6FB9A83-C9BF-4397-87DB-8D77092B7F0F}"/>
+    <hyperlink ref="C25" r:id="rId82" xr:uid="{217128AA-03A3-4F1B-8F80-A4FFCEC825EF}"/>
+    <hyperlink ref="C26" r:id="rId83" xr:uid="{EC17A159-4F9E-46A6-93B9-3EF1DC2BB1FF}"/>
+    <hyperlink ref="C27" r:id="rId84" xr:uid="{D3838068-BA75-4BF3-8EEF-773233102280}"/>
+    <hyperlink ref="C7" r:id="rId85" xr:uid="{D04B27E3-F568-469C-B42E-2B61B4066585}"/>
+    <hyperlink ref="C131" r:id="rId86" xr:uid="{D4070502-49B8-441A-8214-2FC3E287FBDD}"/>
+    <hyperlink ref="C132" r:id="rId87" xr:uid="{A3C66069-98F9-4AB9-B5E9-619DA48CEA31}"/>
+    <hyperlink ref="C133" r:id="rId88" xr:uid="{AFF8A0CC-3893-4D3A-B945-885B6B22C47D}"/>
+    <hyperlink ref="C134" r:id="rId89" xr:uid="{DAF41585-BB7E-4F9B-9CBA-D3E3A5488860}"/>
+    <hyperlink ref="E134" r:id="rId90" xr:uid="{98E39949-68E6-4633-ADAF-E1A7E8280175}"/>
+    <hyperlink ref="C135" r:id="rId91" xr:uid="{7DC3D85D-85A2-4CA4-81C2-BB917732217C}"/>
+    <hyperlink ref="C136" r:id="rId92" xr:uid="{88F93F0C-52AB-470A-A899-2220E09CB6E2}"/>
+    <hyperlink ref="C137" r:id="rId93" xr:uid="{CDD3BDD9-1FE5-4359-A564-7D6B58F2F971}"/>
+    <hyperlink ref="C138" r:id="rId94" xr:uid="{63FAF3ED-2222-451F-AED6-EFA70E060AA3}"/>
+    <hyperlink ref="C139" r:id="rId95" xr:uid="{30ACC8D6-4A74-45DB-8B12-BD8406DED0B2}"/>
+    <hyperlink ref="C140" r:id="rId96" xr:uid="{DF0BA91E-1971-4011-955A-DA31E77816C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
 

--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C212E-37B5-42D0-B2B1-260B0940A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEAF94F-1807-4E0C-B241-3D2221A46F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="5" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10534" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10583" uniqueCount="1526">
   <si>
     <t>Premier1a</t>
   </si>
@@ -4127,9 +4127,6 @@
     <t>9631_EntryFormSubAccProsFirst</t>
   </si>
   <si>
-    <t>2022_08_30_01_45_13</t>
-  </si>
-  <si>
     <t>2022_08_30_01_52_34</t>
   </si>
   <si>
@@ -4217,9 +4214,6 @@
     <t>TFS ID_8800:Cloud - Verify whether invalid date\time error is not thrown on published location type account without TPRD moved to draft</t>
   </si>
   <si>
-    <t>2022_09_02_09_04_36</t>
-  </si>
-  <si>
     <t>TFS ID_8778:Cloud : Verify a Business Partner record can be created and published by a Member Supervisor - Positive case</t>
   </si>
   <si>
@@ -4451,9 +4445,6 @@
     <t>2000513415</t>
   </si>
   <si>
-    <t>https://premierdev1.crm.dynamics.com/main.aspx?appid=0c73db26-7543-ed11-bba3-000d3a53dec8&amp;pagetype=dashboard&amp;type=system&amp;_canOverride=true</t>
-  </si>
-  <si>
     <t>2000552581</t>
   </si>
   <si>
@@ -4598,22 +4589,52 @@
     <t>2022_10_06_06_11_09</t>
   </si>
   <si>
+    <t>7000578028</t>
+  </si>
+  <si>
+    <t>2022_10_06_06_14_35</t>
+  </si>
+  <si>
     <t>2022_10_06_06_19_20</t>
   </si>
   <si>
     <t>2022_10_06_06_24_00</t>
   </si>
   <si>
-    <t>7000578029</t>
-  </si>
-  <si>
-    <t>2022_10_06_06_47_13</t>
-  </si>
-  <si>
-    <t>7000578030</t>
-  </si>
-  <si>
-    <t>2022_10_06_07_00_19</t>
+    <t>2000513433</t>
+  </si>
+  <si>
+    <t>2022_10_21_03_40_12</t>
+  </si>
+  <si>
+    <t>TFS ID_8797:Cloud - Verify whether able to Create Account Name with Length of 160 chars for Member/Non GPO without any Error Message.</t>
+  </si>
+  <si>
+    <t>2022_10_21_06_07_48</t>
+  </si>
+  <si>
+    <t>2000513441</t>
+  </si>
+  <si>
+    <t>1000183990</t>
+  </si>
+  <si>
+    <t>2000141859</t>
+  </si>
+  <si>
+    <t>SdirectParent</t>
+  </si>
+  <si>
+    <t>2000141813</t>
+  </si>
+  <si>
+    <t>2022_10_26_09_19_19</t>
+  </si>
+  <si>
+    <t>2022_10_26_09_32_38</t>
+  </si>
+  <si>
+    <t>2022_10_26_09_48_18</t>
   </si>
 </sst>
 </file>
@@ -4993,7 +5014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5267,6 +5288,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5588,10 +5612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P315"/>
+  <dimension ref="A1:P316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5661,18 +5685,18 @@
         <v>39</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="48" t="s">
-        <v>1464</v>
+      <c r="K2" s="114" t="s">
+        <v>544</v>
       </c>
       <c r="L2" s="106" t="s">
         <v>530</v>
@@ -5695,13 +5719,13 @@
         <v>39</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -5727,13 +5751,13 @@
         <v>39</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -5757,13 +5781,13 @@
         <v>39</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>1457</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>1459</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -5787,10 +5811,10 @@
         <v>39</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -5818,7 +5842,7 @@
         <v>261</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -5846,10 +5870,10 @@
         <v>261</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -5876,7 +5900,7 @@
         <v>261</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -5904,10 +5928,10 @@
         <v>261</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -5934,10 +5958,10 @@
         <v>261</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -7478,10 +7502,10 @@
         <v>39</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
@@ -9092,13 +9116,13 @@
         <v>39</v>
       </c>
       <c r="F132" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
@@ -9122,13 +9146,13 @@
         <v>39</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
@@ -9152,13 +9176,13 @@
         <v>39</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H134" s="21" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
@@ -9182,10 +9206,10 @@
         <v>39</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
@@ -9210,13 +9234,13 @@
         <v>39</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
@@ -9240,13 +9264,13 @@
         <v>39</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="H137" s="21" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
@@ -9270,10 +9294,10 @@
         <v>39</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H138" s="21" t="s">
         <v>102</v>
@@ -9300,13 +9324,13 @@
         <v>39</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="H139" s="21" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
@@ -9330,10 +9354,10 @@
         <v>39</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H140" s="21" t="s">
         <v>112</v>
@@ -9360,10 +9384,10 @@
         <v>39</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H141" s="21" t="s">
         <v>112</v>
@@ -9390,10 +9414,10 @@
         <v>39</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H142" s="21" t="s">
         <v>117</v>
@@ -9420,13 +9444,13 @@
         <v>39</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
@@ -9450,10 +9474,10 @@
         <v>39</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="H144" s="21" t="s">
         <v>129</v>
@@ -9480,10 +9504,10 @@
         <v>39</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
@@ -9508,13 +9532,13 @@
         <v>39</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
@@ -9538,13 +9562,13 @@
         <v>39</v>
       </c>
       <c r="F147" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
@@ -9568,10 +9592,10 @@
         <v>39</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G148" s="24" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="H148" s="24"/>
       <c r="I148" s="24"/>
@@ -9596,10 +9620,10 @@
         <v>39</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G149" s="24" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
@@ -9624,10 +9648,10 @@
         <v>39</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G150" s="24" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="H150" s="24"/>
       <c r="I150" s="24"/>
@@ -9652,10 +9676,10 @@
         <v>39</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G151" s="24" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
@@ -9680,10 +9704,10 @@
         <v>39</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G152" s="24" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
@@ -9708,10 +9732,10 @@
         <v>39</v>
       </c>
       <c r="F153" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G153" s="24" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
@@ -9736,10 +9760,10 @@
         <v>39</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G154" s="24" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="H154" s="24"/>
       <c r="I154" s="24"/>
@@ -9790,10 +9814,10 @@
         <v>39</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G156" s="24" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H156" s="24"/>
       <c r="I156" s="24"/>
@@ -9818,10 +9842,10 @@
         <v>39</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G157" s="24" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H157" s="24"/>
       <c r="I157" s="24"/>
@@ -9846,13 +9870,13 @@
         <v>39</v>
       </c>
       <c r="F158" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="I158" s="24"/>
       <c r="J158" s="24"/>
@@ -9876,10 +9900,10 @@
         <v>39</v>
       </c>
       <c r="F159" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
@@ -9904,10 +9928,10 @@
         <v>39</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
@@ -9932,10 +9956,10 @@
         <v>39</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
@@ -9960,10 +9984,10 @@
         <v>39</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -9988,10 +10012,10 @@
         <v>39</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G163" s="21" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
@@ -10016,10 +10040,10 @@
         <v>39</v>
       </c>
       <c r="F164" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
@@ -10044,10 +10068,10 @@
         <v>39</v>
       </c>
       <c r="F165" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
@@ -10072,10 +10096,10 @@
         <v>39</v>
       </c>
       <c r="F166" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
@@ -10126,10 +10150,10 @@
         <v>39</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
@@ -10145,7 +10169,7 @@
         <v>219</v>
       </c>
       <c r="C169" s="150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" s="30" t="s">
         <v>218</v>
@@ -10154,13 +10178,13 @@
         <v>39</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="H169" s="27" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="I169" s="27"/>
       <c r="J169" s="27"/>
@@ -13103,7 +13127,7 @@
         <v>285</v>
       </c>
       <c r="B290" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C290" s="150" t="s">
         <v>34</v>
@@ -13118,7 +13142,7 @@
         <v>261</v>
       </c>
       <c r="G290" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -13126,7 +13150,7 @@
         <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C291" s="150" t="s">
         <v>34</v>
@@ -13141,7 +13165,7 @@
         <v>261</v>
       </c>
       <c r="G291" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -13184,10 +13208,13 @@
         <v>39</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>261</v>
+        <v>1453</v>
       </c>
       <c r="G293" t="s">
-        <v>1356</v>
+        <v>1515</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -13210,7 +13237,7 @@
         <v>261</v>
       </c>
       <c r="G294" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H294" t="s">
         <v>320</v>
@@ -13221,10 +13248,10 @@
         <v>288</v>
       </c>
       <c r="B295" s="162" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C295" s="150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D295" s="21" t="s">
         <v>26</v>
@@ -13233,10 +13260,10 @@
         <v>39</v>
       </c>
       <c r="F295" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G295" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -13244,7 +13271,7 @@
         <v>289</v>
       </c>
       <c r="B296" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C296" s="150" t="s">
         <v>34</v>
@@ -13264,7 +13291,7 @@
         <v>289</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C297" s="150" t="s">
         <v>34</v>
@@ -13279,7 +13306,7 @@
         <v>261</v>
       </c>
       <c r="G297" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -13287,7 +13314,7 @@
         <v>290</v>
       </c>
       <c r="B298" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C298" s="150" t="s">
         <v>34</v>
@@ -13302,7 +13329,7 @@
         <v>261</v>
       </c>
       <c r="G298" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -13310,7 +13337,7 @@
         <v>291</v>
       </c>
       <c r="B299" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C299" s="150" t="s">
         <v>34</v>
@@ -13325,7 +13352,7 @@
         <v>261</v>
       </c>
       <c r="G299" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -13333,7 +13360,7 @@
         <v>292</v>
       </c>
       <c r="B300" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C300" s="150" t="s">
         <v>34</v>
@@ -13348,7 +13375,7 @@
         <v>261</v>
       </c>
       <c r="G300" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -13356,7 +13383,7 @@
         <v>293</v>
       </c>
       <c r="B301" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C301" s="150" t="s">
         <v>34</v>
@@ -13376,7 +13403,7 @@
         <v>294</v>
       </c>
       <c r="B302" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C302" s="150" t="s">
         <v>34</v>
@@ -13388,10 +13415,10 @@
         <v>39</v>
       </c>
       <c r="F302" s="17" t="s">
-        <v>261</v>
+        <v>1453</v>
       </c>
       <c r="G302" t="s">
-        <v>1386</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -13399,7 +13426,7 @@
         <v>295</v>
       </c>
       <c r="B303" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C303" s="150" t="s">
         <v>34</v>
@@ -13411,10 +13438,10 @@
         <v>39</v>
       </c>
       <c r="F303" s="17" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G303" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -13422,13 +13449,13 @@
         <v>296</v>
       </c>
       <c r="B304" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C304" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D304" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E304" s="17" t="s">
         <v>39</v>
@@ -13437,10 +13464,10 @@
         <v>261</v>
       </c>
       <c r="G304" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H304" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -13448,13 +13475,13 @@
         <v>297</v>
       </c>
       <c r="B305" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C305" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D305" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E305" s="17" t="s">
         <v>39</v>
@@ -13463,7 +13490,7 @@
         <v>261</v>
       </c>
       <c r="G305" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -13471,13 +13498,13 @@
         <v>298</v>
       </c>
       <c r="B306" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C306" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D306" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E306" s="17" t="s">
         <v>39</v>
@@ -13486,7 +13513,7 @@
         <v>261</v>
       </c>
       <c r="G306" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -13494,13 +13521,13 @@
         <v>299</v>
       </c>
       <c r="B307" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C307" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D307" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E307" s="17" t="s">
         <v>39</v>
@@ -13509,7 +13536,7 @@
         <v>261</v>
       </c>
       <c r="G307" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -13517,13 +13544,13 @@
         <v>300</v>
       </c>
       <c r="B308" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C308" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D308" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E308" s="17" t="s">
         <v>39</v>
@@ -13532,10 +13559,10 @@
         <v>261</v>
       </c>
       <c r="G308" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H308" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -13543,13 +13570,13 @@
         <v>301</v>
       </c>
       <c r="B309" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C309" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D309" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E309" s="17" t="s">
         <v>39</v>
@@ -13558,10 +13585,10 @@
         <v>261</v>
       </c>
       <c r="G309" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="H309" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -13569,13 +13596,13 @@
         <v>302</v>
       </c>
       <c r="B310" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C310" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D310" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E310" s="17" t="s">
         <v>39</v>
@@ -13584,10 +13611,10 @@
         <v>261</v>
       </c>
       <c r="G310" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H310" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -13595,13 +13622,13 @@
         <v>303</v>
       </c>
       <c r="B311" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C311" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D311" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E311" s="17" t="s">
         <v>39</v>
@@ -13610,10 +13637,10 @@
         <v>261</v>
       </c>
       <c r="G311" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="H311" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -13621,13 +13648,13 @@
         <v>304</v>
       </c>
       <c r="B312" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C312" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D312" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E312" s="17" t="s">
         <v>39</v>
@@ -13636,10 +13663,10 @@
         <v>261</v>
       </c>
       <c r="G312" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="H312" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -13647,13 +13674,13 @@
         <v>305</v>
       </c>
       <c r="B313" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C313" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D313" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E313" s="17" t="s">
         <v>39</v>
@@ -13662,10 +13689,10 @@
         <v>261</v>
       </c>
       <c r="G313" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="H313" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -13673,13 +13700,13 @@
         <v>306</v>
       </c>
       <c r="B314" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C314" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D314" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E314" s="17" t="s">
         <v>39</v>
@@ -13688,10 +13715,10 @@
         <v>261</v>
       </c>
       <c r="G314" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H314" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -13699,13 +13726,13 @@
         <v>307</v>
       </c>
       <c r="B315" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C315" s="150" t="s">
         <v>34</v>
       </c>
       <c r="D315" s="150" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="E315" s="17" t="s">
         <v>39</v>
@@ -13714,17 +13741,43 @@
         <v>261</v>
       </c>
       <c r="G315" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H315" t="s">
-        <v>1442</v>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="150">
+        <v>308</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C316" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="D316" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E316" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F316" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1518</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{C4DE44B4-9E86-4104-81E3-C93D60F64BE3}"/>
     <hyperlink ref="L2" r:id="rId2" xr:uid="{A4124D5F-F457-4A70-A072-5DFAF5EA33F8}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{2BB29533-B1D1-49BB-A713-5AB4952A740E}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{FB7C01DE-9422-4017-98E6-C7BD717CAFE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -28621,7 +28674,7 @@
         <v>64</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>19</v>
@@ -28645,22 +28698,22 @@
         <v>74</v>
       </c>
       <c r="EY1" s="59" t="s">
+        <v>1362</v>
+      </c>
+      <c r="EZ1" s="59" t="s">
         <v>1363</v>
       </c>
-      <c r="EZ1" s="59" t="s">
-        <v>1364</v>
-      </c>
       <c r="FA1" s="59" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="FB1" s="59" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="FC1" s="59" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="FD1" s="59" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="2" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -28668,13 +28721,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -28682,7 +28735,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -28883,19 +28936,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>316</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="AI3" s="70" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="AK3" s="34" t="s">
         <v>238</v>
@@ -28909,22 +28962,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="EY4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="EZ4" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="5" spans="1:181" x14ac:dyDescent="0.25">
@@ -28932,22 +28985,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="EY5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="EZ5" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="6" spans="1:181" x14ac:dyDescent="0.25">
@@ -28955,20 +29008,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -29015,7 +29068,7 @@
         <v>7</v>
       </c>
       <c r="AI6" s="36" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="34" t="s">
@@ -29188,16 +29241,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -29346,7 +29399,7 @@
       <c r="CO7" s="15"/>
       <c r="CP7" s="15"/>
       <c r="CQ7" s="34" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="CR7" s="44" t="s">
         <v>249</v>
@@ -29442,13 +29495,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -29456,7 +29509,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -29652,10 +29705,10 @@
       <c r="EJ8" s="15"/>
       <c r="EK8" s="15"/>
       <c r="EY8" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="EZ8" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="9" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29663,13 +29716,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -29677,7 +29730,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -29873,10 +29926,10 @@
       <c r="EJ9" s="15"/>
       <c r="EK9" s="15"/>
       <c r="EY9" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="EZ9" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="10" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -29884,13 +29937,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -29898,7 +29951,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -30094,22 +30147,22 @@
       <c r="EJ10" s="15"/>
       <c r="EK10" s="15"/>
       <c r="EY10" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="EZ10" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="FA10" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="FB10" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="FC10" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="FD10" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="11" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30117,13 +30170,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -30131,7 +30184,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -30327,22 +30380,22 @@
       <c r="EJ11" s="15"/>
       <c r="EK11" s="15"/>
       <c r="EY11" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="EZ11" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="FA11" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="FB11" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="FC11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="FD11" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="12" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30350,13 +30403,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -30364,7 +30417,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -30560,22 +30613,22 @@
       <c r="EJ12" s="15"/>
       <c r="EK12" s="15"/>
       <c r="EY12" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="EZ12" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="FA12" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="FB12" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="FC12" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="FD12" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="13" spans="1:181" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -30583,13 +30636,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -30597,7 +30650,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -30793,20 +30846,20 @@
       <c r="EJ13" s="15"/>
       <c r="EK13" s="15"/>
       <c r="EY13" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="EZ13" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="EZ13" s="4" t="s">
-        <v>1366</v>
-      </c>
       <c r="FA13" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="FB13" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="FC13"/>
       <c r="FD13" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -32978,7 +33031,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>293</v>
@@ -33322,7 +33375,7 @@
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>25</v>
@@ -33424,7 +33477,7 @@
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>25</v>
@@ -33529,7 +33582,7 @@
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>25</v>
@@ -33638,7 +33691,7 @@
         <v>316</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>25</v>
@@ -33741,7 +33794,7 @@
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>25</v>
@@ -33850,7 +33903,7 @@
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>25</v>
@@ -33959,7 +34012,7 @@
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>25</v>
@@ -34060,7 +34113,7 @@
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>25</v>
@@ -34173,7 +34226,7 @@
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>25</v>
@@ -34274,7 +34327,7 @@
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>25</v>
@@ -34371,7 +34424,7 @@
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>25</v>
@@ -34480,7 +34533,7 @@
         <v>316</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>25</v>
@@ -34589,7 +34642,7 @@
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>25</v>
@@ -34696,7 +34749,7 @@
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>25</v>
@@ -34857,7 +34910,7 @@
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>25</v>
@@ -34978,7 +35031,7 @@
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>25</v>
@@ -35091,7 +35144,7 @@
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -35196,7 +35249,7 @@
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>25</v>
@@ -35305,7 +35358,7 @@
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>25</v>
@@ -35414,7 +35467,7 @@
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>25</v>
@@ -35523,7 +35576,7 @@
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>25</v>
@@ -35638,7 +35691,7 @@
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>25</v>
@@ -35737,7 +35790,7 @@
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>25</v>
@@ -35851,7 +35904,7 @@
         <v>316</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>25</v>
@@ -35964,7 +36017,7 @@
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>25</v>
@@ -36063,7 +36116,7 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>25</v>
@@ -36154,7 +36207,7 @@
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>25</v>
@@ -36263,7 +36316,7 @@
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>25</v>
@@ -36364,7 +36417,7 @@
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>25</v>
@@ -36457,7 +36510,7 @@
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>25</v>
@@ -36486,7 +36539,7 @@
       <c r="X31" s="60"/>
       <c r="Y31" s="60"/>
       <c r="Z31" s="60" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AA31" s="60"/>
       <c r="AB31" s="60" t="s">
@@ -36558,7 +36611,7 @@
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>25</v>
@@ -36661,7 +36714,7 @@
       </c>
       <c r="D33" s="99"/>
       <c r="E33" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F33" s="96" t="s">
         <v>25</v>
@@ -36754,7 +36807,7 @@
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>25</v>
@@ -36863,7 +36916,7 @@
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>25</v>
@@ -36960,7 +37013,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>25</v>
@@ -37059,7 +37112,7 @@
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>25</v>
@@ -37081,14 +37134,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="162" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>316</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>25</v>
@@ -37101,7 +37154,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="16" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M38" s="50"/>
       <c r="N38" s="13"/>
@@ -37121,7 +37174,7 @@
       <c r="X38" s="60"/>
       <c r="Y38" s="60"/>
       <c r="Z38" s="60" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AA38" s="60"/>
       <c r="AB38" s="60" t="s">
@@ -37186,14 +37239,14 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>316</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>25</v>
@@ -37208,10 +37261,10 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="16" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="P39" s="50" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="S39" s="13" t="s">
         <v>6</v>
@@ -37223,7 +37276,7 @@
         <v>44</v>
       </c>
       <c r="BL39" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="BX39" s="34" t="s">
         <v>238</v>
@@ -37388,7 +37441,7 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="23" t="s">
@@ -37446,7 +37499,7 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="23" t="s">
@@ -37512,7 +37565,7 @@
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
       <c r="H4" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="23" t="s">
@@ -37576,7 +37629,7 @@
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
       <c r="H5" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>481</v>
@@ -37636,7 +37689,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
@@ -37694,7 +37747,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
       <c r="H7" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>481</v>
@@ -37744,7 +37797,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
       <c r="H8" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>481</v>
@@ -37794,7 +37847,7 @@
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
       <c r="H9" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23" t="s">
@@ -37856,7 +37909,7 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23" t="s">
@@ -37922,7 +37975,7 @@
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
       <c r="H11" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -37948,7 +38001,7 @@
         <v>522</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>481</v>
@@ -38069,7 +38122,7 @@
         <v>315</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E2" s="70" t="s">
         <v>1291</v>
@@ -38104,7 +38157,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E3" s="70" t="s">
         <v>1291</v>
@@ -38163,16 +38216,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>315</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F4" s="159" t="s">
         <v>1319</v>
@@ -38198,13 +38251,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>315</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>1291</v>
@@ -38308,7 +38361,7 @@
         <v>315</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E2" s="70" t="s">
         <v>1291</v>
@@ -38325,7 +38378,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E3" s="70" t="s">
         <v>1291</v>
@@ -38342,7 +38395,7 @@
         <v>315</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>1291</v>
@@ -41326,10 +41379,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:FH140"/>
+  <dimension ref="A1:FH141"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41438,7 +41491,7 @@
     <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:159" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
@@ -41878,7 +41931,7 @@
         <v>64</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>19</v>
@@ -41902,19 +41955,22 @@
         <v>74</v>
       </c>
       <c r="EY1" s="59" t="s">
+        <v>1362</v>
+      </c>
+      <c r="EZ1" s="59" t="s">
         <v>1363</v>
       </c>
-      <c r="EZ1" s="59" t="s">
-        <v>1364</v>
-      </c>
       <c r="FA1" s="59" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="FB1" s="59" t="s">
-        <v>1367</v>
+        <v>1366</v>
+      </c>
+      <c r="FC1" s="59" t="s">
+        <v>1521</v>
       </c>
     </row>
-    <row r="2" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -41925,7 +41981,7 @@
         <v>293</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="36" t="s">
@@ -42136,7 +42192,7 @@
       <c r="EW2" s="60"/>
       <c r="EX2" s="60"/>
     </row>
-    <row r="3" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -42147,7 +42203,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="36" t="s">
@@ -42362,7 +42418,7 @@
       <c r="EW3" s="60"/>
       <c r="EX3" s="60"/>
     </row>
-    <row r="4" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -42373,7 +42429,7 @@
         <v>315</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="36" t="s">
@@ -42575,7 +42631,7 @@
       <c r="EJ4" s="15"/>
       <c r="EK4" s="15"/>
     </row>
-    <row r="5" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -42586,7 +42642,7 @@
         <v>315</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="36" t="s">
@@ -42780,7 +42836,7 @@
       <c r="EJ5" s="15"/>
       <c r="EK5" s="15"/>
     </row>
-    <row r="6" spans="1:158" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -42791,7 +42847,7 @@
         <v>315</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="36" t="s">
@@ -42987,7 +43043,7 @@
       <c r="EJ6" s="14"/>
       <c r="EK6" s="14"/>
     </row>
-    <row r="7" spans="1:158" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:159" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -42998,7 +43054,7 @@
         <v>315</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="36" t="s">
@@ -43192,7 +43248,7 @@
       <c r="EJ7" s="14"/>
       <c r="EK7" s="14"/>
     </row>
-    <row r="8" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -43203,7 +43259,7 @@
         <v>293</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -43407,7 +43463,7 @@
       <c r="EJ8" s="15"/>
       <c r="EK8" s="15"/>
     </row>
-    <row r="9" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -43418,7 +43474,7 @@
         <v>293</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -43626,7 +43682,7 @@
       <c r="EJ9" s="15"/>
       <c r="EK9" s="15"/>
     </row>
-    <row r="10" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -43637,7 +43693,7 @@
         <v>315</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="36" t="s">
@@ -43839,7 +43895,7 @@
       <c r="EJ10" s="15"/>
       <c r="EK10" s="15"/>
     </row>
-    <row r="11" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -43850,7 +43906,7 @@
         <v>315</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="36" t="s">
@@ -44056,7 +44112,7 @@
       <c r="EJ11" s="15"/>
       <c r="EK11" s="15"/>
     </row>
-    <row r="12" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -44067,7 +44123,7 @@
         <v>315</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="36" t="s">
@@ -44267,7 +44323,7 @@
       <c r="EJ12" s="15"/>
       <c r="EK12" s="15"/>
     </row>
-    <row r="13" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -44278,7 +44334,7 @@
         <v>315</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="36" t="s">
@@ -44478,7 +44534,7 @@
       <c r="EJ13" s="15"/>
       <c r="EK13" s="15"/>
     </row>
-    <row r="14" spans="1:158" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:159" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -44489,7 +44545,7 @@
         <v>315</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="36" t="s">
@@ -44689,7 +44745,7 @@
       <c r="EJ14" s="15"/>
       <c r="EK14" s="15"/>
     </row>
-    <row r="15" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -44700,7 +44756,7 @@
         <v>315</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="36" t="s">
@@ -44902,7 +44958,7 @@
       <c r="EJ15" s="15"/>
       <c r="EK15" s="15"/>
     </row>
-    <row r="16" spans="1:158" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -44913,7 +44969,7 @@
         <v>315</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="36" t="s">
@@ -45126,7 +45182,7 @@
         <v>315</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -45335,7 +45391,7 @@
         <v>315</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="44"/>
@@ -45556,7 +45612,7 @@
         <v>315</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="36" t="s">
@@ -45863,7 +45919,7 @@
         <v>315</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="36" t="s">
@@ -46076,7 +46132,7 @@
         <v>537</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="49" t="s">
@@ -46239,7 +46295,7 @@
         <v>537</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="49" t="s">
@@ -46402,7 +46458,7 @@
         <v>537</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="49" t="s">
@@ -46565,7 +46621,7 @@
         <v>537</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="49" t="s">
@@ -46728,7 +46784,7 @@
         <v>537</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="49" t="s">
@@ -46893,7 +46949,7 @@
         <v>537</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="49" t="s">
@@ -47058,7 +47114,7 @@
         <v>537</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="36" t="s">
@@ -47237,7 +47293,7 @@
         <v>522</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="50"/>
@@ -47426,7 +47482,7 @@
         <v>315</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="15"/>
@@ -47633,7 +47689,7 @@
         <v>293</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="49" t="s">
@@ -47794,7 +47850,7 @@
         <v>293</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -47991,7 +48047,7 @@
         <v>293</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -48188,7 +48244,7 @@
         <v>293</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -48385,7 +48441,7 @@
         <v>293</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -48582,7 +48638,7 @@
         <v>293</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -48779,7 +48835,7 @@
         <v>293</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -48976,7 +49032,7 @@
         <v>293</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -49175,7 +49231,7 @@
         <v>293</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -49374,7 +49430,7 @@
         <v>293</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -49573,7 +49629,7 @@
         <v>293</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -49776,7 +49832,7 @@
         <v>293</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -49979,7 +50035,7 @@
         <v>293</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -50182,7 +50238,7 @@
         <v>293</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -50385,7 +50441,7 @@
         <v>293</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -50588,7 +50644,7 @@
         <v>293</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -50791,7 +50847,7 @@
         <v>293</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -50996,7 +51052,7 @@
         <v>293</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -51201,7 +51257,7 @@
         <v>293</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -51406,7 +51462,7 @@
         <v>293</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -51603,7 +51659,7 @@
         <v>293</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="44"/>
@@ -51806,7 +51862,7 @@
         <v>293</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="36" t="s">
@@ -51946,7 +52002,7 @@
         <v>293</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E52" s="7"/>
       <c r="J52" s="2" t="s">
@@ -52070,7 +52126,7 @@
         <v>293</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E53" s="7"/>
       <c r="J53" s="2" t="s">
@@ -52177,7 +52233,7 @@
         <v>293</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="79" t="s">
@@ -52215,7 +52271,7 @@
         <v>293</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -52397,7 +52453,7 @@
         <v>293</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="36" t="s">
@@ -52587,7 +52643,7 @@
         <v>293</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -52788,7 +52844,7 @@
         <v>293</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E58" s="4"/>
       <c r="J58" s="2" t="s">
@@ -52990,7 +53046,7 @@
         <v>293</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E59" s="4"/>
       <c r="J59" s="15" t="s">
@@ -53160,7 +53216,7 @@
         <v>293</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="79" t="s">
@@ -53354,7 +53410,7 @@
         <v>293</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
@@ -53554,7 +53610,7 @@
         <v>293</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="36" t="s">
@@ -53709,7 +53765,7 @@
         <v>293</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E63" s="7"/>
       <c r="AI63" s="79" t="s">
@@ -53743,7 +53799,7 @@
         <v>315</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="15"/>
@@ -53939,7 +53995,7 @@
         <v>315</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E65"/>
       <c r="EH65" s="44"/>
@@ -53958,7 +54014,7 @@
         <v>315</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E66"/>
       <c r="K66" s="2" t="s">
@@ -53986,7 +54042,7 @@
         <v>293</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -54205,7 +54261,7 @@
         <v>315</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="15"/>
@@ -54401,7 +54457,7 @@
         <v>293</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E69" s="4"/>
       <c r="J69" s="15" t="s">
@@ -54589,7 +54645,7 @@
         <v>315</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E70" s="32" t="s">
         <v>316</v>
@@ -54782,7 +54838,7 @@
         <v>537</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="50" t="s">
@@ -54983,7 +55039,7 @@
         <v>537</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="50" t="s">
@@ -55194,7 +55250,7 @@
         <v>537</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="50" t="s">
@@ -55355,7 +55411,7 @@
         <v>537</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="50" t="s">
@@ -55514,7 +55570,7 @@
         <v>537</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="50"/>
@@ -55673,7 +55729,7 @@
         <v>537</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="50" t="s">
@@ -55832,7 +55888,7 @@
         <v>537</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="15"/>
@@ -55985,7 +56041,7 @@
         <v>537</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="15"/>
@@ -56138,7 +56194,7 @@
         <v>537</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="36" t="s">
@@ -56297,7 +56353,7 @@
         <v>537</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="36"/>
@@ -56450,7 +56506,7 @@
         <v>537</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="36"/>
@@ -56611,7 +56667,7 @@
         <v>537</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="36"/>
@@ -56772,7 +56828,7 @@
         <v>537</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="36"/>
@@ -56925,7 +56981,7 @@
         <v>537</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E84" s="102" t="s">
         <v>745</v>
@@ -57086,7 +57142,7 @@
         <v>537</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E85" s="102"/>
       <c r="F85" s="36"/>
@@ -57239,7 +57295,7 @@
         <v>537</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E86" s="102"/>
       <c r="F86" s="36"/>
@@ -57392,7 +57448,7 @@
         <v>522</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E87" s="102"/>
       <c r="F87" s="36"/>
@@ -57545,7 +57601,7 @@
         <v>522</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E88" s="102"/>
       <c r="F88" s="36"/>
@@ -57698,7 +57754,7 @@
         <v>522</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="50"/>
@@ -57857,7 +57913,7 @@
         <v>522</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E90" s="102" t="s">
         <v>745</v>
@@ -58020,7 +58076,7 @@
         <v>522</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="36" t="s">
@@ -58181,7 +58237,7 @@
         <v>522</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E92" s="102"/>
       <c r="F92" s="36"/>
@@ -58334,7 +58390,7 @@
         <v>522</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E93" s="102"/>
       <c r="F93" s="36"/>
@@ -58487,7 +58543,7 @@
         <v>522</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E94" s="102"/>
       <c r="F94" s="36"/>
@@ -58640,7 +58696,7 @@
         <v>522</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E95" s="102"/>
       <c r="F95" s="36"/>
@@ -58793,7 +58849,7 @@
         <v>522</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="50" t="s">
@@ -59060,7 +59116,7 @@
         <v>522</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E97" s="44"/>
       <c r="F97" s="50" t="s">
@@ -59217,7 +59273,7 @@
         <v>522</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E98" s="102" t="s">
         <v>796</v>
@@ -59384,7 +59440,7 @@
         <v>522</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E99" s="102" t="s">
         <v>805</v>
@@ -59553,7 +59609,7 @@
         <v>293</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E100" s="32" t="s">
         <v>522</v>
@@ -59722,7 +59778,7 @@
         <v>522</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="36"/>
@@ -59875,7 +59931,7 @@
         <v>522</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="36"/>
@@ -60028,7 +60084,7 @@
         <v>522</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="36"/>
@@ -60183,7 +60239,7 @@
         <v>315</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="36" t="s">
@@ -60342,7 +60398,7 @@
         <v>315</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="36" t="s">
@@ -60501,7 +60557,7 @@
         <v>315</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="36" t="s">
@@ -60658,7 +60714,7 @@
         <v>315</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="36" t="s">
@@ -60817,7 +60873,7 @@
         <v>315</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="36" t="s">
@@ -60974,7 +61030,7 @@
         <v>315</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="36" t="s">
@@ -61131,7 +61187,7 @@
         <v>293</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="36" t="s">
@@ -61290,7 +61346,7 @@
         <v>293</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="36" t="s">
@@ -61449,7 +61505,7 @@
         <v>315</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="36" t="s">
@@ -61608,7 +61664,7 @@
         <v>315</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="36" t="s">
@@ -61767,7 +61823,7 @@
         <v>315</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="36" t="s">
@@ -61924,7 +61980,7 @@
         <v>315</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="36" t="s">
@@ -62081,7 +62137,7 @@
         <v>315</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="36" t="s">
@@ -62238,7 +62294,7 @@
         <v>315</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="36" t="s">
@@ -62395,7 +62451,7 @@
         <v>315</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="36" t="s">
@@ -62554,7 +62610,7 @@
         <v>315</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="36" t="s">
@@ -62713,7 +62769,7 @@
         <v>315</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="36"/>
@@ -62896,7 +62952,7 @@
         <v>293</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="36"/>
@@ -63105,7 +63161,7 @@
         <v>293</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E122" s="32" t="s">
         <v>316</v>
@@ -63268,7 +63324,7 @@
         <v>293</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E123" s="32"/>
       <c r="F123" s="36" t="s">
@@ -63429,7 +63485,7 @@
         <v>293</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="AI124" s="79" t="s">
         <v>920</v>
@@ -63449,7 +63505,7 @@
         <v>293</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>921</v>
@@ -63650,7 +63706,7 @@
         <v>293</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>922</v>
@@ -63839,7 +63895,7 @@
         <v>293</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>923</v>
@@ -64031,7 +64087,7 @@
         <v>293</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>924</v>
@@ -64223,7 +64279,7 @@
         <v>293</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="EA129" s="79" t="s">
         <v>930</v>
@@ -64243,7 +64299,7 @@
         <v>293</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="AI130" s="36" t="s">
         <v>548</v>
@@ -64260,7 +64316,7 @@
         <v>315</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="36" t="s">
@@ -64467,7 +64523,7 @@
         <v>315</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="36" t="s">
@@ -64674,7 +64730,7 @@
         <v>293</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E133" s="15"/>
       <c r="F133" s="36" t="s">
@@ -64698,7 +64754,7 @@
         <v>293</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E134" s="32" t="s">
         <v>316</v>
@@ -64954,7 +65010,7 @@
         <v>293</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F135" s="36" t="s">
         <v>934</v>
@@ -65167,13 +65223,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C136" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="137" spans="1:164" x14ac:dyDescent="0.25">
@@ -65181,28 +65237,28 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F137" s="79" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="EY137" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="EZ137" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="EZ137" s="2" t="s">
-        <v>1366</v>
-      </c>
       <c r="FA137" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="FB137" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="FB137" s="2" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="138" spans="1:164" x14ac:dyDescent="0.25">
@@ -65210,16 +65266,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F138" s="79" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="139" spans="1:164" x14ac:dyDescent="0.25">
@@ -65227,22 +65283,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J139" s="79" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="EA139" t="s">
+        <v>1380</v>
+      </c>
+      <c r="ED139" t="s">
         <v>1381</v>
-      </c>
-      <c r="ED139" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="140" spans="1:164" x14ac:dyDescent="0.25">
@@ -65250,16 +65306,254 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>293</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>1441</v>
+        <v>1439</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>315</v>
       </c>
       <c r="F140" s="79" t="s">
         <v>1242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:164" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="G141" s="36" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H141" s="36" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I141" s="15"/>
+      <c r="J141" s="79" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="O141" s="33"/>
+      <c r="P141" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="R141" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="S141" s="15"/>
+      <c r="T141" s="15"/>
+      <c r="U141" s="15"/>
+      <c r="V141" s="15"/>
+      <c r="W141" s="15"/>
+      <c r="X141" s="15"/>
+      <c r="Y141" s="15"/>
+      <c r="Z141" s="15"/>
+      <c r="AA141" s="15"/>
+      <c r="AB141" s="15"/>
+      <c r="AC141" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD141" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE141" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF141" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG141" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH141" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI141" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="AJ141" s="15"/>
+      <c r="AK141" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL141" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM141" s="34"/>
+      <c r="AN141" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO141" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP141" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ141" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR141" s="15"/>
+      <c r="AS141" s="15"/>
+      <c r="AT141" s="15"/>
+      <c r="AU141" s="15"/>
+      <c r="AV141" s="15"/>
+      <c r="AW141" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX141" s="15"/>
+      <c r="AY141" s="15"/>
+      <c r="AZ141" s="15"/>
+      <c r="BA141" s="15"/>
+      <c r="BB141" s="15"/>
+      <c r="BC141" s="15"/>
+      <c r="BD141" s="15"/>
+      <c r="BE141" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF141" s="15"/>
+      <c r="BG141" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH141" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI141" s="15"/>
+      <c r="BJ141" s="15"/>
+      <c r="BK141" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="BL141" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="BM141" s="15"/>
+      <c r="BN141" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO141" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP141" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ141" s="34"/>
+      <c r="BR141" s="34"/>
+      <c r="BS141" s="34"/>
+      <c r="BT141" s="34"/>
+      <c r="BU141" s="34"/>
+      <c r="BV141" s="34"/>
+      <c r="BW141" s="34"/>
+      <c r="BX141" s="34"/>
+      <c r="BY141" s="34"/>
+      <c r="BZ141" s="34"/>
+      <c r="CA141" s="34"/>
+      <c r="CB141" s="34"/>
+      <c r="CC141" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD141" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="CE141" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF141" s="15"/>
+      <c r="CG141" s="34"/>
+      <c r="CH141" s="34"/>
+      <c r="CI141" s="34"/>
+      <c r="CJ141" s="34"/>
+      <c r="CK141" s="34"/>
+      <c r="CL141" s="34"/>
+      <c r="CM141" s="34"/>
+      <c r="CN141" s="15"/>
+      <c r="CO141" s="15"/>
+      <c r="CP141" s="15"/>
+      <c r="CQ141" s="15"/>
+      <c r="CR141" s="15"/>
+      <c r="CS141" s="15"/>
+      <c r="CT141" s="15"/>
+      <c r="CU141" s="15"/>
+      <c r="CV141" s="15"/>
+      <c r="CW141" s="15"/>
+      <c r="CX141" s="15"/>
+      <c r="CY141" s="15"/>
+      <c r="CZ141" s="15"/>
+      <c r="DA141" s="15"/>
+      <c r="DB141" s="15"/>
+      <c r="DC141" s="15"/>
+      <c r="DD141" s="15"/>
+      <c r="DE141" s="15"/>
+      <c r="DF141" s="15"/>
+      <c r="DG141" s="15"/>
+      <c r="DH141" s="15"/>
+      <c r="DI141" s="15"/>
+      <c r="DJ141" s="15"/>
+      <c r="DK141" s="15"/>
+      <c r="DL141" s="15"/>
+      <c r="DM141" s="15"/>
+      <c r="DN141" s="15"/>
+      <c r="DO141" s="15"/>
+      <c r="DP141" s="15"/>
+      <c r="DQ141" s="15"/>
+      <c r="DR141" s="15"/>
+      <c r="DS141" s="15"/>
+      <c r="DT141" s="15"/>
+      <c r="DU141" s="15"/>
+      <c r="DV141" s="15"/>
+      <c r="DW141" s="15"/>
+      <c r="DX141" s="15"/>
+      <c r="DY141" s="15"/>
+      <c r="DZ141" s="15"/>
+      <c r="EA141" s="15"/>
+      <c r="EB141" s="15"/>
+      <c r="EC141" s="15"/>
+      <c r="ED141" s="15"/>
+      <c r="EE141" s="15"/>
+      <c r="EF141" s="15"/>
+      <c r="EG141" s="87"/>
+      <c r="EH141" s="15"/>
+      <c r="EI141" s="15"/>
+      <c r="EJ141" s="15"/>
+      <c r="EK141" s="15"/>
+      <c r="EL141" s="13"/>
+      <c r="EM141" s="13"/>
+      <c r="EN141" s="13"/>
+      <c r="EO141" s="13"/>
+      <c r="EP141" s="13"/>
+      <c r="EQ141" s="13"/>
+      <c r="ER141" s="50"/>
+      <c r="ES141" s="13"/>
+      <c r="ET141" s="50"/>
+      <c r="EU141" s="60"/>
+      <c r="EV141" s="60"/>
+      <c r="EW141" s="60"/>
+      <c r="EX141" s="60"/>
+      <c r="FC141" s="163" t="s">
+        <v>1522</v>
       </c>
     </row>
   </sheetData>
@@ -65361,9 +65655,11 @@
     <hyperlink ref="C138" r:id="rId94" xr:uid="{63FAF3ED-2222-451F-AED6-EFA70E060AA3}"/>
     <hyperlink ref="C139" r:id="rId95" xr:uid="{30ACC8D6-4A74-45DB-8B12-BD8406DED0B2}"/>
     <hyperlink ref="C140" r:id="rId96" xr:uid="{DF0BA91E-1971-4011-955A-DA31E77816C7}"/>
+    <hyperlink ref="E140" r:id="rId97" xr:uid="{5FBB7032-4E16-48F3-80CC-CDEE12CDE0AE}"/>
+    <hyperlink ref="E141" r:id="rId98" xr:uid="{AA274F4C-C643-4188-9634-B7BF4A0D9D3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId97"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
 
@@ -67178,24 +67474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -67429,25 +67707,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67465,4 +67743,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEAF94F-1807-4E0C-B241-3D2221A46F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D4E05-39A8-4164-AE42-0645AFFFB0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="5" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="2" activeTab="5" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10583" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10591" uniqueCount="1525">
   <si>
     <t>Premier1a</t>
   </si>
@@ -4613,9 +4613,6 @@
     <t>2022_10_21_06_07_48</t>
   </si>
   <si>
-    <t>2000513441</t>
-  </si>
-  <si>
     <t>1000183990</t>
   </si>
   <si>
@@ -4625,16 +4622,16 @@
     <t>SdirectParent</t>
   </si>
   <si>
-    <t>2000141813</t>
-  </si>
-  <si>
-    <t>2022_10_26_09_19_19</t>
-  </si>
-  <si>
-    <t>2022_10_26_09_32_38</t>
-  </si>
-  <si>
-    <t>2022_10_26_09_48_18</t>
+    <t>2022_10_27_10_16_38</t>
+  </si>
+  <si>
+    <t>AB9796</t>
+  </si>
+  <si>
+    <t>2000513446</t>
+  </si>
+  <si>
+    <t>2022_10_27_11_05_09</t>
   </si>
 </sst>
 </file>
@@ -13764,13 +13761,13 @@
         <v>39</v>
       </c>
       <c r="F316" s="17" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G316" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H316" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -41381,8 +41378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:FH141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+    <sheetView tabSelected="1" topLeftCell="ES123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FC141" sqref="FC141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41967,7 +41964,7 @@
         <v>1366</v>
       </c>
       <c r="FC1" s="59" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2" spans="1:159" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -65341,10 +65338,10 @@
         <v>560</v>
       </c>
       <c r="G141" s="36" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H141" s="36" t="s">
         <v>1519</v>
-      </c>
-      <c r="H141" s="36" t="s">
-        <v>1520</v>
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="79" t="s">
@@ -65539,19 +65536,37 @@
       <c r="EI141" s="15"/>
       <c r="EJ141" s="15"/>
       <c r="EK141" s="15"/>
-      <c r="EL141" s="13"/>
+      <c r="EL141" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="EM141" s="13"/>
-      <c r="EN141" s="13"/>
-      <c r="EO141" s="13"/>
+      <c r="EN141" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="EO141" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="EP141" s="13"/>
-      <c r="EQ141" s="13"/>
-      <c r="ER141" s="50"/>
-      <c r="ES141" s="13"/>
-      <c r="ET141" s="50"/>
+      <c r="EQ141" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="ER141" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="ES141" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="ET141" s="50" t="s">
+        <v>83</v>
+      </c>
       <c r="EU141" s="60"/>
-      <c r="EV141" s="60"/>
+      <c r="EV141" s="60" t="s">
+        <v>86</v>
+      </c>
       <c r="EW141" s="60"/>
-      <c r="EX141" s="60"/>
+      <c r="EX141" s="60" t="s">
+        <v>87</v>
+      </c>
       <c r="FC141" s="163" t="s">
         <v>1522</v>
       </c>
@@ -67474,6 +67489,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -67707,25 +67740,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67743,22 +67776,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\Dynamics-CRM-Cloud\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D4E05-39A8-4164-AE42-0645AFFFB0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFF47F-475E-4CE2-B9FC-30CC44F58175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="2" activeTab="5" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10591" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10640" uniqueCount="1531">
   <si>
     <t>Premier1a</t>
   </si>
@@ -4622,9 +4622,6 @@
     <t>SdirectParent</t>
   </si>
   <si>
-    <t>2022_10_27_10_16_38</t>
-  </si>
-  <si>
     <t>AB9796</t>
   </si>
   <si>
@@ -4632,6 +4629,27 @@
   </si>
   <si>
     <t>2022_10_27_11_05_09</t>
+  </si>
+  <si>
+    <t>TFS ID_8802:Cloud - Verify newly added "GPO memberships" in DP should not get cascaded to the "location type children" in draft status.</t>
+  </si>
+  <si>
+    <t>8802_Shipto</t>
+  </si>
+  <si>
+    <t>2022_10_27_02_40_15</t>
+  </si>
+  <si>
+    <t>1000048435</t>
+  </si>
+  <si>
+    <t>2000331034</t>
+  </si>
+  <si>
+    <t>2022_10_28_08_11_41</t>
+  </si>
+  <si>
+    <t>TFS ID_8804:Cloud - Verify User should be able to override "CP and FSP" values and user should not allow to choose "Supplier" as CP or FSP.</t>
   </si>
 </sst>
 </file>
@@ -5609,24 +5627,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:P316"/>
+  <dimension ref="A1:P318"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -8801,9 +8819,11 @@
         <v>39</v>
       </c>
       <c r="F120" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G120" s="104"/>
+        <v>1453</v>
+      </c>
+      <c r="G120" s="104" t="s">
+        <v>1529</v>
+      </c>
       <c r="H120" s="104"/>
       <c r="I120" s="104"/>
       <c r="J120" s="104"/>
@@ -13752,7 +13772,7 @@
         <v>1516</v>
       </c>
       <c r="C316" s="150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D316" s="150" t="s">
         <v>2</v>
@@ -13764,10 +13784,56 @@
         <v>1453</v>
       </c>
       <c r="G316" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="150">
+        <v>309</v>
+      </c>
+      <c r="B317" t="s">
         <v>1524</v>
       </c>
-      <c r="H316" t="s">
-        <v>1523</v>
+      <c r="C317" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D317" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E317" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F317" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="150">
+        <v>310</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C318" s="150" t="s">
+        <v>33</v>
+      </c>
+      <c r="D318" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E318" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F318" s="17" t="s">
+        <v>1455</v>
       </c>
     </row>
   </sheetData>
@@ -15975,7 +16041,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:168" x14ac:dyDescent="0.25">
@@ -18036,7 +18102,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -19524,7 +19590,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="136.0" collapsed="true"/>
+    <col min="2" max="2" width="136" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -20927,7 +20993,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="127" width="60.28515625" collapsed="true"/>
+    <col min="2" max="2" width="60.28515625" style="127" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -23591,7 +23657,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="84.140625" collapsed="true"/>
+    <col min="2" max="2" width="84.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -33062,69 +33128,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="28" max="36" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="54.42578125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="46" max="47" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="51" max="51" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="55" max="56" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="74" max="75" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="36" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="54.42578125" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="29" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="56" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="75" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" x14ac:dyDescent="0.25">
@@ -37329,27 +37395,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="4" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -38419,8 +38485,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" style="152" width="9.140625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" width="9.140625" style="152" collapsed="1"/>
+    <col min="56" max="56" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.25">
@@ -41376,116 +41442,116 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:FH141"/>
+  <dimension ref="A1:FH143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ES123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="FC141" sqref="FC141"/>
+    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="121.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="11.28515625" collapsed="true"/>
-    <col min="7" max="9" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="69.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="36.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="73.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="19" max="20" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="21" max="24" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="4.42578125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="8.0" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="2" width="15.0" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="9.85546875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="50" max="50" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="54" max="56" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="58" max="58" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="61" max="61" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="69" max="80" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="85" max="91" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="18.28515625" collapsed="true"/>
-    <col min="96" max="96" style="2" width="9.140625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="103" max="103" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="106" max="106" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="110" max="110" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="14.140625" collapsed="true"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
-    <col min="115" max="121" style="2" width="9.140625" collapsed="true"/>
-    <col min="122" max="122" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="123" max="130" style="2" width="9.140625" collapsed="true"/>
-    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
-    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="135" max="135" customWidth="true" style="2" width="11.85546875" collapsed="true"/>
-    <col min="136" max="137" style="2" width="9.140625" collapsed="true"/>
-    <col min="138" max="138" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="139" max="140" bestFit="true" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
-    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="38.5703125" collapsed="true"/>
-    <col min="142" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="121" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="73.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="73.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="24" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="27.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="4.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="8" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="24.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15" style="2" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="56" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="24.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="15.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="25.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="28.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="80" width="23.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="85" max="91" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="22.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="18.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="9.140625" style="2" collapsed="1"/>
+    <col min="97" max="97" width="14.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="19.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="14.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="14.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="113" max="113" width="32" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="121" width="9.140625" style="2" collapsed="1"/>
+    <col min="122" max="122" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="130" width="9.140625" style="2" collapsed="1"/>
+    <col min="131" max="131" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="132" max="132" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="11.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="11.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="136" max="137" width="9.140625" style="2" collapsed="1"/>
+    <col min="138" max="138" width="12.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="139" max="140" width="19.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="141" max="141" width="38.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:159" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -65568,7 +65634,254 @@
         <v>87</v>
       </c>
       <c r="FC141" s="163" t="s">
-        <v>1522</v>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="142" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F142" s="79" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G142" s="79" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J142" s="15" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="O142" s="33"/>
+      <c r="P142" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="R142" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="S142" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T142" s="15"/>
+      <c r="U142" s="15"/>
+      <c r="V142" s="15"/>
+      <c r="W142" s="15"/>
+      <c r="X142" s="15"/>
+      <c r="Y142" s="15"/>
+      <c r="Z142" s="15"/>
+      <c r="AA142" s="15"/>
+      <c r="AB142" s="15"/>
+      <c r="AC142" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD142" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE142" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF142" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG142" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH142" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI142" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="AJ142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK142" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL142" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM142" s="34"/>
+      <c r="AN142" s="15"/>
+      <c r="AO142" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP142" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ142" s="15"/>
+      <c r="AR142" s="15"/>
+      <c r="AS142" s="15"/>
+      <c r="AT142" s="15"/>
+      <c r="AU142" s="15"/>
+      <c r="AV142" s="15"/>
+      <c r="AW142" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX142" s="15"/>
+      <c r="AY142" s="15"/>
+      <c r="AZ142" s="15"/>
+      <c r="BA142" s="34"/>
+      <c r="BB142" s="34"/>
+      <c r="BC142" s="34"/>
+      <c r="BD142" s="34"/>
+      <c r="BE142" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF142" s="15"/>
+      <c r="BG142" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH142" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="BI142" s="15"/>
+      <c r="BJ142" s="15"/>
+      <c r="BK142" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="BL142" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="BM142" s="15"/>
+      <c r="BN142" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="BO142" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="BP142" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ142" s="34"/>
+      <c r="BR142" s="34"/>
+      <c r="BS142" s="34"/>
+      <c r="BT142" s="34"/>
+      <c r="BU142" s="34"/>
+      <c r="BV142" s="34"/>
+      <c r="BW142" s="34"/>
+      <c r="BX142" s="34"/>
+      <c r="BY142" s="34"/>
+      <c r="BZ142" s="34"/>
+      <c r="CA142" s="34"/>
+      <c r="CB142" s="34"/>
+      <c r="CC142" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="CD142" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="CE142" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="CF142" s="15"/>
+      <c r="CG142" s="34"/>
+      <c r="CH142" s="34"/>
+      <c r="CI142" s="34"/>
+      <c r="CJ142" s="34"/>
+      <c r="CK142" s="34"/>
+      <c r="CL142" s="34"/>
+      <c r="CM142" s="34"/>
+      <c r="CN142" s="15"/>
+      <c r="CO142" s="15"/>
+      <c r="CP142" s="15"/>
+      <c r="CQ142" s="15"/>
+      <c r="CR142" s="15"/>
+      <c r="CS142" s="15"/>
+      <c r="CT142" s="15"/>
+      <c r="CU142" s="15"/>
+      <c r="CV142" s="15"/>
+      <c r="CW142" s="15"/>
+      <c r="CX142" s="15"/>
+      <c r="CY142" s="15"/>
+      <c r="CZ142" s="15"/>
+      <c r="DA142" s="15"/>
+      <c r="DB142" s="15"/>
+      <c r="DC142" s="15"/>
+      <c r="DD142" s="15"/>
+      <c r="DE142" s="15"/>
+      <c r="DF142" s="15"/>
+      <c r="DG142" s="15"/>
+      <c r="DH142" s="15"/>
+      <c r="DI142" s="15"/>
+      <c r="DJ142" s="15"/>
+      <c r="DK142" s="15"/>
+      <c r="DL142" s="15"/>
+      <c r="DM142" s="15"/>
+      <c r="DN142" s="15"/>
+      <c r="DO142" s="15"/>
+      <c r="DP142" s="15"/>
+      <c r="DQ142" s="15"/>
+      <c r="DR142" s="15"/>
+      <c r="DS142" s="15"/>
+      <c r="DT142" s="15"/>
+      <c r="DU142" s="15"/>
+      <c r="DV142" s="15"/>
+      <c r="DW142" s="15"/>
+      <c r="DX142" s="15"/>
+      <c r="DY142" s="15"/>
+      <c r="DZ142" s="15"/>
+      <c r="EA142" s="15"/>
+      <c r="EB142" s="15"/>
+      <c r="EC142" s="15"/>
+      <c r="ED142" s="15"/>
+      <c r="EE142" s="15"/>
+      <c r="EF142" s="15"/>
+      <c r="EG142" s="87"/>
+      <c r="EH142" s="15"/>
+      <c r="EI142" s="15"/>
+      <c r="EJ142" s="15"/>
+      <c r="EK142" s="15"/>
+      <c r="EL142" s="4"/>
+      <c r="EM142" s="4"/>
+      <c r="EN142" s="4"/>
+      <c r="EO142" s="4"/>
+      <c r="EP142" s="4"/>
+      <c r="EQ142" s="4"/>
+      <c r="ER142" s="4"/>
+      <c r="ES142" s="4"/>
+      <c r="ET142" s="4"/>
+      <c r="EU142" s="4"/>
+      <c r="EV142" s="4"/>
+      <c r="EW142" s="4"/>
+      <c r="EX142" s="4"/>
+      <c r="EY142" s="4"/>
+      <c r="EZ142" s="4"/>
+      <c r="FA142" s="4"/>
+      <c r="FB142" s="4"/>
+      <c r="FC142" s="4"/>
+    </row>
+    <row r="143" spans="1:164" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F143" s="79" t="s">
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -66932,8 +67245,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -67085,9 +67398,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="127" width="53.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" width="53.42578125" style="127" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.25">
@@ -67498,15 +67811,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -67740,6 +68044,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BF8EFB6-861E-4E07-8FE0-B0C68FAC562F}">
   <ds:schemaRefs>
@@ -67751,14 +68064,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC0974DE-324A-423C-B9D7-F4F768EFCB0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67776,4 +68081,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD45B30-098E-4D79-A294-CA56938A6C1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/CRMCloud_Testdata.xlsx
+++ b/data/CRMCloud_Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fahmed2\git\Dynamics_CRM_Cloud_After_Wave1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2210EC1-2C20-4302-A05F-9428F1B9F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5852DC84-AB59-47C3-88B2-1486D606BC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,8 +56,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9E9763B3-5BDA-42CB-861A-E593A8126601}</author>
+    <author>tc={2ADE0C3A-8AF5-4286-98A9-4AD35A668286}</author>
+    <author>tc={2D006D64-C181-4E89-87E9-97E9B39EC3B3}</author>
+    <author>tc={12C9A53E-9491-4BC7-92F2-3C2F878C1EDB}</author>
+    <author>tc={DBD6E5F4-81BB-45ED-BAD5-5A5772D0412E}</author>
+  </authors>
+  <commentList>
+    <comment ref="B133" authorId="0" shapeId="0" xr:uid="{9E9763B3-5BDA-42CB-861A-E593A8126601}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fixed AccountStatusError method locator
+Wave 2 Impact</t>
+      </text>
+    </comment>
+    <comment ref="B139" authorId="1" shapeId="0" xr:uid="{2ADE0C3A-8AF5-4286-98A9-4AD35A668286}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Save method update
+Wave 2 Impact</t>
+      </text>
+    </comment>
+    <comment ref="B145" authorId="2" shapeId="0" xr:uid="{2D006D64-C181-4E89-87E9-97E9B39EC3B3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Start Date locator update</t>
+      </text>
+    </comment>
+    <comment ref="B147" authorId="3" shapeId="0" xr:uid="{12C9A53E-9491-4BC7-92F2-3C2F878C1EDB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Save method update
+Wave 2 update</t>
+      </text>
+    </comment>
+    <comment ref="B152" authorId="4" shapeId="0" xr:uid="{DBD6E5F4-81BB-45ED-BAD5-5A5772D0412E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    AccountStatusError method
+Wave 2 Update</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10642" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10656" uniqueCount="1540">
   <si>
     <t>Auditorium/Museum</t>
   </si>
@@ -4445,105 +4503,9 @@
     <t>2022_10_06_01_53_17</t>
   </si>
   <si>
-    <t>2000552586</t>
-  </si>
-  <si>
-    <t>2022_10_06_02_33_29</t>
-  </si>
-  <si>
-    <t>2000552587</t>
-  </si>
-  <si>
-    <t>2022_10_06_02_39_28</t>
-  </si>
-  <si>
-    <t>2022_10_06_02_42_52</t>
-  </si>
-  <si>
-    <t>2000552589</t>
-  </si>
-  <si>
-    <t>2022_10_06_02_48_49</t>
-  </si>
-  <si>
-    <t>2000552591</t>
-  </si>
-  <si>
-    <t>2022_10_06_02_54_57</t>
-  </si>
-  <si>
-    <t>2022_10_06_03_00_16</t>
-  </si>
-  <si>
-    <t>2000552592</t>
-  </si>
-  <si>
-    <t>2022_10_06_03_06_16</t>
-  </si>
-  <si>
-    <t>2022_10_06_03_13_07</t>
-  </si>
-  <si>
-    <t>2022_10_06_03_19_58</t>
-  </si>
-  <si>
-    <t>2022_10_06_03_26_19</t>
-  </si>
-  <si>
     <t>2000141844</t>
   </si>
   <si>
-    <t>2022_10_06_03_36_58</t>
-  </si>
-  <si>
-    <t>2022_10_06_03_43_17</t>
-  </si>
-  <si>
-    <t>2022_10_06_03_56_47</t>
-  </si>
-  <si>
-    <t>2000552599</t>
-  </si>
-  <si>
-    <t>2022_10_06_04_05_21</t>
-  </si>
-  <si>
-    <t>2000552604</t>
-  </si>
-  <si>
-    <t>2022_10_06_04_31_31</t>
-  </si>
-  <si>
-    <t>2022_10_06_04_35_19</t>
-  </si>
-  <si>
-    <t>2022_10_06_04_39_18</t>
-  </si>
-  <si>
-    <t>2022_10_06_04_43_17</t>
-  </si>
-  <si>
-    <t>2022_10_06_04_50_48</t>
-  </si>
-  <si>
-    <t>2022_10_06_04_55_08</t>
-  </si>
-  <si>
-    <t>2022_10_06_05_00_16</t>
-  </si>
-  <si>
-    <t>2022_10_06_05_07_46</t>
-  </si>
-  <si>
-    <t>2022_10_06_05_14_19</t>
-  </si>
-  <si>
-    <t>2022_10_06_05_17_48</t>
-  </si>
-  <si>
-    <t>2022_10_06_05_19_59</t>
-  </si>
-  <si>
     <t>2000552610</t>
   </si>
   <si>
@@ -4643,13 +4605,136 @@
     <t>Premier@2023</t>
   </si>
   <si>
-    <t>2000513492</t>
-  </si>
-  <si>
-    <t>2023_01_12_02_19_13</t>
-  </si>
-  <si>
     <t>2023_01_12_02_22_28</t>
+  </si>
+  <si>
+    <t>2000513493</t>
+  </si>
+  <si>
+    <t>2023_01_25_04_31_35</t>
+  </si>
+  <si>
+    <t>2000513495</t>
+  </si>
+  <si>
+    <t>2023_01_25_04_44_29</t>
+  </si>
+  <si>
+    <t>2000513496</t>
+  </si>
+  <si>
+    <t>2023_01_25_04_53_21</t>
+  </si>
+  <si>
+    <t>2000513497</t>
+  </si>
+  <si>
+    <t>2023_01_25_04_59_12</t>
+  </si>
+  <si>
+    <t>2000513498</t>
+  </si>
+  <si>
+    <t>2023_01_25_05_05_13</t>
+  </si>
+  <si>
+    <t>2023_01_25_05_10_27</t>
+  </si>
+  <si>
+    <t>2023_01_25_05_23_39</t>
+  </si>
+  <si>
+    <t>2023_01_25_05_30_24</t>
+  </si>
+  <si>
+    <t>2023_01_25_05_36_39</t>
+  </si>
+  <si>
+    <t>2023_01_25_05_47_06</t>
+  </si>
+  <si>
+    <t>2023_01_25_05_53_20</t>
+  </si>
+  <si>
+    <t>2000513501</t>
+  </si>
+  <si>
+    <t>2023_01_25_06_10_14</t>
+  </si>
+  <si>
+    <t>2023_01_25_07_11_01</t>
+  </si>
+  <si>
+    <t>2023_01_25_07_20_11</t>
+  </si>
+  <si>
+    <t>2023_01_25_07_33_06</t>
+  </si>
+  <si>
+    <t>2023_01_25_07_38_53</t>
+  </si>
+  <si>
+    <t>2000516675</t>
+  </si>
+  <si>
+    <t>2023_02_06_12_41_21</t>
+  </si>
+  <si>
+    <t>2000516676</t>
+  </si>
+  <si>
+    <t>2023_02_06_12_47_10</t>
+  </si>
+  <si>
+    <t>2023_02_06_01_27_19</t>
+  </si>
+  <si>
+    <t>2023_02_06_01_31_15</t>
+  </si>
+  <si>
+    <t>2023_02_06_01_34_46</t>
+  </si>
+  <si>
+    <t>2023_02_06_01_38_27</t>
+  </si>
+  <si>
+    <t>2023_02_06_01_42_22</t>
+  </si>
+  <si>
+    <t>2023_02_06_01_45_47</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>2000516692</t>
+  </si>
+  <si>
+    <t>2023_02_06_03_39_48</t>
+  </si>
+  <si>
+    <t>membershipStartDate</t>
+  </si>
+  <si>
+    <t>https://premierdev1.crm.dynamics.com/main.aspx?appid=0c73db26-7543-ed11-bba3-000d3a53dec8</t>
+  </si>
+  <si>
+    <t>2023_02_07_09_58_00</t>
+  </si>
+  <si>
+    <t>2023_02_07_10_05_49</t>
+  </si>
+  <si>
+    <t>2023_02_07_10_09_43</t>
+  </si>
+  <si>
+    <t>2023_02_07_10_13_10</t>
+  </si>
+  <si>
+    <t>2023_02_07_10_20_38</t>
+  </si>
+  <si>
+    <t>2023_02_07_10_24_05</t>
   </si>
 </sst>
 </file>
@@ -4659,7 +4744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4808,6 +4893,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -5029,7 +5120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5273,6 +5364,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5295,6 +5391,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ahmed, Faridhah" id="{B1BBCB29-9FA8-4741-9F60-171F0BB7CD77}" userId="S::Faridhah_Ahmed@premierinc.com::409dd5eb-547b-4f5b-8713-16f490e0d942" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5586,32 +5688,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B133" dT="2023-02-06T08:49:05.78" personId="{B1BBCB29-9FA8-4741-9F60-171F0BB7CD77}" id="{9E9763B3-5BDA-42CB-861A-E593A8126601}">
+    <text>Fixed AccountStatusError method locator
+Wave 2 Impact</text>
+  </threadedComment>
+  <threadedComment ref="B139" dT="2023-02-06T08:55:02.35" personId="{B1BBCB29-9FA8-4741-9F60-171F0BB7CD77}" id="{2ADE0C3A-8AF5-4286-98A9-4AD35A668286}">
+    <text>Save method update
+Wave 2 Impact</text>
+  </threadedComment>
+  <threadedComment ref="B145" dT="2023-02-07T16:30:55.26" personId="{B1BBCB29-9FA8-4741-9F60-171F0BB7CD77}" id="{2D006D64-C181-4E89-87E9-97E9B39EC3B3}">
+    <text>Start Date locator update</text>
+  </threadedComment>
+  <threadedComment ref="B147" dT="2023-02-06T08:58:25.74" personId="{B1BBCB29-9FA8-4741-9F60-171F0BB7CD77}" id="{12C9A53E-9491-4BC7-92F2-3C2F878C1EDB}">
+    <text>Save method update
+Wave 2 update</text>
+  </threadedComment>
+  <threadedComment ref="B152" dT="2023-02-06T09:00:54.98" personId="{B1BBCB29-9FA8-4741-9F60-171F0BB7CD77}" id="{DBD6E5F4-81BB-45ED-BAD5-5A5772D0412E}">
+    <text>AccountStatusError method
+Wave 2 Update</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:P318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="132.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="46" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="132.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -5678,7 +5804,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="106" t="s">
-        <v>543</v>
+        <v>1533</v>
       </c>
       <c r="L2" s="99" t="s">
         <v>529</v>
@@ -5711,7 +5837,7 @@
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="23"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="106" t="s">
         <v>543</v>
       </c>
@@ -5744,7 +5870,9 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="104"/>
+      <c r="L4" s="106" t="s">
+        <v>1533</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -7487,7 +7615,7 @@
         <v>1451</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>1492</v>
+        <v>1517</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -8789,7 +8917,7 @@
         <v>1451</v>
       </c>
       <c r="G120" s="97" t="s">
-        <v>1525</v>
+        <v>1493</v>
       </c>
       <c r="H120" s="97"/>
       <c r="I120" s="97"/>
@@ -9068,10 +9196,10 @@
         <v>1451</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>1529</v>
+        <v>1498</v>
       </c>
       <c r="H132" s="19" t="s">
-        <v>1528</v>
+        <v>1497</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
@@ -9085,7 +9213,7 @@
       <c r="B133" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="C133" s="134" t="s">
+      <c r="C133" s="141" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="19" t="s">
@@ -9095,13 +9223,13 @@
         <v>38</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>1463</v>
+        <v>1520</v>
       </c>
       <c r="H133" s="19" t="s">
-        <v>1462</v>
+        <v>1519</v>
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="19"/>
@@ -9128,10 +9256,10 @@
         <v>1451</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>1465</v>
+        <v>1500</v>
       </c>
       <c r="H134" s="19" t="s">
-        <v>1464</v>
+        <v>1499</v>
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="19"/>
@@ -9155,12 +9283,14 @@
         <v>38</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H135" s="19"/>
+        <v>1502</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>1501</v>
+      </c>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
       <c r="K135" s="20"/>
@@ -9186,10 +9316,10 @@
         <v>1451</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>1468</v>
+        <v>1504</v>
       </c>
       <c r="H136" s="19" t="s">
-        <v>1467</v>
+        <v>1503</v>
       </c>
       <c r="I136" s="19"/>
       <c r="J136" s="19"/>
@@ -9201,7 +9331,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>94</v>
+        <v>1529</v>
       </c>
       <c r="C137" s="134" t="s">
         <v>33</v>
@@ -9216,10 +9346,10 @@
         <v>1451</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>1470</v>
+        <v>1506</v>
       </c>
       <c r="H137" s="19" t="s">
-        <v>1469</v>
+        <v>1505</v>
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="19"/>
@@ -9243,10 +9373,10 @@
         <v>38</v>
       </c>
       <c r="F138" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>1471</v>
+        <v>1507</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>101</v>
@@ -9263,7 +9393,7 @@
       <c r="B139" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C139" s="134" t="s">
+      <c r="C139" s="141" t="s">
         <v>33</v>
       </c>
       <c r="D139" s="19" t="s">
@@ -9276,10 +9406,10 @@
         <v>1451</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>1473</v>
+        <v>1522</v>
       </c>
       <c r="H139" s="19" t="s">
-        <v>1472</v>
+        <v>1521</v>
       </c>
       <c r="I139" s="19"/>
       <c r="J139" s="19"/>
@@ -9306,7 +9436,7 @@
         <v>1451</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>1474</v>
+        <v>1508</v>
       </c>
       <c r="H140" s="19" t="s">
         <v>111</v>
@@ -9336,7 +9466,7 @@
         <v>1451</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>1475</v>
+        <v>1509</v>
       </c>
       <c r="H141" s="19" t="s">
         <v>111</v>
@@ -9366,7 +9496,7 @@
         <v>1451</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>1476</v>
+        <v>1510</v>
       </c>
       <c r="H142" s="19" t="s">
         <v>116</v>
@@ -9393,13 +9523,13 @@
         <v>38</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>1478</v>
+        <v>1511</v>
       </c>
       <c r="H143" s="19" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="I143" s="19"/>
       <c r="J143" s="19"/>
@@ -9426,7 +9556,7 @@
         <v>1451</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>1479</v>
+        <v>1512</v>
       </c>
       <c r="H144" s="19" t="s">
         <v>128</v>
@@ -9443,7 +9573,7 @@
       <c r="B145" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C145" s="134" t="s">
+      <c r="C145" s="141" t="s">
         <v>33</v>
       </c>
       <c r="D145" s="19" t="s">
@@ -9453,10 +9583,10 @@
         <v>38</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>1480</v>
+        <v>1534</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -9481,13 +9611,13 @@
         <v>38</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>1482</v>
+        <v>1514</v>
       </c>
       <c r="H146" s="19" t="s">
-        <v>1481</v>
+        <v>1513</v>
       </c>
       <c r="I146" s="19"/>
       <c r="J146" s="19"/>
@@ -9501,7 +9631,7 @@
       <c r="B147" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="C147" s="134" t="s">
+      <c r="C147" s="141" t="s">
         <v>33</v>
       </c>
       <c r="D147" s="19" t="s">
@@ -9514,10 +9644,10 @@
         <v>1451</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>1484</v>
+        <v>1531</v>
       </c>
       <c r="H147" s="19" t="s">
-        <v>1483</v>
+        <v>1530</v>
       </c>
       <c r="I147" s="19"/>
       <c r="J147" s="19"/>
@@ -9531,8 +9661,8 @@
       <c r="B148" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C148" s="134" t="s">
-        <v>33</v>
+      <c r="C148" s="141" t="s">
+        <v>32</v>
       </c>
       <c r="D148" s="19" t="s">
         <v>25</v>
@@ -9544,7 +9674,7 @@
         <v>1453</v>
       </c>
       <c r="G148" s="22" t="s">
-        <v>1485</v>
+        <v>1535</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="22"/>
@@ -9559,8 +9689,8 @@
       <c r="B149" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="C149" s="134" t="s">
-        <v>33</v>
+      <c r="C149" s="141" t="s">
+        <v>32</v>
       </c>
       <c r="D149" s="19" t="s">
         <v>25</v>
@@ -9572,7 +9702,7 @@
         <v>1453</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>1486</v>
+        <v>1536</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="22"/>
@@ -9587,8 +9717,8 @@
       <c r="B150" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="C150" s="134" t="s">
-        <v>33</v>
+      <c r="C150" s="141" t="s">
+        <v>32</v>
       </c>
       <c r="D150" s="19" t="s">
         <v>25</v>
@@ -9600,7 +9730,7 @@
         <v>1453</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>1487</v>
+        <v>1537</v>
       </c>
       <c r="H150" s="22"/>
       <c r="I150" s="22"/>
@@ -9615,7 +9745,7 @@
       <c r="B151" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="C151" s="134" t="s">
+      <c r="C151" s="142" t="s">
         <v>33</v>
       </c>
       <c r="D151" s="19" t="s">
@@ -9628,7 +9758,7 @@
         <v>1451</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>1488</v>
+        <v>1515</v>
       </c>
       <c r="H151" s="22"/>
       <c r="I151" s="22"/>
@@ -9643,7 +9773,7 @@
       <c r="B152" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C152" s="134" t="s">
+      <c r="C152" s="141" t="s">
         <v>33</v>
       </c>
       <c r="D152" s="19" t="s">
@@ -9653,10 +9783,10 @@
         <v>38</v>
       </c>
       <c r="F152" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>1489</v>
+        <v>1526</v>
       </c>
       <c r="H152" s="22"/>
       <c r="I152" s="22"/>
@@ -9671,7 +9801,7 @@
       <c r="B153" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="C153" s="134" t="s">
+      <c r="C153" s="142" t="s">
         <v>33</v>
       </c>
       <c r="D153" s="19" t="s">
@@ -9684,7 +9814,7 @@
         <v>1451</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>1490</v>
+        <v>1516</v>
       </c>
       <c r="H153" s="22"/>
       <c r="I153" s="22"/>
@@ -9699,8 +9829,8 @@
       <c r="B154" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="C154" s="134" t="s">
-        <v>33</v>
+      <c r="C154" s="141" t="s">
+        <v>32</v>
       </c>
       <c r="D154" s="19" t="s">
         <v>25</v>
@@ -9712,7 +9842,7 @@
         <v>1453</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>1491</v>
+        <v>1538</v>
       </c>
       <c r="H154" s="22"/>
       <c r="I154" s="22"/>
@@ -9727,7 +9857,7 @@
       <c r="B155" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="C155" s="134" t="s">
+      <c r="C155" s="142" t="s">
         <v>33</v>
       </c>
       <c r="D155" s="17" t="s">
@@ -9753,8 +9883,8 @@
       <c r="B156" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="C156" s="134" t="s">
-        <v>33</v>
+      <c r="C156" s="141" t="s">
+        <v>32</v>
       </c>
       <c r="D156" s="19" t="s">
         <v>25</v>
@@ -9766,7 +9896,7 @@
         <v>1453</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>1493</v>
+        <v>1539</v>
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="22"/>
@@ -9781,7 +9911,7 @@
       <c r="B157" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="C157" s="134" t="s">
+      <c r="C157" s="142" t="s">
         <v>33</v>
       </c>
       <c r="D157" s="19" t="s">
@@ -9794,7 +9924,7 @@
         <v>1451</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>1494</v>
+        <v>1518</v>
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="22"/>
@@ -9822,10 +9952,10 @@
         <v>1451</v>
       </c>
       <c r="G158" s="22" t="s">
-        <v>1496</v>
+        <v>1464</v>
       </c>
       <c r="H158" s="22" t="s">
-        <v>1495</v>
+        <v>1463</v>
       </c>
       <c r="I158" s="22"/>
       <c r="J158" s="22"/>
@@ -9852,7 +9982,7 @@
         <v>1453</v>
       </c>
       <c r="G159" s="19" t="s">
-        <v>1497</v>
+        <v>1465</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -9880,7 +10010,7 @@
         <v>1453</v>
       </c>
       <c r="G160" s="19" t="s">
-        <v>1498</v>
+        <v>1466</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -9908,7 +10038,7 @@
         <v>1451</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>1499</v>
+        <v>1467</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -9936,7 +10066,7 @@
         <v>1453</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>1500</v>
+        <v>1468</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -9964,7 +10094,7 @@
         <v>1453</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>1501</v>
+        <v>1469</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -9992,7 +10122,7 @@
         <v>1453</v>
       </c>
       <c r="G164" s="19" t="s">
-        <v>1502</v>
+        <v>1470</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -10020,7 +10150,7 @@
         <v>1453</v>
       </c>
       <c r="G165" s="19" t="s">
-        <v>1503</v>
+        <v>1471</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -10048,7 +10178,7 @@
         <v>1451</v>
       </c>
       <c r="G166" s="19" t="s">
-        <v>1504</v>
+        <v>1472</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -10102,7 +10232,7 @@
         <v>1453</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>1505</v>
+        <v>1473</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -10130,10 +10260,10 @@
         <v>1453</v>
       </c>
       <c r="G169" s="24" t="s">
-        <v>1507</v>
+        <v>1475</v>
       </c>
       <c r="H169" s="24" t="s">
-        <v>1506</v>
+        <v>1474</v>
       </c>
       <c r="I169" s="24"/>
       <c r="J169" s="24"/>
@@ -13048,10 +13178,10 @@
         <v>1451</v>
       </c>
       <c r="G293" t="s">
-        <v>1511</v>
+        <v>1479</v>
       </c>
       <c r="H293" t="s">
-        <v>1510</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -13100,7 +13230,7 @@
         <v>1453</v>
       </c>
       <c r="G295" t="s">
-        <v>1508</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -13255,7 +13385,7 @@
         <v>1451</v>
       </c>
       <c r="G302" t="s">
-        <v>1513</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -13278,7 +13408,7 @@
         <v>1453</v>
       </c>
       <c r="G303" t="s">
-        <v>1509</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -13589,7 +13719,7 @@
         <v>308</v>
       </c>
       <c r="B316" t="s">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="C316" s="134" t="s">
         <v>33</v>
@@ -13604,10 +13734,10 @@
         <v>1451</v>
       </c>
       <c r="G316" t="s">
-        <v>1519</v>
+        <v>1487</v>
       </c>
       <c r="H316" t="s">
-        <v>1518</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -13615,7 +13745,7 @@
         <v>309</v>
       </c>
       <c r="B317" t="s">
-        <v>1520</v>
+        <v>1488</v>
       </c>
       <c r="C317" s="134" t="s">
         <v>33</v>
@@ -13630,7 +13760,7 @@
         <v>1453</v>
       </c>
       <c r="G317" t="s">
-        <v>1522</v>
+        <v>1490</v>
       </c>
       <c r="H317" t="s">
         <v>319</v>
@@ -13641,10 +13771,10 @@
         <v>310</v>
       </c>
       <c r="B318" t="s">
-        <v>1526</v>
+        <v>1494</v>
       </c>
       <c r="C318" s="134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D318" s="134" t="s">
         <v>1</v>
@@ -13656,17 +13786,19 @@
         <v>1453</v>
       </c>
       <c r="G318" t="s">
-        <v>1530</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{C4DE44B4-9E86-4104-81E3-C93D60F64BE3}"/>
     <hyperlink ref="L2" r:id="rId2" xr:uid="{A4124D5F-F457-4A70-A072-5DFAF5EA33F8}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{FB7C01DE-9422-4017-98E6-C7BD717CAFE1}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{F49D7E23-795A-4061-804A-B03622A7F7EB}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{1A5FE52F-F7E9-4099-83CE-00B9210E2FDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -13717,7 +13849,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="64" t="s">
         <v>1276</v>
@@ -13743,7 +13875,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="64" t="s">
         <v>1276</v>
@@ -14214,7 +14346,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="46" t="s">
@@ -14383,7 +14515,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="15"/>
@@ -14622,7 +14754,7 @@
         <v>314</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="15"/>
@@ -14853,7 +14985,7 @@
         <v>314</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>1069</v>
@@ -15076,7 +15208,7 @@
         <v>314</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>1071</v>
@@ -15264,7 +15396,7 @@
         <v>314</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>1073</v>
@@ -15451,7 +15583,7 @@
         <v>314</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="41"/>
@@ -15650,7 +15782,7 @@
         <v>314</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="41"/>
@@ -15864,7 +15996,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="136.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="136.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:168" x14ac:dyDescent="0.25">
@@ -16296,7 +16428,7 @@
         <v>1094</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15"/>
@@ -16528,7 +16660,7 @@
         <v>1094</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="15"/>
@@ -16731,7 +16863,7 @@
         <v>292</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="7"/>
       <c r="J4" s="2" t="s">
@@ -16784,7 +16916,7 @@
         <v>314</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -16974,7 +17106,7 @@
         <v>292</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F6" s="72" t="s">
         <v>924</v>
@@ -17429,7 +17561,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="33" t="s">
@@ -17591,7 +17723,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="33" t="s">
@@ -17753,7 +17885,7 @@
         <v>314</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="33" t="s">
@@ -17925,8 +18057,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -18379,7 +18511,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -18552,7 +18684,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -18725,7 +18857,7 @@
         <v>314</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -18898,7 +19030,7 @@
         <v>314</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -19071,7 +19203,7 @@
         <v>314</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>1084</v>
@@ -19236,7 +19368,7 @@
         <v>314</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>1086</v>
@@ -19414,8 +19546,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="136" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="136.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -19854,7 +19986,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>933</v>
@@ -20037,7 +20169,7 @@
         <v>292</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F3" s="64" t="s">
         <v>933</v>
@@ -20220,7 +20352,7 @@
         <v>292</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>1053</v>
@@ -20363,7 +20495,7 @@
         <v>292</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>1054</v>
@@ -20506,7 +20638,7 @@
         <v>292</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J6" s="123" t="s">
         <v>1056</v>
@@ -20649,10 +20781,10 @@
         <v>315</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>24</v>
@@ -20823,7 +20955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.28515625" style="115" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="115" width="60.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -21262,7 +21394,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="44" t="s">
@@ -21471,7 +21603,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -21678,7 +21810,7 @@
         <v>292</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -21885,7 +22017,7 @@
         <v>292</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -22092,7 +22224,7 @@
         <v>292</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -22299,7 +22431,7 @@
         <v>292</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -22506,7 +22638,7 @@
         <v>292</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>1035</v>
@@ -22705,7 +22837,7 @@
         <v>292</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>1039</v>
@@ -22854,7 +22986,7 @@
         <v>292</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>1041</v>
@@ -23030,7 +23162,7 @@
         <v>292</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>1043</v>
@@ -23206,7 +23338,7 @@
         <v>314</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="38" t="s">
@@ -23438,7 +23570,7 @@
         <v>315</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>526</v>
@@ -23458,7 +23590,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>526</v>
@@ -23487,7 +23619,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="84.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:141" x14ac:dyDescent="0.25">
@@ -23926,7 +24058,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="33" t="s">
@@ -24135,7 +24267,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="33" t="s">
@@ -24344,7 +24476,7 @@
         <v>314</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -24519,7 +24651,7 @@
         <v>314</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -24728,7 +24860,7 @@
         <v>314</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -24937,7 +25069,7 @@
         <v>314</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -25146,7 +25278,7 @@
         <v>314</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -25355,7 +25487,7 @@
         <v>314</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -25511,7 +25643,7 @@
         <v>314</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -25667,7 +25799,7 @@
         <v>314</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -25849,7 +25981,7 @@
         <v>314</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -26031,7 +26163,7 @@
         <v>314</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -26213,7 +26345,7 @@
         <v>314</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="33" t="s">
@@ -26422,7 +26554,7 @@
         <v>314</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -26609,7 +26741,7 @@
         <v>314</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -26796,7 +26928,7 @@
         <v>314</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -26983,7 +27115,7 @@
         <v>314</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>972</v>
@@ -27164,7 +27296,7 @@
         <v>314</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>972</v>
@@ -27345,7 +27477,7 @@
         <v>314</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>972</v>
@@ -27526,7 +27658,7 @@
         <v>314</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>972</v>
@@ -27705,7 +27837,7 @@
         <v>292</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F22" s="72" t="s">
         <v>924</v>
@@ -27889,7 +28021,7 @@
         <v>314</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="33" t="s">
@@ -28618,7 +28750,7 @@
         <v>292</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -28833,7 +28965,7 @@
         <v>315</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>1398</v>
@@ -28859,7 +28991,7 @@
         <v>292</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F4" s="64" t="s">
         <v>1399</v>
@@ -28882,7 +29014,7 @@
         <v>292</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>1399</v>
@@ -28905,7 +29037,7 @@
         <v>292</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="15"/>
@@ -29138,7 +29270,7 @@
         <v>292</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>1389</v>
@@ -29392,7 +29524,7 @@
         <v>292</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -29613,7 +29745,7 @@
         <v>292</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -29834,7 +29966,7 @@
         <v>292</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -30067,7 +30199,7 @@
         <v>292</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -30300,7 +30432,7 @@
         <v>292</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -30533,7 +30665,7 @@
         <v>292</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -31184,7 +31316,7 @@
         <v>314</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="33"/>
@@ -31410,7 +31542,7 @@
         <v>314</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="33"/>
@@ -31603,7 +31735,7 @@
         <v>314</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="33"/>
@@ -31789,7 +31921,7 @@
         <v>314</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>1002</v>
@@ -31969,7 +32101,7 @@
         <v>314</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>1004</v>
@@ -32149,7 +32281,7 @@
         <v>314</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -32358,7 +32490,7 @@
         <v>314</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>1008</v>
@@ -32375,7 +32507,7 @@
         <v>292</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>1010</v>
@@ -32565,7 +32697,7 @@
         <v>292</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>933</v>
@@ -32748,7 +32880,7 @@
         <v>292</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>1016</v>
@@ -32928,7 +33060,7 @@
         <v>292</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
     </row>
   </sheetData>
@@ -32948,80 +33080,80 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:BY39"/>
+  <dimension ref="A1:BZ39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="36" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="54.42578125" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="47.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="29" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="56" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="75" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="28" max="36" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="54.42578125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="49" max="50" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="56" max="57" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="4.140625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="75" max="76" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -33170,91 +33302,94 @@
         <v>201</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="BX1" s="52" t="s">
+      <c r="BY1" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -33266,7 +33401,7 @@
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>24</v>
@@ -33355,8 +33490,9 @@
       <c r="BU2" s="13"/>
       <c r="BV2" s="13"/>
       <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -33368,7 +33504,7 @@
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>24</v>
@@ -33460,8 +33596,9 @@
       <c r="BU3" s="13"/>
       <c r="BV3" s="13"/>
       <c r="BW3" s="13"/>
+      <c r="BX3" s="13"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -33473,7 +33610,7 @@
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>24</v>
@@ -33567,8 +33704,9 @@
       <c r="BU4" s="13"/>
       <c r="BV4" s="13"/>
       <c r="BW4" s="13"/>
+      <c r="BX4" s="13"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -33582,7 +33720,7 @@
         <v>315</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>24</v>
@@ -33672,8 +33810,9 @@
       <c r="BU5" s="13"/>
       <c r="BV5" s="13"/>
       <c r="BW5" s="13"/>
+      <c r="BX5" s="13"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -33685,7 +33824,7 @@
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>24</v>
@@ -33781,8 +33920,9 @@
       <c r="BU6" s="13"/>
       <c r="BV6" s="13"/>
       <c r="BW6" s="13"/>
+      <c r="BX6" s="13"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -33794,7 +33934,7 @@
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>24</v>
@@ -33890,8 +34030,9 @@
       <c r="BU7" s="13"/>
       <c r="BV7" s="13"/>
       <c r="BW7" s="13"/>
+      <c r="BX7" s="13"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -33903,7 +34044,7 @@
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>24</v>
@@ -33991,8 +34132,9 @@
       <c r="BU8" s="13"/>
       <c r="BV8" s="13"/>
       <c r="BW8" s="13"/>
+      <c r="BX8" s="13"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -34004,7 +34146,7 @@
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>24</v>
@@ -34104,8 +34246,9 @@
       <c r="BU9" s="13"/>
       <c r="BV9" s="13"/>
       <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -34117,7 +34260,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>24</v>
@@ -34205,8 +34348,9 @@
       <c r="BU10" s="13"/>
       <c r="BV10" s="13"/>
       <c r="BW10" s="13"/>
+      <c r="BX10" s="13"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -34218,7 +34362,7 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>24</v>
@@ -34302,8 +34446,9 @@
       <c r="BU11" s="13"/>
       <c r="BV11" s="13"/>
       <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -34315,7 +34460,7 @@
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>24</v>
@@ -34409,8 +34554,9 @@
       <c r="BU12" s="13"/>
       <c r="BV12" s="13"/>
       <c r="BW12" s="13"/>
+      <c r="BX12" s="13"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -34424,7 +34570,7 @@
         <v>315</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>24</v>
@@ -34520,8 +34666,9 @@
       <c r="BU13" s="13"/>
       <c r="BV13" s="13"/>
       <c r="BW13" s="13"/>
+      <c r="BX13" s="13"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -34533,7 +34680,7 @@
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>24</v>
@@ -34627,8 +34774,9 @@
       <c r="BU14" s="13"/>
       <c r="BV14" s="13"/>
       <c r="BW14" s="13"/>
+      <c r="BX14" s="13"/>
     </row>
-    <row r="15" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -34640,7 +34788,7 @@
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>24</v>
@@ -34727,48 +34875,46 @@
       <c r="AZ15" s="22"/>
       <c r="BA15" s="22"/>
       <c r="BB15" s="22"/>
-      <c r="BC15" s="22" t="s">
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="BD15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE15" s="58" t="s">
+      <c r="BE15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF15" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="BF15" s="22" t="s">
+      <c r="BG15" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="BG15" s="22" t="s">
+      <c r="BH15" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="BH15" s="22" t="s">
+      <c r="BI15" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="BI15" s="22" t="s">
+      <c r="BJ15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BJ15" s="22" t="s">
+      <c r="BK15" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="BK15" s="22" t="s">
+      <c r="BL15" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="BL15" s="22" t="s">
+      <c r="BM15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="BM15" s="57" t="s">
+      <c r="BN15" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="BN15" s="57" t="s">
+      <c r="BO15" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="BO15" s="59" t="s">
+      <c r="BP15" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="BP15" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="BQ15" s="22" t="s">
         <v>33</v>
       </c>
@@ -34776,20 +34922,23 @@
         <v>33</v>
       </c>
       <c r="BS15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT15" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="BT15" s="60" t="s">
+      <c r="BU15" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="BU15" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="BV15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="BW15" s="22"/>
+      <c r="BW15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX15" s="22"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -34801,7 +34950,7 @@
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>24</v>
@@ -34874,21 +35023,23 @@
       <c r="AV16" s="13"/>
       <c r="AW16" s="13"/>
       <c r="AX16" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY16" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="AY16" s="61" t="s">
+      <c r="AZ16" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="AZ16" s="61" t="s">
+      <c r="BA16" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="BA16" s="31" t="s">
+      <c r="BB16" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BB16" s="61" t="s">
+      <c r="BC16" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="BC16" s="13"/>
       <c r="BD16" s="13"/>
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
@@ -34909,8 +35060,9 @@
       <c r="BU16" s="13"/>
       <c r="BV16" s="13"/>
       <c r="BW16" s="13"/>
+      <c r="BX16" s="13"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -34922,7 +35074,7 @@
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>24</v>
@@ -35022,8 +35174,9 @@
       <c r="BU17" s="13"/>
       <c r="BV17" s="13"/>
       <c r="BW17" s="13"/>
+      <c r="BX17" s="13"/>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -35035,7 +35188,7 @@
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -35093,20 +35246,20 @@
       </c>
       <c r="AV18" s="13"/>
       <c r="AW18" s="13"/>
-      <c r="AX18" s="31" t="s">
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="61" t="s">
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="BA18" s="47" t="s">
+      <c r="BB18" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="BB18" s="61" t="s">
+      <c r="BC18" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="BC18" s="13"/>
       <c r="BD18" s="13"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
@@ -35127,8 +35280,9 @@
       <c r="BU18" s="13"/>
       <c r="BV18" s="13"/>
       <c r="BW18" s="13"/>
+      <c r="BX18" s="13"/>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -35140,7 +35294,7 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>24</v>
@@ -35200,22 +35354,22 @@
       <c r="AU19" s="13"/>
       <c r="AV19" s="13"/>
       <c r="AW19" s="13"/>
-      <c r="AX19" s="31" t="s">
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="AY19" s="61" t="s">
+      <c r="AZ19" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="AZ19" s="61" t="s">
+      <c r="BA19" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="BA19" s="31" t="s">
+      <c r="BB19" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="BB19" s="61" t="s">
+      <c r="BC19" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="BC19" s="13"/>
       <c r="BD19" s="13"/>
       <c r="BE19" s="13"/>
       <c r="BF19" s="13"/>
@@ -35236,8 +35390,9 @@
       <c r="BU19" s="13"/>
       <c r="BV19" s="13"/>
       <c r="BW19" s="13"/>
+      <c r="BX19" s="13"/>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -35249,7 +35404,7 @@
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>24</v>
@@ -35309,22 +35464,22 @@
       <c r="AU20" s="13"/>
       <c r="AV20" s="13"/>
       <c r="AW20" s="13"/>
-      <c r="AX20" s="31" t="s">
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="AY20" s="61" t="s">
+      <c r="AZ20" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="AZ20" s="61" t="s">
+      <c r="BA20" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="BA20" s="31" t="s">
+      <c r="BB20" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="BB20" s="61" t="s">
+      <c r="BC20" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="BC20" s="13"/>
       <c r="BD20" s="13"/>
       <c r="BE20" s="13"/>
       <c r="BF20" s="13"/>
@@ -35345,8 +35500,9 @@
       <c r="BU20" s="13"/>
       <c r="BV20" s="13"/>
       <c r="BW20" s="13"/>
+      <c r="BX20" s="13"/>
     </row>
-    <row r="21" spans="1:75" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:76" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -35358,7 +35514,7 @@
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>24</v>
@@ -35454,8 +35610,9 @@
       <c r="BU21" s="13"/>
       <c r="BV21" s="13"/>
       <c r="BW21" s="13"/>
+      <c r="BX21" s="13"/>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -35467,7 +35624,7 @@
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>24</v>
@@ -35537,18 +35694,18 @@
       <c r="AU22" s="13"/>
       <c r="AV22" s="13"/>
       <c r="AW22" s="13"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="61" t="s">
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="AZ22" s="61" t="s">
+      <c r="BA22" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="BA22" s="31" t="s">
+      <c r="BB22" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BB22" s="61"/>
-      <c r="BC22" s="13"/>
+      <c r="BC22" s="61"/>
       <c r="BD22" s="13"/>
       <c r="BE22" s="13"/>
       <c r="BF22" s="13"/>
@@ -35569,8 +35726,9 @@
       <c r="BU22" s="13"/>
       <c r="BV22" s="13"/>
       <c r="BW22" s="13"/>
+      <c r="BX22" s="13"/>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -35582,7 +35740,7 @@
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>24</v>
@@ -35668,8 +35826,9 @@
       <c r="BU23" s="13"/>
       <c r="BV23" s="13"/>
       <c r="BW23" s="13"/>
+      <c r="BX23" s="13"/>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -35681,7 +35840,7 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>24</v>
@@ -35751,18 +35910,18 @@
       <c r="AU24" s="13"/>
       <c r="AV24" s="13"/>
       <c r="AW24" s="13"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="61" t="s">
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="AZ24" s="61" t="s">
+      <c r="BA24" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="BA24" s="31" t="s">
+      <c r="BB24" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="BB24" s="61"/>
-      <c r="BC24" s="13"/>
+      <c r="BC24" s="61"/>
       <c r="BD24" s="13"/>
       <c r="BE24" s="13"/>
       <c r="BF24" s="13"/>
@@ -35783,8 +35942,9 @@
       <c r="BU24" s="13"/>
       <c r="BV24" s="13"/>
       <c r="BW24" s="13"/>
+      <c r="BX24" s="13"/>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" s="75">
         <v>24</v>
       </c>
@@ -35795,7 +35955,7 @@
         <v>315</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>24</v>
@@ -35895,8 +36055,9 @@
       <c r="BU25" s="13"/>
       <c r="BV25" s="13"/>
       <c r="BW25" s="13"/>
+      <c r="BX25" s="13"/>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -35908,7 +36069,7 @@
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>24</v>
@@ -35968,12 +36129,12 @@
       <c r="AU26" s="13"/>
       <c r="AV26" s="13"/>
       <c r="AW26" s="13"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="61"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="31"/>
       <c r="AZ26" s="61"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="61"/>
-      <c r="BC26" s="13"/>
+      <c r="BA26" s="61"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="61"/>
       <c r="BD26" s="13"/>
       <c r="BE26" s="13"/>
       <c r="BF26" s="13"/>
@@ -35991,11 +36152,12 @@
       <c r="BR26" s="13"/>
       <c r="BS26" s="13"/>
       <c r="BT26" s="13"/>
-      <c r="BU26" s="90"/>
-      <c r="BV26" s="13"/>
+      <c r="BU26" s="13"/>
+      <c r="BV26" s="90"/>
       <c r="BW26" s="13"/>
+      <c r="BX26" s="13"/>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -36007,7 +36169,7 @@
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>24</v>
@@ -36059,12 +36221,12 @@
       <c r="AU27" s="13"/>
       <c r="AV27" s="13"/>
       <c r="AW27" s="13"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="61"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="31"/>
       <c r="AZ27" s="61"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="61"/>
-      <c r="BC27" s="13"/>
+      <c r="BA27" s="61"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="61"/>
       <c r="BD27" s="13"/>
       <c r="BE27" s="13"/>
       <c r="BF27" s="13"/>
@@ -36082,11 +36244,12 @@
       <c r="BR27" s="13"/>
       <c r="BS27" s="13"/>
       <c r="BT27" s="13"/>
-      <c r="BU27" s="90"/>
-      <c r="BV27" s="13"/>
+      <c r="BU27" s="13"/>
+      <c r="BV27" s="90"/>
       <c r="BW27" s="13"/>
+      <c r="BX27" s="13"/>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -36098,7 +36261,7 @@
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>24</v>
@@ -36191,11 +36354,12 @@
       <c r="BR28" s="13"/>
       <c r="BS28" s="13"/>
       <c r="BT28" s="13"/>
-      <c r="BU28" s="90"/>
-      <c r="BV28" s="13"/>
+      <c r="BU28" s="13"/>
+      <c r="BV28" s="90"/>
       <c r="BW28" s="13"/>
+      <c r="BX28" s="13"/>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -36207,7 +36371,7 @@
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>24</v>
@@ -36292,11 +36456,12 @@
       <c r="BR29" s="13"/>
       <c r="BS29" s="13"/>
       <c r="BT29" s="13"/>
-      <c r="BU29" s="90"/>
-      <c r="BV29" s="13"/>
+      <c r="BU29" s="13"/>
+      <c r="BV29" s="90"/>
       <c r="BW29" s="13"/>
+      <c r="BX29" s="13"/>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -36308,7 +36473,7 @@
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>24</v>
@@ -36385,11 +36550,12 @@
       <c r="BR30" s="13"/>
       <c r="BS30" s="13"/>
       <c r="BT30" s="13"/>
-      <c r="BU30" s="90"/>
-      <c r="BV30" s="13"/>
+      <c r="BU30" s="13"/>
+      <c r="BV30" s="90"/>
       <c r="BW30" s="13"/>
+      <c r="BX30" s="13"/>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -36401,7 +36567,7 @@
       </c>
       <c r="D31" s="29"/>
       <c r="E31" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>24</v>
@@ -36486,11 +36652,12 @@
       <c r="BR31" s="13"/>
       <c r="BS31" s="13"/>
       <c r="BT31" s="13"/>
-      <c r="BU31" s="90"/>
-      <c r="BV31" s="13"/>
+      <c r="BU31" s="13"/>
+      <c r="BV31" s="90"/>
       <c r="BW31" s="13"/>
+      <c r="BX31" s="13"/>
     </row>
-    <row r="32" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -36502,7 +36669,7 @@
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>24</v>
@@ -36589,11 +36756,12 @@
       <c r="BR32" s="13"/>
       <c r="BS32" s="13"/>
       <c r="BT32" s="13"/>
-      <c r="BU32" s="90"/>
-      <c r="BV32" s="13"/>
+      <c r="BU32" s="13"/>
+      <c r="BV32" s="90"/>
       <c r="BW32" s="13"/>
+      <c r="BX32" s="13"/>
     </row>
-    <row r="33" spans="1:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
         <v>31</v>
       </c>
@@ -36605,7 +36773,7 @@
       </c>
       <c r="D33" s="92"/>
       <c r="E33" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F33" s="89" t="s">
         <v>24</v>
@@ -36682,11 +36850,12 @@
       <c r="BR33" s="89"/>
       <c r="BS33" s="89"/>
       <c r="BT33" s="89"/>
-      <c r="BU33" s="93"/>
-      <c r="BV33" s="89"/>
+      <c r="BU33" s="89"/>
+      <c r="BV33" s="93"/>
       <c r="BW33" s="89"/>
+      <c r="BX33" s="89"/>
     </row>
-    <row r="34" spans="1:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -36698,7 +36867,7 @@
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>24</v>
@@ -36794,8 +36963,9 @@
       <c r="BU34" s="13"/>
       <c r="BV34" s="13"/>
       <c r="BW34" s="13"/>
+      <c r="BX34" s="13"/>
     </row>
-    <row r="35" spans="1:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -36807,7 +36977,7 @@
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>24</v>
@@ -36891,8 +37061,9 @@
       <c r="BU35" s="13"/>
       <c r="BV35" s="13"/>
       <c r="BW35" s="13"/>
+      <c r="BX35" s="13"/>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -36904,7 +37075,7 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>24</v>
@@ -36965,10 +37136,10 @@
       <c r="AZ36" s="13"/>
       <c r="BA36" s="13"/>
       <c r="BB36" s="13"/>
-      <c r="BC36" s="13" t="s">
+      <c r="BC36" s="13"/>
+      <c r="BD36" s="13" t="s">
         <v>903</v>
       </c>
-      <c r="BD36" s="13"/>
       <c r="BE36" s="13"/>
       <c r="BF36" s="13"/>
       <c r="BG36" s="13"/>
@@ -36987,11 +37158,12 @@
       <c r="BT36" s="13"/>
       <c r="BU36" s="13"/>
       <c r="BV36" s="13"/>
-      <c r="BW36" s="44" t="s">
+      <c r="BW36" s="13"/>
+      <c r="BX36" s="44" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A37" s="75">
         <v>36</v>
       </c>
@@ -37003,7 +37175,7 @@
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>24</v>
@@ -37020,7 +37192,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A38" s="75">
         <v>37</v>
       </c>
@@ -37032,7 +37204,7 @@
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>24</v>
@@ -37121,11 +37293,12 @@
       <c r="BR38" s="13"/>
       <c r="BS38" s="13"/>
       <c r="BT38" s="13"/>
-      <c r="BU38" s="90"/>
-      <c r="BV38" s="13"/>
+      <c r="BU38" s="13"/>
+      <c r="BV38" s="90"/>
       <c r="BW38" s="13"/>
+      <c r="BX38" s="13"/>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A39" s="75">
         <v>38</v>
       </c>
@@ -37137,7 +37310,7 @@
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="45" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>24</v>
@@ -37163,23 +37336,23 @@
       <c r="T39" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="BI39" t="s">
+      <c r="BJ39" t="s">
         <v>43</v>
       </c>
-      <c r="BL39" t="s">
+      <c r="BM39" t="s">
         <v>1390</v>
       </c>
-      <c r="BX39" s="31" t="s">
-        <v>237</v>
-      </c>
       <c r="BY39" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ39" s="31" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="BO15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
+    <hyperlink ref="BP15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
     <hyperlink ref="L16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{FF16DD97-346A-4225-BC3D-2B29DC0692AC}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{ACF13532-E1B9-4113-A37E-4DB2B94E9569}"/>
@@ -37226,27 +37399,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="65.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="73.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -37335,7 +37508,7 @@
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
       <c r="H2" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="21" t="s">
@@ -37393,7 +37566,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="21" t="s">
@@ -37459,7 +37632,7 @@
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
       <c r="H4" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="21" t="s">
@@ -37523,7 +37696,7 @@
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>480</v>
@@ -37583,7 +37756,7 @@
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
       <c r="H6" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="21" t="s">
@@ -37641,7 +37814,7 @@
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>480</v>
@@ -37691,7 +37864,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>480</v>
@@ -37741,7 +37914,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
@@ -37803,7 +37976,7 @@
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
@@ -37869,7 +38042,7 @@
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
@@ -37895,7 +38068,7 @@
         <v>521</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>480</v>
@@ -38016,7 +38189,7 @@
         <v